--- a/0.1- PLANIFIKAZIOA/TSB EGUNEROKOA.xlsx
+++ b/0.1- PLANIFIKAZIOA/TSB EGUNEROKOA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikaltamirapaag2\Desktop\ERRONKA TSB RETURNS\0.1- PLANIFIKAZIOA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikaltamirapaag2\Documents\GitHub\ERRONKA-TSB-RETURNS\0.1- PLANIFIKAZIOA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12312"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Planifikazioa" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="40">
   <si>
     <t>ENTREGA</t>
   </si>
@@ -183,7 +183,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -908,6 +908,41 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -927,15 +962,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
@@ -966,32 +992,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1485,34 +1485,34 @@
   <dimension ref="A1:Y855"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.44140625" style="15"/>
-    <col min="6" max="6" width="20.44140625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="31.77734375" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="15"/>
-    <col min="9" max="9" width="22.88671875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="27.6640625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14.42578125" style="15"/>
+    <col min="6" max="6" width="20.42578125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="15"/>
+    <col min="9" max="9" width="22.85546875" style="15" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="34.799999999999997" x14ac:dyDescent="0.7">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:25" ht="23.25">
+      <c r="A1" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
       <c r="G1" s="16"/>
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
-      <c r="J1" s="43"/>
+      <c r="J1" s="58"/>
       <c r="K1" s="2"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1529,19 +1529,19 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="34.799999999999997" x14ac:dyDescent="1.2">
-      <c r="A2" s="68" t="s">
+    <row r="2" spans="1:25" ht="23.25">
+      <c r="A2" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="44"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1558,17 +1558,17 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="45"/>
+    <row r="3" spans="1:25" ht="60" customHeight="1" thickBot="1">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="60"/>
       <c r="K3" s="2"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1585,7 +1585,7 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:25" ht="12.75">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1612,18 +1612,18 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A5" s="72" t="s">
+    <row r="5" spans="1:25" ht="18.75" thickBot="1">
+      <c r="A5" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
       <c r="J5" s="6"/>
       <c r="K5" s="2"/>
       <c r="L5" s="1"/>
@@ -1641,22 +1641,22 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A6" s="64" t="s">
+    <row r="6" spans="1:25" ht="13.5" thickBot="1">
+      <c r="A6" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="67" t="s">
+      <c r="B6" s="77"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="67" t="s">
+      <c r="E6" s="77"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="65"/>
-      <c r="I6" s="66"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="78"/>
       <c r="J6" s="42" t="s">
         <v>17</v>
       </c>
@@ -1676,22 +1676,22 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="74" t="s">
+    <row r="7" spans="1:25" ht="14.45" customHeight="1">
+      <c r="A7" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="74" t="s">
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="74" t="s">
+      <c r="E7" s="53"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="75"/>
-      <c r="I7" s="76"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54"/>
       <c r="J7" s="39" t="s">
         <v>21</v>
       </c>
@@ -1711,20 +1711,20 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="77" t="s">
+    <row r="8" spans="1:25" ht="13.9" customHeight="1">
+      <c r="A8" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="77" t="s">
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="78"/>
-      <c r="I8" s="79"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="57"/>
       <c r="J8" s="40" t="s">
         <v>23</v>
       </c>
@@ -1744,20 +1744,20 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="50" t="s">
+    <row r="9" spans="1:25" ht="13.9" customHeight="1" thickBot="1">
+      <c r="A9" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="50" t="s">
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="52"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="45"/>
       <c r="J9" s="41" t="s">
         <v>25</v>
       </c>
@@ -1777,18 +1777,18 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:25" ht="13.5" thickBot="1">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="53" t="s">
+      <c r="G10" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="67"/>
       <c r="J10" s="11"/>
       <c r="K10" s="2"/>
       <c r="L10" s="1"/>
@@ -1806,7 +1806,7 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" ht="14.25" thickTop="1" thickBot="1">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1833,31 +1833,31 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
-      <c r="A12" s="56" t="s">
+    <row r="12" spans="1:25" ht="12.75">
+      <c r="A12" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="58" t="s">
+      <c r="E12" s="73"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="63" t="s">
+      <c r="H12" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="58" t="s">
+      <c r="I12" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="48" t="s">
+      <c r="J12" s="63" t="s">
         <v>9</v>
       </c>
       <c r="K12" s="1"/>
@@ -1876,10 +1876,10 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A13" s="57"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
+    <row r="13" spans="1:25" ht="13.5" thickBot="1">
+      <c r="A13" s="69"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
       <c r="D13" s="14" t="s">
         <v>4</v>
       </c>
@@ -1889,10 +1889,10 @@
       <c r="F13" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="49"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="64"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="1"/>
@@ -1909,7 +1909,7 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A14" s="18" t="s">
         <v>34</v>
       </c>
@@ -1946,7 +1946,7 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A15" s="18" t="s">
         <v>34</v>
       </c>
@@ -1983,7 +1983,7 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A16" s="18" t="s">
         <v>34</v>
       </c>
@@ -2020,7 +2020,7 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A17" s="18" t="s">
         <v>34</v>
       </c>
@@ -2057,8 +2057,10 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A18" s="21"/>
+    <row r="18" spans="1:25" ht="19.149999999999999" customHeight="1">
+      <c r="A18" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="B18" s="34" t="s">
         <v>39</v>
       </c>
@@ -2092,7 +2094,7 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A19" s="21"/>
       <c r="B19" s="34"/>
       <c r="C19" s="20"/>
@@ -2121,7 +2123,7 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A20" s="18"/>
       <c r="B20" s="34"/>
       <c r="C20" s="20"/>
@@ -2150,7 +2152,7 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A21" s="22"/>
       <c r="B21" s="35"/>
       <c r="C21" s="24"/>
@@ -2179,7 +2181,7 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A22" s="22"/>
       <c r="B22" s="35"/>
       <c r="C22" s="24"/>
@@ -2208,7 +2210,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A23" s="25"/>
       <c r="B23" s="35"/>
       <c r="C23" s="24"/>
@@ -2237,7 +2239,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A24" s="22"/>
       <c r="B24" s="35"/>
       <c r="C24" s="24"/>
@@ -2266,7 +2268,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A25" s="22"/>
       <c r="B25" s="35"/>
       <c r="C25" s="24"/>
@@ -2295,7 +2297,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A26" s="26"/>
       <c r="B26" s="35"/>
       <c r="C26" s="24"/>
@@ -2324,7 +2326,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A27" s="25"/>
       <c r="B27" s="35"/>
       <c r="C27" s="24"/>
@@ -2353,7 +2355,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A28" s="25"/>
       <c r="B28" s="36"/>
       <c r="C28" s="24"/>
@@ -2382,7 +2384,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A29" s="25"/>
       <c r="B29" s="36"/>
       <c r="C29" s="24"/>
@@ -2411,7 +2413,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A30" s="25"/>
       <c r="B30" s="36"/>
       <c r="C30" s="24"/>
@@ -2440,7 +2442,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A31" s="25"/>
       <c r="B31" s="36"/>
       <c r="C31" s="24"/>
@@ -2469,7 +2471,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A32" s="27"/>
       <c r="B32" s="37"/>
       <c r="C32" s="29"/>
@@ -2498,7 +2500,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A33" s="31"/>
       <c r="B33" s="38"/>
       <c r="C33" s="33"/>
@@ -2527,7 +2529,7 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A34" s="31"/>
       <c r="B34" s="38"/>
       <c r="C34" s="33"/>
@@ -2556,7 +2558,7 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A35" s="31"/>
       <c r="B35" s="38"/>
       <c r="C35" s="33"/>
@@ -2585,7 +2587,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A36" s="31"/>
       <c r="B36" s="38"/>
       <c r="C36" s="33"/>
@@ -2614,7 +2616,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A37" s="31"/>
       <c r="B37" s="38"/>
       <c r="C37" s="33"/>
@@ -2643,7 +2645,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A38" s="31"/>
       <c r="B38" s="38"/>
       <c r="C38" s="33"/>
@@ -2672,7 +2674,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A39" s="31"/>
       <c r="B39" s="38"/>
       <c r="C39" s="33"/>
@@ -2701,7 +2703,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A40" s="31"/>
       <c r="B40" s="38"/>
       <c r="C40" s="33"/>
@@ -2730,7 +2732,7 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A41" s="31"/>
       <c r="B41" s="38"/>
       <c r="C41" s="33"/>
@@ -2759,7 +2761,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A42" s="31"/>
       <c r="B42" s="38"/>
       <c r="C42" s="33"/>
@@ -2788,7 +2790,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A43" s="31"/>
       <c r="B43" s="38"/>
       <c r="C43" s="33"/>
@@ -2817,7 +2819,7 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A44" s="31"/>
       <c r="B44" s="38"/>
       <c r="C44" s="33"/>
@@ -2846,7 +2848,7 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A45" s="31"/>
       <c r="B45" s="38"/>
       <c r="C45" s="33"/>
@@ -2875,7 +2877,7 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A46" s="31"/>
       <c r="B46" s="38"/>
       <c r="C46" s="33"/>
@@ -2904,7 +2906,7 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A47" s="31"/>
       <c r="B47" s="38"/>
       <c r="C47" s="33"/>
@@ -2933,7 +2935,7 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A48" s="31"/>
       <c r="B48" s="38"/>
       <c r="C48" s="33"/>
@@ -2962,7 +2964,7 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A49" s="31"/>
       <c r="B49" s="38"/>
       <c r="C49" s="33"/>
@@ -2991,7 +2993,7 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A50" s="31"/>
       <c r="B50" s="38"/>
       <c r="C50" s="33"/>
@@ -3020,7 +3022,7 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
     </row>
-    <row r="51" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A51" s="31"/>
       <c r="B51" s="38"/>
       <c r="C51" s="33"/>
@@ -3049,7 +3051,7 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A52" s="31"/>
       <c r="B52" s="38"/>
       <c r="C52" s="33"/>
@@ -3078,7 +3080,7 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A53" s="31"/>
       <c r="B53" s="38"/>
       <c r="C53" s="33"/>
@@ -3107,7 +3109,7 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
     </row>
-    <row r="54" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A54" s="31"/>
       <c r="B54" s="38"/>
       <c r="C54" s="33"/>
@@ -3136,7 +3138,7 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
     </row>
-    <row r="55" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A55" s="31"/>
       <c r="B55" s="38"/>
       <c r="C55" s="33"/>
@@ -3165,7 +3167,7 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
     </row>
-    <row r="56" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A56" s="31"/>
       <c r="B56" s="38"/>
       <c r="C56" s="33"/>
@@ -3194,7 +3196,7 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
     </row>
-    <row r="57" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A57" s="31"/>
       <c r="B57" s="38"/>
       <c r="C57" s="33"/>
@@ -3223,7 +3225,7 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
     </row>
-    <row r="58" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A58" s="31"/>
       <c r="B58" s="38"/>
       <c r="C58" s="33"/>
@@ -3252,7 +3254,7 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
     </row>
-    <row r="59" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A59" s="31"/>
       <c r="B59" s="38"/>
       <c r="C59" s="33"/>
@@ -3281,7 +3283,7 @@
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
     </row>
-    <row r="60" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A60" s="31"/>
       <c r="B60" s="38"/>
       <c r="C60" s="33"/>
@@ -3310,7 +3312,7 @@
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
     </row>
-    <row r="61" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A61" s="31"/>
       <c r="B61" s="38"/>
       <c r="C61" s="33"/>
@@ -3339,7 +3341,7 @@
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
     </row>
-    <row r="62" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" ht="12.75">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
@@ -3366,7 +3368,7 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
     </row>
-    <row r="63" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" ht="12.75">
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
@@ -3393,7 +3395,7 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
     </row>
-    <row r="64" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" ht="12.75">
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
@@ -3420,7 +3422,7 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
     </row>
-    <row r="65" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" ht="12.75">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -3447,7 +3449,7 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
     </row>
-    <row r="66" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" ht="12.75">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
@@ -3474,7 +3476,7 @@
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
     </row>
-    <row r="67" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" ht="12.75">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
@@ -3501,7 +3503,7 @@
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
     </row>
-    <row r="68" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" ht="12.75">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
@@ -3528,7 +3530,7 @@
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
     </row>
-    <row r="69" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" ht="12.75">
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
@@ -3555,7 +3557,7 @@
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
     </row>
-    <row r="70" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" ht="12.75">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
@@ -3582,7 +3584,7 @@
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
     </row>
-    <row r="71" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" ht="12.75">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
@@ -3609,7 +3611,7 @@
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
     </row>
-    <row r="72" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" ht="12.75">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
@@ -3636,7 +3638,7 @@
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
     </row>
-    <row r="73" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" ht="12.75">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -3663,7 +3665,7 @@
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
     </row>
-    <row r="74" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" ht="12.75">
       <c r="A74" s="12"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
@@ -3690,7 +3692,7 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
     </row>
-    <row r="75" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" ht="12.75">
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
@@ -3717,7 +3719,7 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
     </row>
-    <row r="76" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" ht="12.75">
       <c r="A76" s="12"/>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
@@ -3744,7 +3746,7 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
     </row>
-    <row r="77" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" ht="12.75">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
@@ -3771,7 +3773,7 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
     </row>
-    <row r="78" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" ht="12.75">
       <c r="A78" s="12"/>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
@@ -3798,7 +3800,7 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
     </row>
-    <row r="79" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" ht="12.75">
       <c r="A79" s="12"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
@@ -3825,7 +3827,7 @@
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
     </row>
-    <row r="80" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" ht="12.75">
       <c r="A80" s="12"/>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
@@ -3852,7 +3854,7 @@
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
     </row>
-    <row r="81" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" ht="12.75">
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
@@ -3879,7 +3881,7 @@
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
     </row>
-    <row r="82" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" ht="12.75">
       <c r="A82" s="12"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
@@ -3906,7 +3908,7 @@
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
     </row>
-    <row r="83" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" ht="12.75">
       <c r="A83" s="12"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
@@ -3933,7 +3935,7 @@
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
     </row>
-    <row r="84" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" ht="12.75">
       <c r="A84" s="12"/>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
@@ -3960,7 +3962,7 @@
       <c r="X84" s="1"/>
       <c r="Y84" s="1"/>
     </row>
-    <row r="85" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" ht="12.75">
       <c r="A85" s="12"/>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
@@ -3987,7 +3989,7 @@
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
     </row>
-    <row r="86" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" ht="12.75">
       <c r="A86" s="12"/>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
@@ -4014,7 +4016,7 @@
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
     </row>
-    <row r="87" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" ht="12.75">
       <c r="A87" s="12"/>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
@@ -4041,7 +4043,7 @@
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
     </row>
-    <row r="88" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" ht="12.75">
       <c r="A88" s="12"/>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
@@ -4068,7 +4070,7 @@
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
     </row>
-    <row r="89" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" ht="12.75">
       <c r="A89" s="12"/>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
@@ -4095,7 +4097,7 @@
       <c r="X89" s="1"/>
       <c r="Y89" s="1"/>
     </row>
-    <row r="90" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" ht="12.75">
       <c r="A90" s="12"/>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
@@ -4122,7 +4124,7 @@
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
     </row>
-    <row r="91" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" ht="12.75">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
@@ -4149,7 +4151,7 @@
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
     </row>
-    <row r="92" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" ht="12.75">
       <c r="A92" s="12"/>
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
@@ -4176,7 +4178,7 @@
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
     </row>
-    <row r="93" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" ht="12.75">
       <c r="A93" s="12"/>
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
@@ -4203,7 +4205,7 @@
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
     </row>
-    <row r="94" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" ht="12.75">
       <c r="A94" s="12"/>
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
@@ -4230,7 +4232,7 @@
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
     </row>
-    <row r="95" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" ht="12.75">
       <c r="A95" s="12"/>
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
@@ -4257,7 +4259,7 @@
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
     </row>
-    <row r="96" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" ht="12.75">
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
@@ -4284,7 +4286,7 @@
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
     </row>
-    <row r="97" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" ht="12.75">
       <c r="A97" s="12"/>
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
@@ -4311,7 +4313,7 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
     </row>
-    <row r="98" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" ht="12.75">
       <c r="A98" s="12"/>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
@@ -4338,7 +4340,7 @@
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
     </row>
-    <row r="99" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" ht="12.75">
       <c r="A99" s="12"/>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
@@ -4365,7 +4367,7 @@
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
     </row>
-    <row r="100" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" ht="12.75">
       <c r="A100" s="12"/>
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
@@ -4392,7 +4394,7 @@
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
     </row>
-    <row r="101" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" ht="12.75">
       <c r="A101" s="12"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
@@ -4419,7 +4421,7 @@
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
     </row>
-    <row r="102" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" ht="12.75">
       <c r="A102" s="12"/>
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
@@ -4446,7 +4448,7 @@
       <c r="X102" s="1"/>
       <c r="Y102" s="1"/>
     </row>
-    <row r="103" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" ht="12.75">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
@@ -4473,7 +4475,7 @@
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
     </row>
-    <row r="104" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" ht="12.75">
       <c r="A104" s="12"/>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
@@ -4500,7 +4502,7 @@
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
     </row>
-    <row r="105" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" ht="12.75">
       <c r="A105" s="12"/>
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
@@ -4527,7 +4529,7 @@
       <c r="X105" s="1"/>
       <c r="Y105" s="1"/>
     </row>
-    <row r="106" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" ht="12.75">
       <c r="A106" s="12"/>
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
@@ -4554,7 +4556,7 @@
       <c r="X106" s="1"/>
       <c r="Y106" s="1"/>
     </row>
-    <row r="107" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" ht="12.75">
       <c r="A107" s="12"/>
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
@@ -4581,7 +4583,7 @@
       <c r="X107" s="1"/>
       <c r="Y107" s="1"/>
     </row>
-    <row r="108" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" ht="12.75">
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
       <c r="C108" s="12"/>
@@ -4608,7 +4610,7 @@
       <c r="X108" s="1"/>
       <c r="Y108" s="1"/>
     </row>
-    <row r="109" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" ht="12.75">
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
       <c r="C109" s="12"/>
@@ -4635,7 +4637,7 @@
       <c r="X109" s="1"/>
       <c r="Y109" s="1"/>
     </row>
-    <row r="110" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" ht="12.75">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
@@ -4662,7 +4664,7 @@
       <c r="X110" s="1"/>
       <c r="Y110" s="1"/>
     </row>
-    <row r="111" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" ht="12.75">
       <c r="A111" s="12"/>
       <c r="B111" s="12"/>
       <c r="C111" s="12"/>
@@ -4689,7 +4691,7 @@
       <c r="X111" s="1"/>
       <c r="Y111" s="1"/>
     </row>
-    <row r="112" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" ht="12.75">
       <c r="A112" s="12"/>
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
@@ -4716,7 +4718,7 @@
       <c r="X112" s="1"/>
       <c r="Y112" s="1"/>
     </row>
-    <row r="113" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" ht="12.75">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -4743,7 +4745,7 @@
       <c r="X113" s="1"/>
       <c r="Y113" s="1"/>
     </row>
-    <row r="114" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" ht="12.75">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -4770,7 +4772,7 @@
       <c r="X114" s="1"/>
       <c r="Y114" s="1"/>
     </row>
-    <row r="115" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" ht="12.75">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -4797,7 +4799,7 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
     </row>
-    <row r="116" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" ht="12.75">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -4824,7 +4826,7 @@
       <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
     </row>
-    <row r="117" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" ht="12.75">
       <c r="A117" s="12"/>
       <c r="B117" s="12"/>
       <c r="C117" s="12"/>
@@ -4851,7 +4853,7 @@
       <c r="X117" s="1"/>
       <c r="Y117" s="1"/>
     </row>
-    <row r="118" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" ht="12.75">
       <c r="A118" s="12"/>
       <c r="B118" s="12"/>
       <c r="C118" s="12"/>
@@ -4878,7 +4880,7 @@
       <c r="X118" s="1"/>
       <c r="Y118" s="1"/>
     </row>
-    <row r="119" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" ht="12.75">
       <c r="A119" s="12"/>
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
@@ -4905,7 +4907,7 @@
       <c r="X119" s="1"/>
       <c r="Y119" s="1"/>
     </row>
-    <row r="120" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" ht="12.75">
       <c r="A120" s="12"/>
       <c r="B120" s="12"/>
       <c r="C120" s="12"/>
@@ -4932,7 +4934,7 @@
       <c r="X120" s="1"/>
       <c r="Y120" s="1"/>
     </row>
-    <row r="121" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" ht="12.75">
       <c r="A121" s="12"/>
       <c r="B121" s="12"/>
       <c r="C121" s="12"/>
@@ -4959,7 +4961,7 @@
       <c r="X121" s="1"/>
       <c r="Y121" s="1"/>
     </row>
-    <row r="122" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" ht="12.75">
       <c r="A122" s="12"/>
       <c r="B122" s="12"/>
       <c r="C122" s="12"/>
@@ -4986,7 +4988,7 @@
       <c r="X122" s="1"/>
       <c r="Y122" s="1"/>
     </row>
-    <row r="123" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" ht="12.75">
       <c r="A123" s="12"/>
       <c r="B123" s="12"/>
       <c r="C123" s="12"/>
@@ -5013,7 +5015,7 @@
       <c r="X123" s="1"/>
       <c r="Y123" s="1"/>
     </row>
-    <row r="124" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" ht="12.75">
       <c r="A124" s="12"/>
       <c r="B124" s="12"/>
       <c r="C124" s="12"/>
@@ -5040,7 +5042,7 @@
       <c r="X124" s="1"/>
       <c r="Y124" s="1"/>
     </row>
-    <row r="125" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" ht="12.75">
       <c r="A125" s="12"/>
       <c r="B125" s="12"/>
       <c r="C125" s="12"/>
@@ -5067,7 +5069,7 @@
       <c r="X125" s="1"/>
       <c r="Y125" s="1"/>
     </row>
-    <row r="126" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" ht="12.75">
       <c r="A126" s="12"/>
       <c r="B126" s="12"/>
       <c r="C126" s="12"/>
@@ -5094,7 +5096,7 @@
       <c r="X126" s="1"/>
       <c r="Y126" s="1"/>
     </row>
-    <row r="127" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" ht="12.75">
       <c r="A127" s="12"/>
       <c r="B127" s="12"/>
       <c r="C127" s="12"/>
@@ -5121,7 +5123,7 @@
       <c r="X127" s="1"/>
       <c r="Y127" s="1"/>
     </row>
-    <row r="128" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" ht="12.75">
       <c r="A128" s="12"/>
       <c r="B128" s="12"/>
       <c r="C128" s="12"/>
@@ -5148,7 +5150,7 @@
       <c r="X128" s="1"/>
       <c r="Y128" s="1"/>
     </row>
-    <row r="129" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" ht="12.75">
       <c r="A129" s="12"/>
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
@@ -5175,7 +5177,7 @@
       <c r="X129" s="1"/>
       <c r="Y129" s="1"/>
     </row>
-    <row r="130" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" ht="12.75">
       <c r="A130" s="12"/>
       <c r="B130" s="12"/>
       <c r="C130" s="12"/>
@@ -5202,7 +5204,7 @@
       <c r="X130" s="1"/>
       <c r="Y130" s="1"/>
     </row>
-    <row r="131" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" ht="12.75">
       <c r="A131" s="12"/>
       <c r="B131" s="12"/>
       <c r="C131" s="12"/>
@@ -5229,7 +5231,7 @@
       <c r="X131" s="1"/>
       <c r="Y131" s="1"/>
     </row>
-    <row r="132" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" ht="12.75">
       <c r="A132" s="12"/>
       <c r="B132" s="12"/>
       <c r="C132" s="12"/>
@@ -5256,7 +5258,7 @@
       <c r="X132" s="1"/>
       <c r="Y132" s="1"/>
     </row>
-    <row r="133" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" ht="12.75">
       <c r="A133" s="12"/>
       <c r="B133" s="12"/>
       <c r="C133" s="12"/>
@@ -5283,7 +5285,7 @@
       <c r="X133" s="1"/>
       <c r="Y133" s="1"/>
     </row>
-    <row r="134" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25" ht="12.75">
       <c r="A134" s="12"/>
       <c r="B134" s="12"/>
       <c r="C134" s="12"/>
@@ -5310,7 +5312,7 @@
       <c r="X134" s="1"/>
       <c r="Y134" s="1"/>
     </row>
-    <row r="135" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" ht="12.75">
       <c r="A135" s="12"/>
       <c r="B135" s="12"/>
       <c r="C135" s="12"/>
@@ -5337,7 +5339,7 @@
       <c r="X135" s="1"/>
       <c r="Y135" s="1"/>
     </row>
-    <row r="136" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" ht="12.75">
       <c r="A136" s="12"/>
       <c r="B136" s="12"/>
       <c r="C136" s="12"/>
@@ -5364,7 +5366,7 @@
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
     </row>
-    <row r="137" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" ht="12.75">
       <c r="A137" s="12"/>
       <c r="B137" s="12"/>
       <c r="C137" s="12"/>
@@ -5391,7 +5393,7 @@
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
     </row>
-    <row r="138" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25" ht="12.75">
       <c r="A138" s="12"/>
       <c r="B138" s="12"/>
       <c r="C138" s="12"/>
@@ -5418,7 +5420,7 @@
       <c r="X138" s="1"/>
       <c r="Y138" s="1"/>
     </row>
-    <row r="139" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" ht="12.75">
       <c r="A139" s="12"/>
       <c r="B139" s="12"/>
       <c r="C139" s="12"/>
@@ -5445,7 +5447,7 @@
       <c r="X139" s="1"/>
       <c r="Y139" s="1"/>
     </row>
-    <row r="140" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25" ht="12.75">
       <c r="A140" s="12"/>
       <c r="B140" s="12"/>
       <c r="C140" s="12"/>
@@ -5472,7 +5474,7 @@
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
     </row>
-    <row r="141" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25" ht="12.75">
       <c r="A141" s="12"/>
       <c r="B141" s="12"/>
       <c r="C141" s="12"/>
@@ -5499,7 +5501,7 @@
       <c r="X141" s="1"/>
       <c r="Y141" s="1"/>
     </row>
-    <row r="142" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" ht="12.75">
       <c r="A142" s="12"/>
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
@@ -5526,7 +5528,7 @@
       <c r="X142" s="1"/>
       <c r="Y142" s="1"/>
     </row>
-    <row r="143" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" ht="12.75">
       <c r="A143" s="12"/>
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
@@ -5553,7 +5555,7 @@
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
     </row>
-    <row r="144" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25" ht="12.75">
       <c r="A144" s="12"/>
       <c r="B144" s="12"/>
       <c r="C144" s="12"/>
@@ -5580,7 +5582,7 @@
       <c r="X144" s="1"/>
       <c r="Y144" s="1"/>
     </row>
-    <row r="145" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" ht="12.75">
       <c r="A145" s="12"/>
       <c r="B145" s="12"/>
       <c r="C145" s="12"/>
@@ -5607,7 +5609,7 @@
       <c r="X145" s="1"/>
       <c r="Y145" s="1"/>
     </row>
-    <row r="146" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25" ht="12.75">
       <c r="A146" s="12"/>
       <c r="B146" s="12"/>
       <c r="C146" s="12"/>
@@ -5634,7 +5636,7 @@
       <c r="X146" s="1"/>
       <c r="Y146" s="1"/>
     </row>
-    <row r="147" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25" ht="12.75">
       <c r="A147" s="12"/>
       <c r="B147" s="12"/>
       <c r="C147" s="12"/>
@@ -5661,7 +5663,7 @@
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
     </row>
-    <row r="148" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25" ht="12.75">
       <c r="A148" s="12"/>
       <c r="B148" s="12"/>
       <c r="C148" s="12"/>
@@ -5688,7 +5690,7 @@
       <c r="X148" s="1"/>
       <c r="Y148" s="1"/>
     </row>
-    <row r="149" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25" ht="12.75">
       <c r="A149" s="12"/>
       <c r="B149" s="12"/>
       <c r="C149" s="12"/>
@@ -5715,7 +5717,7 @@
       <c r="X149" s="1"/>
       <c r="Y149" s="1"/>
     </row>
-    <row r="150" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" ht="12.75">
       <c r="A150" s="12"/>
       <c r="B150" s="12"/>
       <c r="C150" s="12"/>
@@ -5742,7 +5744,7 @@
       <c r="X150" s="1"/>
       <c r="Y150" s="1"/>
     </row>
-    <row r="151" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25" ht="12.75">
       <c r="A151" s="12"/>
       <c r="B151" s="12"/>
       <c r="C151" s="12"/>
@@ -5769,7 +5771,7 @@
       <c r="X151" s="1"/>
       <c r="Y151" s="1"/>
     </row>
-    <row r="152" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" ht="12.75">
       <c r="A152" s="12"/>
       <c r="B152" s="12"/>
       <c r="C152" s="12"/>
@@ -5796,7 +5798,7 @@
       <c r="X152" s="1"/>
       <c r="Y152" s="1"/>
     </row>
-    <row r="153" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25" ht="12.75">
       <c r="A153" s="12"/>
       <c r="B153" s="12"/>
       <c r="C153" s="12"/>
@@ -5823,7 +5825,7 @@
       <c r="X153" s="1"/>
       <c r="Y153" s="1"/>
     </row>
-    <row r="154" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:25" ht="12.75">
       <c r="A154" s="12"/>
       <c r="B154" s="12"/>
       <c r="C154" s="12"/>
@@ -5850,7 +5852,7 @@
       <c r="X154" s="1"/>
       <c r="Y154" s="1"/>
     </row>
-    <row r="155" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25" ht="12.75">
       <c r="A155" s="12"/>
       <c r="B155" s="12"/>
       <c r="C155" s="12"/>
@@ -5877,7 +5879,7 @@
       <c r="X155" s="1"/>
       <c r="Y155" s="1"/>
     </row>
-    <row r="156" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25" ht="12.75">
       <c r="A156" s="12"/>
       <c r="B156" s="12"/>
       <c r="C156" s="12"/>
@@ -5904,7 +5906,7 @@
       <c r="X156" s="1"/>
       <c r="Y156" s="1"/>
     </row>
-    <row r="157" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25" ht="12.75">
       <c r="A157" s="12"/>
       <c r="B157" s="12"/>
       <c r="C157" s="12"/>
@@ -5931,7 +5933,7 @@
       <c r="X157" s="1"/>
       <c r="Y157" s="1"/>
     </row>
-    <row r="158" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25" ht="12.75">
       <c r="A158" s="12"/>
       <c r="B158" s="12"/>
       <c r="C158" s="12"/>
@@ -5958,7 +5960,7 @@
       <c r="X158" s="1"/>
       <c r="Y158" s="1"/>
     </row>
-    <row r="159" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25" ht="12.75">
       <c r="A159" s="12"/>
       <c r="B159" s="12"/>
       <c r="C159" s="12"/>
@@ -5985,7 +5987,7 @@
       <c r="X159" s="1"/>
       <c r="Y159" s="1"/>
     </row>
-    <row r="160" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25" ht="12.75">
       <c r="A160" s="12"/>
       <c r="B160" s="12"/>
       <c r="C160" s="12"/>
@@ -6012,7 +6014,7 @@
       <c r="X160" s="1"/>
       <c r="Y160" s="1"/>
     </row>
-    <row r="161" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" ht="12.75">
       <c r="A161" s="12"/>
       <c r="B161" s="12"/>
       <c r="C161" s="12"/>
@@ -6039,7 +6041,7 @@
       <c r="X161" s="1"/>
       <c r="Y161" s="1"/>
     </row>
-    <row r="162" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25" ht="12.75">
       <c r="A162" s="12"/>
       <c r="B162" s="12"/>
       <c r="C162" s="12"/>
@@ -6066,7 +6068,7 @@
       <c r="X162" s="1"/>
       <c r="Y162" s="1"/>
     </row>
-    <row r="163" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25" ht="12.75">
       <c r="A163" s="12"/>
       <c r="B163" s="12"/>
       <c r="C163" s="12"/>
@@ -6093,7 +6095,7 @@
       <c r="X163" s="1"/>
       <c r="Y163" s="1"/>
     </row>
-    <row r="164" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" ht="12.75">
       <c r="A164" s="12"/>
       <c r="B164" s="12"/>
       <c r="C164" s="12"/>
@@ -6120,7 +6122,7 @@
       <c r="X164" s="1"/>
       <c r="Y164" s="1"/>
     </row>
-    <row r="165" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" ht="12.75">
       <c r="A165" s="12"/>
       <c r="B165" s="12"/>
       <c r="C165" s="12"/>
@@ -6147,7 +6149,7 @@
       <c r="X165" s="1"/>
       <c r="Y165" s="1"/>
     </row>
-    <row r="166" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" ht="12.75">
       <c r="A166" s="12"/>
       <c r="B166" s="12"/>
       <c r="C166" s="12"/>
@@ -6174,7 +6176,7 @@
       <c r="X166" s="1"/>
       <c r="Y166" s="1"/>
     </row>
-    <row r="167" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25" ht="12.75">
       <c r="A167" s="12"/>
       <c r="B167" s="12"/>
       <c r="C167" s="12"/>
@@ -6201,7 +6203,7 @@
       <c r="X167" s="1"/>
       <c r="Y167" s="1"/>
     </row>
-    <row r="168" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" ht="12.75">
       <c r="A168" s="12"/>
       <c r="B168" s="12"/>
       <c r="C168" s="12"/>
@@ -6228,7 +6230,7 @@
       <c r="X168" s="1"/>
       <c r="Y168" s="1"/>
     </row>
-    <row r="169" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" ht="12.75">
       <c r="A169" s="12"/>
       <c r="B169" s="12"/>
       <c r="C169" s="12"/>
@@ -6255,7 +6257,7 @@
       <c r="X169" s="1"/>
       <c r="Y169" s="1"/>
     </row>
-    <row r="170" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" ht="12.75">
       <c r="A170" s="12"/>
       <c r="B170" s="12"/>
       <c r="C170" s="12"/>
@@ -6282,7 +6284,7 @@
       <c r="X170" s="1"/>
       <c r="Y170" s="1"/>
     </row>
-    <row r="171" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" ht="12.75">
       <c r="A171" s="12"/>
       <c r="B171" s="12"/>
       <c r="C171" s="12"/>
@@ -6309,7 +6311,7 @@
       <c r="X171" s="1"/>
       <c r="Y171" s="1"/>
     </row>
-    <row r="172" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25" ht="12.75">
       <c r="A172" s="12"/>
       <c r="B172" s="12"/>
       <c r="C172" s="12"/>
@@ -6336,7 +6338,7 @@
       <c r="X172" s="1"/>
       <c r="Y172" s="1"/>
     </row>
-    <row r="173" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" ht="12.75">
       <c r="A173" s="12"/>
       <c r="B173" s="12"/>
       <c r="C173" s="12"/>
@@ -6363,7 +6365,7 @@
       <c r="X173" s="1"/>
       <c r="Y173" s="1"/>
     </row>
-    <row r="174" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25" ht="12.75">
       <c r="A174" s="12"/>
       <c r="B174" s="12"/>
       <c r="C174" s="12"/>
@@ -6390,7 +6392,7 @@
       <c r="X174" s="1"/>
       <c r="Y174" s="1"/>
     </row>
-    <row r="175" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25" ht="12.75">
       <c r="A175" s="12"/>
       <c r="B175" s="12"/>
       <c r="C175" s="12"/>
@@ -6417,7 +6419,7 @@
       <c r="X175" s="1"/>
       <c r="Y175" s="1"/>
     </row>
-    <row r="176" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25" ht="12.75">
       <c r="A176" s="12"/>
       <c r="B176" s="12"/>
       <c r="C176" s="12"/>
@@ -6444,7 +6446,7 @@
       <c r="X176" s="1"/>
       <c r="Y176" s="1"/>
     </row>
-    <row r="177" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" ht="12.75">
       <c r="A177" s="12"/>
       <c r="B177" s="12"/>
       <c r="C177" s="12"/>
@@ -6471,7 +6473,7 @@
       <c r="X177" s="1"/>
       <c r="Y177" s="1"/>
     </row>
-    <row r="178" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" ht="12.75">
       <c r="A178" s="12"/>
       <c r="B178" s="12"/>
       <c r="C178" s="12"/>
@@ -6498,7 +6500,7 @@
       <c r="X178" s="1"/>
       <c r="Y178" s="1"/>
     </row>
-    <row r="179" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" ht="12.75">
       <c r="A179" s="12"/>
       <c r="B179" s="12"/>
       <c r="C179" s="12"/>
@@ -6525,7 +6527,7 @@
       <c r="X179" s="1"/>
       <c r="Y179" s="1"/>
     </row>
-    <row r="180" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" ht="12.75">
       <c r="A180" s="12"/>
       <c r="B180" s="12"/>
       <c r="C180" s="12"/>
@@ -6552,7 +6554,7 @@
       <c r="X180" s="1"/>
       <c r="Y180" s="1"/>
     </row>
-    <row r="181" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" ht="12.75">
       <c r="A181" s="12"/>
       <c r="B181" s="12"/>
       <c r="C181" s="12"/>
@@ -6579,7 +6581,7 @@
       <c r="X181" s="1"/>
       <c r="Y181" s="1"/>
     </row>
-    <row r="182" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" ht="12.75">
       <c r="A182" s="12"/>
       <c r="B182" s="12"/>
       <c r="C182" s="12"/>
@@ -6606,7 +6608,7 @@
       <c r="X182" s="1"/>
       <c r="Y182" s="1"/>
     </row>
-    <row r="183" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25" ht="12.75">
       <c r="A183" s="12"/>
       <c r="B183" s="12"/>
       <c r="C183" s="12"/>
@@ -6633,7 +6635,7 @@
       <c r="X183" s="1"/>
       <c r="Y183" s="1"/>
     </row>
-    <row r="184" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25" ht="12.75">
       <c r="A184" s="12"/>
       <c r="B184" s="12"/>
       <c r="C184" s="12"/>
@@ -6660,7 +6662,7 @@
       <c r="X184" s="1"/>
       <c r="Y184" s="1"/>
     </row>
-    <row r="185" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" ht="12.75">
       <c r="A185" s="12"/>
       <c r="B185" s="12"/>
       <c r="C185" s="12"/>
@@ -6687,7 +6689,7 @@
       <c r="X185" s="1"/>
       <c r="Y185" s="1"/>
     </row>
-    <row r="186" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" ht="12.75">
       <c r="A186" s="12"/>
       <c r="B186" s="12"/>
       <c r="C186" s="12"/>
@@ -6714,7 +6716,7 @@
       <c r="X186" s="1"/>
       <c r="Y186" s="1"/>
     </row>
-    <row r="187" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25" ht="12.75">
       <c r="A187" s="12"/>
       <c r="B187" s="12"/>
       <c r="C187" s="12"/>
@@ -6741,7 +6743,7 @@
       <c r="X187" s="1"/>
       <c r="Y187" s="1"/>
     </row>
-    <row r="188" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25" ht="12.75">
       <c r="A188" s="12"/>
       <c r="B188" s="12"/>
       <c r="C188" s="12"/>
@@ -6768,7 +6770,7 @@
       <c r="X188" s="1"/>
       <c r="Y188" s="1"/>
     </row>
-    <row r="189" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25" ht="12.75">
       <c r="A189" s="12"/>
       <c r="B189" s="12"/>
       <c r="C189" s="12"/>
@@ -6795,7 +6797,7 @@
       <c r="X189" s="1"/>
       <c r="Y189" s="1"/>
     </row>
-    <row r="190" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:25" ht="12.75">
       <c r="A190" s="12"/>
       <c r="B190" s="12"/>
       <c r="C190" s="12"/>
@@ -6822,7 +6824,7 @@
       <c r="X190" s="1"/>
       <c r="Y190" s="1"/>
     </row>
-    <row r="191" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:25" ht="12.75">
       <c r="A191" s="12"/>
       <c r="B191" s="12"/>
       <c r="C191" s="12"/>
@@ -6849,7 +6851,7 @@
       <c r="X191" s="1"/>
       <c r="Y191" s="1"/>
     </row>
-    <row r="192" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:25" ht="12.75">
       <c r="A192" s="12"/>
       <c r="B192" s="12"/>
       <c r="C192" s="12"/>
@@ -6876,7 +6878,7 @@
       <c r="X192" s="1"/>
       <c r="Y192" s="1"/>
     </row>
-    <row r="193" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:25" ht="12.75">
       <c r="A193" s="12"/>
       <c r="B193" s="12"/>
       <c r="C193" s="12"/>
@@ -6903,7 +6905,7 @@
       <c r="X193" s="1"/>
       <c r="Y193" s="1"/>
     </row>
-    <row r="194" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:25" ht="12.75">
       <c r="A194" s="12"/>
       <c r="B194" s="12"/>
       <c r="C194" s="12"/>
@@ -6930,7 +6932,7 @@
       <c r="X194" s="1"/>
       <c r="Y194" s="1"/>
     </row>
-    <row r="195" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:25" ht="12.75">
       <c r="A195" s="12"/>
       <c r="B195" s="12"/>
       <c r="C195" s="12"/>
@@ -6957,7 +6959,7 @@
       <c r="X195" s="1"/>
       <c r="Y195" s="1"/>
     </row>
-    <row r="196" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:25" ht="12.75">
       <c r="A196" s="12"/>
       <c r="B196" s="12"/>
       <c r="C196" s="12"/>
@@ -6984,7 +6986,7 @@
       <c r="X196" s="1"/>
       <c r="Y196" s="1"/>
     </row>
-    <row r="197" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:25" ht="12.75">
       <c r="A197" s="12"/>
       <c r="B197" s="12"/>
       <c r="C197" s="12"/>
@@ -7011,7 +7013,7 @@
       <c r="X197" s="1"/>
       <c r="Y197" s="1"/>
     </row>
-    <row r="198" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:25" ht="12.75">
       <c r="A198" s="12"/>
       <c r="B198" s="12"/>
       <c r="C198" s="12"/>
@@ -7038,7 +7040,7 @@
       <c r="X198" s="1"/>
       <c r="Y198" s="1"/>
     </row>
-    <row r="199" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:25" ht="12.75">
       <c r="A199" s="12"/>
       <c r="B199" s="12"/>
       <c r="C199" s="12"/>
@@ -7065,7 +7067,7 @@
       <c r="X199" s="1"/>
       <c r="Y199" s="1"/>
     </row>
-    <row r="200" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:25" ht="12.75">
       <c r="A200" s="12"/>
       <c r="B200" s="12"/>
       <c r="C200" s="12"/>
@@ -7092,7 +7094,7 @@
       <c r="X200" s="1"/>
       <c r="Y200" s="1"/>
     </row>
-    <row r="201" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:25" ht="12.75">
       <c r="A201" s="12"/>
       <c r="B201" s="12"/>
       <c r="C201" s="12"/>
@@ -7119,7 +7121,7 @@
       <c r="X201" s="1"/>
       <c r="Y201" s="1"/>
     </row>
-    <row r="202" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:25" ht="12.75">
       <c r="A202" s="12"/>
       <c r="B202" s="12"/>
       <c r="C202" s="12"/>
@@ -7146,7 +7148,7 @@
       <c r="X202" s="1"/>
       <c r="Y202" s="1"/>
     </row>
-    <row r="203" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:25" ht="12.75">
       <c r="A203" s="12"/>
       <c r="B203" s="12"/>
       <c r="C203" s="12"/>
@@ -7173,7 +7175,7 @@
       <c r="X203" s="1"/>
       <c r="Y203" s="1"/>
     </row>
-    <row r="204" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:25" ht="12.75">
       <c r="A204" s="12"/>
       <c r="B204" s="12"/>
       <c r="C204" s="12"/>
@@ -7200,7 +7202,7 @@
       <c r="X204" s="1"/>
       <c r="Y204" s="1"/>
     </row>
-    <row r="205" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:25" ht="12.75">
       <c r="A205" s="12"/>
       <c r="B205" s="12"/>
       <c r="C205" s="12"/>
@@ -7227,7 +7229,7 @@
       <c r="X205" s="1"/>
       <c r="Y205" s="1"/>
     </row>
-    <row r="206" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:25" ht="12.75">
       <c r="A206" s="12"/>
       <c r="B206" s="12"/>
       <c r="C206" s="12"/>
@@ -7254,7 +7256,7 @@
       <c r="X206" s="1"/>
       <c r="Y206" s="1"/>
     </row>
-    <row r="207" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:25" ht="12.75">
       <c r="A207" s="12"/>
       <c r="B207" s="12"/>
       <c r="C207" s="12"/>
@@ -7281,7 +7283,7 @@
       <c r="X207" s="1"/>
       <c r="Y207" s="1"/>
     </row>
-    <row r="208" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:25" ht="12.75">
       <c r="A208" s="12"/>
       <c r="B208" s="12"/>
       <c r="C208" s="12"/>
@@ -7308,7 +7310,7 @@
       <c r="X208" s="1"/>
       <c r="Y208" s="1"/>
     </row>
-    <row r="209" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:25" ht="12.75">
       <c r="A209" s="12"/>
       <c r="B209" s="12"/>
       <c r="C209" s="12"/>
@@ -7335,7 +7337,7 @@
       <c r="X209" s="1"/>
       <c r="Y209" s="1"/>
     </row>
-    <row r="210" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:25" ht="12.75">
       <c r="A210" s="12"/>
       <c r="B210" s="12"/>
       <c r="C210" s="12"/>
@@ -7362,7 +7364,7 @@
       <c r="X210" s="1"/>
       <c r="Y210" s="1"/>
     </row>
-    <row r="211" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:25" ht="12.75">
       <c r="A211" s="12"/>
       <c r="B211" s="12"/>
       <c r="C211" s="12"/>
@@ -7389,7 +7391,7 @@
       <c r="X211" s="1"/>
       <c r="Y211" s="1"/>
     </row>
-    <row r="212" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:25" ht="12.75">
       <c r="A212" s="12"/>
       <c r="B212" s="12"/>
       <c r="C212" s="12"/>
@@ -7416,7 +7418,7 @@
       <c r="X212" s="1"/>
       <c r="Y212" s="1"/>
     </row>
-    <row r="213" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:25" ht="12.75">
       <c r="A213" s="12"/>
       <c r="B213" s="12"/>
       <c r="C213" s="12"/>
@@ -7443,7 +7445,7 @@
       <c r="X213" s="1"/>
       <c r="Y213" s="1"/>
     </row>
-    <row r="214" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:25" ht="12.75">
       <c r="A214" s="12"/>
       <c r="B214" s="12"/>
       <c r="C214" s="12"/>
@@ -7470,7 +7472,7 @@
       <c r="X214" s="1"/>
       <c r="Y214" s="1"/>
     </row>
-    <row r="215" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:25" ht="12.75">
       <c r="A215" s="12"/>
       <c r="B215" s="12"/>
       <c r="C215" s="12"/>
@@ -7497,7 +7499,7 @@
       <c r="X215" s="1"/>
       <c r="Y215" s="1"/>
     </row>
-    <row r="216" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:25" ht="12.75">
       <c r="A216" s="12"/>
       <c r="B216" s="12"/>
       <c r="C216" s="12"/>
@@ -7524,7 +7526,7 @@
       <c r="X216" s="1"/>
       <c r="Y216" s="1"/>
     </row>
-    <row r="217" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:25" ht="12.75">
       <c r="A217" s="12"/>
       <c r="B217" s="12"/>
       <c r="C217" s="12"/>
@@ -7551,7 +7553,7 @@
       <c r="X217" s="1"/>
       <c r="Y217" s="1"/>
     </row>
-    <row r="218" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:25" ht="12.75">
       <c r="A218" s="12"/>
       <c r="B218" s="12"/>
       <c r="C218" s="12"/>
@@ -7578,7 +7580,7 @@
       <c r="X218" s="1"/>
       <c r="Y218" s="1"/>
     </row>
-    <row r="219" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:25" ht="12.75">
       <c r="A219" s="12"/>
       <c r="B219" s="12"/>
       <c r="C219" s="12"/>
@@ -7605,7 +7607,7 @@
       <c r="X219" s="1"/>
       <c r="Y219" s="1"/>
     </row>
-    <row r="220" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:25" ht="12.75">
       <c r="A220" s="12"/>
       <c r="B220" s="12"/>
       <c r="C220" s="12"/>
@@ -7632,7 +7634,7 @@
       <c r="X220" s="1"/>
       <c r="Y220" s="1"/>
     </row>
-    <row r="221" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:25" ht="12.75">
       <c r="A221" s="12"/>
       <c r="B221" s="12"/>
       <c r="C221" s="12"/>
@@ -7659,7 +7661,7 @@
       <c r="X221" s="1"/>
       <c r="Y221" s="1"/>
     </row>
-    <row r="222" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:25" ht="12.75">
       <c r="A222" s="12"/>
       <c r="B222" s="12"/>
       <c r="C222" s="12"/>
@@ -7686,7 +7688,7 @@
       <c r="X222" s="1"/>
       <c r="Y222" s="1"/>
     </row>
-    <row r="223" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:25" ht="12.75">
       <c r="A223" s="12"/>
       <c r="B223" s="12"/>
       <c r="C223" s="12"/>
@@ -7713,7 +7715,7 @@
       <c r="X223" s="1"/>
       <c r="Y223" s="1"/>
     </row>
-    <row r="224" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:25" ht="12.75">
       <c r="A224" s="12"/>
       <c r="B224" s="12"/>
       <c r="C224" s="12"/>
@@ -7740,7 +7742,7 @@
       <c r="X224" s="1"/>
       <c r="Y224" s="1"/>
     </row>
-    <row r="225" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:25" ht="12.75">
       <c r="A225" s="12"/>
       <c r="B225" s="12"/>
       <c r="C225" s="12"/>
@@ -7767,7 +7769,7 @@
       <c r="X225" s="1"/>
       <c r="Y225" s="1"/>
     </row>
-    <row r="226" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:25" ht="12.75">
       <c r="A226" s="12"/>
       <c r="B226" s="12"/>
       <c r="C226" s="12"/>
@@ -7794,7 +7796,7 @@
       <c r="X226" s="1"/>
       <c r="Y226" s="1"/>
     </row>
-    <row r="227" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:25" ht="12.75">
       <c r="A227" s="12"/>
       <c r="B227" s="12"/>
       <c r="C227" s="12"/>
@@ -7821,7 +7823,7 @@
       <c r="X227" s="1"/>
       <c r="Y227" s="1"/>
     </row>
-    <row r="228" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:25" ht="12.75">
       <c r="A228" s="12"/>
       <c r="B228" s="12"/>
       <c r="C228" s="12"/>
@@ -7848,7 +7850,7 @@
       <c r="X228" s="1"/>
       <c r="Y228" s="1"/>
     </row>
-    <row r="229" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:25" ht="12.75">
       <c r="A229" s="12"/>
       <c r="B229" s="12"/>
       <c r="C229" s="12"/>
@@ -7875,7 +7877,7 @@
       <c r="X229" s="1"/>
       <c r="Y229" s="1"/>
     </row>
-    <row r="230" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:25" ht="12.75">
       <c r="A230" s="12"/>
       <c r="B230" s="12"/>
       <c r="C230" s="12"/>
@@ -7902,7 +7904,7 @@
       <c r="X230" s="1"/>
       <c r="Y230" s="1"/>
     </row>
-    <row r="231" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:25" ht="12.75">
       <c r="A231" s="12"/>
       <c r="B231" s="12"/>
       <c r="C231" s="12"/>
@@ -7929,7 +7931,7 @@
       <c r="X231" s="1"/>
       <c r="Y231" s="1"/>
     </row>
-    <row r="232" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:25" ht="12.75">
       <c r="A232" s="12"/>
       <c r="B232" s="12"/>
       <c r="C232" s="12"/>
@@ -7956,7 +7958,7 @@
       <c r="X232" s="1"/>
       <c r="Y232" s="1"/>
     </row>
-    <row r="233" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:25" ht="12.75">
       <c r="A233" s="12"/>
       <c r="B233" s="12"/>
       <c r="C233" s="12"/>
@@ -7983,7 +7985,7 @@
       <c r="X233" s="1"/>
       <c r="Y233" s="1"/>
     </row>
-    <row r="234" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:25" ht="12.75">
       <c r="A234" s="12"/>
       <c r="B234" s="12"/>
       <c r="C234" s="12"/>
@@ -8010,7 +8012,7 @@
       <c r="X234" s="1"/>
       <c r="Y234" s="1"/>
     </row>
-    <row r="235" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:25" ht="12.75">
       <c r="A235" s="12"/>
       <c r="B235" s="12"/>
       <c r="C235" s="12"/>
@@ -8037,7 +8039,7 @@
       <c r="X235" s="1"/>
       <c r="Y235" s="1"/>
     </row>
-    <row r="236" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:25" ht="12.75">
       <c r="A236" s="12"/>
       <c r="B236" s="12"/>
       <c r="C236" s="12"/>
@@ -8064,7 +8066,7 @@
       <c r="X236" s="1"/>
       <c r="Y236" s="1"/>
     </row>
-    <row r="237" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:25" ht="12.75">
       <c r="A237" s="12"/>
       <c r="B237" s="12"/>
       <c r="C237" s="12"/>
@@ -8091,7 +8093,7 @@
       <c r="X237" s="1"/>
       <c r="Y237" s="1"/>
     </row>
-    <row r="238" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:25" ht="12.75">
       <c r="A238" s="12"/>
       <c r="B238" s="12"/>
       <c r="C238" s="12"/>
@@ -8118,7 +8120,7 @@
       <c r="X238" s="1"/>
       <c r="Y238" s="1"/>
     </row>
-    <row r="239" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:25" ht="12.75">
       <c r="A239" s="12"/>
       <c r="B239" s="12"/>
       <c r="C239" s="12"/>
@@ -8145,7 +8147,7 @@
       <c r="X239" s="1"/>
       <c r="Y239" s="1"/>
     </row>
-    <row r="240" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:25" ht="12.75">
       <c r="A240" s="12"/>
       <c r="B240" s="12"/>
       <c r="C240" s="12"/>
@@ -8172,7 +8174,7 @@
       <c r="X240" s="1"/>
       <c r="Y240" s="1"/>
     </row>
-    <row r="241" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:25" ht="12.75">
       <c r="A241" s="12"/>
       <c r="B241" s="12"/>
       <c r="C241" s="12"/>
@@ -8199,7 +8201,7 @@
       <c r="X241" s="1"/>
       <c r="Y241" s="1"/>
     </row>
-    <row r="242" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:25" ht="12.75">
       <c r="A242" s="12"/>
       <c r="B242" s="12"/>
       <c r="C242" s="12"/>
@@ -8226,7 +8228,7 @@
       <c r="X242" s="1"/>
       <c r="Y242" s="1"/>
     </row>
-    <row r="243" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:25" ht="12.75">
       <c r="A243" s="12"/>
       <c r="B243" s="12"/>
       <c r="C243" s="12"/>
@@ -8253,7 +8255,7 @@
       <c r="X243" s="1"/>
       <c r="Y243" s="1"/>
     </row>
-    <row r="244" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:25" ht="12.75">
       <c r="A244" s="12"/>
       <c r="B244" s="12"/>
       <c r="C244" s="12"/>
@@ -8280,7 +8282,7 @@
       <c r="X244" s="1"/>
       <c r="Y244" s="1"/>
     </row>
-    <row r="245" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:25" ht="12.75">
       <c r="A245" s="12"/>
       <c r="B245" s="12"/>
       <c r="C245" s="12"/>
@@ -8307,7 +8309,7 @@
       <c r="X245" s="1"/>
       <c r="Y245" s="1"/>
     </row>
-    <row r="246" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:25" ht="12.75">
       <c r="A246" s="12"/>
       <c r="B246" s="12"/>
       <c r="C246" s="12"/>
@@ -8334,7 +8336,7 @@
       <c r="X246" s="1"/>
       <c r="Y246" s="1"/>
     </row>
-    <row r="247" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:25" ht="12.75">
       <c r="A247" s="12"/>
       <c r="B247" s="12"/>
       <c r="C247" s="12"/>
@@ -8361,7 +8363,7 @@
       <c r="X247" s="1"/>
       <c r="Y247" s="1"/>
     </row>
-    <row r="248" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:25" ht="12.75">
       <c r="A248" s="12"/>
       <c r="B248" s="12"/>
       <c r="C248" s="12"/>
@@ -8388,7 +8390,7 @@
       <c r="X248" s="1"/>
       <c r="Y248" s="1"/>
     </row>
-    <row r="249" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:25" ht="12.75">
       <c r="A249" s="12"/>
       <c r="B249" s="12"/>
       <c r="C249" s="12"/>
@@ -8415,7 +8417,7 @@
       <c r="X249" s="1"/>
       <c r="Y249" s="1"/>
     </row>
-    <row r="250" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:25" ht="12.75">
       <c r="A250" s="12"/>
       <c r="B250" s="12"/>
       <c r="C250" s="12"/>
@@ -8442,7 +8444,7 @@
       <c r="X250" s="1"/>
       <c r="Y250" s="1"/>
     </row>
-    <row r="251" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:25" ht="12.75">
       <c r="A251" s="12"/>
       <c r="B251" s="12"/>
       <c r="C251" s="12"/>
@@ -8469,7 +8471,7 @@
       <c r="X251" s="1"/>
       <c r="Y251" s="1"/>
     </row>
-    <row r="252" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:25" ht="12.75">
       <c r="A252" s="12"/>
       <c r="B252" s="12"/>
       <c r="C252" s="12"/>
@@ -8496,7 +8498,7 @@
       <c r="X252" s="1"/>
       <c r="Y252" s="1"/>
     </row>
-    <row r="253" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:25" ht="12.75">
       <c r="A253" s="12"/>
       <c r="B253" s="12"/>
       <c r="C253" s="12"/>
@@ -8523,7 +8525,7 @@
       <c r="X253" s="1"/>
       <c r="Y253" s="1"/>
     </row>
-    <row r="254" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:25" ht="12.75">
       <c r="A254" s="12"/>
       <c r="B254" s="12"/>
       <c r="C254" s="12"/>
@@ -8550,7 +8552,7 @@
       <c r="X254" s="1"/>
       <c r="Y254" s="1"/>
     </row>
-    <row r="255" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:25" ht="12.75">
       <c r="A255" s="12"/>
       <c r="B255" s="12"/>
       <c r="C255" s="12"/>
@@ -8577,7 +8579,7 @@
       <c r="X255" s="1"/>
       <c r="Y255" s="1"/>
     </row>
-    <row r="256" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:25" ht="12.75">
       <c r="A256" s="12"/>
       <c r="B256" s="12"/>
       <c r="C256" s="12"/>
@@ -8604,7 +8606,7 @@
       <c r="X256" s="1"/>
       <c r="Y256" s="1"/>
     </row>
-    <row r="257" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:25" ht="12.75">
       <c r="A257" s="12"/>
       <c r="B257" s="12"/>
       <c r="C257" s="12"/>
@@ -8631,7 +8633,7 @@
       <c r="X257" s="1"/>
       <c r="Y257" s="1"/>
     </row>
-    <row r="258" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:25" ht="12.75">
       <c r="A258" s="12"/>
       <c r="B258" s="12"/>
       <c r="C258" s="12"/>
@@ -8658,7 +8660,7 @@
       <c r="X258" s="1"/>
       <c r="Y258" s="1"/>
     </row>
-    <row r="259" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:25" ht="12.75">
       <c r="A259" s="12"/>
       <c r="B259" s="12"/>
       <c r="C259" s="12"/>
@@ -8685,7 +8687,7 @@
       <c r="X259" s="1"/>
       <c r="Y259" s="1"/>
     </row>
-    <row r="260" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:25" ht="12.75">
       <c r="A260" s="12"/>
       <c r="B260" s="12"/>
       <c r="C260" s="12"/>
@@ -8712,7 +8714,7 @@
       <c r="X260" s="1"/>
       <c r="Y260" s="1"/>
     </row>
-    <row r="261" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:25" ht="12.75">
       <c r="A261" s="12"/>
       <c r="B261" s="12"/>
       <c r="C261" s="12"/>
@@ -8739,7 +8741,7 @@
       <c r="X261" s="1"/>
       <c r="Y261" s="1"/>
     </row>
-    <row r="262" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:25" ht="12.75">
       <c r="A262" s="12"/>
       <c r="B262" s="12"/>
       <c r="C262" s="12"/>
@@ -8766,7 +8768,7 @@
       <c r="X262" s="1"/>
       <c r="Y262" s="1"/>
     </row>
-    <row r="263" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:25" ht="12.75">
       <c r="A263" s="12"/>
       <c r="B263" s="12"/>
       <c r="C263" s="12"/>
@@ -8793,7 +8795,7 @@
       <c r="X263" s="1"/>
       <c r="Y263" s="1"/>
     </row>
-    <row r="264" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:25" ht="12.75">
       <c r="A264" s="12"/>
       <c r="B264" s="12"/>
       <c r="C264" s="12"/>
@@ -8820,7 +8822,7 @@
       <c r="X264" s="1"/>
       <c r="Y264" s="1"/>
     </row>
-    <row r="265" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:25" ht="12.75">
       <c r="A265" s="12"/>
       <c r="B265" s="12"/>
       <c r="C265" s="12"/>
@@ -8847,7 +8849,7 @@
       <c r="X265" s="1"/>
       <c r="Y265" s="1"/>
     </row>
-    <row r="266" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:25" ht="12.75">
       <c r="A266" s="12"/>
       <c r="B266" s="12"/>
       <c r="C266" s="12"/>
@@ -8874,7 +8876,7 @@
       <c r="X266" s="1"/>
       <c r="Y266" s="1"/>
     </row>
-    <row r="267" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:25" ht="12.75">
       <c r="A267" s="12"/>
       <c r="B267" s="12"/>
       <c r="C267" s="12"/>
@@ -8901,7 +8903,7 @@
       <c r="X267" s="1"/>
       <c r="Y267" s="1"/>
     </row>
-    <row r="268" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:25" ht="12.75">
       <c r="A268" s="12"/>
       <c r="B268" s="12"/>
       <c r="C268" s="12"/>
@@ -8928,7 +8930,7 @@
       <c r="X268" s="1"/>
       <c r="Y268" s="1"/>
     </row>
-    <row r="269" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:25" ht="12.75">
       <c r="A269" s="12"/>
       <c r="B269" s="12"/>
       <c r="C269" s="12"/>
@@ -8955,7 +8957,7 @@
       <c r="X269" s="1"/>
       <c r="Y269" s="1"/>
     </row>
-    <row r="270" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:25" ht="12.75">
       <c r="A270" s="12"/>
       <c r="B270" s="12"/>
       <c r="C270" s="12"/>
@@ -8982,7 +8984,7 @@
       <c r="X270" s="1"/>
       <c r="Y270" s="1"/>
     </row>
-    <row r="271" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:25" ht="12.75">
       <c r="A271" s="12"/>
       <c r="B271" s="12"/>
       <c r="C271" s="12"/>
@@ -9009,7 +9011,7 @@
       <c r="X271" s="1"/>
       <c r="Y271" s="1"/>
     </row>
-    <row r="272" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:25" ht="12.75">
       <c r="A272" s="12"/>
       <c r="B272" s="12"/>
       <c r="C272" s="12"/>
@@ -9036,7 +9038,7 @@
       <c r="X272" s="1"/>
       <c r="Y272" s="1"/>
     </row>
-    <row r="273" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:25" ht="12.75">
       <c r="A273" s="12"/>
       <c r="B273" s="12"/>
       <c r="C273" s="12"/>
@@ -9063,7 +9065,7 @@
       <c r="X273" s="1"/>
       <c r="Y273" s="1"/>
     </row>
-    <row r="274" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:25" ht="12.75">
       <c r="A274" s="12"/>
       <c r="B274" s="12"/>
       <c r="C274" s="12"/>
@@ -9090,7 +9092,7 @@
       <c r="X274" s="1"/>
       <c r="Y274" s="1"/>
     </row>
-    <row r="275" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:25" ht="12.75">
       <c r="A275" s="12"/>
       <c r="B275" s="12"/>
       <c r="C275" s="12"/>
@@ -9117,7 +9119,7 @@
       <c r="X275" s="1"/>
       <c r="Y275" s="1"/>
     </row>
-    <row r="276" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:25" ht="12.75">
       <c r="A276" s="12"/>
       <c r="B276" s="12"/>
       <c r="C276" s="12"/>
@@ -9144,7 +9146,7 @@
       <c r="X276" s="1"/>
       <c r="Y276" s="1"/>
     </row>
-    <row r="277" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:25" ht="12.75">
       <c r="A277" s="12"/>
       <c r="B277" s="12"/>
       <c r="C277" s="12"/>
@@ -9171,7 +9173,7 @@
       <c r="X277" s="1"/>
       <c r="Y277" s="1"/>
     </row>
-    <row r="278" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:25" ht="12.75">
       <c r="A278" s="12"/>
       <c r="B278" s="12"/>
       <c r="C278" s="12"/>
@@ -9198,7 +9200,7 @@
       <c r="X278" s="1"/>
       <c r="Y278" s="1"/>
     </row>
-    <row r="279" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:25" ht="12.75">
       <c r="A279" s="12"/>
       <c r="B279" s="12"/>
       <c r="C279" s="12"/>
@@ -9225,7 +9227,7 @@
       <c r="X279" s="1"/>
       <c r="Y279" s="1"/>
     </row>
-    <row r="280" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:25" ht="12.75">
       <c r="A280" s="12"/>
       <c r="B280" s="12"/>
       <c r="C280" s="12"/>
@@ -9252,7 +9254,7 @@
       <c r="X280" s="1"/>
       <c r="Y280" s="1"/>
     </row>
-    <row r="281" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:25" ht="12.75">
       <c r="A281" s="12"/>
       <c r="B281" s="12"/>
       <c r="C281" s="12"/>
@@ -9279,7 +9281,7 @@
       <c r="X281" s="1"/>
       <c r="Y281" s="1"/>
     </row>
-    <row r="282" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:25" ht="12.75">
       <c r="A282" s="12"/>
       <c r="B282" s="12"/>
       <c r="C282" s="12"/>
@@ -9306,7 +9308,7 @@
       <c r="X282" s="1"/>
       <c r="Y282" s="1"/>
     </row>
-    <row r="283" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:25" ht="12.75">
       <c r="A283" s="12"/>
       <c r="B283" s="12"/>
       <c r="C283" s="12"/>
@@ -9333,7 +9335,7 @@
       <c r="X283" s="1"/>
       <c r="Y283" s="1"/>
     </row>
-    <row r="284" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:25" ht="12.75">
       <c r="A284" s="12"/>
       <c r="B284" s="12"/>
       <c r="C284" s="12"/>
@@ -9360,7 +9362,7 @@
       <c r="X284" s="1"/>
       <c r="Y284" s="1"/>
     </row>
-    <row r="285" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:25" ht="12.75">
       <c r="A285" s="12"/>
       <c r="B285" s="12"/>
       <c r="C285" s="12"/>
@@ -9387,7 +9389,7 @@
       <c r="X285" s="1"/>
       <c r="Y285" s="1"/>
     </row>
-    <row r="286" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:25" ht="12.75">
       <c r="A286" s="12"/>
       <c r="B286" s="12"/>
       <c r="C286" s="12"/>
@@ -9414,7 +9416,7 @@
       <c r="X286" s="1"/>
       <c r="Y286" s="1"/>
     </row>
-    <row r="287" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:25" ht="12.75">
       <c r="A287" s="12"/>
       <c r="B287" s="12"/>
       <c r="C287" s="12"/>
@@ -9441,7 +9443,7 @@
       <c r="X287" s="1"/>
       <c r="Y287" s="1"/>
     </row>
-    <row r="288" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:25" ht="12.75">
       <c r="A288" s="12"/>
       <c r="B288" s="12"/>
       <c r="C288" s="12"/>
@@ -9468,7 +9470,7 @@
       <c r="X288" s="1"/>
       <c r="Y288" s="1"/>
     </row>
-    <row r="289" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:25" ht="12.75">
       <c r="A289" s="12"/>
       <c r="B289" s="12"/>
       <c r="C289" s="12"/>
@@ -9495,7 +9497,7 @@
       <c r="X289" s="1"/>
       <c r="Y289" s="1"/>
     </row>
-    <row r="290" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:25" ht="12.75">
       <c r="A290" s="12"/>
       <c r="B290" s="12"/>
       <c r="C290" s="12"/>
@@ -9522,7 +9524,7 @@
       <c r="X290" s="1"/>
       <c r="Y290" s="1"/>
     </row>
-    <row r="291" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:25" ht="12.75">
       <c r="A291" s="12"/>
       <c r="B291" s="12"/>
       <c r="C291" s="12"/>
@@ -9549,7 +9551,7 @@
       <c r="X291" s="1"/>
       <c r="Y291" s="1"/>
     </row>
-    <row r="292" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:25" ht="12.75">
       <c r="A292" s="12"/>
       <c r="B292" s="12"/>
       <c r="C292" s="12"/>
@@ -9576,7 +9578,7 @@
       <c r="X292" s="1"/>
       <c r="Y292" s="1"/>
     </row>
-    <row r="293" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:25" ht="12.75">
       <c r="A293" s="12"/>
       <c r="B293" s="12"/>
       <c r="C293" s="12"/>
@@ -9603,7 +9605,7 @@
       <c r="X293" s="1"/>
       <c r="Y293" s="1"/>
     </row>
-    <row r="294" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:25" ht="12.75">
       <c r="A294" s="12"/>
       <c r="B294" s="12"/>
       <c r="C294" s="12"/>
@@ -9630,7 +9632,7 @@
       <c r="X294" s="1"/>
       <c r="Y294" s="1"/>
     </row>
-    <row r="295" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:25" ht="12.75">
       <c r="A295" s="12"/>
       <c r="B295" s="12"/>
       <c r="C295" s="12"/>
@@ -9657,7 +9659,7 @@
       <c r="X295" s="1"/>
       <c r="Y295" s="1"/>
     </row>
-    <row r="296" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:25" ht="12.75">
       <c r="A296" s="12"/>
       <c r="B296" s="12"/>
       <c r="C296" s="12"/>
@@ -9684,7 +9686,7 @@
       <c r="X296" s="1"/>
       <c r="Y296" s="1"/>
     </row>
-    <row r="297" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:25" ht="12.75">
       <c r="A297" s="12"/>
       <c r="B297" s="12"/>
       <c r="C297" s="12"/>
@@ -9711,7 +9713,7 @@
       <c r="X297" s="1"/>
       <c r="Y297" s="1"/>
     </row>
-    <row r="298" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:25" ht="12.75">
       <c r="A298" s="12"/>
       <c r="B298" s="12"/>
       <c r="C298" s="12"/>
@@ -9738,7 +9740,7 @@
       <c r="X298" s="1"/>
       <c r="Y298" s="1"/>
     </row>
-    <row r="299" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:25" ht="12.75">
       <c r="A299" s="12"/>
       <c r="B299" s="12"/>
       <c r="C299" s="12"/>
@@ -9765,7 +9767,7 @@
       <c r="X299" s="1"/>
       <c r="Y299" s="1"/>
     </row>
-    <row r="300" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:25" ht="12.75">
       <c r="A300" s="12"/>
       <c r="B300" s="12"/>
       <c r="C300" s="12"/>
@@ -9792,7 +9794,7 @@
       <c r="X300" s="1"/>
       <c r="Y300" s="1"/>
     </row>
-    <row r="301" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:25" ht="12.75">
       <c r="A301" s="12"/>
       <c r="B301" s="12"/>
       <c r="C301" s="12"/>
@@ -9819,7 +9821,7 @@
       <c r="X301" s="1"/>
       <c r="Y301" s="1"/>
     </row>
-    <row r="302" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:25" ht="12.75">
       <c r="A302" s="12"/>
       <c r="B302" s="12"/>
       <c r="C302" s="12"/>
@@ -9846,7 +9848,7 @@
       <c r="X302" s="1"/>
       <c r="Y302" s="1"/>
     </row>
-    <row r="303" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:25" ht="12.75">
       <c r="A303" s="12"/>
       <c r="B303" s="12"/>
       <c r="C303" s="12"/>
@@ -9873,7 +9875,7 @@
       <c r="X303" s="1"/>
       <c r="Y303" s="1"/>
     </row>
-    <row r="304" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:25" ht="12.75">
       <c r="A304" s="12"/>
       <c r="B304" s="12"/>
       <c r="C304" s="12"/>
@@ -9900,7 +9902,7 @@
       <c r="X304" s="1"/>
       <c r="Y304" s="1"/>
     </row>
-    <row r="305" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:25" ht="12.75">
       <c r="A305" s="12"/>
       <c r="B305" s="12"/>
       <c r="C305" s="12"/>
@@ -9927,7 +9929,7 @@
       <c r="X305" s="1"/>
       <c r="Y305" s="1"/>
     </row>
-    <row r="306" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:25" ht="12.75">
       <c r="A306" s="12"/>
       <c r="B306" s="12"/>
       <c r="C306" s="12"/>
@@ -9954,7 +9956,7 @@
       <c r="X306" s="1"/>
       <c r="Y306" s="1"/>
     </row>
-    <row r="307" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:25" ht="12.75">
       <c r="A307" s="12"/>
       <c r="B307" s="12"/>
       <c r="C307" s="12"/>
@@ -9981,7 +9983,7 @@
       <c r="X307" s="1"/>
       <c r="Y307" s="1"/>
     </row>
-    <row r="308" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:25" ht="12.75">
       <c r="A308" s="12"/>
       <c r="B308" s="12"/>
       <c r="C308" s="12"/>
@@ -10008,7 +10010,7 @@
       <c r="X308" s="1"/>
       <c r="Y308" s="1"/>
     </row>
-    <row r="309" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:25" ht="12.75">
       <c r="A309" s="12"/>
       <c r="B309" s="12"/>
       <c r="C309" s="12"/>
@@ -10035,7 +10037,7 @@
       <c r="X309" s="1"/>
       <c r="Y309" s="1"/>
     </row>
-    <row r="310" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:25" ht="12.75">
       <c r="A310" s="12"/>
       <c r="B310" s="12"/>
       <c r="C310" s="12"/>
@@ -10062,7 +10064,7 @@
       <c r="X310" s="1"/>
       <c r="Y310" s="1"/>
     </row>
-    <row r="311" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:25" ht="12.75">
       <c r="A311" s="12"/>
       <c r="B311" s="12"/>
       <c r="C311" s="12"/>
@@ -10089,7 +10091,7 @@
       <c r="X311" s="1"/>
       <c r="Y311" s="1"/>
     </row>
-    <row r="312" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:25" ht="12.75">
       <c r="A312" s="12"/>
       <c r="B312" s="12"/>
       <c r="C312" s="12"/>
@@ -10116,7 +10118,7 @@
       <c r="X312" s="1"/>
       <c r="Y312" s="1"/>
     </row>
-    <row r="313" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:25" ht="12.75">
       <c r="A313" s="12"/>
       <c r="B313" s="12"/>
       <c r="C313" s="12"/>
@@ -10143,7 +10145,7 @@
       <c r="X313" s="1"/>
       <c r="Y313" s="1"/>
     </row>
-    <row r="314" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:25" ht="12.75">
       <c r="A314" s="12"/>
       <c r="B314" s="12"/>
       <c r="C314" s="12"/>
@@ -10170,7 +10172,7 @@
       <c r="X314" s="1"/>
       <c r="Y314" s="1"/>
     </row>
-    <row r="315" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:25" ht="12.75">
       <c r="A315" s="12"/>
       <c r="B315" s="12"/>
       <c r="C315" s="12"/>
@@ -10197,7 +10199,7 @@
       <c r="X315" s="1"/>
       <c r="Y315" s="1"/>
     </row>
-    <row r="316" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:25" ht="12.75">
       <c r="A316" s="12"/>
       <c r="B316" s="12"/>
       <c r="C316" s="12"/>
@@ -10224,7 +10226,7 @@
       <c r="X316" s="1"/>
       <c r="Y316" s="1"/>
     </row>
-    <row r="317" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:25" ht="12.75">
       <c r="A317" s="12"/>
       <c r="B317" s="12"/>
       <c r="C317" s="12"/>
@@ -10251,7 +10253,7 @@
       <c r="X317" s="1"/>
       <c r="Y317" s="1"/>
     </row>
-    <row r="318" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:25" ht="12.75">
       <c r="A318" s="12"/>
       <c r="B318" s="12"/>
       <c r="C318" s="12"/>
@@ -10278,7 +10280,7 @@
       <c r="X318" s="1"/>
       <c r="Y318" s="1"/>
     </row>
-    <row r="319" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:25" ht="12.75">
       <c r="A319" s="12"/>
       <c r="B319" s="12"/>
       <c r="C319" s="12"/>
@@ -10305,7 +10307,7 @@
       <c r="X319" s="1"/>
       <c r="Y319" s="1"/>
     </row>
-    <row r="320" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:25" ht="12.75">
       <c r="A320" s="12"/>
       <c r="B320" s="12"/>
       <c r="C320" s="12"/>
@@ -10332,7 +10334,7 @@
       <c r="X320" s="1"/>
       <c r="Y320" s="1"/>
     </row>
-    <row r="321" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:25" ht="12.75">
       <c r="A321" s="12"/>
       <c r="B321" s="12"/>
       <c r="C321" s="12"/>
@@ -10359,7 +10361,7 @@
       <c r="X321" s="1"/>
       <c r="Y321" s="1"/>
     </row>
-    <row r="322" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:25" ht="12.75">
       <c r="A322" s="12"/>
       <c r="B322" s="12"/>
       <c r="C322" s="12"/>
@@ -10386,7 +10388,7 @@
       <c r="X322" s="1"/>
       <c r="Y322" s="1"/>
     </row>
-    <row r="323" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:25" ht="12.75">
       <c r="A323" s="12"/>
       <c r="B323" s="12"/>
       <c r="C323" s="12"/>
@@ -10413,7 +10415,7 @@
       <c r="X323" s="1"/>
       <c r="Y323" s="1"/>
     </row>
-    <row r="324" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:25" ht="12.75">
       <c r="A324" s="12"/>
       <c r="B324" s="12"/>
       <c r="C324" s="12"/>
@@ -10440,7 +10442,7 @@
       <c r="X324" s="1"/>
       <c r="Y324" s="1"/>
     </row>
-    <row r="325" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:25" ht="12.75">
       <c r="A325" s="12"/>
       <c r="B325" s="12"/>
       <c r="C325" s="12"/>
@@ -10467,7 +10469,7 @@
       <c r="X325" s="1"/>
       <c r="Y325" s="1"/>
     </row>
-    <row r="326" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:25" ht="12.75">
       <c r="A326" s="12"/>
       <c r="B326" s="12"/>
       <c r="C326" s="12"/>
@@ -10494,7 +10496,7 @@
       <c r="X326" s="1"/>
       <c r="Y326" s="1"/>
     </row>
-    <row r="327" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:25" ht="12.75">
       <c r="A327" s="12"/>
       <c r="B327" s="12"/>
       <c r="C327" s="12"/>
@@ -10521,7 +10523,7 @@
       <c r="X327" s="1"/>
       <c r="Y327" s="1"/>
     </row>
-    <row r="328" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:25" ht="12.75">
       <c r="A328" s="12"/>
       <c r="B328" s="12"/>
       <c r="C328" s="12"/>
@@ -10548,7 +10550,7 @@
       <c r="X328" s="1"/>
       <c r="Y328" s="1"/>
     </row>
-    <row r="329" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:25" ht="12.75">
       <c r="A329" s="12"/>
       <c r="B329" s="12"/>
       <c r="C329" s="12"/>
@@ -10575,7 +10577,7 @@
       <c r="X329" s="1"/>
       <c r="Y329" s="1"/>
     </row>
-    <row r="330" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:25" ht="12.75">
       <c r="A330" s="12"/>
       <c r="B330" s="12"/>
       <c r="C330" s="12"/>
@@ -10602,7 +10604,7 @@
       <c r="X330" s="1"/>
       <c r="Y330" s="1"/>
     </row>
-    <row r="331" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:25" ht="12.75">
       <c r="A331" s="12"/>
       <c r="B331" s="12"/>
       <c r="C331" s="12"/>
@@ -10629,7 +10631,7 @@
       <c r="X331" s="1"/>
       <c r="Y331" s="1"/>
     </row>
-    <row r="332" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:25" ht="12.75">
       <c r="A332" s="12"/>
       <c r="B332" s="12"/>
       <c r="C332" s="12"/>
@@ -10656,7 +10658,7 @@
       <c r="X332" s="1"/>
       <c r="Y332" s="1"/>
     </row>
-    <row r="333" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:25" ht="12.75">
       <c r="A333" s="12"/>
       <c r="B333" s="12"/>
       <c r="C333" s="12"/>
@@ -10683,7 +10685,7 @@
       <c r="X333" s="1"/>
       <c r="Y333" s="1"/>
     </row>
-    <row r="334" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:25" ht="12.75">
       <c r="A334" s="12"/>
       <c r="B334" s="12"/>
       <c r="C334" s="12"/>
@@ -10710,7 +10712,7 @@
       <c r="X334" s="1"/>
       <c r="Y334" s="1"/>
     </row>
-    <row r="335" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:25" ht="12.75">
       <c r="A335" s="12"/>
       <c r="B335" s="12"/>
       <c r="C335" s="12"/>
@@ -10737,7 +10739,7 @@
       <c r="X335" s="1"/>
       <c r="Y335" s="1"/>
     </row>
-    <row r="336" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:25" ht="12.75">
       <c r="A336" s="12"/>
       <c r="B336" s="12"/>
       <c r="C336" s="12"/>
@@ -10764,7 +10766,7 @@
       <c r="X336" s="1"/>
       <c r="Y336" s="1"/>
     </row>
-    <row r="337" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:25" ht="12.75">
       <c r="A337" s="12"/>
       <c r="B337" s="12"/>
       <c r="C337" s="12"/>
@@ -10791,7 +10793,7 @@
       <c r="X337" s="1"/>
       <c r="Y337" s="1"/>
     </row>
-    <row r="338" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:25" ht="12.75">
       <c r="A338" s="12"/>
       <c r="B338" s="12"/>
       <c r="C338" s="12"/>
@@ -10818,7 +10820,7 @@
       <c r="X338" s="1"/>
       <c r="Y338" s="1"/>
     </row>
-    <row r="339" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:25" ht="12.75">
       <c r="A339" s="12"/>
       <c r="B339" s="12"/>
       <c r="C339" s="12"/>
@@ -10845,7 +10847,7 @@
       <c r="X339" s="1"/>
       <c r="Y339" s="1"/>
     </row>
-    <row r="340" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:25" ht="12.75">
       <c r="A340" s="12"/>
       <c r="B340" s="12"/>
       <c r="C340" s="12"/>
@@ -10872,7 +10874,7 @@
       <c r="X340" s="1"/>
       <c r="Y340" s="1"/>
     </row>
-    <row r="341" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:25" ht="12.75">
       <c r="A341" s="12"/>
       <c r="B341" s="12"/>
       <c r="C341" s="12"/>
@@ -10899,7 +10901,7 @@
       <c r="X341" s="1"/>
       <c r="Y341" s="1"/>
     </row>
-    <row r="342" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:25" ht="12.75">
       <c r="A342" s="12"/>
       <c r="B342" s="12"/>
       <c r="C342" s="12"/>
@@ -10926,7 +10928,7 @@
       <c r="X342" s="1"/>
       <c r="Y342" s="1"/>
     </row>
-    <row r="343" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:25" ht="12.75">
       <c r="A343" s="12"/>
       <c r="B343" s="12"/>
       <c r="C343" s="12"/>
@@ -10953,7 +10955,7 @@
       <c r="X343" s="1"/>
       <c r="Y343" s="1"/>
     </row>
-    <row r="344" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:25" ht="12.75">
       <c r="A344" s="12"/>
       <c r="B344" s="12"/>
       <c r="C344" s="12"/>
@@ -10980,7 +10982,7 @@
       <c r="X344" s="1"/>
       <c r="Y344" s="1"/>
     </row>
-    <row r="345" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:25" ht="12.75">
       <c r="A345" s="12"/>
       <c r="B345" s="12"/>
       <c r="C345" s="12"/>
@@ -11007,7 +11009,7 @@
       <c r="X345" s="1"/>
       <c r="Y345" s="1"/>
     </row>
-    <row r="346" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:25" ht="12.75">
       <c r="A346" s="12"/>
       <c r="B346" s="12"/>
       <c r="C346" s="12"/>
@@ -11034,7 +11036,7 @@
       <c r="X346" s="1"/>
       <c r="Y346" s="1"/>
     </row>
-    <row r="347" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:25" ht="12.75">
       <c r="A347" s="12"/>
       <c r="B347" s="12"/>
       <c r="C347" s="12"/>
@@ -11061,7 +11063,7 @@
       <c r="X347" s="1"/>
       <c r="Y347" s="1"/>
     </row>
-    <row r="348" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:25" ht="12.75">
       <c r="A348" s="12"/>
       <c r="B348" s="12"/>
       <c r="C348" s="12"/>
@@ -11088,7 +11090,7 @@
       <c r="X348" s="1"/>
       <c r="Y348" s="1"/>
     </row>
-    <row r="349" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:25" ht="12.75">
       <c r="A349" s="12"/>
       <c r="B349" s="12"/>
       <c r="C349" s="12"/>
@@ -11115,7 +11117,7 @@
       <c r="X349" s="1"/>
       <c r="Y349" s="1"/>
     </row>
-    <row r="350" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:25" ht="12.75">
       <c r="A350" s="12"/>
       <c r="B350" s="12"/>
       <c r="C350" s="12"/>
@@ -11142,7 +11144,7 @@
       <c r="X350" s="1"/>
       <c r="Y350" s="1"/>
     </row>
-    <row r="351" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:25" ht="12.75">
       <c r="A351" s="12"/>
       <c r="B351" s="12"/>
       <c r="C351" s="12"/>
@@ -11169,7 +11171,7 @@
       <c r="X351" s="1"/>
       <c r="Y351" s="1"/>
     </row>
-    <row r="352" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:25" ht="12.75">
       <c r="A352" s="12"/>
       <c r="B352" s="12"/>
       <c r="C352" s="12"/>
@@ -11196,7 +11198,7 @@
       <c r="X352" s="1"/>
       <c r="Y352" s="1"/>
     </row>
-    <row r="353" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:25" ht="12.75">
       <c r="A353" s="12"/>
       <c r="B353" s="12"/>
       <c r="C353" s="12"/>
@@ -11223,7 +11225,7 @@
       <c r="X353" s="1"/>
       <c r="Y353" s="1"/>
     </row>
-    <row r="354" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:25" ht="12.75">
       <c r="A354" s="12"/>
       <c r="B354" s="12"/>
       <c r="C354" s="12"/>
@@ -11250,7 +11252,7 @@
       <c r="X354" s="1"/>
       <c r="Y354" s="1"/>
     </row>
-    <row r="355" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:25" ht="12.75">
       <c r="A355" s="12"/>
       <c r="B355" s="12"/>
       <c r="C355" s="12"/>
@@ -11277,7 +11279,7 @@
       <c r="X355" s="1"/>
       <c r="Y355" s="1"/>
     </row>
-    <row r="356" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:25" ht="12.75">
       <c r="A356" s="12"/>
       <c r="B356" s="12"/>
       <c r="C356" s="12"/>
@@ -11304,7 +11306,7 @@
       <c r="X356" s="1"/>
       <c r="Y356" s="1"/>
     </row>
-    <row r="357" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:25" ht="12.75">
       <c r="A357" s="12"/>
       <c r="B357" s="12"/>
       <c r="C357" s="12"/>
@@ -11331,7 +11333,7 @@
       <c r="X357" s="1"/>
       <c r="Y357" s="1"/>
     </row>
-    <row r="358" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:25" ht="12.75">
       <c r="A358" s="12"/>
       <c r="B358" s="12"/>
       <c r="C358" s="12"/>
@@ -11358,7 +11360,7 @@
       <c r="X358" s="1"/>
       <c r="Y358" s="1"/>
     </row>
-    <row r="359" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:25" ht="12.75">
       <c r="A359" s="12"/>
       <c r="B359" s="12"/>
       <c r="C359" s="12"/>
@@ -11385,7 +11387,7 @@
       <c r="X359" s="1"/>
       <c r="Y359" s="1"/>
     </row>
-    <row r="360" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:25" ht="12.75">
       <c r="A360" s="12"/>
       <c r="B360" s="12"/>
       <c r="C360" s="12"/>
@@ -11412,7 +11414,7 @@
       <c r="X360" s="1"/>
       <c r="Y360" s="1"/>
     </row>
-    <row r="361" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:25" ht="12.75">
       <c r="A361" s="12"/>
       <c r="B361" s="12"/>
       <c r="C361" s="12"/>
@@ -11439,7 +11441,7 @@
       <c r="X361" s="1"/>
       <c r="Y361" s="1"/>
     </row>
-    <row r="362" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:25" ht="12.75">
       <c r="A362" s="12"/>
       <c r="B362" s="12"/>
       <c r="C362" s="12"/>
@@ -11466,7 +11468,7 @@
       <c r="X362" s="1"/>
       <c r="Y362" s="1"/>
     </row>
-    <row r="363" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:25" ht="12.75">
       <c r="A363" s="12"/>
       <c r="B363" s="12"/>
       <c r="C363" s="12"/>
@@ -11493,7 +11495,7 @@
       <c r="X363" s="1"/>
       <c r="Y363" s="1"/>
     </row>
-    <row r="364" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:25" ht="12.75">
       <c r="A364" s="12"/>
       <c r="B364" s="12"/>
       <c r="C364" s="12"/>
@@ -11520,7 +11522,7 @@
       <c r="X364" s="1"/>
       <c r="Y364" s="1"/>
     </row>
-    <row r="365" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:25" ht="12.75">
       <c r="A365" s="12"/>
       <c r="B365" s="12"/>
       <c r="C365" s="12"/>
@@ -11547,7 +11549,7 @@
       <c r="X365" s="1"/>
       <c r="Y365" s="1"/>
     </row>
-    <row r="366" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:25" ht="12.75">
       <c r="A366" s="12"/>
       <c r="B366" s="12"/>
       <c r="C366" s="12"/>
@@ -11574,7 +11576,7 @@
       <c r="X366" s="1"/>
       <c r="Y366" s="1"/>
     </row>
-    <row r="367" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:25" ht="12.75">
       <c r="A367" s="12"/>
       <c r="B367" s="12"/>
       <c r="C367" s="12"/>
@@ -11601,7 +11603,7 @@
       <c r="X367" s="1"/>
       <c r="Y367" s="1"/>
     </row>
-    <row r="368" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:25" ht="12.75">
       <c r="A368" s="12"/>
       <c r="B368" s="12"/>
       <c r="C368" s="12"/>
@@ -11628,7 +11630,7 @@
       <c r="X368" s="1"/>
       <c r="Y368" s="1"/>
     </row>
-    <row r="369" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:25" ht="12.75">
       <c r="A369" s="12"/>
       <c r="B369" s="12"/>
       <c r="C369" s="12"/>
@@ -11655,7 +11657,7 @@
       <c r="X369" s="1"/>
       <c r="Y369" s="1"/>
     </row>
-    <row r="370" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:25" ht="12.75">
       <c r="A370" s="12"/>
       <c r="B370" s="12"/>
       <c r="C370" s="12"/>
@@ -11682,7 +11684,7 @@
       <c r="X370" s="1"/>
       <c r="Y370" s="1"/>
     </row>
-    <row r="371" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:25" ht="12.75">
       <c r="A371" s="12"/>
       <c r="B371" s="12"/>
       <c r="C371" s="12"/>
@@ -11709,7 +11711,7 @@
       <c r="X371" s="1"/>
       <c r="Y371" s="1"/>
     </row>
-    <row r="372" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:25" ht="12.75">
       <c r="A372" s="12"/>
       <c r="B372" s="12"/>
       <c r="C372" s="12"/>
@@ -11736,7 +11738,7 @@
       <c r="X372" s="1"/>
       <c r="Y372" s="1"/>
     </row>
-    <row r="373" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:25" ht="12.75">
       <c r="A373" s="12"/>
       <c r="B373" s="12"/>
       <c r="C373" s="12"/>
@@ -11763,7 +11765,7 @@
       <c r="X373" s="1"/>
       <c r="Y373" s="1"/>
     </row>
-    <row r="374" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:25" ht="12.75">
       <c r="A374" s="12"/>
       <c r="B374" s="12"/>
       <c r="C374" s="12"/>
@@ -11790,7 +11792,7 @@
       <c r="X374" s="1"/>
       <c r="Y374" s="1"/>
     </row>
-    <row r="375" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:25" ht="12.75">
       <c r="A375" s="12"/>
       <c r="B375" s="12"/>
       <c r="C375" s="12"/>
@@ -11817,7 +11819,7 @@
       <c r="X375" s="1"/>
       <c r="Y375" s="1"/>
     </row>
-    <row r="376" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:25" ht="12.75">
       <c r="A376" s="12"/>
       <c r="B376" s="12"/>
       <c r="C376" s="12"/>
@@ -11844,7 +11846,7 @@
       <c r="X376" s="1"/>
       <c r="Y376" s="1"/>
     </row>
-    <row r="377" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:25" ht="12.75">
       <c r="A377" s="12"/>
       <c r="B377" s="12"/>
       <c r="C377" s="12"/>
@@ -11871,7 +11873,7 @@
       <c r="X377" s="1"/>
       <c r="Y377" s="1"/>
     </row>
-    <row r="378" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:25" ht="12.75">
       <c r="A378" s="12"/>
       <c r="B378" s="12"/>
       <c r="C378" s="12"/>
@@ -11898,7 +11900,7 @@
       <c r="X378" s="1"/>
       <c r="Y378" s="1"/>
     </row>
-    <row r="379" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:25" ht="12.75">
       <c r="A379" s="12"/>
       <c r="B379" s="12"/>
       <c r="C379" s="12"/>
@@ -11925,7 +11927,7 @@
       <c r="X379" s="1"/>
       <c r="Y379" s="1"/>
     </row>
-    <row r="380" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:25" ht="12.75">
       <c r="A380" s="12"/>
       <c r="B380" s="12"/>
       <c r="C380" s="12"/>
@@ -11952,7 +11954,7 @@
       <c r="X380" s="1"/>
       <c r="Y380" s="1"/>
     </row>
-    <row r="381" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:25" ht="12.75">
       <c r="A381" s="12"/>
       <c r="B381" s="12"/>
       <c r="C381" s="12"/>
@@ -11979,7 +11981,7 @@
       <c r="X381" s="1"/>
       <c r="Y381" s="1"/>
     </row>
-    <row r="382" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:25" ht="12.75">
       <c r="A382" s="12"/>
       <c r="B382" s="12"/>
       <c r="C382" s="12"/>
@@ -12006,7 +12008,7 @@
       <c r="X382" s="1"/>
       <c r="Y382" s="1"/>
     </row>
-    <row r="383" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:25" ht="12.75">
       <c r="A383" s="12"/>
       <c r="B383" s="12"/>
       <c r="C383" s="12"/>
@@ -12033,7 +12035,7 @@
       <c r="X383" s="1"/>
       <c r="Y383" s="1"/>
     </row>
-    <row r="384" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:25" ht="12.75">
       <c r="A384" s="12"/>
       <c r="B384" s="12"/>
       <c r="C384" s="12"/>
@@ -12060,7 +12062,7 @@
       <c r="X384" s="1"/>
       <c r="Y384" s="1"/>
     </row>
-    <row r="385" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:25" ht="12.75">
       <c r="A385" s="12"/>
       <c r="B385" s="12"/>
       <c r="C385" s="12"/>
@@ -12087,7 +12089,7 @@
       <c r="X385" s="1"/>
       <c r="Y385" s="1"/>
     </row>
-    <row r="386" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:25" ht="12.75">
       <c r="A386" s="12"/>
       <c r="B386" s="12"/>
       <c r="C386" s="12"/>
@@ -12114,7 +12116,7 @@
       <c r="X386" s="1"/>
       <c r="Y386" s="1"/>
     </row>
-    <row r="387" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:25" ht="12.75">
       <c r="A387" s="12"/>
       <c r="B387" s="12"/>
       <c r="C387" s="12"/>
@@ -12141,7 +12143,7 @@
       <c r="X387" s="1"/>
       <c r="Y387" s="1"/>
     </row>
-    <row r="388" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:25" ht="12.75">
       <c r="A388" s="12"/>
       <c r="B388" s="12"/>
       <c r="C388" s="12"/>
@@ -12168,7 +12170,7 @@
       <c r="X388" s="1"/>
       <c r="Y388" s="1"/>
     </row>
-    <row r="389" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:25" ht="12.75">
       <c r="A389" s="12"/>
       <c r="B389" s="12"/>
       <c r="C389" s="12"/>
@@ -12195,7 +12197,7 @@
       <c r="X389" s="1"/>
       <c r="Y389" s="1"/>
     </row>
-    <row r="390" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:25" ht="12.75">
       <c r="A390" s="12"/>
       <c r="B390" s="12"/>
       <c r="C390" s="12"/>
@@ -12222,7 +12224,7 @@
       <c r="X390" s="1"/>
       <c r="Y390" s="1"/>
     </row>
-    <row r="391" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:25" ht="12.75">
       <c r="A391" s="12"/>
       <c r="B391" s="12"/>
       <c r="C391" s="12"/>
@@ -12249,7 +12251,7 @@
       <c r="X391" s="1"/>
       <c r="Y391" s="1"/>
     </row>
-    <row r="392" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:25" ht="12.75">
       <c r="A392" s="12"/>
       <c r="B392" s="12"/>
       <c r="C392" s="12"/>
@@ -12276,7 +12278,7 @@
       <c r="X392" s="1"/>
       <c r="Y392" s="1"/>
     </row>
-    <row r="393" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:25" ht="12.75">
       <c r="A393" s="12"/>
       <c r="B393" s="12"/>
       <c r="C393" s="12"/>
@@ -12303,7 +12305,7 @@
       <c r="X393" s="1"/>
       <c r="Y393" s="1"/>
     </row>
-    <row r="394" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:25" ht="12.75">
       <c r="A394" s="12"/>
       <c r="B394" s="12"/>
       <c r="C394" s="12"/>
@@ -12330,7 +12332,7 @@
       <c r="X394" s="1"/>
       <c r="Y394" s="1"/>
     </row>
-    <row r="395" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:25" ht="12.75">
       <c r="A395" s="12"/>
       <c r="B395" s="12"/>
       <c r="C395" s="12"/>
@@ -12357,7 +12359,7 @@
       <c r="X395" s="1"/>
       <c r="Y395" s="1"/>
     </row>
-    <row r="396" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:25" ht="12.75">
       <c r="A396" s="12"/>
       <c r="B396" s="12"/>
       <c r="C396" s="12"/>
@@ -12384,7 +12386,7 @@
       <c r="X396" s="1"/>
       <c r="Y396" s="1"/>
     </row>
-    <row r="397" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:25" ht="12.75">
       <c r="A397" s="12"/>
       <c r="B397" s="12"/>
       <c r="C397" s="12"/>
@@ -12411,7 +12413,7 @@
       <c r="X397" s="1"/>
       <c r="Y397" s="1"/>
     </row>
-    <row r="398" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:25" ht="12.75">
       <c r="A398" s="12"/>
       <c r="B398" s="12"/>
       <c r="C398" s="12"/>
@@ -12438,7 +12440,7 @@
       <c r="X398" s="1"/>
       <c r="Y398" s="1"/>
     </row>
-    <row r="399" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:25" ht="12.75">
       <c r="A399" s="12"/>
       <c r="B399" s="12"/>
       <c r="C399" s="12"/>
@@ -12465,7 +12467,7 @@
       <c r="X399" s="1"/>
       <c r="Y399" s="1"/>
     </row>
-    <row r="400" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:25" ht="12.75">
       <c r="A400" s="12"/>
       <c r="B400" s="12"/>
       <c r="C400" s="12"/>
@@ -12492,7 +12494,7 @@
       <c r="X400" s="1"/>
       <c r="Y400" s="1"/>
     </row>
-    <row r="401" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:25" ht="12.75">
       <c r="A401" s="12"/>
       <c r="B401" s="12"/>
       <c r="C401" s="12"/>
@@ -12519,7 +12521,7 @@
       <c r="X401" s="1"/>
       <c r="Y401" s="1"/>
     </row>
-    <row r="402" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:25" ht="12.75">
       <c r="A402" s="12"/>
       <c r="B402" s="12"/>
       <c r="C402" s="12"/>
@@ -12546,7 +12548,7 @@
       <c r="X402" s="1"/>
       <c r="Y402" s="1"/>
     </row>
-    <row r="403" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:25" ht="12.75">
       <c r="A403" s="12"/>
       <c r="B403" s="12"/>
       <c r="C403" s="12"/>
@@ -12573,7 +12575,7 @@
       <c r="X403" s="1"/>
       <c r="Y403" s="1"/>
     </row>
-    <row r="404" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:25" ht="12.75">
       <c r="A404" s="12"/>
       <c r="B404" s="12"/>
       <c r="C404" s="12"/>
@@ -12600,7 +12602,7 @@
       <c r="X404" s="1"/>
       <c r="Y404" s="1"/>
     </row>
-    <row r="405" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:25" ht="12.75">
       <c r="A405" s="12"/>
       <c r="B405" s="12"/>
       <c r="C405" s="12"/>
@@ -12627,7 +12629,7 @@
       <c r="X405" s="1"/>
       <c r="Y405" s="1"/>
     </row>
-    <row r="406" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:25" ht="12.75">
       <c r="A406" s="12"/>
       <c r="B406" s="12"/>
       <c r="C406" s="12"/>
@@ -12654,7 +12656,7 @@
       <c r="X406" s="1"/>
       <c r="Y406" s="1"/>
     </row>
-    <row r="407" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:25" ht="12.75">
       <c r="A407" s="12"/>
       <c r="B407" s="12"/>
       <c r="C407" s="12"/>
@@ -12681,7 +12683,7 @@
       <c r="X407" s="1"/>
       <c r="Y407" s="1"/>
     </row>
-    <row r="408" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:25" ht="12.75">
       <c r="A408" s="12"/>
       <c r="B408" s="12"/>
       <c r="C408" s="12"/>
@@ -12708,7 +12710,7 @@
       <c r="X408" s="1"/>
       <c r="Y408" s="1"/>
     </row>
-    <row r="409" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:25" ht="12.75">
       <c r="A409" s="12"/>
       <c r="B409" s="12"/>
       <c r="C409" s="12"/>
@@ -12735,7 +12737,7 @@
       <c r="X409" s="1"/>
       <c r="Y409" s="1"/>
     </row>
-    <row r="410" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:25" ht="12.75">
       <c r="A410" s="12"/>
       <c r="B410" s="12"/>
       <c r="C410" s="12"/>
@@ -12762,7 +12764,7 @@
       <c r="X410" s="1"/>
       <c r="Y410" s="1"/>
     </row>
-    <row r="411" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:25" ht="12.75">
       <c r="A411" s="12"/>
       <c r="B411" s="12"/>
       <c r="C411" s="12"/>
@@ -12789,7 +12791,7 @@
       <c r="X411" s="1"/>
       <c r="Y411" s="1"/>
     </row>
-    <row r="412" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:25" ht="12.75">
       <c r="A412" s="12"/>
       <c r="B412" s="12"/>
       <c r="C412" s="12"/>
@@ -12816,7 +12818,7 @@
       <c r="X412" s="1"/>
       <c r="Y412" s="1"/>
     </row>
-    <row r="413" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:25" ht="12.75">
       <c r="A413" s="12"/>
       <c r="B413" s="12"/>
       <c r="C413" s="12"/>
@@ -12843,7 +12845,7 @@
       <c r="X413" s="1"/>
       <c r="Y413" s="1"/>
     </row>
-    <row r="414" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:25" ht="12.75">
       <c r="A414" s="12"/>
       <c r="B414" s="12"/>
       <c r="C414" s="12"/>
@@ -12870,7 +12872,7 @@
       <c r="X414" s="1"/>
       <c r="Y414" s="1"/>
     </row>
-    <row r="415" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:25" ht="12.75">
       <c r="A415" s="12"/>
       <c r="B415" s="12"/>
       <c r="C415" s="12"/>
@@ -12897,7 +12899,7 @@
       <c r="X415" s="1"/>
       <c r="Y415" s="1"/>
     </row>
-    <row r="416" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:25" ht="12.75">
       <c r="A416" s="12"/>
       <c r="B416" s="12"/>
       <c r="C416" s="12"/>
@@ -12924,7 +12926,7 @@
       <c r="X416" s="1"/>
       <c r="Y416" s="1"/>
     </row>
-    <row r="417" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:25" ht="12.75">
       <c r="A417" s="12"/>
       <c r="B417" s="12"/>
       <c r="C417" s="12"/>
@@ -12951,7 +12953,7 @@
       <c r="X417" s="1"/>
       <c r="Y417" s="1"/>
     </row>
-    <row r="418" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:25" ht="12.75">
       <c r="A418" s="12"/>
       <c r="B418" s="12"/>
       <c r="C418" s="12"/>
@@ -12978,7 +12980,7 @@
       <c r="X418" s="1"/>
       <c r="Y418" s="1"/>
     </row>
-    <row r="419" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:25" ht="12.75">
       <c r="A419" s="12"/>
       <c r="B419" s="12"/>
       <c r="C419" s="12"/>
@@ -13005,7 +13007,7 @@
       <c r="X419" s="1"/>
       <c r="Y419" s="1"/>
     </row>
-    <row r="420" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:25" ht="12.75">
       <c r="A420" s="12"/>
       <c r="B420" s="12"/>
       <c r="C420" s="12"/>
@@ -13032,7 +13034,7 @@
       <c r="X420" s="1"/>
       <c r="Y420" s="1"/>
     </row>
-    <row r="421" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:25" ht="12.75">
       <c r="A421" s="12"/>
       <c r="B421" s="12"/>
       <c r="C421" s="12"/>
@@ -13059,7 +13061,7 @@
       <c r="X421" s="1"/>
       <c r="Y421" s="1"/>
     </row>
-    <row r="422" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:25" ht="12.75">
       <c r="A422" s="12"/>
       <c r="B422" s="12"/>
       <c r="C422" s="12"/>
@@ -13086,7 +13088,7 @@
       <c r="X422" s="1"/>
       <c r="Y422" s="1"/>
     </row>
-    <row r="423" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:25" ht="12.75">
       <c r="A423" s="12"/>
       <c r="B423" s="12"/>
       <c r="C423" s="12"/>
@@ -13113,7 +13115,7 @@
       <c r="X423" s="1"/>
       <c r="Y423" s="1"/>
     </row>
-    <row r="424" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:25" ht="12.75">
       <c r="A424" s="12"/>
       <c r="B424" s="12"/>
       <c r="C424" s="12"/>
@@ -13140,7 +13142,7 @@
       <c r="X424" s="1"/>
       <c r="Y424" s="1"/>
     </row>
-    <row r="425" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:25" ht="12.75">
       <c r="A425" s="12"/>
       <c r="B425" s="12"/>
       <c r="C425" s="12"/>
@@ -13167,7 +13169,7 @@
       <c r="X425" s="1"/>
       <c r="Y425" s="1"/>
     </row>
-    <row r="426" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:25" ht="12.75">
       <c r="A426" s="12"/>
       <c r="B426" s="12"/>
       <c r="C426" s="12"/>
@@ -13194,7 +13196,7 @@
       <c r="X426" s="1"/>
       <c r="Y426" s="1"/>
     </row>
-    <row r="427" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:25" ht="12.75">
       <c r="A427" s="12"/>
       <c r="B427" s="12"/>
       <c r="C427" s="12"/>
@@ -13221,7 +13223,7 @@
       <c r="X427" s="1"/>
       <c r="Y427" s="1"/>
     </row>
-    <row r="428" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:25" ht="12.75">
       <c r="A428" s="12"/>
       <c r="B428" s="12"/>
       <c r="C428" s="12"/>
@@ -13248,7 +13250,7 @@
       <c r="X428" s="1"/>
       <c r="Y428" s="1"/>
     </row>
-    <row r="429" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:25" ht="12.75">
       <c r="A429" s="12"/>
       <c r="B429" s="12"/>
       <c r="C429" s="12"/>
@@ -13275,7 +13277,7 @@
       <c r="X429" s="1"/>
       <c r="Y429" s="1"/>
     </row>
-    <row r="430" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:25" ht="12.75">
       <c r="A430" s="12"/>
       <c r="B430" s="12"/>
       <c r="C430" s="12"/>
@@ -13302,7 +13304,7 @@
       <c r="X430" s="1"/>
       <c r="Y430" s="1"/>
     </row>
-    <row r="431" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:25" ht="12.75">
       <c r="A431" s="12"/>
       <c r="B431" s="12"/>
       <c r="C431" s="12"/>
@@ -13329,7 +13331,7 @@
       <c r="X431" s="1"/>
       <c r="Y431" s="1"/>
     </row>
-    <row r="432" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:25" ht="12.75">
       <c r="A432" s="12"/>
       <c r="B432" s="12"/>
       <c r="C432" s="12"/>
@@ -13356,7 +13358,7 @@
       <c r="X432" s="1"/>
       <c r="Y432" s="1"/>
     </row>
-    <row r="433" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:25" ht="12.75">
       <c r="A433" s="12"/>
       <c r="B433" s="12"/>
       <c r="C433" s="12"/>
@@ -13383,7 +13385,7 @@
       <c r="X433" s="1"/>
       <c r="Y433" s="1"/>
     </row>
-    <row r="434" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:25" ht="12.75">
       <c r="A434" s="12"/>
       <c r="B434" s="12"/>
       <c r="C434" s="12"/>
@@ -13410,7 +13412,7 @@
       <c r="X434" s="1"/>
       <c r="Y434" s="1"/>
     </row>
-    <row r="435" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:25" ht="12.75">
       <c r="A435" s="12"/>
       <c r="B435" s="12"/>
       <c r="C435" s="12"/>
@@ -13437,7 +13439,7 @@
       <c r="X435" s="1"/>
       <c r="Y435" s="1"/>
     </row>
-    <row r="436" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:25" ht="12.75">
       <c r="A436" s="12"/>
       <c r="B436" s="12"/>
       <c r="C436" s="12"/>
@@ -13464,7 +13466,7 @@
       <c r="X436" s="1"/>
       <c r="Y436" s="1"/>
     </row>
-    <row r="437" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:25" ht="12.75">
       <c r="A437" s="12"/>
       <c r="B437" s="12"/>
       <c r="C437" s="12"/>
@@ -13491,7 +13493,7 @@
       <c r="X437" s="1"/>
       <c r="Y437" s="1"/>
     </row>
-    <row r="438" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:25" ht="12.75">
       <c r="A438" s="12"/>
       <c r="B438" s="12"/>
       <c r="C438" s="12"/>
@@ -13518,7 +13520,7 @@
       <c r="X438" s="1"/>
       <c r="Y438" s="1"/>
     </row>
-    <row r="439" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:25" ht="12.75">
       <c r="A439" s="12"/>
       <c r="B439" s="12"/>
       <c r="C439" s="12"/>
@@ -13545,7 +13547,7 @@
       <c r="X439" s="1"/>
       <c r="Y439" s="1"/>
     </row>
-    <row r="440" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:25" ht="12.75">
       <c r="A440" s="12"/>
       <c r="B440" s="12"/>
       <c r="C440" s="12"/>
@@ -13572,7 +13574,7 @@
       <c r="X440" s="1"/>
       <c r="Y440" s="1"/>
     </row>
-    <row r="441" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:25" ht="12.75">
       <c r="A441" s="12"/>
       <c r="B441" s="12"/>
       <c r="C441" s="12"/>
@@ -13599,7 +13601,7 @@
       <c r="X441" s="1"/>
       <c r="Y441" s="1"/>
     </row>
-    <row r="442" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:25" ht="12.75">
       <c r="A442" s="12"/>
       <c r="B442" s="12"/>
       <c r="C442" s="12"/>
@@ -13626,7 +13628,7 @@
       <c r="X442" s="1"/>
       <c r="Y442" s="1"/>
     </row>
-    <row r="443" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:25" ht="12.75">
       <c r="A443" s="12"/>
       <c r="B443" s="12"/>
       <c r="C443" s="12"/>
@@ -13653,7 +13655,7 @@
       <c r="X443" s="1"/>
       <c r="Y443" s="1"/>
     </row>
-    <row r="444" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:25" ht="12.75">
       <c r="A444" s="12"/>
       <c r="B444" s="12"/>
       <c r="C444" s="12"/>
@@ -13680,7 +13682,7 @@
       <c r="X444" s="1"/>
       <c r="Y444" s="1"/>
     </row>
-    <row r="445" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:25" ht="12.75">
       <c r="A445" s="12"/>
       <c r="B445" s="12"/>
       <c r="C445" s="12"/>
@@ -13707,7 +13709,7 @@
       <c r="X445" s="1"/>
       <c r="Y445" s="1"/>
     </row>
-    <row r="446" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:25" ht="12.75">
       <c r="A446" s="12"/>
       <c r="B446" s="12"/>
       <c r="C446" s="12"/>
@@ -13734,7 +13736,7 @@
       <c r="X446" s="1"/>
       <c r="Y446" s="1"/>
     </row>
-    <row r="447" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:25" ht="12.75">
       <c r="A447" s="12"/>
       <c r="B447" s="12"/>
       <c r="C447" s="12"/>
@@ -13761,7 +13763,7 @@
       <c r="X447" s="1"/>
       <c r="Y447" s="1"/>
     </row>
-    <row r="448" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:25" ht="12.75">
       <c r="A448" s="12"/>
       <c r="B448" s="12"/>
       <c r="C448" s="12"/>
@@ -13788,7 +13790,7 @@
       <c r="X448" s="1"/>
       <c r="Y448" s="1"/>
     </row>
-    <row r="449" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:25" ht="12.75">
       <c r="A449" s="12"/>
       <c r="B449" s="12"/>
       <c r="C449" s="12"/>
@@ -13815,7 +13817,7 @@
       <c r="X449" s="1"/>
       <c r="Y449" s="1"/>
     </row>
-    <row r="450" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:25" ht="12.75">
       <c r="A450" s="12"/>
       <c r="B450" s="12"/>
       <c r="C450" s="12"/>
@@ -13842,7 +13844,7 @@
       <c r="X450" s="1"/>
       <c r="Y450" s="1"/>
     </row>
-    <row r="451" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:25" ht="12.75">
       <c r="A451" s="12"/>
       <c r="B451" s="12"/>
       <c r="C451" s="12"/>
@@ -13869,7 +13871,7 @@
       <c r="X451" s="1"/>
       <c r="Y451" s="1"/>
     </row>
-    <row r="452" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:25" ht="12.75">
       <c r="A452" s="12"/>
       <c r="B452" s="12"/>
       <c r="C452" s="12"/>
@@ -13896,7 +13898,7 @@
       <c r="X452" s="1"/>
       <c r="Y452" s="1"/>
     </row>
-    <row r="453" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:25" ht="12.75">
       <c r="A453" s="12"/>
       <c r="B453" s="12"/>
       <c r="C453" s="12"/>
@@ -13923,7 +13925,7 @@
       <c r="X453" s="1"/>
       <c r="Y453" s="1"/>
     </row>
-    <row r="454" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:25" ht="12.75">
       <c r="A454" s="12"/>
       <c r="B454" s="12"/>
       <c r="C454" s="12"/>
@@ -13950,7 +13952,7 @@
       <c r="X454" s="1"/>
       <c r="Y454" s="1"/>
     </row>
-    <row r="455" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:25" ht="12.75">
       <c r="A455" s="12"/>
       <c r="B455" s="12"/>
       <c r="C455" s="12"/>
@@ -13977,7 +13979,7 @@
       <c r="X455" s="1"/>
       <c r="Y455" s="1"/>
     </row>
-    <row r="456" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:25" ht="12.75">
       <c r="A456" s="12"/>
       <c r="B456" s="12"/>
       <c r="C456" s="12"/>
@@ -14004,7 +14006,7 @@
       <c r="X456" s="1"/>
       <c r="Y456" s="1"/>
     </row>
-    <row r="457" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:25" ht="12.75">
       <c r="A457" s="12"/>
       <c r="B457" s="12"/>
       <c r="C457" s="12"/>
@@ -14031,7 +14033,7 @@
       <c r="X457" s="1"/>
       <c r="Y457" s="1"/>
     </row>
-    <row r="458" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:25" ht="12.75">
       <c r="A458" s="12"/>
       <c r="B458" s="12"/>
       <c r="C458" s="12"/>
@@ -14058,7 +14060,7 @@
       <c r="X458" s="1"/>
       <c r="Y458" s="1"/>
     </row>
-    <row r="459" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:25" ht="12.75">
       <c r="A459" s="12"/>
       <c r="B459" s="12"/>
       <c r="C459" s="12"/>
@@ -14085,7 +14087,7 @@
       <c r="X459" s="1"/>
       <c r="Y459" s="1"/>
     </row>
-    <row r="460" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:25" ht="12.75">
       <c r="A460" s="12"/>
       <c r="B460" s="12"/>
       <c r="C460" s="12"/>
@@ -14112,7 +14114,7 @@
       <c r="X460" s="1"/>
       <c r="Y460" s="1"/>
     </row>
-    <row r="461" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:25" ht="12.75">
       <c r="A461" s="12"/>
       <c r="B461" s="12"/>
       <c r="C461" s="12"/>
@@ -14139,7 +14141,7 @@
       <c r="X461" s="1"/>
       <c r="Y461" s="1"/>
     </row>
-    <row r="462" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:25" ht="12.75">
       <c r="A462" s="12"/>
       <c r="B462" s="12"/>
       <c r="C462" s="12"/>
@@ -14166,7 +14168,7 @@
       <c r="X462" s="1"/>
       <c r="Y462" s="1"/>
     </row>
-    <row r="463" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:25" ht="12.75">
       <c r="A463" s="12"/>
       <c r="B463" s="12"/>
       <c r="C463" s="12"/>
@@ -14193,7 +14195,7 @@
       <c r="X463" s="1"/>
       <c r="Y463" s="1"/>
     </row>
-    <row r="464" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:25" ht="12.75">
       <c r="A464" s="12"/>
       <c r="B464" s="12"/>
       <c r="C464" s="12"/>
@@ -14220,7 +14222,7 @@
       <c r="X464" s="1"/>
       <c r="Y464" s="1"/>
     </row>
-    <row r="465" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:25" ht="12.75">
       <c r="A465" s="12"/>
       <c r="B465" s="12"/>
       <c r="C465" s="12"/>
@@ -14247,7 +14249,7 @@
       <c r="X465" s="1"/>
       <c r="Y465" s="1"/>
     </row>
-    <row r="466" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:25" ht="12.75">
       <c r="A466" s="12"/>
       <c r="B466" s="12"/>
       <c r="C466" s="12"/>
@@ -14274,7 +14276,7 @@
       <c r="X466" s="1"/>
       <c r="Y466" s="1"/>
     </row>
-    <row r="467" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:25" ht="12.75">
       <c r="A467" s="12"/>
       <c r="B467" s="12"/>
       <c r="C467" s="12"/>
@@ -14301,7 +14303,7 @@
       <c r="X467" s="1"/>
       <c r="Y467" s="1"/>
     </row>
-    <row r="468" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:25" ht="12.75">
       <c r="A468" s="12"/>
       <c r="B468" s="12"/>
       <c r="C468" s="12"/>
@@ -14328,7 +14330,7 @@
       <c r="X468" s="1"/>
       <c r="Y468" s="1"/>
     </row>
-    <row r="469" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:25" ht="12.75">
       <c r="A469" s="12"/>
       <c r="B469" s="12"/>
       <c r="C469" s="12"/>
@@ -14355,7 +14357,7 @@
       <c r="X469" s="1"/>
       <c r="Y469" s="1"/>
     </row>
-    <row r="470" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:25" ht="12.75">
       <c r="A470" s="12"/>
       <c r="B470" s="12"/>
       <c r="C470" s="12"/>
@@ -14382,7 +14384,7 @@
       <c r="X470" s="1"/>
       <c r="Y470" s="1"/>
     </row>
-    <row r="471" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:25" ht="12.75">
       <c r="A471" s="12"/>
       <c r="B471" s="12"/>
       <c r="C471" s="12"/>
@@ -14409,7 +14411,7 @@
       <c r="X471" s="1"/>
       <c r="Y471" s="1"/>
     </row>
-    <row r="472" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:25" ht="12.75">
       <c r="A472" s="12"/>
       <c r="B472" s="12"/>
       <c r="C472" s="12"/>
@@ -14436,7 +14438,7 @@
       <c r="X472" s="1"/>
       <c r="Y472" s="1"/>
     </row>
-    <row r="473" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:25" ht="12.75">
       <c r="A473" s="12"/>
       <c r="B473" s="12"/>
       <c r="C473" s="12"/>
@@ -14463,7 +14465,7 @@
       <c r="X473" s="1"/>
       <c r="Y473" s="1"/>
     </row>
-    <row r="474" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:25" ht="12.75">
       <c r="A474" s="12"/>
       <c r="B474" s="12"/>
       <c r="C474" s="12"/>
@@ -14490,7 +14492,7 @@
       <c r="X474" s="1"/>
       <c r="Y474" s="1"/>
     </row>
-    <row r="475" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:25" ht="12.75">
       <c r="A475" s="12"/>
       <c r="B475" s="12"/>
       <c r="C475" s="12"/>
@@ -14517,7 +14519,7 @@
       <c r="X475" s="1"/>
       <c r="Y475" s="1"/>
     </row>
-    <row r="476" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:25" ht="12.75">
       <c r="A476" s="12"/>
       <c r="B476" s="12"/>
       <c r="C476" s="12"/>
@@ -14544,7 +14546,7 @@
       <c r="X476" s="1"/>
       <c r="Y476" s="1"/>
     </row>
-    <row r="477" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:25" ht="12.75">
       <c r="A477" s="12"/>
       <c r="B477" s="12"/>
       <c r="C477" s="12"/>
@@ -14571,7 +14573,7 @@
       <c r="X477" s="1"/>
       <c r="Y477" s="1"/>
     </row>
-    <row r="478" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:25" ht="12.75">
       <c r="A478" s="12"/>
       <c r="B478" s="12"/>
       <c r="C478" s="12"/>
@@ -14598,7 +14600,7 @@
       <c r="X478" s="1"/>
       <c r="Y478" s="1"/>
     </row>
-    <row r="479" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:25" ht="12.75">
       <c r="A479" s="12"/>
       <c r="B479" s="12"/>
       <c r="C479" s="12"/>
@@ -14625,7 +14627,7 @@
       <c r="X479" s="1"/>
       <c r="Y479" s="1"/>
     </row>
-    <row r="480" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:25" ht="12.75">
       <c r="A480" s="12"/>
       <c r="B480" s="12"/>
       <c r="C480" s="12"/>
@@ -14652,7 +14654,7 @@
       <c r="X480" s="1"/>
       <c r="Y480" s="1"/>
     </row>
-    <row r="481" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:25" ht="12.75">
       <c r="A481" s="12"/>
       <c r="B481" s="12"/>
       <c r="C481" s="12"/>
@@ -14679,7 +14681,7 @@
       <c r="X481" s="1"/>
       <c r="Y481" s="1"/>
     </row>
-    <row r="482" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:25" ht="12.75">
       <c r="A482" s="12"/>
       <c r="B482" s="12"/>
       <c r="C482" s="12"/>
@@ -14706,7 +14708,7 @@
       <c r="X482" s="1"/>
       <c r="Y482" s="1"/>
     </row>
-    <row r="483" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:25" ht="12.75">
       <c r="A483" s="12"/>
       <c r="B483" s="12"/>
       <c r="C483" s="12"/>
@@ -14733,7 +14735,7 @@
       <c r="X483" s="1"/>
       <c r="Y483" s="1"/>
     </row>
-    <row r="484" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:25" ht="12.75">
       <c r="A484" s="12"/>
       <c r="B484" s="12"/>
       <c r="C484" s="12"/>
@@ -14760,7 +14762,7 @@
       <c r="X484" s="1"/>
       <c r="Y484" s="1"/>
     </row>
-    <row r="485" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:25" ht="12.75">
       <c r="A485" s="12"/>
       <c r="B485" s="12"/>
       <c r="C485" s="12"/>
@@ -14787,7 +14789,7 @@
       <c r="X485" s="1"/>
       <c r="Y485" s="1"/>
     </row>
-    <row r="486" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:25" ht="12.75">
       <c r="A486" s="12"/>
       <c r="B486" s="12"/>
       <c r="C486" s="12"/>
@@ -14814,7 +14816,7 @@
       <c r="X486" s="1"/>
       <c r="Y486" s="1"/>
     </row>
-    <row r="487" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:25" ht="12.75">
       <c r="A487" s="12"/>
       <c r="B487" s="12"/>
       <c r="C487" s="12"/>
@@ -14841,7 +14843,7 @@
       <c r="X487" s="1"/>
       <c r="Y487" s="1"/>
     </row>
-    <row r="488" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:25" ht="12.75">
       <c r="A488" s="12"/>
       <c r="B488" s="12"/>
       <c r="C488" s="12"/>
@@ -14868,7 +14870,7 @@
       <c r="X488" s="1"/>
       <c r="Y488" s="1"/>
     </row>
-    <row r="489" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:25" ht="12.75">
       <c r="A489" s="12"/>
       <c r="B489" s="12"/>
       <c r="C489" s="12"/>
@@ -14895,7 +14897,7 @@
       <c r="X489" s="1"/>
       <c r="Y489" s="1"/>
     </row>
-    <row r="490" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:25" ht="12.75">
       <c r="A490" s="12"/>
       <c r="B490" s="12"/>
       <c r="C490" s="12"/>
@@ -14922,7 +14924,7 @@
       <c r="X490" s="1"/>
       <c r="Y490" s="1"/>
     </row>
-    <row r="491" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:25" ht="12.75">
       <c r="A491" s="12"/>
       <c r="B491" s="12"/>
       <c r="C491" s="12"/>
@@ -14949,7 +14951,7 @@
       <c r="X491" s="1"/>
       <c r="Y491" s="1"/>
     </row>
-    <row r="492" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:25" ht="12.75">
       <c r="A492" s="12"/>
       <c r="B492" s="12"/>
       <c r="C492" s="12"/>
@@ -14976,7 +14978,7 @@
       <c r="X492" s="1"/>
       <c r="Y492" s="1"/>
     </row>
-    <row r="493" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:25" ht="12.75">
       <c r="A493" s="12"/>
       <c r="B493" s="12"/>
       <c r="C493" s="12"/>
@@ -15003,7 +15005,7 @@
       <c r="X493" s="1"/>
       <c r="Y493" s="1"/>
     </row>
-    <row r="494" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:25" ht="12.75">
       <c r="A494" s="12"/>
       <c r="B494" s="12"/>
       <c r="C494" s="12"/>
@@ -15030,7 +15032,7 @@
       <c r="X494" s="1"/>
       <c r="Y494" s="1"/>
     </row>
-    <row r="495" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:25" ht="12.75">
       <c r="A495" s="12"/>
       <c r="B495" s="12"/>
       <c r="C495" s="12"/>
@@ -15057,7 +15059,7 @@
       <c r="X495" s="1"/>
       <c r="Y495" s="1"/>
     </row>
-    <row r="496" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:25" ht="12.75">
       <c r="A496" s="12"/>
       <c r="B496" s="12"/>
       <c r="C496" s="12"/>
@@ -15084,7 +15086,7 @@
       <c r="X496" s="1"/>
       <c r="Y496" s="1"/>
     </row>
-    <row r="497" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:25" ht="12.75">
       <c r="A497" s="12"/>
       <c r="B497" s="12"/>
       <c r="C497" s="12"/>
@@ -15111,7 +15113,7 @@
       <c r="X497" s="1"/>
       <c r="Y497" s="1"/>
     </row>
-    <row r="498" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:25" ht="12.75">
       <c r="A498" s="12"/>
       <c r="B498" s="12"/>
       <c r="C498" s="12"/>
@@ -15138,7 +15140,7 @@
       <c r="X498" s="1"/>
       <c r="Y498" s="1"/>
     </row>
-    <row r="499" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:25" ht="12.75">
       <c r="A499" s="12"/>
       <c r="B499" s="12"/>
       <c r="C499" s="12"/>
@@ -15165,7 +15167,7 @@
       <c r="X499" s="1"/>
       <c r="Y499" s="1"/>
     </row>
-    <row r="500" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:25" ht="12.75">
       <c r="A500" s="12"/>
       <c r="B500" s="12"/>
       <c r="C500" s="12"/>
@@ -15192,7 +15194,7 @@
       <c r="X500" s="1"/>
       <c r="Y500" s="1"/>
     </row>
-    <row r="501" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:25" ht="12.75">
       <c r="A501" s="12"/>
       <c r="B501" s="12"/>
       <c r="C501" s="12"/>
@@ -15219,7 +15221,7 @@
       <c r="X501" s="1"/>
       <c r="Y501" s="1"/>
     </row>
-    <row r="502" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:25" ht="12.75">
       <c r="A502" s="12"/>
       <c r="B502" s="12"/>
       <c r="C502" s="12"/>
@@ -15246,7 +15248,7 @@
       <c r="X502" s="1"/>
       <c r="Y502" s="1"/>
     </row>
-    <row r="503" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:25" ht="12.75">
       <c r="A503" s="12"/>
       <c r="B503" s="12"/>
       <c r="C503" s="12"/>
@@ -15273,7 +15275,7 @@
       <c r="X503" s="1"/>
       <c r="Y503" s="1"/>
     </row>
-    <row r="504" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:25" ht="12.75">
       <c r="A504" s="12"/>
       <c r="B504" s="12"/>
       <c r="C504" s="12"/>
@@ -15300,7 +15302,7 @@
       <c r="X504" s="1"/>
       <c r="Y504" s="1"/>
     </row>
-    <row r="505" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:25" ht="12.75">
       <c r="A505" s="12"/>
       <c r="B505" s="12"/>
       <c r="C505" s="12"/>
@@ -15327,7 +15329,7 @@
       <c r="X505" s="1"/>
       <c r="Y505" s="1"/>
     </row>
-    <row r="506" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:25" ht="12.75">
       <c r="A506" s="12"/>
       <c r="B506" s="12"/>
       <c r="C506" s="12"/>
@@ -15354,7 +15356,7 @@
       <c r="X506" s="1"/>
       <c r="Y506" s="1"/>
     </row>
-    <row r="507" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:25" ht="12.75">
       <c r="A507" s="12"/>
       <c r="B507" s="12"/>
       <c r="C507" s="12"/>
@@ -15381,7 +15383,7 @@
       <c r="X507" s="1"/>
       <c r="Y507" s="1"/>
     </row>
-    <row r="508" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:25" ht="12.75">
       <c r="A508" s="12"/>
       <c r="B508" s="12"/>
       <c r="C508" s="12"/>
@@ -15408,7 +15410,7 @@
       <c r="X508" s="1"/>
       <c r="Y508" s="1"/>
     </row>
-    <row r="509" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:25" ht="12.75">
       <c r="A509" s="12"/>
       <c r="B509" s="12"/>
       <c r="C509" s="12"/>
@@ -15435,7 +15437,7 @@
       <c r="X509" s="1"/>
       <c r="Y509" s="1"/>
     </row>
-    <row r="510" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:25" ht="12.75">
       <c r="A510" s="12"/>
       <c r="B510" s="12"/>
       <c r="C510" s="12"/>
@@ -15462,7 +15464,7 @@
       <c r="X510" s="1"/>
       <c r="Y510" s="1"/>
     </row>
-    <row r="511" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:25" ht="12.75">
       <c r="A511" s="12"/>
       <c r="B511" s="12"/>
       <c r="C511" s="12"/>
@@ -15489,7 +15491,7 @@
       <c r="X511" s="1"/>
       <c r="Y511" s="1"/>
     </row>
-    <row r="512" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:25" ht="12.75">
       <c r="A512" s="12"/>
       <c r="B512" s="12"/>
       <c r="C512" s="12"/>
@@ -15516,7 +15518,7 @@
       <c r="X512" s="1"/>
       <c r="Y512" s="1"/>
     </row>
-    <row r="513" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:25" ht="12.75">
       <c r="A513" s="12"/>
       <c r="B513" s="12"/>
       <c r="C513" s="12"/>
@@ -15543,7 +15545,7 @@
       <c r="X513" s="1"/>
       <c r="Y513" s="1"/>
     </row>
-    <row r="514" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:25" ht="12.75">
       <c r="A514" s="12"/>
       <c r="B514" s="12"/>
       <c r="C514" s="12"/>
@@ -15570,7 +15572,7 @@
       <c r="X514" s="1"/>
       <c r="Y514" s="1"/>
     </row>
-    <row r="515" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:25" ht="12.75">
       <c r="A515" s="12"/>
       <c r="B515" s="12"/>
       <c r="C515" s="12"/>
@@ -15597,7 +15599,7 @@
       <c r="X515" s="1"/>
       <c r="Y515" s="1"/>
     </row>
-    <row r="516" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:25" ht="12.75">
       <c r="A516" s="12"/>
       <c r="B516" s="12"/>
       <c r="C516" s="12"/>
@@ -15624,7 +15626,7 @@
       <c r="X516" s="1"/>
       <c r="Y516" s="1"/>
     </row>
-    <row r="517" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:25" ht="12.75">
       <c r="A517" s="12"/>
       <c r="B517" s="12"/>
       <c r="C517" s="12"/>
@@ -15651,7 +15653,7 @@
       <c r="X517" s="1"/>
       <c r="Y517" s="1"/>
     </row>
-    <row r="518" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:25" ht="12.75">
       <c r="A518" s="12"/>
       <c r="B518" s="12"/>
       <c r="C518" s="12"/>
@@ -15678,7 +15680,7 @@
       <c r="X518" s="1"/>
       <c r="Y518" s="1"/>
     </row>
-    <row r="519" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:25" ht="12.75">
       <c r="A519" s="12"/>
       <c r="B519" s="12"/>
       <c r="C519" s="12"/>
@@ -15705,7 +15707,7 @@
       <c r="X519" s="1"/>
       <c r="Y519" s="1"/>
     </row>
-    <row r="520" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:25" ht="12.75">
       <c r="A520" s="12"/>
       <c r="B520" s="12"/>
       <c r="C520" s="12"/>
@@ -15732,7 +15734,7 @@
       <c r="X520" s="1"/>
       <c r="Y520" s="1"/>
     </row>
-    <row r="521" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:25" ht="12.75">
       <c r="A521" s="12"/>
       <c r="B521" s="12"/>
       <c r="C521" s="12"/>
@@ -15759,7 +15761,7 @@
       <c r="X521" s="1"/>
       <c r="Y521" s="1"/>
     </row>
-    <row r="522" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:25" ht="12.75">
       <c r="A522" s="12"/>
       <c r="B522" s="12"/>
       <c r="C522" s="12"/>
@@ -15786,7 +15788,7 @@
       <c r="X522" s="1"/>
       <c r="Y522" s="1"/>
     </row>
-    <row r="523" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:25" ht="12.75">
       <c r="A523" s="12"/>
       <c r="B523" s="12"/>
       <c r="C523" s="12"/>
@@ -15813,7 +15815,7 @@
       <c r="X523" s="1"/>
       <c r="Y523" s="1"/>
     </row>
-    <row r="524" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:25" ht="12.75">
       <c r="A524" s="12"/>
       <c r="B524" s="12"/>
       <c r="C524" s="12"/>
@@ -15840,7 +15842,7 @@
       <c r="X524" s="1"/>
       <c r="Y524" s="1"/>
     </row>
-    <row r="525" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:25" ht="12.75">
       <c r="A525" s="12"/>
       <c r="B525" s="12"/>
       <c r="C525" s="12"/>
@@ -15867,7 +15869,7 @@
       <c r="X525" s="1"/>
       <c r="Y525" s="1"/>
     </row>
-    <row r="526" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:25" ht="12.75">
       <c r="A526" s="12"/>
       <c r="B526" s="12"/>
       <c r="C526" s="12"/>
@@ -15894,7 +15896,7 @@
       <c r="X526" s="1"/>
       <c r="Y526" s="1"/>
     </row>
-    <row r="527" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:25" ht="12.75">
       <c r="A527" s="12"/>
       <c r="B527" s="12"/>
       <c r="C527" s="12"/>
@@ -15921,7 +15923,7 @@
       <c r="X527" s="1"/>
       <c r="Y527" s="1"/>
     </row>
-    <row r="528" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:25" ht="12.75">
       <c r="A528" s="12"/>
       <c r="B528" s="12"/>
       <c r="C528" s="12"/>
@@ -15948,7 +15950,7 @@
       <c r="X528" s="1"/>
       <c r="Y528" s="1"/>
     </row>
-    <row r="529" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:25" ht="12.75">
       <c r="A529" s="12"/>
       <c r="B529" s="12"/>
       <c r="C529" s="12"/>
@@ -15975,7 +15977,7 @@
       <c r="X529" s="1"/>
       <c r="Y529" s="1"/>
     </row>
-    <row r="530" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:25" ht="12.75">
       <c r="A530" s="12"/>
       <c r="B530" s="12"/>
       <c r="C530" s="12"/>
@@ -16002,7 +16004,7 @@
       <c r="X530" s="1"/>
       <c r="Y530" s="1"/>
     </row>
-    <row r="531" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:25" ht="12.75">
       <c r="A531" s="12"/>
       <c r="B531" s="12"/>
       <c r="C531" s="12"/>
@@ -16029,7 +16031,7 @@
       <c r="X531" s="1"/>
       <c r="Y531" s="1"/>
     </row>
-    <row r="532" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:25" ht="12.75">
       <c r="A532" s="12"/>
       <c r="B532" s="12"/>
       <c r="C532" s="12"/>
@@ -16056,7 +16058,7 @@
       <c r="X532" s="1"/>
       <c r="Y532" s="1"/>
     </row>
-    <row r="533" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:25" ht="12.75">
       <c r="A533" s="12"/>
       <c r="B533" s="12"/>
       <c r="C533" s="12"/>
@@ -16083,7 +16085,7 @@
       <c r="X533" s="1"/>
       <c r="Y533" s="1"/>
     </row>
-    <row r="534" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:25" ht="12.75">
       <c r="A534" s="12"/>
       <c r="B534" s="12"/>
       <c r="C534" s="12"/>
@@ -16110,7 +16112,7 @@
       <c r="X534" s="1"/>
       <c r="Y534" s="1"/>
     </row>
-    <row r="535" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:25" ht="12.75">
       <c r="A535" s="12"/>
       <c r="B535" s="12"/>
       <c r="C535" s="12"/>
@@ -16137,7 +16139,7 @@
       <c r="X535" s="1"/>
       <c r="Y535" s="1"/>
     </row>
-    <row r="536" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:25" ht="12.75">
       <c r="A536" s="12"/>
       <c r="B536" s="12"/>
       <c r="C536" s="12"/>
@@ -16164,7 +16166,7 @@
       <c r="X536" s="1"/>
       <c r="Y536" s="1"/>
     </row>
-    <row r="537" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:25" ht="12.75">
       <c r="A537" s="12"/>
       <c r="B537" s="12"/>
       <c r="C537" s="12"/>
@@ -16191,7 +16193,7 @@
       <c r="X537" s="1"/>
       <c r="Y537" s="1"/>
     </row>
-    <row r="538" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:25" ht="12.75">
       <c r="A538" s="12"/>
       <c r="B538" s="12"/>
       <c r="C538" s="12"/>
@@ -16218,7 +16220,7 @@
       <c r="X538" s="1"/>
       <c r="Y538" s="1"/>
     </row>
-    <row r="539" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:25" ht="12.75">
       <c r="A539" s="12"/>
       <c r="B539" s="12"/>
       <c r="C539" s="12"/>
@@ -16245,7 +16247,7 @@
       <c r="X539" s="1"/>
       <c r="Y539" s="1"/>
     </row>
-    <row r="540" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:25" ht="12.75">
       <c r="A540" s="12"/>
       <c r="B540" s="12"/>
       <c r="C540" s="12"/>
@@ -16272,7 +16274,7 @@
       <c r="X540" s="1"/>
       <c r="Y540" s="1"/>
     </row>
-    <row r="541" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:25" ht="12.75">
       <c r="A541" s="12"/>
       <c r="B541" s="12"/>
       <c r="C541" s="12"/>
@@ -16299,7 +16301,7 @@
       <c r="X541" s="1"/>
       <c r="Y541" s="1"/>
     </row>
-    <row r="542" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:25" ht="12.75">
       <c r="A542" s="12"/>
       <c r="B542" s="12"/>
       <c r="C542" s="12"/>
@@ -16326,7 +16328,7 @@
       <c r="X542" s="1"/>
       <c r="Y542" s="1"/>
     </row>
-    <row r="543" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:25" ht="12.75">
       <c r="A543" s="12"/>
       <c r="B543" s="12"/>
       <c r="C543" s="12"/>
@@ -16353,7 +16355,7 @@
       <c r="X543" s="1"/>
       <c r="Y543" s="1"/>
     </row>
-    <row r="544" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:25" ht="12.75">
       <c r="A544" s="12"/>
       <c r="B544" s="12"/>
       <c r="C544" s="12"/>
@@ -16380,7 +16382,7 @@
       <c r="X544" s="1"/>
       <c r="Y544" s="1"/>
     </row>
-    <row r="545" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:25" ht="12.75">
       <c r="A545" s="12"/>
       <c r="B545" s="12"/>
       <c r="C545" s="12"/>
@@ -16407,7 +16409,7 @@
       <c r="X545" s="1"/>
       <c r="Y545" s="1"/>
     </row>
-    <row r="546" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:25" ht="12.75">
       <c r="A546" s="12"/>
       <c r="B546" s="12"/>
       <c r="C546" s="12"/>
@@ -16434,7 +16436,7 @@
       <c r="X546" s="1"/>
       <c r="Y546" s="1"/>
     </row>
-    <row r="547" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:25" ht="12.75">
       <c r="A547" s="12"/>
       <c r="B547" s="12"/>
       <c r="C547" s="12"/>
@@ -16461,7 +16463,7 @@
       <c r="X547" s="1"/>
       <c r="Y547" s="1"/>
     </row>
-    <row r="548" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:25" ht="12.75">
       <c r="A548" s="12"/>
       <c r="B548" s="12"/>
       <c r="C548" s="12"/>
@@ -16488,7 +16490,7 @@
       <c r="X548" s="1"/>
       <c r="Y548" s="1"/>
     </row>
-    <row r="549" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:25" ht="12.75">
       <c r="A549" s="12"/>
       <c r="B549" s="12"/>
       <c r="C549" s="12"/>
@@ -16515,7 +16517,7 @@
       <c r="X549" s="1"/>
       <c r="Y549" s="1"/>
     </row>
-    <row r="550" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:25" ht="12.75">
       <c r="A550" s="12"/>
       <c r="B550" s="12"/>
       <c r="C550" s="12"/>
@@ -16542,7 +16544,7 @@
       <c r="X550" s="1"/>
       <c r="Y550" s="1"/>
     </row>
-    <row r="551" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:25" ht="12.75">
       <c r="A551" s="12"/>
       <c r="B551" s="12"/>
       <c r="C551" s="12"/>
@@ -16569,7 +16571,7 @@
       <c r="X551" s="1"/>
       <c r="Y551" s="1"/>
     </row>
-    <row r="552" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:25" ht="12.75">
       <c r="A552" s="12"/>
       <c r="B552" s="12"/>
       <c r="C552" s="12"/>
@@ -16596,7 +16598,7 @@
       <c r="X552" s="1"/>
       <c r="Y552" s="1"/>
     </row>
-    <row r="553" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:25" ht="12.75">
       <c r="A553" s="12"/>
       <c r="B553" s="12"/>
       <c r="C553" s="12"/>
@@ -16623,7 +16625,7 @@
       <c r="X553" s="1"/>
       <c r="Y553" s="1"/>
     </row>
-    <row r="554" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:25" ht="12.75">
       <c r="A554" s="12"/>
       <c r="B554" s="12"/>
       <c r="C554" s="12"/>
@@ -16650,7 +16652,7 @@
       <c r="X554" s="1"/>
       <c r="Y554" s="1"/>
     </row>
-    <row r="555" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:25" ht="12.75">
       <c r="A555" s="12"/>
       <c r="B555" s="12"/>
       <c r="C555" s="12"/>
@@ -16677,7 +16679,7 @@
       <c r="X555" s="1"/>
       <c r="Y555" s="1"/>
     </row>
-    <row r="556" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:25" ht="12.75">
       <c r="A556" s="12"/>
       <c r="B556" s="12"/>
       <c r="C556" s="12"/>
@@ -16704,7 +16706,7 @@
       <c r="X556" s="1"/>
       <c r="Y556" s="1"/>
     </row>
-    <row r="557" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:25" ht="12.75">
       <c r="A557" s="12"/>
       <c r="B557" s="12"/>
       <c r="C557" s="12"/>
@@ -16731,7 +16733,7 @@
       <c r="X557" s="1"/>
       <c r="Y557" s="1"/>
     </row>
-    <row r="558" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:25" ht="12.75">
       <c r="A558" s="12"/>
       <c r="B558" s="12"/>
       <c r="C558" s="12"/>
@@ -16758,7 +16760,7 @@
       <c r="X558" s="1"/>
       <c r="Y558" s="1"/>
     </row>
-    <row r="559" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:25" ht="12.75">
       <c r="A559" s="12"/>
       <c r="B559" s="12"/>
       <c r="C559" s="12"/>
@@ -16785,7 +16787,7 @@
       <c r="X559" s="1"/>
       <c r="Y559" s="1"/>
     </row>
-    <row r="560" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:25" ht="12.75">
       <c r="A560" s="12"/>
       <c r="B560" s="12"/>
       <c r="C560" s="12"/>
@@ -16812,7 +16814,7 @@
       <c r="X560" s="1"/>
       <c r="Y560" s="1"/>
     </row>
-    <row r="561" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:25" ht="12.75">
       <c r="A561" s="12"/>
       <c r="B561" s="12"/>
       <c r="C561" s="12"/>
@@ -16839,7 +16841,7 @@
       <c r="X561" s="1"/>
       <c r="Y561" s="1"/>
     </row>
-    <row r="562" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:25" ht="12.75">
       <c r="A562" s="12"/>
       <c r="B562" s="12"/>
       <c r="C562" s="12"/>
@@ -16866,7 +16868,7 @@
       <c r="X562" s="1"/>
       <c r="Y562" s="1"/>
     </row>
-    <row r="563" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:25" ht="12.75">
       <c r="A563" s="12"/>
       <c r="B563" s="12"/>
       <c r="C563" s="12"/>
@@ -16893,7 +16895,7 @@
       <c r="X563" s="1"/>
       <c r="Y563" s="1"/>
     </row>
-    <row r="564" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:25" ht="12.75">
       <c r="A564" s="12"/>
       <c r="B564" s="12"/>
       <c r="C564" s="12"/>
@@ -16920,7 +16922,7 @@
       <c r="X564" s="1"/>
       <c r="Y564" s="1"/>
     </row>
-    <row r="565" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:25" ht="12.75">
       <c r="A565" s="12"/>
       <c r="B565" s="12"/>
       <c r="C565" s="12"/>
@@ -16947,7 +16949,7 @@
       <c r="X565" s="1"/>
       <c r="Y565" s="1"/>
     </row>
-    <row r="566" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:25" ht="12.75">
       <c r="A566" s="12"/>
       <c r="B566" s="12"/>
       <c r="C566" s="12"/>
@@ -16974,7 +16976,7 @@
       <c r="X566" s="1"/>
       <c r="Y566" s="1"/>
     </row>
-    <row r="567" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:25" ht="12.75">
       <c r="A567" s="12"/>
       <c r="B567" s="12"/>
       <c r="C567" s="12"/>
@@ -17001,7 +17003,7 @@
       <c r="X567" s="1"/>
       <c r="Y567" s="1"/>
     </row>
-    <row r="568" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:25" ht="12.75">
       <c r="A568" s="12"/>
       <c r="B568" s="12"/>
       <c r="C568" s="12"/>
@@ -17028,7 +17030,7 @@
       <c r="X568" s="1"/>
       <c r="Y568" s="1"/>
     </row>
-    <row r="569" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:25" ht="12.75">
       <c r="A569" s="12"/>
       <c r="B569" s="12"/>
       <c r="C569" s="12"/>
@@ -17055,7 +17057,7 @@
       <c r="X569" s="1"/>
       <c r="Y569" s="1"/>
     </row>
-    <row r="570" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:25" ht="12.75">
       <c r="A570" s="12"/>
       <c r="B570" s="12"/>
       <c r="C570" s="12"/>
@@ -17082,7 +17084,7 @@
       <c r="X570" s="1"/>
       <c r="Y570" s="1"/>
     </row>
-    <row r="571" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:25" ht="12.75">
       <c r="A571" s="12"/>
       <c r="B571" s="12"/>
       <c r="C571" s="12"/>
@@ -17109,7 +17111,7 @@
       <c r="X571" s="1"/>
       <c r="Y571" s="1"/>
     </row>
-    <row r="572" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:25" ht="12.75">
       <c r="A572" s="12"/>
       <c r="B572" s="12"/>
       <c r="C572" s="12"/>
@@ -17136,7 +17138,7 @@
       <c r="X572" s="1"/>
       <c r="Y572" s="1"/>
     </row>
-    <row r="573" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:25" ht="12.75">
       <c r="A573" s="12"/>
       <c r="B573" s="12"/>
       <c r="C573" s="12"/>
@@ -17163,7 +17165,7 @@
       <c r="X573" s="1"/>
       <c r="Y573" s="1"/>
     </row>
-    <row r="574" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:25" ht="12.75">
       <c r="A574" s="12"/>
       <c r="B574" s="12"/>
       <c r="C574" s="12"/>
@@ -17190,7 +17192,7 @@
       <c r="X574" s="1"/>
       <c r="Y574" s="1"/>
     </row>
-    <row r="575" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:25" ht="12.75">
       <c r="A575" s="12"/>
       <c r="B575" s="12"/>
       <c r="C575" s="12"/>
@@ -17217,7 +17219,7 @@
       <c r="X575" s="1"/>
       <c r="Y575" s="1"/>
     </row>
-    <row r="576" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:25" ht="12.75">
       <c r="A576" s="12"/>
       <c r="B576" s="12"/>
       <c r="C576" s="12"/>
@@ -17244,7 +17246,7 @@
       <c r="X576" s="1"/>
       <c r="Y576" s="1"/>
     </row>
-    <row r="577" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:25" ht="12.75">
       <c r="A577" s="12"/>
       <c r="B577" s="12"/>
       <c r="C577" s="12"/>
@@ -17271,7 +17273,7 @@
       <c r="X577" s="1"/>
       <c r="Y577" s="1"/>
     </row>
-    <row r="578" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:25" ht="12.75">
       <c r="A578" s="12"/>
       <c r="B578" s="12"/>
       <c r="C578" s="12"/>
@@ -17298,7 +17300,7 @@
       <c r="X578" s="1"/>
       <c r="Y578" s="1"/>
     </row>
-    <row r="579" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:25" ht="12.75">
       <c r="A579" s="12"/>
       <c r="B579" s="12"/>
       <c r="C579" s="12"/>
@@ -17325,7 +17327,7 @@
       <c r="X579" s="1"/>
       <c r="Y579" s="1"/>
     </row>
-    <row r="580" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:25" ht="12.75">
       <c r="A580" s="12"/>
       <c r="B580" s="12"/>
       <c r="C580" s="12"/>
@@ -17352,7 +17354,7 @@
       <c r="X580" s="1"/>
       <c r="Y580" s="1"/>
     </row>
-    <row r="581" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:25" ht="12.75">
       <c r="A581" s="12"/>
       <c r="B581" s="12"/>
       <c r="C581" s="12"/>
@@ -17379,7 +17381,7 @@
       <c r="X581" s="1"/>
       <c r="Y581" s="1"/>
     </row>
-    <row r="582" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:25" ht="12.75">
       <c r="A582" s="12"/>
       <c r="B582" s="12"/>
       <c r="C582" s="12"/>
@@ -17406,7 +17408,7 @@
       <c r="X582" s="1"/>
       <c r="Y582" s="1"/>
     </row>
-    <row r="583" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:25" ht="12.75">
       <c r="A583" s="12"/>
       <c r="B583" s="12"/>
       <c r="C583" s="12"/>
@@ -17433,7 +17435,7 @@
       <c r="X583" s="1"/>
       <c r="Y583" s="1"/>
     </row>
-    <row r="584" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:25" ht="12.75">
       <c r="A584" s="12"/>
       <c r="B584" s="12"/>
       <c r="C584" s="12"/>
@@ -17460,7 +17462,7 @@
       <c r="X584" s="1"/>
       <c r="Y584" s="1"/>
     </row>
-    <row r="585" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:25" ht="12.75">
       <c r="A585" s="12"/>
       <c r="B585" s="12"/>
       <c r="C585" s="12"/>
@@ -17487,7 +17489,7 @@
       <c r="X585" s="1"/>
       <c r="Y585" s="1"/>
     </row>
-    <row r="586" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:25" ht="12.75">
       <c r="A586" s="12"/>
       <c r="B586" s="12"/>
       <c r="C586" s="12"/>
@@ -17514,7 +17516,7 @@
       <c r="X586" s="1"/>
       <c r="Y586" s="1"/>
     </row>
-    <row r="587" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:25" ht="12.75">
       <c r="A587" s="12"/>
       <c r="B587" s="12"/>
       <c r="C587" s="12"/>
@@ -17541,7 +17543,7 @@
       <c r="X587" s="1"/>
       <c r="Y587" s="1"/>
     </row>
-    <row r="588" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:25" ht="12.75">
       <c r="A588" s="12"/>
       <c r="B588" s="12"/>
       <c r="C588" s="12"/>
@@ -17568,7 +17570,7 @@
       <c r="X588" s="1"/>
       <c r="Y588" s="1"/>
     </row>
-    <row r="589" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:25" ht="12.75">
       <c r="A589" s="12"/>
       <c r="B589" s="12"/>
       <c r="C589" s="12"/>
@@ -17595,7 +17597,7 @@
       <c r="X589" s="1"/>
       <c r="Y589" s="1"/>
     </row>
-    <row r="590" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:25" ht="12.75">
       <c r="A590" s="12"/>
       <c r="B590" s="12"/>
       <c r="C590" s="12"/>
@@ -17622,7 +17624,7 @@
       <c r="X590" s="1"/>
       <c r="Y590" s="1"/>
     </row>
-    <row r="591" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:25" ht="12.75">
       <c r="A591" s="12"/>
       <c r="B591" s="12"/>
       <c r="C591" s="12"/>
@@ -17649,7 +17651,7 @@
       <c r="X591" s="1"/>
       <c r="Y591" s="1"/>
     </row>
-    <row r="592" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:25" ht="12.75">
       <c r="A592" s="12"/>
       <c r="B592" s="12"/>
       <c r="C592" s="12"/>
@@ -17676,7 +17678,7 @@
       <c r="X592" s="1"/>
       <c r="Y592" s="1"/>
     </row>
-    <row r="593" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:25" ht="12.75">
       <c r="A593" s="12"/>
       <c r="B593" s="12"/>
       <c r="C593" s="12"/>
@@ -17703,7 +17705,7 @@
       <c r="X593" s="1"/>
       <c r="Y593" s="1"/>
     </row>
-    <row r="594" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:25" ht="12.75">
       <c r="A594" s="12"/>
       <c r="B594" s="12"/>
       <c r="C594" s="12"/>
@@ -17730,7 +17732,7 @@
       <c r="X594" s="1"/>
       <c r="Y594" s="1"/>
     </row>
-    <row r="595" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:25" ht="12.75">
       <c r="A595" s="12"/>
       <c r="B595" s="12"/>
       <c r="C595" s="12"/>
@@ -17757,7 +17759,7 @@
       <c r="X595" s="1"/>
       <c r="Y595" s="1"/>
     </row>
-    <row r="596" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:25" ht="12.75">
       <c r="A596" s="12"/>
       <c r="B596" s="12"/>
       <c r="C596" s="12"/>
@@ -17784,7 +17786,7 @@
       <c r="X596" s="1"/>
       <c r="Y596" s="1"/>
     </row>
-    <row r="597" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:25" ht="12.75">
       <c r="A597" s="12"/>
       <c r="B597" s="12"/>
       <c r="C597" s="12"/>
@@ -17811,7 +17813,7 @@
       <c r="X597" s="1"/>
       <c r="Y597" s="1"/>
     </row>
-    <row r="598" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:25" ht="12.75">
       <c r="A598" s="12"/>
       <c r="B598" s="12"/>
       <c r="C598" s="12"/>
@@ -17838,7 +17840,7 @@
       <c r="X598" s="1"/>
       <c r="Y598" s="1"/>
     </row>
-    <row r="599" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:25" ht="12.75">
       <c r="A599" s="12"/>
       <c r="B599" s="12"/>
       <c r="C599" s="12"/>
@@ -17865,7 +17867,7 @@
       <c r="X599" s="1"/>
       <c r="Y599" s="1"/>
     </row>
-    <row r="600" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:25" ht="12.75">
       <c r="A600" s="12"/>
       <c r="B600" s="12"/>
       <c r="C600" s="12"/>
@@ -17892,7 +17894,7 @@
       <c r="X600" s="1"/>
       <c r="Y600" s="1"/>
     </row>
-    <row r="601" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:25" ht="12.75">
       <c r="A601" s="12"/>
       <c r="B601" s="12"/>
       <c r="C601" s="12"/>
@@ -17919,7 +17921,7 @@
       <c r="X601" s="1"/>
       <c r="Y601" s="1"/>
     </row>
-    <row r="602" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:25" ht="12.75">
       <c r="A602" s="12"/>
       <c r="B602" s="12"/>
       <c r="C602" s="12"/>
@@ -17946,7 +17948,7 @@
       <c r="X602" s="1"/>
       <c r="Y602" s="1"/>
     </row>
-    <row r="603" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:25" ht="12.75">
       <c r="A603" s="12"/>
       <c r="B603" s="12"/>
       <c r="C603" s="12"/>
@@ -17973,7 +17975,7 @@
       <c r="X603" s="1"/>
       <c r="Y603" s="1"/>
     </row>
-    <row r="604" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:25" ht="12.75">
       <c r="A604" s="12"/>
       <c r="B604" s="12"/>
       <c r="C604" s="12"/>
@@ -18000,7 +18002,7 @@
       <c r="X604" s="1"/>
       <c r="Y604" s="1"/>
     </row>
-    <row r="605" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:25" ht="12.75">
       <c r="A605" s="12"/>
       <c r="B605" s="12"/>
       <c r="C605" s="12"/>
@@ -18027,7 +18029,7 @@
       <c r="X605" s="1"/>
       <c r="Y605" s="1"/>
     </row>
-    <row r="606" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:25" ht="12.75">
       <c r="A606" s="12"/>
       <c r="B606" s="12"/>
       <c r="C606" s="12"/>
@@ -18054,7 +18056,7 @@
       <c r="X606" s="1"/>
       <c r="Y606" s="1"/>
     </row>
-    <row r="607" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:25" ht="12.75">
       <c r="A607" s="12"/>
       <c r="B607" s="12"/>
       <c r="C607" s="12"/>
@@ -18081,7 +18083,7 @@
       <c r="X607" s="1"/>
       <c r="Y607" s="1"/>
     </row>
-    <row r="608" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:25" ht="12.75">
       <c r="A608" s="12"/>
       <c r="B608" s="12"/>
       <c r="C608" s="12"/>
@@ -18108,7 +18110,7 @@
       <c r="X608" s="1"/>
       <c r="Y608" s="1"/>
     </row>
-    <row r="609" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:25" ht="12.75">
       <c r="A609" s="12"/>
       <c r="B609" s="12"/>
       <c r="C609" s="12"/>
@@ -18135,7 +18137,7 @@
       <c r="X609" s="1"/>
       <c r="Y609" s="1"/>
     </row>
-    <row r="610" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:25" ht="12.75">
       <c r="A610" s="12"/>
       <c r="B610" s="12"/>
       <c r="C610" s="12"/>
@@ -18162,7 +18164,7 @@
       <c r="X610" s="1"/>
       <c r="Y610" s="1"/>
     </row>
-    <row r="611" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:25" ht="12.75">
       <c r="A611" s="12"/>
       <c r="B611" s="12"/>
       <c r="C611" s="12"/>
@@ -18189,7 +18191,7 @@
       <c r="X611" s="1"/>
       <c r="Y611" s="1"/>
     </row>
-    <row r="612" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:25" ht="12.75">
       <c r="A612" s="12"/>
       <c r="B612" s="12"/>
       <c r="C612" s="12"/>
@@ -18216,7 +18218,7 @@
       <c r="X612" s="1"/>
       <c r="Y612" s="1"/>
     </row>
-    <row r="613" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:25" ht="12.75">
       <c r="A613" s="12"/>
       <c r="B613" s="12"/>
       <c r="C613" s="12"/>
@@ -18243,7 +18245,7 @@
       <c r="X613" s="1"/>
       <c r="Y613" s="1"/>
     </row>
-    <row r="614" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:25" ht="12.75">
       <c r="A614" s="12"/>
       <c r="B614" s="12"/>
       <c r="C614" s="12"/>
@@ -18270,7 +18272,7 @@
       <c r="X614" s="1"/>
       <c r="Y614" s="1"/>
     </row>
-    <row r="615" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:25" ht="12.75">
       <c r="A615" s="12"/>
       <c r="B615" s="12"/>
       <c r="C615" s="12"/>
@@ -18297,7 +18299,7 @@
       <c r="X615" s="1"/>
       <c r="Y615" s="1"/>
     </row>
-    <row r="616" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:25" ht="12.75">
       <c r="A616" s="12"/>
       <c r="B616" s="12"/>
       <c r="C616" s="12"/>
@@ -18324,7 +18326,7 @@
       <c r="X616" s="1"/>
       <c r="Y616" s="1"/>
     </row>
-    <row r="617" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:25" ht="12.75">
       <c r="A617" s="12"/>
       <c r="B617" s="12"/>
       <c r="C617" s="12"/>
@@ -18351,7 +18353,7 @@
       <c r="X617" s="1"/>
       <c r="Y617" s="1"/>
     </row>
-    <row r="618" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:25" ht="12.75">
       <c r="A618" s="12"/>
       <c r="B618" s="12"/>
       <c r="C618" s="12"/>
@@ -18378,7 +18380,7 @@
       <c r="X618" s="1"/>
       <c r="Y618" s="1"/>
     </row>
-    <row r="619" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:25" ht="12.75">
       <c r="A619" s="12"/>
       <c r="B619" s="12"/>
       <c r="C619" s="12"/>
@@ -18405,7 +18407,7 @@
       <c r="X619" s="1"/>
       <c r="Y619" s="1"/>
     </row>
-    <row r="620" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:25" ht="12.75">
       <c r="A620" s="12"/>
       <c r="B620" s="12"/>
       <c r="C620" s="12"/>
@@ -18432,7 +18434,7 @@
       <c r="X620" s="1"/>
       <c r="Y620" s="1"/>
     </row>
-    <row r="621" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:25" ht="12.75">
       <c r="A621" s="12"/>
       <c r="B621" s="12"/>
       <c r="C621" s="12"/>
@@ -18459,7 +18461,7 @@
       <c r="X621" s="1"/>
       <c r="Y621" s="1"/>
     </row>
-    <row r="622" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:25" ht="12.75">
       <c r="A622" s="12"/>
       <c r="B622" s="12"/>
       <c r="C622" s="12"/>
@@ -18486,7 +18488,7 @@
       <c r="X622" s="1"/>
       <c r="Y622" s="1"/>
     </row>
-    <row r="623" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:25" ht="12.75">
       <c r="A623" s="12"/>
       <c r="B623" s="12"/>
       <c r="C623" s="12"/>
@@ -18513,7 +18515,7 @@
       <c r="X623" s="1"/>
       <c r="Y623" s="1"/>
     </row>
-    <row r="624" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:25" ht="12.75">
       <c r="A624" s="12"/>
       <c r="B624" s="12"/>
       <c r="C624" s="12"/>
@@ -18540,7 +18542,7 @@
       <c r="X624" s="1"/>
       <c r="Y624" s="1"/>
     </row>
-    <row r="625" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:25" ht="12.75">
       <c r="A625" s="12"/>
       <c r="B625" s="12"/>
       <c r="C625" s="12"/>
@@ -18567,7 +18569,7 @@
       <c r="X625" s="1"/>
       <c r="Y625" s="1"/>
     </row>
-    <row r="626" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:25" ht="12.75">
       <c r="A626" s="12"/>
       <c r="B626" s="12"/>
       <c r="C626" s="12"/>
@@ -18594,7 +18596,7 @@
       <c r="X626" s="1"/>
       <c r="Y626" s="1"/>
     </row>
-    <row r="627" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:25" ht="12.75">
       <c r="A627" s="12"/>
       <c r="B627" s="12"/>
       <c r="C627" s="12"/>
@@ -18621,7 +18623,7 @@
       <c r="X627" s="1"/>
       <c r="Y627" s="1"/>
     </row>
-    <row r="628" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:25" ht="12.75">
       <c r="A628" s="12"/>
       <c r="B628" s="12"/>
       <c r="C628" s="12"/>
@@ -18648,7 +18650,7 @@
       <c r="X628" s="1"/>
       <c r="Y628" s="1"/>
     </row>
-    <row r="629" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:25" ht="12.75">
       <c r="A629" s="12"/>
       <c r="B629" s="12"/>
       <c r="C629" s="12"/>
@@ -18675,7 +18677,7 @@
       <c r="X629" s="1"/>
       <c r="Y629" s="1"/>
     </row>
-    <row r="630" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:25" ht="12.75">
       <c r="A630" s="12"/>
       <c r="B630" s="12"/>
       <c r="C630" s="12"/>
@@ -18702,7 +18704,7 @@
       <c r="X630" s="1"/>
       <c r="Y630" s="1"/>
     </row>
-    <row r="631" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:25" ht="12.75">
       <c r="A631" s="12"/>
       <c r="B631" s="12"/>
       <c r="C631" s="12"/>
@@ -18729,7 +18731,7 @@
       <c r="X631" s="1"/>
       <c r="Y631" s="1"/>
     </row>
-    <row r="632" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:25" ht="12.75">
       <c r="A632" s="12"/>
       <c r="B632" s="12"/>
       <c r="C632" s="12"/>
@@ -18756,7 +18758,7 @@
       <c r="X632" s="1"/>
       <c r="Y632" s="1"/>
     </row>
-    <row r="633" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:25" ht="12.75">
       <c r="A633" s="12"/>
       <c r="B633" s="12"/>
       <c r="C633" s="12"/>
@@ -18783,7 +18785,7 @@
       <c r="X633" s="1"/>
       <c r="Y633" s="1"/>
     </row>
-    <row r="634" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:25" ht="12.75">
       <c r="A634" s="12"/>
       <c r="B634" s="12"/>
       <c r="C634" s="12"/>
@@ -18810,7 +18812,7 @@
       <c r="X634" s="1"/>
       <c r="Y634" s="1"/>
     </row>
-    <row r="635" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:25" ht="12.75">
       <c r="A635" s="12"/>
       <c r="B635" s="12"/>
       <c r="C635" s="12"/>
@@ -18837,7 +18839,7 @@
       <c r="X635" s="1"/>
       <c r="Y635" s="1"/>
     </row>
-    <row r="636" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:25" ht="12.75">
       <c r="A636" s="12"/>
       <c r="B636" s="12"/>
       <c r="C636" s="12"/>
@@ -18864,7 +18866,7 @@
       <c r="X636" s="1"/>
       <c r="Y636" s="1"/>
     </row>
-    <row r="637" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:25" ht="12.75">
       <c r="A637" s="12"/>
       <c r="B637" s="12"/>
       <c r="C637" s="12"/>
@@ -18891,7 +18893,7 @@
       <c r="X637" s="1"/>
       <c r="Y637" s="1"/>
     </row>
-    <row r="638" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:25" ht="12.75">
       <c r="A638" s="12"/>
       <c r="B638" s="12"/>
       <c r="C638" s="12"/>
@@ -18918,7 +18920,7 @@
       <c r="X638" s="1"/>
       <c r="Y638" s="1"/>
     </row>
-    <row r="639" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:25" ht="12.75">
       <c r="A639" s="12"/>
       <c r="B639" s="12"/>
       <c r="C639" s="12"/>
@@ -18945,7 +18947,7 @@
       <c r="X639" s="1"/>
       <c r="Y639" s="1"/>
     </row>
-    <row r="640" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:25" ht="12.75">
       <c r="A640" s="12"/>
       <c r="B640" s="12"/>
       <c r="C640" s="12"/>
@@ -18972,7 +18974,7 @@
       <c r="X640" s="1"/>
       <c r="Y640" s="1"/>
     </row>
-    <row r="641" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:25" ht="12.75">
       <c r="A641" s="12"/>
       <c r="B641" s="12"/>
       <c r="C641" s="12"/>
@@ -18999,7 +19001,7 @@
       <c r="X641" s="1"/>
       <c r="Y641" s="1"/>
     </row>
-    <row r="642" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:25" ht="12.75">
       <c r="A642" s="12"/>
       <c r="B642" s="12"/>
       <c r="C642" s="12"/>
@@ -19026,7 +19028,7 @@
       <c r="X642" s="1"/>
       <c r="Y642" s="1"/>
     </row>
-    <row r="643" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:25" ht="12.75">
       <c r="A643" s="12"/>
       <c r="B643" s="12"/>
       <c r="C643" s="12"/>
@@ -19053,7 +19055,7 @@
       <c r="X643" s="1"/>
       <c r="Y643" s="1"/>
     </row>
-    <row r="644" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:25" ht="12.75">
       <c r="A644" s="12"/>
       <c r="B644" s="12"/>
       <c r="C644" s="12"/>
@@ -19080,7 +19082,7 @@
       <c r="X644" s="1"/>
       <c r="Y644" s="1"/>
     </row>
-    <row r="645" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:25" ht="12.75">
       <c r="A645" s="12"/>
       <c r="B645" s="12"/>
       <c r="C645" s="12"/>
@@ -19107,7 +19109,7 @@
       <c r="X645" s="1"/>
       <c r="Y645" s="1"/>
     </row>
-    <row r="646" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:25" ht="12.75">
       <c r="A646" s="12"/>
       <c r="B646" s="12"/>
       <c r="C646" s="12"/>
@@ -19134,7 +19136,7 @@
       <c r="X646" s="1"/>
       <c r="Y646" s="1"/>
     </row>
-    <row r="647" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:25" ht="12.75">
       <c r="A647" s="12"/>
       <c r="B647" s="12"/>
       <c r="C647" s="12"/>
@@ -19161,7 +19163,7 @@
       <c r="X647" s="1"/>
       <c r="Y647" s="1"/>
     </row>
-    <row r="648" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:25" ht="12.75">
       <c r="A648" s="12"/>
       <c r="B648" s="12"/>
       <c r="C648" s="12"/>
@@ -19188,7 +19190,7 @@
       <c r="X648" s="1"/>
       <c r="Y648" s="1"/>
     </row>
-    <row r="649" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:25" ht="12.75">
       <c r="A649" s="12"/>
       <c r="B649" s="12"/>
       <c r="C649" s="12"/>
@@ -19215,7 +19217,7 @@
       <c r="X649" s="1"/>
       <c r="Y649" s="1"/>
     </row>
-    <row r="650" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:25" ht="12.75">
       <c r="A650" s="12"/>
       <c r="B650" s="12"/>
       <c r="C650" s="12"/>
@@ -19242,7 +19244,7 @@
       <c r="X650" s="1"/>
       <c r="Y650" s="1"/>
     </row>
-    <row r="651" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:25" ht="12.75">
       <c r="A651" s="12"/>
       <c r="B651" s="12"/>
       <c r="C651" s="12"/>
@@ -19269,7 +19271,7 @@
       <c r="X651" s="1"/>
       <c r="Y651" s="1"/>
     </row>
-    <row r="652" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:25" ht="12.75">
       <c r="A652" s="12"/>
       <c r="B652" s="12"/>
       <c r="C652" s="12"/>
@@ -19296,7 +19298,7 @@
       <c r="X652" s="1"/>
       <c r="Y652" s="1"/>
     </row>
-    <row r="653" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:25" ht="12.75">
       <c r="A653" s="12"/>
       <c r="B653" s="12"/>
       <c r="C653" s="12"/>
@@ -19323,7 +19325,7 @@
       <c r="X653" s="1"/>
       <c r="Y653" s="1"/>
     </row>
-    <row r="654" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:25" ht="12.75">
       <c r="A654" s="12"/>
       <c r="B654" s="12"/>
       <c r="C654" s="12"/>
@@ -19350,7 +19352,7 @@
       <c r="X654" s="1"/>
       <c r="Y654" s="1"/>
     </row>
-    <row r="655" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:25" ht="12.75">
       <c r="A655" s="12"/>
       <c r="B655" s="12"/>
       <c r="C655" s="12"/>
@@ -19377,7 +19379,7 @@
       <c r="X655" s="1"/>
       <c r="Y655" s="1"/>
     </row>
-    <row r="656" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:25" ht="12.75">
       <c r="A656" s="12"/>
       <c r="B656" s="12"/>
       <c r="C656" s="12"/>
@@ -19404,7 +19406,7 @@
       <c r="X656" s="1"/>
       <c r="Y656" s="1"/>
     </row>
-    <row r="657" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:25" ht="12.75">
       <c r="A657" s="12"/>
       <c r="B657" s="12"/>
       <c r="C657" s="12"/>
@@ -19431,7 +19433,7 @@
       <c r="X657" s="1"/>
       <c r="Y657" s="1"/>
     </row>
-    <row r="658" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:25" ht="12.75">
       <c r="A658" s="12"/>
       <c r="B658" s="12"/>
       <c r="C658" s="12"/>
@@ -19458,7 +19460,7 @@
       <c r="X658" s="1"/>
       <c r="Y658" s="1"/>
     </row>
-    <row r="659" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:25" ht="12.75">
       <c r="A659" s="12"/>
       <c r="B659" s="12"/>
       <c r="C659" s="12"/>
@@ -19485,7 +19487,7 @@
       <c r="X659" s="1"/>
       <c r="Y659" s="1"/>
     </row>
-    <row r="660" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:25" ht="12.75">
       <c r="A660" s="12"/>
       <c r="B660" s="12"/>
       <c r="C660" s="12"/>
@@ -19512,7 +19514,7 @@
       <c r="X660" s="1"/>
       <c r="Y660" s="1"/>
     </row>
-    <row r="661" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:25" ht="12.75">
       <c r="A661" s="12"/>
       <c r="B661" s="12"/>
       <c r="C661" s="12"/>
@@ -19539,7 +19541,7 @@
       <c r="X661" s="1"/>
       <c r="Y661" s="1"/>
     </row>
-    <row r="662" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:25" ht="12.75">
       <c r="A662" s="12"/>
       <c r="B662" s="12"/>
       <c r="C662" s="12"/>
@@ -19566,7 +19568,7 @@
       <c r="X662" s="1"/>
       <c r="Y662" s="1"/>
     </row>
-    <row r="663" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:25" ht="12.75">
       <c r="A663" s="12"/>
       <c r="B663" s="12"/>
       <c r="C663" s="12"/>
@@ -19593,7 +19595,7 @@
       <c r="X663" s="1"/>
       <c r="Y663" s="1"/>
     </row>
-    <row r="664" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:25" ht="12.75">
       <c r="A664" s="12"/>
       <c r="B664" s="12"/>
       <c r="C664" s="12"/>
@@ -19620,7 +19622,7 @@
       <c r="X664" s="1"/>
       <c r="Y664" s="1"/>
     </row>
-    <row r="665" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:25" ht="12.75">
       <c r="A665" s="12"/>
       <c r="B665" s="12"/>
       <c r="C665" s="12"/>
@@ -19647,7 +19649,7 @@
       <c r="X665" s="1"/>
       <c r="Y665" s="1"/>
     </row>
-    <row r="666" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:25" ht="12.75">
       <c r="A666" s="12"/>
       <c r="B666" s="12"/>
       <c r="C666" s="12"/>
@@ -19674,7 +19676,7 @@
       <c r="X666" s="1"/>
       <c r="Y666" s="1"/>
     </row>
-    <row r="667" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:25" ht="12.75">
       <c r="A667" s="12"/>
       <c r="B667" s="12"/>
       <c r="C667" s="12"/>
@@ -19701,7 +19703,7 @@
       <c r="X667" s="1"/>
       <c r="Y667" s="1"/>
     </row>
-    <row r="668" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:25" ht="12.75">
       <c r="A668" s="12"/>
       <c r="B668" s="12"/>
       <c r="C668" s="12"/>
@@ -19728,7 +19730,7 @@
       <c r="X668" s="1"/>
       <c r="Y668" s="1"/>
     </row>
-    <row r="669" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:25" ht="12.75">
       <c r="A669" s="12"/>
       <c r="B669" s="12"/>
       <c r="C669" s="12"/>
@@ -19755,7 +19757,7 @@
       <c r="X669" s="1"/>
       <c r="Y669" s="1"/>
     </row>
-    <row r="670" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:25" ht="12.75">
       <c r="A670" s="12"/>
       <c r="B670" s="12"/>
       <c r="C670" s="12"/>
@@ -19782,7 +19784,7 @@
       <c r="X670" s="1"/>
       <c r="Y670" s="1"/>
     </row>
-    <row r="671" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:25" ht="12.75">
       <c r="A671" s="12"/>
       <c r="B671" s="12"/>
       <c r="C671" s="12"/>
@@ -19809,7 +19811,7 @@
       <c r="X671" s="1"/>
       <c r="Y671" s="1"/>
     </row>
-    <row r="672" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:25" ht="12.75">
       <c r="A672" s="12"/>
       <c r="B672" s="12"/>
       <c r="C672" s="12"/>
@@ -19836,7 +19838,7 @@
       <c r="X672" s="1"/>
       <c r="Y672" s="1"/>
     </row>
-    <row r="673" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:25" ht="12.75">
       <c r="A673" s="12"/>
       <c r="B673" s="12"/>
       <c r="C673" s="12"/>
@@ -19863,7 +19865,7 @@
       <c r="X673" s="1"/>
       <c r="Y673" s="1"/>
     </row>
-    <row r="674" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:25" ht="12.75">
       <c r="A674" s="12"/>
       <c r="B674" s="12"/>
       <c r="C674" s="12"/>
@@ -19890,7 +19892,7 @@
       <c r="X674" s="1"/>
       <c r="Y674" s="1"/>
     </row>
-    <row r="675" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:25" ht="12.75">
       <c r="A675" s="12"/>
       <c r="B675" s="12"/>
       <c r="C675" s="12"/>
@@ -19917,7 +19919,7 @@
       <c r="X675" s="1"/>
       <c r="Y675" s="1"/>
     </row>
-    <row r="676" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:25" ht="12.75">
       <c r="A676" s="12"/>
       <c r="B676" s="12"/>
       <c r="C676" s="12"/>
@@ -19944,7 +19946,7 @@
       <c r="X676" s="1"/>
       <c r="Y676" s="1"/>
     </row>
-    <row r="677" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:25" ht="12.75">
       <c r="A677" s="12"/>
       <c r="B677" s="12"/>
       <c r="C677" s="12"/>
@@ -19971,7 +19973,7 @@
       <c r="X677" s="1"/>
       <c r="Y677" s="1"/>
     </row>
-    <row r="678" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:25" ht="12.75">
       <c r="A678" s="12"/>
       <c r="B678" s="12"/>
       <c r="C678" s="12"/>
@@ -19998,7 +20000,7 @@
       <c r="X678" s="1"/>
       <c r="Y678" s="1"/>
     </row>
-    <row r="679" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:25" ht="12.75">
       <c r="A679" s="12"/>
       <c r="B679" s="12"/>
       <c r="C679" s="12"/>
@@ -20025,7 +20027,7 @@
       <c r="X679" s="1"/>
       <c r="Y679" s="1"/>
     </row>
-    <row r="680" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:25" ht="12.75">
       <c r="A680" s="12"/>
       <c r="B680" s="12"/>
       <c r="C680" s="12"/>
@@ -20052,7 +20054,7 @@
       <c r="X680" s="1"/>
       <c r="Y680" s="1"/>
     </row>
-    <row r="681" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:25" ht="12.75">
       <c r="A681" s="12"/>
       <c r="B681" s="12"/>
       <c r="C681" s="12"/>
@@ -20079,7 +20081,7 @@
       <c r="X681" s="1"/>
       <c r="Y681" s="1"/>
     </row>
-    <row r="682" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:25" ht="12.75">
       <c r="A682" s="12"/>
       <c r="B682" s="12"/>
       <c r="C682" s="12"/>
@@ -20106,7 +20108,7 @@
       <c r="X682" s="1"/>
       <c r="Y682" s="1"/>
     </row>
-    <row r="683" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:25" ht="12.75">
       <c r="A683" s="12"/>
       <c r="B683" s="12"/>
       <c r="C683" s="12"/>
@@ -20133,7 +20135,7 @@
       <c r="X683" s="1"/>
       <c r="Y683" s="1"/>
     </row>
-    <row r="684" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:25" ht="12.75">
       <c r="A684" s="12"/>
       <c r="B684" s="12"/>
       <c r="C684" s="12"/>
@@ -20160,7 +20162,7 @@
       <c r="X684" s="1"/>
       <c r="Y684" s="1"/>
     </row>
-    <row r="685" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:25" ht="12.75">
       <c r="A685" s="12"/>
       <c r="B685" s="12"/>
       <c r="C685" s="12"/>
@@ -20187,7 +20189,7 @@
       <c r="X685" s="1"/>
       <c r="Y685" s="1"/>
     </row>
-    <row r="686" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:25" ht="12.75">
       <c r="A686" s="12"/>
       <c r="B686" s="12"/>
       <c r="C686" s="12"/>
@@ -20214,7 +20216,7 @@
       <c r="X686" s="1"/>
       <c r="Y686" s="1"/>
     </row>
-    <row r="687" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:25" ht="12.75">
       <c r="A687" s="12"/>
       <c r="B687" s="12"/>
       <c r="C687" s="12"/>
@@ -20241,7 +20243,7 @@
       <c r="X687" s="1"/>
       <c r="Y687" s="1"/>
     </row>
-    <row r="688" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:25" ht="12.75">
       <c r="A688" s="12"/>
       <c r="B688" s="12"/>
       <c r="C688" s="12"/>
@@ -20268,7 +20270,7 @@
       <c r="X688" s="1"/>
       <c r="Y688" s="1"/>
     </row>
-    <row r="689" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:25" ht="12.75">
       <c r="A689" s="12"/>
       <c r="B689" s="12"/>
       <c r="C689" s="12"/>
@@ -20295,7 +20297,7 @@
       <c r="X689" s="1"/>
       <c r="Y689" s="1"/>
     </row>
-    <row r="690" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:25" ht="12.75">
       <c r="A690" s="12"/>
       <c r="B690" s="12"/>
       <c r="C690" s="12"/>
@@ -20322,7 +20324,7 @@
       <c r="X690" s="1"/>
       <c r="Y690" s="1"/>
     </row>
-    <row r="691" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:25" ht="12.75">
       <c r="A691" s="12"/>
       <c r="B691" s="12"/>
       <c r="C691" s="12"/>
@@ -20349,7 +20351,7 @@
       <c r="X691" s="1"/>
       <c r="Y691" s="1"/>
     </row>
-    <row r="692" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:25" ht="12.75">
       <c r="A692" s="12"/>
       <c r="B692" s="12"/>
       <c r="C692" s="12"/>
@@ -20376,7 +20378,7 @@
       <c r="X692" s="1"/>
       <c r="Y692" s="1"/>
     </row>
-    <row r="693" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:25" ht="12.75">
       <c r="A693" s="12"/>
       <c r="B693" s="12"/>
       <c r="C693" s="12"/>
@@ -20403,7 +20405,7 @@
       <c r="X693" s="1"/>
       <c r="Y693" s="1"/>
     </row>
-    <row r="694" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:25" ht="12.75">
       <c r="A694" s="12"/>
       <c r="B694" s="12"/>
       <c r="C694" s="12"/>
@@ -20430,7 +20432,7 @@
       <c r="X694" s="1"/>
       <c r="Y694" s="1"/>
     </row>
-    <row r="695" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:25" ht="12.75">
       <c r="A695" s="12"/>
       <c r="B695" s="12"/>
       <c r="C695" s="12"/>
@@ -20457,7 +20459,7 @@
       <c r="X695" s="1"/>
       <c r="Y695" s="1"/>
     </row>
-    <row r="696" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:25" ht="12.75">
       <c r="A696" s="12"/>
       <c r="B696" s="12"/>
       <c r="C696" s="12"/>
@@ -20484,7 +20486,7 @@
       <c r="X696" s="1"/>
       <c r="Y696" s="1"/>
     </row>
-    <row r="697" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:25" ht="12.75">
       <c r="A697" s="12"/>
       <c r="B697" s="12"/>
       <c r="C697" s="12"/>
@@ -20511,7 +20513,7 @@
       <c r="X697" s="1"/>
       <c r="Y697" s="1"/>
     </row>
-    <row r="698" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:25" ht="12.75">
       <c r="A698" s="12"/>
       <c r="B698" s="12"/>
       <c r="C698" s="12"/>
@@ -20538,7 +20540,7 @@
       <c r="X698" s="1"/>
       <c r="Y698" s="1"/>
     </row>
-    <row r="699" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:25" ht="12.75">
       <c r="A699" s="12"/>
       <c r="B699" s="12"/>
       <c r="C699" s="12"/>
@@ -20565,7 +20567,7 @@
       <c r="X699" s="1"/>
       <c r="Y699" s="1"/>
     </row>
-    <row r="700" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:25" ht="12.75">
       <c r="A700" s="12"/>
       <c r="B700" s="12"/>
       <c r="C700" s="12"/>
@@ -20592,7 +20594,7 @@
       <c r="X700" s="1"/>
       <c r="Y700" s="1"/>
     </row>
-    <row r="701" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:25" ht="12.75">
       <c r="A701" s="12"/>
       <c r="B701" s="12"/>
       <c r="C701" s="12"/>
@@ -20619,7 +20621,7 @@
       <c r="X701" s="1"/>
       <c r="Y701" s="1"/>
     </row>
-    <row r="702" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:25" ht="12.75">
       <c r="A702" s="12"/>
       <c r="B702" s="12"/>
       <c r="C702" s="12"/>
@@ -20646,7 +20648,7 @@
       <c r="X702" s="1"/>
       <c r="Y702" s="1"/>
     </row>
-    <row r="703" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:25" ht="12.75">
       <c r="A703" s="12"/>
       <c r="B703" s="12"/>
       <c r="C703" s="12"/>
@@ -20673,7 +20675,7 @@
       <c r="X703" s="1"/>
       <c r="Y703" s="1"/>
     </row>
-    <row r="704" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:25" ht="12.75">
       <c r="A704" s="12"/>
       <c r="B704" s="12"/>
       <c r="C704" s="12"/>
@@ -20700,7 +20702,7 @@
       <c r="X704" s="1"/>
       <c r="Y704" s="1"/>
     </row>
-    <row r="705" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:25" ht="12.75">
       <c r="A705" s="12"/>
       <c r="B705" s="12"/>
       <c r="C705" s="12"/>
@@ -20727,7 +20729,7 @@
       <c r="X705" s="1"/>
       <c r="Y705" s="1"/>
     </row>
-    <row r="706" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:25" ht="12.75">
       <c r="A706" s="12"/>
       <c r="B706" s="12"/>
       <c r="C706" s="12"/>
@@ -20754,7 +20756,7 @@
       <c r="X706" s="1"/>
       <c r="Y706" s="1"/>
     </row>
-    <row r="707" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:25" ht="12.75">
       <c r="A707" s="12"/>
       <c r="B707" s="12"/>
       <c r="C707" s="12"/>
@@ -20781,7 +20783,7 @@
       <c r="X707" s="1"/>
       <c r="Y707" s="1"/>
     </row>
-    <row r="708" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:25" ht="12.75">
       <c r="A708" s="12"/>
       <c r="B708" s="12"/>
       <c r="C708" s="12"/>
@@ -20808,7 +20810,7 @@
       <c r="X708" s="1"/>
       <c r="Y708" s="1"/>
     </row>
-    <row r="709" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:25" ht="12.75">
       <c r="A709" s="12"/>
       <c r="B709" s="12"/>
       <c r="C709" s="12"/>
@@ -20835,7 +20837,7 @@
       <c r="X709" s="1"/>
       <c r="Y709" s="1"/>
     </row>
-    <row r="710" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:25" ht="12.75">
       <c r="A710" s="12"/>
       <c r="B710" s="12"/>
       <c r="C710" s="12"/>
@@ -20862,7 +20864,7 @@
       <c r="X710" s="1"/>
       <c r="Y710" s="1"/>
     </row>
-    <row r="711" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:25" ht="12.75">
       <c r="A711" s="12"/>
       <c r="B711" s="12"/>
       <c r="C711" s="12"/>
@@ -20889,7 +20891,7 @@
       <c r="X711" s="1"/>
       <c r="Y711" s="1"/>
     </row>
-    <row r="712" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:25" ht="12.75">
       <c r="A712" s="12"/>
       <c r="B712" s="12"/>
       <c r="C712" s="12"/>
@@ -20916,7 +20918,7 @@
       <c r="X712" s="1"/>
       <c r="Y712" s="1"/>
     </row>
-    <row r="713" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:25" ht="12.75">
       <c r="A713" s="12"/>
       <c r="B713" s="12"/>
       <c r="C713" s="12"/>
@@ -20943,7 +20945,7 @@
       <c r="X713" s="1"/>
       <c r="Y713" s="1"/>
     </row>
-    <row r="714" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:25" ht="12.75">
       <c r="A714" s="12"/>
       <c r="B714" s="12"/>
       <c r="C714" s="12"/>
@@ -20970,7 +20972,7 @@
       <c r="X714" s="1"/>
       <c r="Y714" s="1"/>
     </row>
-    <row r="715" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:25" ht="12.75">
       <c r="A715" s="12"/>
       <c r="B715" s="12"/>
       <c r="C715" s="12"/>
@@ -20997,7 +20999,7 @@
       <c r="X715" s="1"/>
       <c r="Y715" s="1"/>
     </row>
-    <row r="716" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:25" ht="12.75">
       <c r="A716" s="12"/>
       <c r="B716" s="12"/>
       <c r="C716" s="12"/>
@@ -21024,7 +21026,7 @@
       <c r="X716" s="1"/>
       <c r="Y716" s="1"/>
     </row>
-    <row r="717" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:25" ht="12.75">
       <c r="A717" s="12"/>
       <c r="B717" s="12"/>
       <c r="C717" s="12"/>
@@ -21051,7 +21053,7 @@
       <c r="X717" s="1"/>
       <c r="Y717" s="1"/>
     </row>
-    <row r="718" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:25" ht="12.75">
       <c r="A718" s="12"/>
       <c r="B718" s="12"/>
       <c r="C718" s="12"/>
@@ -21078,7 +21080,7 @@
       <c r="X718" s="1"/>
       <c r="Y718" s="1"/>
     </row>
-    <row r="719" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:25" ht="12.75">
       <c r="A719" s="12"/>
       <c r="B719" s="12"/>
       <c r="C719" s="12"/>
@@ -21105,7 +21107,7 @@
       <c r="X719" s="1"/>
       <c r="Y719" s="1"/>
     </row>
-    <row r="720" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:25" ht="12.75">
       <c r="A720" s="12"/>
       <c r="B720" s="12"/>
       <c r="C720" s="12"/>
@@ -21132,7 +21134,7 @@
       <c r="X720" s="1"/>
       <c r="Y720" s="1"/>
     </row>
-    <row r="721" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:25" ht="12.75">
       <c r="A721" s="12"/>
       <c r="B721" s="12"/>
       <c r="C721" s="12"/>
@@ -21159,7 +21161,7 @@
       <c r="X721" s="1"/>
       <c r="Y721" s="1"/>
     </row>
-    <row r="722" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:25" ht="12.75">
       <c r="A722" s="12"/>
       <c r="B722" s="12"/>
       <c r="C722" s="12"/>
@@ -21186,7 +21188,7 @@
       <c r="X722" s="1"/>
       <c r="Y722" s="1"/>
     </row>
-    <row r="723" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:25" ht="12.75">
       <c r="A723" s="12"/>
       <c r="B723" s="12"/>
       <c r="C723" s="12"/>
@@ -21213,7 +21215,7 @@
       <c r="X723" s="1"/>
       <c r="Y723" s="1"/>
     </row>
-    <row r="724" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:25" ht="12.75">
       <c r="A724" s="12"/>
       <c r="B724" s="12"/>
       <c r="C724" s="12"/>
@@ -21240,7 +21242,7 @@
       <c r="X724" s="1"/>
       <c r="Y724" s="1"/>
     </row>
-    <row r="725" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:25" ht="12.75">
       <c r="A725" s="12"/>
       <c r="B725" s="12"/>
       <c r="C725" s="12"/>
@@ -21267,7 +21269,7 @@
       <c r="X725" s="1"/>
       <c r="Y725" s="1"/>
     </row>
-    <row r="726" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:25" ht="12.75">
       <c r="A726" s="12"/>
       <c r="B726" s="12"/>
       <c r="C726" s="12"/>
@@ -21294,7 +21296,7 @@
       <c r="X726" s="1"/>
       <c r="Y726" s="1"/>
     </row>
-    <row r="727" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:25" ht="12.75">
       <c r="A727" s="12"/>
       <c r="B727" s="12"/>
       <c r="C727" s="12"/>
@@ -21321,7 +21323,7 @@
       <c r="X727" s="1"/>
       <c r="Y727" s="1"/>
     </row>
-    <row r="728" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:25" ht="12.75">
       <c r="A728" s="12"/>
       <c r="B728" s="12"/>
       <c r="C728" s="12"/>
@@ -21348,7 +21350,7 @@
       <c r="X728" s="1"/>
       <c r="Y728" s="1"/>
     </row>
-    <row r="729" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:25" ht="12.75">
       <c r="A729" s="12"/>
       <c r="B729" s="12"/>
       <c r="C729" s="12"/>
@@ -21375,7 +21377,7 @@
       <c r="X729" s="1"/>
       <c r="Y729" s="1"/>
     </row>
-    <row r="730" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:25" ht="12.75">
       <c r="A730" s="12"/>
       <c r="B730" s="12"/>
       <c r="C730" s="12"/>
@@ -21402,7 +21404,7 @@
       <c r="X730" s="1"/>
       <c r="Y730" s="1"/>
     </row>
-    <row r="731" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:25" ht="12.75">
       <c r="A731" s="12"/>
       <c r="B731" s="12"/>
       <c r="C731" s="12"/>
@@ -21429,7 +21431,7 @@
       <c r="X731" s="1"/>
       <c r="Y731" s="1"/>
     </row>
-    <row r="732" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:25" ht="12.75">
       <c r="A732" s="12"/>
       <c r="B732" s="12"/>
       <c r="C732" s="12"/>
@@ -21456,7 +21458,7 @@
       <c r="X732" s="1"/>
       <c r="Y732" s="1"/>
     </row>
-    <row r="733" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:25" ht="12.75">
       <c r="A733" s="12"/>
       <c r="B733" s="12"/>
       <c r="C733" s="12"/>
@@ -21483,7 +21485,7 @@
       <c r="X733" s="1"/>
       <c r="Y733" s="1"/>
     </row>
-    <row r="734" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:25" ht="12.75">
       <c r="A734" s="12"/>
       <c r="B734" s="12"/>
       <c r="C734" s="12"/>
@@ -21510,7 +21512,7 @@
       <c r="X734" s="1"/>
       <c r="Y734" s="1"/>
     </row>
-    <row r="735" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:25" ht="12.75">
       <c r="A735" s="12"/>
       <c r="B735" s="12"/>
       <c r="C735" s="12"/>
@@ -21537,7 +21539,7 @@
       <c r="X735" s="1"/>
       <c r="Y735" s="1"/>
     </row>
-    <row r="736" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:25" ht="12.75">
       <c r="A736" s="12"/>
       <c r="B736" s="12"/>
       <c r="C736" s="12"/>
@@ -21564,7 +21566,7 @@
       <c r="X736" s="1"/>
       <c r="Y736" s="1"/>
     </row>
-    <row r="737" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:25" ht="12.75">
       <c r="A737" s="12"/>
       <c r="B737" s="12"/>
       <c r="C737" s="12"/>
@@ -21591,7 +21593,7 @@
       <c r="X737" s="1"/>
       <c r="Y737" s="1"/>
     </row>
-    <row r="738" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:25" ht="12.75">
       <c r="A738" s="12"/>
       <c r="B738" s="12"/>
       <c r="C738" s="12"/>
@@ -21618,7 +21620,7 @@
       <c r="X738" s="1"/>
       <c r="Y738" s="1"/>
     </row>
-    <row r="739" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:25" ht="12.75">
       <c r="A739" s="12"/>
       <c r="B739" s="12"/>
       <c r="C739" s="12"/>
@@ -21645,7 +21647,7 @@
       <c r="X739" s="1"/>
       <c r="Y739" s="1"/>
     </row>
-    <row r="740" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:25" ht="12.75">
       <c r="A740" s="12"/>
       <c r="B740" s="12"/>
       <c r="C740" s="12"/>
@@ -21672,7 +21674,7 @@
       <c r="X740" s="1"/>
       <c r="Y740" s="1"/>
     </row>
-    <row r="741" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:25" ht="12.75">
       <c r="A741" s="12"/>
       <c r="B741" s="12"/>
       <c r="C741" s="12"/>
@@ -21699,7 +21701,7 @@
       <c r="X741" s="1"/>
       <c r="Y741" s="1"/>
     </row>
-    <row r="742" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:25" ht="12.75">
       <c r="A742" s="12"/>
       <c r="B742" s="12"/>
       <c r="C742" s="12"/>
@@ -21726,7 +21728,7 @@
       <c r="X742" s="1"/>
       <c r="Y742" s="1"/>
     </row>
-    <row r="743" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:25" ht="12.75">
       <c r="A743" s="12"/>
       <c r="B743" s="12"/>
       <c r="C743" s="12"/>
@@ -21753,7 +21755,7 @@
       <c r="X743" s="1"/>
       <c r="Y743" s="1"/>
     </row>
-    <row r="744" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:25" ht="12.75">
       <c r="A744" s="12"/>
       <c r="B744" s="12"/>
       <c r="C744" s="12"/>
@@ -21780,7 +21782,7 @@
       <c r="X744" s="1"/>
       <c r="Y744" s="1"/>
     </row>
-    <row r="745" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:25" ht="12.75">
       <c r="A745" s="12"/>
       <c r="B745" s="12"/>
       <c r="C745" s="12"/>
@@ -21807,7 +21809,7 @@
       <c r="X745" s="1"/>
       <c r="Y745" s="1"/>
     </row>
-    <row r="746" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:25" ht="12.75">
       <c r="A746" s="12"/>
       <c r="B746" s="12"/>
       <c r="C746" s="12"/>
@@ -21834,7 +21836,7 @@
       <c r="X746" s="1"/>
       <c r="Y746" s="1"/>
     </row>
-    <row r="747" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:25" ht="12.75">
       <c r="A747" s="12"/>
       <c r="B747" s="12"/>
       <c r="C747" s="12"/>
@@ -21861,7 +21863,7 @@
       <c r="X747" s="1"/>
       <c r="Y747" s="1"/>
     </row>
-    <row r="748" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:25" ht="12.75">
       <c r="A748" s="12"/>
       <c r="B748" s="12"/>
       <c r="C748" s="12"/>
@@ -21888,7 +21890,7 @@
       <c r="X748" s="1"/>
       <c r="Y748" s="1"/>
     </row>
-    <row r="749" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:25" ht="12.75">
       <c r="A749" s="12"/>
       <c r="B749" s="12"/>
       <c r="C749" s="12"/>
@@ -21915,7 +21917,7 @@
       <c r="X749" s="1"/>
       <c r="Y749" s="1"/>
     </row>
-    <row r="750" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:25" ht="12.75">
       <c r="A750" s="12"/>
       <c r="B750" s="12"/>
       <c r="C750" s="12"/>
@@ -21942,7 +21944,7 @@
       <c r="X750" s="1"/>
       <c r="Y750" s="1"/>
     </row>
-    <row r="751" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:25" ht="12.75">
       <c r="A751" s="12"/>
       <c r="B751" s="12"/>
       <c r="C751" s="12"/>
@@ -21969,7 +21971,7 @@
       <c r="X751" s="1"/>
       <c r="Y751" s="1"/>
     </row>
-    <row r="752" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:25" ht="12.75">
       <c r="A752" s="12"/>
       <c r="B752" s="12"/>
       <c r="C752" s="12"/>
@@ -21996,7 +21998,7 @@
       <c r="X752" s="1"/>
       <c r="Y752" s="1"/>
     </row>
-    <row r="753" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:25" ht="12.75">
       <c r="A753" s="12"/>
       <c r="B753" s="12"/>
       <c r="C753" s="12"/>
@@ -22023,7 +22025,7 @@
       <c r="X753" s="1"/>
       <c r="Y753" s="1"/>
     </row>
-    <row r="754" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:25" ht="12.75">
       <c r="A754" s="12"/>
       <c r="B754" s="12"/>
       <c r="C754" s="12"/>
@@ -22050,7 +22052,7 @@
       <c r="X754" s="1"/>
       <c r="Y754" s="1"/>
     </row>
-    <row r="755" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:25" ht="12.75">
       <c r="A755" s="12"/>
       <c r="B755" s="12"/>
       <c r="C755" s="12"/>
@@ -22077,7 +22079,7 @@
       <c r="X755" s="1"/>
       <c r="Y755" s="1"/>
     </row>
-    <row r="756" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:25" ht="12.75">
       <c r="A756" s="12"/>
       <c r="B756" s="12"/>
       <c r="C756" s="12"/>
@@ -22104,7 +22106,7 @@
       <c r="X756" s="1"/>
       <c r="Y756" s="1"/>
     </row>
-    <row r="757" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:25" ht="12.75">
       <c r="A757" s="12"/>
       <c r="B757" s="12"/>
       <c r="C757" s="12"/>
@@ -22131,7 +22133,7 @@
       <c r="X757" s="1"/>
       <c r="Y757" s="1"/>
     </row>
-    <row r="758" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:25" ht="12.75">
       <c r="A758" s="12"/>
       <c r="B758" s="12"/>
       <c r="C758" s="12"/>
@@ -22158,7 +22160,7 @@
       <c r="X758" s="1"/>
       <c r="Y758" s="1"/>
     </row>
-    <row r="759" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:25" ht="12.75">
       <c r="A759" s="12"/>
       <c r="B759" s="12"/>
       <c r="C759" s="12"/>
@@ -22185,7 +22187,7 @@
       <c r="X759" s="1"/>
       <c r="Y759" s="1"/>
     </row>
-    <row r="760" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:25" ht="12.75">
       <c r="A760" s="12"/>
       <c r="B760" s="12"/>
       <c r="C760" s="12"/>
@@ -22212,7 +22214,7 @@
       <c r="X760" s="1"/>
       <c r="Y760" s="1"/>
     </row>
-    <row r="761" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:25" ht="12.75">
       <c r="A761" s="12"/>
       <c r="B761" s="12"/>
       <c r="C761" s="12"/>
@@ -22239,7 +22241,7 @@
       <c r="X761" s="1"/>
       <c r="Y761" s="1"/>
     </row>
-    <row r="762" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:25" ht="12.75">
       <c r="A762" s="12"/>
       <c r="B762" s="12"/>
       <c r="C762" s="12"/>
@@ -22266,7 +22268,7 @@
       <c r="X762" s="1"/>
       <c r="Y762" s="1"/>
     </row>
-    <row r="763" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:25" ht="12.75">
       <c r="A763" s="12"/>
       <c r="B763" s="12"/>
       <c r="C763" s="12"/>
@@ -22293,7 +22295,7 @@
       <c r="X763" s="1"/>
       <c r="Y763" s="1"/>
     </row>
-    <row r="764" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:25" ht="12.75">
       <c r="A764" s="12"/>
       <c r="B764" s="12"/>
       <c r="C764" s="12"/>
@@ -22320,7 +22322,7 @@
       <c r="X764" s="1"/>
       <c r="Y764" s="1"/>
     </row>
-    <row r="765" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:25" ht="12.75">
       <c r="A765" s="12"/>
       <c r="B765" s="12"/>
       <c r="C765" s="12"/>
@@ -22347,7 +22349,7 @@
       <c r="X765" s="1"/>
       <c r="Y765" s="1"/>
     </row>
-    <row r="766" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:25" ht="12.75">
       <c r="A766" s="12"/>
       <c r="B766" s="12"/>
       <c r="C766" s="12"/>
@@ -22374,7 +22376,7 @@
       <c r="X766" s="1"/>
       <c r="Y766" s="1"/>
     </row>
-    <row r="767" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:25" ht="12.75">
       <c r="A767" s="12"/>
       <c r="B767" s="12"/>
       <c r="C767" s="12"/>
@@ -22401,7 +22403,7 @@
       <c r="X767" s="1"/>
       <c r="Y767" s="1"/>
     </row>
-    <row r="768" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:25" ht="12.75">
       <c r="A768" s="12"/>
       <c r="B768" s="12"/>
       <c r="C768" s="12"/>
@@ -22428,7 +22430,7 @@
       <c r="X768" s="1"/>
       <c r="Y768" s="1"/>
     </row>
-    <row r="769" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:25" ht="12.75">
       <c r="A769" s="12"/>
       <c r="B769" s="12"/>
       <c r="C769" s="12"/>
@@ -22455,7 +22457,7 @@
       <c r="X769" s="1"/>
       <c r="Y769" s="1"/>
     </row>
-    <row r="770" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:25" ht="12.75">
       <c r="A770" s="12"/>
       <c r="B770" s="12"/>
       <c r="C770" s="12"/>
@@ -22482,7 +22484,7 @@
       <c r="X770" s="1"/>
       <c r="Y770" s="1"/>
     </row>
-    <row r="771" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:25" ht="12.75">
       <c r="A771" s="12"/>
       <c r="B771" s="12"/>
       <c r="C771" s="12"/>
@@ -22509,7 +22511,7 @@
       <c r="X771" s="1"/>
       <c r="Y771" s="1"/>
     </row>
-    <row r="772" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:25" ht="12.75">
       <c r="A772" s="12"/>
       <c r="B772" s="12"/>
       <c r="C772" s="12"/>
@@ -22536,7 +22538,7 @@
       <c r="X772" s="1"/>
       <c r="Y772" s="1"/>
     </row>
-    <row r="773" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:25" ht="12.75">
       <c r="A773" s="12"/>
       <c r="B773" s="12"/>
       <c r="C773" s="12"/>
@@ -22563,7 +22565,7 @@
       <c r="X773" s="1"/>
       <c r="Y773" s="1"/>
     </row>
-    <row r="774" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:25" ht="12.75">
       <c r="A774" s="12"/>
       <c r="B774" s="12"/>
       <c r="C774" s="12"/>
@@ -22590,7 +22592,7 @@
       <c r="X774" s="1"/>
       <c r="Y774" s="1"/>
     </row>
-    <row r="775" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:25" ht="12.75">
       <c r="A775" s="12"/>
       <c r="B775" s="12"/>
       <c r="C775" s="12"/>
@@ -22617,7 +22619,7 @@
       <c r="X775" s="1"/>
       <c r="Y775" s="1"/>
     </row>
-    <row r="776" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:25" ht="12.75">
       <c r="A776" s="12"/>
       <c r="B776" s="12"/>
       <c r="C776" s="12"/>
@@ -22644,7 +22646,7 @@
       <c r="X776" s="1"/>
       <c r="Y776" s="1"/>
     </row>
-    <row r="777" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:25" ht="12.75">
       <c r="A777" s="12"/>
       <c r="B777" s="12"/>
       <c r="C777" s="12"/>
@@ -22671,7 +22673,7 @@
       <c r="X777" s="1"/>
       <c r="Y777" s="1"/>
     </row>
-    <row r="778" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:25" ht="12.75">
       <c r="A778" s="12"/>
       <c r="B778" s="12"/>
       <c r="C778" s="12"/>
@@ -22698,7 +22700,7 @@
       <c r="X778" s="1"/>
       <c r="Y778" s="1"/>
     </row>
-    <row r="779" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:25" ht="12.75">
       <c r="A779" s="12"/>
       <c r="B779" s="12"/>
       <c r="C779" s="12"/>
@@ -22725,7 +22727,7 @@
       <c r="X779" s="1"/>
       <c r="Y779" s="1"/>
     </row>
-    <row r="780" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:25" ht="12.75">
       <c r="A780" s="12"/>
       <c r="B780" s="12"/>
       <c r="C780" s="12"/>
@@ -22752,7 +22754,7 @@
       <c r="X780" s="1"/>
       <c r="Y780" s="1"/>
     </row>
-    <row r="781" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:25" ht="12.75">
       <c r="A781" s="12"/>
       <c r="B781" s="12"/>
       <c r="C781" s="12"/>
@@ -22779,7 +22781,7 @@
       <c r="X781" s="1"/>
       <c r="Y781" s="1"/>
     </row>
-    <row r="782" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:25" ht="12.75">
       <c r="A782" s="12"/>
       <c r="B782" s="12"/>
       <c r="C782" s="12"/>
@@ -22806,7 +22808,7 @@
       <c r="X782" s="1"/>
       <c r="Y782" s="1"/>
     </row>
-    <row r="783" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:25" ht="12.75">
       <c r="A783" s="12"/>
       <c r="B783" s="12"/>
       <c r="C783" s="12"/>
@@ -22833,7 +22835,7 @@
       <c r="X783" s="1"/>
       <c r="Y783" s="1"/>
     </row>
-    <row r="784" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:25" ht="12.75">
       <c r="A784" s="12"/>
       <c r="B784" s="12"/>
       <c r="C784" s="12"/>
@@ -22860,7 +22862,7 @@
       <c r="X784" s="1"/>
       <c r="Y784" s="1"/>
     </row>
-    <row r="785" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:25" ht="12.75">
       <c r="A785" s="12"/>
       <c r="B785" s="12"/>
       <c r="C785" s="12"/>
@@ -22887,7 +22889,7 @@
       <c r="X785" s="1"/>
       <c r="Y785" s="1"/>
     </row>
-    <row r="786" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:25" ht="12.75">
       <c r="A786" s="12"/>
       <c r="B786" s="12"/>
       <c r="C786" s="12"/>
@@ -22914,7 +22916,7 @@
       <c r="X786" s="1"/>
       <c r="Y786" s="1"/>
     </row>
-    <row r="787" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:25" ht="12.75">
       <c r="A787" s="12"/>
       <c r="B787" s="12"/>
       <c r="C787" s="12"/>
@@ -22941,7 +22943,7 @@
       <c r="X787" s="1"/>
       <c r="Y787" s="1"/>
     </row>
-    <row r="788" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:25" ht="12.75">
       <c r="A788" s="12"/>
       <c r="B788" s="12"/>
       <c r="C788" s="12"/>
@@ -22968,7 +22970,7 @@
       <c r="X788" s="1"/>
       <c r="Y788" s="1"/>
     </row>
-    <row r="789" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:25" ht="12.75">
       <c r="A789" s="12"/>
       <c r="B789" s="12"/>
       <c r="C789" s="12"/>
@@ -22995,7 +22997,7 @@
       <c r="X789" s="1"/>
       <c r="Y789" s="1"/>
     </row>
-    <row r="790" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:25" ht="12.75">
       <c r="A790" s="12"/>
       <c r="B790" s="12"/>
       <c r="C790" s="12"/>
@@ -23022,7 +23024,7 @@
       <c r="X790" s="1"/>
       <c r="Y790" s="1"/>
     </row>
-    <row r="791" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:25" ht="12.75">
       <c r="A791" s="12"/>
       <c r="B791" s="12"/>
       <c r="C791" s="12"/>
@@ -23049,7 +23051,7 @@
       <c r="X791" s="1"/>
       <c r="Y791" s="1"/>
     </row>
-    <row r="792" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:25" ht="12.75">
       <c r="A792" s="12"/>
       <c r="B792" s="12"/>
       <c r="C792" s="12"/>
@@ -23076,7 +23078,7 @@
       <c r="X792" s="1"/>
       <c r="Y792" s="1"/>
     </row>
-    <row r="793" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:25" ht="12.75">
       <c r="A793" s="12"/>
       <c r="B793" s="12"/>
       <c r="C793" s="12"/>
@@ -23103,7 +23105,7 @@
       <c r="X793" s="1"/>
       <c r="Y793" s="1"/>
     </row>
-    <row r="794" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:25" ht="12.75">
       <c r="A794" s="12"/>
       <c r="B794" s="12"/>
       <c r="C794" s="12"/>
@@ -23130,7 +23132,7 @@
       <c r="X794" s="1"/>
       <c r="Y794" s="1"/>
     </row>
-    <row r="795" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:25" ht="12.75">
       <c r="A795" s="12"/>
       <c r="B795" s="12"/>
       <c r="C795" s="12"/>
@@ -23157,7 +23159,7 @@
       <c r="X795" s="1"/>
       <c r="Y795" s="1"/>
     </row>
-    <row r="796" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:25" ht="12.75">
       <c r="A796" s="12"/>
       <c r="B796" s="12"/>
       <c r="C796" s="12"/>
@@ -23184,7 +23186,7 @@
       <c r="X796" s="1"/>
       <c r="Y796" s="1"/>
     </row>
-    <row r="797" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:25" ht="12.75">
       <c r="A797" s="12"/>
       <c r="B797" s="12"/>
       <c r="C797" s="12"/>
@@ -23211,7 +23213,7 @@
       <c r="X797" s="1"/>
       <c r="Y797" s="1"/>
     </row>
-    <row r="798" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:25" ht="12.75">
       <c r="A798" s="12"/>
       <c r="B798" s="12"/>
       <c r="C798" s="12"/>
@@ -23238,7 +23240,7 @@
       <c r="X798" s="1"/>
       <c r="Y798" s="1"/>
     </row>
-    <row r="799" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:25" ht="12.75">
       <c r="A799" s="12"/>
       <c r="B799" s="12"/>
       <c r="C799" s="12"/>
@@ -23265,7 +23267,7 @@
       <c r="X799" s="1"/>
       <c r="Y799" s="1"/>
     </row>
-    <row r="800" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:25" ht="12.75">
       <c r="A800" s="12"/>
       <c r="B800" s="12"/>
       <c r="C800" s="12"/>
@@ -23292,7 +23294,7 @@
       <c r="X800" s="1"/>
       <c r="Y800" s="1"/>
     </row>
-    <row r="801" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:25" ht="12.75">
       <c r="A801" s="12"/>
       <c r="B801" s="12"/>
       <c r="C801" s="12"/>
@@ -23319,7 +23321,7 @@
       <c r="X801" s="1"/>
       <c r="Y801" s="1"/>
     </row>
-    <row r="802" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:25" ht="12.75">
       <c r="A802" s="12"/>
       <c r="B802" s="12"/>
       <c r="C802" s="12"/>
@@ -23346,7 +23348,7 @@
       <c r="X802" s="1"/>
       <c r="Y802" s="1"/>
     </row>
-    <row r="803" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:25" ht="12.75">
       <c r="A803" s="12"/>
       <c r="B803" s="12"/>
       <c r="C803" s="12"/>
@@ -23373,7 +23375,7 @@
       <c r="X803" s="1"/>
       <c r="Y803" s="1"/>
     </row>
-    <row r="804" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:25" ht="12.75">
       <c r="A804" s="12"/>
       <c r="B804" s="12"/>
       <c r="C804" s="12"/>
@@ -23400,7 +23402,7 @@
       <c r="X804" s="1"/>
       <c r="Y804" s="1"/>
     </row>
-    <row r="805" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:25" ht="12.75">
       <c r="A805" s="12"/>
       <c r="B805" s="12"/>
       <c r="C805" s="12"/>
@@ -23427,7 +23429,7 @@
       <c r="X805" s="1"/>
       <c r="Y805" s="1"/>
     </row>
-    <row r="806" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:25" ht="12.75">
       <c r="A806" s="12"/>
       <c r="B806" s="12"/>
       <c r="C806" s="12"/>
@@ -23454,7 +23456,7 @@
       <c r="X806" s="1"/>
       <c r="Y806" s="1"/>
     </row>
-    <row r="807" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:25" ht="12.75">
       <c r="A807" s="12"/>
       <c r="B807" s="12"/>
       <c r="C807" s="12"/>
@@ -23481,7 +23483,7 @@
       <c r="X807" s="1"/>
       <c r="Y807" s="1"/>
     </row>
-    <row r="808" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:25" ht="12.75">
       <c r="A808" s="12"/>
       <c r="B808" s="12"/>
       <c r="C808" s="12"/>
@@ -23508,7 +23510,7 @@
       <c r="X808" s="1"/>
       <c r="Y808" s="1"/>
     </row>
-    <row r="809" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:25" ht="12.75">
       <c r="A809" s="12"/>
       <c r="B809" s="12"/>
       <c r="C809" s="12"/>
@@ -23535,7 +23537,7 @@
       <c r="X809" s="1"/>
       <c r="Y809" s="1"/>
     </row>
-    <row r="810" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:25" ht="12.75">
       <c r="A810" s="12"/>
       <c r="B810" s="12"/>
       <c r="C810" s="12"/>
@@ -23562,7 +23564,7 @@
       <c r="X810" s="1"/>
       <c r="Y810" s="1"/>
     </row>
-    <row r="811" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:25" ht="12.75">
       <c r="A811" s="12"/>
       <c r="B811" s="12"/>
       <c r="C811" s="12"/>
@@ -23589,7 +23591,7 @@
       <c r="X811" s="1"/>
       <c r="Y811" s="1"/>
     </row>
-    <row r="812" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:25" ht="12.75">
       <c r="A812" s="12"/>
       <c r="B812" s="12"/>
       <c r="C812" s="12"/>
@@ -23616,7 +23618,7 @@
       <c r="X812" s="1"/>
       <c r="Y812" s="1"/>
     </row>
-    <row r="813" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:25" ht="12.75">
       <c r="A813" s="12"/>
       <c r="B813" s="12"/>
       <c r="C813" s="12"/>
@@ -23643,7 +23645,7 @@
       <c r="X813" s="1"/>
       <c r="Y813" s="1"/>
     </row>
-    <row r="814" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:25" ht="12.75">
       <c r="A814" s="12"/>
       <c r="B814" s="12"/>
       <c r="C814" s="12"/>
@@ -23670,7 +23672,7 @@
       <c r="X814" s="1"/>
       <c r="Y814" s="1"/>
     </row>
-    <row r="815" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:25" ht="12.75">
       <c r="A815" s="12"/>
       <c r="B815" s="12"/>
       <c r="C815" s="12"/>
@@ -23697,7 +23699,7 @@
       <c r="X815" s="1"/>
       <c r="Y815" s="1"/>
     </row>
-    <row r="816" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:25" ht="12.75">
       <c r="A816" s="12"/>
       <c r="B816" s="12"/>
       <c r="C816" s="12"/>
@@ -23724,7 +23726,7 @@
       <c r="X816" s="1"/>
       <c r="Y816" s="1"/>
     </row>
-    <row r="817" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:25" ht="12.75">
       <c r="A817" s="12"/>
       <c r="B817" s="12"/>
       <c r="C817" s="12"/>
@@ -23751,7 +23753,7 @@
       <c r="X817" s="1"/>
       <c r="Y817" s="1"/>
     </row>
-    <row r="818" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:25" ht="12.75">
       <c r="A818" s="12"/>
       <c r="B818" s="12"/>
       <c r="C818" s="12"/>
@@ -23778,7 +23780,7 @@
       <c r="X818" s="1"/>
       <c r="Y818" s="1"/>
     </row>
-    <row r="819" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:25" ht="12.75">
       <c r="A819" s="12"/>
       <c r="B819" s="12"/>
       <c r="C819" s="12"/>
@@ -23805,7 +23807,7 @@
       <c r="X819" s="1"/>
       <c r="Y819" s="1"/>
     </row>
-    <row r="820" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:25" ht="12.75">
       <c r="A820" s="12"/>
       <c r="B820" s="12"/>
       <c r="C820" s="12"/>
@@ -23832,7 +23834,7 @@
       <c r="X820" s="1"/>
       <c r="Y820" s="1"/>
     </row>
-    <row r="821" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:25" ht="12.75">
       <c r="A821" s="12"/>
       <c r="B821" s="12"/>
       <c r="C821" s="12"/>
@@ -23859,7 +23861,7 @@
       <c r="X821" s="1"/>
       <c r="Y821" s="1"/>
     </row>
-    <row r="822" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:25" ht="12.75">
       <c r="A822" s="12"/>
       <c r="B822" s="12"/>
       <c r="C822" s="12"/>
@@ -23886,7 +23888,7 @@
       <c r="X822" s="1"/>
       <c r="Y822" s="1"/>
     </row>
-    <row r="823" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:25" ht="12.75">
       <c r="A823" s="12"/>
       <c r="B823" s="12"/>
       <c r="C823" s="12"/>
@@ -23913,7 +23915,7 @@
       <c r="X823" s="1"/>
       <c r="Y823" s="1"/>
     </row>
-    <row r="824" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:25" ht="12.75">
       <c r="A824" s="12"/>
       <c r="B824" s="12"/>
       <c r="C824" s="12"/>
@@ -23940,7 +23942,7 @@
       <c r="X824" s="1"/>
       <c r="Y824" s="1"/>
     </row>
-    <row r="825" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:25" ht="12.75">
       <c r="A825" s="12"/>
       <c r="B825" s="12"/>
       <c r="C825" s="12"/>
@@ -23967,7 +23969,7 @@
       <c r="X825" s="1"/>
       <c r="Y825" s="1"/>
     </row>
-    <row r="826" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:25" ht="12.75">
       <c r="A826" s="12"/>
       <c r="B826" s="12"/>
       <c r="C826" s="12"/>
@@ -23994,7 +23996,7 @@
       <c r="X826" s="1"/>
       <c r="Y826" s="1"/>
     </row>
-    <row r="827" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:25" ht="12.75">
       <c r="A827" s="12"/>
       <c r="B827" s="12"/>
       <c r="C827" s="12"/>
@@ -24021,7 +24023,7 @@
       <c r="X827" s="1"/>
       <c r="Y827" s="1"/>
     </row>
-    <row r="828" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:25" ht="12.75">
       <c r="A828" s="12"/>
       <c r="B828" s="12"/>
       <c r="C828" s="12"/>
@@ -24048,7 +24050,7 @@
       <c r="X828" s="1"/>
       <c r="Y828" s="1"/>
     </row>
-    <row r="829" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:25" ht="12.75">
       <c r="A829" s="12"/>
       <c r="B829" s="12"/>
       <c r="C829" s="12"/>
@@ -24075,7 +24077,7 @@
       <c r="X829" s="1"/>
       <c r="Y829" s="1"/>
     </row>
-    <row r="830" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:25" ht="12.75">
       <c r="A830" s="12"/>
       <c r="B830" s="12"/>
       <c r="C830" s="12"/>
@@ -24102,7 +24104,7 @@
       <c r="X830" s="1"/>
       <c r="Y830" s="1"/>
     </row>
-    <row r="831" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:25" ht="12.75">
       <c r="A831" s="12"/>
       <c r="B831" s="12"/>
       <c r="C831" s="12"/>
@@ -24129,7 +24131,7 @@
       <c r="X831" s="1"/>
       <c r="Y831" s="1"/>
     </row>
-    <row r="832" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:25" ht="12.75">
       <c r="A832" s="12"/>
       <c r="B832" s="12"/>
       <c r="C832" s="12"/>
@@ -24156,7 +24158,7 @@
       <c r="X832" s="1"/>
       <c r="Y832" s="1"/>
     </row>
-    <row r="833" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:25" ht="12.75">
       <c r="A833" s="12"/>
       <c r="B833" s="12"/>
       <c r="C833" s="12"/>
@@ -24183,7 +24185,7 @@
       <c r="X833" s="1"/>
       <c r="Y833" s="1"/>
     </row>
-    <row r="834" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:25" ht="12.75">
       <c r="A834" s="12"/>
       <c r="B834" s="12"/>
       <c r="C834" s="12"/>
@@ -24210,7 +24212,7 @@
       <c r="X834" s="1"/>
       <c r="Y834" s="1"/>
     </row>
-    <row r="835" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:25" ht="12.75">
       <c r="A835" s="12"/>
       <c r="B835" s="12"/>
       <c r="C835" s="12"/>
@@ -24237,7 +24239,7 @@
       <c r="X835" s="1"/>
       <c r="Y835" s="1"/>
     </row>
-    <row r="836" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:25" ht="12.75">
       <c r="A836" s="12"/>
       <c r="B836" s="12"/>
       <c r="C836" s="12"/>
@@ -24264,7 +24266,7 @@
       <c r="X836" s="1"/>
       <c r="Y836" s="1"/>
     </row>
-    <row r="837" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:25" ht="12.75">
       <c r="A837" s="12"/>
       <c r="B837" s="12"/>
       <c r="C837" s="12"/>
@@ -24291,7 +24293,7 @@
       <c r="X837" s="1"/>
       <c r="Y837" s="1"/>
     </row>
-    <row r="838" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:25" ht="12.75">
       <c r="A838" s="12"/>
       <c r="B838" s="12"/>
       <c r="C838" s="12"/>
@@ -24318,7 +24320,7 @@
       <c r="X838" s="1"/>
       <c r="Y838" s="1"/>
     </row>
-    <row r="839" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:25" ht="12.75">
       <c r="A839" s="12"/>
       <c r="B839" s="12"/>
       <c r="C839" s="12"/>
@@ -24345,7 +24347,7 @@
       <c r="X839" s="1"/>
       <c r="Y839" s="1"/>
     </row>
-    <row r="840" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:25" ht="12.75">
       <c r="A840" s="12"/>
       <c r="B840" s="12"/>
       <c r="C840" s="12"/>
@@ -24372,7 +24374,7 @@
       <c r="X840" s="1"/>
       <c r="Y840" s="1"/>
     </row>
-    <row r="841" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:25" ht="12.75">
       <c r="A841" s="12"/>
       <c r="B841" s="12"/>
       <c r="C841" s="12"/>
@@ -24399,7 +24401,7 @@
       <c r="X841" s="1"/>
       <c r="Y841" s="1"/>
     </row>
-    <row r="842" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:25" ht="12.75">
       <c r="A842" s="12"/>
       <c r="B842" s="12"/>
       <c r="C842" s="12"/>
@@ -24426,7 +24428,7 @@
       <c r="X842" s="1"/>
       <c r="Y842" s="1"/>
     </row>
-    <row r="843" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:25" ht="12.75">
       <c r="A843" s="12"/>
       <c r="B843" s="12"/>
       <c r="C843" s="12"/>
@@ -24453,7 +24455,7 @@
       <c r="X843" s="1"/>
       <c r="Y843" s="1"/>
     </row>
-    <row r="844" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:25" ht="12.75">
       <c r="A844" s="12"/>
       <c r="B844" s="12"/>
       <c r="C844" s="12"/>
@@ -24480,7 +24482,7 @@
       <c r="X844" s="1"/>
       <c r="Y844" s="1"/>
     </row>
-    <row r="845" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:25" ht="12.75">
       <c r="A845" s="12"/>
       <c r="B845" s="12"/>
       <c r="C845" s="12"/>
@@ -24507,7 +24509,7 @@
       <c r="X845" s="1"/>
       <c r="Y845" s="1"/>
     </row>
-    <row r="846" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:25" ht="12.75">
       <c r="A846" s="12"/>
       <c r="B846" s="12"/>
       <c r="C846" s="12"/>
@@ -24534,7 +24536,7 @@
       <c r="X846" s="1"/>
       <c r="Y846" s="1"/>
     </row>
-    <row r="847" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:25" ht="12.75">
       <c r="A847" s="12"/>
       <c r="B847" s="12"/>
       <c r="C847" s="12"/>
@@ -24561,7 +24563,7 @@
       <c r="X847" s="1"/>
       <c r="Y847" s="1"/>
     </row>
-    <row r="848" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:25" ht="12.75">
       <c r="A848" s="12"/>
       <c r="B848" s="12"/>
       <c r="C848" s="12"/>
@@ -24588,7 +24590,7 @@
       <c r="X848" s="1"/>
       <c r="Y848" s="1"/>
     </row>
-    <row r="849" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:25" ht="12.75">
       <c r="A849" s="12"/>
       <c r="B849" s="12"/>
       <c r="C849" s="12"/>
@@ -24615,7 +24617,7 @@
       <c r="X849" s="1"/>
       <c r="Y849" s="1"/>
     </row>
-    <row r="850" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:25" ht="12.75">
       <c r="A850" s="12"/>
       <c r="B850" s="12"/>
       <c r="C850" s="12"/>
@@ -24642,7 +24644,7 @@
       <c r="X850" s="1"/>
       <c r="Y850" s="1"/>
     </row>
-    <row r="851" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:25" ht="12.75">
       <c r="A851" s="12"/>
       <c r="B851" s="12"/>
       <c r="C851" s="12"/>
@@ -24669,7 +24671,7 @@
       <c r="X851" s="1"/>
       <c r="Y851" s="1"/>
     </row>
-    <row r="852" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:25" ht="12.75">
       <c r="A852" s="12"/>
       <c r="B852" s="12"/>
       <c r="C852" s="12"/>
@@ -24696,7 +24698,7 @@
       <c r="X852" s="1"/>
       <c r="Y852" s="1"/>
     </row>
-    <row r="853" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:25" ht="12.75">
       <c r="A853" s="12"/>
       <c r="B853" s="12"/>
       <c r="C853" s="12"/>
@@ -24723,7 +24725,7 @@
       <c r="X853" s="1"/>
       <c r="Y853" s="1"/>
     </row>
-    <row r="854" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:25" ht="12.75">
       <c r="A854" s="12"/>
       <c r="B854" s="12"/>
       <c r="C854" s="12"/>
@@ -24750,7 +24752,7 @@
       <c r="X854" s="1"/>
       <c r="Y854" s="1"/>
     </row>
-    <row r="855" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:25" ht="12.75">
       <c r="A855" s="12"/>
       <c r="B855" s="12"/>
       <c r="C855" s="12"/>
@@ -24783,16 +24785,6 @@
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
   <mergeCells count="26">
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="J12:J13"/>
@@ -24809,6 +24801,16 @@
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="I14:I1048576">
     <cfRule type="containsText" dxfId="17" priority="22" operator="containsText" text="HASI GABE">

--- a/0.1- PLANIFIKAZIOA/TSB EGUNEROKOA.xlsx
+++ b/0.1- PLANIFIKAZIOA/TSB EGUNEROKOA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikaltamirapaag2\Documents\GitHub\ERRONKA-TSB-RETURNS\0.1- PLANIFIKAZIOA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikaltamirapaag2\Desktop\ERRONKA TSB RETURNS\0.1- PLANIFIKAZIOA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12312"/>
   </bookViews>
   <sheets>
     <sheet name="Planifikazioa" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="41">
   <si>
     <t>ENTREGA</t>
   </si>
@@ -178,12 +178,15 @@
   <si>
     <t>TALDEA: Erronkak definizioak sortu eta aurkeztu</t>
   </si>
+  <si>
+    <t>TALDEA: Talde proposamenak juntatu</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -908,41 +911,6 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -962,6 +930,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
@@ -992,6 +969,32 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1484,35 +1487,35 @@
   </sheetPr>
   <dimension ref="A1:Y855"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.42578125" style="15"/>
-    <col min="6" max="6" width="20.42578125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="31.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="15"/>
-    <col min="9" max="9" width="22.85546875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="27.7109375" style="15" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14.44140625" style="15"/>
+    <col min="6" max="6" width="20.44140625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="31.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="15"/>
+    <col min="9" max="9" width="22.88671875" style="15" customWidth="1"/>
+    <col min="10" max="10" width="27.6640625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="23.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:25" ht="34.799999999999997" x14ac:dyDescent="0.7">
+      <c r="A1" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
       <c r="G1" s="16"/>
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
-      <c r="J1" s="58"/>
+      <c r="J1" s="43"/>
       <c r="K1" s="2"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1529,19 +1532,19 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="23.25">
-      <c r="A2" s="46" t="s">
+    <row r="2" spans="1:25" ht="34.799999999999997" x14ac:dyDescent="1.2">
+      <c r="A2" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="59"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="44"/>
       <c r="K2" s="2"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1558,17 +1561,17 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="60" customHeight="1" thickBot="1">
-      <c r="A3" s="48"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="60"/>
+    <row r="3" spans="1:25" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="45"/>
       <c r="K3" s="2"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1585,7 +1588,7 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="12.75">
+    <row r="4" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1612,18 +1615,18 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="18.75" thickBot="1">
-      <c r="A5" s="50" t="s">
+    <row r="5" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.95">
+      <c r="A5" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
       <c r="J5" s="6"/>
       <c r="K5" s="2"/>
       <c r="L5" s="1"/>
@@ -1641,22 +1644,22 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A6" s="76" t="s">
+    <row r="6" spans="1:25" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A6" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="79" t="s">
+      <c r="B6" s="65"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="79" t="s">
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="77"/>
-      <c r="I6" s="78"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="66"/>
       <c r="J6" s="42" t="s">
         <v>17</v>
       </c>
@@ -1676,22 +1679,22 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A7" s="52" t="s">
+    <row r="7" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="52" t="s">
+      <c r="B7" s="75"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="52" t="s">
+      <c r="E7" s="75"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="54"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="76"/>
       <c r="J7" s="39" t="s">
         <v>21</v>
       </c>
@@ -1711,20 +1714,20 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="13.9" customHeight="1">
-      <c r="A8" s="55" t="s">
+    <row r="8" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="55" t="s">
+      <c r="B8" s="78"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="57"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="79"/>
       <c r="J8" s="40" t="s">
         <v>23</v>
       </c>
@@ -1744,20 +1747,20 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="13.9" customHeight="1" thickBot="1">
-      <c r="A9" s="43" t="s">
+    <row r="9" spans="1:25" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="43" t="s">
+      <c r="B9" s="51"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="44"/>
-      <c r="I9" s="45"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="52"/>
       <c r="J9" s="41" t="s">
         <v>25</v>
       </c>
@@ -1777,18 +1780,18 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="13.5" thickBot="1">
+    <row r="10" spans="1:25" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="65" t="s">
+      <c r="G10" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="66"/>
-      <c r="I10" s="67"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="55"/>
       <c r="J10" s="11"/>
       <c r="K10" s="2"/>
       <c r="L10" s="1"/>
@@ -1806,7 +1809,7 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="14.25" thickTop="1" thickBot="1">
+    <row r="11" spans="1:25" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1833,31 +1836,31 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="12.75">
-      <c r="A12" s="68" t="s">
+    <row r="12" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A12" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="72" t="s">
+      <c r="D12" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="73"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="70" t="s">
+      <c r="E12" s="61"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="75" t="s">
+      <c r="H12" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="70" t="s">
+      <c r="I12" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="63" t="s">
+      <c r="J12" s="48" t="s">
         <v>9</v>
       </c>
       <c r="K12" s="1"/>
@@ -1876,10 +1879,10 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A13" s="69"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
+    <row r="13" spans="1:25" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A13" s="57"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="14" t="s">
         <v>4</v>
       </c>
@@ -1889,10 +1892,10 @@
       <c r="F13" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="64"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="49"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="1"/>
@@ -1909,7 +1912,7 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="14" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="18" t="s">
         <v>34</v>
       </c>
@@ -1946,7 +1949,7 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="15" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="18" t="s">
         <v>34</v>
       </c>
@@ -1983,7 +1986,7 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="16" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="18" t="s">
         <v>34</v>
       </c>
@@ -2020,7 +2023,7 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="17" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="18" t="s">
         <v>34</v>
       </c>
@@ -2057,7 +2060,7 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="18" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A18" s="21" t="s">
         <v>34</v>
       </c>
@@ -2094,15 +2097,23 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" ht="19.149999999999999" customHeight="1">
-      <c r="A19" s="21"/>
-      <c r="B19" s="34"/>
+    <row r="19" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A19" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>40</v>
+      </c>
       <c r="C19" s="20"/>
-      <c r="D19" s="19"/>
+      <c r="D19" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="E19" s="20"/>
       <c r="F19" s="19"/>
       <c r="G19" s="20"/>
-      <c r="H19" s="19"/>
+      <c r="H19" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="I19" s="11" t="s">
         <v>27</v>
       </c>
@@ -2123,7 +2134,7 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="20" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A20" s="18"/>
       <c r="B20" s="34"/>
       <c r="C20" s="20"/>
@@ -2152,7 +2163,7 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="21" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A21" s="22"/>
       <c r="B21" s="35"/>
       <c r="C21" s="24"/>
@@ -2181,7 +2192,7 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="22" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A22" s="22"/>
       <c r="B22" s="35"/>
       <c r="C22" s="24"/>
@@ -2210,7 +2221,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="23" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A23" s="25"/>
       <c r="B23" s="35"/>
       <c r="C23" s="24"/>
@@ -2239,7 +2250,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="24" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A24" s="22"/>
       <c r="B24" s="35"/>
       <c r="C24" s="24"/>
@@ -2268,7 +2279,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="25" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A25" s="22"/>
       <c r="B25" s="35"/>
       <c r="C25" s="24"/>
@@ -2297,7 +2308,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="26" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A26" s="26"/>
       <c r="B26" s="35"/>
       <c r="C26" s="24"/>
@@ -2326,7 +2337,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="27" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A27" s="25"/>
       <c r="B27" s="35"/>
       <c r="C27" s="24"/>
@@ -2355,7 +2366,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="28" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A28" s="25"/>
       <c r="B28" s="36"/>
       <c r="C28" s="24"/>
@@ -2384,7 +2395,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="29" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A29" s="25"/>
       <c r="B29" s="36"/>
       <c r="C29" s="24"/>
@@ -2413,7 +2424,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="30" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A30" s="25"/>
       <c r="B30" s="36"/>
       <c r="C30" s="24"/>
@@ -2442,7 +2453,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="31" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A31" s="25"/>
       <c r="B31" s="36"/>
       <c r="C31" s="24"/>
@@ -2471,7 +2482,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="32" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A32" s="27"/>
       <c r="B32" s="37"/>
       <c r="C32" s="29"/>
@@ -2500,7 +2511,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="33" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A33" s="31"/>
       <c r="B33" s="38"/>
       <c r="C33" s="33"/>
@@ -2529,7 +2540,7 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="34" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A34" s="31"/>
       <c r="B34" s="38"/>
       <c r="C34" s="33"/>
@@ -2558,7 +2569,7 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="35" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A35" s="31"/>
       <c r="B35" s="38"/>
       <c r="C35" s="33"/>
@@ -2587,7 +2598,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="36" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A36" s="31"/>
       <c r="B36" s="38"/>
       <c r="C36" s="33"/>
@@ -2616,7 +2627,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="37" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A37" s="31"/>
       <c r="B37" s="38"/>
       <c r="C37" s="33"/>
@@ -2645,7 +2656,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="38" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A38" s="31"/>
       <c r="B38" s="38"/>
       <c r="C38" s="33"/>
@@ -2674,7 +2685,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="39" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A39" s="31"/>
       <c r="B39" s="38"/>
       <c r="C39" s="33"/>
@@ -2703,7 +2714,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="40" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A40" s="31"/>
       <c r="B40" s="38"/>
       <c r="C40" s="33"/>
@@ -2732,7 +2743,7 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="41" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A41" s="31"/>
       <c r="B41" s="38"/>
       <c r="C41" s="33"/>
@@ -2761,7 +2772,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="42" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A42" s="31"/>
       <c r="B42" s="38"/>
       <c r="C42" s="33"/>
@@ -2790,7 +2801,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="43" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A43" s="31"/>
       <c r="B43" s="38"/>
       <c r="C43" s="33"/>
@@ -2819,7 +2830,7 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="44" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A44" s="31"/>
       <c r="B44" s="38"/>
       <c r="C44" s="33"/>
@@ -2848,7 +2859,7 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="45" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A45" s="31"/>
       <c r="B45" s="38"/>
       <c r="C45" s="33"/>
@@ -2877,7 +2888,7 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="46" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A46" s="31"/>
       <c r="B46" s="38"/>
       <c r="C46" s="33"/>
@@ -2906,7 +2917,7 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="47" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A47" s="31"/>
       <c r="B47" s="38"/>
       <c r="C47" s="33"/>
@@ -2935,7 +2946,7 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="48" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A48" s="31"/>
       <c r="B48" s="38"/>
       <c r="C48" s="33"/>
@@ -2964,7 +2975,7 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="49" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A49" s="31"/>
       <c r="B49" s="38"/>
       <c r="C49" s="33"/>
@@ -2993,7 +3004,7 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="50" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A50" s="31"/>
       <c r="B50" s="38"/>
       <c r="C50" s="33"/>
@@ -3022,7 +3033,7 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
     </row>
-    <row r="51" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="51" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A51" s="31"/>
       <c r="B51" s="38"/>
       <c r="C51" s="33"/>
@@ -3051,7 +3062,7 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="52" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A52" s="31"/>
       <c r="B52" s="38"/>
       <c r="C52" s="33"/>
@@ -3080,7 +3091,7 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="53" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A53" s="31"/>
       <c r="B53" s="38"/>
       <c r="C53" s="33"/>
@@ -3109,7 +3120,7 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
     </row>
-    <row r="54" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="54" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A54" s="31"/>
       <c r="B54" s="38"/>
       <c r="C54" s="33"/>
@@ -3138,7 +3149,7 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
     </row>
-    <row r="55" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="55" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A55" s="31"/>
       <c r="B55" s="38"/>
       <c r="C55" s="33"/>
@@ -3167,7 +3178,7 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
     </row>
-    <row r="56" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="56" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A56" s="31"/>
       <c r="B56" s="38"/>
       <c r="C56" s="33"/>
@@ -3196,7 +3207,7 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
     </row>
-    <row r="57" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="57" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A57" s="31"/>
       <c r="B57" s="38"/>
       <c r="C57" s="33"/>
@@ -3225,7 +3236,7 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
     </row>
-    <row r="58" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="58" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A58" s="31"/>
       <c r="B58" s="38"/>
       <c r="C58" s="33"/>
@@ -3254,7 +3265,7 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
     </row>
-    <row r="59" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="59" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A59" s="31"/>
       <c r="B59" s="38"/>
       <c r="C59" s="33"/>
@@ -3283,7 +3294,7 @@
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
     </row>
-    <row r="60" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="60" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A60" s="31"/>
       <c r="B60" s="38"/>
       <c r="C60" s="33"/>
@@ -3312,7 +3323,7 @@
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
     </row>
-    <row r="61" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="61" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A61" s="31"/>
       <c r="B61" s="38"/>
       <c r="C61" s="33"/>
@@ -3341,7 +3352,7 @@
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
     </row>
-    <row r="62" spans="1:25" ht="12.75">
+    <row r="62" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
@@ -3368,7 +3379,7 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
     </row>
-    <row r="63" spans="1:25" ht="12.75">
+    <row r="63" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
@@ -3395,7 +3406,7 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
     </row>
-    <row r="64" spans="1:25" ht="12.75">
+    <row r="64" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
@@ -3422,7 +3433,7 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
     </row>
-    <row r="65" spans="1:25" ht="12.75">
+    <row r="65" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -3449,7 +3460,7 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
     </row>
-    <row r="66" spans="1:25" ht="12.75">
+    <row r="66" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
@@ -3476,7 +3487,7 @@
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
     </row>
-    <row r="67" spans="1:25" ht="12.75">
+    <row r="67" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
@@ -3503,7 +3514,7 @@
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
     </row>
-    <row r="68" spans="1:25" ht="12.75">
+    <row r="68" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
@@ -3530,7 +3541,7 @@
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
     </row>
-    <row r="69" spans="1:25" ht="12.75">
+    <row r="69" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
@@ -3557,7 +3568,7 @@
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
     </row>
-    <row r="70" spans="1:25" ht="12.75">
+    <row r="70" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
@@ -3584,7 +3595,7 @@
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
     </row>
-    <row r="71" spans="1:25" ht="12.75">
+    <row r="71" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
@@ -3611,7 +3622,7 @@
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
     </row>
-    <row r="72" spans="1:25" ht="12.75">
+    <row r="72" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
@@ -3638,7 +3649,7 @@
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
     </row>
-    <row r="73" spans="1:25" ht="12.75">
+    <row r="73" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -3665,7 +3676,7 @@
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
     </row>
-    <row r="74" spans="1:25" ht="12.75">
+    <row r="74" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="12"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
@@ -3692,7 +3703,7 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
     </row>
-    <row r="75" spans="1:25" ht="12.75">
+    <row r="75" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
@@ -3719,7 +3730,7 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
     </row>
-    <row r="76" spans="1:25" ht="12.75">
+    <row r="76" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="12"/>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
@@ -3746,7 +3757,7 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
     </row>
-    <row r="77" spans="1:25" ht="12.75">
+    <row r="77" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
@@ -3773,7 +3784,7 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
     </row>
-    <row r="78" spans="1:25" ht="12.75">
+    <row r="78" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="12"/>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
@@ -3800,7 +3811,7 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
     </row>
-    <row r="79" spans="1:25" ht="12.75">
+    <row r="79" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="12"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
@@ -3827,7 +3838,7 @@
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
     </row>
-    <row r="80" spans="1:25" ht="12.75">
+    <row r="80" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="12"/>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
@@ -3854,7 +3865,7 @@
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
     </row>
-    <row r="81" spans="1:25" ht="12.75">
+    <row r="81" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
@@ -3881,7 +3892,7 @@
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
     </row>
-    <row r="82" spans="1:25" ht="12.75">
+    <row r="82" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="12"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
@@ -3908,7 +3919,7 @@
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
     </row>
-    <row r="83" spans="1:25" ht="12.75">
+    <row r="83" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="12"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
@@ -3935,7 +3946,7 @@
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
     </row>
-    <row r="84" spans="1:25" ht="12.75">
+    <row r="84" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="12"/>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
@@ -3962,7 +3973,7 @@
       <c r="X84" s="1"/>
       <c r="Y84" s="1"/>
     </row>
-    <row r="85" spans="1:25" ht="12.75">
+    <row r="85" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="12"/>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
@@ -3989,7 +4000,7 @@
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
     </row>
-    <row r="86" spans="1:25" ht="12.75">
+    <row r="86" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="12"/>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
@@ -4016,7 +4027,7 @@
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
     </row>
-    <row r="87" spans="1:25" ht="12.75">
+    <row r="87" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="12"/>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
@@ -4043,7 +4054,7 @@
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
     </row>
-    <row r="88" spans="1:25" ht="12.75">
+    <row r="88" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="12"/>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
@@ -4070,7 +4081,7 @@
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
     </row>
-    <row r="89" spans="1:25" ht="12.75">
+    <row r="89" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="12"/>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
@@ -4097,7 +4108,7 @@
       <c r="X89" s="1"/>
       <c r="Y89" s="1"/>
     </row>
-    <row r="90" spans="1:25" ht="12.75">
+    <row r="90" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="12"/>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
@@ -4124,7 +4135,7 @@
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
     </row>
-    <row r="91" spans="1:25" ht="12.75">
+    <row r="91" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
@@ -4151,7 +4162,7 @@
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
     </row>
-    <row r="92" spans="1:25" ht="12.75">
+    <row r="92" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="12"/>
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
@@ -4178,7 +4189,7 @@
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
     </row>
-    <row r="93" spans="1:25" ht="12.75">
+    <row r="93" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="12"/>
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
@@ -4205,7 +4216,7 @@
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
     </row>
-    <row r="94" spans="1:25" ht="12.75">
+    <row r="94" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="12"/>
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
@@ -4232,7 +4243,7 @@
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
     </row>
-    <row r="95" spans="1:25" ht="12.75">
+    <row r="95" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="12"/>
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
@@ -4259,7 +4270,7 @@
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
     </row>
-    <row r="96" spans="1:25" ht="12.75">
+    <row r="96" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
@@ -4286,7 +4297,7 @@
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
     </row>
-    <row r="97" spans="1:25" ht="12.75">
+    <row r="97" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="12"/>
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
@@ -4313,7 +4324,7 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
     </row>
-    <row r="98" spans="1:25" ht="12.75">
+    <row r="98" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="12"/>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
@@ -4340,7 +4351,7 @@
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
     </row>
-    <row r="99" spans="1:25" ht="12.75">
+    <row r="99" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="12"/>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
@@ -4367,7 +4378,7 @@
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
     </row>
-    <row r="100" spans="1:25" ht="12.75">
+    <row r="100" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="12"/>
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
@@ -4394,7 +4405,7 @@
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
     </row>
-    <row r="101" spans="1:25" ht="12.75">
+    <row r="101" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="12"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
@@ -4421,7 +4432,7 @@
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
     </row>
-    <row r="102" spans="1:25" ht="12.75">
+    <row r="102" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="12"/>
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
@@ -4448,7 +4459,7 @@
       <c r="X102" s="1"/>
       <c r="Y102" s="1"/>
     </row>
-    <row r="103" spans="1:25" ht="12.75">
+    <row r="103" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
@@ -4475,7 +4486,7 @@
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
     </row>
-    <row r="104" spans="1:25" ht="12.75">
+    <row r="104" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="12"/>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
@@ -4502,7 +4513,7 @@
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
     </row>
-    <row r="105" spans="1:25" ht="12.75">
+    <row r="105" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="12"/>
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
@@ -4529,7 +4540,7 @@
       <c r="X105" s="1"/>
       <c r="Y105" s="1"/>
     </row>
-    <row r="106" spans="1:25" ht="12.75">
+    <row r="106" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="12"/>
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
@@ -4556,7 +4567,7 @@
       <c r="X106" s="1"/>
       <c r="Y106" s="1"/>
     </row>
-    <row r="107" spans="1:25" ht="12.75">
+    <row r="107" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="12"/>
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
@@ -4583,7 +4594,7 @@
       <c r="X107" s="1"/>
       <c r="Y107" s="1"/>
     </row>
-    <row r="108" spans="1:25" ht="12.75">
+    <row r="108" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
       <c r="C108" s="12"/>
@@ -4610,7 +4621,7 @@
       <c r="X108" s="1"/>
       <c r="Y108" s="1"/>
     </row>
-    <row r="109" spans="1:25" ht="12.75">
+    <row r="109" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
       <c r="C109" s="12"/>
@@ -4637,7 +4648,7 @@
       <c r="X109" s="1"/>
       <c r="Y109" s="1"/>
     </row>
-    <row r="110" spans="1:25" ht="12.75">
+    <row r="110" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
@@ -4664,7 +4675,7 @@
       <c r="X110" s="1"/>
       <c r="Y110" s="1"/>
     </row>
-    <row r="111" spans="1:25" ht="12.75">
+    <row r="111" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="12"/>
       <c r="B111" s="12"/>
       <c r="C111" s="12"/>
@@ -4691,7 +4702,7 @@
       <c r="X111" s="1"/>
       <c r="Y111" s="1"/>
     </row>
-    <row r="112" spans="1:25" ht="12.75">
+    <row r="112" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="12"/>
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
@@ -4718,7 +4729,7 @@
       <c r="X112" s="1"/>
       <c r="Y112" s="1"/>
     </row>
-    <row r="113" spans="1:25" ht="12.75">
+    <row r="113" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -4745,7 +4756,7 @@
       <c r="X113" s="1"/>
       <c r="Y113" s="1"/>
     </row>
-    <row r="114" spans="1:25" ht="12.75">
+    <row r="114" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -4772,7 +4783,7 @@
       <c r="X114" s="1"/>
       <c r="Y114" s="1"/>
     </row>
-    <row r="115" spans="1:25" ht="12.75">
+    <row r="115" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -4799,7 +4810,7 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
     </row>
-    <row r="116" spans="1:25" ht="12.75">
+    <row r="116" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -4826,7 +4837,7 @@
       <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
     </row>
-    <row r="117" spans="1:25" ht="12.75">
+    <row r="117" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="12"/>
       <c r="B117" s="12"/>
       <c r="C117" s="12"/>
@@ -4853,7 +4864,7 @@
       <c r="X117" s="1"/>
       <c r="Y117" s="1"/>
     </row>
-    <row r="118" spans="1:25" ht="12.75">
+    <row r="118" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="12"/>
       <c r="B118" s="12"/>
       <c r="C118" s="12"/>
@@ -4880,7 +4891,7 @@
       <c r="X118" s="1"/>
       <c r="Y118" s="1"/>
     </row>
-    <row r="119" spans="1:25" ht="12.75">
+    <row r="119" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="12"/>
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
@@ -4907,7 +4918,7 @@
       <c r="X119" s="1"/>
       <c r="Y119" s="1"/>
     </row>
-    <row r="120" spans="1:25" ht="12.75">
+    <row r="120" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="12"/>
       <c r="B120" s="12"/>
       <c r="C120" s="12"/>
@@ -4934,7 +4945,7 @@
       <c r="X120" s="1"/>
       <c r="Y120" s="1"/>
     </row>
-    <row r="121" spans="1:25" ht="12.75">
+    <row r="121" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="12"/>
       <c r="B121" s="12"/>
       <c r="C121" s="12"/>
@@ -4961,7 +4972,7 @@
       <c r="X121" s="1"/>
       <c r="Y121" s="1"/>
     </row>
-    <row r="122" spans="1:25" ht="12.75">
+    <row r="122" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="12"/>
       <c r="B122" s="12"/>
       <c r="C122" s="12"/>
@@ -4988,7 +4999,7 @@
       <c r="X122" s="1"/>
       <c r="Y122" s="1"/>
     </row>
-    <row r="123" spans="1:25" ht="12.75">
+    <row r="123" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="12"/>
       <c r="B123" s="12"/>
       <c r="C123" s="12"/>
@@ -5015,7 +5026,7 @@
       <c r="X123" s="1"/>
       <c r="Y123" s="1"/>
     </row>
-    <row r="124" spans="1:25" ht="12.75">
+    <row r="124" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="12"/>
       <c r="B124" s="12"/>
       <c r="C124" s="12"/>
@@ -5042,7 +5053,7 @@
       <c r="X124" s="1"/>
       <c r="Y124" s="1"/>
     </row>
-    <row r="125" spans="1:25" ht="12.75">
+    <row r="125" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="12"/>
       <c r="B125" s="12"/>
       <c r="C125" s="12"/>
@@ -5069,7 +5080,7 @@
       <c r="X125" s="1"/>
       <c r="Y125" s="1"/>
     </row>
-    <row r="126" spans="1:25" ht="12.75">
+    <row r="126" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="12"/>
       <c r="B126" s="12"/>
       <c r="C126" s="12"/>
@@ -5096,7 +5107,7 @@
       <c r="X126" s="1"/>
       <c r="Y126" s="1"/>
     </row>
-    <row r="127" spans="1:25" ht="12.75">
+    <row r="127" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="12"/>
       <c r="B127" s="12"/>
       <c r="C127" s="12"/>
@@ -5123,7 +5134,7 @@
       <c r="X127" s="1"/>
       <c r="Y127" s="1"/>
     </row>
-    <row r="128" spans="1:25" ht="12.75">
+    <row r="128" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="12"/>
       <c r="B128" s="12"/>
       <c r="C128" s="12"/>
@@ -5150,7 +5161,7 @@
       <c r="X128" s="1"/>
       <c r="Y128" s="1"/>
     </row>
-    <row r="129" spans="1:25" ht="12.75">
+    <row r="129" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="12"/>
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
@@ -5177,7 +5188,7 @@
       <c r="X129" s="1"/>
       <c r="Y129" s="1"/>
     </row>
-    <row r="130" spans="1:25" ht="12.75">
+    <row r="130" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="12"/>
       <c r="B130" s="12"/>
       <c r="C130" s="12"/>
@@ -5204,7 +5215,7 @@
       <c r="X130" s="1"/>
       <c r="Y130" s="1"/>
     </row>
-    <row r="131" spans="1:25" ht="12.75">
+    <row r="131" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="12"/>
       <c r="B131" s="12"/>
       <c r="C131" s="12"/>
@@ -5231,7 +5242,7 @@
       <c r="X131" s="1"/>
       <c r="Y131" s="1"/>
     </row>
-    <row r="132" spans="1:25" ht="12.75">
+    <row r="132" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" s="12"/>
       <c r="B132" s="12"/>
       <c r="C132" s="12"/>
@@ -5258,7 +5269,7 @@
       <c r="X132" s="1"/>
       <c r="Y132" s="1"/>
     </row>
-    <row r="133" spans="1:25" ht="12.75">
+    <row r="133" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="12"/>
       <c r="B133" s="12"/>
       <c r="C133" s="12"/>
@@ -5285,7 +5296,7 @@
       <c r="X133" s="1"/>
       <c r="Y133" s="1"/>
     </row>
-    <row r="134" spans="1:25" ht="12.75">
+    <row r="134" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="12"/>
       <c r="B134" s="12"/>
       <c r="C134" s="12"/>
@@ -5312,7 +5323,7 @@
       <c r="X134" s="1"/>
       <c r="Y134" s="1"/>
     </row>
-    <row r="135" spans="1:25" ht="12.75">
+    <row r="135" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="12"/>
       <c r="B135" s="12"/>
       <c r="C135" s="12"/>
@@ -5339,7 +5350,7 @@
       <c r="X135" s="1"/>
       <c r="Y135" s="1"/>
     </row>
-    <row r="136" spans="1:25" ht="12.75">
+    <row r="136" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" s="12"/>
       <c r="B136" s="12"/>
       <c r="C136" s="12"/>
@@ -5366,7 +5377,7 @@
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
     </row>
-    <row r="137" spans="1:25" ht="12.75">
+    <row r="137" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="12"/>
       <c r="B137" s="12"/>
       <c r="C137" s="12"/>
@@ -5393,7 +5404,7 @@
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
     </row>
-    <row r="138" spans="1:25" ht="12.75">
+    <row r="138" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="12"/>
       <c r="B138" s="12"/>
       <c r="C138" s="12"/>
@@ -5420,7 +5431,7 @@
       <c r="X138" s="1"/>
       <c r="Y138" s="1"/>
     </row>
-    <row r="139" spans="1:25" ht="12.75">
+    <row r="139" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" s="12"/>
       <c r="B139" s="12"/>
       <c r="C139" s="12"/>
@@ -5447,7 +5458,7 @@
       <c r="X139" s="1"/>
       <c r="Y139" s="1"/>
     </row>
-    <row r="140" spans="1:25" ht="12.75">
+    <row r="140" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="12"/>
       <c r="B140" s="12"/>
       <c r="C140" s="12"/>
@@ -5474,7 +5485,7 @@
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
     </row>
-    <row r="141" spans="1:25" ht="12.75">
+    <row r="141" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="12"/>
       <c r="B141" s="12"/>
       <c r="C141" s="12"/>
@@ -5501,7 +5512,7 @@
       <c r="X141" s="1"/>
       <c r="Y141" s="1"/>
     </row>
-    <row r="142" spans="1:25" ht="12.75">
+    <row r="142" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="12"/>
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
@@ -5528,7 +5539,7 @@
       <c r="X142" s="1"/>
       <c r="Y142" s="1"/>
     </row>
-    <row r="143" spans="1:25" ht="12.75">
+    <row r="143" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="12"/>
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
@@ -5555,7 +5566,7 @@
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
     </row>
-    <row r="144" spans="1:25" ht="12.75">
+    <row r="144" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="12"/>
       <c r="B144" s="12"/>
       <c r="C144" s="12"/>
@@ -5582,7 +5593,7 @@
       <c r="X144" s="1"/>
       <c r="Y144" s="1"/>
     </row>
-    <row r="145" spans="1:25" ht="12.75">
+    <row r="145" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" s="12"/>
       <c r="B145" s="12"/>
       <c r="C145" s="12"/>
@@ -5609,7 +5620,7 @@
       <c r="X145" s="1"/>
       <c r="Y145" s="1"/>
     </row>
-    <row r="146" spans="1:25" ht="12.75">
+    <row r="146" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="12"/>
       <c r="B146" s="12"/>
       <c r="C146" s="12"/>
@@ -5636,7 +5647,7 @@
       <c r="X146" s="1"/>
       <c r="Y146" s="1"/>
     </row>
-    <row r="147" spans="1:25" ht="12.75">
+    <row r="147" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A147" s="12"/>
       <c r="B147" s="12"/>
       <c r="C147" s="12"/>
@@ -5663,7 +5674,7 @@
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
     </row>
-    <row r="148" spans="1:25" ht="12.75">
+    <row r="148" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" s="12"/>
       <c r="B148" s="12"/>
       <c r="C148" s="12"/>
@@ -5690,7 +5701,7 @@
       <c r="X148" s="1"/>
       <c r="Y148" s="1"/>
     </row>
-    <row r="149" spans="1:25" ht="12.75">
+    <row r="149" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" s="12"/>
       <c r="B149" s="12"/>
       <c r="C149" s="12"/>
@@ -5717,7 +5728,7 @@
       <c r="X149" s="1"/>
       <c r="Y149" s="1"/>
     </row>
-    <row r="150" spans="1:25" ht="12.75">
+    <row r="150" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A150" s="12"/>
       <c r="B150" s="12"/>
       <c r="C150" s="12"/>
@@ -5744,7 +5755,7 @@
       <c r="X150" s="1"/>
       <c r="Y150" s="1"/>
     </row>
-    <row r="151" spans="1:25" ht="12.75">
+    <row r="151" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A151" s="12"/>
       <c r="B151" s="12"/>
       <c r="C151" s="12"/>
@@ -5771,7 +5782,7 @@
       <c r="X151" s="1"/>
       <c r="Y151" s="1"/>
     </row>
-    <row r="152" spans="1:25" ht="12.75">
+    <row r="152" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A152" s="12"/>
       <c r="B152" s="12"/>
       <c r="C152" s="12"/>
@@ -5798,7 +5809,7 @@
       <c r="X152" s="1"/>
       <c r="Y152" s="1"/>
     </row>
-    <row r="153" spans="1:25" ht="12.75">
+    <row r="153" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A153" s="12"/>
       <c r="B153" s="12"/>
       <c r="C153" s="12"/>
@@ -5825,7 +5836,7 @@
       <c r="X153" s="1"/>
       <c r="Y153" s="1"/>
     </row>
-    <row r="154" spans="1:25" ht="12.75">
+    <row r="154" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A154" s="12"/>
       <c r="B154" s="12"/>
       <c r="C154" s="12"/>
@@ -5852,7 +5863,7 @@
       <c r="X154" s="1"/>
       <c r="Y154" s="1"/>
     </row>
-    <row r="155" spans="1:25" ht="12.75">
+    <row r="155" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A155" s="12"/>
       <c r="B155" s="12"/>
       <c r="C155" s="12"/>
@@ -5879,7 +5890,7 @@
       <c r="X155" s="1"/>
       <c r="Y155" s="1"/>
     </row>
-    <row r="156" spans="1:25" ht="12.75">
+    <row r="156" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A156" s="12"/>
       <c r="B156" s="12"/>
       <c r="C156" s="12"/>
@@ -5906,7 +5917,7 @@
       <c r="X156" s="1"/>
       <c r="Y156" s="1"/>
     </row>
-    <row r="157" spans="1:25" ht="12.75">
+    <row r="157" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A157" s="12"/>
       <c r="B157" s="12"/>
       <c r="C157" s="12"/>
@@ -5933,7 +5944,7 @@
       <c r="X157" s="1"/>
       <c r="Y157" s="1"/>
     </row>
-    <row r="158" spans="1:25" ht="12.75">
+    <row r="158" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A158" s="12"/>
       <c r="B158" s="12"/>
       <c r="C158" s="12"/>
@@ -5960,7 +5971,7 @@
       <c r="X158" s="1"/>
       <c r="Y158" s="1"/>
     </row>
-    <row r="159" spans="1:25" ht="12.75">
+    <row r="159" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A159" s="12"/>
       <c r="B159" s="12"/>
       <c r="C159" s="12"/>
@@ -5987,7 +5998,7 @@
       <c r="X159" s="1"/>
       <c r="Y159" s="1"/>
     </row>
-    <row r="160" spans="1:25" ht="12.75">
+    <row r="160" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A160" s="12"/>
       <c r="B160" s="12"/>
       <c r="C160" s="12"/>
@@ -6014,7 +6025,7 @@
       <c r="X160" s="1"/>
       <c r="Y160" s="1"/>
     </row>
-    <row r="161" spans="1:25" ht="12.75">
+    <row r="161" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A161" s="12"/>
       <c r="B161" s="12"/>
       <c r="C161" s="12"/>
@@ -6041,7 +6052,7 @@
       <c r="X161" s="1"/>
       <c r="Y161" s="1"/>
     </row>
-    <row r="162" spans="1:25" ht="12.75">
+    <row r="162" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A162" s="12"/>
       <c r="B162" s="12"/>
       <c r="C162" s="12"/>
@@ -6068,7 +6079,7 @@
       <c r="X162" s="1"/>
       <c r="Y162" s="1"/>
     </row>
-    <row r="163" spans="1:25" ht="12.75">
+    <row r="163" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A163" s="12"/>
       <c r="B163" s="12"/>
       <c r="C163" s="12"/>
@@ -6095,7 +6106,7 @@
       <c r="X163" s="1"/>
       <c r="Y163" s="1"/>
     </row>
-    <row r="164" spans="1:25" ht="12.75">
+    <row r="164" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A164" s="12"/>
       <c r="B164" s="12"/>
       <c r="C164" s="12"/>
@@ -6122,7 +6133,7 @@
       <c r="X164" s="1"/>
       <c r="Y164" s="1"/>
     </row>
-    <row r="165" spans="1:25" ht="12.75">
+    <row r="165" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A165" s="12"/>
       <c r="B165" s="12"/>
       <c r="C165" s="12"/>
@@ -6149,7 +6160,7 @@
       <c r="X165" s="1"/>
       <c r="Y165" s="1"/>
     </row>
-    <row r="166" spans="1:25" ht="12.75">
+    <row r="166" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A166" s="12"/>
       <c r="B166" s="12"/>
       <c r="C166" s="12"/>
@@ -6176,7 +6187,7 @@
       <c r="X166" s="1"/>
       <c r="Y166" s="1"/>
     </row>
-    <row r="167" spans="1:25" ht="12.75">
+    <row r="167" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A167" s="12"/>
       <c r="B167" s="12"/>
       <c r="C167" s="12"/>
@@ -6203,7 +6214,7 @@
       <c r="X167" s="1"/>
       <c r="Y167" s="1"/>
     </row>
-    <row r="168" spans="1:25" ht="12.75">
+    <row r="168" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A168" s="12"/>
       <c r="B168" s="12"/>
       <c r="C168" s="12"/>
@@ -6230,7 +6241,7 @@
       <c r="X168" s="1"/>
       <c r="Y168" s="1"/>
     </row>
-    <row r="169" spans="1:25" ht="12.75">
+    <row r="169" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A169" s="12"/>
       <c r="B169" s="12"/>
       <c r="C169" s="12"/>
@@ -6257,7 +6268,7 @@
       <c r="X169" s="1"/>
       <c r="Y169" s="1"/>
     </row>
-    <row r="170" spans="1:25" ht="12.75">
+    <row r="170" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A170" s="12"/>
       <c r="B170" s="12"/>
       <c r="C170" s="12"/>
@@ -6284,7 +6295,7 @@
       <c r="X170" s="1"/>
       <c r="Y170" s="1"/>
     </row>
-    <row r="171" spans="1:25" ht="12.75">
+    <row r="171" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A171" s="12"/>
       <c r="B171" s="12"/>
       <c r="C171" s="12"/>
@@ -6311,7 +6322,7 @@
       <c r="X171" s="1"/>
       <c r="Y171" s="1"/>
     </row>
-    <row r="172" spans="1:25" ht="12.75">
+    <row r="172" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A172" s="12"/>
       <c r="B172" s="12"/>
       <c r="C172" s="12"/>
@@ -6338,7 +6349,7 @@
       <c r="X172" s="1"/>
       <c r="Y172" s="1"/>
     </row>
-    <row r="173" spans="1:25" ht="12.75">
+    <row r="173" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A173" s="12"/>
       <c r="B173" s="12"/>
       <c r="C173" s="12"/>
@@ -6365,7 +6376,7 @@
       <c r="X173" s="1"/>
       <c r="Y173" s="1"/>
     </row>
-    <row r="174" spans="1:25" ht="12.75">
+    <row r="174" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A174" s="12"/>
       <c r="B174" s="12"/>
       <c r="C174" s="12"/>
@@ -6392,7 +6403,7 @@
       <c r="X174" s="1"/>
       <c r="Y174" s="1"/>
     </row>
-    <row r="175" spans="1:25" ht="12.75">
+    <row r="175" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A175" s="12"/>
       <c r="B175" s="12"/>
       <c r="C175" s="12"/>
@@ -6419,7 +6430,7 @@
       <c r="X175" s="1"/>
       <c r="Y175" s="1"/>
     </row>
-    <row r="176" spans="1:25" ht="12.75">
+    <row r="176" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A176" s="12"/>
       <c r="B176" s="12"/>
       <c r="C176" s="12"/>
@@ -6446,7 +6457,7 @@
       <c r="X176" s="1"/>
       <c r="Y176" s="1"/>
     </row>
-    <row r="177" spans="1:25" ht="12.75">
+    <row r="177" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A177" s="12"/>
       <c r="B177" s="12"/>
       <c r="C177" s="12"/>
@@ -6473,7 +6484,7 @@
       <c r="X177" s="1"/>
       <c r="Y177" s="1"/>
     </row>
-    <row r="178" spans="1:25" ht="12.75">
+    <row r="178" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A178" s="12"/>
       <c r="B178" s="12"/>
       <c r="C178" s="12"/>
@@ -6500,7 +6511,7 @@
       <c r="X178" s="1"/>
       <c r="Y178" s="1"/>
     </row>
-    <row r="179" spans="1:25" ht="12.75">
+    <row r="179" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A179" s="12"/>
       <c r="B179" s="12"/>
       <c r="C179" s="12"/>
@@ -6527,7 +6538,7 @@
       <c r="X179" s="1"/>
       <c r="Y179" s="1"/>
     </row>
-    <row r="180" spans="1:25" ht="12.75">
+    <row r="180" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A180" s="12"/>
       <c r="B180" s="12"/>
       <c r="C180" s="12"/>
@@ -6554,7 +6565,7 @@
       <c r="X180" s="1"/>
       <c r="Y180" s="1"/>
     </row>
-    <row r="181" spans="1:25" ht="12.75">
+    <row r="181" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A181" s="12"/>
       <c r="B181" s="12"/>
       <c r="C181" s="12"/>
@@ -6581,7 +6592,7 @@
       <c r="X181" s="1"/>
       <c r="Y181" s="1"/>
     </row>
-    <row r="182" spans="1:25" ht="12.75">
+    <row r="182" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A182" s="12"/>
       <c r="B182" s="12"/>
       <c r="C182" s="12"/>
@@ -6608,7 +6619,7 @@
       <c r="X182" s="1"/>
       <c r="Y182" s="1"/>
     </row>
-    <row r="183" spans="1:25" ht="12.75">
+    <row r="183" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A183" s="12"/>
       <c r="B183" s="12"/>
       <c r="C183" s="12"/>
@@ -6635,7 +6646,7 @@
       <c r="X183" s="1"/>
       <c r="Y183" s="1"/>
     </row>
-    <row r="184" spans="1:25" ht="12.75">
+    <row r="184" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A184" s="12"/>
       <c r="B184" s="12"/>
       <c r="C184" s="12"/>
@@ -6662,7 +6673,7 @@
       <c r="X184" s="1"/>
       <c r="Y184" s="1"/>
     </row>
-    <row r="185" spans="1:25" ht="12.75">
+    <row r="185" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A185" s="12"/>
       <c r="B185" s="12"/>
       <c r="C185" s="12"/>
@@ -6689,7 +6700,7 @@
       <c r="X185" s="1"/>
       <c r="Y185" s="1"/>
     </row>
-    <row r="186" spans="1:25" ht="12.75">
+    <row r="186" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A186" s="12"/>
       <c r="B186" s="12"/>
       <c r="C186" s="12"/>
@@ -6716,7 +6727,7 @@
       <c r="X186" s="1"/>
       <c r="Y186" s="1"/>
     </row>
-    <row r="187" spans="1:25" ht="12.75">
+    <row r="187" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A187" s="12"/>
       <c r="B187" s="12"/>
       <c r="C187" s="12"/>
@@ -6743,7 +6754,7 @@
       <c r="X187" s="1"/>
       <c r="Y187" s="1"/>
     </row>
-    <row r="188" spans="1:25" ht="12.75">
+    <row r="188" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A188" s="12"/>
       <c r="B188" s="12"/>
       <c r="C188" s="12"/>
@@ -6770,7 +6781,7 @@
       <c r="X188" s="1"/>
       <c r="Y188" s="1"/>
     </row>
-    <row r="189" spans="1:25" ht="12.75">
+    <row r="189" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A189" s="12"/>
       <c r="B189" s="12"/>
       <c r="C189" s="12"/>
@@ -6797,7 +6808,7 @@
       <c r="X189" s="1"/>
       <c r="Y189" s="1"/>
     </row>
-    <row r="190" spans="1:25" ht="12.75">
+    <row r="190" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A190" s="12"/>
       <c r="B190" s="12"/>
       <c r="C190" s="12"/>
@@ -6824,7 +6835,7 @@
       <c r="X190" s="1"/>
       <c r="Y190" s="1"/>
     </row>
-    <row r="191" spans="1:25" ht="12.75">
+    <row r="191" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A191" s="12"/>
       <c r="B191" s="12"/>
       <c r="C191" s="12"/>
@@ -6851,7 +6862,7 @@
       <c r="X191" s="1"/>
       <c r="Y191" s="1"/>
     </row>
-    <row r="192" spans="1:25" ht="12.75">
+    <row r="192" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A192" s="12"/>
       <c r="B192" s="12"/>
       <c r="C192" s="12"/>
@@ -6878,7 +6889,7 @@
       <c r="X192" s="1"/>
       <c r="Y192" s="1"/>
     </row>
-    <row r="193" spans="1:25" ht="12.75">
+    <row r="193" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A193" s="12"/>
       <c r="B193" s="12"/>
       <c r="C193" s="12"/>
@@ -6905,7 +6916,7 @@
       <c r="X193" s="1"/>
       <c r="Y193" s="1"/>
     </row>
-    <row r="194" spans="1:25" ht="12.75">
+    <row r="194" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A194" s="12"/>
       <c r="B194" s="12"/>
       <c r="C194" s="12"/>
@@ -6932,7 +6943,7 @@
       <c r="X194" s="1"/>
       <c r="Y194" s="1"/>
     </row>
-    <row r="195" spans="1:25" ht="12.75">
+    <row r="195" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A195" s="12"/>
       <c r="B195" s="12"/>
       <c r="C195" s="12"/>
@@ -6959,7 +6970,7 @@
       <c r="X195" s="1"/>
       <c r="Y195" s="1"/>
     </row>
-    <row r="196" spans="1:25" ht="12.75">
+    <row r="196" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A196" s="12"/>
       <c r="B196" s="12"/>
       <c r="C196" s="12"/>
@@ -6986,7 +6997,7 @@
       <c r="X196" s="1"/>
       <c r="Y196" s="1"/>
     </row>
-    <row r="197" spans="1:25" ht="12.75">
+    <row r="197" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A197" s="12"/>
       <c r="B197" s="12"/>
       <c r="C197" s="12"/>
@@ -7013,7 +7024,7 @@
       <c r="X197" s="1"/>
       <c r="Y197" s="1"/>
     </row>
-    <row r="198" spans="1:25" ht="12.75">
+    <row r="198" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A198" s="12"/>
       <c r="B198" s="12"/>
       <c r="C198" s="12"/>
@@ -7040,7 +7051,7 @@
       <c r="X198" s="1"/>
       <c r="Y198" s="1"/>
     </row>
-    <row r="199" spans="1:25" ht="12.75">
+    <row r="199" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A199" s="12"/>
       <c r="B199" s="12"/>
       <c r="C199" s="12"/>
@@ -7067,7 +7078,7 @@
       <c r="X199" s="1"/>
       <c r="Y199" s="1"/>
     </row>
-    <row r="200" spans="1:25" ht="12.75">
+    <row r="200" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A200" s="12"/>
       <c r="B200" s="12"/>
       <c r="C200" s="12"/>
@@ -7094,7 +7105,7 @@
       <c r="X200" s="1"/>
       <c r="Y200" s="1"/>
     </row>
-    <row r="201" spans="1:25" ht="12.75">
+    <row r="201" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A201" s="12"/>
       <c r="B201" s="12"/>
       <c r="C201" s="12"/>
@@ -7121,7 +7132,7 @@
       <c r="X201" s="1"/>
       <c r="Y201" s="1"/>
     </row>
-    <row r="202" spans="1:25" ht="12.75">
+    <row r="202" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A202" s="12"/>
       <c r="B202" s="12"/>
       <c r="C202" s="12"/>
@@ -7148,7 +7159,7 @@
       <c r="X202" s="1"/>
       <c r="Y202" s="1"/>
     </row>
-    <row r="203" spans="1:25" ht="12.75">
+    <row r="203" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A203" s="12"/>
       <c r="B203" s="12"/>
       <c r="C203" s="12"/>
@@ -7175,7 +7186,7 @@
       <c r="X203" s="1"/>
       <c r="Y203" s="1"/>
     </row>
-    <row r="204" spans="1:25" ht="12.75">
+    <row r="204" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A204" s="12"/>
       <c r="B204" s="12"/>
       <c r="C204" s="12"/>
@@ -7202,7 +7213,7 @@
       <c r="X204" s="1"/>
       <c r="Y204" s="1"/>
     </row>
-    <row r="205" spans="1:25" ht="12.75">
+    <row r="205" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A205" s="12"/>
       <c r="B205" s="12"/>
       <c r="C205" s="12"/>
@@ -7229,7 +7240,7 @@
       <c r="X205" s="1"/>
       <c r="Y205" s="1"/>
     </row>
-    <row r="206" spans="1:25" ht="12.75">
+    <row r="206" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A206" s="12"/>
       <c r="B206" s="12"/>
       <c r="C206" s="12"/>
@@ -7256,7 +7267,7 @@
       <c r="X206" s="1"/>
       <c r="Y206" s="1"/>
     </row>
-    <row r="207" spans="1:25" ht="12.75">
+    <row r="207" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A207" s="12"/>
       <c r="B207" s="12"/>
       <c r="C207" s="12"/>
@@ -7283,7 +7294,7 @@
       <c r="X207" s="1"/>
       <c r="Y207" s="1"/>
     </row>
-    <row r="208" spans="1:25" ht="12.75">
+    <row r="208" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A208" s="12"/>
       <c r="B208" s="12"/>
       <c r="C208" s="12"/>
@@ -7310,7 +7321,7 @@
       <c r="X208" s="1"/>
       <c r="Y208" s="1"/>
     </row>
-    <row r="209" spans="1:25" ht="12.75">
+    <row r="209" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A209" s="12"/>
       <c r="B209" s="12"/>
       <c r="C209" s="12"/>
@@ -7337,7 +7348,7 @@
       <c r="X209" s="1"/>
       <c r="Y209" s="1"/>
     </row>
-    <row r="210" spans="1:25" ht="12.75">
+    <row r="210" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A210" s="12"/>
       <c r="B210" s="12"/>
       <c r="C210" s="12"/>
@@ -7364,7 +7375,7 @@
       <c r="X210" s="1"/>
       <c r="Y210" s="1"/>
     </row>
-    <row r="211" spans="1:25" ht="12.75">
+    <row r="211" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A211" s="12"/>
       <c r="B211" s="12"/>
       <c r="C211" s="12"/>
@@ -7391,7 +7402,7 @@
       <c r="X211" s="1"/>
       <c r="Y211" s="1"/>
     </row>
-    <row r="212" spans="1:25" ht="12.75">
+    <row r="212" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A212" s="12"/>
       <c r="B212" s="12"/>
       <c r="C212" s="12"/>
@@ -7418,7 +7429,7 @@
       <c r="X212" s="1"/>
       <c r="Y212" s="1"/>
     </row>
-    <row r="213" spans="1:25" ht="12.75">
+    <row r="213" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A213" s="12"/>
       <c r="B213" s="12"/>
       <c r="C213" s="12"/>
@@ -7445,7 +7456,7 @@
       <c r="X213" s="1"/>
       <c r="Y213" s="1"/>
     </row>
-    <row r="214" spans="1:25" ht="12.75">
+    <row r="214" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A214" s="12"/>
       <c r="B214" s="12"/>
       <c r="C214" s="12"/>
@@ -7472,7 +7483,7 @@
       <c r="X214" s="1"/>
       <c r="Y214" s="1"/>
     </row>
-    <row r="215" spans="1:25" ht="12.75">
+    <row r="215" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A215" s="12"/>
       <c r="B215" s="12"/>
       <c r="C215" s="12"/>
@@ -7499,7 +7510,7 @@
       <c r="X215" s="1"/>
       <c r="Y215" s="1"/>
     </row>
-    <row r="216" spans="1:25" ht="12.75">
+    <row r="216" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A216" s="12"/>
       <c r="B216" s="12"/>
       <c r="C216" s="12"/>
@@ -7526,7 +7537,7 @@
       <c r="X216" s="1"/>
       <c r="Y216" s="1"/>
     </row>
-    <row r="217" spans="1:25" ht="12.75">
+    <row r="217" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A217" s="12"/>
       <c r="B217" s="12"/>
       <c r="C217" s="12"/>
@@ -7553,7 +7564,7 @@
       <c r="X217" s="1"/>
       <c r="Y217" s="1"/>
     </row>
-    <row r="218" spans="1:25" ht="12.75">
+    <row r="218" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A218" s="12"/>
       <c r="B218" s="12"/>
       <c r="C218" s="12"/>
@@ -7580,7 +7591,7 @@
       <c r="X218" s="1"/>
       <c r="Y218" s="1"/>
     </row>
-    <row r="219" spans="1:25" ht="12.75">
+    <row r="219" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A219" s="12"/>
       <c r="B219" s="12"/>
       <c r="C219" s="12"/>
@@ -7607,7 +7618,7 @@
       <c r="X219" s="1"/>
       <c r="Y219" s="1"/>
     </row>
-    <row r="220" spans="1:25" ht="12.75">
+    <row r="220" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A220" s="12"/>
       <c r="B220" s="12"/>
       <c r="C220" s="12"/>
@@ -7634,7 +7645,7 @@
       <c r="X220" s="1"/>
       <c r="Y220" s="1"/>
     </row>
-    <row r="221" spans="1:25" ht="12.75">
+    <row r="221" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A221" s="12"/>
       <c r="B221" s="12"/>
       <c r="C221" s="12"/>
@@ -7661,7 +7672,7 @@
       <c r="X221" s="1"/>
       <c r="Y221" s="1"/>
     </row>
-    <row r="222" spans="1:25" ht="12.75">
+    <row r="222" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A222" s="12"/>
       <c r="B222" s="12"/>
       <c r="C222" s="12"/>
@@ -7688,7 +7699,7 @@
       <c r="X222" s="1"/>
       <c r="Y222" s="1"/>
     </row>
-    <row r="223" spans="1:25" ht="12.75">
+    <row r="223" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A223" s="12"/>
       <c r="B223" s="12"/>
       <c r="C223" s="12"/>
@@ -7715,7 +7726,7 @@
       <c r="X223" s="1"/>
       <c r="Y223" s="1"/>
     </row>
-    <row r="224" spans="1:25" ht="12.75">
+    <row r="224" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A224" s="12"/>
       <c r="B224" s="12"/>
       <c r="C224" s="12"/>
@@ -7742,7 +7753,7 @@
       <c r="X224" s="1"/>
       <c r="Y224" s="1"/>
     </row>
-    <row r="225" spans="1:25" ht="12.75">
+    <row r="225" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A225" s="12"/>
       <c r="B225" s="12"/>
       <c r="C225" s="12"/>
@@ -7769,7 +7780,7 @@
       <c r="X225" s="1"/>
       <c r="Y225" s="1"/>
     </row>
-    <row r="226" spans="1:25" ht="12.75">
+    <row r="226" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A226" s="12"/>
       <c r="B226" s="12"/>
       <c r="C226" s="12"/>
@@ -7796,7 +7807,7 @@
       <c r="X226" s="1"/>
       <c r="Y226" s="1"/>
     </row>
-    <row r="227" spans="1:25" ht="12.75">
+    <row r="227" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A227" s="12"/>
       <c r="B227" s="12"/>
       <c r="C227" s="12"/>
@@ -7823,7 +7834,7 @@
       <c r="X227" s="1"/>
       <c r="Y227" s="1"/>
     </row>
-    <row r="228" spans="1:25" ht="12.75">
+    <row r="228" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A228" s="12"/>
       <c r="B228" s="12"/>
       <c r="C228" s="12"/>
@@ -7850,7 +7861,7 @@
       <c r="X228" s="1"/>
       <c r="Y228" s="1"/>
     </row>
-    <row r="229" spans="1:25" ht="12.75">
+    <row r="229" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A229" s="12"/>
       <c r="B229" s="12"/>
       <c r="C229" s="12"/>
@@ -7877,7 +7888,7 @@
       <c r="X229" s="1"/>
       <c r="Y229" s="1"/>
     </row>
-    <row r="230" spans="1:25" ht="12.75">
+    <row r="230" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A230" s="12"/>
       <c r="B230" s="12"/>
       <c r="C230" s="12"/>
@@ -7904,7 +7915,7 @@
       <c r="X230" s="1"/>
       <c r="Y230" s="1"/>
     </row>
-    <row r="231" spans="1:25" ht="12.75">
+    <row r="231" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A231" s="12"/>
       <c r="B231" s="12"/>
       <c r="C231" s="12"/>
@@ -7931,7 +7942,7 @@
       <c r="X231" s="1"/>
       <c r="Y231" s="1"/>
     </row>
-    <row r="232" spans="1:25" ht="12.75">
+    <row r="232" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A232" s="12"/>
       <c r="B232" s="12"/>
       <c r="C232" s="12"/>
@@ -7958,7 +7969,7 @@
       <c r="X232" s="1"/>
       <c r="Y232" s="1"/>
     </row>
-    <row r="233" spans="1:25" ht="12.75">
+    <row r="233" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A233" s="12"/>
       <c r="B233" s="12"/>
       <c r="C233" s="12"/>
@@ -7985,7 +7996,7 @@
       <c r="X233" s="1"/>
       <c r="Y233" s="1"/>
     </row>
-    <row r="234" spans="1:25" ht="12.75">
+    <row r="234" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A234" s="12"/>
       <c r="B234" s="12"/>
       <c r="C234" s="12"/>
@@ -8012,7 +8023,7 @@
       <c r="X234" s="1"/>
       <c r="Y234" s="1"/>
     </row>
-    <row r="235" spans="1:25" ht="12.75">
+    <row r="235" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A235" s="12"/>
       <c r="B235" s="12"/>
       <c r="C235" s="12"/>
@@ -8039,7 +8050,7 @@
       <c r="X235" s="1"/>
       <c r="Y235" s="1"/>
     </row>
-    <row r="236" spans="1:25" ht="12.75">
+    <row r="236" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A236" s="12"/>
       <c r="B236" s="12"/>
       <c r="C236" s="12"/>
@@ -8066,7 +8077,7 @@
       <c r="X236" s="1"/>
       <c r="Y236" s="1"/>
     </row>
-    <row r="237" spans="1:25" ht="12.75">
+    <row r="237" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A237" s="12"/>
       <c r="B237" s="12"/>
       <c r="C237" s="12"/>
@@ -8093,7 +8104,7 @@
       <c r="X237" s="1"/>
       <c r="Y237" s="1"/>
     </row>
-    <row r="238" spans="1:25" ht="12.75">
+    <row r="238" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A238" s="12"/>
       <c r="B238" s="12"/>
       <c r="C238" s="12"/>
@@ -8120,7 +8131,7 @@
       <c r="X238" s="1"/>
       <c r="Y238" s="1"/>
     </row>
-    <row r="239" spans="1:25" ht="12.75">
+    <row r="239" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A239" s="12"/>
       <c r="B239" s="12"/>
       <c r="C239" s="12"/>
@@ -8147,7 +8158,7 @@
       <c r="X239" s="1"/>
       <c r="Y239" s="1"/>
     </row>
-    <row r="240" spans="1:25" ht="12.75">
+    <row r="240" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A240" s="12"/>
       <c r="B240" s="12"/>
       <c r="C240" s="12"/>
@@ -8174,7 +8185,7 @@
       <c r="X240" s="1"/>
       <c r="Y240" s="1"/>
     </row>
-    <row r="241" spans="1:25" ht="12.75">
+    <row r="241" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A241" s="12"/>
       <c r="B241" s="12"/>
       <c r="C241" s="12"/>
@@ -8201,7 +8212,7 @@
       <c r="X241" s="1"/>
       <c r="Y241" s="1"/>
     </row>
-    <row r="242" spans="1:25" ht="12.75">
+    <row r="242" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A242" s="12"/>
       <c r="B242" s="12"/>
       <c r="C242" s="12"/>
@@ -8228,7 +8239,7 @@
       <c r="X242" s="1"/>
       <c r="Y242" s="1"/>
     </row>
-    <row r="243" spans="1:25" ht="12.75">
+    <row r="243" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A243" s="12"/>
       <c r="B243" s="12"/>
       <c r="C243" s="12"/>
@@ -8255,7 +8266,7 @@
       <c r="X243" s="1"/>
       <c r="Y243" s="1"/>
     </row>
-    <row r="244" spans="1:25" ht="12.75">
+    <row r="244" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A244" s="12"/>
       <c r="B244" s="12"/>
       <c r="C244" s="12"/>
@@ -8282,7 +8293,7 @@
       <c r="X244" s="1"/>
       <c r="Y244" s="1"/>
     </row>
-    <row r="245" spans="1:25" ht="12.75">
+    <row r="245" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A245" s="12"/>
       <c r="B245" s="12"/>
       <c r="C245" s="12"/>
@@ -8309,7 +8320,7 @@
       <c r="X245" s="1"/>
       <c r="Y245" s="1"/>
     </row>
-    <row r="246" spans="1:25" ht="12.75">
+    <row r="246" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A246" s="12"/>
       <c r="B246" s="12"/>
       <c r="C246" s="12"/>
@@ -8336,7 +8347,7 @@
       <c r="X246" s="1"/>
       <c r="Y246" s="1"/>
     </row>
-    <row r="247" spans="1:25" ht="12.75">
+    <row r="247" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A247" s="12"/>
       <c r="B247" s="12"/>
       <c r="C247" s="12"/>
@@ -8363,7 +8374,7 @@
       <c r="X247" s="1"/>
       <c r="Y247" s="1"/>
     </row>
-    <row r="248" spans="1:25" ht="12.75">
+    <row r="248" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A248" s="12"/>
       <c r="B248" s="12"/>
       <c r="C248" s="12"/>
@@ -8390,7 +8401,7 @@
       <c r="X248" s="1"/>
       <c r="Y248" s="1"/>
     </row>
-    <row r="249" spans="1:25" ht="12.75">
+    <row r="249" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A249" s="12"/>
       <c r="B249" s="12"/>
       <c r="C249" s="12"/>
@@ -8417,7 +8428,7 @@
       <c r="X249" s="1"/>
       <c r="Y249" s="1"/>
     </row>
-    <row r="250" spans="1:25" ht="12.75">
+    <row r="250" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A250" s="12"/>
       <c r="B250" s="12"/>
       <c r="C250" s="12"/>
@@ -8444,7 +8455,7 @@
       <c r="X250" s="1"/>
       <c r="Y250" s="1"/>
     </row>
-    <row r="251" spans="1:25" ht="12.75">
+    <row r="251" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A251" s="12"/>
       <c r="B251" s="12"/>
       <c r="C251" s="12"/>
@@ -8471,7 +8482,7 @@
       <c r="X251" s="1"/>
       <c r="Y251" s="1"/>
     </row>
-    <row r="252" spans="1:25" ht="12.75">
+    <row r="252" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A252" s="12"/>
       <c r="B252" s="12"/>
       <c r="C252" s="12"/>
@@ -8498,7 +8509,7 @@
       <c r="X252" s="1"/>
       <c r="Y252" s="1"/>
     </row>
-    <row r="253" spans="1:25" ht="12.75">
+    <row r="253" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A253" s="12"/>
       <c r="B253" s="12"/>
       <c r="C253" s="12"/>
@@ -8525,7 +8536,7 @@
       <c r="X253" s="1"/>
       <c r="Y253" s="1"/>
     </row>
-    <row r="254" spans="1:25" ht="12.75">
+    <row r="254" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A254" s="12"/>
       <c r="B254" s="12"/>
       <c r="C254" s="12"/>
@@ -8552,7 +8563,7 @@
       <c r="X254" s="1"/>
       <c r="Y254" s="1"/>
     </row>
-    <row r="255" spans="1:25" ht="12.75">
+    <row r="255" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A255" s="12"/>
       <c r="B255" s="12"/>
       <c r="C255" s="12"/>
@@ -8579,7 +8590,7 @@
       <c r="X255" s="1"/>
       <c r="Y255" s="1"/>
     </row>
-    <row r="256" spans="1:25" ht="12.75">
+    <row r="256" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A256" s="12"/>
       <c r="B256" s="12"/>
       <c r="C256" s="12"/>
@@ -8606,7 +8617,7 @@
       <c r="X256" s="1"/>
       <c r="Y256" s="1"/>
     </row>
-    <row r="257" spans="1:25" ht="12.75">
+    <row r="257" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A257" s="12"/>
       <c r="B257" s="12"/>
       <c r="C257" s="12"/>
@@ -8633,7 +8644,7 @@
       <c r="X257" s="1"/>
       <c r="Y257" s="1"/>
     </row>
-    <row r="258" spans="1:25" ht="12.75">
+    <row r="258" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A258" s="12"/>
       <c r="B258" s="12"/>
       <c r="C258" s="12"/>
@@ -8660,7 +8671,7 @@
       <c r="X258" s="1"/>
       <c r="Y258" s="1"/>
     </row>
-    <row r="259" spans="1:25" ht="12.75">
+    <row r="259" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A259" s="12"/>
       <c r="B259" s="12"/>
       <c r="C259" s="12"/>
@@ -8687,7 +8698,7 @@
       <c r="X259" s="1"/>
       <c r="Y259" s="1"/>
     </row>
-    <row r="260" spans="1:25" ht="12.75">
+    <row r="260" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A260" s="12"/>
       <c r="B260" s="12"/>
       <c r="C260" s="12"/>
@@ -8714,7 +8725,7 @@
       <c r="X260" s="1"/>
       <c r="Y260" s="1"/>
     </row>
-    <row r="261" spans="1:25" ht="12.75">
+    <row r="261" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A261" s="12"/>
       <c r="B261" s="12"/>
       <c r="C261" s="12"/>
@@ -8741,7 +8752,7 @@
       <c r="X261" s="1"/>
       <c r="Y261" s="1"/>
     </row>
-    <row r="262" spans="1:25" ht="12.75">
+    <row r="262" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A262" s="12"/>
       <c r="B262" s="12"/>
       <c r="C262" s="12"/>
@@ -8768,7 +8779,7 @@
       <c r="X262" s="1"/>
       <c r="Y262" s="1"/>
     </row>
-    <row r="263" spans="1:25" ht="12.75">
+    <row r="263" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A263" s="12"/>
       <c r="B263" s="12"/>
       <c r="C263" s="12"/>
@@ -8795,7 +8806,7 @@
       <c r="X263" s="1"/>
       <c r="Y263" s="1"/>
     </row>
-    <row r="264" spans="1:25" ht="12.75">
+    <row r="264" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A264" s="12"/>
       <c r="B264" s="12"/>
       <c r="C264" s="12"/>
@@ -8822,7 +8833,7 @@
       <c r="X264" s="1"/>
       <c r="Y264" s="1"/>
     </row>
-    <row r="265" spans="1:25" ht="12.75">
+    <row r="265" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A265" s="12"/>
       <c r="B265" s="12"/>
       <c r="C265" s="12"/>
@@ -8849,7 +8860,7 @@
       <c r="X265" s="1"/>
       <c r="Y265" s="1"/>
     </row>
-    <row r="266" spans="1:25" ht="12.75">
+    <row r="266" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A266" s="12"/>
       <c r="B266" s="12"/>
       <c r="C266" s="12"/>
@@ -8876,7 +8887,7 @@
       <c r="X266" s="1"/>
       <c r="Y266" s="1"/>
     </row>
-    <row r="267" spans="1:25" ht="12.75">
+    <row r="267" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A267" s="12"/>
       <c r="B267" s="12"/>
       <c r="C267" s="12"/>
@@ -8903,7 +8914,7 @@
       <c r="X267" s="1"/>
       <c r="Y267" s="1"/>
     </row>
-    <row r="268" spans="1:25" ht="12.75">
+    <row r="268" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A268" s="12"/>
       <c r="B268" s="12"/>
       <c r="C268" s="12"/>
@@ -8930,7 +8941,7 @@
       <c r="X268" s="1"/>
       <c r="Y268" s="1"/>
     </row>
-    <row r="269" spans="1:25" ht="12.75">
+    <row r="269" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A269" s="12"/>
       <c r="B269" s="12"/>
       <c r="C269" s="12"/>
@@ -8957,7 +8968,7 @@
       <c r="X269" s="1"/>
       <c r="Y269" s="1"/>
     </row>
-    <row r="270" spans="1:25" ht="12.75">
+    <row r="270" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A270" s="12"/>
       <c r="B270" s="12"/>
       <c r="C270" s="12"/>
@@ -8984,7 +8995,7 @@
       <c r="X270" s="1"/>
       <c r="Y270" s="1"/>
     </row>
-    <row r="271" spans="1:25" ht="12.75">
+    <row r="271" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A271" s="12"/>
       <c r="B271" s="12"/>
       <c r="C271" s="12"/>
@@ -9011,7 +9022,7 @@
       <c r="X271" s="1"/>
       <c r="Y271" s="1"/>
     </row>
-    <row r="272" spans="1:25" ht="12.75">
+    <row r="272" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A272" s="12"/>
       <c r="B272" s="12"/>
       <c r="C272" s="12"/>
@@ -9038,7 +9049,7 @@
       <c r="X272" s="1"/>
       <c r="Y272" s="1"/>
     </row>
-    <row r="273" spans="1:25" ht="12.75">
+    <row r="273" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A273" s="12"/>
       <c r="B273" s="12"/>
       <c r="C273" s="12"/>
@@ -9065,7 +9076,7 @@
       <c r="X273" s="1"/>
       <c r="Y273" s="1"/>
     </row>
-    <row r="274" spans="1:25" ht="12.75">
+    <row r="274" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A274" s="12"/>
       <c r="B274" s="12"/>
       <c r="C274" s="12"/>
@@ -9092,7 +9103,7 @@
       <c r="X274" s="1"/>
       <c r="Y274" s="1"/>
     </row>
-    <row r="275" spans="1:25" ht="12.75">
+    <row r="275" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A275" s="12"/>
       <c r="B275" s="12"/>
       <c r="C275" s="12"/>
@@ -9119,7 +9130,7 @@
       <c r="X275" s="1"/>
       <c r="Y275" s="1"/>
     </row>
-    <row r="276" spans="1:25" ht="12.75">
+    <row r="276" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A276" s="12"/>
       <c r="B276" s="12"/>
       <c r="C276" s="12"/>
@@ -9146,7 +9157,7 @@
       <c r="X276" s="1"/>
       <c r="Y276" s="1"/>
     </row>
-    <row r="277" spans="1:25" ht="12.75">
+    <row r="277" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A277" s="12"/>
       <c r="B277" s="12"/>
       <c r="C277" s="12"/>
@@ -9173,7 +9184,7 @@
       <c r="X277" s="1"/>
       <c r="Y277" s="1"/>
     </row>
-    <row r="278" spans="1:25" ht="12.75">
+    <row r="278" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A278" s="12"/>
       <c r="B278" s="12"/>
       <c r="C278" s="12"/>
@@ -9200,7 +9211,7 @@
       <c r="X278" s="1"/>
       <c r="Y278" s="1"/>
     </row>
-    <row r="279" spans="1:25" ht="12.75">
+    <row r="279" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A279" s="12"/>
       <c r="B279" s="12"/>
       <c r="C279" s="12"/>
@@ -9227,7 +9238,7 @@
       <c r="X279" s="1"/>
       <c r="Y279" s="1"/>
     </row>
-    <row r="280" spans="1:25" ht="12.75">
+    <row r="280" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A280" s="12"/>
       <c r="B280" s="12"/>
       <c r="C280" s="12"/>
@@ -9254,7 +9265,7 @@
       <c r="X280" s="1"/>
       <c r="Y280" s="1"/>
     </row>
-    <row r="281" spans="1:25" ht="12.75">
+    <row r="281" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A281" s="12"/>
       <c r="B281" s="12"/>
       <c r="C281" s="12"/>
@@ -9281,7 +9292,7 @@
       <c r="X281" s="1"/>
       <c r="Y281" s="1"/>
     </row>
-    <row r="282" spans="1:25" ht="12.75">
+    <row r="282" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A282" s="12"/>
       <c r="B282" s="12"/>
       <c r="C282" s="12"/>
@@ -9308,7 +9319,7 @@
       <c r="X282" s="1"/>
       <c r="Y282" s="1"/>
     </row>
-    <row r="283" spans="1:25" ht="12.75">
+    <row r="283" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A283" s="12"/>
       <c r="B283" s="12"/>
       <c r="C283" s="12"/>
@@ -9335,7 +9346,7 @@
       <c r="X283" s="1"/>
       <c r="Y283" s="1"/>
     </row>
-    <row r="284" spans="1:25" ht="12.75">
+    <row r="284" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A284" s="12"/>
       <c r="B284" s="12"/>
       <c r="C284" s="12"/>
@@ -9362,7 +9373,7 @@
       <c r="X284" s="1"/>
       <c r="Y284" s="1"/>
     </row>
-    <row r="285" spans="1:25" ht="12.75">
+    <row r="285" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A285" s="12"/>
       <c r="B285" s="12"/>
       <c r="C285" s="12"/>
@@ -9389,7 +9400,7 @@
       <c r="X285" s="1"/>
       <c r="Y285" s="1"/>
     </row>
-    <row r="286" spans="1:25" ht="12.75">
+    <row r="286" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A286" s="12"/>
       <c r="B286" s="12"/>
       <c r="C286" s="12"/>
@@ -9416,7 +9427,7 @@
       <c r="X286" s="1"/>
       <c r="Y286" s="1"/>
     </row>
-    <row r="287" spans="1:25" ht="12.75">
+    <row r="287" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A287" s="12"/>
       <c r="B287" s="12"/>
       <c r="C287" s="12"/>
@@ -9443,7 +9454,7 @@
       <c r="X287" s="1"/>
       <c r="Y287" s="1"/>
     </row>
-    <row r="288" spans="1:25" ht="12.75">
+    <row r="288" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A288" s="12"/>
       <c r="B288" s="12"/>
       <c r="C288" s="12"/>
@@ -9470,7 +9481,7 @@
       <c r="X288" s="1"/>
       <c r="Y288" s="1"/>
     </row>
-    <row r="289" spans="1:25" ht="12.75">
+    <row r="289" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A289" s="12"/>
       <c r="B289" s="12"/>
       <c r="C289" s="12"/>
@@ -9497,7 +9508,7 @@
       <c r="X289" s="1"/>
       <c r="Y289" s="1"/>
     </row>
-    <row r="290" spans="1:25" ht="12.75">
+    <row r="290" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A290" s="12"/>
       <c r="B290" s="12"/>
       <c r="C290" s="12"/>
@@ -9524,7 +9535,7 @@
       <c r="X290" s="1"/>
       <c r="Y290" s="1"/>
     </row>
-    <row r="291" spans="1:25" ht="12.75">
+    <row r="291" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A291" s="12"/>
       <c r="B291" s="12"/>
       <c r="C291" s="12"/>
@@ -9551,7 +9562,7 @@
       <c r="X291" s="1"/>
       <c r="Y291" s="1"/>
     </row>
-    <row r="292" spans="1:25" ht="12.75">
+    <row r="292" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A292" s="12"/>
       <c r="B292" s="12"/>
       <c r="C292" s="12"/>
@@ -9578,7 +9589,7 @@
       <c r="X292" s="1"/>
       <c r="Y292" s="1"/>
     </row>
-    <row r="293" spans="1:25" ht="12.75">
+    <row r="293" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A293" s="12"/>
       <c r="B293" s="12"/>
       <c r="C293" s="12"/>
@@ -9605,7 +9616,7 @@
       <c r="X293" s="1"/>
       <c r="Y293" s="1"/>
     </row>
-    <row r="294" spans="1:25" ht="12.75">
+    <row r="294" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A294" s="12"/>
       <c r="B294" s="12"/>
       <c r="C294" s="12"/>
@@ -9632,7 +9643,7 @@
       <c r="X294" s="1"/>
       <c r="Y294" s="1"/>
     </row>
-    <row r="295" spans="1:25" ht="12.75">
+    <row r="295" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A295" s="12"/>
       <c r="B295" s="12"/>
       <c r="C295" s="12"/>
@@ -9659,7 +9670,7 @@
       <c r="X295" s="1"/>
       <c r="Y295" s="1"/>
     </row>
-    <row r="296" spans="1:25" ht="12.75">
+    <row r="296" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A296" s="12"/>
       <c r="B296" s="12"/>
       <c r="C296" s="12"/>
@@ -9686,7 +9697,7 @@
       <c r="X296" s="1"/>
       <c r="Y296" s="1"/>
     </row>
-    <row r="297" spans="1:25" ht="12.75">
+    <row r="297" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A297" s="12"/>
       <c r="B297" s="12"/>
       <c r="C297" s="12"/>
@@ -9713,7 +9724,7 @@
       <c r="X297" s="1"/>
       <c r="Y297" s="1"/>
     </row>
-    <row r="298" spans="1:25" ht="12.75">
+    <row r="298" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A298" s="12"/>
       <c r="B298" s="12"/>
       <c r="C298" s="12"/>
@@ -9740,7 +9751,7 @@
       <c r="X298" s="1"/>
       <c r="Y298" s="1"/>
     </row>
-    <row r="299" spans="1:25" ht="12.75">
+    <row r="299" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A299" s="12"/>
       <c r="B299" s="12"/>
       <c r="C299" s="12"/>
@@ -9767,7 +9778,7 @@
       <c r="X299" s="1"/>
       <c r="Y299" s="1"/>
     </row>
-    <row r="300" spans="1:25" ht="12.75">
+    <row r="300" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A300" s="12"/>
       <c r="B300" s="12"/>
       <c r="C300" s="12"/>
@@ -9794,7 +9805,7 @@
       <c r="X300" s="1"/>
       <c r="Y300" s="1"/>
     </row>
-    <row r="301" spans="1:25" ht="12.75">
+    <row r="301" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A301" s="12"/>
       <c r="B301" s="12"/>
       <c r="C301" s="12"/>
@@ -9821,7 +9832,7 @@
       <c r="X301" s="1"/>
       <c r="Y301" s="1"/>
     </row>
-    <row r="302" spans="1:25" ht="12.75">
+    <row r="302" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A302" s="12"/>
       <c r="B302" s="12"/>
       <c r="C302" s="12"/>
@@ -9848,7 +9859,7 @@
       <c r="X302" s="1"/>
       <c r="Y302" s="1"/>
     </row>
-    <row r="303" spans="1:25" ht="12.75">
+    <row r="303" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A303" s="12"/>
       <c r="B303" s="12"/>
       <c r="C303" s="12"/>
@@ -9875,7 +9886,7 @@
       <c r="X303" s="1"/>
       <c r="Y303" s="1"/>
     </row>
-    <row r="304" spans="1:25" ht="12.75">
+    <row r="304" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A304" s="12"/>
       <c r="B304" s="12"/>
       <c r="C304" s="12"/>
@@ -9902,7 +9913,7 @@
       <c r="X304" s="1"/>
       <c r="Y304" s="1"/>
     </row>
-    <row r="305" spans="1:25" ht="12.75">
+    <row r="305" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A305" s="12"/>
       <c r="B305" s="12"/>
       <c r="C305" s="12"/>
@@ -9929,7 +9940,7 @@
       <c r="X305" s="1"/>
       <c r="Y305" s="1"/>
     </row>
-    <row r="306" spans="1:25" ht="12.75">
+    <row r="306" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A306" s="12"/>
       <c r="B306" s="12"/>
       <c r="C306" s="12"/>
@@ -9956,7 +9967,7 @@
       <c r="X306" s="1"/>
       <c r="Y306" s="1"/>
     </row>
-    <row r="307" spans="1:25" ht="12.75">
+    <row r="307" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A307" s="12"/>
       <c r="B307" s="12"/>
       <c r="C307" s="12"/>
@@ -9983,7 +9994,7 @@
       <c r="X307" s="1"/>
       <c r="Y307" s="1"/>
     </row>
-    <row r="308" spans="1:25" ht="12.75">
+    <row r="308" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A308" s="12"/>
       <c r="B308" s="12"/>
       <c r="C308" s="12"/>
@@ -10010,7 +10021,7 @@
       <c r="X308" s="1"/>
       <c r="Y308" s="1"/>
     </row>
-    <row r="309" spans="1:25" ht="12.75">
+    <row r="309" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A309" s="12"/>
       <c r="B309" s="12"/>
       <c r="C309" s="12"/>
@@ -10037,7 +10048,7 @@
       <c r="X309" s="1"/>
       <c r="Y309" s="1"/>
     </row>
-    <row r="310" spans="1:25" ht="12.75">
+    <row r="310" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A310" s="12"/>
       <c r="B310" s="12"/>
       <c r="C310" s="12"/>
@@ -10064,7 +10075,7 @@
       <c r="X310" s="1"/>
       <c r="Y310" s="1"/>
     </row>
-    <row r="311" spans="1:25" ht="12.75">
+    <row r="311" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A311" s="12"/>
       <c r="B311" s="12"/>
       <c r="C311" s="12"/>
@@ -10091,7 +10102,7 @@
       <c r="X311" s="1"/>
       <c r="Y311" s="1"/>
     </row>
-    <row r="312" spans="1:25" ht="12.75">
+    <row r="312" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A312" s="12"/>
       <c r="B312" s="12"/>
       <c r="C312" s="12"/>
@@ -10118,7 +10129,7 @@
       <c r="X312" s="1"/>
       <c r="Y312" s="1"/>
     </row>
-    <row r="313" spans="1:25" ht="12.75">
+    <row r="313" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A313" s="12"/>
       <c r="B313" s="12"/>
       <c r="C313" s="12"/>
@@ -10145,7 +10156,7 @@
       <c r="X313" s="1"/>
       <c r="Y313" s="1"/>
     </row>
-    <row r="314" spans="1:25" ht="12.75">
+    <row r="314" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A314" s="12"/>
       <c r="B314" s="12"/>
       <c r="C314" s="12"/>
@@ -10172,7 +10183,7 @@
       <c r="X314" s="1"/>
       <c r="Y314" s="1"/>
     </row>
-    <row r="315" spans="1:25" ht="12.75">
+    <row r="315" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A315" s="12"/>
       <c r="B315" s="12"/>
       <c r="C315" s="12"/>
@@ -10199,7 +10210,7 @@
       <c r="X315" s="1"/>
       <c r="Y315" s="1"/>
     </row>
-    <row r="316" spans="1:25" ht="12.75">
+    <row r="316" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A316" s="12"/>
       <c r="B316" s="12"/>
       <c r="C316" s="12"/>
@@ -10226,7 +10237,7 @@
       <c r="X316" s="1"/>
       <c r="Y316" s="1"/>
     </row>
-    <row r="317" spans="1:25" ht="12.75">
+    <row r="317" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A317" s="12"/>
       <c r="B317" s="12"/>
       <c r="C317" s="12"/>
@@ -10253,7 +10264,7 @@
       <c r="X317" s="1"/>
       <c r="Y317" s="1"/>
     </row>
-    <row r="318" spans="1:25" ht="12.75">
+    <row r="318" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A318" s="12"/>
       <c r="B318" s="12"/>
       <c r="C318" s="12"/>
@@ -10280,7 +10291,7 @@
       <c r="X318" s="1"/>
       <c r="Y318" s="1"/>
     </row>
-    <row r="319" spans="1:25" ht="12.75">
+    <row r="319" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A319" s="12"/>
       <c r="B319" s="12"/>
       <c r="C319" s="12"/>
@@ -10307,7 +10318,7 @@
       <c r="X319" s="1"/>
       <c r="Y319" s="1"/>
     </row>
-    <row r="320" spans="1:25" ht="12.75">
+    <row r="320" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A320" s="12"/>
       <c r="B320" s="12"/>
       <c r="C320" s="12"/>
@@ -10334,7 +10345,7 @@
       <c r="X320" s="1"/>
       <c r="Y320" s="1"/>
     </row>
-    <row r="321" spans="1:25" ht="12.75">
+    <row r="321" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A321" s="12"/>
       <c r="B321" s="12"/>
       <c r="C321" s="12"/>
@@ -10361,7 +10372,7 @@
       <c r="X321" s="1"/>
       <c r="Y321" s="1"/>
     </row>
-    <row r="322" spans="1:25" ht="12.75">
+    <row r="322" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A322" s="12"/>
       <c r="B322" s="12"/>
       <c r="C322" s="12"/>
@@ -10388,7 +10399,7 @@
       <c r="X322" s="1"/>
       <c r="Y322" s="1"/>
     </row>
-    <row r="323" spans="1:25" ht="12.75">
+    <row r="323" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A323" s="12"/>
       <c r="B323" s="12"/>
       <c r="C323" s="12"/>
@@ -10415,7 +10426,7 @@
       <c r="X323" s="1"/>
       <c r="Y323" s="1"/>
     </row>
-    <row r="324" spans="1:25" ht="12.75">
+    <row r="324" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A324" s="12"/>
       <c r="B324" s="12"/>
       <c r="C324" s="12"/>
@@ -10442,7 +10453,7 @@
       <c r="X324" s="1"/>
       <c r="Y324" s="1"/>
     </row>
-    <row r="325" spans="1:25" ht="12.75">
+    <row r="325" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A325" s="12"/>
       <c r="B325" s="12"/>
       <c r="C325" s="12"/>
@@ -10469,7 +10480,7 @@
       <c r="X325" s="1"/>
       <c r="Y325" s="1"/>
     </row>
-    <row r="326" spans="1:25" ht="12.75">
+    <row r="326" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A326" s="12"/>
       <c r="B326" s="12"/>
       <c r="C326" s="12"/>
@@ -10496,7 +10507,7 @@
       <c r="X326" s="1"/>
       <c r="Y326" s="1"/>
     </row>
-    <row r="327" spans="1:25" ht="12.75">
+    <row r="327" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A327" s="12"/>
       <c r="B327" s="12"/>
       <c r="C327" s="12"/>
@@ -10523,7 +10534,7 @@
       <c r="X327" s="1"/>
       <c r="Y327" s="1"/>
     </row>
-    <row r="328" spans="1:25" ht="12.75">
+    <row r="328" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A328" s="12"/>
       <c r="B328" s="12"/>
       <c r="C328" s="12"/>
@@ -10550,7 +10561,7 @@
       <c r="X328" s="1"/>
       <c r="Y328" s="1"/>
     </row>
-    <row r="329" spans="1:25" ht="12.75">
+    <row r="329" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A329" s="12"/>
       <c r="B329" s="12"/>
       <c r="C329" s="12"/>
@@ -10577,7 +10588,7 @@
       <c r="X329" s="1"/>
       <c r="Y329" s="1"/>
     </row>
-    <row r="330" spans="1:25" ht="12.75">
+    <row r="330" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A330" s="12"/>
       <c r="B330" s="12"/>
       <c r="C330" s="12"/>
@@ -10604,7 +10615,7 @@
       <c r="X330" s="1"/>
       <c r="Y330" s="1"/>
     </row>
-    <row r="331" spans="1:25" ht="12.75">
+    <row r="331" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A331" s="12"/>
       <c r="B331" s="12"/>
       <c r="C331" s="12"/>
@@ -10631,7 +10642,7 @@
       <c r="X331" s="1"/>
       <c r="Y331" s="1"/>
     </row>
-    <row r="332" spans="1:25" ht="12.75">
+    <row r="332" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A332" s="12"/>
       <c r="B332" s="12"/>
       <c r="C332" s="12"/>
@@ -10658,7 +10669,7 @@
       <c r="X332" s="1"/>
       <c r="Y332" s="1"/>
     </row>
-    <row r="333" spans="1:25" ht="12.75">
+    <row r="333" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A333" s="12"/>
       <c r="B333" s="12"/>
       <c r="C333" s="12"/>
@@ -10685,7 +10696,7 @@
       <c r="X333" s="1"/>
       <c r="Y333" s="1"/>
     </row>
-    <row r="334" spans="1:25" ht="12.75">
+    <row r="334" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A334" s="12"/>
       <c r="B334" s="12"/>
       <c r="C334" s="12"/>
@@ -10712,7 +10723,7 @@
       <c r="X334" s="1"/>
       <c r="Y334" s="1"/>
     </row>
-    <row r="335" spans="1:25" ht="12.75">
+    <row r="335" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A335" s="12"/>
       <c r="B335" s="12"/>
       <c r="C335" s="12"/>
@@ -10739,7 +10750,7 @@
       <c r="X335" s="1"/>
       <c r="Y335" s="1"/>
     </row>
-    <row r="336" spans="1:25" ht="12.75">
+    <row r="336" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A336" s="12"/>
       <c r="B336" s="12"/>
       <c r="C336" s="12"/>
@@ -10766,7 +10777,7 @@
       <c r="X336" s="1"/>
       <c r="Y336" s="1"/>
     </row>
-    <row r="337" spans="1:25" ht="12.75">
+    <row r="337" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A337" s="12"/>
       <c r="B337" s="12"/>
       <c r="C337" s="12"/>
@@ -10793,7 +10804,7 @@
       <c r="X337" s="1"/>
       <c r="Y337" s="1"/>
     </row>
-    <row r="338" spans="1:25" ht="12.75">
+    <row r="338" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A338" s="12"/>
       <c r="B338" s="12"/>
       <c r="C338" s="12"/>
@@ -10820,7 +10831,7 @@
       <c r="X338" s="1"/>
       <c r="Y338" s="1"/>
     </row>
-    <row r="339" spans="1:25" ht="12.75">
+    <row r="339" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A339" s="12"/>
       <c r="B339" s="12"/>
       <c r="C339" s="12"/>
@@ -10847,7 +10858,7 @@
       <c r="X339" s="1"/>
       <c r="Y339" s="1"/>
     </row>
-    <row r="340" spans="1:25" ht="12.75">
+    <row r="340" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A340" s="12"/>
       <c r="B340" s="12"/>
       <c r="C340" s="12"/>
@@ -10874,7 +10885,7 @@
       <c r="X340" s="1"/>
       <c r="Y340" s="1"/>
     </row>
-    <row r="341" spans="1:25" ht="12.75">
+    <row r="341" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A341" s="12"/>
       <c r="B341" s="12"/>
       <c r="C341" s="12"/>
@@ -10901,7 +10912,7 @@
       <c r="X341" s="1"/>
       <c r="Y341" s="1"/>
     </row>
-    <row r="342" spans="1:25" ht="12.75">
+    <row r="342" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A342" s="12"/>
       <c r="B342" s="12"/>
       <c r="C342" s="12"/>
@@ -10928,7 +10939,7 @@
       <c r="X342" s="1"/>
       <c r="Y342" s="1"/>
     </row>
-    <row r="343" spans="1:25" ht="12.75">
+    <row r="343" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A343" s="12"/>
       <c r="B343" s="12"/>
       <c r="C343" s="12"/>
@@ -10955,7 +10966,7 @@
       <c r="X343" s="1"/>
       <c r="Y343" s="1"/>
     </row>
-    <row r="344" spans="1:25" ht="12.75">
+    <row r="344" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A344" s="12"/>
       <c r="B344" s="12"/>
       <c r="C344" s="12"/>
@@ -10982,7 +10993,7 @@
       <c r="X344" s="1"/>
       <c r="Y344" s="1"/>
     </row>
-    <row r="345" spans="1:25" ht="12.75">
+    <row r="345" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A345" s="12"/>
       <c r="B345" s="12"/>
       <c r="C345" s="12"/>
@@ -11009,7 +11020,7 @@
       <c r="X345" s="1"/>
       <c r="Y345" s="1"/>
     </row>
-    <row r="346" spans="1:25" ht="12.75">
+    <row r="346" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A346" s="12"/>
       <c r="B346" s="12"/>
       <c r="C346" s="12"/>
@@ -11036,7 +11047,7 @@
       <c r="X346" s="1"/>
       <c r="Y346" s="1"/>
     </row>
-    <row r="347" spans="1:25" ht="12.75">
+    <row r="347" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A347" s="12"/>
       <c r="B347" s="12"/>
       <c r="C347" s="12"/>
@@ -11063,7 +11074,7 @@
       <c r="X347" s="1"/>
       <c r="Y347" s="1"/>
     </row>
-    <row r="348" spans="1:25" ht="12.75">
+    <row r="348" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A348" s="12"/>
       <c r="B348" s="12"/>
       <c r="C348" s="12"/>
@@ -11090,7 +11101,7 @@
       <c r="X348" s="1"/>
       <c r="Y348" s="1"/>
     </row>
-    <row r="349" spans="1:25" ht="12.75">
+    <row r="349" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A349" s="12"/>
       <c r="B349" s="12"/>
       <c r="C349" s="12"/>
@@ -11117,7 +11128,7 @@
       <c r="X349" s="1"/>
       <c r="Y349" s="1"/>
     </row>
-    <row r="350" spans="1:25" ht="12.75">
+    <row r="350" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A350" s="12"/>
       <c r="B350" s="12"/>
       <c r="C350" s="12"/>
@@ -11144,7 +11155,7 @@
       <c r="X350" s="1"/>
       <c r="Y350" s="1"/>
     </row>
-    <row r="351" spans="1:25" ht="12.75">
+    <row r="351" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A351" s="12"/>
       <c r="B351" s="12"/>
       <c r="C351" s="12"/>
@@ -11171,7 +11182,7 @@
       <c r="X351" s="1"/>
       <c r="Y351" s="1"/>
     </row>
-    <row r="352" spans="1:25" ht="12.75">
+    <row r="352" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A352" s="12"/>
       <c r="B352" s="12"/>
       <c r="C352" s="12"/>
@@ -11198,7 +11209,7 @@
       <c r="X352" s="1"/>
       <c r="Y352" s="1"/>
     </row>
-    <row r="353" spans="1:25" ht="12.75">
+    <row r="353" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A353" s="12"/>
       <c r="B353" s="12"/>
       <c r="C353" s="12"/>
@@ -11225,7 +11236,7 @@
       <c r="X353" s="1"/>
       <c r="Y353" s="1"/>
     </row>
-    <row r="354" spans="1:25" ht="12.75">
+    <row r="354" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A354" s="12"/>
       <c r="B354" s="12"/>
       <c r="C354" s="12"/>
@@ -11252,7 +11263,7 @@
       <c r="X354" s="1"/>
       <c r="Y354" s="1"/>
     </row>
-    <row r="355" spans="1:25" ht="12.75">
+    <row r="355" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A355" s="12"/>
       <c r="B355" s="12"/>
       <c r="C355" s="12"/>
@@ -11279,7 +11290,7 @@
       <c r="X355" s="1"/>
       <c r="Y355" s="1"/>
     </row>
-    <row r="356" spans="1:25" ht="12.75">
+    <row r="356" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A356" s="12"/>
       <c r="B356" s="12"/>
       <c r="C356" s="12"/>
@@ -11306,7 +11317,7 @@
       <c r="X356" s="1"/>
       <c r="Y356" s="1"/>
     </row>
-    <row r="357" spans="1:25" ht="12.75">
+    <row r="357" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A357" s="12"/>
       <c r="B357" s="12"/>
       <c r="C357" s="12"/>
@@ -11333,7 +11344,7 @@
       <c r="X357" s="1"/>
       <c r="Y357" s="1"/>
     </row>
-    <row r="358" spans="1:25" ht="12.75">
+    <row r="358" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A358" s="12"/>
       <c r="B358" s="12"/>
       <c r="C358" s="12"/>
@@ -11360,7 +11371,7 @@
       <c r="X358" s="1"/>
       <c r="Y358" s="1"/>
     </row>
-    <row r="359" spans="1:25" ht="12.75">
+    <row r="359" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A359" s="12"/>
       <c r="B359" s="12"/>
       <c r="C359" s="12"/>
@@ -11387,7 +11398,7 @@
       <c r="X359" s="1"/>
       <c r="Y359" s="1"/>
     </row>
-    <row r="360" spans="1:25" ht="12.75">
+    <row r="360" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A360" s="12"/>
       <c r="B360" s="12"/>
       <c r="C360" s="12"/>
@@ -11414,7 +11425,7 @@
       <c r="X360" s="1"/>
       <c r="Y360" s="1"/>
     </row>
-    <row r="361" spans="1:25" ht="12.75">
+    <row r="361" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A361" s="12"/>
       <c r="B361" s="12"/>
       <c r="C361" s="12"/>
@@ -11441,7 +11452,7 @@
       <c r="X361" s="1"/>
       <c r="Y361" s="1"/>
     </row>
-    <row r="362" spans="1:25" ht="12.75">
+    <row r="362" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A362" s="12"/>
       <c r="B362" s="12"/>
       <c r="C362" s="12"/>
@@ -11468,7 +11479,7 @@
       <c r="X362" s="1"/>
       <c r="Y362" s="1"/>
     </row>
-    <row r="363" spans="1:25" ht="12.75">
+    <row r="363" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A363" s="12"/>
       <c r="B363" s="12"/>
       <c r="C363" s="12"/>
@@ -11495,7 +11506,7 @@
       <c r="X363" s="1"/>
       <c r="Y363" s="1"/>
     </row>
-    <row r="364" spans="1:25" ht="12.75">
+    <row r="364" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A364" s="12"/>
       <c r="B364" s="12"/>
       <c r="C364" s="12"/>
@@ -11522,7 +11533,7 @@
       <c r="X364" s="1"/>
       <c r="Y364" s="1"/>
     </row>
-    <row r="365" spans="1:25" ht="12.75">
+    <row r="365" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A365" s="12"/>
       <c r="B365" s="12"/>
       <c r="C365" s="12"/>
@@ -11549,7 +11560,7 @@
       <c r="X365" s="1"/>
       <c r="Y365" s="1"/>
     </row>
-    <row r="366" spans="1:25" ht="12.75">
+    <row r="366" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A366" s="12"/>
       <c r="B366" s="12"/>
       <c r="C366" s="12"/>
@@ -11576,7 +11587,7 @@
       <c r="X366" s="1"/>
       <c r="Y366" s="1"/>
     </row>
-    <row r="367" spans="1:25" ht="12.75">
+    <row r="367" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A367" s="12"/>
       <c r="B367" s="12"/>
       <c r="C367" s="12"/>
@@ -11603,7 +11614,7 @@
       <c r="X367" s="1"/>
       <c r="Y367" s="1"/>
     </row>
-    <row r="368" spans="1:25" ht="12.75">
+    <row r="368" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A368" s="12"/>
       <c r="B368" s="12"/>
       <c r="C368" s="12"/>
@@ -11630,7 +11641,7 @@
       <c r="X368" s="1"/>
       <c r="Y368" s="1"/>
     </row>
-    <row r="369" spans="1:25" ht="12.75">
+    <row r="369" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A369" s="12"/>
       <c r="B369" s="12"/>
       <c r="C369" s="12"/>
@@ -11657,7 +11668,7 @@
       <c r="X369" s="1"/>
       <c r="Y369" s="1"/>
     </row>
-    <row r="370" spans="1:25" ht="12.75">
+    <row r="370" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A370" s="12"/>
       <c r="B370" s="12"/>
       <c r="C370" s="12"/>
@@ -11684,7 +11695,7 @@
       <c r="X370" s="1"/>
       <c r="Y370" s="1"/>
     </row>
-    <row r="371" spans="1:25" ht="12.75">
+    <row r="371" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A371" s="12"/>
       <c r="B371" s="12"/>
       <c r="C371" s="12"/>
@@ -11711,7 +11722,7 @@
       <c r="X371" s="1"/>
       <c r="Y371" s="1"/>
     </row>
-    <row r="372" spans="1:25" ht="12.75">
+    <row r="372" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A372" s="12"/>
       <c r="B372" s="12"/>
       <c r="C372" s="12"/>
@@ -11738,7 +11749,7 @@
       <c r="X372" s="1"/>
       <c r="Y372" s="1"/>
     </row>
-    <row r="373" spans="1:25" ht="12.75">
+    <row r="373" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A373" s="12"/>
       <c r="B373" s="12"/>
       <c r="C373" s="12"/>
@@ -11765,7 +11776,7 @@
       <c r="X373" s="1"/>
       <c r="Y373" s="1"/>
     </row>
-    <row r="374" spans="1:25" ht="12.75">
+    <row r="374" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A374" s="12"/>
       <c r="B374" s="12"/>
       <c r="C374" s="12"/>
@@ -11792,7 +11803,7 @@
       <c r="X374" s="1"/>
       <c r="Y374" s="1"/>
     </row>
-    <row r="375" spans="1:25" ht="12.75">
+    <row r="375" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A375" s="12"/>
       <c r="B375" s="12"/>
       <c r="C375" s="12"/>
@@ -11819,7 +11830,7 @@
       <c r="X375" s="1"/>
       <c r="Y375" s="1"/>
     </row>
-    <row r="376" spans="1:25" ht="12.75">
+    <row r="376" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A376" s="12"/>
       <c r="B376" s="12"/>
       <c r="C376" s="12"/>
@@ -11846,7 +11857,7 @@
       <c r="X376" s="1"/>
       <c r="Y376" s="1"/>
     </row>
-    <row r="377" spans="1:25" ht="12.75">
+    <row r="377" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A377" s="12"/>
       <c r="B377" s="12"/>
       <c r="C377" s="12"/>
@@ -11873,7 +11884,7 @@
       <c r="X377" s="1"/>
       <c r="Y377" s="1"/>
     </row>
-    <row r="378" spans="1:25" ht="12.75">
+    <row r="378" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A378" s="12"/>
       <c r="B378" s="12"/>
       <c r="C378" s="12"/>
@@ -11900,7 +11911,7 @@
       <c r="X378" s="1"/>
       <c r="Y378" s="1"/>
     </row>
-    <row r="379" spans="1:25" ht="12.75">
+    <row r="379" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A379" s="12"/>
       <c r="B379" s="12"/>
       <c r="C379" s="12"/>
@@ -11927,7 +11938,7 @@
       <c r="X379" s="1"/>
       <c r="Y379" s="1"/>
     </row>
-    <row r="380" spans="1:25" ht="12.75">
+    <row r="380" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A380" s="12"/>
       <c r="B380" s="12"/>
       <c r="C380" s="12"/>
@@ -11954,7 +11965,7 @@
       <c r="X380" s="1"/>
       <c r="Y380" s="1"/>
     </row>
-    <row r="381" spans="1:25" ht="12.75">
+    <row r="381" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A381" s="12"/>
       <c r="B381" s="12"/>
       <c r="C381" s="12"/>
@@ -11981,7 +11992,7 @@
       <c r="X381" s="1"/>
       <c r="Y381" s="1"/>
     </row>
-    <row r="382" spans="1:25" ht="12.75">
+    <row r="382" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A382" s="12"/>
       <c r="B382" s="12"/>
       <c r="C382" s="12"/>
@@ -12008,7 +12019,7 @@
       <c r="X382" s="1"/>
       <c r="Y382" s="1"/>
     </row>
-    <row r="383" spans="1:25" ht="12.75">
+    <row r="383" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A383" s="12"/>
       <c r="B383" s="12"/>
       <c r="C383" s="12"/>
@@ -12035,7 +12046,7 @@
       <c r="X383" s="1"/>
       <c r="Y383" s="1"/>
     </row>
-    <row r="384" spans="1:25" ht="12.75">
+    <row r="384" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A384" s="12"/>
       <c r="B384" s="12"/>
       <c r="C384" s="12"/>
@@ -12062,7 +12073,7 @@
       <c r="X384" s="1"/>
       <c r="Y384" s="1"/>
     </row>
-    <row r="385" spans="1:25" ht="12.75">
+    <row r="385" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A385" s="12"/>
       <c r="B385" s="12"/>
       <c r="C385" s="12"/>
@@ -12089,7 +12100,7 @@
       <c r="X385" s="1"/>
       <c r="Y385" s="1"/>
     </row>
-    <row r="386" spans="1:25" ht="12.75">
+    <row r="386" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A386" s="12"/>
       <c r="B386" s="12"/>
       <c r="C386" s="12"/>
@@ -12116,7 +12127,7 @@
       <c r="X386" s="1"/>
       <c r="Y386" s="1"/>
     </row>
-    <row r="387" spans="1:25" ht="12.75">
+    <row r="387" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A387" s="12"/>
       <c r="B387" s="12"/>
       <c r="C387" s="12"/>
@@ -12143,7 +12154,7 @@
       <c r="X387" s="1"/>
       <c r="Y387" s="1"/>
     </row>
-    <row r="388" spans="1:25" ht="12.75">
+    <row r="388" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A388" s="12"/>
       <c r="B388" s="12"/>
       <c r="C388" s="12"/>
@@ -12170,7 +12181,7 @@
       <c r="X388" s="1"/>
       <c r="Y388" s="1"/>
     </row>
-    <row r="389" spans="1:25" ht="12.75">
+    <row r="389" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A389" s="12"/>
       <c r="B389" s="12"/>
       <c r="C389" s="12"/>
@@ -12197,7 +12208,7 @@
       <c r="X389" s="1"/>
       <c r="Y389" s="1"/>
     </row>
-    <row r="390" spans="1:25" ht="12.75">
+    <row r="390" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A390" s="12"/>
       <c r="B390" s="12"/>
       <c r="C390" s="12"/>
@@ -12224,7 +12235,7 @@
       <c r="X390" s="1"/>
       <c r="Y390" s="1"/>
     </row>
-    <row r="391" spans="1:25" ht="12.75">
+    <row r="391" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A391" s="12"/>
       <c r="B391" s="12"/>
       <c r="C391" s="12"/>
@@ -12251,7 +12262,7 @@
       <c r="X391" s="1"/>
       <c r="Y391" s="1"/>
     </row>
-    <row r="392" spans="1:25" ht="12.75">
+    <row r="392" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A392" s="12"/>
       <c r="B392" s="12"/>
       <c r="C392" s="12"/>
@@ -12278,7 +12289,7 @@
       <c r="X392" s="1"/>
       <c r="Y392" s="1"/>
     </row>
-    <row r="393" spans="1:25" ht="12.75">
+    <row r="393" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A393" s="12"/>
       <c r="B393" s="12"/>
       <c r="C393" s="12"/>
@@ -12305,7 +12316,7 @@
       <c r="X393" s="1"/>
       <c r="Y393" s="1"/>
     </row>
-    <row r="394" spans="1:25" ht="12.75">
+    <row r="394" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A394" s="12"/>
       <c r="B394" s="12"/>
       <c r="C394" s="12"/>
@@ -12332,7 +12343,7 @@
       <c r="X394" s="1"/>
       <c r="Y394" s="1"/>
     </row>
-    <row r="395" spans="1:25" ht="12.75">
+    <row r="395" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A395" s="12"/>
       <c r="B395" s="12"/>
       <c r="C395" s="12"/>
@@ -12359,7 +12370,7 @@
       <c r="X395" s="1"/>
       <c r="Y395" s="1"/>
     </row>
-    <row r="396" spans="1:25" ht="12.75">
+    <row r="396" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A396" s="12"/>
       <c r="B396" s="12"/>
       <c r="C396" s="12"/>
@@ -12386,7 +12397,7 @@
       <c r="X396" s="1"/>
       <c r="Y396" s="1"/>
     </row>
-    <row r="397" spans="1:25" ht="12.75">
+    <row r="397" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A397" s="12"/>
       <c r="B397" s="12"/>
       <c r="C397" s="12"/>
@@ -12413,7 +12424,7 @@
       <c r="X397" s="1"/>
       <c r="Y397" s="1"/>
     </row>
-    <row r="398" spans="1:25" ht="12.75">
+    <row r="398" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A398" s="12"/>
       <c r="B398" s="12"/>
       <c r="C398" s="12"/>
@@ -12440,7 +12451,7 @@
       <c r="X398" s="1"/>
       <c r="Y398" s="1"/>
     </row>
-    <row r="399" spans="1:25" ht="12.75">
+    <row r="399" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A399" s="12"/>
       <c r="B399" s="12"/>
       <c r="C399" s="12"/>
@@ -12467,7 +12478,7 @@
       <c r="X399" s="1"/>
       <c r="Y399" s="1"/>
     </row>
-    <row r="400" spans="1:25" ht="12.75">
+    <row r="400" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A400" s="12"/>
       <c r="B400" s="12"/>
       <c r="C400" s="12"/>
@@ -12494,7 +12505,7 @@
       <c r="X400" s="1"/>
       <c r="Y400" s="1"/>
     </row>
-    <row r="401" spans="1:25" ht="12.75">
+    <row r="401" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A401" s="12"/>
       <c r="B401" s="12"/>
       <c r="C401" s="12"/>
@@ -12521,7 +12532,7 @@
       <c r="X401" s="1"/>
       <c r="Y401" s="1"/>
     </row>
-    <row r="402" spans="1:25" ht="12.75">
+    <row r="402" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A402" s="12"/>
       <c r="B402" s="12"/>
       <c r="C402" s="12"/>
@@ -12548,7 +12559,7 @@
       <c r="X402" s="1"/>
       <c r="Y402" s="1"/>
     </row>
-    <row r="403" spans="1:25" ht="12.75">
+    <row r="403" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A403" s="12"/>
       <c r="B403" s="12"/>
       <c r="C403" s="12"/>
@@ -12575,7 +12586,7 @@
       <c r="X403" s="1"/>
       <c r="Y403" s="1"/>
     </row>
-    <row r="404" spans="1:25" ht="12.75">
+    <row r="404" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A404" s="12"/>
       <c r="B404" s="12"/>
       <c r="C404" s="12"/>
@@ -12602,7 +12613,7 @@
       <c r="X404" s="1"/>
       <c r="Y404" s="1"/>
     </row>
-    <row r="405" spans="1:25" ht="12.75">
+    <row r="405" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A405" s="12"/>
       <c r="B405" s="12"/>
       <c r="C405" s="12"/>
@@ -12629,7 +12640,7 @@
       <c r="X405" s="1"/>
       <c r="Y405" s="1"/>
     </row>
-    <row r="406" spans="1:25" ht="12.75">
+    <row r="406" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A406" s="12"/>
       <c r="B406" s="12"/>
       <c r="C406" s="12"/>
@@ -12656,7 +12667,7 @@
       <c r="X406" s="1"/>
       <c r="Y406" s="1"/>
     </row>
-    <row r="407" spans="1:25" ht="12.75">
+    <row r="407" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A407" s="12"/>
       <c r="B407" s="12"/>
       <c r="C407" s="12"/>
@@ -12683,7 +12694,7 @@
       <c r="X407" s="1"/>
       <c r="Y407" s="1"/>
     </row>
-    <row r="408" spans="1:25" ht="12.75">
+    <row r="408" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A408" s="12"/>
       <c r="B408" s="12"/>
       <c r="C408" s="12"/>
@@ -12710,7 +12721,7 @@
       <c r="X408" s="1"/>
       <c r="Y408" s="1"/>
     </row>
-    <row r="409" spans="1:25" ht="12.75">
+    <row r="409" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A409" s="12"/>
       <c r="B409" s="12"/>
       <c r="C409" s="12"/>
@@ -12737,7 +12748,7 @@
       <c r="X409" s="1"/>
       <c r="Y409" s="1"/>
     </row>
-    <row r="410" spans="1:25" ht="12.75">
+    <row r="410" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A410" s="12"/>
       <c r="B410" s="12"/>
       <c r="C410" s="12"/>
@@ -12764,7 +12775,7 @@
       <c r="X410" s="1"/>
       <c r="Y410" s="1"/>
     </row>
-    <row r="411" spans="1:25" ht="12.75">
+    <row r="411" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A411" s="12"/>
       <c r="B411" s="12"/>
       <c r="C411" s="12"/>
@@ -12791,7 +12802,7 @@
       <c r="X411" s="1"/>
       <c r="Y411" s="1"/>
     </row>
-    <row r="412" spans="1:25" ht="12.75">
+    <row r="412" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A412" s="12"/>
       <c r="B412" s="12"/>
       <c r="C412" s="12"/>
@@ -12818,7 +12829,7 @@
       <c r="X412" s="1"/>
       <c r="Y412" s="1"/>
     </row>
-    <row r="413" spans="1:25" ht="12.75">
+    <row r="413" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A413" s="12"/>
       <c r="B413" s="12"/>
       <c r="C413" s="12"/>
@@ -12845,7 +12856,7 @@
       <c r="X413" s="1"/>
       <c r="Y413" s="1"/>
     </row>
-    <row r="414" spans="1:25" ht="12.75">
+    <row r="414" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A414" s="12"/>
       <c r="B414" s="12"/>
       <c r="C414" s="12"/>
@@ -12872,7 +12883,7 @@
       <c r="X414" s="1"/>
       <c r="Y414" s="1"/>
     </row>
-    <row r="415" spans="1:25" ht="12.75">
+    <row r="415" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A415" s="12"/>
       <c r="B415" s="12"/>
       <c r="C415" s="12"/>
@@ -12899,7 +12910,7 @@
       <c r="X415" s="1"/>
       <c r="Y415" s="1"/>
     </row>
-    <row r="416" spans="1:25" ht="12.75">
+    <row r="416" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A416" s="12"/>
       <c r="B416" s="12"/>
       <c r="C416" s="12"/>
@@ -12926,7 +12937,7 @@
       <c r="X416" s="1"/>
       <c r="Y416" s="1"/>
     </row>
-    <row r="417" spans="1:25" ht="12.75">
+    <row r="417" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A417" s="12"/>
       <c r="B417" s="12"/>
       <c r="C417" s="12"/>
@@ -12953,7 +12964,7 @@
       <c r="X417" s="1"/>
       <c r="Y417" s="1"/>
     </row>
-    <row r="418" spans="1:25" ht="12.75">
+    <row r="418" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A418" s="12"/>
       <c r="B418" s="12"/>
       <c r="C418" s="12"/>
@@ -12980,7 +12991,7 @@
       <c r="X418" s="1"/>
       <c r="Y418" s="1"/>
     </row>
-    <row r="419" spans="1:25" ht="12.75">
+    <row r="419" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A419" s="12"/>
       <c r="B419" s="12"/>
       <c r="C419" s="12"/>
@@ -13007,7 +13018,7 @@
       <c r="X419" s="1"/>
       <c r="Y419" s="1"/>
     </row>
-    <row r="420" spans="1:25" ht="12.75">
+    <row r="420" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A420" s="12"/>
       <c r="B420" s="12"/>
       <c r="C420" s="12"/>
@@ -13034,7 +13045,7 @@
       <c r="X420" s="1"/>
       <c r="Y420" s="1"/>
     </row>
-    <row r="421" spans="1:25" ht="12.75">
+    <row r="421" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A421" s="12"/>
       <c r="B421" s="12"/>
       <c r="C421" s="12"/>
@@ -13061,7 +13072,7 @@
       <c r="X421" s="1"/>
       <c r="Y421" s="1"/>
     </row>
-    <row r="422" spans="1:25" ht="12.75">
+    <row r="422" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A422" s="12"/>
       <c r="B422" s="12"/>
       <c r="C422" s="12"/>
@@ -13088,7 +13099,7 @@
       <c r="X422" s="1"/>
       <c r="Y422" s="1"/>
     </row>
-    <row r="423" spans="1:25" ht="12.75">
+    <row r="423" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A423" s="12"/>
       <c r="B423" s="12"/>
       <c r="C423" s="12"/>
@@ -13115,7 +13126,7 @@
       <c r="X423" s="1"/>
       <c r="Y423" s="1"/>
     </row>
-    <row r="424" spans="1:25" ht="12.75">
+    <row r="424" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A424" s="12"/>
       <c r="B424" s="12"/>
       <c r="C424" s="12"/>
@@ -13142,7 +13153,7 @@
       <c r="X424" s="1"/>
       <c r="Y424" s="1"/>
     </row>
-    <row r="425" spans="1:25" ht="12.75">
+    <row r="425" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A425" s="12"/>
       <c r="B425" s="12"/>
       <c r="C425" s="12"/>
@@ -13169,7 +13180,7 @@
       <c r="X425" s="1"/>
       <c r="Y425" s="1"/>
     </row>
-    <row r="426" spans="1:25" ht="12.75">
+    <row r="426" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A426" s="12"/>
       <c r="B426" s="12"/>
       <c r="C426" s="12"/>
@@ -13196,7 +13207,7 @@
       <c r="X426" s="1"/>
       <c r="Y426" s="1"/>
     </row>
-    <row r="427" spans="1:25" ht="12.75">
+    <row r="427" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A427" s="12"/>
       <c r="B427" s="12"/>
       <c r="C427" s="12"/>
@@ -13223,7 +13234,7 @@
       <c r="X427" s="1"/>
       <c r="Y427" s="1"/>
     </row>
-    <row r="428" spans="1:25" ht="12.75">
+    <row r="428" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A428" s="12"/>
       <c r="B428" s="12"/>
       <c r="C428" s="12"/>
@@ -13250,7 +13261,7 @@
       <c r="X428" s="1"/>
       <c r="Y428" s="1"/>
     </row>
-    <row r="429" spans="1:25" ht="12.75">
+    <row r="429" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A429" s="12"/>
       <c r="B429" s="12"/>
       <c r="C429" s="12"/>
@@ -13277,7 +13288,7 @@
       <c r="X429" s="1"/>
       <c r="Y429" s="1"/>
     </row>
-    <row r="430" spans="1:25" ht="12.75">
+    <row r="430" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A430" s="12"/>
       <c r="B430" s="12"/>
       <c r="C430" s="12"/>
@@ -13304,7 +13315,7 @@
       <c r="X430" s="1"/>
       <c r="Y430" s="1"/>
     </row>
-    <row r="431" spans="1:25" ht="12.75">
+    <row r="431" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A431" s="12"/>
       <c r="B431" s="12"/>
       <c r="C431" s="12"/>
@@ -13331,7 +13342,7 @@
       <c r="X431" s="1"/>
       <c r="Y431" s="1"/>
     </row>
-    <row r="432" spans="1:25" ht="12.75">
+    <row r="432" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A432" s="12"/>
       <c r="B432" s="12"/>
       <c r="C432" s="12"/>
@@ -13358,7 +13369,7 @@
       <c r="X432" s="1"/>
       <c r="Y432" s="1"/>
     </row>
-    <row r="433" spans="1:25" ht="12.75">
+    <row r="433" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A433" s="12"/>
       <c r="B433" s="12"/>
       <c r="C433" s="12"/>
@@ -13385,7 +13396,7 @@
       <c r="X433" s="1"/>
       <c r="Y433" s="1"/>
     </row>
-    <row r="434" spans="1:25" ht="12.75">
+    <row r="434" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A434" s="12"/>
       <c r="B434" s="12"/>
       <c r="C434" s="12"/>
@@ -13412,7 +13423,7 @@
       <c r="X434" s="1"/>
       <c r="Y434" s="1"/>
     </row>
-    <row r="435" spans="1:25" ht="12.75">
+    <row r="435" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A435" s="12"/>
       <c r="B435" s="12"/>
       <c r="C435" s="12"/>
@@ -13439,7 +13450,7 @@
       <c r="X435" s="1"/>
       <c r="Y435" s="1"/>
     </row>
-    <row r="436" spans="1:25" ht="12.75">
+    <row r="436" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A436" s="12"/>
       <c r="B436" s="12"/>
       <c r="C436" s="12"/>
@@ -13466,7 +13477,7 @@
       <c r="X436" s="1"/>
       <c r="Y436" s="1"/>
     </row>
-    <row r="437" spans="1:25" ht="12.75">
+    <row r="437" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A437" s="12"/>
       <c r="B437" s="12"/>
       <c r="C437" s="12"/>
@@ -13493,7 +13504,7 @@
       <c r="X437" s="1"/>
       <c r="Y437" s="1"/>
     </row>
-    <row r="438" spans="1:25" ht="12.75">
+    <row r="438" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A438" s="12"/>
       <c r="B438" s="12"/>
       <c r="C438" s="12"/>
@@ -13520,7 +13531,7 @@
       <c r="X438" s="1"/>
       <c r="Y438" s="1"/>
     </row>
-    <row r="439" spans="1:25" ht="12.75">
+    <row r="439" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A439" s="12"/>
       <c r="B439" s="12"/>
       <c r="C439" s="12"/>
@@ -13547,7 +13558,7 @@
       <c r="X439" s="1"/>
       <c r="Y439" s="1"/>
     </row>
-    <row r="440" spans="1:25" ht="12.75">
+    <row r="440" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A440" s="12"/>
       <c r="B440" s="12"/>
       <c r="C440" s="12"/>
@@ -13574,7 +13585,7 @@
       <c r="X440" s="1"/>
       <c r="Y440" s="1"/>
     </row>
-    <row r="441" spans="1:25" ht="12.75">
+    <row r="441" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A441" s="12"/>
       <c r="B441" s="12"/>
       <c r="C441" s="12"/>
@@ -13601,7 +13612,7 @@
       <c r="X441" s="1"/>
       <c r="Y441" s="1"/>
     </row>
-    <row r="442" spans="1:25" ht="12.75">
+    <row r="442" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A442" s="12"/>
       <c r="B442" s="12"/>
       <c r="C442" s="12"/>
@@ -13628,7 +13639,7 @@
       <c r="X442" s="1"/>
       <c r="Y442" s="1"/>
     </row>
-    <row r="443" spans="1:25" ht="12.75">
+    <row r="443" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A443" s="12"/>
       <c r="B443" s="12"/>
       <c r="C443" s="12"/>
@@ -13655,7 +13666,7 @@
       <c r="X443" s="1"/>
       <c r="Y443" s="1"/>
     </row>
-    <row r="444" spans="1:25" ht="12.75">
+    <row r="444" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A444" s="12"/>
       <c r="B444" s="12"/>
       <c r="C444" s="12"/>
@@ -13682,7 +13693,7 @@
       <c r="X444" s="1"/>
       <c r="Y444" s="1"/>
     </row>
-    <row r="445" spans="1:25" ht="12.75">
+    <row r="445" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A445" s="12"/>
       <c r="B445" s="12"/>
       <c r="C445" s="12"/>
@@ -13709,7 +13720,7 @@
       <c r="X445" s="1"/>
       <c r="Y445" s="1"/>
     </row>
-    <row r="446" spans="1:25" ht="12.75">
+    <row r="446" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A446" s="12"/>
       <c r="B446" s="12"/>
       <c r="C446" s="12"/>
@@ -13736,7 +13747,7 @@
       <c r="X446" s="1"/>
       <c r="Y446" s="1"/>
     </row>
-    <row r="447" spans="1:25" ht="12.75">
+    <row r="447" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A447" s="12"/>
       <c r="B447" s="12"/>
       <c r="C447" s="12"/>
@@ -13763,7 +13774,7 @@
       <c r="X447" s="1"/>
       <c r="Y447" s="1"/>
     </row>
-    <row r="448" spans="1:25" ht="12.75">
+    <row r="448" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A448" s="12"/>
       <c r="B448" s="12"/>
       <c r="C448" s="12"/>
@@ -13790,7 +13801,7 @@
       <c r="X448" s="1"/>
       <c r="Y448" s="1"/>
     </row>
-    <row r="449" spans="1:25" ht="12.75">
+    <row r="449" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A449" s="12"/>
       <c r="B449" s="12"/>
       <c r="C449" s="12"/>
@@ -13817,7 +13828,7 @@
       <c r="X449" s="1"/>
       <c r="Y449" s="1"/>
     </row>
-    <row r="450" spans="1:25" ht="12.75">
+    <row r="450" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A450" s="12"/>
       <c r="B450" s="12"/>
       <c r="C450" s="12"/>
@@ -13844,7 +13855,7 @@
       <c r="X450" s="1"/>
       <c r="Y450" s="1"/>
     </row>
-    <row r="451" spans="1:25" ht="12.75">
+    <row r="451" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A451" s="12"/>
       <c r="B451" s="12"/>
       <c r="C451" s="12"/>
@@ -13871,7 +13882,7 @@
       <c r="X451" s="1"/>
       <c r="Y451" s="1"/>
     </row>
-    <row r="452" spans="1:25" ht="12.75">
+    <row r="452" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A452" s="12"/>
       <c r="B452" s="12"/>
       <c r="C452" s="12"/>
@@ -13898,7 +13909,7 @@
       <c r="X452" s="1"/>
       <c r="Y452" s="1"/>
     </row>
-    <row r="453" spans="1:25" ht="12.75">
+    <row r="453" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A453" s="12"/>
       <c r="B453" s="12"/>
       <c r="C453" s="12"/>
@@ -13925,7 +13936,7 @@
       <c r="X453" s="1"/>
       <c r="Y453" s="1"/>
     </row>
-    <row r="454" spans="1:25" ht="12.75">
+    <row r="454" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A454" s="12"/>
       <c r="B454" s="12"/>
       <c r="C454" s="12"/>
@@ -13952,7 +13963,7 @@
       <c r="X454" s="1"/>
       <c r="Y454" s="1"/>
     </row>
-    <row r="455" spans="1:25" ht="12.75">
+    <row r="455" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A455" s="12"/>
       <c r="B455" s="12"/>
       <c r="C455" s="12"/>
@@ -13979,7 +13990,7 @@
       <c r="X455" s="1"/>
       <c r="Y455" s="1"/>
     </row>
-    <row r="456" spans="1:25" ht="12.75">
+    <row r="456" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A456" s="12"/>
       <c r="B456" s="12"/>
       <c r="C456" s="12"/>
@@ -14006,7 +14017,7 @@
       <c r="X456" s="1"/>
       <c r="Y456" s="1"/>
     </row>
-    <row r="457" spans="1:25" ht="12.75">
+    <row r="457" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A457" s="12"/>
       <c r="B457" s="12"/>
       <c r="C457" s="12"/>
@@ -14033,7 +14044,7 @@
       <c r="X457" s="1"/>
       <c r="Y457" s="1"/>
     </row>
-    <row r="458" spans="1:25" ht="12.75">
+    <row r="458" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A458" s="12"/>
       <c r="B458" s="12"/>
       <c r="C458" s="12"/>
@@ -14060,7 +14071,7 @@
       <c r="X458" s="1"/>
       <c r="Y458" s="1"/>
     </row>
-    <row r="459" spans="1:25" ht="12.75">
+    <row r="459" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A459" s="12"/>
       <c r="B459" s="12"/>
       <c r="C459" s="12"/>
@@ -14087,7 +14098,7 @@
       <c r="X459" s="1"/>
       <c r="Y459" s="1"/>
     </row>
-    <row r="460" spans="1:25" ht="12.75">
+    <row r="460" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A460" s="12"/>
       <c r="B460" s="12"/>
       <c r="C460" s="12"/>
@@ -14114,7 +14125,7 @@
       <c r="X460" s="1"/>
       <c r="Y460" s="1"/>
     </row>
-    <row r="461" spans="1:25" ht="12.75">
+    <row r="461" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A461" s="12"/>
       <c r="B461" s="12"/>
       <c r="C461" s="12"/>
@@ -14141,7 +14152,7 @@
       <c r="X461" s="1"/>
       <c r="Y461" s="1"/>
     </row>
-    <row r="462" spans="1:25" ht="12.75">
+    <row r="462" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A462" s="12"/>
       <c r="B462" s="12"/>
       <c r="C462" s="12"/>
@@ -14168,7 +14179,7 @@
       <c r="X462" s="1"/>
       <c r="Y462" s="1"/>
     </row>
-    <row r="463" spans="1:25" ht="12.75">
+    <row r="463" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A463" s="12"/>
       <c r="B463" s="12"/>
       <c r="C463" s="12"/>
@@ -14195,7 +14206,7 @@
       <c r="X463" s="1"/>
       <c r="Y463" s="1"/>
     </row>
-    <row r="464" spans="1:25" ht="12.75">
+    <row r="464" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A464" s="12"/>
       <c r="B464" s="12"/>
       <c r="C464" s="12"/>
@@ -14222,7 +14233,7 @@
       <c r="X464" s="1"/>
       <c r="Y464" s="1"/>
     </row>
-    <row r="465" spans="1:25" ht="12.75">
+    <row r="465" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A465" s="12"/>
       <c r="B465" s="12"/>
       <c r="C465" s="12"/>
@@ -14249,7 +14260,7 @@
       <c r="X465" s="1"/>
       <c r="Y465" s="1"/>
     </row>
-    <row r="466" spans="1:25" ht="12.75">
+    <row r="466" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A466" s="12"/>
       <c r="B466" s="12"/>
       <c r="C466" s="12"/>
@@ -14276,7 +14287,7 @@
       <c r="X466" s="1"/>
       <c r="Y466" s="1"/>
     </row>
-    <row r="467" spans="1:25" ht="12.75">
+    <row r="467" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A467" s="12"/>
       <c r="B467" s="12"/>
       <c r="C467" s="12"/>
@@ -14303,7 +14314,7 @@
       <c r="X467" s="1"/>
       <c r="Y467" s="1"/>
     </row>
-    <row r="468" spans="1:25" ht="12.75">
+    <row r="468" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A468" s="12"/>
       <c r="B468" s="12"/>
       <c r="C468" s="12"/>
@@ -14330,7 +14341,7 @@
       <c r="X468" s="1"/>
       <c r="Y468" s="1"/>
     </row>
-    <row r="469" spans="1:25" ht="12.75">
+    <row r="469" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A469" s="12"/>
       <c r="B469" s="12"/>
       <c r="C469" s="12"/>
@@ -14357,7 +14368,7 @@
       <c r="X469" s="1"/>
       <c r="Y469" s="1"/>
     </row>
-    <row r="470" spans="1:25" ht="12.75">
+    <row r="470" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A470" s="12"/>
       <c r="B470" s="12"/>
       <c r="C470" s="12"/>
@@ -14384,7 +14395,7 @@
       <c r="X470" s="1"/>
       <c r="Y470" s="1"/>
     </row>
-    <row r="471" spans="1:25" ht="12.75">
+    <row r="471" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A471" s="12"/>
       <c r="B471" s="12"/>
       <c r="C471" s="12"/>
@@ -14411,7 +14422,7 @@
       <c r="X471" s="1"/>
       <c r="Y471" s="1"/>
     </row>
-    <row r="472" spans="1:25" ht="12.75">
+    <row r="472" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A472" s="12"/>
       <c r="B472" s="12"/>
       <c r="C472" s="12"/>
@@ -14438,7 +14449,7 @@
       <c r="X472" s="1"/>
       <c r="Y472" s="1"/>
     </row>
-    <row r="473" spans="1:25" ht="12.75">
+    <row r="473" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A473" s="12"/>
       <c r="B473" s="12"/>
       <c r="C473" s="12"/>
@@ -14465,7 +14476,7 @@
       <c r="X473" s="1"/>
       <c r="Y473" s="1"/>
     </row>
-    <row r="474" spans="1:25" ht="12.75">
+    <row r="474" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A474" s="12"/>
       <c r="B474" s="12"/>
       <c r="C474" s="12"/>
@@ -14492,7 +14503,7 @@
       <c r="X474" s="1"/>
       <c r="Y474" s="1"/>
     </row>
-    <row r="475" spans="1:25" ht="12.75">
+    <row r="475" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A475" s="12"/>
       <c r="B475" s="12"/>
       <c r="C475" s="12"/>
@@ -14519,7 +14530,7 @@
       <c r="X475" s="1"/>
       <c r="Y475" s="1"/>
     </row>
-    <row r="476" spans="1:25" ht="12.75">
+    <row r="476" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A476" s="12"/>
       <c r="B476" s="12"/>
       <c r="C476" s="12"/>
@@ -14546,7 +14557,7 @@
       <c r="X476" s="1"/>
       <c r="Y476" s="1"/>
     </row>
-    <row r="477" spans="1:25" ht="12.75">
+    <row r="477" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A477" s="12"/>
       <c r="B477" s="12"/>
       <c r="C477" s="12"/>
@@ -14573,7 +14584,7 @@
       <c r="X477" s="1"/>
       <c r="Y477" s="1"/>
     </row>
-    <row r="478" spans="1:25" ht="12.75">
+    <row r="478" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A478" s="12"/>
       <c r="B478" s="12"/>
       <c r="C478" s="12"/>
@@ -14600,7 +14611,7 @@
       <c r="X478" s="1"/>
       <c r="Y478" s="1"/>
     </row>
-    <row r="479" spans="1:25" ht="12.75">
+    <row r="479" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A479" s="12"/>
       <c r="B479" s="12"/>
       <c r="C479" s="12"/>
@@ -14627,7 +14638,7 @@
       <c r="X479" s="1"/>
       <c r="Y479" s="1"/>
     </row>
-    <row r="480" spans="1:25" ht="12.75">
+    <row r="480" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A480" s="12"/>
       <c r="B480" s="12"/>
       <c r="C480" s="12"/>
@@ -14654,7 +14665,7 @@
       <c r="X480" s="1"/>
       <c r="Y480" s="1"/>
     </row>
-    <row r="481" spans="1:25" ht="12.75">
+    <row r="481" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A481" s="12"/>
       <c r="B481" s="12"/>
       <c r="C481" s="12"/>
@@ -14681,7 +14692,7 @@
       <c r="X481" s="1"/>
       <c r="Y481" s="1"/>
     </row>
-    <row r="482" spans="1:25" ht="12.75">
+    <row r="482" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A482" s="12"/>
       <c r="B482" s="12"/>
       <c r="C482" s="12"/>
@@ -14708,7 +14719,7 @@
       <c r="X482" s="1"/>
       <c r="Y482" s="1"/>
     </row>
-    <row r="483" spans="1:25" ht="12.75">
+    <row r="483" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A483" s="12"/>
       <c r="B483" s="12"/>
       <c r="C483" s="12"/>
@@ -14735,7 +14746,7 @@
       <c r="X483" s="1"/>
       <c r="Y483" s="1"/>
     </row>
-    <row r="484" spans="1:25" ht="12.75">
+    <row r="484" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A484" s="12"/>
       <c r="B484" s="12"/>
       <c r="C484" s="12"/>
@@ -14762,7 +14773,7 @@
       <c r="X484" s="1"/>
       <c r="Y484" s="1"/>
     </row>
-    <row r="485" spans="1:25" ht="12.75">
+    <row r="485" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A485" s="12"/>
       <c r="B485" s="12"/>
       <c r="C485" s="12"/>
@@ -14789,7 +14800,7 @@
       <c r="X485" s="1"/>
       <c r="Y485" s="1"/>
     </row>
-    <row r="486" spans="1:25" ht="12.75">
+    <row r="486" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A486" s="12"/>
       <c r="B486" s="12"/>
       <c r="C486" s="12"/>
@@ -14816,7 +14827,7 @@
       <c r="X486" s="1"/>
       <c r="Y486" s="1"/>
     </row>
-    <row r="487" spans="1:25" ht="12.75">
+    <row r="487" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A487" s="12"/>
       <c r="B487" s="12"/>
       <c r="C487" s="12"/>
@@ -14843,7 +14854,7 @@
       <c r="X487" s="1"/>
       <c r="Y487" s="1"/>
     </row>
-    <row r="488" spans="1:25" ht="12.75">
+    <row r="488" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A488" s="12"/>
       <c r="B488" s="12"/>
       <c r="C488" s="12"/>
@@ -14870,7 +14881,7 @@
       <c r="X488" s="1"/>
       <c r="Y488" s="1"/>
     </row>
-    <row r="489" spans="1:25" ht="12.75">
+    <row r="489" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A489" s="12"/>
       <c r="B489" s="12"/>
       <c r="C489" s="12"/>
@@ -14897,7 +14908,7 @@
       <c r="X489" s="1"/>
       <c r="Y489" s="1"/>
     </row>
-    <row r="490" spans="1:25" ht="12.75">
+    <row r="490" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A490" s="12"/>
       <c r="B490" s="12"/>
       <c r="C490" s="12"/>
@@ -14924,7 +14935,7 @@
       <c r="X490" s="1"/>
       <c r="Y490" s="1"/>
     </row>
-    <row r="491" spans="1:25" ht="12.75">
+    <row r="491" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A491" s="12"/>
       <c r="B491" s="12"/>
       <c r="C491" s="12"/>
@@ -14951,7 +14962,7 @@
       <c r="X491" s="1"/>
       <c r="Y491" s="1"/>
     </row>
-    <row r="492" spans="1:25" ht="12.75">
+    <row r="492" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A492" s="12"/>
       <c r="B492" s="12"/>
       <c r="C492" s="12"/>
@@ -14978,7 +14989,7 @@
       <c r="X492" s="1"/>
       <c r="Y492" s="1"/>
     </row>
-    <row r="493" spans="1:25" ht="12.75">
+    <row r="493" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A493" s="12"/>
       <c r="B493" s="12"/>
       <c r="C493" s="12"/>
@@ -15005,7 +15016,7 @@
       <c r="X493" s="1"/>
       <c r="Y493" s="1"/>
     </row>
-    <row r="494" spans="1:25" ht="12.75">
+    <row r="494" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A494" s="12"/>
       <c r="B494" s="12"/>
       <c r="C494" s="12"/>
@@ -15032,7 +15043,7 @@
       <c r="X494" s="1"/>
       <c r="Y494" s="1"/>
     </row>
-    <row r="495" spans="1:25" ht="12.75">
+    <row r="495" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A495" s="12"/>
       <c r="B495" s="12"/>
       <c r="C495" s="12"/>
@@ -15059,7 +15070,7 @@
       <c r="X495" s="1"/>
       <c r="Y495" s="1"/>
     </row>
-    <row r="496" spans="1:25" ht="12.75">
+    <row r="496" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A496" s="12"/>
       <c r="B496" s="12"/>
       <c r="C496" s="12"/>
@@ -15086,7 +15097,7 @@
       <c r="X496" s="1"/>
       <c r="Y496" s="1"/>
     </row>
-    <row r="497" spans="1:25" ht="12.75">
+    <row r="497" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A497" s="12"/>
       <c r="B497" s="12"/>
       <c r="C497" s="12"/>
@@ -15113,7 +15124,7 @@
       <c r="X497" s="1"/>
       <c r="Y497" s="1"/>
     </row>
-    <row r="498" spans="1:25" ht="12.75">
+    <row r="498" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A498" s="12"/>
       <c r="B498" s="12"/>
       <c r="C498" s="12"/>
@@ -15140,7 +15151,7 @@
       <c r="X498" s="1"/>
       <c r="Y498" s="1"/>
     </row>
-    <row r="499" spans="1:25" ht="12.75">
+    <row r="499" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A499" s="12"/>
       <c r="B499" s="12"/>
       <c r="C499" s="12"/>
@@ -15167,7 +15178,7 @@
       <c r="X499" s="1"/>
       <c r="Y499" s="1"/>
     </row>
-    <row r="500" spans="1:25" ht="12.75">
+    <row r="500" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A500" s="12"/>
       <c r="B500" s="12"/>
       <c r="C500" s="12"/>
@@ -15194,7 +15205,7 @@
       <c r="X500" s="1"/>
       <c r="Y500" s="1"/>
     </row>
-    <row r="501" spans="1:25" ht="12.75">
+    <row r="501" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A501" s="12"/>
       <c r="B501" s="12"/>
       <c r="C501" s="12"/>
@@ -15221,7 +15232,7 @@
       <c r="X501" s="1"/>
       <c r="Y501" s="1"/>
     </row>
-    <row r="502" spans="1:25" ht="12.75">
+    <row r="502" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A502" s="12"/>
       <c r="B502" s="12"/>
       <c r="C502" s="12"/>
@@ -15248,7 +15259,7 @@
       <c r="X502" s="1"/>
       <c r="Y502" s="1"/>
     </row>
-    <row r="503" spans="1:25" ht="12.75">
+    <row r="503" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A503" s="12"/>
       <c r="B503" s="12"/>
       <c r="C503" s="12"/>
@@ -15275,7 +15286,7 @@
       <c r="X503" s="1"/>
       <c r="Y503" s="1"/>
     </row>
-    <row r="504" spans="1:25" ht="12.75">
+    <row r="504" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A504" s="12"/>
       <c r="B504" s="12"/>
       <c r="C504" s="12"/>
@@ -15302,7 +15313,7 @@
       <c r="X504" s="1"/>
       <c r="Y504" s="1"/>
     </row>
-    <row r="505" spans="1:25" ht="12.75">
+    <row r="505" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A505" s="12"/>
       <c r="B505" s="12"/>
       <c r="C505" s="12"/>
@@ -15329,7 +15340,7 @@
       <c r="X505" s="1"/>
       <c r="Y505" s="1"/>
     </row>
-    <row r="506" spans="1:25" ht="12.75">
+    <row r="506" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A506" s="12"/>
       <c r="B506" s="12"/>
       <c r="C506" s="12"/>
@@ -15356,7 +15367,7 @@
       <c r="X506" s="1"/>
       <c r="Y506" s="1"/>
     </row>
-    <row r="507" spans="1:25" ht="12.75">
+    <row r="507" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A507" s="12"/>
       <c r="B507" s="12"/>
       <c r="C507" s="12"/>
@@ -15383,7 +15394,7 @@
       <c r="X507" s="1"/>
       <c r="Y507" s="1"/>
     </row>
-    <row r="508" spans="1:25" ht="12.75">
+    <row r="508" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A508" s="12"/>
       <c r="B508" s="12"/>
       <c r="C508" s="12"/>
@@ -15410,7 +15421,7 @@
       <c r="X508" s="1"/>
       <c r="Y508" s="1"/>
     </row>
-    <row r="509" spans="1:25" ht="12.75">
+    <row r="509" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A509" s="12"/>
       <c r="B509" s="12"/>
       <c r="C509" s="12"/>
@@ -15437,7 +15448,7 @@
       <c r="X509" s="1"/>
       <c r="Y509" s="1"/>
     </row>
-    <row r="510" spans="1:25" ht="12.75">
+    <row r="510" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A510" s="12"/>
       <c r="B510" s="12"/>
       <c r="C510" s="12"/>
@@ -15464,7 +15475,7 @@
       <c r="X510" s="1"/>
       <c r="Y510" s="1"/>
     </row>
-    <row r="511" spans="1:25" ht="12.75">
+    <row r="511" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A511" s="12"/>
       <c r="B511" s="12"/>
       <c r="C511" s="12"/>
@@ -15491,7 +15502,7 @@
       <c r="X511" s="1"/>
       <c r="Y511" s="1"/>
     </row>
-    <row r="512" spans="1:25" ht="12.75">
+    <row r="512" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A512" s="12"/>
       <c r="B512" s="12"/>
       <c r="C512" s="12"/>
@@ -15518,7 +15529,7 @@
       <c r="X512" s="1"/>
       <c r="Y512" s="1"/>
     </row>
-    <row r="513" spans="1:25" ht="12.75">
+    <row r="513" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A513" s="12"/>
       <c r="B513" s="12"/>
       <c r="C513" s="12"/>
@@ -15545,7 +15556,7 @@
       <c r="X513" s="1"/>
       <c r="Y513" s="1"/>
     </row>
-    <row r="514" spans="1:25" ht="12.75">
+    <row r="514" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A514" s="12"/>
       <c r="B514" s="12"/>
       <c r="C514" s="12"/>
@@ -15572,7 +15583,7 @@
       <c r="X514" s="1"/>
       <c r="Y514" s="1"/>
     </row>
-    <row r="515" spans="1:25" ht="12.75">
+    <row r="515" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A515" s="12"/>
       <c r="B515" s="12"/>
       <c r="C515" s="12"/>
@@ -15599,7 +15610,7 @@
       <c r="X515" s="1"/>
       <c r="Y515" s="1"/>
     </row>
-    <row r="516" spans="1:25" ht="12.75">
+    <row r="516" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A516" s="12"/>
       <c r="B516" s="12"/>
       <c r="C516" s="12"/>
@@ -15626,7 +15637,7 @@
       <c r="X516" s="1"/>
       <c r="Y516" s="1"/>
     </row>
-    <row r="517" spans="1:25" ht="12.75">
+    <row r="517" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A517" s="12"/>
       <c r="B517" s="12"/>
       <c r="C517" s="12"/>
@@ -15653,7 +15664,7 @@
       <c r="X517" s="1"/>
       <c r="Y517" s="1"/>
     </row>
-    <row r="518" spans="1:25" ht="12.75">
+    <row r="518" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A518" s="12"/>
       <c r="B518" s="12"/>
       <c r="C518" s="12"/>
@@ -15680,7 +15691,7 @@
       <c r="X518" s="1"/>
       <c r="Y518" s="1"/>
     </row>
-    <row r="519" spans="1:25" ht="12.75">
+    <row r="519" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A519" s="12"/>
       <c r="B519" s="12"/>
       <c r="C519" s="12"/>
@@ -15707,7 +15718,7 @@
       <c r="X519" s="1"/>
       <c r="Y519" s="1"/>
     </row>
-    <row r="520" spans="1:25" ht="12.75">
+    <row r="520" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A520" s="12"/>
       <c r="B520" s="12"/>
       <c r="C520" s="12"/>
@@ -15734,7 +15745,7 @@
       <c r="X520" s="1"/>
       <c r="Y520" s="1"/>
     </row>
-    <row r="521" spans="1:25" ht="12.75">
+    <row r="521" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A521" s="12"/>
       <c r="B521" s="12"/>
       <c r="C521" s="12"/>
@@ -15761,7 +15772,7 @@
       <c r="X521" s="1"/>
       <c r="Y521" s="1"/>
     </row>
-    <row r="522" spans="1:25" ht="12.75">
+    <row r="522" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A522" s="12"/>
       <c r="B522" s="12"/>
       <c r="C522" s="12"/>
@@ -15788,7 +15799,7 @@
       <c r="X522" s="1"/>
       <c r="Y522" s="1"/>
     </row>
-    <row r="523" spans="1:25" ht="12.75">
+    <row r="523" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A523" s="12"/>
       <c r="B523" s="12"/>
       <c r="C523" s="12"/>
@@ -15815,7 +15826,7 @@
       <c r="X523" s="1"/>
       <c r="Y523" s="1"/>
     </row>
-    <row r="524" spans="1:25" ht="12.75">
+    <row r="524" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A524" s="12"/>
       <c r="B524" s="12"/>
       <c r="C524" s="12"/>
@@ -15842,7 +15853,7 @@
       <c r="X524" s="1"/>
       <c r="Y524" s="1"/>
     </row>
-    <row r="525" spans="1:25" ht="12.75">
+    <row r="525" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A525" s="12"/>
       <c r="B525" s="12"/>
       <c r="C525" s="12"/>
@@ -15869,7 +15880,7 @@
       <c r="X525" s="1"/>
       <c r="Y525" s="1"/>
     </row>
-    <row r="526" spans="1:25" ht="12.75">
+    <row r="526" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A526" s="12"/>
       <c r="B526" s="12"/>
       <c r="C526" s="12"/>
@@ -15896,7 +15907,7 @@
       <c r="X526" s="1"/>
       <c r="Y526" s="1"/>
     </row>
-    <row r="527" spans="1:25" ht="12.75">
+    <row r="527" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A527" s="12"/>
       <c r="B527" s="12"/>
       <c r="C527" s="12"/>
@@ -15923,7 +15934,7 @@
       <c r="X527" s="1"/>
       <c r="Y527" s="1"/>
     </row>
-    <row r="528" spans="1:25" ht="12.75">
+    <row r="528" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A528" s="12"/>
       <c r="B528" s="12"/>
       <c r="C528" s="12"/>
@@ -15950,7 +15961,7 @@
       <c r="X528" s="1"/>
       <c r="Y528" s="1"/>
     </row>
-    <row r="529" spans="1:25" ht="12.75">
+    <row r="529" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A529" s="12"/>
       <c r="B529" s="12"/>
       <c r="C529" s="12"/>
@@ -15977,7 +15988,7 @@
       <c r="X529" s="1"/>
       <c r="Y529" s="1"/>
     </row>
-    <row r="530" spans="1:25" ht="12.75">
+    <row r="530" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A530" s="12"/>
       <c r="B530" s="12"/>
       <c r="C530" s="12"/>
@@ -16004,7 +16015,7 @@
       <c r="X530" s="1"/>
       <c r="Y530" s="1"/>
     </row>
-    <row r="531" spans="1:25" ht="12.75">
+    <row r="531" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A531" s="12"/>
       <c r="B531" s="12"/>
       <c r="C531" s="12"/>
@@ -16031,7 +16042,7 @@
       <c r="X531" s="1"/>
       <c r="Y531" s="1"/>
     </row>
-    <row r="532" spans="1:25" ht="12.75">
+    <row r="532" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A532" s="12"/>
       <c r="B532" s="12"/>
       <c r="C532" s="12"/>
@@ -16058,7 +16069,7 @@
       <c r="X532" s="1"/>
       <c r="Y532" s="1"/>
     </row>
-    <row r="533" spans="1:25" ht="12.75">
+    <row r="533" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A533" s="12"/>
       <c r="B533" s="12"/>
       <c r="C533" s="12"/>
@@ -16085,7 +16096,7 @@
       <c r="X533" s="1"/>
       <c r="Y533" s="1"/>
     </row>
-    <row r="534" spans="1:25" ht="12.75">
+    <row r="534" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A534" s="12"/>
       <c r="B534" s="12"/>
       <c r="C534" s="12"/>
@@ -16112,7 +16123,7 @@
       <c r="X534" s="1"/>
       <c r="Y534" s="1"/>
     </row>
-    <row r="535" spans="1:25" ht="12.75">
+    <row r="535" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A535" s="12"/>
       <c r="B535" s="12"/>
       <c r="C535" s="12"/>
@@ -16139,7 +16150,7 @@
       <c r="X535" s="1"/>
       <c r="Y535" s="1"/>
     </row>
-    <row r="536" spans="1:25" ht="12.75">
+    <row r="536" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A536" s="12"/>
       <c r="B536" s="12"/>
       <c r="C536" s="12"/>
@@ -16166,7 +16177,7 @@
       <c r="X536" s="1"/>
       <c r="Y536" s="1"/>
     </row>
-    <row r="537" spans="1:25" ht="12.75">
+    <row r="537" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A537" s="12"/>
       <c r="B537" s="12"/>
       <c r="C537" s="12"/>
@@ -16193,7 +16204,7 @@
       <c r="X537" s="1"/>
       <c r="Y537" s="1"/>
     </row>
-    <row r="538" spans="1:25" ht="12.75">
+    <row r="538" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A538" s="12"/>
       <c r="B538" s="12"/>
       <c r="C538" s="12"/>
@@ -16220,7 +16231,7 @@
       <c r="X538" s="1"/>
       <c r="Y538" s="1"/>
     </row>
-    <row r="539" spans="1:25" ht="12.75">
+    <row r="539" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A539" s="12"/>
       <c r="B539" s="12"/>
       <c r="C539" s="12"/>
@@ -16247,7 +16258,7 @@
       <c r="X539" s="1"/>
       <c r="Y539" s="1"/>
     </row>
-    <row r="540" spans="1:25" ht="12.75">
+    <row r="540" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A540" s="12"/>
       <c r="B540" s="12"/>
       <c r="C540" s="12"/>
@@ -16274,7 +16285,7 @@
       <c r="X540" s="1"/>
       <c r="Y540" s="1"/>
     </row>
-    <row r="541" spans="1:25" ht="12.75">
+    <row r="541" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A541" s="12"/>
       <c r="B541" s="12"/>
       <c r="C541" s="12"/>
@@ -16301,7 +16312,7 @@
       <c r="X541" s="1"/>
       <c r="Y541" s="1"/>
     </row>
-    <row r="542" spans="1:25" ht="12.75">
+    <row r="542" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A542" s="12"/>
       <c r="B542" s="12"/>
       <c r="C542" s="12"/>
@@ -16328,7 +16339,7 @@
       <c r="X542" s="1"/>
       <c r="Y542" s="1"/>
     </row>
-    <row r="543" spans="1:25" ht="12.75">
+    <row r="543" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A543" s="12"/>
       <c r="B543" s="12"/>
       <c r="C543" s="12"/>
@@ -16355,7 +16366,7 @@
       <c r="X543" s="1"/>
       <c r="Y543" s="1"/>
     </row>
-    <row r="544" spans="1:25" ht="12.75">
+    <row r="544" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A544" s="12"/>
       <c r="B544" s="12"/>
       <c r="C544" s="12"/>
@@ -16382,7 +16393,7 @@
       <c r="X544" s="1"/>
       <c r="Y544" s="1"/>
     </row>
-    <row r="545" spans="1:25" ht="12.75">
+    <row r="545" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A545" s="12"/>
       <c r="B545" s="12"/>
       <c r="C545" s="12"/>
@@ -16409,7 +16420,7 @@
       <c r="X545" s="1"/>
       <c r="Y545" s="1"/>
     </row>
-    <row r="546" spans="1:25" ht="12.75">
+    <row r="546" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A546" s="12"/>
       <c r="B546" s="12"/>
       <c r="C546" s="12"/>
@@ -16436,7 +16447,7 @@
       <c r="X546" s="1"/>
       <c r="Y546" s="1"/>
     </row>
-    <row r="547" spans="1:25" ht="12.75">
+    <row r="547" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A547" s="12"/>
       <c r="B547" s="12"/>
       <c r="C547" s="12"/>
@@ -16463,7 +16474,7 @@
       <c r="X547" s="1"/>
       <c r="Y547" s="1"/>
     </row>
-    <row r="548" spans="1:25" ht="12.75">
+    <row r="548" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A548" s="12"/>
       <c r="B548" s="12"/>
       <c r="C548" s="12"/>
@@ -16490,7 +16501,7 @@
       <c r="X548" s="1"/>
       <c r="Y548" s="1"/>
     </row>
-    <row r="549" spans="1:25" ht="12.75">
+    <row r="549" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A549" s="12"/>
       <c r="B549" s="12"/>
       <c r="C549" s="12"/>
@@ -16517,7 +16528,7 @@
       <c r="X549" s="1"/>
       <c r="Y549" s="1"/>
     </row>
-    <row r="550" spans="1:25" ht="12.75">
+    <row r="550" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A550" s="12"/>
       <c r="B550" s="12"/>
       <c r="C550" s="12"/>
@@ -16544,7 +16555,7 @@
       <c r="X550" s="1"/>
       <c r="Y550" s="1"/>
     </row>
-    <row r="551" spans="1:25" ht="12.75">
+    <row r="551" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A551" s="12"/>
       <c r="B551" s="12"/>
       <c r="C551" s="12"/>
@@ -16571,7 +16582,7 @@
       <c r="X551" s="1"/>
       <c r="Y551" s="1"/>
     </row>
-    <row r="552" spans="1:25" ht="12.75">
+    <row r="552" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A552" s="12"/>
       <c r="B552" s="12"/>
       <c r="C552" s="12"/>
@@ -16598,7 +16609,7 @@
       <c r="X552" s="1"/>
       <c r="Y552" s="1"/>
     </row>
-    <row r="553" spans="1:25" ht="12.75">
+    <row r="553" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A553" s="12"/>
       <c r="B553" s="12"/>
       <c r="C553" s="12"/>
@@ -16625,7 +16636,7 @@
       <c r="X553" s="1"/>
       <c r="Y553" s="1"/>
     </row>
-    <row r="554" spans="1:25" ht="12.75">
+    <row r="554" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A554" s="12"/>
       <c r="B554" s="12"/>
       <c r="C554" s="12"/>
@@ -16652,7 +16663,7 @@
       <c r="X554" s="1"/>
       <c r="Y554" s="1"/>
     </row>
-    <row r="555" spans="1:25" ht="12.75">
+    <row r="555" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A555" s="12"/>
       <c r="B555" s="12"/>
       <c r="C555" s="12"/>
@@ -16679,7 +16690,7 @@
       <c r="X555" s="1"/>
       <c r="Y555" s="1"/>
     </row>
-    <row r="556" spans="1:25" ht="12.75">
+    <row r="556" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A556" s="12"/>
       <c r="B556" s="12"/>
       <c r="C556" s="12"/>
@@ -16706,7 +16717,7 @@
       <c r="X556" s="1"/>
       <c r="Y556" s="1"/>
     </row>
-    <row r="557" spans="1:25" ht="12.75">
+    <row r="557" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A557" s="12"/>
       <c r="B557" s="12"/>
       <c r="C557" s="12"/>
@@ -16733,7 +16744,7 @@
       <c r="X557" s="1"/>
       <c r="Y557" s="1"/>
     </row>
-    <row r="558" spans="1:25" ht="12.75">
+    <row r="558" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A558" s="12"/>
       <c r="B558" s="12"/>
       <c r="C558" s="12"/>
@@ -16760,7 +16771,7 @@
       <c r="X558" s="1"/>
       <c r="Y558" s="1"/>
     </row>
-    <row r="559" spans="1:25" ht="12.75">
+    <row r="559" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A559" s="12"/>
       <c r="B559" s="12"/>
       <c r="C559" s="12"/>
@@ -16787,7 +16798,7 @@
       <c r="X559" s="1"/>
       <c r="Y559" s="1"/>
     </row>
-    <row r="560" spans="1:25" ht="12.75">
+    <row r="560" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A560" s="12"/>
       <c r="B560" s="12"/>
       <c r="C560" s="12"/>
@@ -16814,7 +16825,7 @@
       <c r="X560" s="1"/>
       <c r="Y560" s="1"/>
     </row>
-    <row r="561" spans="1:25" ht="12.75">
+    <row r="561" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A561" s="12"/>
       <c r="B561" s="12"/>
       <c r="C561" s="12"/>
@@ -16841,7 +16852,7 @@
       <c r="X561" s="1"/>
       <c r="Y561" s="1"/>
     </row>
-    <row r="562" spans="1:25" ht="12.75">
+    <row r="562" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A562" s="12"/>
       <c r="B562" s="12"/>
       <c r="C562" s="12"/>
@@ -16868,7 +16879,7 @@
       <c r="X562" s="1"/>
       <c r="Y562" s="1"/>
     </row>
-    <row r="563" spans="1:25" ht="12.75">
+    <row r="563" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A563" s="12"/>
       <c r="B563" s="12"/>
       <c r="C563" s="12"/>
@@ -16895,7 +16906,7 @@
       <c r="X563" s="1"/>
       <c r="Y563" s="1"/>
     </row>
-    <row r="564" spans="1:25" ht="12.75">
+    <row r="564" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A564" s="12"/>
       <c r="B564" s="12"/>
       <c r="C564" s="12"/>
@@ -16922,7 +16933,7 @@
       <c r="X564" s="1"/>
       <c r="Y564" s="1"/>
     </row>
-    <row r="565" spans="1:25" ht="12.75">
+    <row r="565" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A565" s="12"/>
       <c r="B565" s="12"/>
       <c r="C565" s="12"/>
@@ -16949,7 +16960,7 @@
       <c r="X565" s="1"/>
       <c r="Y565" s="1"/>
     </row>
-    <row r="566" spans="1:25" ht="12.75">
+    <row r="566" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A566" s="12"/>
       <c r="B566" s="12"/>
       <c r="C566" s="12"/>
@@ -16976,7 +16987,7 @@
       <c r="X566" s="1"/>
       <c r="Y566" s="1"/>
     </row>
-    <row r="567" spans="1:25" ht="12.75">
+    <row r="567" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A567" s="12"/>
       <c r="B567" s="12"/>
       <c r="C567" s="12"/>
@@ -17003,7 +17014,7 @@
       <c r="X567" s="1"/>
       <c r="Y567" s="1"/>
     </row>
-    <row r="568" spans="1:25" ht="12.75">
+    <row r="568" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A568" s="12"/>
       <c r="B568" s="12"/>
       <c r="C568" s="12"/>
@@ -17030,7 +17041,7 @@
       <c r="X568" s="1"/>
       <c r="Y568" s="1"/>
     </row>
-    <row r="569" spans="1:25" ht="12.75">
+    <row r="569" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A569" s="12"/>
       <c r="B569" s="12"/>
       <c r="C569" s="12"/>
@@ -17057,7 +17068,7 @@
       <c r="X569" s="1"/>
       <c r="Y569" s="1"/>
     </row>
-    <row r="570" spans="1:25" ht="12.75">
+    <row r="570" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A570" s="12"/>
       <c r="B570" s="12"/>
       <c r="C570" s="12"/>
@@ -17084,7 +17095,7 @@
       <c r="X570" s="1"/>
       <c r="Y570" s="1"/>
     </row>
-    <row r="571" spans="1:25" ht="12.75">
+    <row r="571" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A571" s="12"/>
       <c r="B571" s="12"/>
       <c r="C571" s="12"/>
@@ -17111,7 +17122,7 @@
       <c r="X571" s="1"/>
       <c r="Y571" s="1"/>
     </row>
-    <row r="572" spans="1:25" ht="12.75">
+    <row r="572" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A572" s="12"/>
       <c r="B572" s="12"/>
       <c r="C572" s="12"/>
@@ -17138,7 +17149,7 @@
       <c r="X572" s="1"/>
       <c r="Y572" s="1"/>
     </row>
-    <row r="573" spans="1:25" ht="12.75">
+    <row r="573" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A573" s="12"/>
       <c r="B573" s="12"/>
       <c r="C573" s="12"/>
@@ -17165,7 +17176,7 @@
       <c r="X573" s="1"/>
       <c r="Y573" s="1"/>
     </row>
-    <row r="574" spans="1:25" ht="12.75">
+    <row r="574" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A574" s="12"/>
       <c r="B574" s="12"/>
       <c r="C574" s="12"/>
@@ -17192,7 +17203,7 @@
       <c r="X574" s="1"/>
       <c r="Y574" s="1"/>
     </row>
-    <row r="575" spans="1:25" ht="12.75">
+    <row r="575" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A575" s="12"/>
       <c r="B575" s="12"/>
       <c r="C575" s="12"/>
@@ -17219,7 +17230,7 @@
       <c r="X575" s="1"/>
       <c r="Y575" s="1"/>
     </row>
-    <row r="576" spans="1:25" ht="12.75">
+    <row r="576" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A576" s="12"/>
       <c r="B576" s="12"/>
       <c r="C576" s="12"/>
@@ -17246,7 +17257,7 @@
       <c r="X576" s="1"/>
       <c r="Y576" s="1"/>
     </row>
-    <row r="577" spans="1:25" ht="12.75">
+    <row r="577" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A577" s="12"/>
       <c r="B577" s="12"/>
       <c r="C577" s="12"/>
@@ -17273,7 +17284,7 @@
       <c r="X577" s="1"/>
       <c r="Y577" s="1"/>
     </row>
-    <row r="578" spans="1:25" ht="12.75">
+    <row r="578" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A578" s="12"/>
       <c r="B578" s="12"/>
       <c r="C578" s="12"/>
@@ -17300,7 +17311,7 @@
       <c r="X578" s="1"/>
       <c r="Y578" s="1"/>
     </row>
-    <row r="579" spans="1:25" ht="12.75">
+    <row r="579" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A579" s="12"/>
       <c r="B579" s="12"/>
       <c r="C579" s="12"/>
@@ -17327,7 +17338,7 @@
       <c r="X579" s="1"/>
       <c r="Y579" s="1"/>
     </row>
-    <row r="580" spans="1:25" ht="12.75">
+    <row r="580" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A580" s="12"/>
       <c r="B580" s="12"/>
       <c r="C580" s="12"/>
@@ -17354,7 +17365,7 @@
       <c r="X580" s="1"/>
       <c r="Y580" s="1"/>
     </row>
-    <row r="581" spans="1:25" ht="12.75">
+    <row r="581" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A581" s="12"/>
       <c r="B581" s="12"/>
       <c r="C581" s="12"/>
@@ -17381,7 +17392,7 @@
       <c r="X581" s="1"/>
       <c r="Y581" s="1"/>
     </row>
-    <row r="582" spans="1:25" ht="12.75">
+    <row r="582" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A582" s="12"/>
       <c r="B582" s="12"/>
       <c r="C582" s="12"/>
@@ -17408,7 +17419,7 @@
       <c r="X582" s="1"/>
       <c r="Y582" s="1"/>
     </row>
-    <row r="583" spans="1:25" ht="12.75">
+    <row r="583" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A583" s="12"/>
       <c r="B583" s="12"/>
       <c r="C583" s="12"/>
@@ -17435,7 +17446,7 @@
       <c r="X583" s="1"/>
       <c r="Y583" s="1"/>
     </row>
-    <row r="584" spans="1:25" ht="12.75">
+    <row r="584" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A584" s="12"/>
       <c r="B584" s="12"/>
       <c r="C584" s="12"/>
@@ -17462,7 +17473,7 @@
       <c r="X584" s="1"/>
       <c r="Y584" s="1"/>
     </row>
-    <row r="585" spans="1:25" ht="12.75">
+    <row r="585" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A585" s="12"/>
       <c r="B585" s="12"/>
       <c r="C585" s="12"/>
@@ -17489,7 +17500,7 @@
       <c r="X585" s="1"/>
       <c r="Y585" s="1"/>
     </row>
-    <row r="586" spans="1:25" ht="12.75">
+    <row r="586" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A586" s="12"/>
       <c r="B586" s="12"/>
       <c r="C586" s="12"/>
@@ -17516,7 +17527,7 @@
       <c r="X586" s="1"/>
       <c r="Y586" s="1"/>
     </row>
-    <row r="587" spans="1:25" ht="12.75">
+    <row r="587" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A587" s="12"/>
       <c r="B587" s="12"/>
       <c r="C587" s="12"/>
@@ -17543,7 +17554,7 @@
       <c r="X587" s="1"/>
       <c r="Y587" s="1"/>
     </row>
-    <row r="588" spans="1:25" ht="12.75">
+    <row r="588" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A588" s="12"/>
       <c r="B588" s="12"/>
       <c r="C588" s="12"/>
@@ -17570,7 +17581,7 @@
       <c r="X588" s="1"/>
       <c r="Y588" s="1"/>
     </row>
-    <row r="589" spans="1:25" ht="12.75">
+    <row r="589" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A589" s="12"/>
       <c r="B589" s="12"/>
       <c r="C589" s="12"/>
@@ -17597,7 +17608,7 @@
       <c r="X589" s="1"/>
       <c r="Y589" s="1"/>
     </row>
-    <row r="590" spans="1:25" ht="12.75">
+    <row r="590" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A590" s="12"/>
       <c r="B590" s="12"/>
       <c r="C590" s="12"/>
@@ -17624,7 +17635,7 @@
       <c r="X590" s="1"/>
       <c r="Y590" s="1"/>
     </row>
-    <row r="591" spans="1:25" ht="12.75">
+    <row r="591" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A591" s="12"/>
       <c r="B591" s="12"/>
       <c r="C591" s="12"/>
@@ -17651,7 +17662,7 @@
       <c r="X591" s="1"/>
       <c r="Y591" s="1"/>
     </row>
-    <row r="592" spans="1:25" ht="12.75">
+    <row r="592" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A592" s="12"/>
       <c r="B592" s="12"/>
       <c r="C592" s="12"/>
@@ -17678,7 +17689,7 @@
       <c r="X592" s="1"/>
       <c r="Y592" s="1"/>
     </row>
-    <row r="593" spans="1:25" ht="12.75">
+    <row r="593" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A593" s="12"/>
       <c r="B593" s="12"/>
       <c r="C593" s="12"/>
@@ -17705,7 +17716,7 @@
       <c r="X593" s="1"/>
       <c r="Y593" s="1"/>
     </row>
-    <row r="594" spans="1:25" ht="12.75">
+    <row r="594" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A594" s="12"/>
       <c r="B594" s="12"/>
       <c r="C594" s="12"/>
@@ -17732,7 +17743,7 @@
       <c r="X594" s="1"/>
       <c r="Y594" s="1"/>
     </row>
-    <row r="595" spans="1:25" ht="12.75">
+    <row r="595" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A595" s="12"/>
       <c r="B595" s="12"/>
       <c r="C595" s="12"/>
@@ -17759,7 +17770,7 @@
       <c r="X595" s="1"/>
       <c r="Y595" s="1"/>
     </row>
-    <row r="596" spans="1:25" ht="12.75">
+    <row r="596" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A596" s="12"/>
       <c r="B596" s="12"/>
       <c r="C596" s="12"/>
@@ -17786,7 +17797,7 @@
       <c r="X596" s="1"/>
       <c r="Y596" s="1"/>
     </row>
-    <row r="597" spans="1:25" ht="12.75">
+    <row r="597" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A597" s="12"/>
       <c r="B597" s="12"/>
       <c r="C597" s="12"/>
@@ -17813,7 +17824,7 @@
       <c r="X597" s="1"/>
       <c r="Y597" s="1"/>
     </row>
-    <row r="598" spans="1:25" ht="12.75">
+    <row r="598" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A598" s="12"/>
       <c r="B598" s="12"/>
       <c r="C598" s="12"/>
@@ -17840,7 +17851,7 @@
       <c r="X598" s="1"/>
       <c r="Y598" s="1"/>
     </row>
-    <row r="599" spans="1:25" ht="12.75">
+    <row r="599" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A599" s="12"/>
       <c r="B599" s="12"/>
       <c r="C599" s="12"/>
@@ -17867,7 +17878,7 @@
       <c r="X599" s="1"/>
       <c r="Y599" s="1"/>
     </row>
-    <row r="600" spans="1:25" ht="12.75">
+    <row r="600" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A600" s="12"/>
       <c r="B600" s="12"/>
       <c r="C600" s="12"/>
@@ -17894,7 +17905,7 @@
       <c r="X600" s="1"/>
       <c r="Y600" s="1"/>
     </row>
-    <row r="601" spans="1:25" ht="12.75">
+    <row r="601" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A601" s="12"/>
       <c r="B601" s="12"/>
       <c r="C601" s="12"/>
@@ -17921,7 +17932,7 @@
       <c r="X601" s="1"/>
       <c r="Y601" s="1"/>
     </row>
-    <row r="602" spans="1:25" ht="12.75">
+    <row r="602" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A602" s="12"/>
       <c r="B602" s="12"/>
       <c r="C602" s="12"/>
@@ -17948,7 +17959,7 @@
       <c r="X602" s="1"/>
       <c r="Y602" s="1"/>
     </row>
-    <row r="603" spans="1:25" ht="12.75">
+    <row r="603" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A603" s="12"/>
       <c r="B603" s="12"/>
       <c r="C603" s="12"/>
@@ -17975,7 +17986,7 @@
       <c r="X603" s="1"/>
       <c r="Y603" s="1"/>
     </row>
-    <row r="604" spans="1:25" ht="12.75">
+    <row r="604" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A604" s="12"/>
       <c r="B604" s="12"/>
       <c r="C604" s="12"/>
@@ -18002,7 +18013,7 @@
       <c r="X604" s="1"/>
       <c r="Y604" s="1"/>
     </row>
-    <row r="605" spans="1:25" ht="12.75">
+    <row r="605" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A605" s="12"/>
       <c r="B605" s="12"/>
       <c r="C605" s="12"/>
@@ -18029,7 +18040,7 @@
       <c r="X605" s="1"/>
       <c r="Y605" s="1"/>
     </row>
-    <row r="606" spans="1:25" ht="12.75">
+    <row r="606" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A606" s="12"/>
       <c r="B606" s="12"/>
       <c r="C606" s="12"/>
@@ -18056,7 +18067,7 @@
       <c r="X606" s="1"/>
       <c r="Y606" s="1"/>
     </row>
-    <row r="607" spans="1:25" ht="12.75">
+    <row r="607" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A607" s="12"/>
       <c r="B607" s="12"/>
       <c r="C607" s="12"/>
@@ -18083,7 +18094,7 @@
       <c r="X607" s="1"/>
       <c r="Y607" s="1"/>
     </row>
-    <row r="608" spans="1:25" ht="12.75">
+    <row r="608" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A608" s="12"/>
       <c r="B608" s="12"/>
       <c r="C608" s="12"/>
@@ -18110,7 +18121,7 @@
       <c r="X608" s="1"/>
       <c r="Y608" s="1"/>
     </row>
-    <row r="609" spans="1:25" ht="12.75">
+    <row r="609" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A609" s="12"/>
       <c r="B609" s="12"/>
       <c r="C609" s="12"/>
@@ -18137,7 +18148,7 @@
       <c r="X609" s="1"/>
       <c r="Y609" s="1"/>
     </row>
-    <row r="610" spans="1:25" ht="12.75">
+    <row r="610" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A610" s="12"/>
       <c r="B610" s="12"/>
       <c r="C610" s="12"/>
@@ -18164,7 +18175,7 @@
       <c r="X610" s="1"/>
       <c r="Y610" s="1"/>
     </row>
-    <row r="611" spans="1:25" ht="12.75">
+    <row r="611" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A611" s="12"/>
       <c r="B611" s="12"/>
       <c r="C611" s="12"/>
@@ -18191,7 +18202,7 @@
       <c r="X611" s="1"/>
       <c r="Y611" s="1"/>
     </row>
-    <row r="612" spans="1:25" ht="12.75">
+    <row r="612" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A612" s="12"/>
       <c r="B612" s="12"/>
       <c r="C612" s="12"/>
@@ -18218,7 +18229,7 @@
       <c r="X612" s="1"/>
       <c r="Y612" s="1"/>
     </row>
-    <row r="613" spans="1:25" ht="12.75">
+    <row r="613" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A613" s="12"/>
       <c r="B613" s="12"/>
       <c r="C613" s="12"/>
@@ -18245,7 +18256,7 @@
       <c r="X613" s="1"/>
       <c r="Y613" s="1"/>
     </row>
-    <row r="614" spans="1:25" ht="12.75">
+    <row r="614" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A614" s="12"/>
       <c r="B614" s="12"/>
       <c r="C614" s="12"/>
@@ -18272,7 +18283,7 @@
       <c r="X614" s="1"/>
       <c r="Y614" s="1"/>
     </row>
-    <row r="615" spans="1:25" ht="12.75">
+    <row r="615" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A615" s="12"/>
       <c r="B615" s="12"/>
       <c r="C615" s="12"/>
@@ -18299,7 +18310,7 @@
       <c r="X615" s="1"/>
       <c r="Y615" s="1"/>
     </row>
-    <row r="616" spans="1:25" ht="12.75">
+    <row r="616" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A616" s="12"/>
       <c r="B616" s="12"/>
       <c r="C616" s="12"/>
@@ -18326,7 +18337,7 @@
       <c r="X616" s="1"/>
       <c r="Y616" s="1"/>
     </row>
-    <row r="617" spans="1:25" ht="12.75">
+    <row r="617" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A617" s="12"/>
       <c r="B617" s="12"/>
       <c r="C617" s="12"/>
@@ -18353,7 +18364,7 @@
       <c r="X617" s="1"/>
       <c r="Y617" s="1"/>
     </row>
-    <row r="618" spans="1:25" ht="12.75">
+    <row r="618" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A618" s="12"/>
       <c r="B618" s="12"/>
       <c r="C618" s="12"/>
@@ -18380,7 +18391,7 @@
       <c r="X618" s="1"/>
       <c r="Y618" s="1"/>
     </row>
-    <row r="619" spans="1:25" ht="12.75">
+    <row r="619" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A619" s="12"/>
       <c r="B619" s="12"/>
       <c r="C619" s="12"/>
@@ -18407,7 +18418,7 @@
       <c r="X619" s="1"/>
       <c r="Y619" s="1"/>
     </row>
-    <row r="620" spans="1:25" ht="12.75">
+    <row r="620" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A620" s="12"/>
       <c r="B620" s="12"/>
       <c r="C620" s="12"/>
@@ -18434,7 +18445,7 @@
       <c r="X620" s="1"/>
       <c r="Y620" s="1"/>
     </row>
-    <row r="621" spans="1:25" ht="12.75">
+    <row r="621" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A621" s="12"/>
       <c r="B621" s="12"/>
       <c r="C621" s="12"/>
@@ -18461,7 +18472,7 @@
       <c r="X621" s="1"/>
       <c r="Y621" s="1"/>
     </row>
-    <row r="622" spans="1:25" ht="12.75">
+    <row r="622" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A622" s="12"/>
       <c r="B622" s="12"/>
       <c r="C622" s="12"/>
@@ -18488,7 +18499,7 @@
       <c r="X622" s="1"/>
       <c r="Y622" s="1"/>
     </row>
-    <row r="623" spans="1:25" ht="12.75">
+    <row r="623" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A623" s="12"/>
       <c r="B623" s="12"/>
       <c r="C623" s="12"/>
@@ -18515,7 +18526,7 @@
       <c r="X623" s="1"/>
       <c r="Y623" s="1"/>
     </row>
-    <row r="624" spans="1:25" ht="12.75">
+    <row r="624" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A624" s="12"/>
       <c r="B624" s="12"/>
       <c r="C624" s="12"/>
@@ -18542,7 +18553,7 @@
       <c r="X624" s="1"/>
       <c r="Y624" s="1"/>
     </row>
-    <row r="625" spans="1:25" ht="12.75">
+    <row r="625" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A625" s="12"/>
       <c r="B625" s="12"/>
       <c r="C625" s="12"/>
@@ -18569,7 +18580,7 @@
       <c r="X625" s="1"/>
       <c r="Y625" s="1"/>
     </row>
-    <row r="626" spans="1:25" ht="12.75">
+    <row r="626" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A626" s="12"/>
       <c r="B626" s="12"/>
       <c r="C626" s="12"/>
@@ -18596,7 +18607,7 @@
       <c r="X626" s="1"/>
       <c r="Y626" s="1"/>
     </row>
-    <row r="627" spans="1:25" ht="12.75">
+    <row r="627" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A627" s="12"/>
       <c r="B627" s="12"/>
       <c r="C627" s="12"/>
@@ -18623,7 +18634,7 @@
       <c r="X627" s="1"/>
       <c r="Y627" s="1"/>
     </row>
-    <row r="628" spans="1:25" ht="12.75">
+    <row r="628" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A628" s="12"/>
       <c r="B628" s="12"/>
       <c r="C628" s="12"/>
@@ -18650,7 +18661,7 @@
       <c r="X628" s="1"/>
       <c r="Y628" s="1"/>
     </row>
-    <row r="629" spans="1:25" ht="12.75">
+    <row r="629" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A629" s="12"/>
       <c r="B629" s="12"/>
       <c r="C629" s="12"/>
@@ -18677,7 +18688,7 @@
       <c r="X629" s="1"/>
       <c r="Y629" s="1"/>
     </row>
-    <row r="630" spans="1:25" ht="12.75">
+    <row r="630" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A630" s="12"/>
       <c r="B630" s="12"/>
       <c r="C630" s="12"/>
@@ -18704,7 +18715,7 @@
       <c r="X630" s="1"/>
       <c r="Y630" s="1"/>
     </row>
-    <row r="631" spans="1:25" ht="12.75">
+    <row r="631" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A631" s="12"/>
       <c r="B631" s="12"/>
       <c r="C631" s="12"/>
@@ -18731,7 +18742,7 @@
       <c r="X631" s="1"/>
       <c r="Y631" s="1"/>
     </row>
-    <row r="632" spans="1:25" ht="12.75">
+    <row r="632" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A632" s="12"/>
       <c r="B632" s="12"/>
       <c r="C632" s="12"/>
@@ -18758,7 +18769,7 @@
       <c r="X632" s="1"/>
       <c r="Y632" s="1"/>
     </row>
-    <row r="633" spans="1:25" ht="12.75">
+    <row r="633" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A633" s="12"/>
       <c r="B633" s="12"/>
       <c r="C633" s="12"/>
@@ -18785,7 +18796,7 @@
       <c r="X633" s="1"/>
       <c r="Y633" s="1"/>
     </row>
-    <row r="634" spans="1:25" ht="12.75">
+    <row r="634" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A634" s="12"/>
       <c r="B634" s="12"/>
       <c r="C634" s="12"/>
@@ -18812,7 +18823,7 @@
       <c r="X634" s="1"/>
       <c r="Y634" s="1"/>
     </row>
-    <row r="635" spans="1:25" ht="12.75">
+    <row r="635" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A635" s="12"/>
       <c r="B635" s="12"/>
       <c r="C635" s="12"/>
@@ -18839,7 +18850,7 @@
       <c r="X635" s="1"/>
       <c r="Y635" s="1"/>
     </row>
-    <row r="636" spans="1:25" ht="12.75">
+    <row r="636" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A636" s="12"/>
       <c r="B636" s="12"/>
       <c r="C636" s="12"/>
@@ -18866,7 +18877,7 @@
       <c r="X636" s="1"/>
       <c r="Y636" s="1"/>
     </row>
-    <row r="637" spans="1:25" ht="12.75">
+    <row r="637" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A637" s="12"/>
       <c r="B637" s="12"/>
       <c r="C637" s="12"/>
@@ -18893,7 +18904,7 @@
       <c r="X637" s="1"/>
       <c r="Y637" s="1"/>
     </row>
-    <row r="638" spans="1:25" ht="12.75">
+    <row r="638" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A638" s="12"/>
       <c r="B638" s="12"/>
       <c r="C638" s="12"/>
@@ -18920,7 +18931,7 @@
       <c r="X638" s="1"/>
       <c r="Y638" s="1"/>
     </row>
-    <row r="639" spans="1:25" ht="12.75">
+    <row r="639" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A639" s="12"/>
       <c r="B639" s="12"/>
       <c r="C639" s="12"/>
@@ -18947,7 +18958,7 @@
       <c r="X639" s="1"/>
       <c r="Y639" s="1"/>
     </row>
-    <row r="640" spans="1:25" ht="12.75">
+    <row r="640" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A640" s="12"/>
       <c r="B640" s="12"/>
       <c r="C640" s="12"/>
@@ -18974,7 +18985,7 @@
       <c r="X640" s="1"/>
       <c r="Y640" s="1"/>
     </row>
-    <row r="641" spans="1:25" ht="12.75">
+    <row r="641" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A641" s="12"/>
       <c r="B641" s="12"/>
       <c r="C641" s="12"/>
@@ -19001,7 +19012,7 @@
       <c r="X641" s="1"/>
       <c r="Y641" s="1"/>
     </row>
-    <row r="642" spans="1:25" ht="12.75">
+    <row r="642" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A642" s="12"/>
       <c r="B642" s="12"/>
       <c r="C642" s="12"/>
@@ -19028,7 +19039,7 @@
       <c r="X642" s="1"/>
       <c r="Y642" s="1"/>
     </row>
-    <row r="643" spans="1:25" ht="12.75">
+    <row r="643" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A643" s="12"/>
       <c r="B643" s="12"/>
       <c r="C643" s="12"/>
@@ -19055,7 +19066,7 @@
       <c r="X643" s="1"/>
       <c r="Y643" s="1"/>
     </row>
-    <row r="644" spans="1:25" ht="12.75">
+    <row r="644" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A644" s="12"/>
       <c r="B644" s="12"/>
       <c r="C644" s="12"/>
@@ -19082,7 +19093,7 @@
       <c r="X644" s="1"/>
       <c r="Y644" s="1"/>
     </row>
-    <row r="645" spans="1:25" ht="12.75">
+    <row r="645" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A645" s="12"/>
       <c r="B645" s="12"/>
       <c r="C645" s="12"/>
@@ -19109,7 +19120,7 @@
       <c r="X645" s="1"/>
       <c r="Y645" s="1"/>
     </row>
-    <row r="646" spans="1:25" ht="12.75">
+    <row r="646" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A646" s="12"/>
       <c r="B646" s="12"/>
       <c r="C646" s="12"/>
@@ -19136,7 +19147,7 @@
       <c r="X646" s="1"/>
       <c r="Y646" s="1"/>
     </row>
-    <row r="647" spans="1:25" ht="12.75">
+    <row r="647" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A647" s="12"/>
       <c r="B647" s="12"/>
       <c r="C647" s="12"/>
@@ -19163,7 +19174,7 @@
       <c r="X647" s="1"/>
       <c r="Y647" s="1"/>
     </row>
-    <row r="648" spans="1:25" ht="12.75">
+    <row r="648" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A648" s="12"/>
       <c r="B648" s="12"/>
       <c r="C648" s="12"/>
@@ -19190,7 +19201,7 @@
       <c r="X648" s="1"/>
       <c r="Y648" s="1"/>
     </row>
-    <row r="649" spans="1:25" ht="12.75">
+    <row r="649" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A649" s="12"/>
       <c r="B649" s="12"/>
       <c r="C649" s="12"/>
@@ -19217,7 +19228,7 @@
       <c r="X649" s="1"/>
       <c r="Y649" s="1"/>
     </row>
-    <row r="650" spans="1:25" ht="12.75">
+    <row r="650" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A650" s="12"/>
       <c r="B650" s="12"/>
       <c r="C650" s="12"/>
@@ -19244,7 +19255,7 @@
       <c r="X650" s="1"/>
       <c r="Y650" s="1"/>
     </row>
-    <row r="651" spans="1:25" ht="12.75">
+    <row r="651" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A651" s="12"/>
       <c r="B651" s="12"/>
       <c r="C651" s="12"/>
@@ -19271,7 +19282,7 @@
       <c r="X651" s="1"/>
       <c r="Y651" s="1"/>
     </row>
-    <row r="652" spans="1:25" ht="12.75">
+    <row r="652" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A652" s="12"/>
       <c r="B652" s="12"/>
       <c r="C652" s="12"/>
@@ -19298,7 +19309,7 @@
       <c r="X652" s="1"/>
       <c r="Y652" s="1"/>
     </row>
-    <row r="653" spans="1:25" ht="12.75">
+    <row r="653" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A653" s="12"/>
       <c r="B653" s="12"/>
       <c r="C653" s="12"/>
@@ -19325,7 +19336,7 @@
       <c r="X653" s="1"/>
       <c r="Y653" s="1"/>
     </row>
-    <row r="654" spans="1:25" ht="12.75">
+    <row r="654" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A654" s="12"/>
       <c r="B654" s="12"/>
       <c r="C654" s="12"/>
@@ -19352,7 +19363,7 @@
       <c r="X654" s="1"/>
       <c r="Y654" s="1"/>
     </row>
-    <row r="655" spans="1:25" ht="12.75">
+    <row r="655" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A655" s="12"/>
       <c r="B655" s="12"/>
       <c r="C655" s="12"/>
@@ -19379,7 +19390,7 @@
       <c r="X655" s="1"/>
       <c r="Y655" s="1"/>
     </row>
-    <row r="656" spans="1:25" ht="12.75">
+    <row r="656" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A656" s="12"/>
       <c r="B656" s="12"/>
       <c r="C656" s="12"/>
@@ -19406,7 +19417,7 @@
       <c r="X656" s="1"/>
       <c r="Y656" s="1"/>
     </row>
-    <row r="657" spans="1:25" ht="12.75">
+    <row r="657" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A657" s="12"/>
       <c r="B657" s="12"/>
       <c r="C657" s="12"/>
@@ -19433,7 +19444,7 @@
       <c r="X657" s="1"/>
       <c r="Y657" s="1"/>
     </row>
-    <row r="658" spans="1:25" ht="12.75">
+    <row r="658" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A658" s="12"/>
       <c r="B658" s="12"/>
       <c r="C658" s="12"/>
@@ -19460,7 +19471,7 @@
       <c r="X658" s="1"/>
       <c r="Y658" s="1"/>
     </row>
-    <row r="659" spans="1:25" ht="12.75">
+    <row r="659" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A659" s="12"/>
       <c r="B659" s="12"/>
       <c r="C659" s="12"/>
@@ -19487,7 +19498,7 @@
       <c r="X659" s="1"/>
       <c r="Y659" s="1"/>
     </row>
-    <row r="660" spans="1:25" ht="12.75">
+    <row r="660" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A660" s="12"/>
       <c r="B660" s="12"/>
       <c r="C660" s="12"/>
@@ -19514,7 +19525,7 @@
       <c r="X660" s="1"/>
       <c r="Y660" s="1"/>
     </row>
-    <row r="661" spans="1:25" ht="12.75">
+    <row r="661" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A661" s="12"/>
       <c r="B661" s="12"/>
       <c r="C661" s="12"/>
@@ -19541,7 +19552,7 @@
       <c r="X661" s="1"/>
       <c r="Y661" s="1"/>
     </row>
-    <row r="662" spans="1:25" ht="12.75">
+    <row r="662" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A662" s="12"/>
       <c r="B662" s="12"/>
       <c r="C662" s="12"/>
@@ -19568,7 +19579,7 @@
       <c r="X662" s="1"/>
       <c r="Y662" s="1"/>
     </row>
-    <row r="663" spans="1:25" ht="12.75">
+    <row r="663" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A663" s="12"/>
       <c r="B663" s="12"/>
       <c r="C663" s="12"/>
@@ -19595,7 +19606,7 @@
       <c r="X663" s="1"/>
       <c r="Y663" s="1"/>
     </row>
-    <row r="664" spans="1:25" ht="12.75">
+    <row r="664" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A664" s="12"/>
       <c r="B664" s="12"/>
       <c r="C664" s="12"/>
@@ -19622,7 +19633,7 @@
       <c r="X664" s="1"/>
       <c r="Y664" s="1"/>
     </row>
-    <row r="665" spans="1:25" ht="12.75">
+    <row r="665" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A665" s="12"/>
       <c r="B665" s="12"/>
       <c r="C665" s="12"/>
@@ -19649,7 +19660,7 @@
       <c r="X665" s="1"/>
       <c r="Y665" s="1"/>
     </row>
-    <row r="666" spans="1:25" ht="12.75">
+    <row r="666" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A666" s="12"/>
       <c r="B666" s="12"/>
       <c r="C666" s="12"/>
@@ -19676,7 +19687,7 @@
       <c r="X666" s="1"/>
       <c r="Y666" s="1"/>
     </row>
-    <row r="667" spans="1:25" ht="12.75">
+    <row r="667" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A667" s="12"/>
       <c r="B667" s="12"/>
       <c r="C667" s="12"/>
@@ -19703,7 +19714,7 @@
       <c r="X667" s="1"/>
       <c r="Y667" s="1"/>
     </row>
-    <row r="668" spans="1:25" ht="12.75">
+    <row r="668" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A668" s="12"/>
       <c r="B668" s="12"/>
       <c r="C668" s="12"/>
@@ -19730,7 +19741,7 @@
       <c r="X668" s="1"/>
       <c r="Y668" s="1"/>
     </row>
-    <row r="669" spans="1:25" ht="12.75">
+    <row r="669" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A669" s="12"/>
       <c r="B669" s="12"/>
       <c r="C669" s="12"/>
@@ -19757,7 +19768,7 @@
       <c r="X669" s="1"/>
       <c r="Y669" s="1"/>
     </row>
-    <row r="670" spans="1:25" ht="12.75">
+    <row r="670" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A670" s="12"/>
       <c r="B670" s="12"/>
       <c r="C670" s="12"/>
@@ -19784,7 +19795,7 @@
       <c r="X670" s="1"/>
       <c r="Y670" s="1"/>
     </row>
-    <row r="671" spans="1:25" ht="12.75">
+    <row r="671" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A671" s="12"/>
       <c r="B671" s="12"/>
       <c r="C671" s="12"/>
@@ -19811,7 +19822,7 @@
       <c r="X671" s="1"/>
       <c r="Y671" s="1"/>
     </row>
-    <row r="672" spans="1:25" ht="12.75">
+    <row r="672" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A672" s="12"/>
       <c r="B672" s="12"/>
       <c r="C672" s="12"/>
@@ -19838,7 +19849,7 @@
       <c r="X672" s="1"/>
       <c r="Y672" s="1"/>
     </row>
-    <row r="673" spans="1:25" ht="12.75">
+    <row r="673" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A673" s="12"/>
       <c r="B673" s="12"/>
       <c r="C673" s="12"/>
@@ -19865,7 +19876,7 @@
       <c r="X673" s="1"/>
       <c r="Y673" s="1"/>
     </row>
-    <row r="674" spans="1:25" ht="12.75">
+    <row r="674" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A674" s="12"/>
       <c r="B674" s="12"/>
       <c r="C674" s="12"/>
@@ -19892,7 +19903,7 @@
       <c r="X674" s="1"/>
       <c r="Y674" s="1"/>
     </row>
-    <row r="675" spans="1:25" ht="12.75">
+    <row r="675" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A675" s="12"/>
       <c r="B675" s="12"/>
       <c r="C675" s="12"/>
@@ -19919,7 +19930,7 @@
       <c r="X675" s="1"/>
       <c r="Y675" s="1"/>
     </row>
-    <row r="676" spans="1:25" ht="12.75">
+    <row r="676" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A676" s="12"/>
       <c r="B676" s="12"/>
       <c r="C676" s="12"/>
@@ -19946,7 +19957,7 @@
       <c r="X676" s="1"/>
       <c r="Y676" s="1"/>
     </row>
-    <row r="677" spans="1:25" ht="12.75">
+    <row r="677" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A677" s="12"/>
       <c r="B677" s="12"/>
       <c r="C677" s="12"/>
@@ -19973,7 +19984,7 @@
       <c r="X677" s="1"/>
       <c r="Y677" s="1"/>
     </row>
-    <row r="678" spans="1:25" ht="12.75">
+    <row r="678" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A678" s="12"/>
       <c r="B678" s="12"/>
       <c r="C678" s="12"/>
@@ -20000,7 +20011,7 @@
       <c r="X678" s="1"/>
       <c r="Y678" s="1"/>
     </row>
-    <row r="679" spans="1:25" ht="12.75">
+    <row r="679" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A679" s="12"/>
       <c r="B679" s="12"/>
       <c r="C679" s="12"/>
@@ -20027,7 +20038,7 @@
       <c r="X679" s="1"/>
       <c r="Y679" s="1"/>
     </row>
-    <row r="680" spans="1:25" ht="12.75">
+    <row r="680" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A680" s="12"/>
       <c r="B680" s="12"/>
       <c r="C680" s="12"/>
@@ -20054,7 +20065,7 @@
       <c r="X680" s="1"/>
       <c r="Y680" s="1"/>
     </row>
-    <row r="681" spans="1:25" ht="12.75">
+    <row r="681" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A681" s="12"/>
       <c r="B681" s="12"/>
       <c r="C681" s="12"/>
@@ -20081,7 +20092,7 @@
       <c r="X681" s="1"/>
       <c r="Y681" s="1"/>
     </row>
-    <row r="682" spans="1:25" ht="12.75">
+    <row r="682" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A682" s="12"/>
       <c r="B682" s="12"/>
       <c r="C682" s="12"/>
@@ -20108,7 +20119,7 @@
       <c r="X682" s="1"/>
       <c r="Y682" s="1"/>
     </row>
-    <row r="683" spans="1:25" ht="12.75">
+    <row r="683" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A683" s="12"/>
       <c r="B683" s="12"/>
       <c r="C683" s="12"/>
@@ -20135,7 +20146,7 @@
       <c r="X683" s="1"/>
       <c r="Y683" s="1"/>
     </row>
-    <row r="684" spans="1:25" ht="12.75">
+    <row r="684" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A684" s="12"/>
       <c r="B684" s="12"/>
       <c r="C684" s="12"/>
@@ -20162,7 +20173,7 @@
       <c r="X684" s="1"/>
       <c r="Y684" s="1"/>
     </row>
-    <row r="685" spans="1:25" ht="12.75">
+    <row r="685" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A685" s="12"/>
       <c r="B685" s="12"/>
       <c r="C685" s="12"/>
@@ -20189,7 +20200,7 @@
       <c r="X685" s="1"/>
       <c r="Y685" s="1"/>
     </row>
-    <row r="686" spans="1:25" ht="12.75">
+    <row r="686" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A686" s="12"/>
       <c r="B686" s="12"/>
       <c r="C686" s="12"/>
@@ -20216,7 +20227,7 @@
       <c r="X686" s="1"/>
       <c r="Y686" s="1"/>
     </row>
-    <row r="687" spans="1:25" ht="12.75">
+    <row r="687" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A687" s="12"/>
       <c r="B687" s="12"/>
       <c r="C687" s="12"/>
@@ -20243,7 +20254,7 @@
       <c r="X687" s="1"/>
       <c r="Y687" s="1"/>
     </row>
-    <row r="688" spans="1:25" ht="12.75">
+    <row r="688" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A688" s="12"/>
       <c r="B688" s="12"/>
       <c r="C688" s="12"/>
@@ -20270,7 +20281,7 @@
       <c r="X688" s="1"/>
       <c r="Y688" s="1"/>
     </row>
-    <row r="689" spans="1:25" ht="12.75">
+    <row r="689" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A689" s="12"/>
       <c r="B689" s="12"/>
       <c r="C689" s="12"/>
@@ -20297,7 +20308,7 @@
       <c r="X689" s="1"/>
       <c r="Y689" s="1"/>
     </row>
-    <row r="690" spans="1:25" ht="12.75">
+    <row r="690" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A690" s="12"/>
       <c r="B690" s="12"/>
       <c r="C690" s="12"/>
@@ -20324,7 +20335,7 @@
       <c r="X690" s="1"/>
       <c r="Y690" s="1"/>
     </row>
-    <row r="691" spans="1:25" ht="12.75">
+    <row r="691" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A691" s="12"/>
       <c r="B691" s="12"/>
       <c r="C691" s="12"/>
@@ -20351,7 +20362,7 @@
       <c r="X691" s="1"/>
       <c r="Y691" s="1"/>
     </row>
-    <row r="692" spans="1:25" ht="12.75">
+    <row r="692" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A692" s="12"/>
       <c r="B692" s="12"/>
       <c r="C692" s="12"/>
@@ -20378,7 +20389,7 @@
       <c r="X692" s="1"/>
       <c r="Y692" s="1"/>
     </row>
-    <row r="693" spans="1:25" ht="12.75">
+    <row r="693" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A693" s="12"/>
       <c r="B693" s="12"/>
       <c r="C693" s="12"/>
@@ -20405,7 +20416,7 @@
       <c r="X693" s="1"/>
       <c r="Y693" s="1"/>
     </row>
-    <row r="694" spans="1:25" ht="12.75">
+    <row r="694" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A694" s="12"/>
       <c r="B694" s="12"/>
       <c r="C694" s="12"/>
@@ -20432,7 +20443,7 @@
       <c r="X694" s="1"/>
       <c r="Y694" s="1"/>
     </row>
-    <row r="695" spans="1:25" ht="12.75">
+    <row r="695" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A695" s="12"/>
       <c r="B695" s="12"/>
       <c r="C695" s="12"/>
@@ -20459,7 +20470,7 @@
       <c r="X695" s="1"/>
       <c r="Y695" s="1"/>
     </row>
-    <row r="696" spans="1:25" ht="12.75">
+    <row r="696" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A696" s="12"/>
       <c r="B696" s="12"/>
       <c r="C696" s="12"/>
@@ -20486,7 +20497,7 @@
       <c r="X696" s="1"/>
       <c r="Y696" s="1"/>
     </row>
-    <row r="697" spans="1:25" ht="12.75">
+    <row r="697" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A697" s="12"/>
       <c r="B697" s="12"/>
       <c r="C697" s="12"/>
@@ -20513,7 +20524,7 @@
       <c r="X697" s="1"/>
       <c r="Y697" s="1"/>
     </row>
-    <row r="698" spans="1:25" ht="12.75">
+    <row r="698" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A698" s="12"/>
       <c r="B698" s="12"/>
       <c r="C698" s="12"/>
@@ -20540,7 +20551,7 @@
       <c r="X698" s="1"/>
       <c r="Y698" s="1"/>
     </row>
-    <row r="699" spans="1:25" ht="12.75">
+    <row r="699" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A699" s="12"/>
       <c r="B699" s="12"/>
       <c r="C699" s="12"/>
@@ -20567,7 +20578,7 @@
       <c r="X699" s="1"/>
       <c r="Y699" s="1"/>
     </row>
-    <row r="700" spans="1:25" ht="12.75">
+    <row r="700" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A700" s="12"/>
       <c r="B700" s="12"/>
       <c r="C700" s="12"/>
@@ -20594,7 +20605,7 @@
       <c r="X700" s="1"/>
       <c r="Y700" s="1"/>
     </row>
-    <row r="701" spans="1:25" ht="12.75">
+    <row r="701" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A701" s="12"/>
       <c r="B701" s="12"/>
       <c r="C701" s="12"/>
@@ -20621,7 +20632,7 @@
       <c r="X701" s="1"/>
       <c r="Y701" s="1"/>
     </row>
-    <row r="702" spans="1:25" ht="12.75">
+    <row r="702" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A702" s="12"/>
       <c r="B702" s="12"/>
       <c r="C702" s="12"/>
@@ -20648,7 +20659,7 @@
       <c r="X702" s="1"/>
       <c r="Y702" s="1"/>
     </row>
-    <row r="703" spans="1:25" ht="12.75">
+    <row r="703" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A703" s="12"/>
       <c r="B703" s="12"/>
       <c r="C703" s="12"/>
@@ -20675,7 +20686,7 @@
       <c r="X703" s="1"/>
       <c r="Y703" s="1"/>
     </row>
-    <row r="704" spans="1:25" ht="12.75">
+    <row r="704" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A704" s="12"/>
       <c r="B704" s="12"/>
       <c r="C704" s="12"/>
@@ -20702,7 +20713,7 @@
       <c r="X704" s="1"/>
       <c r="Y704" s="1"/>
     </row>
-    <row r="705" spans="1:25" ht="12.75">
+    <row r="705" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A705" s="12"/>
       <c r="B705" s="12"/>
       <c r="C705" s="12"/>
@@ -20729,7 +20740,7 @@
       <c r="X705" s="1"/>
       <c r="Y705" s="1"/>
     </row>
-    <row r="706" spans="1:25" ht="12.75">
+    <row r="706" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A706" s="12"/>
       <c r="B706" s="12"/>
       <c r="C706" s="12"/>
@@ -20756,7 +20767,7 @@
       <c r="X706" s="1"/>
       <c r="Y706" s="1"/>
     </row>
-    <row r="707" spans="1:25" ht="12.75">
+    <row r="707" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A707" s="12"/>
       <c r="B707" s="12"/>
       <c r="C707" s="12"/>
@@ -20783,7 +20794,7 @@
       <c r="X707" s="1"/>
       <c r="Y707" s="1"/>
     </row>
-    <row r="708" spans="1:25" ht="12.75">
+    <row r="708" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A708" s="12"/>
       <c r="B708" s="12"/>
       <c r="C708" s="12"/>
@@ -20810,7 +20821,7 @@
       <c r="X708" s="1"/>
       <c r="Y708" s="1"/>
     </row>
-    <row r="709" spans="1:25" ht="12.75">
+    <row r="709" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A709" s="12"/>
       <c r="B709" s="12"/>
       <c r="C709" s="12"/>
@@ -20837,7 +20848,7 @@
       <c r="X709" s="1"/>
       <c r="Y709" s="1"/>
     </row>
-    <row r="710" spans="1:25" ht="12.75">
+    <row r="710" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A710" s="12"/>
       <c r="B710" s="12"/>
       <c r="C710" s="12"/>
@@ -20864,7 +20875,7 @@
       <c r="X710" s="1"/>
       <c r="Y710" s="1"/>
     </row>
-    <row r="711" spans="1:25" ht="12.75">
+    <row r="711" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A711" s="12"/>
       <c r="B711" s="12"/>
       <c r="C711" s="12"/>
@@ -20891,7 +20902,7 @@
       <c r="X711" s="1"/>
       <c r="Y711" s="1"/>
     </row>
-    <row r="712" spans="1:25" ht="12.75">
+    <row r="712" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A712" s="12"/>
       <c r="B712" s="12"/>
       <c r="C712" s="12"/>
@@ -20918,7 +20929,7 @@
       <c r="X712" s="1"/>
       <c r="Y712" s="1"/>
     </row>
-    <row r="713" spans="1:25" ht="12.75">
+    <row r="713" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A713" s="12"/>
       <c r="B713" s="12"/>
       <c r="C713" s="12"/>
@@ -20945,7 +20956,7 @@
       <c r="X713" s="1"/>
       <c r="Y713" s="1"/>
     </row>
-    <row r="714" spans="1:25" ht="12.75">
+    <row r="714" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A714" s="12"/>
       <c r="B714" s="12"/>
       <c r="C714" s="12"/>
@@ -20972,7 +20983,7 @@
       <c r="X714" s="1"/>
       <c r="Y714" s="1"/>
     </row>
-    <row r="715" spans="1:25" ht="12.75">
+    <row r="715" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A715" s="12"/>
       <c r="B715" s="12"/>
       <c r="C715" s="12"/>
@@ -20999,7 +21010,7 @@
       <c r="X715" s="1"/>
       <c r="Y715" s="1"/>
     </row>
-    <row r="716" spans="1:25" ht="12.75">
+    <row r="716" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A716" s="12"/>
       <c r="B716" s="12"/>
       <c r="C716" s="12"/>
@@ -21026,7 +21037,7 @@
       <c r="X716" s="1"/>
       <c r="Y716" s="1"/>
     </row>
-    <row r="717" spans="1:25" ht="12.75">
+    <row r="717" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A717" s="12"/>
       <c r="B717" s="12"/>
       <c r="C717" s="12"/>
@@ -21053,7 +21064,7 @@
       <c r="X717" s="1"/>
       <c r="Y717" s="1"/>
     </row>
-    <row r="718" spans="1:25" ht="12.75">
+    <row r="718" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A718" s="12"/>
       <c r="B718" s="12"/>
       <c r="C718" s="12"/>
@@ -21080,7 +21091,7 @@
       <c r="X718" s="1"/>
       <c r="Y718" s="1"/>
     </row>
-    <row r="719" spans="1:25" ht="12.75">
+    <row r="719" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A719" s="12"/>
       <c r="B719" s="12"/>
       <c r="C719" s="12"/>
@@ -21107,7 +21118,7 @@
       <c r="X719" s="1"/>
       <c r="Y719" s="1"/>
     </row>
-    <row r="720" spans="1:25" ht="12.75">
+    <row r="720" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A720" s="12"/>
       <c r="B720" s="12"/>
       <c r="C720" s="12"/>
@@ -21134,7 +21145,7 @@
       <c r="X720" s="1"/>
       <c r="Y720" s="1"/>
     </row>
-    <row r="721" spans="1:25" ht="12.75">
+    <row r="721" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A721" s="12"/>
       <c r="B721" s="12"/>
       <c r="C721" s="12"/>
@@ -21161,7 +21172,7 @@
       <c r="X721" s="1"/>
       <c r="Y721" s="1"/>
     </row>
-    <row r="722" spans="1:25" ht="12.75">
+    <row r="722" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A722" s="12"/>
       <c r="B722" s="12"/>
       <c r="C722" s="12"/>
@@ -21188,7 +21199,7 @@
       <c r="X722" s="1"/>
       <c r="Y722" s="1"/>
     </row>
-    <row r="723" spans="1:25" ht="12.75">
+    <row r="723" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A723" s="12"/>
       <c r="B723" s="12"/>
       <c r="C723" s="12"/>
@@ -21215,7 +21226,7 @@
       <c r="X723" s="1"/>
       <c r="Y723" s="1"/>
     </row>
-    <row r="724" spans="1:25" ht="12.75">
+    <row r="724" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A724" s="12"/>
       <c r="B724" s="12"/>
       <c r="C724" s="12"/>
@@ -21242,7 +21253,7 @@
       <c r="X724" s="1"/>
       <c r="Y724" s="1"/>
     </row>
-    <row r="725" spans="1:25" ht="12.75">
+    <row r="725" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A725" s="12"/>
       <c r="B725" s="12"/>
       <c r="C725" s="12"/>
@@ -21269,7 +21280,7 @@
       <c r="X725" s="1"/>
       <c r="Y725" s="1"/>
     </row>
-    <row r="726" spans="1:25" ht="12.75">
+    <row r="726" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A726" s="12"/>
       <c r="B726" s="12"/>
       <c r="C726" s="12"/>
@@ -21296,7 +21307,7 @@
       <c r="X726" s="1"/>
       <c r="Y726" s="1"/>
     </row>
-    <row r="727" spans="1:25" ht="12.75">
+    <row r="727" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A727" s="12"/>
       <c r="B727" s="12"/>
       <c r="C727" s="12"/>
@@ -21323,7 +21334,7 @@
       <c r="X727" s="1"/>
       <c r="Y727" s="1"/>
     </row>
-    <row r="728" spans="1:25" ht="12.75">
+    <row r="728" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A728" s="12"/>
       <c r="B728" s="12"/>
       <c r="C728" s="12"/>
@@ -21350,7 +21361,7 @@
       <c r="X728" s="1"/>
       <c r="Y728" s="1"/>
     </row>
-    <row r="729" spans="1:25" ht="12.75">
+    <row r="729" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A729" s="12"/>
       <c r="B729" s="12"/>
       <c r="C729" s="12"/>
@@ -21377,7 +21388,7 @@
       <c r="X729" s="1"/>
       <c r="Y729" s="1"/>
     </row>
-    <row r="730" spans="1:25" ht="12.75">
+    <row r="730" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A730" s="12"/>
       <c r="B730" s="12"/>
       <c r="C730" s="12"/>
@@ -21404,7 +21415,7 @@
       <c r="X730" s="1"/>
       <c r="Y730" s="1"/>
     </row>
-    <row r="731" spans="1:25" ht="12.75">
+    <row r="731" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A731" s="12"/>
       <c r="B731" s="12"/>
       <c r="C731" s="12"/>
@@ -21431,7 +21442,7 @@
       <c r="X731" s="1"/>
       <c r="Y731" s="1"/>
     </row>
-    <row r="732" spans="1:25" ht="12.75">
+    <row r="732" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A732" s="12"/>
       <c r="B732" s="12"/>
       <c r="C732" s="12"/>
@@ -21458,7 +21469,7 @@
       <c r="X732" s="1"/>
       <c r="Y732" s="1"/>
     </row>
-    <row r="733" spans="1:25" ht="12.75">
+    <row r="733" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A733" s="12"/>
       <c r="B733" s="12"/>
       <c r="C733" s="12"/>
@@ -21485,7 +21496,7 @@
       <c r="X733" s="1"/>
       <c r="Y733" s="1"/>
     </row>
-    <row r="734" spans="1:25" ht="12.75">
+    <row r="734" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A734" s="12"/>
       <c r="B734" s="12"/>
       <c r="C734" s="12"/>
@@ -21512,7 +21523,7 @@
       <c r="X734" s="1"/>
       <c r="Y734" s="1"/>
     </row>
-    <row r="735" spans="1:25" ht="12.75">
+    <row r="735" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A735" s="12"/>
       <c r="B735" s="12"/>
       <c r="C735" s="12"/>
@@ -21539,7 +21550,7 @@
       <c r="X735" s="1"/>
       <c r="Y735" s="1"/>
     </row>
-    <row r="736" spans="1:25" ht="12.75">
+    <row r="736" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A736" s="12"/>
       <c r="B736" s="12"/>
       <c r="C736" s="12"/>
@@ -21566,7 +21577,7 @@
       <c r="X736" s="1"/>
       <c r="Y736" s="1"/>
     </row>
-    <row r="737" spans="1:25" ht="12.75">
+    <row r="737" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A737" s="12"/>
       <c r="B737" s="12"/>
       <c r="C737" s="12"/>
@@ -21593,7 +21604,7 @@
       <c r="X737" s="1"/>
       <c r="Y737" s="1"/>
     </row>
-    <row r="738" spans="1:25" ht="12.75">
+    <row r="738" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A738" s="12"/>
       <c r="B738" s="12"/>
       <c r="C738" s="12"/>
@@ -21620,7 +21631,7 @@
       <c r="X738" s="1"/>
       <c r="Y738" s="1"/>
     </row>
-    <row r="739" spans="1:25" ht="12.75">
+    <row r="739" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A739" s="12"/>
       <c r="B739" s="12"/>
       <c r="C739" s="12"/>
@@ -21647,7 +21658,7 @@
       <c r="X739" s="1"/>
       <c r="Y739" s="1"/>
     </row>
-    <row r="740" spans="1:25" ht="12.75">
+    <row r="740" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A740" s="12"/>
       <c r="B740" s="12"/>
       <c r="C740" s="12"/>
@@ -21674,7 +21685,7 @@
       <c r="X740" s="1"/>
       <c r="Y740" s="1"/>
     </row>
-    <row r="741" spans="1:25" ht="12.75">
+    <row r="741" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A741" s="12"/>
       <c r="B741" s="12"/>
       <c r="C741" s="12"/>
@@ -21701,7 +21712,7 @@
       <c r="X741" s="1"/>
       <c r="Y741" s="1"/>
     </row>
-    <row r="742" spans="1:25" ht="12.75">
+    <row r="742" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A742" s="12"/>
       <c r="B742" s="12"/>
       <c r="C742" s="12"/>
@@ -21728,7 +21739,7 @@
       <c r="X742" s="1"/>
       <c r="Y742" s="1"/>
     </row>
-    <row r="743" spans="1:25" ht="12.75">
+    <row r="743" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A743" s="12"/>
       <c r="B743" s="12"/>
       <c r="C743" s="12"/>
@@ -21755,7 +21766,7 @@
       <c r="X743" s="1"/>
       <c r="Y743" s="1"/>
     </row>
-    <row r="744" spans="1:25" ht="12.75">
+    <row r="744" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A744" s="12"/>
       <c r="B744" s="12"/>
       <c r="C744" s="12"/>
@@ -21782,7 +21793,7 @@
       <c r="X744" s="1"/>
       <c r="Y744" s="1"/>
     </row>
-    <row r="745" spans="1:25" ht="12.75">
+    <row r="745" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A745" s="12"/>
       <c r="B745" s="12"/>
       <c r="C745" s="12"/>
@@ -21809,7 +21820,7 @@
       <c r="X745" s="1"/>
       <c r="Y745" s="1"/>
     </row>
-    <row r="746" spans="1:25" ht="12.75">
+    <row r="746" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A746" s="12"/>
       <c r="B746" s="12"/>
       <c r="C746" s="12"/>
@@ -21836,7 +21847,7 @@
       <c r="X746" s="1"/>
       <c r="Y746" s="1"/>
     </row>
-    <row r="747" spans="1:25" ht="12.75">
+    <row r="747" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A747" s="12"/>
       <c r="B747" s="12"/>
       <c r="C747" s="12"/>
@@ -21863,7 +21874,7 @@
       <c r="X747" s="1"/>
       <c r="Y747" s="1"/>
     </row>
-    <row r="748" spans="1:25" ht="12.75">
+    <row r="748" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A748" s="12"/>
       <c r="B748" s="12"/>
       <c r="C748" s="12"/>
@@ -21890,7 +21901,7 @@
       <c r="X748" s="1"/>
       <c r="Y748" s="1"/>
     </row>
-    <row r="749" spans="1:25" ht="12.75">
+    <row r="749" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A749" s="12"/>
       <c r="B749" s="12"/>
       <c r="C749" s="12"/>
@@ -21917,7 +21928,7 @@
       <c r="X749" s="1"/>
       <c r="Y749" s="1"/>
     </row>
-    <row r="750" spans="1:25" ht="12.75">
+    <row r="750" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A750" s="12"/>
       <c r="B750" s="12"/>
       <c r="C750" s="12"/>
@@ -21944,7 +21955,7 @@
       <c r="X750" s="1"/>
       <c r="Y750" s="1"/>
     </row>
-    <row r="751" spans="1:25" ht="12.75">
+    <row r="751" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A751" s="12"/>
       <c r="B751" s="12"/>
       <c r="C751" s="12"/>
@@ -21971,7 +21982,7 @@
       <c r="X751" s="1"/>
       <c r="Y751" s="1"/>
     </row>
-    <row r="752" spans="1:25" ht="12.75">
+    <row r="752" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A752" s="12"/>
       <c r="B752" s="12"/>
       <c r="C752" s="12"/>
@@ -21998,7 +22009,7 @@
       <c r="X752" s="1"/>
       <c r="Y752" s="1"/>
     </row>
-    <row r="753" spans="1:25" ht="12.75">
+    <row r="753" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A753" s="12"/>
       <c r="B753" s="12"/>
       <c r="C753" s="12"/>
@@ -22025,7 +22036,7 @@
       <c r="X753" s="1"/>
       <c r="Y753" s="1"/>
     </row>
-    <row r="754" spans="1:25" ht="12.75">
+    <row r="754" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A754" s="12"/>
       <c r="B754" s="12"/>
       <c r="C754" s="12"/>
@@ -22052,7 +22063,7 @@
       <c r="X754" s="1"/>
       <c r="Y754" s="1"/>
     </row>
-    <row r="755" spans="1:25" ht="12.75">
+    <row r="755" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A755" s="12"/>
       <c r="B755" s="12"/>
       <c r="C755" s="12"/>
@@ -22079,7 +22090,7 @@
       <c r="X755" s="1"/>
       <c r="Y755" s="1"/>
     </row>
-    <row r="756" spans="1:25" ht="12.75">
+    <row r="756" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A756" s="12"/>
       <c r="B756" s="12"/>
       <c r="C756" s="12"/>
@@ -22106,7 +22117,7 @@
       <c r="X756" s="1"/>
       <c r="Y756" s="1"/>
     </row>
-    <row r="757" spans="1:25" ht="12.75">
+    <row r="757" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A757" s="12"/>
       <c r="B757" s="12"/>
       <c r="C757" s="12"/>
@@ -22133,7 +22144,7 @@
       <c r="X757" s="1"/>
       <c r="Y757" s="1"/>
     </row>
-    <row r="758" spans="1:25" ht="12.75">
+    <row r="758" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A758" s="12"/>
       <c r="B758" s="12"/>
       <c r="C758" s="12"/>
@@ -22160,7 +22171,7 @@
       <c r="X758" s="1"/>
       <c r="Y758" s="1"/>
     </row>
-    <row r="759" spans="1:25" ht="12.75">
+    <row r="759" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A759" s="12"/>
       <c r="B759" s="12"/>
       <c r="C759" s="12"/>
@@ -22187,7 +22198,7 @@
       <c r="X759" s="1"/>
       <c r="Y759" s="1"/>
     </row>
-    <row r="760" spans="1:25" ht="12.75">
+    <row r="760" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A760" s="12"/>
       <c r="B760" s="12"/>
       <c r="C760" s="12"/>
@@ -22214,7 +22225,7 @@
       <c r="X760" s="1"/>
       <c r="Y760" s="1"/>
     </row>
-    <row r="761" spans="1:25" ht="12.75">
+    <row r="761" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A761" s="12"/>
       <c r="B761" s="12"/>
       <c r="C761" s="12"/>
@@ -22241,7 +22252,7 @@
       <c r="X761" s="1"/>
       <c r="Y761" s="1"/>
     </row>
-    <row r="762" spans="1:25" ht="12.75">
+    <row r="762" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A762" s="12"/>
       <c r="B762" s="12"/>
       <c r="C762" s="12"/>
@@ -22268,7 +22279,7 @@
       <c r="X762" s="1"/>
       <c r="Y762" s="1"/>
     </row>
-    <row r="763" spans="1:25" ht="12.75">
+    <row r="763" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A763" s="12"/>
       <c r="B763" s="12"/>
       <c r="C763" s="12"/>
@@ -22295,7 +22306,7 @@
       <c r="X763" s="1"/>
       <c r="Y763" s="1"/>
     </row>
-    <row r="764" spans="1:25" ht="12.75">
+    <row r="764" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A764" s="12"/>
       <c r="B764" s="12"/>
       <c r="C764" s="12"/>
@@ -22322,7 +22333,7 @@
       <c r="X764" s="1"/>
       <c r="Y764" s="1"/>
     </row>
-    <row r="765" spans="1:25" ht="12.75">
+    <row r="765" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A765" s="12"/>
       <c r="B765" s="12"/>
       <c r="C765" s="12"/>
@@ -22349,7 +22360,7 @@
       <c r="X765" s="1"/>
       <c r="Y765" s="1"/>
     </row>
-    <row r="766" spans="1:25" ht="12.75">
+    <row r="766" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A766" s="12"/>
       <c r="B766" s="12"/>
       <c r="C766" s="12"/>
@@ -22376,7 +22387,7 @@
       <c r="X766" s="1"/>
       <c r="Y766" s="1"/>
     </row>
-    <row r="767" spans="1:25" ht="12.75">
+    <row r="767" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A767" s="12"/>
       <c r="B767" s="12"/>
       <c r="C767" s="12"/>
@@ -22403,7 +22414,7 @@
       <c r="X767" s="1"/>
       <c r="Y767" s="1"/>
     </row>
-    <row r="768" spans="1:25" ht="12.75">
+    <row r="768" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A768" s="12"/>
       <c r="B768" s="12"/>
       <c r="C768" s="12"/>
@@ -22430,7 +22441,7 @@
       <c r="X768" s="1"/>
       <c r="Y768" s="1"/>
     </row>
-    <row r="769" spans="1:25" ht="12.75">
+    <row r="769" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A769" s="12"/>
       <c r="B769" s="12"/>
       <c r="C769" s="12"/>
@@ -22457,7 +22468,7 @@
       <c r="X769" s="1"/>
       <c r="Y769" s="1"/>
     </row>
-    <row r="770" spans="1:25" ht="12.75">
+    <row r="770" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A770" s="12"/>
       <c r="B770" s="12"/>
       <c r="C770" s="12"/>
@@ -22484,7 +22495,7 @@
       <c r="X770" s="1"/>
       <c r="Y770" s="1"/>
     </row>
-    <row r="771" spans="1:25" ht="12.75">
+    <row r="771" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A771" s="12"/>
       <c r="B771" s="12"/>
       <c r="C771" s="12"/>
@@ -22511,7 +22522,7 @@
       <c r="X771" s="1"/>
       <c r="Y771" s="1"/>
     </row>
-    <row r="772" spans="1:25" ht="12.75">
+    <row r="772" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A772" s="12"/>
       <c r="B772" s="12"/>
       <c r="C772" s="12"/>
@@ -22538,7 +22549,7 @@
       <c r="X772" s="1"/>
       <c r="Y772" s="1"/>
     </row>
-    <row r="773" spans="1:25" ht="12.75">
+    <row r="773" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A773" s="12"/>
       <c r="B773" s="12"/>
       <c r="C773" s="12"/>
@@ -22565,7 +22576,7 @@
       <c r="X773" s="1"/>
       <c r="Y773" s="1"/>
     </row>
-    <row r="774" spans="1:25" ht="12.75">
+    <row r="774" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A774" s="12"/>
       <c r="B774" s="12"/>
       <c r="C774" s="12"/>
@@ -22592,7 +22603,7 @@
       <c r="X774" s="1"/>
       <c r="Y774" s="1"/>
     </row>
-    <row r="775" spans="1:25" ht="12.75">
+    <row r="775" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A775" s="12"/>
       <c r="B775" s="12"/>
       <c r="C775" s="12"/>
@@ -22619,7 +22630,7 @@
       <c r="X775" s="1"/>
       <c r="Y775" s="1"/>
     </row>
-    <row r="776" spans="1:25" ht="12.75">
+    <row r="776" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A776" s="12"/>
       <c r="B776" s="12"/>
       <c r="C776" s="12"/>
@@ -22646,7 +22657,7 @@
       <c r="X776" s="1"/>
       <c r="Y776" s="1"/>
     </row>
-    <row r="777" spans="1:25" ht="12.75">
+    <row r="777" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A777" s="12"/>
       <c r="B777" s="12"/>
       <c r="C777" s="12"/>
@@ -22673,7 +22684,7 @@
       <c r="X777" s="1"/>
       <c r="Y777" s="1"/>
     </row>
-    <row r="778" spans="1:25" ht="12.75">
+    <row r="778" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A778" s="12"/>
       <c r="B778" s="12"/>
       <c r="C778" s="12"/>
@@ -22700,7 +22711,7 @@
       <c r="X778" s="1"/>
       <c r="Y778" s="1"/>
     </row>
-    <row r="779" spans="1:25" ht="12.75">
+    <row r="779" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A779" s="12"/>
       <c r="B779" s="12"/>
       <c r="C779" s="12"/>
@@ -22727,7 +22738,7 @@
       <c r="X779" s="1"/>
       <c r="Y779" s="1"/>
     </row>
-    <row r="780" spans="1:25" ht="12.75">
+    <row r="780" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A780" s="12"/>
       <c r="B780" s="12"/>
       <c r="C780" s="12"/>
@@ -22754,7 +22765,7 @@
       <c r="X780" s="1"/>
       <c r="Y780" s="1"/>
     </row>
-    <row r="781" spans="1:25" ht="12.75">
+    <row r="781" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A781" s="12"/>
       <c r="B781" s="12"/>
       <c r="C781" s="12"/>
@@ -22781,7 +22792,7 @@
       <c r="X781" s="1"/>
       <c r="Y781" s="1"/>
     </row>
-    <row r="782" spans="1:25" ht="12.75">
+    <row r="782" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A782" s="12"/>
       <c r="B782" s="12"/>
       <c r="C782" s="12"/>
@@ -22808,7 +22819,7 @@
       <c r="X782" s="1"/>
       <c r="Y782" s="1"/>
     </row>
-    <row r="783" spans="1:25" ht="12.75">
+    <row r="783" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A783" s="12"/>
       <c r="B783" s="12"/>
       <c r="C783" s="12"/>
@@ -22835,7 +22846,7 @@
       <c r="X783" s="1"/>
       <c r="Y783" s="1"/>
     </row>
-    <row r="784" spans="1:25" ht="12.75">
+    <row r="784" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A784" s="12"/>
       <c r="B784" s="12"/>
       <c r="C784" s="12"/>
@@ -22862,7 +22873,7 @@
       <c r="X784" s="1"/>
       <c r="Y784" s="1"/>
     </row>
-    <row r="785" spans="1:25" ht="12.75">
+    <row r="785" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A785" s="12"/>
       <c r="B785" s="12"/>
       <c r="C785" s="12"/>
@@ -22889,7 +22900,7 @@
       <c r="X785" s="1"/>
       <c r="Y785" s="1"/>
     </row>
-    <row r="786" spans="1:25" ht="12.75">
+    <row r="786" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A786" s="12"/>
       <c r="B786" s="12"/>
       <c r="C786" s="12"/>
@@ -22916,7 +22927,7 @@
       <c r="X786" s="1"/>
       <c r="Y786" s="1"/>
     </row>
-    <row r="787" spans="1:25" ht="12.75">
+    <row r="787" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A787" s="12"/>
       <c r="B787" s="12"/>
       <c r="C787" s="12"/>
@@ -22943,7 +22954,7 @@
       <c r="X787" s="1"/>
       <c r="Y787" s="1"/>
     </row>
-    <row r="788" spans="1:25" ht="12.75">
+    <row r="788" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A788" s="12"/>
       <c r="B788" s="12"/>
       <c r="C788" s="12"/>
@@ -22970,7 +22981,7 @@
       <c r="X788" s="1"/>
       <c r="Y788" s="1"/>
     </row>
-    <row r="789" spans="1:25" ht="12.75">
+    <row r="789" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A789" s="12"/>
       <c r="B789" s="12"/>
       <c r="C789" s="12"/>
@@ -22997,7 +23008,7 @@
       <c r="X789" s="1"/>
       <c r="Y789" s="1"/>
     </row>
-    <row r="790" spans="1:25" ht="12.75">
+    <row r="790" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A790" s="12"/>
       <c r="B790" s="12"/>
       <c r="C790" s="12"/>
@@ -23024,7 +23035,7 @@
       <c r="X790" s="1"/>
       <c r="Y790" s="1"/>
     </row>
-    <row r="791" spans="1:25" ht="12.75">
+    <row r="791" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A791" s="12"/>
       <c r="B791" s="12"/>
       <c r="C791" s="12"/>
@@ -23051,7 +23062,7 @@
       <c r="X791" s="1"/>
       <c r="Y791" s="1"/>
     </row>
-    <row r="792" spans="1:25" ht="12.75">
+    <row r="792" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A792" s="12"/>
       <c r="B792" s="12"/>
       <c r="C792" s="12"/>
@@ -23078,7 +23089,7 @@
       <c r="X792" s="1"/>
       <c r="Y792" s="1"/>
     </row>
-    <row r="793" spans="1:25" ht="12.75">
+    <row r="793" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A793" s="12"/>
       <c r="B793" s="12"/>
       <c r="C793" s="12"/>
@@ -23105,7 +23116,7 @@
       <c r="X793" s="1"/>
       <c r="Y793" s="1"/>
     </row>
-    <row r="794" spans="1:25" ht="12.75">
+    <row r="794" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A794" s="12"/>
       <c r="B794" s="12"/>
       <c r="C794" s="12"/>
@@ -23132,7 +23143,7 @@
       <c r="X794" s="1"/>
       <c r="Y794" s="1"/>
     </row>
-    <row r="795" spans="1:25" ht="12.75">
+    <row r="795" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A795" s="12"/>
       <c r="B795" s="12"/>
       <c r="C795" s="12"/>
@@ -23159,7 +23170,7 @@
       <c r="X795" s="1"/>
       <c r="Y795" s="1"/>
     </row>
-    <row r="796" spans="1:25" ht="12.75">
+    <row r="796" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A796" s="12"/>
       <c r="B796" s="12"/>
       <c r="C796" s="12"/>
@@ -23186,7 +23197,7 @@
       <c r="X796" s="1"/>
       <c r="Y796" s="1"/>
     </row>
-    <row r="797" spans="1:25" ht="12.75">
+    <row r="797" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A797" s="12"/>
       <c r="B797" s="12"/>
       <c r="C797" s="12"/>
@@ -23213,7 +23224,7 @@
       <c r="X797" s="1"/>
       <c r="Y797" s="1"/>
     </row>
-    <row r="798" spans="1:25" ht="12.75">
+    <row r="798" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A798" s="12"/>
       <c r="B798" s="12"/>
       <c r="C798" s="12"/>
@@ -23240,7 +23251,7 @@
       <c r="X798" s="1"/>
       <c r="Y798" s="1"/>
     </row>
-    <row r="799" spans="1:25" ht="12.75">
+    <row r="799" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A799" s="12"/>
       <c r="B799" s="12"/>
       <c r="C799" s="12"/>
@@ -23267,7 +23278,7 @@
       <c r="X799" s="1"/>
       <c r="Y799" s="1"/>
     </row>
-    <row r="800" spans="1:25" ht="12.75">
+    <row r="800" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A800" s="12"/>
       <c r="B800" s="12"/>
       <c r="C800" s="12"/>
@@ -23294,7 +23305,7 @@
       <c r="X800" s="1"/>
       <c r="Y800" s="1"/>
     </row>
-    <row r="801" spans="1:25" ht="12.75">
+    <row r="801" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A801" s="12"/>
       <c r="B801" s="12"/>
       <c r="C801" s="12"/>
@@ -23321,7 +23332,7 @@
       <c r="X801" s="1"/>
       <c r="Y801" s="1"/>
     </row>
-    <row r="802" spans="1:25" ht="12.75">
+    <row r="802" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A802" s="12"/>
       <c r="B802" s="12"/>
       <c r="C802" s="12"/>
@@ -23348,7 +23359,7 @@
       <c r="X802" s="1"/>
       <c r="Y802" s="1"/>
     </row>
-    <row r="803" spans="1:25" ht="12.75">
+    <row r="803" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A803" s="12"/>
       <c r="B803" s="12"/>
       <c r="C803" s="12"/>
@@ -23375,7 +23386,7 @@
       <c r="X803" s="1"/>
       <c r="Y803" s="1"/>
     </row>
-    <row r="804" spans="1:25" ht="12.75">
+    <row r="804" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A804" s="12"/>
       <c r="B804" s="12"/>
       <c r="C804" s="12"/>
@@ -23402,7 +23413,7 @@
       <c r="X804" s="1"/>
       <c r="Y804" s="1"/>
     </row>
-    <row r="805" spans="1:25" ht="12.75">
+    <row r="805" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A805" s="12"/>
       <c r="B805" s="12"/>
       <c r="C805" s="12"/>
@@ -23429,7 +23440,7 @@
       <c r="X805" s="1"/>
       <c r="Y805" s="1"/>
     </row>
-    <row r="806" spans="1:25" ht="12.75">
+    <row r="806" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A806" s="12"/>
       <c r="B806" s="12"/>
       <c r="C806" s="12"/>
@@ -23456,7 +23467,7 @@
       <c r="X806" s="1"/>
       <c r="Y806" s="1"/>
     </row>
-    <row r="807" spans="1:25" ht="12.75">
+    <row r="807" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A807" s="12"/>
       <c r="B807" s="12"/>
       <c r="C807" s="12"/>
@@ -23483,7 +23494,7 @@
       <c r="X807" s="1"/>
       <c r="Y807" s="1"/>
     </row>
-    <row r="808" spans="1:25" ht="12.75">
+    <row r="808" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A808" s="12"/>
       <c r="B808" s="12"/>
       <c r="C808" s="12"/>
@@ -23510,7 +23521,7 @@
       <c r="X808" s="1"/>
       <c r="Y808" s="1"/>
     </row>
-    <row r="809" spans="1:25" ht="12.75">
+    <row r="809" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A809" s="12"/>
       <c r="B809" s="12"/>
       <c r="C809" s="12"/>
@@ -23537,7 +23548,7 @@
       <c r="X809" s="1"/>
       <c r="Y809" s="1"/>
     </row>
-    <row r="810" spans="1:25" ht="12.75">
+    <row r="810" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A810" s="12"/>
       <c r="B810" s="12"/>
       <c r="C810" s="12"/>
@@ -23564,7 +23575,7 @@
       <c r="X810" s="1"/>
       <c r="Y810" s="1"/>
     </row>
-    <row r="811" spans="1:25" ht="12.75">
+    <row r="811" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A811" s="12"/>
       <c r="B811" s="12"/>
       <c r="C811" s="12"/>
@@ -23591,7 +23602,7 @@
       <c r="X811" s="1"/>
       <c r="Y811" s="1"/>
     </row>
-    <row r="812" spans="1:25" ht="12.75">
+    <row r="812" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A812" s="12"/>
       <c r="B812" s="12"/>
       <c r="C812" s="12"/>
@@ -23618,7 +23629,7 @@
       <c r="X812" s="1"/>
       <c r="Y812" s="1"/>
     </row>
-    <row r="813" spans="1:25" ht="12.75">
+    <row r="813" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A813" s="12"/>
       <c r="B813" s="12"/>
       <c r="C813" s="12"/>
@@ -23645,7 +23656,7 @@
       <c r="X813" s="1"/>
       <c r="Y813" s="1"/>
     </row>
-    <row r="814" spans="1:25" ht="12.75">
+    <row r="814" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A814" s="12"/>
       <c r="B814" s="12"/>
       <c r="C814" s="12"/>
@@ -23672,7 +23683,7 @@
       <c r="X814" s="1"/>
       <c r="Y814" s="1"/>
     </row>
-    <row r="815" spans="1:25" ht="12.75">
+    <row r="815" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A815" s="12"/>
       <c r="B815" s="12"/>
       <c r="C815" s="12"/>
@@ -23699,7 +23710,7 @@
       <c r="X815" s="1"/>
       <c r="Y815" s="1"/>
     </row>
-    <row r="816" spans="1:25" ht="12.75">
+    <row r="816" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A816" s="12"/>
       <c r="B816" s="12"/>
       <c r="C816" s="12"/>
@@ -23726,7 +23737,7 @@
       <c r="X816" s="1"/>
       <c r="Y816" s="1"/>
     </row>
-    <row r="817" spans="1:25" ht="12.75">
+    <row r="817" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A817" s="12"/>
       <c r="B817" s="12"/>
       <c r="C817" s="12"/>
@@ -23753,7 +23764,7 @@
       <c r="X817" s="1"/>
       <c r="Y817" s="1"/>
     </row>
-    <row r="818" spans="1:25" ht="12.75">
+    <row r="818" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A818" s="12"/>
       <c r="B818" s="12"/>
       <c r="C818" s="12"/>
@@ -23780,7 +23791,7 @@
       <c r="X818" s="1"/>
       <c r="Y818" s="1"/>
     </row>
-    <row r="819" spans="1:25" ht="12.75">
+    <row r="819" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A819" s="12"/>
       <c r="B819" s="12"/>
       <c r="C819" s="12"/>
@@ -23807,7 +23818,7 @@
       <c r="X819" s="1"/>
       <c r="Y819" s="1"/>
     </row>
-    <row r="820" spans="1:25" ht="12.75">
+    <row r="820" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A820" s="12"/>
       <c r="B820" s="12"/>
       <c r="C820" s="12"/>
@@ -23834,7 +23845,7 @@
       <c r="X820" s="1"/>
       <c r="Y820" s="1"/>
     </row>
-    <row r="821" spans="1:25" ht="12.75">
+    <row r="821" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A821" s="12"/>
       <c r="B821" s="12"/>
       <c r="C821" s="12"/>
@@ -23861,7 +23872,7 @@
       <c r="X821" s="1"/>
       <c r="Y821" s="1"/>
     </row>
-    <row r="822" spans="1:25" ht="12.75">
+    <row r="822" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A822" s="12"/>
       <c r="B822" s="12"/>
       <c r="C822" s="12"/>
@@ -23888,7 +23899,7 @@
       <c r="X822" s="1"/>
       <c r="Y822" s="1"/>
     </row>
-    <row r="823" spans="1:25" ht="12.75">
+    <row r="823" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A823" s="12"/>
       <c r="B823" s="12"/>
       <c r="C823" s="12"/>
@@ -23915,7 +23926,7 @@
       <c r="X823" s="1"/>
       <c r="Y823" s="1"/>
     </row>
-    <row r="824" spans="1:25" ht="12.75">
+    <row r="824" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A824" s="12"/>
       <c r="B824" s="12"/>
       <c r="C824" s="12"/>
@@ -23942,7 +23953,7 @@
       <c r="X824" s="1"/>
       <c r="Y824" s="1"/>
     </row>
-    <row r="825" spans="1:25" ht="12.75">
+    <row r="825" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A825" s="12"/>
       <c r="B825" s="12"/>
       <c r="C825" s="12"/>
@@ -23969,7 +23980,7 @@
       <c r="X825" s="1"/>
       <c r="Y825" s="1"/>
     </row>
-    <row r="826" spans="1:25" ht="12.75">
+    <row r="826" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A826" s="12"/>
       <c r="B826" s="12"/>
       <c r="C826" s="12"/>
@@ -23996,7 +24007,7 @@
       <c r="X826" s="1"/>
       <c r="Y826" s="1"/>
     </row>
-    <row r="827" spans="1:25" ht="12.75">
+    <row r="827" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A827" s="12"/>
       <c r="B827" s="12"/>
       <c r="C827" s="12"/>
@@ -24023,7 +24034,7 @@
       <c r="X827" s="1"/>
       <c r="Y827" s="1"/>
     </row>
-    <row r="828" spans="1:25" ht="12.75">
+    <row r="828" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A828" s="12"/>
       <c r="B828" s="12"/>
       <c r="C828" s="12"/>
@@ -24050,7 +24061,7 @@
       <c r="X828" s="1"/>
       <c r="Y828" s="1"/>
     </row>
-    <row r="829" spans="1:25" ht="12.75">
+    <row r="829" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A829" s="12"/>
       <c r="B829" s="12"/>
       <c r="C829" s="12"/>
@@ -24077,7 +24088,7 @@
       <c r="X829" s="1"/>
       <c r="Y829" s="1"/>
     </row>
-    <row r="830" spans="1:25" ht="12.75">
+    <row r="830" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A830" s="12"/>
       <c r="B830" s="12"/>
       <c r="C830" s="12"/>
@@ -24104,7 +24115,7 @@
       <c r="X830" s="1"/>
       <c r="Y830" s="1"/>
     </row>
-    <row r="831" spans="1:25" ht="12.75">
+    <row r="831" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A831" s="12"/>
       <c r="B831" s="12"/>
       <c r="C831" s="12"/>
@@ -24131,7 +24142,7 @@
       <c r="X831" s="1"/>
       <c r="Y831" s="1"/>
     </row>
-    <row r="832" spans="1:25" ht="12.75">
+    <row r="832" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A832" s="12"/>
       <c r="B832" s="12"/>
       <c r="C832" s="12"/>
@@ -24158,7 +24169,7 @@
       <c r="X832" s="1"/>
       <c r="Y832" s="1"/>
     </row>
-    <row r="833" spans="1:25" ht="12.75">
+    <row r="833" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A833" s="12"/>
       <c r="B833" s="12"/>
       <c r="C833" s="12"/>
@@ -24185,7 +24196,7 @@
       <c r="X833" s="1"/>
       <c r="Y833" s="1"/>
     </row>
-    <row r="834" spans="1:25" ht="12.75">
+    <row r="834" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A834" s="12"/>
       <c r="B834" s="12"/>
       <c r="C834" s="12"/>
@@ -24212,7 +24223,7 @@
       <c r="X834" s="1"/>
       <c r="Y834" s="1"/>
     </row>
-    <row r="835" spans="1:25" ht="12.75">
+    <row r="835" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A835" s="12"/>
       <c r="B835" s="12"/>
       <c r="C835" s="12"/>
@@ -24239,7 +24250,7 @@
       <c r="X835" s="1"/>
       <c r="Y835" s="1"/>
     </row>
-    <row r="836" spans="1:25" ht="12.75">
+    <row r="836" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A836" s="12"/>
       <c r="B836" s="12"/>
       <c r="C836" s="12"/>
@@ -24266,7 +24277,7 @@
       <c r="X836" s="1"/>
       <c r="Y836" s="1"/>
     </row>
-    <row r="837" spans="1:25" ht="12.75">
+    <row r="837" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A837" s="12"/>
       <c r="B837" s="12"/>
       <c r="C837" s="12"/>
@@ -24293,7 +24304,7 @@
       <c r="X837" s="1"/>
       <c r="Y837" s="1"/>
     </row>
-    <row r="838" spans="1:25" ht="12.75">
+    <row r="838" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A838" s="12"/>
       <c r="B838" s="12"/>
       <c r="C838" s="12"/>
@@ -24320,7 +24331,7 @@
       <c r="X838" s="1"/>
       <c r="Y838" s="1"/>
     </row>
-    <row r="839" spans="1:25" ht="12.75">
+    <row r="839" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A839" s="12"/>
       <c r="B839" s="12"/>
       <c r="C839" s="12"/>
@@ -24347,7 +24358,7 @@
       <c r="X839" s="1"/>
       <c r="Y839" s="1"/>
     </row>
-    <row r="840" spans="1:25" ht="12.75">
+    <row r="840" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A840" s="12"/>
       <c r="B840" s="12"/>
       <c r="C840" s="12"/>
@@ -24374,7 +24385,7 @@
       <c r="X840" s="1"/>
       <c r="Y840" s="1"/>
     </row>
-    <row r="841" spans="1:25" ht="12.75">
+    <row r="841" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A841" s="12"/>
       <c r="B841" s="12"/>
       <c r="C841" s="12"/>
@@ -24401,7 +24412,7 @@
       <c r="X841" s="1"/>
       <c r="Y841" s="1"/>
     </row>
-    <row r="842" spans="1:25" ht="12.75">
+    <row r="842" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A842" s="12"/>
       <c r="B842" s="12"/>
       <c r="C842" s="12"/>
@@ -24428,7 +24439,7 @@
       <c r="X842" s="1"/>
       <c r="Y842" s="1"/>
     </row>
-    <row r="843" spans="1:25" ht="12.75">
+    <row r="843" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A843" s="12"/>
       <c r="B843" s="12"/>
       <c r="C843" s="12"/>
@@ -24455,7 +24466,7 @@
       <c r="X843" s="1"/>
       <c r="Y843" s="1"/>
     </row>
-    <row r="844" spans="1:25" ht="12.75">
+    <row r="844" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A844" s="12"/>
       <c r="B844" s="12"/>
       <c r="C844" s="12"/>
@@ -24482,7 +24493,7 @@
       <c r="X844" s="1"/>
       <c r="Y844" s="1"/>
     </row>
-    <row r="845" spans="1:25" ht="12.75">
+    <row r="845" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A845" s="12"/>
       <c r="B845" s="12"/>
       <c r="C845" s="12"/>
@@ -24509,7 +24520,7 @@
       <c r="X845" s="1"/>
       <c r="Y845" s="1"/>
     </row>
-    <row r="846" spans="1:25" ht="12.75">
+    <row r="846" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A846" s="12"/>
       <c r="B846" s="12"/>
       <c r="C846" s="12"/>
@@ -24536,7 +24547,7 @@
       <c r="X846" s="1"/>
       <c r="Y846" s="1"/>
     </row>
-    <row r="847" spans="1:25" ht="12.75">
+    <row r="847" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A847" s="12"/>
       <c r="B847" s="12"/>
       <c r="C847" s="12"/>
@@ -24563,7 +24574,7 @@
       <c r="X847" s="1"/>
       <c r="Y847" s="1"/>
     </row>
-    <row r="848" spans="1:25" ht="12.75">
+    <row r="848" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A848" s="12"/>
       <c r="B848" s="12"/>
       <c r="C848" s="12"/>
@@ -24590,7 +24601,7 @@
       <c r="X848" s="1"/>
       <c r="Y848" s="1"/>
     </row>
-    <row r="849" spans="1:25" ht="12.75">
+    <row r="849" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A849" s="12"/>
       <c r="B849" s="12"/>
       <c r="C849" s="12"/>
@@ -24617,7 +24628,7 @@
       <c r="X849" s="1"/>
       <c r="Y849" s="1"/>
     </row>
-    <row r="850" spans="1:25" ht="12.75">
+    <row r="850" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A850" s="12"/>
       <c r="B850" s="12"/>
       <c r="C850" s="12"/>
@@ -24644,7 +24655,7 @@
       <c r="X850" s="1"/>
       <c r="Y850" s="1"/>
     </row>
-    <row r="851" spans="1:25" ht="12.75">
+    <row r="851" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A851" s="12"/>
       <c r="B851" s="12"/>
       <c r="C851" s="12"/>
@@ -24671,7 +24682,7 @@
       <c r="X851" s="1"/>
       <c r="Y851" s="1"/>
     </row>
-    <row r="852" spans="1:25" ht="12.75">
+    <row r="852" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A852" s="12"/>
       <c r="B852" s="12"/>
       <c r="C852" s="12"/>
@@ -24698,7 +24709,7 @@
       <c r="X852" s="1"/>
       <c r="Y852" s="1"/>
     </row>
-    <row r="853" spans="1:25" ht="12.75">
+    <row r="853" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A853" s="12"/>
       <c r="B853" s="12"/>
       <c r="C853" s="12"/>
@@ -24725,7 +24736,7 @@
       <c r="X853" s="1"/>
       <c r="Y853" s="1"/>
     </row>
-    <row r="854" spans="1:25" ht="12.75">
+    <row r="854" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A854" s="12"/>
       <c r="B854" s="12"/>
       <c r="C854" s="12"/>
@@ -24752,7 +24763,7 @@
       <c r="X854" s="1"/>
       <c r="Y854" s="1"/>
     </row>
-    <row r="855" spans="1:25" ht="12.75">
+    <row r="855" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A855" s="12"/>
       <c r="B855" s="12"/>
       <c r="C855" s="12"/>
@@ -24785,6 +24796,16 @@
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
   <mergeCells count="26">
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="J12:J13"/>
@@ -24801,16 +24822,6 @@
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="I14:I1048576">
     <cfRule type="containsText" dxfId="17" priority="22" operator="containsText" text="HASI GABE">

--- a/0.1- PLANIFIKAZIOA/TSB EGUNEROKOA.xlsx
+++ b/0.1- PLANIFIKAZIOA/TSB EGUNEROKOA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikaltamirapaag2\Desktop\ERRONKA TSB RETURNS\0.1- PLANIFIKAZIOA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikaltamirapaag2\Documents\GitHub\ERRONKA-TSB-RETURNS\0.1- PLANIFIKAZIOA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12312"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Planifikazioa" sheetId="3" r:id="rId1"/>
@@ -186,7 +186,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -911,6 +911,41 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -930,15 +965,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
@@ -969,32 +995,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1488,34 +1488,34 @@
   <dimension ref="A1:Y855"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.44140625" style="15"/>
-    <col min="6" max="6" width="20.44140625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="31.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="15"/>
-    <col min="9" max="9" width="22.88671875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="27.6640625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14.42578125" style="15"/>
+    <col min="6" max="6" width="20.42578125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="15"/>
+    <col min="9" max="9" width="22.85546875" style="15" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="34.799999999999997" x14ac:dyDescent="0.7">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:25" ht="23.25">
+      <c r="A1" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
       <c r="G1" s="16"/>
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
-      <c r="J1" s="43"/>
+      <c r="J1" s="58"/>
       <c r="K1" s="2"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1532,19 +1532,19 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="34.799999999999997" x14ac:dyDescent="1.2">
-      <c r="A2" s="68" t="s">
+    <row r="2" spans="1:25" ht="23.25">
+      <c r="A2" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="44"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1561,17 +1561,17 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="45"/>
+    <row r="3" spans="1:25" ht="60" customHeight="1" thickBot="1">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="60"/>
       <c r="K3" s="2"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1588,7 +1588,7 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:25" ht="12.75">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1615,18 +1615,18 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A5" s="72" t="s">
+    <row r="5" spans="1:25" ht="18.75" thickBot="1">
+      <c r="A5" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
       <c r="J5" s="6"/>
       <c r="K5" s="2"/>
       <c r="L5" s="1"/>
@@ -1644,22 +1644,22 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A6" s="64" t="s">
+    <row r="6" spans="1:25" ht="13.5" thickBot="1">
+      <c r="A6" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="67" t="s">
+      <c r="B6" s="77"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="67" t="s">
+      <c r="E6" s="77"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="65"/>
-      <c r="I6" s="66"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="78"/>
       <c r="J6" s="42" t="s">
         <v>17</v>
       </c>
@@ -1679,22 +1679,22 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="74" t="s">
+    <row r="7" spans="1:25" ht="14.45" customHeight="1">
+      <c r="A7" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="74" t="s">
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="74" t="s">
+      <c r="E7" s="53"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="75"/>
-      <c r="I7" s="76"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54"/>
       <c r="J7" s="39" t="s">
         <v>21</v>
       </c>
@@ -1714,20 +1714,20 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="77" t="s">
+    <row r="8" spans="1:25" ht="13.9" customHeight="1">
+      <c r="A8" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="77" t="s">
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="78"/>
-      <c r="I8" s="79"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="57"/>
       <c r="J8" s="40" t="s">
         <v>23</v>
       </c>
@@ -1747,20 +1747,20 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="50" t="s">
+    <row r="9" spans="1:25" ht="13.9" customHeight="1" thickBot="1">
+      <c r="A9" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="50" t="s">
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="52"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="45"/>
       <c r="J9" s="41" t="s">
         <v>25</v>
       </c>
@@ -1780,18 +1780,18 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:25" ht="13.5" thickBot="1">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="53" t="s">
+      <c r="G10" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="67"/>
       <c r="J10" s="11"/>
       <c r="K10" s="2"/>
       <c r="L10" s="1"/>
@@ -1809,7 +1809,7 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" ht="14.25" thickTop="1" thickBot="1">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1836,31 +1836,31 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
-      <c r="A12" s="56" t="s">
+    <row r="12" spans="1:25" ht="12.75">
+      <c r="A12" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="58" t="s">
+      <c r="E12" s="73"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="63" t="s">
+      <c r="H12" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="58" t="s">
+      <c r="I12" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="48" t="s">
+      <c r="J12" s="63" t="s">
         <v>9</v>
       </c>
       <c r="K12" s="1"/>
@@ -1879,10 +1879,10 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A13" s="57"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
+    <row r="13" spans="1:25" ht="13.5" thickBot="1">
+      <c r="A13" s="69"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
       <c r="D13" s="14" t="s">
         <v>4</v>
       </c>
@@ -1892,10 +1892,10 @@
       <c r="F13" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="49"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="64"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="1"/>
@@ -1912,7 +1912,7 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A14" s="18" t="s">
         <v>34</v>
       </c>
@@ -1949,7 +1949,7 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A15" s="18" t="s">
         <v>34</v>
       </c>
@@ -1986,7 +1986,7 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A16" s="18" t="s">
         <v>34</v>
       </c>
@@ -2023,7 +2023,7 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A17" s="18" t="s">
         <v>34</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>30</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="2"/>
@@ -2060,7 +2060,7 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A18" s="21" t="s">
         <v>34</v>
       </c>
@@ -2097,7 +2097,7 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A19" s="21" t="s">
         <v>34</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>30</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J19" s="20"/>
       <c r="K19" s="2"/>
@@ -2134,7 +2134,7 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A20" s="18"/>
       <c r="B20" s="34"/>
       <c r="C20" s="20"/>
@@ -2163,7 +2163,7 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A21" s="22"/>
       <c r="B21" s="35"/>
       <c r="C21" s="24"/>
@@ -2192,7 +2192,7 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A22" s="22"/>
       <c r="B22" s="35"/>
       <c r="C22" s="24"/>
@@ -2221,7 +2221,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A23" s="25"/>
       <c r="B23" s="35"/>
       <c r="C23" s="24"/>
@@ -2250,7 +2250,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A24" s="22"/>
       <c r="B24" s="35"/>
       <c r="C24" s="24"/>
@@ -2279,7 +2279,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A25" s="22"/>
       <c r="B25" s="35"/>
       <c r="C25" s="24"/>
@@ -2308,7 +2308,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A26" s="26"/>
       <c r="B26" s="35"/>
       <c r="C26" s="24"/>
@@ -2337,7 +2337,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A27" s="25"/>
       <c r="B27" s="35"/>
       <c r="C27" s="24"/>
@@ -2366,7 +2366,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A28" s="25"/>
       <c r="B28" s="36"/>
       <c r="C28" s="24"/>
@@ -2395,7 +2395,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A29" s="25"/>
       <c r="B29" s="36"/>
       <c r="C29" s="24"/>
@@ -2424,7 +2424,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A30" s="25"/>
       <c r="B30" s="36"/>
       <c r="C30" s="24"/>
@@ -2453,7 +2453,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A31" s="25"/>
       <c r="B31" s="36"/>
       <c r="C31" s="24"/>
@@ -2482,7 +2482,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A32" s="27"/>
       <c r="B32" s="37"/>
       <c r="C32" s="29"/>
@@ -2511,7 +2511,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A33" s="31"/>
       <c r="B33" s="38"/>
       <c r="C33" s="33"/>
@@ -2540,7 +2540,7 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A34" s="31"/>
       <c r="B34" s="38"/>
       <c r="C34" s="33"/>
@@ -2569,7 +2569,7 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A35" s="31"/>
       <c r="B35" s="38"/>
       <c r="C35" s="33"/>
@@ -2598,7 +2598,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A36" s="31"/>
       <c r="B36" s="38"/>
       <c r="C36" s="33"/>
@@ -2627,7 +2627,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A37" s="31"/>
       <c r="B37" s="38"/>
       <c r="C37" s="33"/>
@@ -2656,7 +2656,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A38" s="31"/>
       <c r="B38" s="38"/>
       <c r="C38" s="33"/>
@@ -2685,7 +2685,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A39" s="31"/>
       <c r="B39" s="38"/>
       <c r="C39" s="33"/>
@@ -2714,7 +2714,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A40" s="31"/>
       <c r="B40" s="38"/>
       <c r="C40" s="33"/>
@@ -2743,7 +2743,7 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A41" s="31"/>
       <c r="B41" s="38"/>
       <c r="C41" s="33"/>
@@ -2772,7 +2772,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A42" s="31"/>
       <c r="B42" s="38"/>
       <c r="C42" s="33"/>
@@ -2801,7 +2801,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A43" s="31"/>
       <c r="B43" s="38"/>
       <c r="C43" s="33"/>
@@ -2830,7 +2830,7 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A44" s="31"/>
       <c r="B44" s="38"/>
       <c r="C44" s="33"/>
@@ -2859,7 +2859,7 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A45" s="31"/>
       <c r="B45" s="38"/>
       <c r="C45" s="33"/>
@@ -2888,7 +2888,7 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A46" s="31"/>
       <c r="B46" s="38"/>
       <c r="C46" s="33"/>
@@ -2917,7 +2917,7 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A47" s="31"/>
       <c r="B47" s="38"/>
       <c r="C47" s="33"/>
@@ -2946,7 +2946,7 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A48" s="31"/>
       <c r="B48" s="38"/>
       <c r="C48" s="33"/>
@@ -2975,7 +2975,7 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A49" s="31"/>
       <c r="B49" s="38"/>
       <c r="C49" s="33"/>
@@ -3004,7 +3004,7 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A50" s="31"/>
       <c r="B50" s="38"/>
       <c r="C50" s="33"/>
@@ -3033,7 +3033,7 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
     </row>
-    <row r="51" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A51" s="31"/>
       <c r="B51" s="38"/>
       <c r="C51" s="33"/>
@@ -3062,7 +3062,7 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A52" s="31"/>
       <c r="B52" s="38"/>
       <c r="C52" s="33"/>
@@ -3091,7 +3091,7 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A53" s="31"/>
       <c r="B53" s="38"/>
       <c r="C53" s="33"/>
@@ -3120,7 +3120,7 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
     </row>
-    <row r="54" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A54" s="31"/>
       <c r="B54" s="38"/>
       <c r="C54" s="33"/>
@@ -3149,7 +3149,7 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
     </row>
-    <row r="55" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A55" s="31"/>
       <c r="B55" s="38"/>
       <c r="C55" s="33"/>
@@ -3178,7 +3178,7 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
     </row>
-    <row r="56" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A56" s="31"/>
       <c r="B56" s="38"/>
       <c r="C56" s="33"/>
@@ -3207,7 +3207,7 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
     </row>
-    <row r="57" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A57" s="31"/>
       <c r="B57" s="38"/>
       <c r="C57" s="33"/>
@@ -3236,7 +3236,7 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
     </row>
-    <row r="58" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A58" s="31"/>
       <c r="B58" s="38"/>
       <c r="C58" s="33"/>
@@ -3265,7 +3265,7 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
     </row>
-    <row r="59" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A59" s="31"/>
       <c r="B59" s="38"/>
       <c r="C59" s="33"/>
@@ -3294,7 +3294,7 @@
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
     </row>
-    <row r="60" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A60" s="31"/>
       <c r="B60" s="38"/>
       <c r="C60" s="33"/>
@@ -3323,7 +3323,7 @@
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
     </row>
-    <row r="61" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A61" s="31"/>
       <c r="B61" s="38"/>
       <c r="C61" s="33"/>
@@ -3352,7 +3352,7 @@
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
     </row>
-    <row r="62" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" ht="12.75">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
@@ -3379,7 +3379,7 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
     </row>
-    <row r="63" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" ht="12.75">
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
@@ -3406,7 +3406,7 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
     </row>
-    <row r="64" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" ht="12.75">
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
@@ -3433,7 +3433,7 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
     </row>
-    <row r="65" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" ht="12.75">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -3460,7 +3460,7 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
     </row>
-    <row r="66" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" ht="12.75">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
@@ -3487,7 +3487,7 @@
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
     </row>
-    <row r="67" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" ht="12.75">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
@@ -3514,7 +3514,7 @@
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
     </row>
-    <row r="68" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" ht="12.75">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
@@ -3541,7 +3541,7 @@
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
     </row>
-    <row r="69" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" ht="12.75">
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
@@ -3568,7 +3568,7 @@
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
     </row>
-    <row r="70" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" ht="12.75">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
@@ -3595,7 +3595,7 @@
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
     </row>
-    <row r="71" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" ht="12.75">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
@@ -3622,7 +3622,7 @@
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
     </row>
-    <row r="72" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" ht="12.75">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
@@ -3649,7 +3649,7 @@
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
     </row>
-    <row r="73" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" ht="12.75">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -3676,7 +3676,7 @@
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
     </row>
-    <row r="74" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" ht="12.75">
       <c r="A74" s="12"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
@@ -3703,7 +3703,7 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
     </row>
-    <row r="75" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" ht="12.75">
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
@@ -3730,7 +3730,7 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
     </row>
-    <row r="76" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" ht="12.75">
       <c r="A76" s="12"/>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
@@ -3757,7 +3757,7 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
     </row>
-    <row r="77" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" ht="12.75">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
@@ -3784,7 +3784,7 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
     </row>
-    <row r="78" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" ht="12.75">
       <c r="A78" s="12"/>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
@@ -3811,7 +3811,7 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
     </row>
-    <row r="79" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" ht="12.75">
       <c r="A79" s="12"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
@@ -3838,7 +3838,7 @@
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
     </row>
-    <row r="80" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" ht="12.75">
       <c r="A80" s="12"/>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
@@ -3865,7 +3865,7 @@
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
     </row>
-    <row r="81" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" ht="12.75">
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
@@ -3892,7 +3892,7 @@
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
     </row>
-    <row r="82" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" ht="12.75">
       <c r="A82" s="12"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
@@ -3919,7 +3919,7 @@
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
     </row>
-    <row r="83" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" ht="12.75">
       <c r="A83" s="12"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
@@ -3946,7 +3946,7 @@
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
     </row>
-    <row r="84" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" ht="12.75">
       <c r="A84" s="12"/>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
@@ -3973,7 +3973,7 @@
       <c r="X84" s="1"/>
       <c r="Y84" s="1"/>
     </row>
-    <row r="85" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" ht="12.75">
       <c r="A85" s="12"/>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
@@ -4000,7 +4000,7 @@
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
     </row>
-    <row r="86" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" ht="12.75">
       <c r="A86" s="12"/>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
@@ -4027,7 +4027,7 @@
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
     </row>
-    <row r="87" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" ht="12.75">
       <c r="A87" s="12"/>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
@@ -4054,7 +4054,7 @@
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
     </row>
-    <row r="88" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" ht="12.75">
       <c r="A88" s="12"/>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
@@ -4081,7 +4081,7 @@
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
     </row>
-    <row r="89" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" ht="12.75">
       <c r="A89" s="12"/>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
@@ -4108,7 +4108,7 @@
       <c r="X89" s="1"/>
       <c r="Y89" s="1"/>
     </row>
-    <row r="90" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" ht="12.75">
       <c r="A90" s="12"/>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
@@ -4135,7 +4135,7 @@
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
     </row>
-    <row r="91" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" ht="12.75">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
@@ -4162,7 +4162,7 @@
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
     </row>
-    <row r="92" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" ht="12.75">
       <c r="A92" s="12"/>
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
@@ -4189,7 +4189,7 @@
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
     </row>
-    <row r="93" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" ht="12.75">
       <c r="A93" s="12"/>
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
@@ -4216,7 +4216,7 @@
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
     </row>
-    <row r="94" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" ht="12.75">
       <c r="A94" s="12"/>
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
@@ -4243,7 +4243,7 @@
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
     </row>
-    <row r="95" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" ht="12.75">
       <c r="A95" s="12"/>
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
@@ -4270,7 +4270,7 @@
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
     </row>
-    <row r="96" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" ht="12.75">
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
@@ -4297,7 +4297,7 @@
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
     </row>
-    <row r="97" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" ht="12.75">
       <c r="A97" s="12"/>
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
@@ -4324,7 +4324,7 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
     </row>
-    <row r="98" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" ht="12.75">
       <c r="A98" s="12"/>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
@@ -4351,7 +4351,7 @@
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
     </row>
-    <row r="99" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" ht="12.75">
       <c r="A99" s="12"/>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
@@ -4378,7 +4378,7 @@
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
     </row>
-    <row r="100" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" ht="12.75">
       <c r="A100" s="12"/>
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
@@ -4405,7 +4405,7 @@
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
     </row>
-    <row r="101" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" ht="12.75">
       <c r="A101" s="12"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
@@ -4432,7 +4432,7 @@
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
     </row>
-    <row r="102" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" ht="12.75">
       <c r="A102" s="12"/>
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
@@ -4459,7 +4459,7 @@
       <c r="X102" s="1"/>
       <c r="Y102" s="1"/>
     </row>
-    <row r="103" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" ht="12.75">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
@@ -4486,7 +4486,7 @@
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
     </row>
-    <row r="104" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" ht="12.75">
       <c r="A104" s="12"/>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
@@ -4513,7 +4513,7 @@
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
     </row>
-    <row r="105" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" ht="12.75">
       <c r="A105" s="12"/>
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
@@ -4540,7 +4540,7 @@
       <c r="X105" s="1"/>
       <c r="Y105" s="1"/>
     </row>
-    <row r="106" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" ht="12.75">
       <c r="A106" s="12"/>
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
@@ -4567,7 +4567,7 @@
       <c r="X106" s="1"/>
       <c r="Y106" s="1"/>
     </row>
-    <row r="107" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" ht="12.75">
       <c r="A107" s="12"/>
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
@@ -4594,7 +4594,7 @@
       <c r="X107" s="1"/>
       <c r="Y107" s="1"/>
     </row>
-    <row r="108" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" ht="12.75">
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
       <c r="C108" s="12"/>
@@ -4621,7 +4621,7 @@
       <c r="X108" s="1"/>
       <c r="Y108" s="1"/>
     </row>
-    <row r="109" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" ht="12.75">
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
       <c r="C109" s="12"/>
@@ -4648,7 +4648,7 @@
       <c r="X109" s="1"/>
       <c r="Y109" s="1"/>
     </row>
-    <row r="110" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" ht="12.75">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
@@ -4675,7 +4675,7 @@
       <c r="X110" s="1"/>
       <c r="Y110" s="1"/>
     </row>
-    <row r="111" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" ht="12.75">
       <c r="A111" s="12"/>
       <c r="B111" s="12"/>
       <c r="C111" s="12"/>
@@ -4702,7 +4702,7 @@
       <c r="X111" s="1"/>
       <c r="Y111" s="1"/>
     </row>
-    <row r="112" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" ht="12.75">
       <c r="A112" s="12"/>
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
@@ -4729,7 +4729,7 @@
       <c r="X112" s="1"/>
       <c r="Y112" s="1"/>
     </row>
-    <row r="113" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" ht="12.75">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -4756,7 +4756,7 @@
       <c r="X113" s="1"/>
       <c r="Y113" s="1"/>
     </row>
-    <row r="114" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" ht="12.75">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -4783,7 +4783,7 @@
       <c r="X114" s="1"/>
       <c r="Y114" s="1"/>
     </row>
-    <row r="115" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" ht="12.75">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -4810,7 +4810,7 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
     </row>
-    <row r="116" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" ht="12.75">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -4837,7 +4837,7 @@
       <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
     </row>
-    <row r="117" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" ht="12.75">
       <c r="A117" s="12"/>
       <c r="B117" s="12"/>
       <c r="C117" s="12"/>
@@ -4864,7 +4864,7 @@
       <c r="X117" s="1"/>
       <c r="Y117" s="1"/>
     </row>
-    <row r="118" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" ht="12.75">
       <c r="A118" s="12"/>
       <c r="B118" s="12"/>
       <c r="C118" s="12"/>
@@ -4891,7 +4891,7 @@
       <c r="X118" s="1"/>
       <c r="Y118" s="1"/>
     </row>
-    <row r="119" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" ht="12.75">
       <c r="A119" s="12"/>
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
@@ -4918,7 +4918,7 @@
       <c r="X119" s="1"/>
       <c r="Y119" s="1"/>
     </row>
-    <row r="120" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" ht="12.75">
       <c r="A120" s="12"/>
       <c r="B120" s="12"/>
       <c r="C120" s="12"/>
@@ -4945,7 +4945,7 @@
       <c r="X120" s="1"/>
       <c r="Y120" s="1"/>
     </row>
-    <row r="121" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" ht="12.75">
       <c r="A121" s="12"/>
       <c r="B121" s="12"/>
       <c r="C121" s="12"/>
@@ -4972,7 +4972,7 @@
       <c r="X121" s="1"/>
       <c r="Y121" s="1"/>
     </row>
-    <row r="122" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" ht="12.75">
       <c r="A122" s="12"/>
       <c r="B122" s="12"/>
       <c r="C122" s="12"/>
@@ -4999,7 +4999,7 @@
       <c r="X122" s="1"/>
       <c r="Y122" s="1"/>
     </row>
-    <row r="123" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" ht="12.75">
       <c r="A123" s="12"/>
       <c r="B123" s="12"/>
       <c r="C123" s="12"/>
@@ -5026,7 +5026,7 @@
       <c r="X123" s="1"/>
       <c r="Y123" s="1"/>
     </row>
-    <row r="124" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" ht="12.75">
       <c r="A124" s="12"/>
       <c r="B124" s="12"/>
       <c r="C124" s="12"/>
@@ -5053,7 +5053,7 @@
       <c r="X124" s="1"/>
       <c r="Y124" s="1"/>
     </row>
-    <row r="125" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" ht="12.75">
       <c r="A125" s="12"/>
       <c r="B125" s="12"/>
       <c r="C125" s="12"/>
@@ -5080,7 +5080,7 @@
       <c r="X125" s="1"/>
       <c r="Y125" s="1"/>
     </row>
-    <row r="126" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" ht="12.75">
       <c r="A126" s="12"/>
       <c r="B126" s="12"/>
       <c r="C126" s="12"/>
@@ -5107,7 +5107,7 @@
       <c r="X126" s="1"/>
       <c r="Y126" s="1"/>
     </row>
-    <row r="127" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" ht="12.75">
       <c r="A127" s="12"/>
       <c r="B127" s="12"/>
       <c r="C127" s="12"/>
@@ -5134,7 +5134,7 @@
       <c r="X127" s="1"/>
       <c r="Y127" s="1"/>
     </row>
-    <row r="128" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" ht="12.75">
       <c r="A128" s="12"/>
       <c r="B128" s="12"/>
       <c r="C128" s="12"/>
@@ -5161,7 +5161,7 @@
       <c r="X128" s="1"/>
       <c r="Y128" s="1"/>
     </row>
-    <row r="129" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" ht="12.75">
       <c r="A129" s="12"/>
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
@@ -5188,7 +5188,7 @@
       <c r="X129" s="1"/>
       <c r="Y129" s="1"/>
     </row>
-    <row r="130" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" ht="12.75">
       <c r="A130" s="12"/>
       <c r="B130" s="12"/>
       <c r="C130" s="12"/>
@@ -5215,7 +5215,7 @@
       <c r="X130" s="1"/>
       <c r="Y130" s="1"/>
     </row>
-    <row r="131" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" ht="12.75">
       <c r="A131" s="12"/>
       <c r="B131" s="12"/>
       <c r="C131" s="12"/>
@@ -5242,7 +5242,7 @@
       <c r="X131" s="1"/>
       <c r="Y131" s="1"/>
     </row>
-    <row r="132" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" ht="12.75">
       <c r="A132" s="12"/>
       <c r="B132" s="12"/>
       <c r="C132" s="12"/>
@@ -5269,7 +5269,7 @@
       <c r="X132" s="1"/>
       <c r="Y132" s="1"/>
     </row>
-    <row r="133" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" ht="12.75">
       <c r="A133" s="12"/>
       <c r="B133" s="12"/>
       <c r="C133" s="12"/>
@@ -5296,7 +5296,7 @@
       <c r="X133" s="1"/>
       <c r="Y133" s="1"/>
     </row>
-    <row r="134" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25" ht="12.75">
       <c r="A134" s="12"/>
       <c r="B134" s="12"/>
       <c r="C134" s="12"/>
@@ -5323,7 +5323,7 @@
       <c r="X134" s="1"/>
       <c r="Y134" s="1"/>
     </row>
-    <row r="135" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" ht="12.75">
       <c r="A135" s="12"/>
       <c r="B135" s="12"/>
       <c r="C135" s="12"/>
@@ -5350,7 +5350,7 @@
       <c r="X135" s="1"/>
       <c r="Y135" s="1"/>
     </row>
-    <row r="136" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" ht="12.75">
       <c r="A136" s="12"/>
       <c r="B136" s="12"/>
       <c r="C136" s="12"/>
@@ -5377,7 +5377,7 @@
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
     </row>
-    <row r="137" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" ht="12.75">
       <c r="A137" s="12"/>
       <c r="B137" s="12"/>
       <c r="C137" s="12"/>
@@ -5404,7 +5404,7 @@
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
     </row>
-    <row r="138" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25" ht="12.75">
       <c r="A138" s="12"/>
       <c r="B138" s="12"/>
       <c r="C138" s="12"/>
@@ -5431,7 +5431,7 @@
       <c r="X138" s="1"/>
       <c r="Y138" s="1"/>
     </row>
-    <row r="139" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" ht="12.75">
       <c r="A139" s="12"/>
       <c r="B139" s="12"/>
       <c r="C139" s="12"/>
@@ -5458,7 +5458,7 @@
       <c r="X139" s="1"/>
       <c r="Y139" s="1"/>
     </row>
-    <row r="140" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25" ht="12.75">
       <c r="A140" s="12"/>
       <c r="B140" s="12"/>
       <c r="C140" s="12"/>
@@ -5485,7 +5485,7 @@
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
     </row>
-    <row r="141" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25" ht="12.75">
       <c r="A141" s="12"/>
       <c r="B141" s="12"/>
       <c r="C141" s="12"/>
@@ -5512,7 +5512,7 @@
       <c r="X141" s="1"/>
       <c r="Y141" s="1"/>
     </row>
-    <row r="142" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" ht="12.75">
       <c r="A142" s="12"/>
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
@@ -5539,7 +5539,7 @@
       <c r="X142" s="1"/>
       <c r="Y142" s="1"/>
     </row>
-    <row r="143" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" ht="12.75">
       <c r="A143" s="12"/>
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
@@ -5566,7 +5566,7 @@
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
     </row>
-    <row r="144" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25" ht="12.75">
       <c r="A144" s="12"/>
       <c r="B144" s="12"/>
       <c r="C144" s="12"/>
@@ -5593,7 +5593,7 @@
       <c r="X144" s="1"/>
       <c r="Y144" s="1"/>
     </row>
-    <row r="145" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" ht="12.75">
       <c r="A145" s="12"/>
       <c r="B145" s="12"/>
       <c r="C145" s="12"/>
@@ -5620,7 +5620,7 @@
       <c r="X145" s="1"/>
       <c r="Y145" s="1"/>
     </row>
-    <row r="146" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25" ht="12.75">
       <c r="A146" s="12"/>
       <c r="B146" s="12"/>
       <c r="C146" s="12"/>
@@ -5647,7 +5647,7 @@
       <c r="X146" s="1"/>
       <c r="Y146" s="1"/>
     </row>
-    <row r="147" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25" ht="12.75">
       <c r="A147" s="12"/>
       <c r="B147" s="12"/>
       <c r="C147" s="12"/>
@@ -5674,7 +5674,7 @@
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
     </row>
-    <row r="148" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25" ht="12.75">
       <c r="A148" s="12"/>
       <c r="B148" s="12"/>
       <c r="C148" s="12"/>
@@ -5701,7 +5701,7 @@
       <c r="X148" s="1"/>
       <c r="Y148" s="1"/>
     </row>
-    <row r="149" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25" ht="12.75">
       <c r="A149" s="12"/>
       <c r="B149" s="12"/>
       <c r="C149" s="12"/>
@@ -5728,7 +5728,7 @@
       <c r="X149" s="1"/>
       <c r="Y149" s="1"/>
     </row>
-    <row r="150" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" ht="12.75">
       <c r="A150" s="12"/>
       <c r="B150" s="12"/>
       <c r="C150" s="12"/>
@@ -5755,7 +5755,7 @@
       <c r="X150" s="1"/>
       <c r="Y150" s="1"/>
     </row>
-    <row r="151" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25" ht="12.75">
       <c r="A151" s="12"/>
       <c r="B151" s="12"/>
       <c r="C151" s="12"/>
@@ -5782,7 +5782,7 @@
       <c r="X151" s="1"/>
       <c r="Y151" s="1"/>
     </row>
-    <row r="152" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" ht="12.75">
       <c r="A152" s="12"/>
       <c r="B152" s="12"/>
       <c r="C152" s="12"/>
@@ -5809,7 +5809,7 @@
       <c r="X152" s="1"/>
       <c r="Y152" s="1"/>
     </row>
-    <row r="153" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25" ht="12.75">
       <c r="A153" s="12"/>
       <c r="B153" s="12"/>
       <c r="C153" s="12"/>
@@ -5836,7 +5836,7 @@
       <c r="X153" s="1"/>
       <c r="Y153" s="1"/>
     </row>
-    <row r="154" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:25" ht="12.75">
       <c r="A154" s="12"/>
       <c r="B154" s="12"/>
       <c r="C154" s="12"/>
@@ -5863,7 +5863,7 @@
       <c r="X154" s="1"/>
       <c r="Y154" s="1"/>
     </row>
-    <row r="155" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25" ht="12.75">
       <c r="A155" s="12"/>
       <c r="B155" s="12"/>
       <c r="C155" s="12"/>
@@ -5890,7 +5890,7 @@
       <c r="X155" s="1"/>
       <c r="Y155" s="1"/>
     </row>
-    <row r="156" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25" ht="12.75">
       <c r="A156" s="12"/>
       <c r="B156" s="12"/>
       <c r="C156" s="12"/>
@@ -5917,7 +5917,7 @@
       <c r="X156" s="1"/>
       <c r="Y156" s="1"/>
     </row>
-    <row r="157" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25" ht="12.75">
       <c r="A157" s="12"/>
       <c r="B157" s="12"/>
       <c r="C157" s="12"/>
@@ -5944,7 +5944,7 @@
       <c r="X157" s="1"/>
       <c r="Y157" s="1"/>
     </row>
-    <row r="158" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25" ht="12.75">
       <c r="A158" s="12"/>
       <c r="B158" s="12"/>
       <c r="C158" s="12"/>
@@ -5971,7 +5971,7 @@
       <c r="X158" s="1"/>
       <c r="Y158" s="1"/>
     </row>
-    <row r="159" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25" ht="12.75">
       <c r="A159" s="12"/>
       <c r="B159" s="12"/>
       <c r="C159" s="12"/>
@@ -5998,7 +5998,7 @@
       <c r="X159" s="1"/>
       <c r="Y159" s="1"/>
     </row>
-    <row r="160" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25" ht="12.75">
       <c r="A160" s="12"/>
       <c r="B160" s="12"/>
       <c r="C160" s="12"/>
@@ -6025,7 +6025,7 @@
       <c r="X160" s="1"/>
       <c r="Y160" s="1"/>
     </row>
-    <row r="161" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" ht="12.75">
       <c r="A161" s="12"/>
       <c r="B161" s="12"/>
       <c r="C161" s="12"/>
@@ -6052,7 +6052,7 @@
       <c r="X161" s="1"/>
       <c r="Y161" s="1"/>
     </row>
-    <row r="162" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25" ht="12.75">
       <c r="A162" s="12"/>
       <c r="B162" s="12"/>
       <c r="C162" s="12"/>
@@ -6079,7 +6079,7 @@
       <c r="X162" s="1"/>
       <c r="Y162" s="1"/>
     </row>
-    <row r="163" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25" ht="12.75">
       <c r="A163" s="12"/>
       <c r="B163" s="12"/>
       <c r="C163" s="12"/>
@@ -6106,7 +6106,7 @@
       <c r="X163" s="1"/>
       <c r="Y163" s="1"/>
     </row>
-    <row r="164" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" ht="12.75">
       <c r="A164" s="12"/>
       <c r="B164" s="12"/>
       <c r="C164" s="12"/>
@@ -6133,7 +6133,7 @@
       <c r="X164" s="1"/>
       <c r="Y164" s="1"/>
     </row>
-    <row r="165" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" ht="12.75">
       <c r="A165" s="12"/>
       <c r="B165" s="12"/>
       <c r="C165" s="12"/>
@@ -6160,7 +6160,7 @@
       <c r="X165" s="1"/>
       <c r="Y165" s="1"/>
     </row>
-    <row r="166" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" ht="12.75">
       <c r="A166" s="12"/>
       <c r="B166" s="12"/>
       <c r="C166" s="12"/>
@@ -6187,7 +6187,7 @@
       <c r="X166" s="1"/>
       <c r="Y166" s="1"/>
     </row>
-    <row r="167" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25" ht="12.75">
       <c r="A167" s="12"/>
       <c r="B167" s="12"/>
       <c r="C167" s="12"/>
@@ -6214,7 +6214,7 @@
       <c r="X167" s="1"/>
       <c r="Y167" s="1"/>
     </row>
-    <row r="168" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" ht="12.75">
       <c r="A168" s="12"/>
       <c r="B168" s="12"/>
       <c r="C168" s="12"/>
@@ -6241,7 +6241,7 @@
       <c r="X168" s="1"/>
       <c r="Y168" s="1"/>
     </row>
-    <row r="169" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" ht="12.75">
       <c r="A169" s="12"/>
       <c r="B169" s="12"/>
       <c r="C169" s="12"/>
@@ -6268,7 +6268,7 @@
       <c r="X169" s="1"/>
       <c r="Y169" s="1"/>
     </row>
-    <row r="170" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" ht="12.75">
       <c r="A170" s="12"/>
       <c r="B170" s="12"/>
       <c r="C170" s="12"/>
@@ -6295,7 +6295,7 @@
       <c r="X170" s="1"/>
       <c r="Y170" s="1"/>
     </row>
-    <row r="171" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" ht="12.75">
       <c r="A171" s="12"/>
       <c r="B171" s="12"/>
       <c r="C171" s="12"/>
@@ -6322,7 +6322,7 @@
       <c r="X171" s="1"/>
       <c r="Y171" s="1"/>
     </row>
-    <row r="172" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25" ht="12.75">
       <c r="A172" s="12"/>
       <c r="B172" s="12"/>
       <c r="C172" s="12"/>
@@ -6349,7 +6349,7 @@
       <c r="X172" s="1"/>
       <c r="Y172" s="1"/>
     </row>
-    <row r="173" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" ht="12.75">
       <c r="A173" s="12"/>
       <c r="B173" s="12"/>
       <c r="C173" s="12"/>
@@ -6376,7 +6376,7 @@
       <c r="X173" s="1"/>
       <c r="Y173" s="1"/>
     </row>
-    <row r="174" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25" ht="12.75">
       <c r="A174" s="12"/>
       <c r="B174" s="12"/>
       <c r="C174" s="12"/>
@@ -6403,7 +6403,7 @@
       <c r="X174" s="1"/>
       <c r="Y174" s="1"/>
     </row>
-    <row r="175" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25" ht="12.75">
       <c r="A175" s="12"/>
       <c r="B175" s="12"/>
       <c r="C175" s="12"/>
@@ -6430,7 +6430,7 @@
       <c r="X175" s="1"/>
       <c r="Y175" s="1"/>
     </row>
-    <row r="176" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25" ht="12.75">
       <c r="A176" s="12"/>
       <c r="B176" s="12"/>
       <c r="C176" s="12"/>
@@ -6457,7 +6457,7 @@
       <c r="X176" s="1"/>
       <c r="Y176" s="1"/>
     </row>
-    <row r="177" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" ht="12.75">
       <c r="A177" s="12"/>
       <c r="B177" s="12"/>
       <c r="C177" s="12"/>
@@ -6484,7 +6484,7 @@
       <c r="X177" s="1"/>
       <c r="Y177" s="1"/>
     </row>
-    <row r="178" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" ht="12.75">
       <c r="A178" s="12"/>
       <c r="B178" s="12"/>
       <c r="C178" s="12"/>
@@ -6511,7 +6511,7 @@
       <c r="X178" s="1"/>
       <c r="Y178" s="1"/>
     </row>
-    <row r="179" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" ht="12.75">
       <c r="A179" s="12"/>
       <c r="B179" s="12"/>
       <c r="C179" s="12"/>
@@ -6538,7 +6538,7 @@
       <c r="X179" s="1"/>
       <c r="Y179" s="1"/>
     </row>
-    <row r="180" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" ht="12.75">
       <c r="A180" s="12"/>
       <c r="B180" s="12"/>
       <c r="C180" s="12"/>
@@ -6565,7 +6565,7 @@
       <c r="X180" s="1"/>
       <c r="Y180" s="1"/>
     </row>
-    <row r="181" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" ht="12.75">
       <c r="A181" s="12"/>
       <c r="B181" s="12"/>
       <c r="C181" s="12"/>
@@ -6592,7 +6592,7 @@
       <c r="X181" s="1"/>
       <c r="Y181" s="1"/>
     </row>
-    <row r="182" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" ht="12.75">
       <c r="A182" s="12"/>
       <c r="B182" s="12"/>
       <c r="C182" s="12"/>
@@ -6619,7 +6619,7 @@
       <c r="X182" s="1"/>
       <c r="Y182" s="1"/>
     </row>
-    <row r="183" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25" ht="12.75">
       <c r="A183" s="12"/>
       <c r="B183" s="12"/>
       <c r="C183" s="12"/>
@@ -6646,7 +6646,7 @@
       <c r="X183" s="1"/>
       <c r="Y183" s="1"/>
     </row>
-    <row r="184" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25" ht="12.75">
       <c r="A184" s="12"/>
       <c r="B184" s="12"/>
       <c r="C184" s="12"/>
@@ -6673,7 +6673,7 @@
       <c r="X184" s="1"/>
       <c r="Y184" s="1"/>
     </row>
-    <row r="185" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" ht="12.75">
       <c r="A185" s="12"/>
       <c r="B185" s="12"/>
       <c r="C185" s="12"/>
@@ -6700,7 +6700,7 @@
       <c r="X185" s="1"/>
       <c r="Y185" s="1"/>
     </row>
-    <row r="186" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" ht="12.75">
       <c r="A186" s="12"/>
       <c r="B186" s="12"/>
       <c r="C186" s="12"/>
@@ -6727,7 +6727,7 @@
       <c r="X186" s="1"/>
       <c r="Y186" s="1"/>
     </row>
-    <row r="187" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25" ht="12.75">
       <c r="A187" s="12"/>
       <c r="B187" s="12"/>
       <c r="C187" s="12"/>
@@ -6754,7 +6754,7 @@
       <c r="X187" s="1"/>
       <c r="Y187" s="1"/>
     </row>
-    <row r="188" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25" ht="12.75">
       <c r="A188" s="12"/>
       <c r="B188" s="12"/>
       <c r="C188" s="12"/>
@@ -6781,7 +6781,7 @@
       <c r="X188" s="1"/>
       <c r="Y188" s="1"/>
     </row>
-    <row r="189" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25" ht="12.75">
       <c r="A189" s="12"/>
       <c r="B189" s="12"/>
       <c r="C189" s="12"/>
@@ -6808,7 +6808,7 @@
       <c r="X189" s="1"/>
       <c r="Y189" s="1"/>
     </row>
-    <row r="190" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:25" ht="12.75">
       <c r="A190" s="12"/>
       <c r="B190" s="12"/>
       <c r="C190" s="12"/>
@@ -6835,7 +6835,7 @@
       <c r="X190" s="1"/>
       <c r="Y190" s="1"/>
     </row>
-    <row r="191" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:25" ht="12.75">
       <c r="A191" s="12"/>
       <c r="B191" s="12"/>
       <c r="C191" s="12"/>
@@ -6862,7 +6862,7 @@
       <c r="X191" s="1"/>
       <c r="Y191" s="1"/>
     </row>
-    <row r="192" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:25" ht="12.75">
       <c r="A192" s="12"/>
       <c r="B192" s="12"/>
       <c r="C192" s="12"/>
@@ -6889,7 +6889,7 @@
       <c r="X192" s="1"/>
       <c r="Y192" s="1"/>
     </row>
-    <row r="193" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:25" ht="12.75">
       <c r="A193" s="12"/>
       <c r="B193" s="12"/>
       <c r="C193" s="12"/>
@@ -6916,7 +6916,7 @@
       <c r="X193" s="1"/>
       <c r="Y193" s="1"/>
     </row>
-    <row r="194" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:25" ht="12.75">
       <c r="A194" s="12"/>
       <c r="B194" s="12"/>
       <c r="C194" s="12"/>
@@ -6943,7 +6943,7 @@
       <c r="X194" s="1"/>
       <c r="Y194" s="1"/>
     </row>
-    <row r="195" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:25" ht="12.75">
       <c r="A195" s="12"/>
       <c r="B195" s="12"/>
       <c r="C195" s="12"/>
@@ -6970,7 +6970,7 @@
       <c r="X195" s="1"/>
       <c r="Y195" s="1"/>
     </row>
-    <row r="196" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:25" ht="12.75">
       <c r="A196" s="12"/>
       <c r="B196" s="12"/>
       <c r="C196" s="12"/>
@@ -6997,7 +6997,7 @@
       <c r="X196" s="1"/>
       <c r="Y196" s="1"/>
     </row>
-    <row r="197" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:25" ht="12.75">
       <c r="A197" s="12"/>
       <c r="B197" s="12"/>
       <c r="C197" s="12"/>
@@ -7024,7 +7024,7 @@
       <c r="X197" s="1"/>
       <c r="Y197" s="1"/>
     </row>
-    <row r="198" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:25" ht="12.75">
       <c r="A198" s="12"/>
       <c r="B198" s="12"/>
       <c r="C198" s="12"/>
@@ -7051,7 +7051,7 @@
       <c r="X198" s="1"/>
       <c r="Y198" s="1"/>
     </row>
-    <row r="199" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:25" ht="12.75">
       <c r="A199" s="12"/>
       <c r="B199" s="12"/>
       <c r="C199" s="12"/>
@@ -7078,7 +7078,7 @@
       <c r="X199" s="1"/>
       <c r="Y199" s="1"/>
     </row>
-    <row r="200" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:25" ht="12.75">
       <c r="A200" s="12"/>
       <c r="B200" s="12"/>
       <c r="C200" s="12"/>
@@ -7105,7 +7105,7 @@
       <c r="X200" s="1"/>
       <c r="Y200" s="1"/>
     </row>
-    <row r="201" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:25" ht="12.75">
       <c r="A201" s="12"/>
       <c r="B201" s="12"/>
       <c r="C201" s="12"/>
@@ -7132,7 +7132,7 @@
       <c r="X201" s="1"/>
       <c r="Y201" s="1"/>
     </row>
-    <row r="202" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:25" ht="12.75">
       <c r="A202" s="12"/>
       <c r="B202" s="12"/>
       <c r="C202" s="12"/>
@@ -7159,7 +7159,7 @@
       <c r="X202" s="1"/>
       <c r="Y202" s="1"/>
     </row>
-    <row r="203" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:25" ht="12.75">
       <c r="A203" s="12"/>
       <c r="B203" s="12"/>
       <c r="C203" s="12"/>
@@ -7186,7 +7186,7 @@
       <c r="X203" s="1"/>
       <c r="Y203" s="1"/>
     </row>
-    <row r="204" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:25" ht="12.75">
       <c r="A204" s="12"/>
       <c r="B204" s="12"/>
       <c r="C204" s="12"/>
@@ -7213,7 +7213,7 @@
       <c r="X204" s="1"/>
       <c r="Y204" s="1"/>
     </row>
-    <row r="205" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:25" ht="12.75">
       <c r="A205" s="12"/>
       <c r="B205" s="12"/>
       <c r="C205" s="12"/>
@@ -7240,7 +7240,7 @@
       <c r="X205" s="1"/>
       <c r="Y205" s="1"/>
     </row>
-    <row r="206" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:25" ht="12.75">
       <c r="A206" s="12"/>
       <c r="B206" s="12"/>
       <c r="C206" s="12"/>
@@ -7267,7 +7267,7 @@
       <c r="X206" s="1"/>
       <c r="Y206" s="1"/>
     </row>
-    <row r="207" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:25" ht="12.75">
       <c r="A207" s="12"/>
       <c r="B207" s="12"/>
       <c r="C207" s="12"/>
@@ -7294,7 +7294,7 @@
       <c r="X207" s="1"/>
       <c r="Y207" s="1"/>
     </row>
-    <row r="208" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:25" ht="12.75">
       <c r="A208" s="12"/>
       <c r="B208" s="12"/>
       <c r="C208" s="12"/>
@@ -7321,7 +7321,7 @@
       <c r="X208" s="1"/>
       <c r="Y208" s="1"/>
     </row>
-    <row r="209" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:25" ht="12.75">
       <c r="A209" s="12"/>
       <c r="B209" s="12"/>
       <c r="C209" s="12"/>
@@ -7348,7 +7348,7 @@
       <c r="X209" s="1"/>
       <c r="Y209" s="1"/>
     </row>
-    <row r="210" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:25" ht="12.75">
       <c r="A210" s="12"/>
       <c r="B210" s="12"/>
       <c r="C210" s="12"/>
@@ -7375,7 +7375,7 @@
       <c r="X210" s="1"/>
       <c r="Y210" s="1"/>
     </row>
-    <row r="211" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:25" ht="12.75">
       <c r="A211" s="12"/>
       <c r="B211" s="12"/>
       <c r="C211" s="12"/>
@@ -7402,7 +7402,7 @@
       <c r="X211" s="1"/>
       <c r="Y211" s="1"/>
     </row>
-    <row r="212" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:25" ht="12.75">
       <c r="A212" s="12"/>
       <c r="B212" s="12"/>
       <c r="C212" s="12"/>
@@ -7429,7 +7429,7 @@
       <c r="X212" s="1"/>
       <c r="Y212" s="1"/>
     </row>
-    <row r="213" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:25" ht="12.75">
       <c r="A213" s="12"/>
       <c r="B213" s="12"/>
       <c r="C213" s="12"/>
@@ -7456,7 +7456,7 @@
       <c r="X213" s="1"/>
       <c r="Y213" s="1"/>
     </row>
-    <row r="214" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:25" ht="12.75">
       <c r="A214" s="12"/>
       <c r="B214" s="12"/>
       <c r="C214" s="12"/>
@@ -7483,7 +7483,7 @@
       <c r="X214" s="1"/>
       <c r="Y214" s="1"/>
     </row>
-    <row r="215" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:25" ht="12.75">
       <c r="A215" s="12"/>
       <c r="B215" s="12"/>
       <c r="C215" s="12"/>
@@ -7510,7 +7510,7 @@
       <c r="X215" s="1"/>
       <c r="Y215" s="1"/>
     </row>
-    <row r="216" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:25" ht="12.75">
       <c r="A216" s="12"/>
       <c r="B216" s="12"/>
       <c r="C216" s="12"/>
@@ -7537,7 +7537,7 @@
       <c r="X216" s="1"/>
       <c r="Y216" s="1"/>
     </row>
-    <row r="217" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:25" ht="12.75">
       <c r="A217" s="12"/>
       <c r="B217" s="12"/>
       <c r="C217" s="12"/>
@@ -7564,7 +7564,7 @@
       <c r="X217" s="1"/>
       <c r="Y217" s="1"/>
     </row>
-    <row r="218" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:25" ht="12.75">
       <c r="A218" s="12"/>
       <c r="B218" s="12"/>
       <c r="C218" s="12"/>
@@ -7591,7 +7591,7 @@
       <c r="X218" s="1"/>
       <c r="Y218" s="1"/>
     </row>
-    <row r="219" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:25" ht="12.75">
       <c r="A219" s="12"/>
       <c r="B219" s="12"/>
       <c r="C219" s="12"/>
@@ -7618,7 +7618,7 @@
       <c r="X219" s="1"/>
       <c r="Y219" s="1"/>
     </row>
-    <row r="220" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:25" ht="12.75">
       <c r="A220" s="12"/>
       <c r="B220" s="12"/>
       <c r="C220" s="12"/>
@@ -7645,7 +7645,7 @@
       <c r="X220" s="1"/>
       <c r="Y220" s="1"/>
     </row>
-    <row r="221" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:25" ht="12.75">
       <c r="A221" s="12"/>
       <c r="B221" s="12"/>
       <c r="C221" s="12"/>
@@ -7672,7 +7672,7 @@
       <c r="X221" s="1"/>
       <c r="Y221" s="1"/>
     </row>
-    <row r="222" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:25" ht="12.75">
       <c r="A222" s="12"/>
       <c r="B222" s="12"/>
       <c r="C222" s="12"/>
@@ -7699,7 +7699,7 @@
       <c r="X222" s="1"/>
       <c r="Y222" s="1"/>
     </row>
-    <row r="223" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:25" ht="12.75">
       <c r="A223" s="12"/>
       <c r="B223" s="12"/>
       <c r="C223" s="12"/>
@@ -7726,7 +7726,7 @@
       <c r="X223" s="1"/>
       <c r="Y223" s="1"/>
     </row>
-    <row r="224" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:25" ht="12.75">
       <c r="A224" s="12"/>
       <c r="B224" s="12"/>
       <c r="C224" s="12"/>
@@ -7753,7 +7753,7 @@
       <c r="X224" s="1"/>
       <c r="Y224" s="1"/>
     </row>
-    <row r="225" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:25" ht="12.75">
       <c r="A225" s="12"/>
       <c r="B225" s="12"/>
       <c r="C225" s="12"/>
@@ -7780,7 +7780,7 @@
       <c r="X225" s="1"/>
       <c r="Y225" s="1"/>
     </row>
-    <row r="226" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:25" ht="12.75">
       <c r="A226" s="12"/>
       <c r="B226" s="12"/>
       <c r="C226" s="12"/>
@@ -7807,7 +7807,7 @@
       <c r="X226" s="1"/>
       <c r="Y226" s="1"/>
     </row>
-    <row r="227" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:25" ht="12.75">
       <c r="A227" s="12"/>
       <c r="B227" s="12"/>
       <c r="C227" s="12"/>
@@ -7834,7 +7834,7 @@
       <c r="X227" s="1"/>
       <c r="Y227" s="1"/>
     </row>
-    <row r="228" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:25" ht="12.75">
       <c r="A228" s="12"/>
       <c r="B228" s="12"/>
       <c r="C228" s="12"/>
@@ -7861,7 +7861,7 @@
       <c r="X228" s="1"/>
       <c r="Y228" s="1"/>
     </row>
-    <row r="229" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:25" ht="12.75">
       <c r="A229" s="12"/>
       <c r="B229" s="12"/>
       <c r="C229" s="12"/>
@@ -7888,7 +7888,7 @@
       <c r="X229" s="1"/>
       <c r="Y229" s="1"/>
     </row>
-    <row r="230" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:25" ht="12.75">
       <c r="A230" s="12"/>
       <c r="B230" s="12"/>
       <c r="C230" s="12"/>
@@ -7915,7 +7915,7 @@
       <c r="X230" s="1"/>
       <c r="Y230" s="1"/>
     </row>
-    <row r="231" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:25" ht="12.75">
       <c r="A231" s="12"/>
       <c r="B231" s="12"/>
       <c r="C231" s="12"/>
@@ -7942,7 +7942,7 @@
       <c r="X231" s="1"/>
       <c r="Y231" s="1"/>
     </row>
-    <row r="232" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:25" ht="12.75">
       <c r="A232" s="12"/>
       <c r="B232" s="12"/>
       <c r="C232" s="12"/>
@@ -7969,7 +7969,7 @@
       <c r="X232" s="1"/>
       <c r="Y232" s="1"/>
     </row>
-    <row r="233" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:25" ht="12.75">
       <c r="A233" s="12"/>
       <c r="B233" s="12"/>
       <c r="C233" s="12"/>
@@ -7996,7 +7996,7 @@
       <c r="X233" s="1"/>
       <c r="Y233" s="1"/>
     </row>
-    <row r="234" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:25" ht="12.75">
       <c r="A234" s="12"/>
       <c r="B234" s="12"/>
       <c r="C234" s="12"/>
@@ -8023,7 +8023,7 @@
       <c r="X234" s="1"/>
       <c r="Y234" s="1"/>
     </row>
-    <row r="235" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:25" ht="12.75">
       <c r="A235" s="12"/>
       <c r="B235" s="12"/>
       <c r="C235" s="12"/>
@@ -8050,7 +8050,7 @@
       <c r="X235" s="1"/>
       <c r="Y235" s="1"/>
     </row>
-    <row r="236" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:25" ht="12.75">
       <c r="A236" s="12"/>
       <c r="B236" s="12"/>
       <c r="C236" s="12"/>
@@ -8077,7 +8077,7 @@
       <c r="X236" s="1"/>
       <c r="Y236" s="1"/>
     </row>
-    <row r="237" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:25" ht="12.75">
       <c r="A237" s="12"/>
       <c r="B237" s="12"/>
       <c r="C237" s="12"/>
@@ -8104,7 +8104,7 @@
       <c r="X237" s="1"/>
       <c r="Y237" s="1"/>
     </row>
-    <row r="238" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:25" ht="12.75">
       <c r="A238" s="12"/>
       <c r="B238" s="12"/>
       <c r="C238" s="12"/>
@@ -8131,7 +8131,7 @@
       <c r="X238" s="1"/>
       <c r="Y238" s="1"/>
     </row>
-    <row r="239" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:25" ht="12.75">
       <c r="A239" s="12"/>
       <c r="B239" s="12"/>
       <c r="C239" s="12"/>
@@ -8158,7 +8158,7 @@
       <c r="X239" s="1"/>
       <c r="Y239" s="1"/>
     </row>
-    <row r="240" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:25" ht="12.75">
       <c r="A240" s="12"/>
       <c r="B240" s="12"/>
       <c r="C240" s="12"/>
@@ -8185,7 +8185,7 @@
       <c r="X240" s="1"/>
       <c r="Y240" s="1"/>
     </row>
-    <row r="241" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:25" ht="12.75">
       <c r="A241" s="12"/>
       <c r="B241" s="12"/>
       <c r="C241" s="12"/>
@@ -8212,7 +8212,7 @@
       <c r="X241" s="1"/>
       <c r="Y241" s="1"/>
     </row>
-    <row r="242" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:25" ht="12.75">
       <c r="A242" s="12"/>
       <c r="B242" s="12"/>
       <c r="C242" s="12"/>
@@ -8239,7 +8239,7 @@
       <c r="X242" s="1"/>
       <c r="Y242" s="1"/>
     </row>
-    <row r="243" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:25" ht="12.75">
       <c r="A243" s="12"/>
       <c r="B243" s="12"/>
       <c r="C243" s="12"/>
@@ -8266,7 +8266,7 @@
       <c r="X243" s="1"/>
       <c r="Y243" s="1"/>
     </row>
-    <row r="244" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:25" ht="12.75">
       <c r="A244" s="12"/>
       <c r="B244" s="12"/>
       <c r="C244" s="12"/>
@@ -8293,7 +8293,7 @@
       <c r="X244" s="1"/>
       <c r="Y244" s="1"/>
     </row>
-    <row r="245" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:25" ht="12.75">
       <c r="A245" s="12"/>
       <c r="B245" s="12"/>
       <c r="C245" s="12"/>
@@ -8320,7 +8320,7 @@
       <c r="X245" s="1"/>
       <c r="Y245" s="1"/>
     </row>
-    <row r="246" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:25" ht="12.75">
       <c r="A246" s="12"/>
       <c r="B246" s="12"/>
       <c r="C246" s="12"/>
@@ -8347,7 +8347,7 @@
       <c r="X246" s="1"/>
       <c r="Y246" s="1"/>
     </row>
-    <row r="247" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:25" ht="12.75">
       <c r="A247" s="12"/>
       <c r="B247" s="12"/>
       <c r="C247" s="12"/>
@@ -8374,7 +8374,7 @@
       <c r="X247" s="1"/>
       <c r="Y247" s="1"/>
     </row>
-    <row r="248" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:25" ht="12.75">
       <c r="A248" s="12"/>
       <c r="B248" s="12"/>
       <c r="C248" s="12"/>
@@ -8401,7 +8401,7 @@
       <c r="X248" s="1"/>
       <c r="Y248" s="1"/>
     </row>
-    <row r="249" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:25" ht="12.75">
       <c r="A249" s="12"/>
       <c r="B249" s="12"/>
       <c r="C249" s="12"/>
@@ -8428,7 +8428,7 @@
       <c r="X249" s="1"/>
       <c r="Y249" s="1"/>
     </row>
-    <row r="250" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:25" ht="12.75">
       <c r="A250" s="12"/>
       <c r="B250" s="12"/>
       <c r="C250" s="12"/>
@@ -8455,7 +8455,7 @@
       <c r="X250" s="1"/>
       <c r="Y250" s="1"/>
     </row>
-    <row r="251" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:25" ht="12.75">
       <c r="A251" s="12"/>
       <c r="B251" s="12"/>
       <c r="C251" s="12"/>
@@ -8482,7 +8482,7 @@
       <c r="X251" s="1"/>
       <c r="Y251" s="1"/>
     </row>
-    <row r="252" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:25" ht="12.75">
       <c r="A252" s="12"/>
       <c r="B252" s="12"/>
       <c r="C252" s="12"/>
@@ -8509,7 +8509,7 @@
       <c r="X252" s="1"/>
       <c r="Y252" s="1"/>
     </row>
-    <row r="253" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:25" ht="12.75">
       <c r="A253" s="12"/>
       <c r="B253" s="12"/>
       <c r="C253" s="12"/>
@@ -8536,7 +8536,7 @@
       <c r="X253" s="1"/>
       <c r="Y253" s="1"/>
     </row>
-    <row r="254" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:25" ht="12.75">
       <c r="A254" s="12"/>
       <c r="B254" s="12"/>
       <c r="C254" s="12"/>
@@ -8563,7 +8563,7 @@
       <c r="X254" s="1"/>
       <c r="Y254" s="1"/>
     </row>
-    <row r="255" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:25" ht="12.75">
       <c r="A255" s="12"/>
       <c r="B255" s="12"/>
       <c r="C255" s="12"/>
@@ -8590,7 +8590,7 @@
       <c r="X255" s="1"/>
       <c r="Y255" s="1"/>
     </row>
-    <row r="256" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:25" ht="12.75">
       <c r="A256" s="12"/>
       <c r="B256" s="12"/>
       <c r="C256" s="12"/>
@@ -8617,7 +8617,7 @@
       <c r="X256" s="1"/>
       <c r="Y256" s="1"/>
     </row>
-    <row r="257" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:25" ht="12.75">
       <c r="A257" s="12"/>
       <c r="B257" s="12"/>
       <c r="C257" s="12"/>
@@ -8644,7 +8644,7 @@
       <c r="X257" s="1"/>
       <c r="Y257" s="1"/>
     </row>
-    <row r="258" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:25" ht="12.75">
       <c r="A258" s="12"/>
       <c r="B258" s="12"/>
       <c r="C258" s="12"/>
@@ -8671,7 +8671,7 @@
       <c r="X258" s="1"/>
       <c r="Y258" s="1"/>
     </row>
-    <row r="259" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:25" ht="12.75">
       <c r="A259" s="12"/>
       <c r="B259" s="12"/>
       <c r="C259" s="12"/>
@@ -8698,7 +8698,7 @@
       <c r="X259" s="1"/>
       <c r="Y259" s="1"/>
     </row>
-    <row r="260" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:25" ht="12.75">
       <c r="A260" s="12"/>
       <c r="B260" s="12"/>
       <c r="C260" s="12"/>
@@ -8725,7 +8725,7 @@
       <c r="X260" s="1"/>
       <c r="Y260" s="1"/>
     </row>
-    <row r="261" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:25" ht="12.75">
       <c r="A261" s="12"/>
       <c r="B261" s="12"/>
       <c r="C261" s="12"/>
@@ -8752,7 +8752,7 @@
       <c r="X261" s="1"/>
       <c r="Y261" s="1"/>
     </row>
-    <row r="262" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:25" ht="12.75">
       <c r="A262" s="12"/>
       <c r="B262" s="12"/>
       <c r="C262" s="12"/>
@@ -8779,7 +8779,7 @@
       <c r="X262" s="1"/>
       <c r="Y262" s="1"/>
     </row>
-    <row r="263" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:25" ht="12.75">
       <c r="A263" s="12"/>
       <c r="B263" s="12"/>
       <c r="C263" s="12"/>
@@ -8806,7 +8806,7 @@
       <c r="X263" s="1"/>
       <c r="Y263" s="1"/>
     </row>
-    <row r="264" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:25" ht="12.75">
       <c r="A264" s="12"/>
       <c r="B264" s="12"/>
       <c r="C264" s="12"/>
@@ -8833,7 +8833,7 @@
       <c r="X264" s="1"/>
       <c r="Y264" s="1"/>
     </row>
-    <row r="265" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:25" ht="12.75">
       <c r="A265" s="12"/>
       <c r="B265" s="12"/>
       <c r="C265" s="12"/>
@@ -8860,7 +8860,7 @@
       <c r="X265" s="1"/>
       <c r="Y265" s="1"/>
     </row>
-    <row r="266" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:25" ht="12.75">
       <c r="A266" s="12"/>
       <c r="B266" s="12"/>
       <c r="C266" s="12"/>
@@ -8887,7 +8887,7 @@
       <c r="X266" s="1"/>
       <c r="Y266" s="1"/>
     </row>
-    <row r="267" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:25" ht="12.75">
       <c r="A267" s="12"/>
       <c r="B267" s="12"/>
       <c r="C267" s="12"/>
@@ -8914,7 +8914,7 @@
       <c r="X267" s="1"/>
       <c r="Y267" s="1"/>
     </row>
-    <row r="268" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:25" ht="12.75">
       <c r="A268" s="12"/>
       <c r="B268" s="12"/>
       <c r="C268" s="12"/>
@@ -8941,7 +8941,7 @@
       <c r="X268" s="1"/>
       <c r="Y268" s="1"/>
     </row>
-    <row r="269" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:25" ht="12.75">
       <c r="A269" s="12"/>
       <c r="B269" s="12"/>
       <c r="C269" s="12"/>
@@ -8968,7 +8968,7 @@
       <c r="X269" s="1"/>
       <c r="Y269" s="1"/>
     </row>
-    <row r="270" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:25" ht="12.75">
       <c r="A270" s="12"/>
       <c r="B270" s="12"/>
       <c r="C270" s="12"/>
@@ -8995,7 +8995,7 @@
       <c r="X270" s="1"/>
       <c r="Y270" s="1"/>
     </row>
-    <row r="271" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:25" ht="12.75">
       <c r="A271" s="12"/>
       <c r="B271" s="12"/>
       <c r="C271" s="12"/>
@@ -9022,7 +9022,7 @@
       <c r="X271" s="1"/>
       <c r="Y271" s="1"/>
     </row>
-    <row r="272" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:25" ht="12.75">
       <c r="A272" s="12"/>
       <c r="B272" s="12"/>
       <c r="C272" s="12"/>
@@ -9049,7 +9049,7 @@
       <c r="X272" s="1"/>
       <c r="Y272" s="1"/>
     </row>
-    <row r="273" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:25" ht="12.75">
       <c r="A273" s="12"/>
       <c r="B273" s="12"/>
       <c r="C273" s="12"/>
@@ -9076,7 +9076,7 @@
       <c r="X273" s="1"/>
       <c r="Y273" s="1"/>
     </row>
-    <row r="274" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:25" ht="12.75">
       <c r="A274" s="12"/>
       <c r="B274" s="12"/>
       <c r="C274" s="12"/>
@@ -9103,7 +9103,7 @@
       <c r="X274" s="1"/>
       <c r="Y274" s="1"/>
     </row>
-    <row r="275" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:25" ht="12.75">
       <c r="A275" s="12"/>
       <c r="B275" s="12"/>
       <c r="C275" s="12"/>
@@ -9130,7 +9130,7 @@
       <c r="X275" s="1"/>
       <c r="Y275" s="1"/>
     </row>
-    <row r="276" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:25" ht="12.75">
       <c r="A276" s="12"/>
       <c r="B276" s="12"/>
       <c r="C276" s="12"/>
@@ -9157,7 +9157,7 @@
       <c r="X276" s="1"/>
       <c r="Y276" s="1"/>
     </row>
-    <row r="277" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:25" ht="12.75">
       <c r="A277" s="12"/>
       <c r="B277" s="12"/>
       <c r="C277" s="12"/>
@@ -9184,7 +9184,7 @@
       <c r="X277" s="1"/>
       <c r="Y277" s="1"/>
     </row>
-    <row r="278" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:25" ht="12.75">
       <c r="A278" s="12"/>
       <c r="B278" s="12"/>
       <c r="C278" s="12"/>
@@ -9211,7 +9211,7 @@
       <c r="X278" s="1"/>
       <c r="Y278" s="1"/>
     </row>
-    <row r="279" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:25" ht="12.75">
       <c r="A279" s="12"/>
       <c r="B279" s="12"/>
       <c r="C279" s="12"/>
@@ -9238,7 +9238,7 @@
       <c r="X279" s="1"/>
       <c r="Y279" s="1"/>
     </row>
-    <row r="280" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:25" ht="12.75">
       <c r="A280" s="12"/>
       <c r="B280" s="12"/>
       <c r="C280" s="12"/>
@@ -9265,7 +9265,7 @@
       <c r="X280" s="1"/>
       <c r="Y280" s="1"/>
     </row>
-    <row r="281" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:25" ht="12.75">
       <c r="A281" s="12"/>
       <c r="B281" s="12"/>
       <c r="C281" s="12"/>
@@ -9292,7 +9292,7 @@
       <c r="X281" s="1"/>
       <c r="Y281" s="1"/>
     </row>
-    <row r="282" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:25" ht="12.75">
       <c r="A282" s="12"/>
       <c r="B282" s="12"/>
       <c r="C282" s="12"/>
@@ -9319,7 +9319,7 @@
       <c r="X282" s="1"/>
       <c r="Y282" s="1"/>
     </row>
-    <row r="283" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:25" ht="12.75">
       <c r="A283" s="12"/>
       <c r="B283" s="12"/>
       <c r="C283" s="12"/>
@@ -9346,7 +9346,7 @@
       <c r="X283" s="1"/>
       <c r="Y283" s="1"/>
     </row>
-    <row r="284" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:25" ht="12.75">
       <c r="A284" s="12"/>
       <c r="B284" s="12"/>
       <c r="C284" s="12"/>
@@ -9373,7 +9373,7 @@
       <c r="X284" s="1"/>
       <c r="Y284" s="1"/>
     </row>
-    <row r="285" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:25" ht="12.75">
       <c r="A285" s="12"/>
       <c r="B285" s="12"/>
       <c r="C285" s="12"/>
@@ -9400,7 +9400,7 @@
       <c r="X285" s="1"/>
       <c r="Y285" s="1"/>
     </row>
-    <row r="286" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:25" ht="12.75">
       <c r="A286" s="12"/>
       <c r="B286" s="12"/>
       <c r="C286" s="12"/>
@@ -9427,7 +9427,7 @@
       <c r="X286" s="1"/>
       <c r="Y286" s="1"/>
     </row>
-    <row r="287" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:25" ht="12.75">
       <c r="A287" s="12"/>
       <c r="B287" s="12"/>
       <c r="C287" s="12"/>
@@ -9454,7 +9454,7 @@
       <c r="X287" s="1"/>
       <c r="Y287" s="1"/>
     </row>
-    <row r="288" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:25" ht="12.75">
       <c r="A288" s="12"/>
       <c r="B288" s="12"/>
       <c r="C288" s="12"/>
@@ -9481,7 +9481,7 @@
       <c r="X288" s="1"/>
       <c r="Y288" s="1"/>
     </row>
-    <row r="289" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:25" ht="12.75">
       <c r="A289" s="12"/>
       <c r="B289" s="12"/>
       <c r="C289" s="12"/>
@@ -9508,7 +9508,7 @@
       <c r="X289" s="1"/>
       <c r="Y289" s="1"/>
     </row>
-    <row r="290" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:25" ht="12.75">
       <c r="A290" s="12"/>
       <c r="B290" s="12"/>
       <c r="C290" s="12"/>
@@ -9535,7 +9535,7 @@
       <c r="X290" s="1"/>
       <c r="Y290" s="1"/>
     </row>
-    <row r="291" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:25" ht="12.75">
       <c r="A291" s="12"/>
       <c r="B291" s="12"/>
       <c r="C291" s="12"/>
@@ -9562,7 +9562,7 @@
       <c r="X291" s="1"/>
       <c r="Y291" s="1"/>
     </row>
-    <row r="292" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:25" ht="12.75">
       <c r="A292" s="12"/>
       <c r="B292" s="12"/>
       <c r="C292" s="12"/>
@@ -9589,7 +9589,7 @@
       <c r="X292" s="1"/>
       <c r="Y292" s="1"/>
     </row>
-    <row r="293" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:25" ht="12.75">
       <c r="A293" s="12"/>
       <c r="B293" s="12"/>
       <c r="C293" s="12"/>
@@ -9616,7 +9616,7 @@
       <c r="X293" s="1"/>
       <c r="Y293" s="1"/>
     </row>
-    <row r="294" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:25" ht="12.75">
       <c r="A294" s="12"/>
       <c r="B294" s="12"/>
       <c r="C294" s="12"/>
@@ -9643,7 +9643,7 @@
       <c r="X294" s="1"/>
       <c r="Y294" s="1"/>
     </row>
-    <row r="295" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:25" ht="12.75">
       <c r="A295" s="12"/>
       <c r="B295" s="12"/>
       <c r="C295" s="12"/>
@@ -9670,7 +9670,7 @@
       <c r="X295" s="1"/>
       <c r="Y295" s="1"/>
     </row>
-    <row r="296" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:25" ht="12.75">
       <c r="A296" s="12"/>
       <c r="B296" s="12"/>
       <c r="C296" s="12"/>
@@ -9697,7 +9697,7 @@
       <c r="X296" s="1"/>
       <c r="Y296" s="1"/>
     </row>
-    <row r="297" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:25" ht="12.75">
       <c r="A297" s="12"/>
       <c r="B297" s="12"/>
       <c r="C297" s="12"/>
@@ -9724,7 +9724,7 @@
       <c r="X297" s="1"/>
       <c r="Y297" s="1"/>
     </row>
-    <row r="298" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:25" ht="12.75">
       <c r="A298" s="12"/>
       <c r="B298" s="12"/>
       <c r="C298" s="12"/>
@@ -9751,7 +9751,7 @@
       <c r="X298" s="1"/>
       <c r="Y298" s="1"/>
     </row>
-    <row r="299" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:25" ht="12.75">
       <c r="A299" s="12"/>
       <c r="B299" s="12"/>
       <c r="C299" s="12"/>
@@ -9778,7 +9778,7 @@
       <c r="X299" s="1"/>
       <c r="Y299" s="1"/>
     </row>
-    <row r="300" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:25" ht="12.75">
       <c r="A300" s="12"/>
       <c r="B300" s="12"/>
       <c r="C300" s="12"/>
@@ -9805,7 +9805,7 @@
       <c r="X300" s="1"/>
       <c r="Y300" s="1"/>
     </row>
-    <row r="301" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:25" ht="12.75">
       <c r="A301" s="12"/>
       <c r="B301" s="12"/>
       <c r="C301" s="12"/>
@@ -9832,7 +9832,7 @@
       <c r="X301" s="1"/>
       <c r="Y301" s="1"/>
     </row>
-    <row r="302" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:25" ht="12.75">
       <c r="A302" s="12"/>
       <c r="B302" s="12"/>
       <c r="C302" s="12"/>
@@ -9859,7 +9859,7 @@
       <c r="X302" s="1"/>
       <c r="Y302" s="1"/>
     </row>
-    <row r="303" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:25" ht="12.75">
       <c r="A303" s="12"/>
       <c r="B303" s="12"/>
       <c r="C303" s="12"/>
@@ -9886,7 +9886,7 @@
       <c r="X303" s="1"/>
       <c r="Y303" s="1"/>
     </row>
-    <row r="304" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:25" ht="12.75">
       <c r="A304" s="12"/>
       <c r="B304" s="12"/>
       <c r="C304" s="12"/>
@@ -9913,7 +9913,7 @@
       <c r="X304" s="1"/>
       <c r="Y304" s="1"/>
     </row>
-    <row r="305" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:25" ht="12.75">
       <c r="A305" s="12"/>
       <c r="B305" s="12"/>
       <c r="C305" s="12"/>
@@ -9940,7 +9940,7 @@
       <c r="X305" s="1"/>
       <c r="Y305" s="1"/>
     </row>
-    <row r="306" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:25" ht="12.75">
       <c r="A306" s="12"/>
       <c r="B306" s="12"/>
       <c r="C306" s="12"/>
@@ -9967,7 +9967,7 @@
       <c r="X306" s="1"/>
       <c r="Y306" s="1"/>
     </row>
-    <row r="307" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:25" ht="12.75">
       <c r="A307" s="12"/>
       <c r="B307" s="12"/>
       <c r="C307" s="12"/>
@@ -9994,7 +9994,7 @@
       <c r="X307" s="1"/>
       <c r="Y307" s="1"/>
     </row>
-    <row r="308" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:25" ht="12.75">
       <c r="A308" s="12"/>
       <c r="B308" s="12"/>
       <c r="C308" s="12"/>
@@ -10021,7 +10021,7 @@
       <c r="X308" s="1"/>
       <c r="Y308" s="1"/>
     </row>
-    <row r="309" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:25" ht="12.75">
       <c r="A309" s="12"/>
       <c r="B309" s="12"/>
       <c r="C309" s="12"/>
@@ -10048,7 +10048,7 @@
       <c r="X309" s="1"/>
       <c r="Y309" s="1"/>
     </row>
-    <row r="310" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:25" ht="12.75">
       <c r="A310" s="12"/>
       <c r="B310" s="12"/>
       <c r="C310" s="12"/>
@@ -10075,7 +10075,7 @@
       <c r="X310" s="1"/>
       <c r="Y310" s="1"/>
     </row>
-    <row r="311" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:25" ht="12.75">
       <c r="A311" s="12"/>
       <c r="B311" s="12"/>
       <c r="C311" s="12"/>
@@ -10102,7 +10102,7 @@
       <c r="X311" s="1"/>
       <c r="Y311" s="1"/>
     </row>
-    <row r="312" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:25" ht="12.75">
       <c r="A312" s="12"/>
       <c r="B312" s="12"/>
       <c r="C312" s="12"/>
@@ -10129,7 +10129,7 @@
       <c r="X312" s="1"/>
       <c r="Y312" s="1"/>
     </row>
-    <row r="313" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:25" ht="12.75">
       <c r="A313" s="12"/>
       <c r="B313" s="12"/>
       <c r="C313" s="12"/>
@@ -10156,7 +10156,7 @@
       <c r="X313" s="1"/>
       <c r="Y313" s="1"/>
     </row>
-    <row r="314" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:25" ht="12.75">
       <c r="A314" s="12"/>
       <c r="B314" s="12"/>
       <c r="C314" s="12"/>
@@ -10183,7 +10183,7 @@
       <c r="X314" s="1"/>
       <c r="Y314" s="1"/>
     </row>
-    <row r="315" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:25" ht="12.75">
       <c r="A315" s="12"/>
       <c r="B315" s="12"/>
       <c r="C315" s="12"/>
@@ -10210,7 +10210,7 @@
       <c r="X315" s="1"/>
       <c r="Y315" s="1"/>
     </row>
-    <row r="316" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:25" ht="12.75">
       <c r="A316" s="12"/>
       <c r="B316" s="12"/>
       <c r="C316" s="12"/>
@@ -10237,7 +10237,7 @@
       <c r="X316" s="1"/>
       <c r="Y316" s="1"/>
     </row>
-    <row r="317" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:25" ht="12.75">
       <c r="A317" s="12"/>
       <c r="B317" s="12"/>
       <c r="C317" s="12"/>
@@ -10264,7 +10264,7 @@
       <c r="X317" s="1"/>
       <c r="Y317" s="1"/>
     </row>
-    <row r="318" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:25" ht="12.75">
       <c r="A318" s="12"/>
       <c r="B318" s="12"/>
       <c r="C318" s="12"/>
@@ -10291,7 +10291,7 @@
       <c r="X318" s="1"/>
       <c r="Y318" s="1"/>
     </row>
-    <row r="319" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:25" ht="12.75">
       <c r="A319" s="12"/>
       <c r="B319" s="12"/>
       <c r="C319" s="12"/>
@@ -10318,7 +10318,7 @@
       <c r="X319" s="1"/>
       <c r="Y319" s="1"/>
     </row>
-    <row r="320" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:25" ht="12.75">
       <c r="A320" s="12"/>
       <c r="B320" s="12"/>
       <c r="C320" s="12"/>
@@ -10345,7 +10345,7 @@
       <c r="X320" s="1"/>
       <c r="Y320" s="1"/>
     </row>
-    <row r="321" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:25" ht="12.75">
       <c r="A321" s="12"/>
       <c r="B321" s="12"/>
       <c r="C321" s="12"/>
@@ -10372,7 +10372,7 @@
       <c r="X321" s="1"/>
       <c r="Y321" s="1"/>
     </row>
-    <row r="322" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:25" ht="12.75">
       <c r="A322" s="12"/>
       <c r="B322" s="12"/>
       <c r="C322" s="12"/>
@@ -10399,7 +10399,7 @@
       <c r="X322" s="1"/>
       <c r="Y322" s="1"/>
     </row>
-    <row r="323" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:25" ht="12.75">
       <c r="A323" s="12"/>
       <c r="B323" s="12"/>
       <c r="C323" s="12"/>
@@ -10426,7 +10426,7 @@
       <c r="X323" s="1"/>
       <c r="Y323" s="1"/>
     </row>
-    <row r="324" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:25" ht="12.75">
       <c r="A324" s="12"/>
       <c r="B324" s="12"/>
       <c r="C324" s="12"/>
@@ -10453,7 +10453,7 @@
       <c r="X324" s="1"/>
       <c r="Y324" s="1"/>
     </row>
-    <row r="325" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:25" ht="12.75">
       <c r="A325" s="12"/>
       <c r="B325" s="12"/>
       <c r="C325" s="12"/>
@@ -10480,7 +10480,7 @@
       <c r="X325" s="1"/>
       <c r="Y325" s="1"/>
     </row>
-    <row r="326" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:25" ht="12.75">
       <c r="A326" s="12"/>
       <c r="B326" s="12"/>
       <c r="C326" s="12"/>
@@ -10507,7 +10507,7 @@
       <c r="X326" s="1"/>
       <c r="Y326" s="1"/>
     </row>
-    <row r="327" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:25" ht="12.75">
       <c r="A327" s="12"/>
       <c r="B327" s="12"/>
       <c r="C327" s="12"/>
@@ -10534,7 +10534,7 @@
       <c r="X327" s="1"/>
       <c r="Y327" s="1"/>
     </row>
-    <row r="328" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:25" ht="12.75">
       <c r="A328" s="12"/>
       <c r="B328" s="12"/>
       <c r="C328" s="12"/>
@@ -10561,7 +10561,7 @@
       <c r="X328" s="1"/>
       <c r="Y328" s="1"/>
     </row>
-    <row r="329" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:25" ht="12.75">
       <c r="A329" s="12"/>
       <c r="B329" s="12"/>
       <c r="C329" s="12"/>
@@ -10588,7 +10588,7 @@
       <c r="X329" s="1"/>
       <c r="Y329" s="1"/>
     </row>
-    <row r="330" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:25" ht="12.75">
       <c r="A330" s="12"/>
       <c r="B330" s="12"/>
       <c r="C330" s="12"/>
@@ -10615,7 +10615,7 @@
       <c r="X330" s="1"/>
       <c r="Y330" s="1"/>
     </row>
-    <row r="331" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:25" ht="12.75">
       <c r="A331" s="12"/>
       <c r="B331" s="12"/>
       <c r="C331" s="12"/>
@@ -10642,7 +10642,7 @@
       <c r="X331" s="1"/>
       <c r="Y331" s="1"/>
     </row>
-    <row r="332" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:25" ht="12.75">
       <c r="A332" s="12"/>
       <c r="B332" s="12"/>
       <c r="C332" s="12"/>
@@ -10669,7 +10669,7 @@
       <c r="X332" s="1"/>
       <c r="Y332" s="1"/>
     </row>
-    <row r="333" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:25" ht="12.75">
       <c r="A333" s="12"/>
       <c r="B333" s="12"/>
       <c r="C333" s="12"/>
@@ -10696,7 +10696,7 @@
       <c r="X333" s="1"/>
       <c r="Y333" s="1"/>
     </row>
-    <row r="334" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:25" ht="12.75">
       <c r="A334" s="12"/>
       <c r="B334" s="12"/>
       <c r="C334" s="12"/>
@@ -10723,7 +10723,7 @@
       <c r="X334" s="1"/>
       <c r="Y334" s="1"/>
     </row>
-    <row r="335" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:25" ht="12.75">
       <c r="A335" s="12"/>
       <c r="B335" s="12"/>
       <c r="C335" s="12"/>
@@ -10750,7 +10750,7 @@
       <c r="X335" s="1"/>
       <c r="Y335" s="1"/>
     </row>
-    <row r="336" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:25" ht="12.75">
       <c r="A336" s="12"/>
       <c r="B336" s="12"/>
       <c r="C336" s="12"/>
@@ -10777,7 +10777,7 @@
       <c r="X336" s="1"/>
       <c r="Y336" s="1"/>
     </row>
-    <row r="337" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:25" ht="12.75">
       <c r="A337" s="12"/>
       <c r="B337" s="12"/>
       <c r="C337" s="12"/>
@@ -10804,7 +10804,7 @@
       <c r="X337" s="1"/>
       <c r="Y337" s="1"/>
     </row>
-    <row r="338" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:25" ht="12.75">
       <c r="A338" s="12"/>
       <c r="B338" s="12"/>
       <c r="C338" s="12"/>
@@ -10831,7 +10831,7 @@
       <c r="X338" s="1"/>
       <c r="Y338" s="1"/>
     </row>
-    <row r="339" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:25" ht="12.75">
       <c r="A339" s="12"/>
       <c r="B339" s="12"/>
       <c r="C339" s="12"/>
@@ -10858,7 +10858,7 @@
       <c r="X339" s="1"/>
       <c r="Y339" s="1"/>
     </row>
-    <row r="340" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:25" ht="12.75">
       <c r="A340" s="12"/>
       <c r="B340" s="12"/>
       <c r="C340" s="12"/>
@@ -10885,7 +10885,7 @@
       <c r="X340" s="1"/>
       <c r="Y340" s="1"/>
     </row>
-    <row r="341" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:25" ht="12.75">
       <c r="A341" s="12"/>
       <c r="B341" s="12"/>
       <c r="C341" s="12"/>
@@ -10912,7 +10912,7 @@
       <c r="X341" s="1"/>
       <c r="Y341" s="1"/>
     </row>
-    <row r="342" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:25" ht="12.75">
       <c r="A342" s="12"/>
       <c r="B342" s="12"/>
       <c r="C342" s="12"/>
@@ -10939,7 +10939,7 @@
       <c r="X342" s="1"/>
       <c r="Y342" s="1"/>
     </row>
-    <row r="343" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:25" ht="12.75">
       <c r="A343" s="12"/>
       <c r="B343" s="12"/>
       <c r="C343" s="12"/>
@@ -10966,7 +10966,7 @@
       <c r="X343" s="1"/>
       <c r="Y343" s="1"/>
     </row>
-    <row r="344" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:25" ht="12.75">
       <c r="A344" s="12"/>
       <c r="B344" s="12"/>
       <c r="C344" s="12"/>
@@ -10993,7 +10993,7 @@
       <c r="X344" s="1"/>
       <c r="Y344" s="1"/>
     </row>
-    <row r="345" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:25" ht="12.75">
       <c r="A345" s="12"/>
       <c r="B345" s="12"/>
       <c r="C345" s="12"/>
@@ -11020,7 +11020,7 @@
       <c r="X345" s="1"/>
       <c r="Y345" s="1"/>
     </row>
-    <row r="346" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:25" ht="12.75">
       <c r="A346" s="12"/>
       <c r="B346" s="12"/>
       <c r="C346" s="12"/>
@@ -11047,7 +11047,7 @@
       <c r="X346" s="1"/>
       <c r="Y346" s="1"/>
     </row>
-    <row r="347" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:25" ht="12.75">
       <c r="A347" s="12"/>
       <c r="B347" s="12"/>
       <c r="C347" s="12"/>
@@ -11074,7 +11074,7 @@
       <c r="X347" s="1"/>
       <c r="Y347" s="1"/>
     </row>
-    <row r="348" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:25" ht="12.75">
       <c r="A348" s="12"/>
       <c r="B348" s="12"/>
       <c r="C348" s="12"/>
@@ -11101,7 +11101,7 @@
       <c r="X348" s="1"/>
       <c r="Y348" s="1"/>
     </row>
-    <row r="349" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:25" ht="12.75">
       <c r="A349" s="12"/>
       <c r="B349" s="12"/>
       <c r="C349" s="12"/>
@@ -11128,7 +11128,7 @@
       <c r="X349" s="1"/>
       <c r="Y349" s="1"/>
     </row>
-    <row r="350" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:25" ht="12.75">
       <c r="A350" s="12"/>
       <c r="B350" s="12"/>
       <c r="C350" s="12"/>
@@ -11155,7 +11155,7 @@
       <c r="X350" s="1"/>
       <c r="Y350" s="1"/>
     </row>
-    <row r="351" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:25" ht="12.75">
       <c r="A351" s="12"/>
       <c r="B351" s="12"/>
       <c r="C351" s="12"/>
@@ -11182,7 +11182,7 @@
       <c r="X351" s="1"/>
       <c r="Y351" s="1"/>
     </row>
-    <row r="352" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:25" ht="12.75">
       <c r="A352" s="12"/>
       <c r="B352" s="12"/>
       <c r="C352" s="12"/>
@@ -11209,7 +11209,7 @@
       <c r="X352" s="1"/>
       <c r="Y352" s="1"/>
     </row>
-    <row r="353" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:25" ht="12.75">
       <c r="A353" s="12"/>
       <c r="B353" s="12"/>
       <c r="C353" s="12"/>
@@ -11236,7 +11236,7 @@
       <c r="X353" s="1"/>
       <c r="Y353" s="1"/>
     </row>
-    <row r="354" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:25" ht="12.75">
       <c r="A354" s="12"/>
       <c r="B354" s="12"/>
       <c r="C354" s="12"/>
@@ -11263,7 +11263,7 @@
       <c r="X354" s="1"/>
       <c r="Y354" s="1"/>
     </row>
-    <row r="355" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:25" ht="12.75">
       <c r="A355" s="12"/>
       <c r="B355" s="12"/>
       <c r="C355" s="12"/>
@@ -11290,7 +11290,7 @@
       <c r="X355" s="1"/>
       <c r="Y355" s="1"/>
     </row>
-    <row r="356" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:25" ht="12.75">
       <c r="A356" s="12"/>
       <c r="B356" s="12"/>
       <c r="C356" s="12"/>
@@ -11317,7 +11317,7 @@
       <c r="X356" s="1"/>
       <c r="Y356" s="1"/>
     </row>
-    <row r="357" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:25" ht="12.75">
       <c r="A357" s="12"/>
       <c r="B357" s="12"/>
       <c r="C357" s="12"/>
@@ -11344,7 +11344,7 @@
       <c r="X357" s="1"/>
       <c r="Y357" s="1"/>
     </row>
-    <row r="358" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:25" ht="12.75">
       <c r="A358" s="12"/>
       <c r="B358" s="12"/>
       <c r="C358" s="12"/>
@@ -11371,7 +11371,7 @@
       <c r="X358" s="1"/>
       <c r="Y358" s="1"/>
     </row>
-    <row r="359" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:25" ht="12.75">
       <c r="A359" s="12"/>
       <c r="B359" s="12"/>
       <c r="C359" s="12"/>
@@ -11398,7 +11398,7 @@
       <c r="X359" s="1"/>
       <c r="Y359" s="1"/>
     </row>
-    <row r="360" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:25" ht="12.75">
       <c r="A360" s="12"/>
       <c r="B360" s="12"/>
       <c r="C360" s="12"/>
@@ -11425,7 +11425,7 @@
       <c r="X360" s="1"/>
       <c r="Y360" s="1"/>
     </row>
-    <row r="361" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:25" ht="12.75">
       <c r="A361" s="12"/>
       <c r="B361" s="12"/>
       <c r="C361" s="12"/>
@@ -11452,7 +11452,7 @@
       <c r="X361" s="1"/>
       <c r="Y361" s="1"/>
     </row>
-    <row r="362" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:25" ht="12.75">
       <c r="A362" s="12"/>
       <c r="B362" s="12"/>
       <c r="C362" s="12"/>
@@ -11479,7 +11479,7 @@
       <c r="X362" s="1"/>
       <c r="Y362" s="1"/>
     </row>
-    <row r="363" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:25" ht="12.75">
       <c r="A363" s="12"/>
       <c r="B363" s="12"/>
       <c r="C363" s="12"/>
@@ -11506,7 +11506,7 @@
       <c r="X363" s="1"/>
       <c r="Y363" s="1"/>
     </row>
-    <row r="364" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:25" ht="12.75">
       <c r="A364" s="12"/>
       <c r="B364" s="12"/>
       <c r="C364" s="12"/>
@@ -11533,7 +11533,7 @@
       <c r="X364" s="1"/>
       <c r="Y364" s="1"/>
     </row>
-    <row r="365" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:25" ht="12.75">
       <c r="A365" s="12"/>
       <c r="B365" s="12"/>
       <c r="C365" s="12"/>
@@ -11560,7 +11560,7 @@
       <c r="X365" s="1"/>
       <c r="Y365" s="1"/>
     </row>
-    <row r="366" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:25" ht="12.75">
       <c r="A366" s="12"/>
       <c r="B366" s="12"/>
       <c r="C366" s="12"/>
@@ -11587,7 +11587,7 @@
       <c r="X366" s="1"/>
       <c r="Y366" s="1"/>
     </row>
-    <row r="367" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:25" ht="12.75">
       <c r="A367" s="12"/>
       <c r="B367" s="12"/>
       <c r="C367" s="12"/>
@@ -11614,7 +11614,7 @@
       <c r="X367" s="1"/>
       <c r="Y367" s="1"/>
     </row>
-    <row r="368" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:25" ht="12.75">
       <c r="A368" s="12"/>
       <c r="B368" s="12"/>
       <c r="C368" s="12"/>
@@ -11641,7 +11641,7 @@
       <c r="X368" s="1"/>
       <c r="Y368" s="1"/>
     </row>
-    <row r="369" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:25" ht="12.75">
       <c r="A369" s="12"/>
       <c r="B369" s="12"/>
       <c r="C369" s="12"/>
@@ -11668,7 +11668,7 @@
       <c r="X369" s="1"/>
       <c r="Y369" s="1"/>
     </row>
-    <row r="370" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:25" ht="12.75">
       <c r="A370" s="12"/>
       <c r="B370" s="12"/>
       <c r="C370" s="12"/>
@@ -11695,7 +11695,7 @@
       <c r="X370" s="1"/>
       <c r="Y370" s="1"/>
     </row>
-    <row r="371" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:25" ht="12.75">
       <c r="A371" s="12"/>
       <c r="B371" s="12"/>
       <c r="C371" s="12"/>
@@ -11722,7 +11722,7 @@
       <c r="X371" s="1"/>
       <c r="Y371" s="1"/>
     </row>
-    <row r="372" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:25" ht="12.75">
       <c r="A372" s="12"/>
       <c r="B372" s="12"/>
       <c r="C372" s="12"/>
@@ -11749,7 +11749,7 @@
       <c r="X372" s="1"/>
       <c r="Y372" s="1"/>
     </row>
-    <row r="373" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:25" ht="12.75">
       <c r="A373" s="12"/>
       <c r="B373" s="12"/>
       <c r="C373" s="12"/>
@@ -11776,7 +11776,7 @@
       <c r="X373" s="1"/>
       <c r="Y373" s="1"/>
     </row>
-    <row r="374" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:25" ht="12.75">
       <c r="A374" s="12"/>
       <c r="B374" s="12"/>
       <c r="C374" s="12"/>
@@ -11803,7 +11803,7 @@
       <c r="X374" s="1"/>
       <c r="Y374" s="1"/>
     </row>
-    <row r="375" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:25" ht="12.75">
       <c r="A375" s="12"/>
       <c r="B375" s="12"/>
       <c r="C375" s="12"/>
@@ -11830,7 +11830,7 @@
       <c r="X375" s="1"/>
       <c r="Y375" s="1"/>
     </row>
-    <row r="376" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:25" ht="12.75">
       <c r="A376" s="12"/>
       <c r="B376" s="12"/>
       <c r="C376" s="12"/>
@@ -11857,7 +11857,7 @@
       <c r="X376" s="1"/>
       <c r="Y376" s="1"/>
     </row>
-    <row r="377" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:25" ht="12.75">
       <c r="A377" s="12"/>
       <c r="B377" s="12"/>
       <c r="C377" s="12"/>
@@ -11884,7 +11884,7 @@
       <c r="X377" s="1"/>
       <c r="Y377" s="1"/>
     </row>
-    <row r="378" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:25" ht="12.75">
       <c r="A378" s="12"/>
       <c r="B378" s="12"/>
       <c r="C378" s="12"/>
@@ -11911,7 +11911,7 @@
       <c r="X378" s="1"/>
       <c r="Y378" s="1"/>
     </row>
-    <row r="379" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:25" ht="12.75">
       <c r="A379" s="12"/>
       <c r="B379" s="12"/>
       <c r="C379" s="12"/>
@@ -11938,7 +11938,7 @@
       <c r="X379" s="1"/>
       <c r="Y379" s="1"/>
     </row>
-    <row r="380" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:25" ht="12.75">
       <c r="A380" s="12"/>
       <c r="B380" s="12"/>
       <c r="C380" s="12"/>
@@ -11965,7 +11965,7 @@
       <c r="X380" s="1"/>
       <c r="Y380" s="1"/>
     </row>
-    <row r="381" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:25" ht="12.75">
       <c r="A381" s="12"/>
       <c r="B381" s="12"/>
       <c r="C381" s="12"/>
@@ -11992,7 +11992,7 @@
       <c r="X381" s="1"/>
       <c r="Y381" s="1"/>
     </row>
-    <row r="382" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:25" ht="12.75">
       <c r="A382" s="12"/>
       <c r="B382" s="12"/>
       <c r="C382" s="12"/>
@@ -12019,7 +12019,7 @@
       <c r="X382" s="1"/>
       <c r="Y382" s="1"/>
     </row>
-    <row r="383" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:25" ht="12.75">
       <c r="A383" s="12"/>
       <c r="B383" s="12"/>
       <c r="C383" s="12"/>
@@ -12046,7 +12046,7 @@
       <c r="X383" s="1"/>
       <c r="Y383" s="1"/>
     </row>
-    <row r="384" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:25" ht="12.75">
       <c r="A384" s="12"/>
       <c r="B384" s="12"/>
       <c r="C384" s="12"/>
@@ -12073,7 +12073,7 @@
       <c r="X384" s="1"/>
       <c r="Y384" s="1"/>
     </row>
-    <row r="385" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:25" ht="12.75">
       <c r="A385" s="12"/>
       <c r="B385" s="12"/>
       <c r="C385" s="12"/>
@@ -12100,7 +12100,7 @@
       <c r="X385" s="1"/>
       <c r="Y385" s="1"/>
     </row>
-    <row r="386" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:25" ht="12.75">
       <c r="A386" s="12"/>
       <c r="B386" s="12"/>
       <c r="C386" s="12"/>
@@ -12127,7 +12127,7 @@
       <c r="X386" s="1"/>
       <c r="Y386" s="1"/>
     </row>
-    <row r="387" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:25" ht="12.75">
       <c r="A387" s="12"/>
       <c r="B387" s="12"/>
       <c r="C387" s="12"/>
@@ -12154,7 +12154,7 @@
       <c r="X387" s="1"/>
       <c r="Y387" s="1"/>
     </row>
-    <row r="388" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:25" ht="12.75">
       <c r="A388" s="12"/>
       <c r="B388" s="12"/>
       <c r="C388" s="12"/>
@@ -12181,7 +12181,7 @@
       <c r="X388" s="1"/>
       <c r="Y388" s="1"/>
     </row>
-    <row r="389" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:25" ht="12.75">
       <c r="A389" s="12"/>
       <c r="B389" s="12"/>
       <c r="C389" s="12"/>
@@ -12208,7 +12208,7 @@
       <c r="X389" s="1"/>
       <c r="Y389" s="1"/>
     </row>
-    <row r="390" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:25" ht="12.75">
       <c r="A390" s="12"/>
       <c r="B390" s="12"/>
       <c r="C390" s="12"/>
@@ -12235,7 +12235,7 @@
       <c r="X390" s="1"/>
       <c r="Y390" s="1"/>
     </row>
-    <row r="391" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:25" ht="12.75">
       <c r="A391" s="12"/>
       <c r="B391" s="12"/>
       <c r="C391" s="12"/>
@@ -12262,7 +12262,7 @@
       <c r="X391" s="1"/>
       <c r="Y391" s="1"/>
     </row>
-    <row r="392" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:25" ht="12.75">
       <c r="A392" s="12"/>
       <c r="B392" s="12"/>
       <c r="C392" s="12"/>
@@ -12289,7 +12289,7 @@
       <c r="X392" s="1"/>
       <c r="Y392" s="1"/>
     </row>
-    <row r="393" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:25" ht="12.75">
       <c r="A393" s="12"/>
       <c r="B393" s="12"/>
       <c r="C393" s="12"/>
@@ -12316,7 +12316,7 @@
       <c r="X393" s="1"/>
       <c r="Y393" s="1"/>
     </row>
-    <row r="394" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:25" ht="12.75">
       <c r="A394" s="12"/>
       <c r="B394" s="12"/>
       <c r="C394" s="12"/>
@@ -12343,7 +12343,7 @@
       <c r="X394" s="1"/>
       <c r="Y394" s="1"/>
     </row>
-    <row r="395" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:25" ht="12.75">
       <c r="A395" s="12"/>
       <c r="B395" s="12"/>
       <c r="C395" s="12"/>
@@ -12370,7 +12370,7 @@
       <c r="X395" s="1"/>
       <c r="Y395" s="1"/>
     </row>
-    <row r="396" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:25" ht="12.75">
       <c r="A396" s="12"/>
       <c r="B396" s="12"/>
       <c r="C396" s="12"/>
@@ -12397,7 +12397,7 @@
       <c r="X396" s="1"/>
       <c r="Y396" s="1"/>
     </row>
-    <row r="397" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:25" ht="12.75">
       <c r="A397" s="12"/>
       <c r="B397" s="12"/>
       <c r="C397" s="12"/>
@@ -12424,7 +12424,7 @@
       <c r="X397" s="1"/>
       <c r="Y397" s="1"/>
     </row>
-    <row r="398" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:25" ht="12.75">
       <c r="A398" s="12"/>
       <c r="B398" s="12"/>
       <c r="C398" s="12"/>
@@ -12451,7 +12451,7 @@
       <c r="X398" s="1"/>
       <c r="Y398" s="1"/>
     </row>
-    <row r="399" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:25" ht="12.75">
       <c r="A399" s="12"/>
       <c r="B399" s="12"/>
       <c r="C399" s="12"/>
@@ -12478,7 +12478,7 @@
       <c r="X399" s="1"/>
       <c r="Y399" s="1"/>
     </row>
-    <row r="400" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:25" ht="12.75">
       <c r="A400" s="12"/>
       <c r="B400" s="12"/>
       <c r="C400" s="12"/>
@@ -12505,7 +12505,7 @@
       <c r="X400" s="1"/>
       <c r="Y400" s="1"/>
     </row>
-    <row r="401" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:25" ht="12.75">
       <c r="A401" s="12"/>
       <c r="B401" s="12"/>
       <c r="C401" s="12"/>
@@ -12532,7 +12532,7 @@
       <c r="X401" s="1"/>
       <c r="Y401" s="1"/>
     </row>
-    <row r="402" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:25" ht="12.75">
       <c r="A402" s="12"/>
       <c r="B402" s="12"/>
       <c r="C402" s="12"/>
@@ -12559,7 +12559,7 @@
       <c r="X402" s="1"/>
       <c r="Y402" s="1"/>
     </row>
-    <row r="403" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:25" ht="12.75">
       <c r="A403" s="12"/>
       <c r="B403" s="12"/>
       <c r="C403" s="12"/>
@@ -12586,7 +12586,7 @@
       <c r="X403" s="1"/>
       <c r="Y403" s="1"/>
     </row>
-    <row r="404" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:25" ht="12.75">
       <c r="A404" s="12"/>
       <c r="B404" s="12"/>
       <c r="C404" s="12"/>
@@ -12613,7 +12613,7 @@
       <c r="X404" s="1"/>
       <c r="Y404" s="1"/>
     </row>
-    <row r="405" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:25" ht="12.75">
       <c r="A405" s="12"/>
       <c r="B405" s="12"/>
       <c r="C405" s="12"/>
@@ -12640,7 +12640,7 @@
       <c r="X405" s="1"/>
       <c r="Y405" s="1"/>
     </row>
-    <row r="406" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:25" ht="12.75">
       <c r="A406" s="12"/>
       <c r="B406" s="12"/>
       <c r="C406" s="12"/>
@@ -12667,7 +12667,7 @@
       <c r="X406" s="1"/>
       <c r="Y406" s="1"/>
     </row>
-    <row r="407" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:25" ht="12.75">
       <c r="A407" s="12"/>
       <c r="B407" s="12"/>
       <c r="C407" s="12"/>
@@ -12694,7 +12694,7 @@
       <c r="X407" s="1"/>
       <c r="Y407" s="1"/>
     </row>
-    <row r="408" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:25" ht="12.75">
       <c r="A408" s="12"/>
       <c r="B408" s="12"/>
       <c r="C408" s="12"/>
@@ -12721,7 +12721,7 @@
       <c r="X408" s="1"/>
       <c r="Y408" s="1"/>
     </row>
-    <row r="409" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:25" ht="12.75">
       <c r="A409" s="12"/>
       <c r="B409" s="12"/>
       <c r="C409" s="12"/>
@@ -12748,7 +12748,7 @@
       <c r="X409" s="1"/>
       <c r="Y409" s="1"/>
     </row>
-    <row r="410" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:25" ht="12.75">
       <c r="A410" s="12"/>
       <c r="B410" s="12"/>
       <c r="C410" s="12"/>
@@ -12775,7 +12775,7 @@
       <c r="X410" s="1"/>
       <c r="Y410" s="1"/>
     </row>
-    <row r="411" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:25" ht="12.75">
       <c r="A411" s="12"/>
       <c r="B411" s="12"/>
       <c r="C411" s="12"/>
@@ -12802,7 +12802,7 @@
       <c r="X411" s="1"/>
       <c r="Y411" s="1"/>
     </row>
-    <row r="412" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:25" ht="12.75">
       <c r="A412" s="12"/>
       <c r="B412" s="12"/>
       <c r="C412" s="12"/>
@@ -12829,7 +12829,7 @@
       <c r="X412" s="1"/>
       <c r="Y412" s="1"/>
     </row>
-    <row r="413" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:25" ht="12.75">
       <c r="A413" s="12"/>
       <c r="B413" s="12"/>
       <c r="C413" s="12"/>
@@ -12856,7 +12856,7 @@
       <c r="X413" s="1"/>
       <c r="Y413" s="1"/>
     </row>
-    <row r="414" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:25" ht="12.75">
       <c r="A414" s="12"/>
       <c r="B414" s="12"/>
       <c r="C414" s="12"/>
@@ -12883,7 +12883,7 @@
       <c r="X414" s="1"/>
       <c r="Y414" s="1"/>
     </row>
-    <row r="415" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:25" ht="12.75">
       <c r="A415" s="12"/>
       <c r="B415" s="12"/>
       <c r="C415" s="12"/>
@@ -12910,7 +12910,7 @@
       <c r="X415" s="1"/>
       <c r="Y415" s="1"/>
     </row>
-    <row r="416" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:25" ht="12.75">
       <c r="A416" s="12"/>
       <c r="B416" s="12"/>
       <c r="C416" s="12"/>
@@ -12937,7 +12937,7 @@
       <c r="X416" s="1"/>
       <c r="Y416" s="1"/>
     </row>
-    <row r="417" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:25" ht="12.75">
       <c r="A417" s="12"/>
       <c r="B417" s="12"/>
       <c r="C417" s="12"/>
@@ -12964,7 +12964,7 @@
       <c r="X417" s="1"/>
       <c r="Y417" s="1"/>
     </row>
-    <row r="418" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:25" ht="12.75">
       <c r="A418" s="12"/>
       <c r="B418" s="12"/>
       <c r="C418" s="12"/>
@@ -12991,7 +12991,7 @@
       <c r="X418" s="1"/>
       <c r="Y418" s="1"/>
     </row>
-    <row r="419" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:25" ht="12.75">
       <c r="A419" s="12"/>
       <c r="B419" s="12"/>
       <c r="C419" s="12"/>
@@ -13018,7 +13018,7 @@
       <c r="X419" s="1"/>
       <c r="Y419" s="1"/>
     </row>
-    <row r="420" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:25" ht="12.75">
       <c r="A420" s="12"/>
       <c r="B420" s="12"/>
       <c r="C420" s="12"/>
@@ -13045,7 +13045,7 @@
       <c r="X420" s="1"/>
       <c r="Y420" s="1"/>
     </row>
-    <row r="421" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:25" ht="12.75">
       <c r="A421" s="12"/>
       <c r="B421" s="12"/>
       <c r="C421" s="12"/>
@@ -13072,7 +13072,7 @@
       <c r="X421" s="1"/>
       <c r="Y421" s="1"/>
     </row>
-    <row r="422" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:25" ht="12.75">
       <c r="A422" s="12"/>
       <c r="B422" s="12"/>
       <c r="C422" s="12"/>
@@ -13099,7 +13099,7 @@
       <c r="X422" s="1"/>
       <c r="Y422" s="1"/>
     </row>
-    <row r="423" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:25" ht="12.75">
       <c r="A423" s="12"/>
       <c r="B423" s="12"/>
       <c r="C423" s="12"/>
@@ -13126,7 +13126,7 @@
       <c r="X423" s="1"/>
       <c r="Y423" s="1"/>
     </row>
-    <row r="424" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:25" ht="12.75">
       <c r="A424" s="12"/>
       <c r="B424" s="12"/>
       <c r="C424" s="12"/>
@@ -13153,7 +13153,7 @@
       <c r="X424" s="1"/>
       <c r="Y424" s="1"/>
     </row>
-    <row r="425" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:25" ht="12.75">
       <c r="A425" s="12"/>
       <c r="B425" s="12"/>
       <c r="C425" s="12"/>
@@ -13180,7 +13180,7 @@
       <c r="X425" s="1"/>
       <c r="Y425" s="1"/>
     </row>
-    <row r="426" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:25" ht="12.75">
       <c r="A426" s="12"/>
       <c r="B426" s="12"/>
       <c r="C426" s="12"/>
@@ -13207,7 +13207,7 @@
       <c r="X426" s="1"/>
       <c r="Y426" s="1"/>
     </row>
-    <row r="427" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:25" ht="12.75">
       <c r="A427" s="12"/>
       <c r="B427" s="12"/>
       <c r="C427" s="12"/>
@@ -13234,7 +13234,7 @@
       <c r="X427" s="1"/>
       <c r="Y427" s="1"/>
     </row>
-    <row r="428" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:25" ht="12.75">
       <c r="A428" s="12"/>
       <c r="B428" s="12"/>
       <c r="C428" s="12"/>
@@ -13261,7 +13261,7 @@
       <c r="X428" s="1"/>
       <c r="Y428" s="1"/>
     </row>
-    <row r="429" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:25" ht="12.75">
       <c r="A429" s="12"/>
       <c r="B429" s="12"/>
       <c r="C429" s="12"/>
@@ -13288,7 +13288,7 @@
       <c r="X429" s="1"/>
       <c r="Y429" s="1"/>
     </row>
-    <row r="430" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:25" ht="12.75">
       <c r="A430" s="12"/>
       <c r="B430" s="12"/>
       <c r="C430" s="12"/>
@@ -13315,7 +13315,7 @@
       <c r="X430" s="1"/>
       <c r="Y430" s="1"/>
     </row>
-    <row r="431" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:25" ht="12.75">
       <c r="A431" s="12"/>
       <c r="B431" s="12"/>
       <c r="C431" s="12"/>
@@ -13342,7 +13342,7 @@
       <c r="X431" s="1"/>
       <c r="Y431" s="1"/>
     </row>
-    <row r="432" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:25" ht="12.75">
       <c r="A432" s="12"/>
       <c r="B432" s="12"/>
       <c r="C432" s="12"/>
@@ -13369,7 +13369,7 @@
       <c r="X432" s="1"/>
       <c r="Y432" s="1"/>
     </row>
-    <row r="433" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:25" ht="12.75">
       <c r="A433" s="12"/>
       <c r="B433" s="12"/>
       <c r="C433" s="12"/>
@@ -13396,7 +13396,7 @@
       <c r="X433" s="1"/>
       <c r="Y433" s="1"/>
     </row>
-    <row r="434" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:25" ht="12.75">
       <c r="A434" s="12"/>
       <c r="B434" s="12"/>
       <c r="C434" s="12"/>
@@ -13423,7 +13423,7 @@
       <c r="X434" s="1"/>
       <c r="Y434" s="1"/>
     </row>
-    <row r="435" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:25" ht="12.75">
       <c r="A435" s="12"/>
       <c r="B435" s="12"/>
       <c r="C435" s="12"/>
@@ -13450,7 +13450,7 @@
       <c r="X435" s="1"/>
       <c r="Y435" s="1"/>
     </row>
-    <row r="436" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:25" ht="12.75">
       <c r="A436" s="12"/>
       <c r="B436" s="12"/>
       <c r="C436" s="12"/>
@@ -13477,7 +13477,7 @@
       <c r="X436" s="1"/>
       <c r="Y436" s="1"/>
     </row>
-    <row r="437" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:25" ht="12.75">
       <c r="A437" s="12"/>
       <c r="B437" s="12"/>
       <c r="C437" s="12"/>
@@ -13504,7 +13504,7 @@
       <c r="X437" s="1"/>
       <c r="Y437" s="1"/>
     </row>
-    <row r="438" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:25" ht="12.75">
       <c r="A438" s="12"/>
       <c r="B438" s="12"/>
       <c r="C438" s="12"/>
@@ -13531,7 +13531,7 @@
       <c r="X438" s="1"/>
       <c r="Y438" s="1"/>
     </row>
-    <row r="439" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:25" ht="12.75">
       <c r="A439" s="12"/>
       <c r="B439" s="12"/>
       <c r="C439" s="12"/>
@@ -13558,7 +13558,7 @@
       <c r="X439" s="1"/>
       <c r="Y439" s="1"/>
     </row>
-    <row r="440" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:25" ht="12.75">
       <c r="A440" s="12"/>
       <c r="B440" s="12"/>
       <c r="C440" s="12"/>
@@ -13585,7 +13585,7 @@
       <c r="X440" s="1"/>
       <c r="Y440" s="1"/>
     </row>
-    <row r="441" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:25" ht="12.75">
       <c r="A441" s="12"/>
       <c r="B441" s="12"/>
       <c r="C441" s="12"/>
@@ -13612,7 +13612,7 @@
       <c r="X441" s="1"/>
       <c r="Y441" s="1"/>
     </row>
-    <row r="442" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:25" ht="12.75">
       <c r="A442" s="12"/>
       <c r="B442" s="12"/>
       <c r="C442" s="12"/>
@@ -13639,7 +13639,7 @@
       <c r="X442" s="1"/>
       <c r="Y442" s="1"/>
     </row>
-    <row r="443" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:25" ht="12.75">
       <c r="A443" s="12"/>
       <c r="B443" s="12"/>
       <c r="C443" s="12"/>
@@ -13666,7 +13666,7 @@
       <c r="X443" s="1"/>
       <c r="Y443" s="1"/>
     </row>
-    <row r="444" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:25" ht="12.75">
       <c r="A444" s="12"/>
       <c r="B444" s="12"/>
       <c r="C444" s="12"/>
@@ -13693,7 +13693,7 @@
       <c r="X444" s="1"/>
       <c r="Y444" s="1"/>
     </row>
-    <row r="445" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:25" ht="12.75">
       <c r="A445" s="12"/>
       <c r="B445" s="12"/>
       <c r="C445" s="12"/>
@@ -13720,7 +13720,7 @@
       <c r="X445" s="1"/>
       <c r="Y445" s="1"/>
     </row>
-    <row r="446" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:25" ht="12.75">
       <c r="A446" s="12"/>
       <c r="B446" s="12"/>
       <c r="C446" s="12"/>
@@ -13747,7 +13747,7 @@
       <c r="X446" s="1"/>
       <c r="Y446" s="1"/>
     </row>
-    <row r="447" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:25" ht="12.75">
       <c r="A447" s="12"/>
       <c r="B447" s="12"/>
       <c r="C447" s="12"/>
@@ -13774,7 +13774,7 @@
       <c r="X447" s="1"/>
       <c r="Y447" s="1"/>
     </row>
-    <row r="448" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:25" ht="12.75">
       <c r="A448" s="12"/>
       <c r="B448" s="12"/>
       <c r="C448" s="12"/>
@@ -13801,7 +13801,7 @@
       <c r="X448" s="1"/>
       <c r="Y448" s="1"/>
     </row>
-    <row r="449" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:25" ht="12.75">
       <c r="A449" s="12"/>
       <c r="B449" s="12"/>
       <c r="C449" s="12"/>
@@ -13828,7 +13828,7 @@
       <c r="X449" s="1"/>
       <c r="Y449" s="1"/>
     </row>
-    <row r="450" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:25" ht="12.75">
       <c r="A450" s="12"/>
       <c r="B450" s="12"/>
       <c r="C450" s="12"/>
@@ -13855,7 +13855,7 @@
       <c r="X450" s="1"/>
       <c r="Y450" s="1"/>
     </row>
-    <row r="451" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:25" ht="12.75">
       <c r="A451" s="12"/>
       <c r="B451" s="12"/>
       <c r="C451" s="12"/>
@@ -13882,7 +13882,7 @@
       <c r="X451" s="1"/>
       <c r="Y451" s="1"/>
     </row>
-    <row r="452" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:25" ht="12.75">
       <c r="A452" s="12"/>
       <c r="B452" s="12"/>
       <c r="C452" s="12"/>
@@ -13909,7 +13909,7 @@
       <c r="X452" s="1"/>
       <c r="Y452" s="1"/>
     </row>
-    <row r="453" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:25" ht="12.75">
       <c r="A453" s="12"/>
       <c r="B453" s="12"/>
       <c r="C453" s="12"/>
@@ -13936,7 +13936,7 @@
       <c r="X453" s="1"/>
       <c r="Y453" s="1"/>
     </row>
-    <row r="454" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:25" ht="12.75">
       <c r="A454" s="12"/>
       <c r="B454" s="12"/>
       <c r="C454" s="12"/>
@@ -13963,7 +13963,7 @@
       <c r="X454" s="1"/>
       <c r="Y454" s="1"/>
     </row>
-    <row r="455" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:25" ht="12.75">
       <c r="A455" s="12"/>
       <c r="B455" s="12"/>
       <c r="C455" s="12"/>
@@ -13990,7 +13990,7 @@
       <c r="X455" s="1"/>
       <c r="Y455" s="1"/>
     </row>
-    <row r="456" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:25" ht="12.75">
       <c r="A456" s="12"/>
       <c r="B456" s="12"/>
       <c r="C456" s="12"/>
@@ -14017,7 +14017,7 @@
       <c r="X456" s="1"/>
       <c r="Y456" s="1"/>
     </row>
-    <row r="457" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:25" ht="12.75">
       <c r="A457" s="12"/>
       <c r="B457" s="12"/>
       <c r="C457" s="12"/>
@@ -14044,7 +14044,7 @@
       <c r="X457" s="1"/>
       <c r="Y457" s="1"/>
     </row>
-    <row r="458" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:25" ht="12.75">
       <c r="A458" s="12"/>
       <c r="B458" s="12"/>
       <c r="C458" s="12"/>
@@ -14071,7 +14071,7 @@
       <c r="X458" s="1"/>
       <c r="Y458" s="1"/>
     </row>
-    <row r="459" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:25" ht="12.75">
       <c r="A459" s="12"/>
       <c r="B459" s="12"/>
       <c r="C459" s="12"/>
@@ -14098,7 +14098,7 @@
       <c r="X459" s="1"/>
       <c r="Y459" s="1"/>
     </row>
-    <row r="460" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:25" ht="12.75">
       <c r="A460" s="12"/>
       <c r="B460" s="12"/>
       <c r="C460" s="12"/>
@@ -14125,7 +14125,7 @@
       <c r="X460" s="1"/>
       <c r="Y460" s="1"/>
     </row>
-    <row r="461" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:25" ht="12.75">
       <c r="A461" s="12"/>
       <c r="B461" s="12"/>
       <c r="C461" s="12"/>
@@ -14152,7 +14152,7 @@
       <c r="X461" s="1"/>
       <c r="Y461" s="1"/>
     </row>
-    <row r="462" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:25" ht="12.75">
       <c r="A462" s="12"/>
       <c r="B462" s="12"/>
       <c r="C462" s="12"/>
@@ -14179,7 +14179,7 @@
       <c r="X462" s="1"/>
       <c r="Y462" s="1"/>
     </row>
-    <row r="463" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:25" ht="12.75">
       <c r="A463" s="12"/>
       <c r="B463" s="12"/>
       <c r="C463" s="12"/>
@@ -14206,7 +14206,7 @@
       <c r="X463" s="1"/>
       <c r="Y463" s="1"/>
     </row>
-    <row r="464" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:25" ht="12.75">
       <c r="A464" s="12"/>
       <c r="B464" s="12"/>
       <c r="C464" s="12"/>
@@ -14233,7 +14233,7 @@
       <c r="X464" s="1"/>
       <c r="Y464" s="1"/>
     </row>
-    <row r="465" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:25" ht="12.75">
       <c r="A465" s="12"/>
       <c r="B465" s="12"/>
       <c r="C465" s="12"/>
@@ -14260,7 +14260,7 @@
       <c r="X465" s="1"/>
       <c r="Y465" s="1"/>
     </row>
-    <row r="466" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:25" ht="12.75">
       <c r="A466" s="12"/>
       <c r="B466" s="12"/>
       <c r="C466" s="12"/>
@@ -14287,7 +14287,7 @@
       <c r="X466" s="1"/>
       <c r="Y466" s="1"/>
     </row>
-    <row r="467" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:25" ht="12.75">
       <c r="A467" s="12"/>
       <c r="B467" s="12"/>
       <c r="C467" s="12"/>
@@ -14314,7 +14314,7 @@
       <c r="X467" s="1"/>
       <c r="Y467" s="1"/>
     </row>
-    <row r="468" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:25" ht="12.75">
       <c r="A468" s="12"/>
       <c r="B468" s="12"/>
       <c r="C468" s="12"/>
@@ -14341,7 +14341,7 @@
       <c r="X468" s="1"/>
       <c r="Y468" s="1"/>
     </row>
-    <row r="469" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:25" ht="12.75">
       <c r="A469" s="12"/>
       <c r="B469" s="12"/>
       <c r="C469" s="12"/>
@@ -14368,7 +14368,7 @@
       <c r="X469" s="1"/>
       <c r="Y469" s="1"/>
     </row>
-    <row r="470" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:25" ht="12.75">
       <c r="A470" s="12"/>
       <c r="B470" s="12"/>
       <c r="C470" s="12"/>
@@ -14395,7 +14395,7 @@
       <c r="X470" s="1"/>
       <c r="Y470" s="1"/>
     </row>
-    <row r="471" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:25" ht="12.75">
       <c r="A471" s="12"/>
       <c r="B471" s="12"/>
       <c r="C471" s="12"/>
@@ -14422,7 +14422,7 @@
       <c r="X471" s="1"/>
       <c r="Y471" s="1"/>
     </row>
-    <row r="472" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:25" ht="12.75">
       <c r="A472" s="12"/>
       <c r="B472" s="12"/>
       <c r="C472" s="12"/>
@@ -14449,7 +14449,7 @@
       <c r="X472" s="1"/>
       <c r="Y472" s="1"/>
     </row>
-    <row r="473" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:25" ht="12.75">
       <c r="A473" s="12"/>
       <c r="B473" s="12"/>
       <c r="C473" s="12"/>
@@ -14476,7 +14476,7 @@
       <c r="X473" s="1"/>
       <c r="Y473" s="1"/>
     </row>
-    <row r="474" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:25" ht="12.75">
       <c r="A474" s="12"/>
       <c r="B474" s="12"/>
       <c r="C474" s="12"/>
@@ -14503,7 +14503,7 @@
       <c r="X474" s="1"/>
       <c r="Y474" s="1"/>
     </row>
-    <row r="475" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:25" ht="12.75">
       <c r="A475" s="12"/>
       <c r="B475" s="12"/>
       <c r="C475" s="12"/>
@@ -14530,7 +14530,7 @@
       <c r="X475" s="1"/>
       <c r="Y475" s="1"/>
     </row>
-    <row r="476" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:25" ht="12.75">
       <c r="A476" s="12"/>
       <c r="B476" s="12"/>
       <c r="C476" s="12"/>
@@ -14557,7 +14557,7 @@
       <c r="X476" s="1"/>
       <c r="Y476" s="1"/>
     </row>
-    <row r="477" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:25" ht="12.75">
       <c r="A477" s="12"/>
       <c r="B477" s="12"/>
       <c r="C477" s="12"/>
@@ -14584,7 +14584,7 @@
       <c r="X477" s="1"/>
       <c r="Y477" s="1"/>
     </row>
-    <row r="478" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:25" ht="12.75">
       <c r="A478" s="12"/>
       <c r="B478" s="12"/>
       <c r="C478" s="12"/>
@@ -14611,7 +14611,7 @@
       <c r="X478" s="1"/>
       <c r="Y478" s="1"/>
     </row>
-    <row r="479" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:25" ht="12.75">
       <c r="A479" s="12"/>
       <c r="B479" s="12"/>
       <c r="C479" s="12"/>
@@ -14638,7 +14638,7 @@
       <c r="X479" s="1"/>
       <c r="Y479" s="1"/>
     </row>
-    <row r="480" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:25" ht="12.75">
       <c r="A480" s="12"/>
       <c r="B480" s="12"/>
       <c r="C480" s="12"/>
@@ -14665,7 +14665,7 @@
       <c r="X480" s="1"/>
       <c r="Y480" s="1"/>
     </row>
-    <row r="481" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:25" ht="12.75">
       <c r="A481" s="12"/>
       <c r="B481" s="12"/>
       <c r="C481" s="12"/>
@@ -14692,7 +14692,7 @@
       <c r="X481" s="1"/>
       <c r="Y481" s="1"/>
     </row>
-    <row r="482" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:25" ht="12.75">
       <c r="A482" s="12"/>
       <c r="B482" s="12"/>
       <c r="C482" s="12"/>
@@ -14719,7 +14719,7 @@
       <c r="X482" s="1"/>
       <c r="Y482" s="1"/>
     </row>
-    <row r="483" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:25" ht="12.75">
       <c r="A483" s="12"/>
       <c r="B483" s="12"/>
       <c r="C483" s="12"/>
@@ -14746,7 +14746,7 @@
       <c r="X483" s="1"/>
       <c r="Y483" s="1"/>
     </row>
-    <row r="484" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:25" ht="12.75">
       <c r="A484" s="12"/>
       <c r="B484" s="12"/>
       <c r="C484" s="12"/>
@@ -14773,7 +14773,7 @@
       <c r="X484" s="1"/>
       <c r="Y484" s="1"/>
     </row>
-    <row r="485" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:25" ht="12.75">
       <c r="A485" s="12"/>
       <c r="B485" s="12"/>
       <c r="C485" s="12"/>
@@ -14800,7 +14800,7 @@
       <c r="X485" s="1"/>
       <c r="Y485" s="1"/>
     </row>
-    <row r="486" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:25" ht="12.75">
       <c r="A486" s="12"/>
       <c r="B486" s="12"/>
       <c r="C486" s="12"/>
@@ -14827,7 +14827,7 @@
       <c r="X486" s="1"/>
       <c r="Y486" s="1"/>
     </row>
-    <row r="487" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:25" ht="12.75">
       <c r="A487" s="12"/>
       <c r="B487" s="12"/>
       <c r="C487" s="12"/>
@@ -14854,7 +14854,7 @@
       <c r="X487" s="1"/>
       <c r="Y487" s="1"/>
     </row>
-    <row r="488" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:25" ht="12.75">
       <c r="A488" s="12"/>
       <c r="B488" s="12"/>
       <c r="C488" s="12"/>
@@ -14881,7 +14881,7 @@
       <c r="X488" s="1"/>
       <c r="Y488" s="1"/>
     </row>
-    <row r="489" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:25" ht="12.75">
       <c r="A489" s="12"/>
       <c r="B489" s="12"/>
       <c r="C489" s="12"/>
@@ -14908,7 +14908,7 @@
       <c r="X489" s="1"/>
       <c r="Y489" s="1"/>
     </row>
-    <row r="490" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:25" ht="12.75">
       <c r="A490" s="12"/>
       <c r="B490" s="12"/>
       <c r="C490" s="12"/>
@@ -14935,7 +14935,7 @@
       <c r="X490" s="1"/>
       <c r="Y490" s="1"/>
     </row>
-    <row r="491" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:25" ht="12.75">
       <c r="A491" s="12"/>
       <c r="B491" s="12"/>
       <c r="C491" s="12"/>
@@ -14962,7 +14962,7 @@
       <c r="X491" s="1"/>
       <c r="Y491" s="1"/>
     </row>
-    <row r="492" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:25" ht="12.75">
       <c r="A492" s="12"/>
       <c r="B492" s="12"/>
       <c r="C492" s="12"/>
@@ -14989,7 +14989,7 @@
       <c r="X492" s="1"/>
       <c r="Y492" s="1"/>
     </row>
-    <row r="493" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:25" ht="12.75">
       <c r="A493" s="12"/>
       <c r="B493" s="12"/>
       <c r="C493" s="12"/>
@@ -15016,7 +15016,7 @@
       <c r="X493" s="1"/>
       <c r="Y493" s="1"/>
     </row>
-    <row r="494" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:25" ht="12.75">
       <c r="A494" s="12"/>
       <c r="B494" s="12"/>
       <c r="C494" s="12"/>
@@ -15043,7 +15043,7 @@
       <c r="X494" s="1"/>
       <c r="Y494" s="1"/>
     </row>
-    <row r="495" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:25" ht="12.75">
       <c r="A495" s="12"/>
       <c r="B495" s="12"/>
       <c r="C495" s="12"/>
@@ -15070,7 +15070,7 @@
       <c r="X495" s="1"/>
       <c r="Y495" s="1"/>
     </row>
-    <row r="496" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:25" ht="12.75">
       <c r="A496" s="12"/>
       <c r="B496" s="12"/>
       <c r="C496" s="12"/>
@@ -15097,7 +15097,7 @@
       <c r="X496" s="1"/>
       <c r="Y496" s="1"/>
     </row>
-    <row r="497" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:25" ht="12.75">
       <c r="A497" s="12"/>
       <c r="B497" s="12"/>
       <c r="C497" s="12"/>
@@ -15124,7 +15124,7 @@
       <c r="X497" s="1"/>
       <c r="Y497" s="1"/>
     </row>
-    <row r="498" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:25" ht="12.75">
       <c r="A498" s="12"/>
       <c r="B498" s="12"/>
       <c r="C498" s="12"/>
@@ -15151,7 +15151,7 @@
       <c r="X498" s="1"/>
       <c r="Y498" s="1"/>
     </row>
-    <row r="499" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:25" ht="12.75">
       <c r="A499" s="12"/>
       <c r="B499" s="12"/>
       <c r="C499" s="12"/>
@@ -15178,7 +15178,7 @@
       <c r="X499" s="1"/>
       <c r="Y499" s="1"/>
     </row>
-    <row r="500" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:25" ht="12.75">
       <c r="A500" s="12"/>
       <c r="B500" s="12"/>
       <c r="C500" s="12"/>
@@ -15205,7 +15205,7 @@
       <c r="X500" s="1"/>
       <c r="Y500" s="1"/>
     </row>
-    <row r="501" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:25" ht="12.75">
       <c r="A501" s="12"/>
       <c r="B501" s="12"/>
       <c r="C501" s="12"/>
@@ -15232,7 +15232,7 @@
       <c r="X501" s="1"/>
       <c r="Y501" s="1"/>
     </row>
-    <row r="502" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:25" ht="12.75">
       <c r="A502" s="12"/>
       <c r="B502" s="12"/>
       <c r="C502" s="12"/>
@@ -15259,7 +15259,7 @@
       <c r="X502" s="1"/>
       <c r="Y502" s="1"/>
     </row>
-    <row r="503" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:25" ht="12.75">
       <c r="A503" s="12"/>
       <c r="B503" s="12"/>
       <c r="C503" s="12"/>
@@ -15286,7 +15286,7 @@
       <c r="X503" s="1"/>
       <c r="Y503" s="1"/>
     </row>
-    <row r="504" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:25" ht="12.75">
       <c r="A504" s="12"/>
       <c r="B504" s="12"/>
       <c r="C504" s="12"/>
@@ -15313,7 +15313,7 @@
       <c r="X504" s="1"/>
       <c r="Y504" s="1"/>
     </row>
-    <row r="505" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:25" ht="12.75">
       <c r="A505" s="12"/>
       <c r="B505" s="12"/>
       <c r="C505" s="12"/>
@@ -15340,7 +15340,7 @@
       <c r="X505" s="1"/>
       <c r="Y505" s="1"/>
     </row>
-    <row r="506" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:25" ht="12.75">
       <c r="A506" s="12"/>
       <c r="B506" s="12"/>
       <c r="C506" s="12"/>
@@ -15367,7 +15367,7 @@
       <c r="X506" s="1"/>
       <c r="Y506" s="1"/>
     </row>
-    <row r="507" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:25" ht="12.75">
       <c r="A507" s="12"/>
       <c r="B507" s="12"/>
       <c r="C507" s="12"/>
@@ -15394,7 +15394,7 @@
       <c r="X507" s="1"/>
       <c r="Y507" s="1"/>
     </row>
-    <row r="508" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:25" ht="12.75">
       <c r="A508" s="12"/>
       <c r="B508" s="12"/>
       <c r="C508" s="12"/>
@@ -15421,7 +15421,7 @@
       <c r="X508" s="1"/>
       <c r="Y508" s="1"/>
     </row>
-    <row r="509" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:25" ht="12.75">
       <c r="A509" s="12"/>
       <c r="B509" s="12"/>
       <c r="C509" s="12"/>
@@ -15448,7 +15448,7 @@
       <c r="X509" s="1"/>
       <c r="Y509" s="1"/>
     </row>
-    <row r="510" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:25" ht="12.75">
       <c r="A510" s="12"/>
       <c r="B510" s="12"/>
       <c r="C510" s="12"/>
@@ -15475,7 +15475,7 @@
       <c r="X510" s="1"/>
       <c r="Y510" s="1"/>
     </row>
-    <row r="511" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:25" ht="12.75">
       <c r="A511" s="12"/>
       <c r="B511" s="12"/>
       <c r="C511" s="12"/>
@@ -15502,7 +15502,7 @@
       <c r="X511" s="1"/>
       <c r="Y511" s="1"/>
     </row>
-    <row r="512" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:25" ht="12.75">
       <c r="A512" s="12"/>
       <c r="B512" s="12"/>
       <c r="C512" s="12"/>
@@ -15529,7 +15529,7 @@
       <c r="X512" s="1"/>
       <c r="Y512" s="1"/>
     </row>
-    <row r="513" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:25" ht="12.75">
       <c r="A513" s="12"/>
       <c r="B513" s="12"/>
       <c r="C513" s="12"/>
@@ -15556,7 +15556,7 @@
       <c r="X513" s="1"/>
       <c r="Y513" s="1"/>
     </row>
-    <row r="514" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:25" ht="12.75">
       <c r="A514" s="12"/>
       <c r="B514" s="12"/>
       <c r="C514" s="12"/>
@@ -15583,7 +15583,7 @@
       <c r="X514" s="1"/>
       <c r="Y514" s="1"/>
     </row>
-    <row r="515" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:25" ht="12.75">
       <c r="A515" s="12"/>
       <c r="B515" s="12"/>
       <c r="C515" s="12"/>
@@ -15610,7 +15610,7 @@
       <c r="X515" s="1"/>
       <c r="Y515" s="1"/>
     </row>
-    <row r="516" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:25" ht="12.75">
       <c r="A516" s="12"/>
       <c r="B516" s="12"/>
       <c r="C516" s="12"/>
@@ -15637,7 +15637,7 @@
       <c r="X516" s="1"/>
       <c r="Y516" s="1"/>
     </row>
-    <row r="517" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:25" ht="12.75">
       <c r="A517" s="12"/>
       <c r="B517" s="12"/>
       <c r="C517" s="12"/>
@@ -15664,7 +15664,7 @@
       <c r="X517" s="1"/>
       <c r="Y517" s="1"/>
     </row>
-    <row r="518" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:25" ht="12.75">
       <c r="A518" s="12"/>
       <c r="B518" s="12"/>
       <c r="C518" s="12"/>
@@ -15691,7 +15691,7 @@
       <c r="X518" s="1"/>
       <c r="Y518" s="1"/>
     </row>
-    <row r="519" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:25" ht="12.75">
       <c r="A519" s="12"/>
       <c r="B519" s="12"/>
       <c r="C519" s="12"/>
@@ -15718,7 +15718,7 @@
       <c r="X519" s="1"/>
       <c r="Y519" s="1"/>
     </row>
-    <row r="520" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:25" ht="12.75">
       <c r="A520" s="12"/>
       <c r="B520" s="12"/>
       <c r="C520" s="12"/>
@@ -15745,7 +15745,7 @@
       <c r="X520" s="1"/>
       <c r="Y520" s="1"/>
     </row>
-    <row r="521" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:25" ht="12.75">
       <c r="A521" s="12"/>
       <c r="B521" s="12"/>
       <c r="C521" s="12"/>
@@ -15772,7 +15772,7 @@
       <c r="X521" s="1"/>
       <c r="Y521" s="1"/>
     </row>
-    <row r="522" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:25" ht="12.75">
       <c r="A522" s="12"/>
       <c r="B522" s="12"/>
       <c r="C522" s="12"/>
@@ -15799,7 +15799,7 @@
       <c r="X522" s="1"/>
       <c r="Y522" s="1"/>
     </row>
-    <row r="523" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:25" ht="12.75">
       <c r="A523" s="12"/>
       <c r="B523" s="12"/>
       <c r="C523" s="12"/>
@@ -15826,7 +15826,7 @@
       <c r="X523" s="1"/>
       <c r="Y523" s="1"/>
     </row>
-    <row r="524" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:25" ht="12.75">
       <c r="A524" s="12"/>
       <c r="B524" s="12"/>
       <c r="C524" s="12"/>
@@ -15853,7 +15853,7 @@
       <c r="X524" s="1"/>
       <c r="Y524" s="1"/>
     </row>
-    <row r="525" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:25" ht="12.75">
       <c r="A525" s="12"/>
       <c r="B525" s="12"/>
       <c r="C525" s="12"/>
@@ -15880,7 +15880,7 @@
       <c r="X525" s="1"/>
       <c r="Y525" s="1"/>
     </row>
-    <row r="526" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:25" ht="12.75">
       <c r="A526" s="12"/>
       <c r="B526" s="12"/>
       <c r="C526" s="12"/>
@@ -15907,7 +15907,7 @@
       <c r="X526" s="1"/>
       <c r="Y526" s="1"/>
     </row>
-    <row r="527" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:25" ht="12.75">
       <c r="A527" s="12"/>
       <c r="B527" s="12"/>
       <c r="C527" s="12"/>
@@ -15934,7 +15934,7 @@
       <c r="X527" s="1"/>
       <c r="Y527" s="1"/>
     </row>
-    <row r="528" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:25" ht="12.75">
       <c r="A528" s="12"/>
       <c r="B528" s="12"/>
       <c r="C528" s="12"/>
@@ -15961,7 +15961,7 @@
       <c r="X528" s="1"/>
       <c r="Y528" s="1"/>
     </row>
-    <row r="529" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:25" ht="12.75">
       <c r="A529" s="12"/>
       <c r="B529" s="12"/>
       <c r="C529" s="12"/>
@@ -15988,7 +15988,7 @@
       <c r="X529" s="1"/>
       <c r="Y529" s="1"/>
     </row>
-    <row r="530" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:25" ht="12.75">
       <c r="A530" s="12"/>
       <c r="B530" s="12"/>
       <c r="C530" s="12"/>
@@ -16015,7 +16015,7 @@
       <c r="X530" s="1"/>
       <c r="Y530" s="1"/>
     </row>
-    <row r="531" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:25" ht="12.75">
       <c r="A531" s="12"/>
       <c r="B531" s="12"/>
       <c r="C531" s="12"/>
@@ -16042,7 +16042,7 @@
       <c r="X531" s="1"/>
       <c r="Y531" s="1"/>
     </row>
-    <row r="532" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:25" ht="12.75">
       <c r="A532" s="12"/>
       <c r="B532" s="12"/>
       <c r="C532" s="12"/>
@@ -16069,7 +16069,7 @@
       <c r="X532" s="1"/>
       <c r="Y532" s="1"/>
     </row>
-    <row r="533" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:25" ht="12.75">
       <c r="A533" s="12"/>
       <c r="B533" s="12"/>
       <c r="C533" s="12"/>
@@ -16096,7 +16096,7 @@
       <c r="X533" s="1"/>
       <c r="Y533" s="1"/>
     </row>
-    <row r="534" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:25" ht="12.75">
       <c r="A534" s="12"/>
       <c r="B534" s="12"/>
       <c r="C534" s="12"/>
@@ -16123,7 +16123,7 @@
       <c r="X534" s="1"/>
       <c r="Y534" s="1"/>
     </row>
-    <row r="535" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:25" ht="12.75">
       <c r="A535" s="12"/>
       <c r="B535" s="12"/>
       <c r="C535" s="12"/>
@@ -16150,7 +16150,7 @@
       <c r="X535" s="1"/>
       <c r="Y535" s="1"/>
     </row>
-    <row r="536" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:25" ht="12.75">
       <c r="A536" s="12"/>
       <c r="B536" s="12"/>
       <c r="C536" s="12"/>
@@ -16177,7 +16177,7 @@
       <c r="X536" s="1"/>
       <c r="Y536" s="1"/>
     </row>
-    <row r="537" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:25" ht="12.75">
       <c r="A537" s="12"/>
       <c r="B537" s="12"/>
       <c r="C537" s="12"/>
@@ -16204,7 +16204,7 @@
       <c r="X537" s="1"/>
       <c r="Y537" s="1"/>
     </row>
-    <row r="538" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:25" ht="12.75">
       <c r="A538" s="12"/>
       <c r="B538" s="12"/>
       <c r="C538" s="12"/>
@@ -16231,7 +16231,7 @@
       <c r="X538" s="1"/>
       <c r="Y538" s="1"/>
     </row>
-    <row r="539" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:25" ht="12.75">
       <c r="A539" s="12"/>
       <c r="B539" s="12"/>
       <c r="C539" s="12"/>
@@ -16258,7 +16258,7 @@
       <c r="X539" s="1"/>
       <c r="Y539" s="1"/>
     </row>
-    <row r="540" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:25" ht="12.75">
       <c r="A540" s="12"/>
       <c r="B540" s="12"/>
       <c r="C540" s="12"/>
@@ -16285,7 +16285,7 @@
       <c r="X540" s="1"/>
       <c r="Y540" s="1"/>
     </row>
-    <row r="541" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:25" ht="12.75">
       <c r="A541" s="12"/>
       <c r="B541" s="12"/>
       <c r="C541" s="12"/>
@@ -16312,7 +16312,7 @@
       <c r="X541" s="1"/>
       <c r="Y541" s="1"/>
     </row>
-    <row r="542" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:25" ht="12.75">
       <c r="A542" s="12"/>
       <c r="B542" s="12"/>
       <c r="C542" s="12"/>
@@ -16339,7 +16339,7 @@
       <c r="X542" s="1"/>
       <c r="Y542" s="1"/>
     </row>
-    <row r="543" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:25" ht="12.75">
       <c r="A543" s="12"/>
       <c r="B543" s="12"/>
       <c r="C543" s="12"/>
@@ -16366,7 +16366,7 @@
       <c r="X543" s="1"/>
       <c r="Y543" s="1"/>
     </row>
-    <row r="544" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:25" ht="12.75">
       <c r="A544" s="12"/>
       <c r="B544" s="12"/>
       <c r="C544" s="12"/>
@@ -16393,7 +16393,7 @@
       <c r="X544" s="1"/>
       <c r="Y544" s="1"/>
     </row>
-    <row r="545" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:25" ht="12.75">
       <c r="A545" s="12"/>
       <c r="B545" s="12"/>
       <c r="C545" s="12"/>
@@ -16420,7 +16420,7 @@
       <c r="X545" s="1"/>
       <c r="Y545" s="1"/>
     </row>
-    <row r="546" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:25" ht="12.75">
       <c r="A546" s="12"/>
       <c r="B546" s="12"/>
       <c r="C546" s="12"/>
@@ -16447,7 +16447,7 @@
       <c r="X546" s="1"/>
       <c r="Y546" s="1"/>
     </row>
-    <row r="547" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:25" ht="12.75">
       <c r="A547" s="12"/>
       <c r="B547" s="12"/>
       <c r="C547" s="12"/>
@@ -16474,7 +16474,7 @@
       <c r="X547" s="1"/>
       <c r="Y547" s="1"/>
     </row>
-    <row r="548" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:25" ht="12.75">
       <c r="A548" s="12"/>
       <c r="B548" s="12"/>
       <c r="C548" s="12"/>
@@ -16501,7 +16501,7 @@
       <c r="X548" s="1"/>
       <c r="Y548" s="1"/>
     </row>
-    <row r="549" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:25" ht="12.75">
       <c r="A549" s="12"/>
       <c r="B549" s="12"/>
       <c r="C549" s="12"/>
@@ -16528,7 +16528,7 @@
       <c r="X549" s="1"/>
       <c r="Y549" s="1"/>
     </row>
-    <row r="550" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:25" ht="12.75">
       <c r="A550" s="12"/>
       <c r="B550" s="12"/>
       <c r="C550" s="12"/>
@@ -16555,7 +16555,7 @@
       <c r="X550" s="1"/>
       <c r="Y550" s="1"/>
     </row>
-    <row r="551" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:25" ht="12.75">
       <c r="A551" s="12"/>
       <c r="B551" s="12"/>
       <c r="C551" s="12"/>
@@ -16582,7 +16582,7 @@
       <c r="X551" s="1"/>
       <c r="Y551" s="1"/>
     </row>
-    <row r="552" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:25" ht="12.75">
       <c r="A552" s="12"/>
       <c r="B552" s="12"/>
       <c r="C552" s="12"/>
@@ -16609,7 +16609,7 @@
       <c r="X552" s="1"/>
       <c r="Y552" s="1"/>
     </row>
-    <row r="553" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:25" ht="12.75">
       <c r="A553" s="12"/>
       <c r="B553" s="12"/>
       <c r="C553" s="12"/>
@@ -16636,7 +16636,7 @@
       <c r="X553" s="1"/>
       <c r="Y553" s="1"/>
     </row>
-    <row r="554" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:25" ht="12.75">
       <c r="A554" s="12"/>
       <c r="B554" s="12"/>
       <c r="C554" s="12"/>
@@ -16663,7 +16663,7 @@
       <c r="X554" s="1"/>
       <c r="Y554" s="1"/>
     </row>
-    <row r="555" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:25" ht="12.75">
       <c r="A555" s="12"/>
       <c r="B555" s="12"/>
       <c r="C555" s="12"/>
@@ -16690,7 +16690,7 @@
       <c r="X555" s="1"/>
       <c r="Y555" s="1"/>
     </row>
-    <row r="556" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:25" ht="12.75">
       <c r="A556" s="12"/>
       <c r="B556" s="12"/>
       <c r="C556" s="12"/>
@@ -16717,7 +16717,7 @@
       <c r="X556" s="1"/>
       <c r="Y556" s="1"/>
     </row>
-    <row r="557" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:25" ht="12.75">
       <c r="A557" s="12"/>
       <c r="B557" s="12"/>
       <c r="C557" s="12"/>
@@ -16744,7 +16744,7 @@
       <c r="X557" s="1"/>
       <c r="Y557" s="1"/>
     </row>
-    <row r="558" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:25" ht="12.75">
       <c r="A558" s="12"/>
       <c r="B558" s="12"/>
       <c r="C558" s="12"/>
@@ -16771,7 +16771,7 @@
       <c r="X558" s="1"/>
       <c r="Y558" s="1"/>
     </row>
-    <row r="559" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:25" ht="12.75">
       <c r="A559" s="12"/>
       <c r="B559" s="12"/>
       <c r="C559" s="12"/>
@@ -16798,7 +16798,7 @@
       <c r="X559" s="1"/>
       <c r="Y559" s="1"/>
     </row>
-    <row r="560" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:25" ht="12.75">
       <c r="A560" s="12"/>
       <c r="B560" s="12"/>
       <c r="C560" s="12"/>
@@ -16825,7 +16825,7 @@
       <c r="X560" s="1"/>
       <c r="Y560" s="1"/>
     </row>
-    <row r="561" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:25" ht="12.75">
       <c r="A561" s="12"/>
       <c r="B561" s="12"/>
       <c r="C561" s="12"/>
@@ -16852,7 +16852,7 @@
       <c r="X561" s="1"/>
       <c r="Y561" s="1"/>
     </row>
-    <row r="562" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:25" ht="12.75">
       <c r="A562" s="12"/>
       <c r="B562" s="12"/>
       <c r="C562" s="12"/>
@@ -16879,7 +16879,7 @@
       <c r="X562" s="1"/>
       <c r="Y562" s="1"/>
     </row>
-    <row r="563" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:25" ht="12.75">
       <c r="A563" s="12"/>
       <c r="B563" s="12"/>
       <c r="C563" s="12"/>
@@ -16906,7 +16906,7 @@
       <c r="X563" s="1"/>
       <c r="Y563" s="1"/>
     </row>
-    <row r="564" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:25" ht="12.75">
       <c r="A564" s="12"/>
       <c r="B564" s="12"/>
       <c r="C564" s="12"/>
@@ -16933,7 +16933,7 @@
       <c r="X564" s="1"/>
       <c r="Y564" s="1"/>
     </row>
-    <row r="565" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:25" ht="12.75">
       <c r="A565" s="12"/>
       <c r="B565" s="12"/>
       <c r="C565" s="12"/>
@@ -16960,7 +16960,7 @@
       <c r="X565" s="1"/>
       <c r="Y565" s="1"/>
     </row>
-    <row r="566" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:25" ht="12.75">
       <c r="A566" s="12"/>
       <c r="B566" s="12"/>
       <c r="C566" s="12"/>
@@ -16987,7 +16987,7 @@
       <c r="X566" s="1"/>
       <c r="Y566" s="1"/>
     </row>
-    <row r="567" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:25" ht="12.75">
       <c r="A567" s="12"/>
       <c r="B567" s="12"/>
       <c r="C567" s="12"/>
@@ -17014,7 +17014,7 @@
       <c r="X567" s="1"/>
       <c r="Y567" s="1"/>
     </row>
-    <row r="568" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:25" ht="12.75">
       <c r="A568" s="12"/>
       <c r="B568" s="12"/>
       <c r="C568" s="12"/>
@@ -17041,7 +17041,7 @@
       <c r="X568" s="1"/>
       <c r="Y568" s="1"/>
     </row>
-    <row r="569" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:25" ht="12.75">
       <c r="A569" s="12"/>
       <c r="B569" s="12"/>
       <c r="C569" s="12"/>
@@ -17068,7 +17068,7 @@
       <c r="X569" s="1"/>
       <c r="Y569" s="1"/>
     </row>
-    <row r="570" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:25" ht="12.75">
       <c r="A570" s="12"/>
       <c r="B570" s="12"/>
       <c r="C570" s="12"/>
@@ -17095,7 +17095,7 @@
       <c r="X570" s="1"/>
       <c r="Y570" s="1"/>
     </row>
-    <row r="571" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:25" ht="12.75">
       <c r="A571" s="12"/>
       <c r="B571" s="12"/>
       <c r="C571" s="12"/>
@@ -17122,7 +17122,7 @@
       <c r="X571" s="1"/>
       <c r="Y571" s="1"/>
     </row>
-    <row r="572" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:25" ht="12.75">
       <c r="A572" s="12"/>
       <c r="B572" s="12"/>
       <c r="C572" s="12"/>
@@ -17149,7 +17149,7 @@
       <c r="X572" s="1"/>
       <c r="Y572" s="1"/>
     </row>
-    <row r="573" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:25" ht="12.75">
       <c r="A573" s="12"/>
       <c r="B573" s="12"/>
       <c r="C573" s="12"/>
@@ -17176,7 +17176,7 @@
       <c r="X573" s="1"/>
       <c r="Y573" s="1"/>
     </row>
-    <row r="574" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:25" ht="12.75">
       <c r="A574" s="12"/>
       <c r="B574" s="12"/>
       <c r="C574" s="12"/>
@@ -17203,7 +17203,7 @@
       <c r="X574" s="1"/>
       <c r="Y574" s="1"/>
     </row>
-    <row r="575" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:25" ht="12.75">
       <c r="A575" s="12"/>
       <c r="B575" s="12"/>
       <c r="C575" s="12"/>
@@ -17230,7 +17230,7 @@
       <c r="X575" s="1"/>
       <c r="Y575" s="1"/>
     </row>
-    <row r="576" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:25" ht="12.75">
       <c r="A576" s="12"/>
       <c r="B576" s="12"/>
       <c r="C576" s="12"/>
@@ -17257,7 +17257,7 @@
       <c r="X576" s="1"/>
       <c r="Y576" s="1"/>
     </row>
-    <row r="577" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:25" ht="12.75">
       <c r="A577" s="12"/>
       <c r="B577" s="12"/>
       <c r="C577" s="12"/>
@@ -17284,7 +17284,7 @@
       <c r="X577" s="1"/>
       <c r="Y577" s="1"/>
     </row>
-    <row r="578" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:25" ht="12.75">
       <c r="A578" s="12"/>
       <c r="B578" s="12"/>
       <c r="C578" s="12"/>
@@ -17311,7 +17311,7 @@
       <c r="X578" s="1"/>
       <c r="Y578" s="1"/>
     </row>
-    <row r="579" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:25" ht="12.75">
       <c r="A579" s="12"/>
       <c r="B579" s="12"/>
       <c r="C579" s="12"/>
@@ -17338,7 +17338,7 @@
       <c r="X579" s="1"/>
       <c r="Y579" s="1"/>
     </row>
-    <row r="580" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:25" ht="12.75">
       <c r="A580" s="12"/>
       <c r="B580" s="12"/>
       <c r="C580" s="12"/>
@@ -17365,7 +17365,7 @@
       <c r="X580" s="1"/>
       <c r="Y580" s="1"/>
     </row>
-    <row r="581" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:25" ht="12.75">
       <c r="A581" s="12"/>
       <c r="B581" s="12"/>
       <c r="C581" s="12"/>
@@ -17392,7 +17392,7 @@
       <c r="X581" s="1"/>
       <c r="Y581" s="1"/>
     </row>
-    <row r="582" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:25" ht="12.75">
       <c r="A582" s="12"/>
       <c r="B582" s="12"/>
       <c r="C582" s="12"/>
@@ -17419,7 +17419,7 @@
       <c r="X582" s="1"/>
       <c r="Y582" s="1"/>
     </row>
-    <row r="583" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:25" ht="12.75">
       <c r="A583" s="12"/>
       <c r="B583" s="12"/>
       <c r="C583" s="12"/>
@@ -17446,7 +17446,7 @@
       <c r="X583" s="1"/>
       <c r="Y583" s="1"/>
     </row>
-    <row r="584" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:25" ht="12.75">
       <c r="A584" s="12"/>
       <c r="B584" s="12"/>
       <c r="C584" s="12"/>
@@ -17473,7 +17473,7 @@
       <c r="X584" s="1"/>
       <c r="Y584" s="1"/>
     </row>
-    <row r="585" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:25" ht="12.75">
       <c r="A585" s="12"/>
       <c r="B585" s="12"/>
       <c r="C585" s="12"/>
@@ -17500,7 +17500,7 @@
       <c r="X585" s="1"/>
       <c r="Y585" s="1"/>
     </row>
-    <row r="586" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:25" ht="12.75">
       <c r="A586" s="12"/>
       <c r="B586" s="12"/>
       <c r="C586" s="12"/>
@@ -17527,7 +17527,7 @@
       <c r="X586" s="1"/>
       <c r="Y586" s="1"/>
     </row>
-    <row r="587" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:25" ht="12.75">
       <c r="A587" s="12"/>
       <c r="B587" s="12"/>
       <c r="C587" s="12"/>
@@ -17554,7 +17554,7 @@
       <c r="X587" s="1"/>
       <c r="Y587" s="1"/>
     </row>
-    <row r="588" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:25" ht="12.75">
       <c r="A588" s="12"/>
       <c r="B588" s="12"/>
       <c r="C588" s="12"/>
@@ -17581,7 +17581,7 @@
       <c r="X588" s="1"/>
       <c r="Y588" s="1"/>
     </row>
-    <row r="589" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:25" ht="12.75">
       <c r="A589" s="12"/>
       <c r="B589" s="12"/>
       <c r="C589" s="12"/>
@@ -17608,7 +17608,7 @@
       <c r="X589" s="1"/>
       <c r="Y589" s="1"/>
     </row>
-    <row r="590" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:25" ht="12.75">
       <c r="A590" s="12"/>
       <c r="B590" s="12"/>
       <c r="C590" s="12"/>
@@ -17635,7 +17635,7 @@
       <c r="X590" s="1"/>
       <c r="Y590" s="1"/>
     </row>
-    <row r="591" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:25" ht="12.75">
       <c r="A591" s="12"/>
       <c r="B591" s="12"/>
       <c r="C591" s="12"/>
@@ -17662,7 +17662,7 @@
       <c r="X591" s="1"/>
       <c r="Y591" s="1"/>
     </row>
-    <row r="592" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:25" ht="12.75">
       <c r="A592" s="12"/>
       <c r="B592" s="12"/>
       <c r="C592" s="12"/>
@@ -17689,7 +17689,7 @@
       <c r="X592" s="1"/>
       <c r="Y592" s="1"/>
     </row>
-    <row r="593" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:25" ht="12.75">
       <c r="A593" s="12"/>
       <c r="B593" s="12"/>
       <c r="C593" s="12"/>
@@ -17716,7 +17716,7 @@
       <c r="X593" s="1"/>
       <c r="Y593" s="1"/>
     </row>
-    <row r="594" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:25" ht="12.75">
       <c r="A594" s="12"/>
       <c r="B594" s="12"/>
       <c r="C594" s="12"/>
@@ -17743,7 +17743,7 @@
       <c r="X594" s="1"/>
       <c r="Y594" s="1"/>
     </row>
-    <row r="595" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:25" ht="12.75">
       <c r="A595" s="12"/>
       <c r="B595" s="12"/>
       <c r="C595" s="12"/>
@@ -17770,7 +17770,7 @@
       <c r="X595" s="1"/>
       <c r="Y595" s="1"/>
     </row>
-    <row r="596" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:25" ht="12.75">
       <c r="A596" s="12"/>
       <c r="B596" s="12"/>
       <c r="C596" s="12"/>
@@ -17797,7 +17797,7 @@
       <c r="X596" s="1"/>
       <c r="Y596" s="1"/>
     </row>
-    <row r="597" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:25" ht="12.75">
       <c r="A597" s="12"/>
       <c r="B597" s="12"/>
       <c r="C597" s="12"/>
@@ -17824,7 +17824,7 @@
       <c r="X597" s="1"/>
       <c r="Y597" s="1"/>
     </row>
-    <row r="598" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:25" ht="12.75">
       <c r="A598" s="12"/>
       <c r="B598" s="12"/>
       <c r="C598" s="12"/>
@@ -17851,7 +17851,7 @@
       <c r="X598" s="1"/>
       <c r="Y598" s="1"/>
     </row>
-    <row r="599" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:25" ht="12.75">
       <c r="A599" s="12"/>
       <c r="B599" s="12"/>
       <c r="C599" s="12"/>
@@ -17878,7 +17878,7 @@
       <c r="X599" s="1"/>
       <c r="Y599" s="1"/>
     </row>
-    <row r="600" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:25" ht="12.75">
       <c r="A600" s="12"/>
       <c r="B600" s="12"/>
       <c r="C600" s="12"/>
@@ -17905,7 +17905,7 @@
       <c r="X600" s="1"/>
       <c r="Y600" s="1"/>
     </row>
-    <row r="601" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:25" ht="12.75">
       <c r="A601" s="12"/>
       <c r="B601" s="12"/>
       <c r="C601" s="12"/>
@@ -17932,7 +17932,7 @@
       <c r="X601" s="1"/>
       <c r="Y601" s="1"/>
     </row>
-    <row r="602" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:25" ht="12.75">
       <c r="A602" s="12"/>
       <c r="B602" s="12"/>
       <c r="C602" s="12"/>
@@ -17959,7 +17959,7 @@
       <c r="X602" s="1"/>
       <c r="Y602" s="1"/>
     </row>
-    <row r="603" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:25" ht="12.75">
       <c r="A603" s="12"/>
       <c r="B603" s="12"/>
       <c r="C603" s="12"/>
@@ -17986,7 +17986,7 @@
       <c r="X603" s="1"/>
       <c r="Y603" s="1"/>
     </row>
-    <row r="604" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:25" ht="12.75">
       <c r="A604" s="12"/>
       <c r="B604" s="12"/>
       <c r="C604" s="12"/>
@@ -18013,7 +18013,7 @@
       <c r="X604" s="1"/>
       <c r="Y604" s="1"/>
     </row>
-    <row r="605" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:25" ht="12.75">
       <c r="A605" s="12"/>
       <c r="B605" s="12"/>
       <c r="C605" s="12"/>
@@ -18040,7 +18040,7 @@
       <c r="X605" s="1"/>
       <c r="Y605" s="1"/>
     </row>
-    <row r="606" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:25" ht="12.75">
       <c r="A606" s="12"/>
       <c r="B606" s="12"/>
       <c r="C606" s="12"/>
@@ -18067,7 +18067,7 @@
       <c r="X606" s="1"/>
       <c r="Y606" s="1"/>
     </row>
-    <row r="607" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:25" ht="12.75">
       <c r="A607" s="12"/>
       <c r="B607" s="12"/>
       <c r="C607" s="12"/>
@@ -18094,7 +18094,7 @@
       <c r="X607" s="1"/>
       <c r="Y607" s="1"/>
     </row>
-    <row r="608" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:25" ht="12.75">
       <c r="A608" s="12"/>
       <c r="B608" s="12"/>
       <c r="C608" s="12"/>
@@ -18121,7 +18121,7 @@
       <c r="X608" s="1"/>
       <c r="Y608" s="1"/>
     </row>
-    <row r="609" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:25" ht="12.75">
       <c r="A609" s="12"/>
       <c r="B609" s="12"/>
       <c r="C609" s="12"/>
@@ -18148,7 +18148,7 @@
       <c r="X609" s="1"/>
       <c r="Y609" s="1"/>
     </row>
-    <row r="610" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:25" ht="12.75">
       <c r="A610" s="12"/>
       <c r="B610" s="12"/>
       <c r="C610" s="12"/>
@@ -18175,7 +18175,7 @@
       <c r="X610" s="1"/>
       <c r="Y610" s="1"/>
     </row>
-    <row r="611" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:25" ht="12.75">
       <c r="A611" s="12"/>
       <c r="B611" s="12"/>
       <c r="C611" s="12"/>
@@ -18202,7 +18202,7 @@
       <c r="X611" s="1"/>
       <c r="Y611" s="1"/>
     </row>
-    <row r="612" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:25" ht="12.75">
       <c r="A612" s="12"/>
       <c r="B612" s="12"/>
       <c r="C612" s="12"/>
@@ -18229,7 +18229,7 @@
       <c r="X612" s="1"/>
       <c r="Y612" s="1"/>
     </row>
-    <row r="613" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:25" ht="12.75">
       <c r="A613" s="12"/>
       <c r="B613" s="12"/>
       <c r="C613" s="12"/>
@@ -18256,7 +18256,7 @@
       <c r="X613" s="1"/>
       <c r="Y613" s="1"/>
     </row>
-    <row r="614" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:25" ht="12.75">
       <c r="A614" s="12"/>
       <c r="B614" s="12"/>
       <c r="C614" s="12"/>
@@ -18283,7 +18283,7 @@
       <c r="X614" s="1"/>
       <c r="Y614" s="1"/>
     </row>
-    <row r="615" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:25" ht="12.75">
       <c r="A615" s="12"/>
       <c r="B615" s="12"/>
       <c r="C615" s="12"/>
@@ -18310,7 +18310,7 @@
       <c r="X615" s="1"/>
       <c r="Y615" s="1"/>
     </row>
-    <row r="616" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:25" ht="12.75">
       <c r="A616" s="12"/>
       <c r="B616" s="12"/>
       <c r="C616" s="12"/>
@@ -18337,7 +18337,7 @@
       <c r="X616" s="1"/>
       <c r="Y616" s="1"/>
     </row>
-    <row r="617" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:25" ht="12.75">
       <c r="A617" s="12"/>
       <c r="B617" s="12"/>
       <c r="C617" s="12"/>
@@ -18364,7 +18364,7 @@
       <c r="X617" s="1"/>
       <c r="Y617" s="1"/>
     </row>
-    <row r="618" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:25" ht="12.75">
       <c r="A618" s="12"/>
       <c r="B618" s="12"/>
       <c r="C618" s="12"/>
@@ -18391,7 +18391,7 @@
       <c r="X618" s="1"/>
       <c r="Y618" s="1"/>
     </row>
-    <row r="619" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:25" ht="12.75">
       <c r="A619" s="12"/>
       <c r="B619" s="12"/>
       <c r="C619" s="12"/>
@@ -18418,7 +18418,7 @@
       <c r="X619" s="1"/>
       <c r="Y619" s="1"/>
     </row>
-    <row r="620" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:25" ht="12.75">
       <c r="A620" s="12"/>
       <c r="B620" s="12"/>
       <c r="C620" s="12"/>
@@ -18445,7 +18445,7 @@
       <c r="X620" s="1"/>
       <c r="Y620" s="1"/>
     </row>
-    <row r="621" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:25" ht="12.75">
       <c r="A621" s="12"/>
       <c r="B621" s="12"/>
       <c r="C621" s="12"/>
@@ -18472,7 +18472,7 @@
       <c r="X621" s="1"/>
       <c r="Y621" s="1"/>
     </row>
-    <row r="622" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:25" ht="12.75">
       <c r="A622" s="12"/>
       <c r="B622" s="12"/>
       <c r="C622" s="12"/>
@@ -18499,7 +18499,7 @@
       <c r="X622" s="1"/>
       <c r="Y622" s="1"/>
     </row>
-    <row r="623" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:25" ht="12.75">
       <c r="A623" s="12"/>
       <c r="B623" s="12"/>
       <c r="C623" s="12"/>
@@ -18526,7 +18526,7 @@
       <c r="X623" s="1"/>
       <c r="Y623" s="1"/>
     </row>
-    <row r="624" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:25" ht="12.75">
       <c r="A624" s="12"/>
       <c r="B624" s="12"/>
       <c r="C624" s="12"/>
@@ -18553,7 +18553,7 @@
       <c r="X624" s="1"/>
       <c r="Y624" s="1"/>
     </row>
-    <row r="625" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:25" ht="12.75">
       <c r="A625" s="12"/>
       <c r="B625" s="12"/>
       <c r="C625" s="12"/>
@@ -18580,7 +18580,7 @@
       <c r="X625" s="1"/>
       <c r="Y625" s="1"/>
     </row>
-    <row r="626" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:25" ht="12.75">
       <c r="A626" s="12"/>
       <c r="B626" s="12"/>
       <c r="C626" s="12"/>
@@ -18607,7 +18607,7 @@
       <c r="X626" s="1"/>
       <c r="Y626" s="1"/>
     </row>
-    <row r="627" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:25" ht="12.75">
       <c r="A627" s="12"/>
       <c r="B627" s="12"/>
       <c r="C627" s="12"/>
@@ -18634,7 +18634,7 @@
       <c r="X627" s="1"/>
       <c r="Y627" s="1"/>
     </row>
-    <row r="628" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:25" ht="12.75">
       <c r="A628" s="12"/>
       <c r="B628" s="12"/>
       <c r="C628" s="12"/>
@@ -18661,7 +18661,7 @@
       <c r="X628" s="1"/>
       <c r="Y628" s="1"/>
     </row>
-    <row r="629" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:25" ht="12.75">
       <c r="A629" s="12"/>
       <c r="B629" s="12"/>
       <c r="C629" s="12"/>
@@ -18688,7 +18688,7 @@
       <c r="X629" s="1"/>
       <c r="Y629" s="1"/>
     </row>
-    <row r="630" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:25" ht="12.75">
       <c r="A630" s="12"/>
       <c r="B630" s="12"/>
       <c r="C630" s="12"/>
@@ -18715,7 +18715,7 @@
       <c r="X630" s="1"/>
       <c r="Y630" s="1"/>
     </row>
-    <row r="631" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:25" ht="12.75">
       <c r="A631" s="12"/>
       <c r="B631" s="12"/>
       <c r="C631" s="12"/>
@@ -18742,7 +18742,7 @@
       <c r="X631" s="1"/>
       <c r="Y631" s="1"/>
     </row>
-    <row r="632" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:25" ht="12.75">
       <c r="A632" s="12"/>
       <c r="B632" s="12"/>
       <c r="C632" s="12"/>
@@ -18769,7 +18769,7 @@
       <c r="X632" s="1"/>
       <c r="Y632" s="1"/>
     </row>
-    <row r="633" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:25" ht="12.75">
       <c r="A633" s="12"/>
       <c r="B633" s="12"/>
       <c r="C633" s="12"/>
@@ -18796,7 +18796,7 @@
       <c r="X633" s="1"/>
       <c r="Y633" s="1"/>
     </row>
-    <row r="634" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:25" ht="12.75">
       <c r="A634" s="12"/>
       <c r="B634" s="12"/>
       <c r="C634" s="12"/>
@@ -18823,7 +18823,7 @@
       <c r="X634" s="1"/>
       <c r="Y634" s="1"/>
     </row>
-    <row r="635" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:25" ht="12.75">
       <c r="A635" s="12"/>
       <c r="B635" s="12"/>
       <c r="C635" s="12"/>
@@ -18850,7 +18850,7 @@
       <c r="X635" s="1"/>
       <c r="Y635" s="1"/>
     </row>
-    <row r="636" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:25" ht="12.75">
       <c r="A636" s="12"/>
       <c r="B636" s="12"/>
       <c r="C636" s="12"/>
@@ -18877,7 +18877,7 @@
       <c r="X636" s="1"/>
       <c r="Y636" s="1"/>
     </row>
-    <row r="637" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:25" ht="12.75">
       <c r="A637" s="12"/>
       <c r="B637" s="12"/>
       <c r="C637" s="12"/>
@@ -18904,7 +18904,7 @@
       <c r="X637" s="1"/>
       <c r="Y637" s="1"/>
     </row>
-    <row r="638" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:25" ht="12.75">
       <c r="A638" s="12"/>
       <c r="B638" s="12"/>
       <c r="C638" s="12"/>
@@ -18931,7 +18931,7 @@
       <c r="X638" s="1"/>
       <c r="Y638" s="1"/>
     </row>
-    <row r="639" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:25" ht="12.75">
       <c r="A639" s="12"/>
       <c r="B639" s="12"/>
       <c r="C639" s="12"/>
@@ -18958,7 +18958,7 @@
       <c r="X639" s="1"/>
       <c r="Y639" s="1"/>
     </row>
-    <row r="640" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:25" ht="12.75">
       <c r="A640" s="12"/>
       <c r="B640" s="12"/>
       <c r="C640" s="12"/>
@@ -18985,7 +18985,7 @@
       <c r="X640" s="1"/>
       <c r="Y640" s="1"/>
     </row>
-    <row r="641" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:25" ht="12.75">
       <c r="A641" s="12"/>
       <c r="B641" s="12"/>
       <c r="C641" s="12"/>
@@ -19012,7 +19012,7 @@
       <c r="X641" s="1"/>
       <c r="Y641" s="1"/>
     </row>
-    <row r="642" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:25" ht="12.75">
       <c r="A642" s="12"/>
       <c r="B642" s="12"/>
       <c r="C642" s="12"/>
@@ -19039,7 +19039,7 @@
       <c r="X642" s="1"/>
       <c r="Y642" s="1"/>
     </row>
-    <row r="643" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:25" ht="12.75">
       <c r="A643" s="12"/>
       <c r="B643" s="12"/>
       <c r="C643" s="12"/>
@@ -19066,7 +19066,7 @@
       <c r="X643" s="1"/>
       <c r="Y643" s="1"/>
     </row>
-    <row r="644" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:25" ht="12.75">
       <c r="A644" s="12"/>
       <c r="B644" s="12"/>
       <c r="C644" s="12"/>
@@ -19093,7 +19093,7 @@
       <c r="X644" s="1"/>
       <c r="Y644" s="1"/>
     </row>
-    <row r="645" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:25" ht="12.75">
       <c r="A645" s="12"/>
       <c r="B645" s="12"/>
       <c r="C645" s="12"/>
@@ -19120,7 +19120,7 @@
       <c r="X645" s="1"/>
       <c r="Y645" s="1"/>
     </row>
-    <row r="646" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:25" ht="12.75">
       <c r="A646" s="12"/>
       <c r="B646" s="12"/>
       <c r="C646" s="12"/>
@@ -19147,7 +19147,7 @@
       <c r="X646" s="1"/>
       <c r="Y646" s="1"/>
     </row>
-    <row r="647" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:25" ht="12.75">
       <c r="A647" s="12"/>
       <c r="B647" s="12"/>
       <c r="C647" s="12"/>
@@ -19174,7 +19174,7 @@
       <c r="X647" s="1"/>
       <c r="Y647" s="1"/>
     </row>
-    <row r="648" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:25" ht="12.75">
       <c r="A648" s="12"/>
       <c r="B648" s="12"/>
       <c r="C648" s="12"/>
@@ -19201,7 +19201,7 @@
       <c r="X648" s="1"/>
       <c r="Y648" s="1"/>
     </row>
-    <row r="649" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:25" ht="12.75">
       <c r="A649" s="12"/>
       <c r="B649" s="12"/>
       <c r="C649" s="12"/>
@@ -19228,7 +19228,7 @@
       <c r="X649" s="1"/>
       <c r="Y649" s="1"/>
     </row>
-    <row r="650" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:25" ht="12.75">
       <c r="A650" s="12"/>
       <c r="B650" s="12"/>
       <c r="C650" s="12"/>
@@ -19255,7 +19255,7 @@
       <c r="X650" s="1"/>
       <c r="Y650" s="1"/>
     </row>
-    <row r="651" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:25" ht="12.75">
       <c r="A651" s="12"/>
       <c r="B651" s="12"/>
       <c r="C651" s="12"/>
@@ -19282,7 +19282,7 @@
       <c r="X651" s="1"/>
       <c r="Y651" s="1"/>
     </row>
-    <row r="652" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:25" ht="12.75">
       <c r="A652" s="12"/>
       <c r="B652" s="12"/>
       <c r="C652" s="12"/>
@@ -19309,7 +19309,7 @@
       <c r="X652" s="1"/>
       <c r="Y652" s="1"/>
     </row>
-    <row r="653" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:25" ht="12.75">
       <c r="A653" s="12"/>
       <c r="B653" s="12"/>
       <c r="C653" s="12"/>
@@ -19336,7 +19336,7 @@
       <c r="X653" s="1"/>
       <c r="Y653" s="1"/>
     </row>
-    <row r="654" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:25" ht="12.75">
       <c r="A654" s="12"/>
       <c r="B654" s="12"/>
       <c r="C654" s="12"/>
@@ -19363,7 +19363,7 @@
       <c r="X654" s="1"/>
       <c r="Y654" s="1"/>
     </row>
-    <row r="655" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:25" ht="12.75">
       <c r="A655" s="12"/>
       <c r="B655" s="12"/>
       <c r="C655" s="12"/>
@@ -19390,7 +19390,7 @@
       <c r="X655" s="1"/>
       <c r="Y655" s="1"/>
     </row>
-    <row r="656" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:25" ht="12.75">
       <c r="A656" s="12"/>
       <c r="B656" s="12"/>
       <c r="C656" s="12"/>
@@ -19417,7 +19417,7 @@
       <c r="X656" s="1"/>
       <c r="Y656" s="1"/>
     </row>
-    <row r="657" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:25" ht="12.75">
       <c r="A657" s="12"/>
       <c r="B657" s="12"/>
       <c r="C657" s="12"/>
@@ -19444,7 +19444,7 @@
       <c r="X657" s="1"/>
       <c r="Y657" s="1"/>
     </row>
-    <row r="658" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:25" ht="12.75">
       <c r="A658" s="12"/>
       <c r="B658" s="12"/>
       <c r="C658" s="12"/>
@@ -19471,7 +19471,7 @@
       <c r="X658" s="1"/>
       <c r="Y658" s="1"/>
     </row>
-    <row r="659" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:25" ht="12.75">
       <c r="A659" s="12"/>
       <c r="B659" s="12"/>
       <c r="C659" s="12"/>
@@ -19498,7 +19498,7 @@
       <c r="X659" s="1"/>
       <c r="Y659" s="1"/>
     </row>
-    <row r="660" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:25" ht="12.75">
       <c r="A660" s="12"/>
       <c r="B660" s="12"/>
       <c r="C660" s="12"/>
@@ -19525,7 +19525,7 @@
       <c r="X660" s="1"/>
       <c r="Y660" s="1"/>
     </row>
-    <row r="661" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:25" ht="12.75">
       <c r="A661" s="12"/>
       <c r="B661" s="12"/>
       <c r="C661" s="12"/>
@@ -19552,7 +19552,7 @@
       <c r="X661" s="1"/>
       <c r="Y661" s="1"/>
     </row>
-    <row r="662" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:25" ht="12.75">
       <c r="A662" s="12"/>
       <c r="B662" s="12"/>
       <c r="C662" s="12"/>
@@ -19579,7 +19579,7 @@
       <c r="X662" s="1"/>
       <c r="Y662" s="1"/>
     </row>
-    <row r="663" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:25" ht="12.75">
       <c r="A663" s="12"/>
       <c r="B663" s="12"/>
       <c r="C663" s="12"/>
@@ -19606,7 +19606,7 @@
       <c r="X663" s="1"/>
       <c r="Y663" s="1"/>
     </row>
-    <row r="664" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:25" ht="12.75">
       <c r="A664" s="12"/>
       <c r="B664" s="12"/>
       <c r="C664" s="12"/>
@@ -19633,7 +19633,7 @@
       <c r="X664" s="1"/>
       <c r="Y664" s="1"/>
     </row>
-    <row r="665" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:25" ht="12.75">
       <c r="A665" s="12"/>
       <c r="B665" s="12"/>
       <c r="C665" s="12"/>
@@ -19660,7 +19660,7 @@
       <c r="X665" s="1"/>
       <c r="Y665" s="1"/>
     </row>
-    <row r="666" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:25" ht="12.75">
       <c r="A666" s="12"/>
       <c r="B666" s="12"/>
       <c r="C666" s="12"/>
@@ -19687,7 +19687,7 @@
       <c r="X666" s="1"/>
       <c r="Y666" s="1"/>
     </row>
-    <row r="667" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:25" ht="12.75">
       <c r="A667" s="12"/>
       <c r="B667" s="12"/>
       <c r="C667" s="12"/>
@@ -19714,7 +19714,7 @@
       <c r="X667" s="1"/>
       <c r="Y667" s="1"/>
     </row>
-    <row r="668" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:25" ht="12.75">
       <c r="A668" s="12"/>
       <c r="B668" s="12"/>
       <c r="C668" s="12"/>
@@ -19741,7 +19741,7 @@
       <c r="X668" s="1"/>
       <c r="Y668" s="1"/>
     </row>
-    <row r="669" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:25" ht="12.75">
       <c r="A669" s="12"/>
       <c r="B669" s="12"/>
       <c r="C669" s="12"/>
@@ -19768,7 +19768,7 @@
       <c r="X669" s="1"/>
       <c r="Y669" s="1"/>
     </row>
-    <row r="670" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:25" ht="12.75">
       <c r="A670" s="12"/>
       <c r="B670" s="12"/>
       <c r="C670" s="12"/>
@@ -19795,7 +19795,7 @@
       <c r="X670" s="1"/>
       <c r="Y670" s="1"/>
     </row>
-    <row r="671" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:25" ht="12.75">
       <c r="A671" s="12"/>
       <c r="B671" s="12"/>
       <c r="C671" s="12"/>
@@ -19822,7 +19822,7 @@
       <c r="X671" s="1"/>
       <c r="Y671" s="1"/>
     </row>
-    <row r="672" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:25" ht="12.75">
       <c r="A672" s="12"/>
       <c r="B672" s="12"/>
       <c r="C672" s="12"/>
@@ -19849,7 +19849,7 @@
       <c r="X672" s="1"/>
       <c r="Y672" s="1"/>
     </row>
-    <row r="673" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:25" ht="12.75">
       <c r="A673" s="12"/>
       <c r="B673" s="12"/>
       <c r="C673" s="12"/>
@@ -19876,7 +19876,7 @@
       <c r="X673" s="1"/>
       <c r="Y673" s="1"/>
     </row>
-    <row r="674" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:25" ht="12.75">
       <c r="A674" s="12"/>
       <c r="B674" s="12"/>
       <c r="C674" s="12"/>
@@ -19903,7 +19903,7 @@
       <c r="X674" s="1"/>
       <c r="Y674" s="1"/>
     </row>
-    <row r="675" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:25" ht="12.75">
       <c r="A675" s="12"/>
       <c r="B675" s="12"/>
       <c r="C675" s="12"/>
@@ -19930,7 +19930,7 @@
       <c r="X675" s="1"/>
       <c r="Y675" s="1"/>
     </row>
-    <row r="676" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:25" ht="12.75">
       <c r="A676" s="12"/>
       <c r="B676" s="12"/>
       <c r="C676" s="12"/>
@@ -19957,7 +19957,7 @@
       <c r="X676" s="1"/>
       <c r="Y676" s="1"/>
     </row>
-    <row r="677" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:25" ht="12.75">
       <c r="A677" s="12"/>
       <c r="B677" s="12"/>
       <c r="C677" s="12"/>
@@ -19984,7 +19984,7 @@
       <c r="X677" s="1"/>
       <c r="Y677" s="1"/>
     </row>
-    <row r="678" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:25" ht="12.75">
       <c r="A678" s="12"/>
       <c r="B678" s="12"/>
       <c r="C678" s="12"/>
@@ -20011,7 +20011,7 @@
       <c r="X678" s="1"/>
       <c r="Y678" s="1"/>
     </row>
-    <row r="679" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:25" ht="12.75">
       <c r="A679" s="12"/>
       <c r="B679" s="12"/>
       <c r="C679" s="12"/>
@@ -20038,7 +20038,7 @@
       <c r="X679" s="1"/>
       <c r="Y679" s="1"/>
     </row>
-    <row r="680" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:25" ht="12.75">
       <c r="A680" s="12"/>
       <c r="B680" s="12"/>
       <c r="C680" s="12"/>
@@ -20065,7 +20065,7 @@
       <c r="X680" s="1"/>
       <c r="Y680" s="1"/>
     </row>
-    <row r="681" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:25" ht="12.75">
       <c r="A681" s="12"/>
       <c r="B681" s="12"/>
       <c r="C681" s="12"/>
@@ -20092,7 +20092,7 @@
       <c r="X681" s="1"/>
       <c r="Y681" s="1"/>
     </row>
-    <row r="682" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:25" ht="12.75">
       <c r="A682" s="12"/>
       <c r="B682" s="12"/>
       <c r="C682" s="12"/>
@@ -20119,7 +20119,7 @@
       <c r="X682" s="1"/>
       <c r="Y682" s="1"/>
     </row>
-    <row r="683" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:25" ht="12.75">
       <c r="A683" s="12"/>
       <c r="B683" s="12"/>
       <c r="C683" s="12"/>
@@ -20146,7 +20146,7 @@
       <c r="X683" s="1"/>
       <c r="Y683" s="1"/>
     </row>
-    <row r="684" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:25" ht="12.75">
       <c r="A684" s="12"/>
       <c r="B684" s="12"/>
       <c r="C684" s="12"/>
@@ -20173,7 +20173,7 @@
       <c r="X684" s="1"/>
       <c r="Y684" s="1"/>
     </row>
-    <row r="685" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:25" ht="12.75">
       <c r="A685" s="12"/>
       <c r="B685" s="12"/>
       <c r="C685" s="12"/>
@@ -20200,7 +20200,7 @@
       <c r="X685" s="1"/>
       <c r="Y685" s="1"/>
     </row>
-    <row r="686" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:25" ht="12.75">
       <c r="A686" s="12"/>
       <c r="B686" s="12"/>
       <c r="C686" s="12"/>
@@ -20227,7 +20227,7 @@
       <c r="X686" s="1"/>
       <c r="Y686" s="1"/>
     </row>
-    <row r="687" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:25" ht="12.75">
       <c r="A687" s="12"/>
       <c r="B687" s="12"/>
       <c r="C687" s="12"/>
@@ -20254,7 +20254,7 @@
       <c r="X687" s="1"/>
       <c r="Y687" s="1"/>
     </row>
-    <row r="688" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:25" ht="12.75">
       <c r="A688" s="12"/>
       <c r="B688" s="12"/>
       <c r="C688" s="12"/>
@@ -20281,7 +20281,7 @@
       <c r="X688" s="1"/>
       <c r="Y688" s="1"/>
     </row>
-    <row r="689" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:25" ht="12.75">
       <c r="A689" s="12"/>
       <c r="B689" s="12"/>
       <c r="C689" s="12"/>
@@ -20308,7 +20308,7 @@
       <c r="X689" s="1"/>
       <c r="Y689" s="1"/>
     </row>
-    <row r="690" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:25" ht="12.75">
       <c r="A690" s="12"/>
       <c r="B690" s="12"/>
       <c r="C690" s="12"/>
@@ -20335,7 +20335,7 @@
       <c r="X690" s="1"/>
       <c r="Y690" s="1"/>
     </row>
-    <row r="691" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:25" ht="12.75">
       <c r="A691" s="12"/>
       <c r="B691" s="12"/>
       <c r="C691" s="12"/>
@@ -20362,7 +20362,7 @@
       <c r="X691" s="1"/>
       <c r="Y691" s="1"/>
     </row>
-    <row r="692" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:25" ht="12.75">
       <c r="A692" s="12"/>
       <c r="B692" s="12"/>
       <c r="C692" s="12"/>
@@ -20389,7 +20389,7 @@
       <c r="X692" s="1"/>
       <c r="Y692" s="1"/>
     </row>
-    <row r="693" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:25" ht="12.75">
       <c r="A693" s="12"/>
       <c r="B693" s="12"/>
       <c r="C693" s="12"/>
@@ -20416,7 +20416,7 @@
       <c r="X693" s="1"/>
       <c r="Y693" s="1"/>
     </row>
-    <row r="694" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:25" ht="12.75">
       <c r="A694" s="12"/>
       <c r="B694" s="12"/>
       <c r="C694" s="12"/>
@@ -20443,7 +20443,7 @@
       <c r="X694" s="1"/>
       <c r="Y694" s="1"/>
     </row>
-    <row r="695" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:25" ht="12.75">
       <c r="A695" s="12"/>
       <c r="B695" s="12"/>
       <c r="C695" s="12"/>
@@ -20470,7 +20470,7 @@
       <c r="X695" s="1"/>
       <c r="Y695" s="1"/>
     </row>
-    <row r="696" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:25" ht="12.75">
       <c r="A696" s="12"/>
       <c r="B696" s="12"/>
       <c r="C696" s="12"/>
@@ -20497,7 +20497,7 @@
       <c r="X696" s="1"/>
       <c r="Y696" s="1"/>
     </row>
-    <row r="697" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:25" ht="12.75">
       <c r="A697" s="12"/>
       <c r="B697" s="12"/>
       <c r="C697" s="12"/>
@@ -20524,7 +20524,7 @@
       <c r="X697" s="1"/>
       <c r="Y697" s="1"/>
     </row>
-    <row r="698" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:25" ht="12.75">
       <c r="A698" s="12"/>
       <c r="B698" s="12"/>
       <c r="C698" s="12"/>
@@ -20551,7 +20551,7 @@
       <c r="X698" s="1"/>
       <c r="Y698" s="1"/>
     </row>
-    <row r="699" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:25" ht="12.75">
       <c r="A699" s="12"/>
       <c r="B699" s="12"/>
       <c r="C699" s="12"/>
@@ -20578,7 +20578,7 @@
       <c r="X699" s="1"/>
       <c r="Y699" s="1"/>
     </row>
-    <row r="700" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:25" ht="12.75">
       <c r="A700" s="12"/>
       <c r="B700" s="12"/>
       <c r="C700" s="12"/>
@@ -20605,7 +20605,7 @@
       <c r="X700" s="1"/>
       <c r="Y700" s="1"/>
     </row>
-    <row r="701" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:25" ht="12.75">
       <c r="A701" s="12"/>
       <c r="B701" s="12"/>
       <c r="C701" s="12"/>
@@ -20632,7 +20632,7 @@
       <c r="X701" s="1"/>
       <c r="Y701" s="1"/>
     </row>
-    <row r="702" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:25" ht="12.75">
       <c r="A702" s="12"/>
       <c r="B702" s="12"/>
       <c r="C702" s="12"/>
@@ -20659,7 +20659,7 @@
       <c r="X702" s="1"/>
       <c r="Y702" s="1"/>
     </row>
-    <row r="703" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:25" ht="12.75">
       <c r="A703" s="12"/>
       <c r="B703" s="12"/>
       <c r="C703" s="12"/>
@@ -20686,7 +20686,7 @@
       <c r="X703" s="1"/>
       <c r="Y703" s="1"/>
     </row>
-    <row r="704" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:25" ht="12.75">
       <c r="A704" s="12"/>
       <c r="B704" s="12"/>
       <c r="C704" s="12"/>
@@ -20713,7 +20713,7 @@
       <c r="X704" s="1"/>
       <c r="Y704" s="1"/>
     </row>
-    <row r="705" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:25" ht="12.75">
       <c r="A705" s="12"/>
       <c r="B705" s="12"/>
       <c r="C705" s="12"/>
@@ -20740,7 +20740,7 @@
       <c r="X705" s="1"/>
       <c r="Y705" s="1"/>
     </row>
-    <row r="706" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:25" ht="12.75">
       <c r="A706" s="12"/>
       <c r="B706" s="12"/>
       <c r="C706" s="12"/>
@@ -20767,7 +20767,7 @@
       <c r="X706" s="1"/>
       <c r="Y706" s="1"/>
     </row>
-    <row r="707" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:25" ht="12.75">
       <c r="A707" s="12"/>
       <c r="B707" s="12"/>
       <c r="C707" s="12"/>
@@ -20794,7 +20794,7 @@
       <c r="X707" s="1"/>
       <c r="Y707" s="1"/>
     </row>
-    <row r="708" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:25" ht="12.75">
       <c r="A708" s="12"/>
       <c r="B708" s="12"/>
       <c r="C708" s="12"/>
@@ -20821,7 +20821,7 @@
       <c r="X708" s="1"/>
       <c r="Y708" s="1"/>
     </row>
-    <row r="709" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:25" ht="12.75">
       <c r="A709" s="12"/>
       <c r="B709" s="12"/>
       <c r="C709" s="12"/>
@@ -20848,7 +20848,7 @@
       <c r="X709" s="1"/>
       <c r="Y709" s="1"/>
     </row>
-    <row r="710" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:25" ht="12.75">
       <c r="A710" s="12"/>
       <c r="B710" s="12"/>
       <c r="C710" s="12"/>
@@ -20875,7 +20875,7 @@
       <c r="X710" s="1"/>
       <c r="Y710" s="1"/>
     </row>
-    <row r="711" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:25" ht="12.75">
       <c r="A711" s="12"/>
       <c r="B711" s="12"/>
       <c r="C711" s="12"/>
@@ -20902,7 +20902,7 @@
       <c r="X711" s="1"/>
       <c r="Y711" s="1"/>
     </row>
-    <row r="712" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:25" ht="12.75">
       <c r="A712" s="12"/>
       <c r="B712" s="12"/>
       <c r="C712" s="12"/>
@@ -20929,7 +20929,7 @@
       <c r="X712" s="1"/>
       <c r="Y712" s="1"/>
     </row>
-    <row r="713" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:25" ht="12.75">
       <c r="A713" s="12"/>
       <c r="B713" s="12"/>
       <c r="C713" s="12"/>
@@ -20956,7 +20956,7 @@
       <c r="X713" s="1"/>
       <c r="Y713" s="1"/>
     </row>
-    <row r="714" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:25" ht="12.75">
       <c r="A714" s="12"/>
       <c r="B714" s="12"/>
       <c r="C714" s="12"/>
@@ -20983,7 +20983,7 @@
       <c r="X714" s="1"/>
       <c r="Y714" s="1"/>
     </row>
-    <row r="715" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:25" ht="12.75">
       <c r="A715" s="12"/>
       <c r="B715" s="12"/>
       <c r="C715" s="12"/>
@@ -21010,7 +21010,7 @@
       <c r="X715" s="1"/>
       <c r="Y715" s="1"/>
     </row>
-    <row r="716" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:25" ht="12.75">
       <c r="A716" s="12"/>
       <c r="B716" s="12"/>
       <c r="C716" s="12"/>
@@ -21037,7 +21037,7 @@
       <c r="X716" s="1"/>
       <c r="Y716" s="1"/>
     </row>
-    <row r="717" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:25" ht="12.75">
       <c r="A717" s="12"/>
       <c r="B717" s="12"/>
       <c r="C717" s="12"/>
@@ -21064,7 +21064,7 @@
       <c r="X717" s="1"/>
       <c r="Y717" s="1"/>
     </row>
-    <row r="718" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:25" ht="12.75">
       <c r="A718" s="12"/>
       <c r="B718" s="12"/>
       <c r="C718" s="12"/>
@@ -21091,7 +21091,7 @@
       <c r="X718" s="1"/>
       <c r="Y718" s="1"/>
     </row>
-    <row r="719" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:25" ht="12.75">
       <c r="A719" s="12"/>
       <c r="B719" s="12"/>
       <c r="C719" s="12"/>
@@ -21118,7 +21118,7 @@
       <c r="X719" s="1"/>
       <c r="Y719" s="1"/>
     </row>
-    <row r="720" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:25" ht="12.75">
       <c r="A720" s="12"/>
       <c r="B720" s="12"/>
       <c r="C720" s="12"/>
@@ -21145,7 +21145,7 @@
       <c r="X720" s="1"/>
       <c r="Y720" s="1"/>
     </row>
-    <row r="721" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:25" ht="12.75">
       <c r="A721" s="12"/>
       <c r="B721" s="12"/>
       <c r="C721" s="12"/>
@@ -21172,7 +21172,7 @@
       <c r="X721" s="1"/>
       <c r="Y721" s="1"/>
     </row>
-    <row r="722" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:25" ht="12.75">
       <c r="A722" s="12"/>
       <c r="B722" s="12"/>
       <c r="C722" s="12"/>
@@ -21199,7 +21199,7 @@
       <c r="X722" s="1"/>
       <c r="Y722" s="1"/>
     </row>
-    <row r="723" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:25" ht="12.75">
       <c r="A723" s="12"/>
       <c r="B723" s="12"/>
       <c r="C723" s="12"/>
@@ -21226,7 +21226,7 @@
       <c r="X723" s="1"/>
       <c r="Y723" s="1"/>
     </row>
-    <row r="724" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:25" ht="12.75">
       <c r="A724" s="12"/>
       <c r="B724" s="12"/>
       <c r="C724" s="12"/>
@@ -21253,7 +21253,7 @@
       <c r="X724" s="1"/>
       <c r="Y724" s="1"/>
     </row>
-    <row r="725" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:25" ht="12.75">
       <c r="A725" s="12"/>
       <c r="B725" s="12"/>
       <c r="C725" s="12"/>
@@ -21280,7 +21280,7 @@
       <c r="X725" s="1"/>
       <c r="Y725" s="1"/>
     </row>
-    <row r="726" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:25" ht="12.75">
       <c r="A726" s="12"/>
       <c r="B726" s="12"/>
       <c r="C726" s="12"/>
@@ -21307,7 +21307,7 @@
       <c r="X726" s="1"/>
       <c r="Y726" s="1"/>
     </row>
-    <row r="727" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:25" ht="12.75">
       <c r="A727" s="12"/>
       <c r="B727" s="12"/>
       <c r="C727" s="12"/>
@@ -21334,7 +21334,7 @@
       <c r="X727" s="1"/>
       <c r="Y727" s="1"/>
     </row>
-    <row r="728" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:25" ht="12.75">
       <c r="A728" s="12"/>
       <c r="B728" s="12"/>
       <c r="C728" s="12"/>
@@ -21361,7 +21361,7 @@
       <c r="X728" s="1"/>
       <c r="Y728" s="1"/>
     </row>
-    <row r="729" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:25" ht="12.75">
       <c r="A729" s="12"/>
       <c r="B729" s="12"/>
       <c r="C729" s="12"/>
@@ -21388,7 +21388,7 @@
       <c r="X729" s="1"/>
       <c r="Y729" s="1"/>
     </row>
-    <row r="730" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:25" ht="12.75">
       <c r="A730" s="12"/>
       <c r="B730" s="12"/>
       <c r="C730" s="12"/>
@@ -21415,7 +21415,7 @@
       <c r="X730" s="1"/>
       <c r="Y730" s="1"/>
     </row>
-    <row r="731" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:25" ht="12.75">
       <c r="A731" s="12"/>
       <c r="B731" s="12"/>
       <c r="C731" s="12"/>
@@ -21442,7 +21442,7 @@
       <c r="X731" s="1"/>
       <c r="Y731" s="1"/>
     </row>
-    <row r="732" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:25" ht="12.75">
       <c r="A732" s="12"/>
       <c r="B732" s="12"/>
       <c r="C732" s="12"/>
@@ -21469,7 +21469,7 @@
       <c r="X732" s="1"/>
       <c r="Y732" s="1"/>
     </row>
-    <row r="733" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:25" ht="12.75">
       <c r="A733" s="12"/>
       <c r="B733" s="12"/>
       <c r="C733" s="12"/>
@@ -21496,7 +21496,7 @@
       <c r="X733" s="1"/>
       <c r="Y733" s="1"/>
     </row>
-    <row r="734" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:25" ht="12.75">
       <c r="A734" s="12"/>
       <c r="B734" s="12"/>
       <c r="C734" s="12"/>
@@ -21523,7 +21523,7 @@
       <c r="X734" s="1"/>
       <c r="Y734" s="1"/>
     </row>
-    <row r="735" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:25" ht="12.75">
       <c r="A735" s="12"/>
       <c r="B735" s="12"/>
       <c r="C735" s="12"/>
@@ -21550,7 +21550,7 @@
       <c r="X735" s="1"/>
       <c r="Y735" s="1"/>
     </row>
-    <row r="736" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:25" ht="12.75">
       <c r="A736" s="12"/>
       <c r="B736" s="12"/>
       <c r="C736" s="12"/>
@@ -21577,7 +21577,7 @@
       <c r="X736" s="1"/>
       <c r="Y736" s="1"/>
     </row>
-    <row r="737" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:25" ht="12.75">
       <c r="A737" s="12"/>
       <c r="B737" s="12"/>
       <c r="C737" s="12"/>
@@ -21604,7 +21604,7 @@
       <c r="X737" s="1"/>
       <c r="Y737" s="1"/>
     </row>
-    <row r="738" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:25" ht="12.75">
       <c r="A738" s="12"/>
       <c r="B738" s="12"/>
       <c r="C738" s="12"/>
@@ -21631,7 +21631,7 @@
       <c r="X738" s="1"/>
       <c r="Y738" s="1"/>
     </row>
-    <row r="739" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:25" ht="12.75">
       <c r="A739" s="12"/>
       <c r="B739" s="12"/>
       <c r="C739" s="12"/>
@@ -21658,7 +21658,7 @@
       <c r="X739" s="1"/>
       <c r="Y739" s="1"/>
     </row>
-    <row r="740" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:25" ht="12.75">
       <c r="A740" s="12"/>
       <c r="B740" s="12"/>
       <c r="C740" s="12"/>
@@ -21685,7 +21685,7 @@
       <c r="X740" s="1"/>
       <c r="Y740" s="1"/>
     </row>
-    <row r="741" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:25" ht="12.75">
       <c r="A741" s="12"/>
       <c r="B741" s="12"/>
       <c r="C741" s="12"/>
@@ -21712,7 +21712,7 @@
       <c r="X741" s="1"/>
       <c r="Y741" s="1"/>
     </row>
-    <row r="742" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:25" ht="12.75">
       <c r="A742" s="12"/>
       <c r="B742" s="12"/>
       <c r="C742" s="12"/>
@@ -21739,7 +21739,7 @@
       <c r="X742" s="1"/>
       <c r="Y742" s="1"/>
     </row>
-    <row r="743" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:25" ht="12.75">
       <c r="A743" s="12"/>
       <c r="B743" s="12"/>
       <c r="C743" s="12"/>
@@ -21766,7 +21766,7 @@
       <c r="X743" s="1"/>
       <c r="Y743" s="1"/>
     </row>
-    <row r="744" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:25" ht="12.75">
       <c r="A744" s="12"/>
       <c r="B744" s="12"/>
       <c r="C744" s="12"/>
@@ -21793,7 +21793,7 @@
       <c r="X744" s="1"/>
       <c r="Y744" s="1"/>
     </row>
-    <row r="745" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:25" ht="12.75">
       <c r="A745" s="12"/>
       <c r="B745" s="12"/>
       <c r="C745" s="12"/>
@@ -21820,7 +21820,7 @@
       <c r="X745" s="1"/>
       <c r="Y745" s="1"/>
     </row>
-    <row r="746" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:25" ht="12.75">
       <c r="A746" s="12"/>
       <c r="B746" s="12"/>
       <c r="C746" s="12"/>
@@ -21847,7 +21847,7 @@
       <c r="X746" s="1"/>
       <c r="Y746" s="1"/>
     </row>
-    <row r="747" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:25" ht="12.75">
       <c r="A747" s="12"/>
       <c r="B747" s="12"/>
       <c r="C747" s="12"/>
@@ -21874,7 +21874,7 @@
       <c r="X747" s="1"/>
       <c r="Y747" s="1"/>
     </row>
-    <row r="748" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:25" ht="12.75">
       <c r="A748" s="12"/>
       <c r="B748" s="12"/>
       <c r="C748" s="12"/>
@@ -21901,7 +21901,7 @@
       <c r="X748" s="1"/>
       <c r="Y748" s="1"/>
     </row>
-    <row r="749" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:25" ht="12.75">
       <c r="A749" s="12"/>
       <c r="B749" s="12"/>
       <c r="C749" s="12"/>
@@ -21928,7 +21928,7 @@
       <c r="X749" s="1"/>
       <c r="Y749" s="1"/>
     </row>
-    <row r="750" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:25" ht="12.75">
       <c r="A750" s="12"/>
       <c r="B750" s="12"/>
       <c r="C750" s="12"/>
@@ -21955,7 +21955,7 @@
       <c r="X750" s="1"/>
       <c r="Y750" s="1"/>
     </row>
-    <row r="751" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:25" ht="12.75">
       <c r="A751" s="12"/>
       <c r="B751" s="12"/>
       <c r="C751" s="12"/>
@@ -21982,7 +21982,7 @@
       <c r="X751" s="1"/>
       <c r="Y751" s="1"/>
     </row>
-    <row r="752" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:25" ht="12.75">
       <c r="A752" s="12"/>
       <c r="B752" s="12"/>
       <c r="C752" s="12"/>
@@ -22009,7 +22009,7 @@
       <c r="X752" s="1"/>
       <c r="Y752" s="1"/>
     </row>
-    <row r="753" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:25" ht="12.75">
       <c r="A753" s="12"/>
       <c r="B753" s="12"/>
       <c r="C753" s="12"/>
@@ -22036,7 +22036,7 @@
       <c r="X753" s="1"/>
       <c r="Y753" s="1"/>
     </row>
-    <row r="754" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:25" ht="12.75">
       <c r="A754" s="12"/>
       <c r="B754" s="12"/>
       <c r="C754" s="12"/>
@@ -22063,7 +22063,7 @@
       <c r="X754" s="1"/>
       <c r="Y754" s="1"/>
     </row>
-    <row r="755" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:25" ht="12.75">
       <c r="A755" s="12"/>
       <c r="B755" s="12"/>
       <c r="C755" s="12"/>
@@ -22090,7 +22090,7 @@
       <c r="X755" s="1"/>
       <c r="Y755" s="1"/>
     </row>
-    <row r="756" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:25" ht="12.75">
       <c r="A756" s="12"/>
       <c r="B756" s="12"/>
       <c r="C756" s="12"/>
@@ -22117,7 +22117,7 @@
       <c r="X756" s="1"/>
       <c r="Y756" s="1"/>
     </row>
-    <row r="757" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:25" ht="12.75">
       <c r="A757" s="12"/>
       <c r="B757" s="12"/>
       <c r="C757" s="12"/>
@@ -22144,7 +22144,7 @@
       <c r="X757" s="1"/>
       <c r="Y757" s="1"/>
     </row>
-    <row r="758" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:25" ht="12.75">
       <c r="A758" s="12"/>
       <c r="B758" s="12"/>
       <c r="C758" s="12"/>
@@ -22171,7 +22171,7 @@
       <c r="X758" s="1"/>
       <c r="Y758" s="1"/>
     </row>
-    <row r="759" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:25" ht="12.75">
       <c r="A759" s="12"/>
       <c r="B759" s="12"/>
       <c r="C759" s="12"/>
@@ -22198,7 +22198,7 @@
       <c r="X759" s="1"/>
       <c r="Y759" s="1"/>
     </row>
-    <row r="760" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:25" ht="12.75">
       <c r="A760" s="12"/>
       <c r="B760" s="12"/>
       <c r="C760" s="12"/>
@@ -22225,7 +22225,7 @@
       <c r="X760" s="1"/>
       <c r="Y760" s="1"/>
     </row>
-    <row r="761" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:25" ht="12.75">
       <c r="A761" s="12"/>
       <c r="B761" s="12"/>
       <c r="C761" s="12"/>
@@ -22252,7 +22252,7 @@
       <c r="X761" s="1"/>
       <c r="Y761" s="1"/>
     </row>
-    <row r="762" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:25" ht="12.75">
       <c r="A762" s="12"/>
       <c r="B762" s="12"/>
       <c r="C762" s="12"/>
@@ -22279,7 +22279,7 @@
       <c r="X762" s="1"/>
       <c r="Y762" s="1"/>
     </row>
-    <row r="763" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:25" ht="12.75">
       <c r="A763" s="12"/>
       <c r="B763" s="12"/>
       <c r="C763" s="12"/>
@@ -22306,7 +22306,7 @@
       <c r="X763" s="1"/>
       <c r="Y763" s="1"/>
     </row>
-    <row r="764" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:25" ht="12.75">
       <c r="A764" s="12"/>
       <c r="B764" s="12"/>
       <c r="C764" s="12"/>
@@ -22333,7 +22333,7 @@
       <c r="X764" s="1"/>
       <c r="Y764" s="1"/>
     </row>
-    <row r="765" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:25" ht="12.75">
       <c r="A765" s="12"/>
       <c r="B765" s="12"/>
       <c r="C765" s="12"/>
@@ -22360,7 +22360,7 @@
       <c r="X765" s="1"/>
       <c r="Y765" s="1"/>
     </row>
-    <row r="766" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:25" ht="12.75">
       <c r="A766" s="12"/>
       <c r="B766" s="12"/>
       <c r="C766" s="12"/>
@@ -22387,7 +22387,7 @@
       <c r="X766" s="1"/>
       <c r="Y766" s="1"/>
     </row>
-    <row r="767" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:25" ht="12.75">
       <c r="A767" s="12"/>
       <c r="B767" s="12"/>
       <c r="C767" s="12"/>
@@ -22414,7 +22414,7 @@
       <c r="X767" s="1"/>
       <c r="Y767" s="1"/>
     </row>
-    <row r="768" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:25" ht="12.75">
       <c r="A768" s="12"/>
       <c r="B768" s="12"/>
       <c r="C768" s="12"/>
@@ -22441,7 +22441,7 @@
       <c r="X768" s="1"/>
       <c r="Y768" s="1"/>
     </row>
-    <row r="769" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:25" ht="12.75">
       <c r="A769" s="12"/>
       <c r="B769" s="12"/>
       <c r="C769" s="12"/>
@@ -22468,7 +22468,7 @@
       <c r="X769" s="1"/>
       <c r="Y769" s="1"/>
     </row>
-    <row r="770" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:25" ht="12.75">
       <c r="A770" s="12"/>
       <c r="B770" s="12"/>
       <c r="C770" s="12"/>
@@ -22495,7 +22495,7 @@
       <c r="X770" s="1"/>
       <c r="Y770" s="1"/>
     </row>
-    <row r="771" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:25" ht="12.75">
       <c r="A771" s="12"/>
       <c r="B771" s="12"/>
       <c r="C771" s="12"/>
@@ -22522,7 +22522,7 @@
       <c r="X771" s="1"/>
       <c r="Y771" s="1"/>
     </row>
-    <row r="772" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:25" ht="12.75">
       <c r="A772" s="12"/>
       <c r="B772" s="12"/>
       <c r="C772" s="12"/>
@@ -22549,7 +22549,7 @@
       <c r="X772" s="1"/>
       <c r="Y772" s="1"/>
     </row>
-    <row r="773" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:25" ht="12.75">
       <c r="A773" s="12"/>
       <c r="B773" s="12"/>
       <c r="C773" s="12"/>
@@ -22576,7 +22576,7 @@
       <c r="X773" s="1"/>
       <c r="Y773" s="1"/>
     </row>
-    <row r="774" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:25" ht="12.75">
       <c r="A774" s="12"/>
       <c r="B774" s="12"/>
       <c r="C774" s="12"/>
@@ -22603,7 +22603,7 @@
       <c r="X774" s="1"/>
       <c r="Y774" s="1"/>
     </row>
-    <row r="775" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:25" ht="12.75">
       <c r="A775" s="12"/>
       <c r="B775" s="12"/>
       <c r="C775" s="12"/>
@@ -22630,7 +22630,7 @@
       <c r="X775" s="1"/>
       <c r="Y775" s="1"/>
     </row>
-    <row r="776" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:25" ht="12.75">
       <c r="A776" s="12"/>
       <c r="B776" s="12"/>
       <c r="C776" s="12"/>
@@ -22657,7 +22657,7 @@
       <c r="X776" s="1"/>
       <c r="Y776" s="1"/>
     </row>
-    <row r="777" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:25" ht="12.75">
       <c r="A777" s="12"/>
       <c r="B777" s="12"/>
       <c r="C777" s="12"/>
@@ -22684,7 +22684,7 @@
       <c r="X777" s="1"/>
       <c r="Y777" s="1"/>
     </row>
-    <row r="778" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:25" ht="12.75">
       <c r="A778" s="12"/>
       <c r="B778" s="12"/>
       <c r="C778" s="12"/>
@@ -22711,7 +22711,7 @@
       <c r="X778" s="1"/>
       <c r="Y778" s="1"/>
     </row>
-    <row r="779" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:25" ht="12.75">
       <c r="A779" s="12"/>
       <c r="B779" s="12"/>
       <c r="C779" s="12"/>
@@ -22738,7 +22738,7 @@
       <c r="X779" s="1"/>
       <c r="Y779" s="1"/>
     </row>
-    <row r="780" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:25" ht="12.75">
       <c r="A780" s="12"/>
       <c r="B780" s="12"/>
       <c r="C780" s="12"/>
@@ -22765,7 +22765,7 @@
       <c r="X780" s="1"/>
       <c r="Y780" s="1"/>
     </row>
-    <row r="781" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:25" ht="12.75">
       <c r="A781" s="12"/>
       <c r="B781" s="12"/>
       <c r="C781" s="12"/>
@@ -22792,7 +22792,7 @@
       <c r="X781" s="1"/>
       <c r="Y781" s="1"/>
     </row>
-    <row r="782" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:25" ht="12.75">
       <c r="A782" s="12"/>
       <c r="B782" s="12"/>
       <c r="C782" s="12"/>
@@ -22819,7 +22819,7 @@
       <c r="X782" s="1"/>
       <c r="Y782" s="1"/>
     </row>
-    <row r="783" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:25" ht="12.75">
       <c r="A783" s="12"/>
       <c r="B783" s="12"/>
       <c r="C783" s="12"/>
@@ -22846,7 +22846,7 @@
       <c r="X783" s="1"/>
       <c r="Y783" s="1"/>
     </row>
-    <row r="784" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:25" ht="12.75">
       <c r="A784" s="12"/>
       <c r="B784" s="12"/>
       <c r="C784" s="12"/>
@@ -22873,7 +22873,7 @@
       <c r="X784" s="1"/>
       <c r="Y784" s="1"/>
     </row>
-    <row r="785" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:25" ht="12.75">
       <c r="A785" s="12"/>
       <c r="B785" s="12"/>
       <c r="C785" s="12"/>
@@ -22900,7 +22900,7 @@
       <c r="X785" s="1"/>
       <c r="Y785" s="1"/>
     </row>
-    <row r="786" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:25" ht="12.75">
       <c r="A786" s="12"/>
       <c r="B786" s="12"/>
       <c r="C786" s="12"/>
@@ -22927,7 +22927,7 @@
       <c r="X786" s="1"/>
       <c r="Y786" s="1"/>
     </row>
-    <row r="787" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:25" ht="12.75">
       <c r="A787" s="12"/>
       <c r="B787" s="12"/>
       <c r="C787" s="12"/>
@@ -22954,7 +22954,7 @@
       <c r="X787" s="1"/>
       <c r="Y787" s="1"/>
     </row>
-    <row r="788" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:25" ht="12.75">
       <c r="A788" s="12"/>
       <c r="B788" s="12"/>
       <c r="C788" s="12"/>
@@ -22981,7 +22981,7 @@
       <c r="X788" s="1"/>
       <c r="Y788" s="1"/>
     </row>
-    <row r="789" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:25" ht="12.75">
       <c r="A789" s="12"/>
       <c r="B789" s="12"/>
       <c r="C789" s="12"/>
@@ -23008,7 +23008,7 @@
       <c r="X789" s="1"/>
       <c r="Y789" s="1"/>
     </row>
-    <row r="790" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:25" ht="12.75">
       <c r="A790" s="12"/>
       <c r="B790" s="12"/>
       <c r="C790" s="12"/>
@@ -23035,7 +23035,7 @@
       <c r="X790" s="1"/>
       <c r="Y790" s="1"/>
     </row>
-    <row r="791" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:25" ht="12.75">
       <c r="A791" s="12"/>
       <c r="B791" s="12"/>
       <c r="C791" s="12"/>
@@ -23062,7 +23062,7 @@
       <c r="X791" s="1"/>
       <c r="Y791" s="1"/>
     </row>
-    <row r="792" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:25" ht="12.75">
       <c r="A792" s="12"/>
       <c r="B792" s="12"/>
       <c r="C792" s="12"/>
@@ -23089,7 +23089,7 @@
       <c r="X792" s="1"/>
       <c r="Y792" s="1"/>
     </row>
-    <row r="793" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:25" ht="12.75">
       <c r="A793" s="12"/>
       <c r="B793" s="12"/>
       <c r="C793" s="12"/>
@@ -23116,7 +23116,7 @@
       <c r="X793" s="1"/>
       <c r="Y793" s="1"/>
     </row>
-    <row r="794" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:25" ht="12.75">
       <c r="A794" s="12"/>
       <c r="B794" s="12"/>
       <c r="C794" s="12"/>
@@ -23143,7 +23143,7 @@
       <c r="X794" s="1"/>
       <c r="Y794" s="1"/>
     </row>
-    <row r="795" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:25" ht="12.75">
       <c r="A795" s="12"/>
       <c r="B795" s="12"/>
       <c r="C795" s="12"/>
@@ -23170,7 +23170,7 @@
       <c r="X795" s="1"/>
       <c r="Y795" s="1"/>
     </row>
-    <row r="796" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:25" ht="12.75">
       <c r="A796" s="12"/>
       <c r="B796" s="12"/>
       <c r="C796" s="12"/>
@@ -23197,7 +23197,7 @@
       <c r="X796" s="1"/>
       <c r="Y796" s="1"/>
     </row>
-    <row r="797" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:25" ht="12.75">
       <c r="A797" s="12"/>
       <c r="B797" s="12"/>
       <c r="C797" s="12"/>
@@ -23224,7 +23224,7 @@
       <c r="X797" s="1"/>
       <c r="Y797" s="1"/>
     </row>
-    <row r="798" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:25" ht="12.75">
       <c r="A798" s="12"/>
       <c r="B798" s="12"/>
       <c r="C798" s="12"/>
@@ -23251,7 +23251,7 @@
       <c r="X798" s="1"/>
       <c r="Y798" s="1"/>
     </row>
-    <row r="799" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:25" ht="12.75">
       <c r="A799" s="12"/>
       <c r="B799" s="12"/>
       <c r="C799" s="12"/>
@@ -23278,7 +23278,7 @@
       <c r="X799" s="1"/>
       <c r="Y799" s="1"/>
     </row>
-    <row r="800" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:25" ht="12.75">
       <c r="A800" s="12"/>
       <c r="B800" s="12"/>
       <c r="C800" s="12"/>
@@ -23305,7 +23305,7 @@
       <c r="X800" s="1"/>
       <c r="Y800" s="1"/>
     </row>
-    <row r="801" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:25" ht="12.75">
       <c r="A801" s="12"/>
       <c r="B801" s="12"/>
       <c r="C801" s="12"/>
@@ -23332,7 +23332,7 @@
       <c r="X801" s="1"/>
       <c r="Y801" s="1"/>
     </row>
-    <row r="802" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:25" ht="12.75">
       <c r="A802" s="12"/>
       <c r="B802" s="12"/>
       <c r="C802" s="12"/>
@@ -23359,7 +23359,7 @@
       <c r="X802" s="1"/>
       <c r="Y802" s="1"/>
     </row>
-    <row r="803" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:25" ht="12.75">
       <c r="A803" s="12"/>
       <c r="B803" s="12"/>
       <c r="C803" s="12"/>
@@ -23386,7 +23386,7 @@
       <c r="X803" s="1"/>
       <c r="Y803" s="1"/>
     </row>
-    <row r="804" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:25" ht="12.75">
       <c r="A804" s="12"/>
       <c r="B804" s="12"/>
       <c r="C804" s="12"/>
@@ -23413,7 +23413,7 @@
       <c r="X804" s="1"/>
       <c r="Y804" s="1"/>
     </row>
-    <row r="805" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:25" ht="12.75">
       <c r="A805" s="12"/>
       <c r="B805" s="12"/>
       <c r="C805" s="12"/>
@@ -23440,7 +23440,7 @@
       <c r="X805" s="1"/>
       <c r="Y805" s="1"/>
     </row>
-    <row r="806" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:25" ht="12.75">
       <c r="A806" s="12"/>
       <c r="B806" s="12"/>
       <c r="C806" s="12"/>
@@ -23467,7 +23467,7 @@
       <c r="X806" s="1"/>
       <c r="Y806" s="1"/>
     </row>
-    <row r="807" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:25" ht="12.75">
       <c r="A807" s="12"/>
       <c r="B807" s="12"/>
       <c r="C807" s="12"/>
@@ -23494,7 +23494,7 @@
       <c r="X807" s="1"/>
       <c r="Y807" s="1"/>
     </row>
-    <row r="808" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:25" ht="12.75">
       <c r="A808" s="12"/>
       <c r="B808" s="12"/>
       <c r="C808" s="12"/>
@@ -23521,7 +23521,7 @@
       <c r="X808" s="1"/>
       <c r="Y808" s="1"/>
     </row>
-    <row r="809" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:25" ht="12.75">
       <c r="A809" s="12"/>
       <c r="B809" s="12"/>
       <c r="C809" s="12"/>
@@ -23548,7 +23548,7 @@
       <c r="X809" s="1"/>
       <c r="Y809" s="1"/>
     </row>
-    <row r="810" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:25" ht="12.75">
       <c r="A810" s="12"/>
       <c r="B810" s="12"/>
       <c r="C810" s="12"/>
@@ -23575,7 +23575,7 @@
       <c r="X810" s="1"/>
       <c r="Y810" s="1"/>
     </row>
-    <row r="811" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:25" ht="12.75">
       <c r="A811" s="12"/>
       <c r="B811" s="12"/>
       <c r="C811" s="12"/>
@@ -23602,7 +23602,7 @@
       <c r="X811" s="1"/>
       <c r="Y811" s="1"/>
     </row>
-    <row r="812" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:25" ht="12.75">
       <c r="A812" s="12"/>
       <c r="B812" s="12"/>
       <c r="C812" s="12"/>
@@ -23629,7 +23629,7 @@
       <c r="X812" s="1"/>
       <c r="Y812" s="1"/>
     </row>
-    <row r="813" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:25" ht="12.75">
       <c r="A813" s="12"/>
       <c r="B813" s="12"/>
       <c r="C813" s="12"/>
@@ -23656,7 +23656,7 @@
       <c r="X813" s="1"/>
       <c r="Y813" s="1"/>
     </row>
-    <row r="814" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:25" ht="12.75">
       <c r="A814" s="12"/>
       <c r="B814" s="12"/>
       <c r="C814" s="12"/>
@@ -23683,7 +23683,7 @@
       <c r="X814" s="1"/>
       <c r="Y814" s="1"/>
     </row>
-    <row r="815" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:25" ht="12.75">
       <c r="A815" s="12"/>
       <c r="B815" s="12"/>
       <c r="C815" s="12"/>
@@ -23710,7 +23710,7 @@
       <c r="X815" s="1"/>
       <c r="Y815" s="1"/>
     </row>
-    <row r="816" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:25" ht="12.75">
       <c r="A816" s="12"/>
       <c r="B816" s="12"/>
       <c r="C816" s="12"/>
@@ -23737,7 +23737,7 @@
       <c r="X816" s="1"/>
       <c r="Y816" s="1"/>
     </row>
-    <row r="817" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:25" ht="12.75">
       <c r="A817" s="12"/>
       <c r="B817" s="12"/>
       <c r="C817" s="12"/>
@@ -23764,7 +23764,7 @@
       <c r="X817" s="1"/>
       <c r="Y817" s="1"/>
     </row>
-    <row r="818" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:25" ht="12.75">
       <c r="A818" s="12"/>
       <c r="B818" s="12"/>
       <c r="C818" s="12"/>
@@ -23791,7 +23791,7 @@
       <c r="X818" s="1"/>
       <c r="Y818" s="1"/>
     </row>
-    <row r="819" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:25" ht="12.75">
       <c r="A819" s="12"/>
       <c r="B819" s="12"/>
       <c r="C819" s="12"/>
@@ -23818,7 +23818,7 @@
       <c r="X819" s="1"/>
       <c r="Y819" s="1"/>
     </row>
-    <row r="820" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:25" ht="12.75">
       <c r="A820" s="12"/>
       <c r="B820" s="12"/>
       <c r="C820" s="12"/>
@@ -23845,7 +23845,7 @@
       <c r="X820" s="1"/>
       <c r="Y820" s="1"/>
     </row>
-    <row r="821" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:25" ht="12.75">
       <c r="A821" s="12"/>
       <c r="B821" s="12"/>
       <c r="C821" s="12"/>
@@ -23872,7 +23872,7 @@
       <c r="X821" s="1"/>
       <c r="Y821" s="1"/>
     </row>
-    <row r="822" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:25" ht="12.75">
       <c r="A822" s="12"/>
       <c r="B822" s="12"/>
       <c r="C822" s="12"/>
@@ -23899,7 +23899,7 @@
       <c r="X822" s="1"/>
       <c r="Y822" s="1"/>
     </row>
-    <row r="823" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:25" ht="12.75">
       <c r="A823" s="12"/>
       <c r="B823" s="12"/>
       <c r="C823" s="12"/>
@@ -23926,7 +23926,7 @@
       <c r="X823" s="1"/>
       <c r="Y823" s="1"/>
     </row>
-    <row r="824" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:25" ht="12.75">
       <c r="A824" s="12"/>
       <c r="B824" s="12"/>
       <c r="C824" s="12"/>
@@ -23953,7 +23953,7 @@
       <c r="X824" s="1"/>
       <c r="Y824" s="1"/>
     </row>
-    <row r="825" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:25" ht="12.75">
       <c r="A825" s="12"/>
       <c r="B825" s="12"/>
       <c r="C825" s="12"/>
@@ -23980,7 +23980,7 @@
       <c r="X825" s="1"/>
       <c r="Y825" s="1"/>
     </row>
-    <row r="826" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:25" ht="12.75">
       <c r="A826" s="12"/>
       <c r="B826" s="12"/>
       <c r="C826" s="12"/>
@@ -24007,7 +24007,7 @@
       <c r="X826" s="1"/>
       <c r="Y826" s="1"/>
     </row>
-    <row r="827" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:25" ht="12.75">
       <c r="A827" s="12"/>
       <c r="B827" s="12"/>
       <c r="C827" s="12"/>
@@ -24034,7 +24034,7 @@
       <c r="X827" s="1"/>
       <c r="Y827" s="1"/>
     </row>
-    <row r="828" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:25" ht="12.75">
       <c r="A828" s="12"/>
       <c r="B828" s="12"/>
       <c r="C828" s="12"/>
@@ -24061,7 +24061,7 @@
       <c r="X828" s="1"/>
       <c r="Y828" s="1"/>
     </row>
-    <row r="829" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:25" ht="12.75">
       <c r="A829" s="12"/>
       <c r="B829" s="12"/>
       <c r="C829" s="12"/>
@@ -24088,7 +24088,7 @@
       <c r="X829" s="1"/>
       <c r="Y829" s="1"/>
     </row>
-    <row r="830" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:25" ht="12.75">
       <c r="A830" s="12"/>
       <c r="B830" s="12"/>
       <c r="C830" s="12"/>
@@ -24115,7 +24115,7 @@
       <c r="X830" s="1"/>
       <c r="Y830" s="1"/>
     </row>
-    <row r="831" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:25" ht="12.75">
       <c r="A831" s="12"/>
       <c r="B831" s="12"/>
       <c r="C831" s="12"/>
@@ -24142,7 +24142,7 @@
       <c r="X831" s="1"/>
       <c r="Y831" s="1"/>
     </row>
-    <row r="832" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:25" ht="12.75">
       <c r="A832" s="12"/>
       <c r="B832" s="12"/>
       <c r="C832" s="12"/>
@@ -24169,7 +24169,7 @@
       <c r="X832" s="1"/>
       <c r="Y832" s="1"/>
     </row>
-    <row r="833" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:25" ht="12.75">
       <c r="A833" s="12"/>
       <c r="B833" s="12"/>
       <c r="C833" s="12"/>
@@ -24196,7 +24196,7 @@
       <c r="X833" s="1"/>
       <c r="Y833" s="1"/>
     </row>
-    <row r="834" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:25" ht="12.75">
       <c r="A834" s="12"/>
       <c r="B834" s="12"/>
       <c r="C834" s="12"/>
@@ -24223,7 +24223,7 @@
       <c r="X834" s="1"/>
       <c r="Y834" s="1"/>
     </row>
-    <row r="835" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:25" ht="12.75">
       <c r="A835" s="12"/>
       <c r="B835" s="12"/>
       <c r="C835" s="12"/>
@@ -24250,7 +24250,7 @@
       <c r="X835" s="1"/>
       <c r="Y835" s="1"/>
     </row>
-    <row r="836" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:25" ht="12.75">
       <c r="A836" s="12"/>
       <c r="B836" s="12"/>
       <c r="C836" s="12"/>
@@ -24277,7 +24277,7 @@
       <c r="X836" s="1"/>
       <c r="Y836" s="1"/>
     </row>
-    <row r="837" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:25" ht="12.75">
       <c r="A837" s="12"/>
       <c r="B837" s="12"/>
       <c r="C837" s="12"/>
@@ -24304,7 +24304,7 @@
       <c r="X837" s="1"/>
       <c r="Y837" s="1"/>
     </row>
-    <row r="838" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:25" ht="12.75">
       <c r="A838" s="12"/>
       <c r="B838" s="12"/>
       <c r="C838" s="12"/>
@@ -24331,7 +24331,7 @@
       <c r="X838" s="1"/>
       <c r="Y838" s="1"/>
     </row>
-    <row r="839" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:25" ht="12.75">
       <c r="A839" s="12"/>
       <c r="B839" s="12"/>
       <c r="C839" s="12"/>
@@ -24358,7 +24358,7 @@
       <c r="X839" s="1"/>
       <c r="Y839" s="1"/>
     </row>
-    <row r="840" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:25" ht="12.75">
       <c r="A840" s="12"/>
       <c r="B840" s="12"/>
       <c r="C840" s="12"/>
@@ -24385,7 +24385,7 @@
       <c r="X840" s="1"/>
       <c r="Y840" s="1"/>
     </row>
-    <row r="841" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:25" ht="12.75">
       <c r="A841" s="12"/>
       <c r="B841" s="12"/>
       <c r="C841" s="12"/>
@@ -24412,7 +24412,7 @@
       <c r="X841" s="1"/>
       <c r="Y841" s="1"/>
     </row>
-    <row r="842" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:25" ht="12.75">
       <c r="A842" s="12"/>
       <c r="B842" s="12"/>
       <c r="C842" s="12"/>
@@ -24439,7 +24439,7 @@
       <c r="X842" s="1"/>
       <c r="Y842" s="1"/>
     </row>
-    <row r="843" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:25" ht="12.75">
       <c r="A843" s="12"/>
       <c r="B843" s="12"/>
       <c r="C843" s="12"/>
@@ -24466,7 +24466,7 @@
       <c r="X843" s="1"/>
       <c r="Y843" s="1"/>
     </row>
-    <row r="844" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:25" ht="12.75">
       <c r="A844" s="12"/>
       <c r="B844" s="12"/>
       <c r="C844" s="12"/>
@@ -24493,7 +24493,7 @@
       <c r="X844" s="1"/>
       <c r="Y844" s="1"/>
     </row>
-    <row r="845" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:25" ht="12.75">
       <c r="A845" s="12"/>
       <c r="B845" s="12"/>
       <c r="C845" s="12"/>
@@ -24520,7 +24520,7 @@
       <c r="X845" s="1"/>
       <c r="Y845" s="1"/>
     </row>
-    <row r="846" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:25" ht="12.75">
       <c r="A846" s="12"/>
       <c r="B846" s="12"/>
       <c r="C846" s="12"/>
@@ -24547,7 +24547,7 @@
       <c r="X846" s="1"/>
       <c r="Y846" s="1"/>
     </row>
-    <row r="847" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:25" ht="12.75">
       <c r="A847" s="12"/>
       <c r="B847" s="12"/>
       <c r="C847" s="12"/>
@@ -24574,7 +24574,7 @@
       <c r="X847" s="1"/>
       <c r="Y847" s="1"/>
     </row>
-    <row r="848" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:25" ht="12.75">
       <c r="A848" s="12"/>
       <c r="B848" s="12"/>
       <c r="C848" s="12"/>
@@ -24601,7 +24601,7 @@
       <c r="X848" s="1"/>
       <c r="Y848" s="1"/>
     </row>
-    <row r="849" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:25" ht="12.75">
       <c r="A849" s="12"/>
       <c r="B849" s="12"/>
       <c r="C849" s="12"/>
@@ -24628,7 +24628,7 @@
       <c r="X849" s="1"/>
       <c r="Y849" s="1"/>
     </row>
-    <row r="850" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:25" ht="12.75">
       <c r="A850" s="12"/>
       <c r="B850" s="12"/>
       <c r="C850" s="12"/>
@@ -24655,7 +24655,7 @@
       <c r="X850" s="1"/>
       <c r="Y850" s="1"/>
     </row>
-    <row r="851" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:25" ht="12.75">
       <c r="A851" s="12"/>
       <c r="B851" s="12"/>
       <c r="C851" s="12"/>
@@ -24682,7 +24682,7 @@
       <c r="X851" s="1"/>
       <c r="Y851" s="1"/>
     </row>
-    <row r="852" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:25" ht="12.75">
       <c r="A852" s="12"/>
       <c r="B852" s="12"/>
       <c r="C852" s="12"/>
@@ -24709,7 +24709,7 @@
       <c r="X852" s="1"/>
       <c r="Y852" s="1"/>
     </row>
-    <row r="853" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:25" ht="12.75">
       <c r="A853" s="12"/>
       <c r="B853" s="12"/>
       <c r="C853" s="12"/>
@@ -24736,7 +24736,7 @@
       <c r="X853" s="1"/>
       <c r="Y853" s="1"/>
     </row>
-    <row r="854" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:25" ht="12.75">
       <c r="A854" s="12"/>
       <c r="B854" s="12"/>
       <c r="C854" s="12"/>
@@ -24763,7 +24763,7 @@
       <c r="X854" s="1"/>
       <c r="Y854" s="1"/>
     </row>
-    <row r="855" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:25" ht="12.75">
       <c r="A855" s="12"/>
       <c r="B855" s="12"/>
       <c r="C855" s="12"/>
@@ -24796,16 +24796,6 @@
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
   <mergeCells count="26">
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="J12:J13"/>
@@ -24822,6 +24812,16 @@
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="I14:I1048576">
     <cfRule type="containsText" dxfId="17" priority="22" operator="containsText" text="HASI GABE">

--- a/0.1- PLANIFIKAZIOA/TSB EGUNEROKOA.xlsx
+++ b/0.1- PLANIFIKAZIOA/TSB EGUNEROKOA.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="43">
   <si>
     <t>ENTREGA</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>TALDEA: Talde proposamenak juntatu</t>
+  </si>
+  <si>
+    <t>APP: Diseinua egin eta ideia printzipalak azaldu.</t>
+  </si>
+  <si>
+    <t>APP: Logoa prestatu, itxura txukundu,…</t>
   </si>
 </sst>
 </file>
@@ -911,41 +917,6 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -965,6 +936,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
@@ -995,6 +975,32 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1488,7 +1494,7 @@
   <dimension ref="A1:Y855"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1504,18 +1510,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
       <c r="G1" s="16"/>
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
-      <c r="J1" s="58"/>
+      <c r="J1" s="43"/>
       <c r="K1" s="2"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1533,18 +1539,18 @@
       <c r="Y1" s="1"/>
     </row>
     <row r="2" spans="1:25" ht="23.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="59"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="44"/>
       <c r="K2" s="2"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1562,16 +1568,16 @@
       <c r="Y2" s="1"/>
     </row>
     <row r="3" spans="1:25" ht="60" customHeight="1" thickBot="1">
-      <c r="A3" s="48"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="60"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="45"/>
       <c r="K3" s="2"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1616,17 +1622,17 @@
       <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="1:25" ht="18.75" thickBot="1">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
       <c r="J5" s="6"/>
       <c r="K5" s="2"/>
       <c r="L5" s="1"/>
@@ -1645,21 +1651,21 @@
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="79" t="s">
+      <c r="B6" s="65"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="79" t="s">
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="77"/>
-      <c r="I6" s="78"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="66"/>
       <c r="J6" s="42" t="s">
         <v>17</v>
       </c>
@@ -1680,21 +1686,21 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="52" t="s">
+      <c r="B7" s="75"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="52" t="s">
+      <c r="E7" s="75"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="54"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="76"/>
       <c r="J7" s="39" t="s">
         <v>21</v>
       </c>
@@ -1715,19 +1721,19 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="1:25" ht="13.9" customHeight="1">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="55" t="s">
+      <c r="B8" s="78"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="57"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="79"/>
       <c r="J8" s="40" t="s">
         <v>23</v>
       </c>
@@ -1748,19 +1754,19 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="13.9" customHeight="1" thickBot="1">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="43" t="s">
+      <c r="B9" s="51"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="44"/>
-      <c r="I9" s="45"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="52"/>
       <c r="J9" s="41" t="s">
         <v>25</v>
       </c>
@@ -1787,11 +1793,11 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="65" t="s">
+      <c r="G10" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="66"/>
-      <c r="I10" s="67"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="55"/>
       <c r="J10" s="11"/>
       <c r="K10" s="2"/>
       <c r="L10" s="1"/>
@@ -1837,30 +1843,30 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="12.75">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="72" t="s">
+      <c r="D12" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="73"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="70" t="s">
+      <c r="E12" s="61"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="75" t="s">
+      <c r="H12" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="70" t="s">
+      <c r="I12" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="63" t="s">
+      <c r="J12" s="48" t="s">
         <v>9</v>
       </c>
       <c r="K12" s="1"/>
@@ -1880,9 +1886,9 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A13" s="69"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="14" t="s">
         <v>4</v>
       </c>
@@ -1892,10 +1898,10 @@
       <c r="F13" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="64"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="49"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="1"/>
@@ -2136,15 +2142,21 @@
     </row>
     <row r="20" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A20" s="18"/>
-      <c r="B20" s="34"/>
+      <c r="B20" s="34" t="s">
+        <v>41</v>
+      </c>
       <c r="C20" s="20"/>
-      <c r="D20" s="19"/>
+      <c r="D20" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="E20" s="20"/>
       <c r="F20" s="19"/>
       <c r="G20" s="20"/>
-      <c r="H20" s="19"/>
+      <c r="H20" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="I20" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="2"/>
@@ -2165,15 +2177,21 @@
     </row>
     <row r="21" spans="1:25" ht="19.149999999999999" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="35"/>
+      <c r="B21" s="35" t="s">
+        <v>42</v>
+      </c>
       <c r="C21" s="24"/>
-      <c r="D21" s="23"/>
+      <c r="D21" s="23" t="s">
+        <v>30</v>
+      </c>
       <c r="E21" s="24"/>
       <c r="F21" s="23"/>
       <c r="G21" s="24"/>
-      <c r="H21" s="23"/>
+      <c r="H21" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="I21" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J21" s="24"/>
       <c r="K21" s="2"/>
@@ -24796,6 +24814,16 @@
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
   <mergeCells count="26">
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="J12:J13"/>
@@ -24812,16 +24840,6 @@
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="I14:I1048576">
     <cfRule type="containsText" dxfId="17" priority="22" operator="containsText" text="HASI GABE">

--- a/0.1- PLANIFIKAZIOA/TSB EGUNEROKOA.xlsx
+++ b/0.1- PLANIFIKAZIOA/TSB EGUNEROKOA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikaltamirapaag2\Documents\GitHub\ERRONKA-TSB-RETURNS\0.1- PLANIFIKAZIOA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikaltamirapaag2\Desktop\ERRONKA TSB RETURNS\0.1- PLANIFIKAZIOA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12312"/>
   </bookViews>
   <sheets>
     <sheet name="Planifikazioa" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="49">
   <si>
     <t>ENTREGA</t>
   </si>
@@ -187,12 +187,30 @@
   <si>
     <t>APP: Logoa prestatu, itxura txukundu,…</t>
   </si>
+  <si>
+    <t>APP: Menuaren itxura egin</t>
+  </si>
+  <si>
+    <t>ERP: Odoo nun edukiko dugun eta nola aukeratu</t>
+  </si>
+  <si>
+    <t>ERP: Datu basearen instalazioa (PostgreSQL)</t>
+  </si>
+  <si>
+    <t>ERP: Odoo instalatu eta konfiguratu (moduluak)</t>
+  </si>
+  <si>
+    <t>ERP: Erabiltzaileak sortu eta beraien pantailak egin (KOMERTZIALA ETA KONTABILITATEA)</t>
+  </si>
+  <si>
+    <t>APP: Zein datu base erabiliko dugun aukeratu (SQLIte)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -835,7 +853,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -878,9 +896,6 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -917,6 +932,41 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -936,15 +986,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
@@ -975,32 +1016,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1493,35 +1508,35 @@
   </sheetPr>
   <dimension ref="A1:Y855"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.42578125" style="15"/>
-    <col min="6" max="6" width="20.42578125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="31.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="15"/>
-    <col min="9" max="9" width="22.85546875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="27.7109375" style="15" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14.44140625" style="15"/>
+    <col min="6" max="6" width="20.44140625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="31.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="15"/>
+    <col min="9" max="9" width="22.88671875" style="15" customWidth="1"/>
+    <col min="10" max="10" width="27.6640625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="23.25">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:25" ht="34.799999999999997" x14ac:dyDescent="0.7">
+      <c r="A1" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
       <c r="G1" s="16"/>
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
-      <c r="J1" s="43"/>
+      <c r="J1" s="57"/>
       <c r="K1" s="2"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1538,19 +1553,19 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="23.25">
-      <c r="A2" s="68" t="s">
+    <row r="2" spans="1:25" ht="34.799999999999997" x14ac:dyDescent="1.2">
+      <c r="A2" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="44"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="58"/>
       <c r="K2" s="2"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1567,17 +1582,17 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="60" customHeight="1" thickBot="1">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="45"/>
+    <row r="3" spans="1:25" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
+      <c r="A3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="59"/>
       <c r="K3" s="2"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1594,7 +1609,7 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="12.75">
+    <row r="4" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1621,18 +1636,18 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="18.75" thickBot="1">
-      <c r="A5" s="72" t="s">
+    <row r="5" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.95">
+      <c r="A5" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
       <c r="J5" s="6"/>
       <c r="K5" s="2"/>
       <c r="L5" s="1"/>
@@ -1650,23 +1665,23 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A6" s="64" t="s">
+    <row r="6" spans="1:25" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A6" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="67" t="s">
+      <c r="B6" s="76"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="67" t="s">
+      <c r="E6" s="76"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="65"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="42" t="s">
+      <c r="H6" s="76"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="41" t="s">
         <v>17</v>
       </c>
       <c r="K6" s="2"/>
@@ -1685,23 +1700,23 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A7" s="74" t="s">
+    <row r="7" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="74" t="s">
+      <c r="B7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="74" t="s">
+      <c r="E7" s="52"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="75"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="39" t="s">
+      <c r="H7" s="52"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="38" t="s">
         <v>21</v>
       </c>
       <c r="K7" s="2"/>
@@ -1720,21 +1735,21 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="13.9" customHeight="1">
-      <c r="A8" s="77" t="s">
+    <row r="8" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="77" t="s">
+      <c r="B8" s="55"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="78"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="40" t="s">
+      <c r="H8" s="55"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="39" t="s">
         <v>23</v>
       </c>
       <c r="K8" s="2"/>
@@ -1753,21 +1768,21 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="13.9" customHeight="1" thickBot="1">
-      <c r="A9" s="50" t="s">
+    <row r="9" spans="1:25" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="50" t="s">
+      <c r="B9" s="43"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="41" t="s">
+      <c r="H9" s="43"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="40" t="s">
         <v>25</v>
       </c>
       <c r="K9" s="2"/>
@@ -1786,18 +1801,18 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="13.5" thickBot="1">
+    <row r="10" spans="1:25" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="53" t="s">
+      <c r="G10" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="66"/>
       <c r="J10" s="11"/>
       <c r="K10" s="2"/>
       <c r="L10" s="1"/>
@@ -1815,7 +1830,7 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="14.25" thickTop="1" thickBot="1">
+    <row r="11" spans="1:25" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1842,31 +1857,31 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="12.75">
-      <c r="A12" s="56" t="s">
+    <row r="12" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A12" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="58" t="s">
+      <c r="E12" s="72"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="63" t="s">
+      <c r="H12" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="58" t="s">
+      <c r="I12" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="48" t="s">
+      <c r="J12" s="62" t="s">
         <v>9</v>
       </c>
       <c r="K12" s="1"/>
@@ -1885,10 +1900,10 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A13" s="57"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
+    <row r="13" spans="1:25" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A13" s="68"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
       <c r="D13" s="14" t="s">
         <v>4</v>
       </c>
@@ -1898,10 +1913,10 @@
       <c r="F13" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="49"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="63"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="1"/>
@@ -1918,11 +1933,11 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="14" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="20"/>
@@ -1955,11 +1970,11 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="15" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="20"/>
@@ -1992,11 +2007,11 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="16" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="20"/>
@@ -2029,11 +2044,11 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="17" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="33" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="20"/>
@@ -2066,11 +2081,11 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="18" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A18" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="33" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="20"/>
@@ -2103,11 +2118,11 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="19" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A19" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="33" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="20"/>
@@ -2121,7 +2136,7 @@
         <v>30</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J19" s="20"/>
       <c r="K19" s="2"/>
@@ -2140,9 +2155,11 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" ht="19.149999999999999" customHeight="1">
-      <c r="A20" s="18"/>
-      <c r="B20" s="34" t="s">
+    <row r="20" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A20" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="33" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="20"/>
@@ -2175,17 +2192,19 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="19.149999999999999" customHeight="1">
-      <c r="A21" s="22"/>
-      <c r="B21" s="35" t="s">
+    <row r="21" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A21" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="34" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="24"/>
-      <c r="D21" s="23" t="s">
-        <v>30</v>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="23" t="s">
+        <v>32</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="23"/>
       <c r="G21" s="24"/>
       <c r="H21" s="23" t="s">
         <v>32</v>
@@ -2210,17 +2229,25 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="19.149999999999999" customHeight="1">
-      <c r="A22" s="22"/>
-      <c r="B22" s="35"/>
+    <row r="22" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A22" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>48</v>
+      </c>
       <c r="C22" s="24"/>
       <c r="D22" s="23"/>
       <c r="E22" s="24"/>
-      <c r="F22" s="23"/>
+      <c r="F22" s="23" t="s">
+        <v>33</v>
+      </c>
       <c r="G22" s="24"/>
-      <c r="H22" s="23"/>
+      <c r="H22" s="23" t="s">
+        <v>33</v>
+      </c>
       <c r="I22" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J22" s="24"/>
       <c r="K22" s="2"/>
@@ -2239,17 +2266,25 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" ht="19.149999999999999" customHeight="1">
-      <c r="A23" s="25"/>
-      <c r="B23" s="35"/>
+    <row r="23" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A23" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>43</v>
+      </c>
       <c r="C23" s="24"/>
-      <c r="D23" s="23"/>
+      <c r="D23" s="23" t="s">
+        <v>30</v>
+      </c>
       <c r="E23" s="24"/>
       <c r="F23" s="23"/>
       <c r="G23" s="24"/>
-      <c r="H23" s="23"/>
+      <c r="H23" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="I23" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J23" s="24"/>
       <c r="K23" s="2"/>
@@ -2268,17 +2303,23 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" ht="19.149999999999999" customHeight="1">
-      <c r="A24" s="22"/>
-      <c r="B24" s="35"/>
+    <row r="24" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A24" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>44</v>
+      </c>
       <c r="C24" s="24"/>
       <c r="D24" s="23"/>
       <c r="E24" s="24"/>
       <c r="F24" s="23"/>
       <c r="G24" s="24"/>
-      <c r="H24" s="23"/>
+      <c r="H24" s="23" t="s">
+        <v>33</v>
+      </c>
       <c r="I24" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J24" s="24"/>
       <c r="K24" s="2"/>
@@ -2297,17 +2338,23 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" ht="19.149999999999999" customHeight="1">
-      <c r="A25" s="22"/>
-      <c r="B25" s="35"/>
+    <row r="25" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A25" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>45</v>
+      </c>
       <c r="C25" s="24"/>
       <c r="D25" s="23"/>
       <c r="E25" s="24"/>
       <c r="F25" s="23"/>
       <c r="G25" s="24"/>
-      <c r="H25" s="23"/>
+      <c r="H25" s="23" t="s">
+        <v>33</v>
+      </c>
       <c r="I25" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J25" s="24"/>
       <c r="K25" s="2"/>
@@ -2326,17 +2373,23 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="19.149999999999999" customHeight="1">
-      <c r="A26" s="26"/>
-      <c r="B26" s="35"/>
+    <row r="26" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A26" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>46</v>
+      </c>
       <c r="C26" s="24"/>
       <c r="D26" s="23"/>
       <c r="E26" s="24"/>
       <c r="F26" s="23"/>
       <c r="G26" s="24"/>
-      <c r="H26" s="23"/>
+      <c r="H26" s="23" t="s">
+        <v>33</v>
+      </c>
       <c r="I26" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J26" s="24"/>
       <c r="K26" s="2"/>
@@ -2355,17 +2408,23 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="19.149999999999999" customHeight="1">
-      <c r="A27" s="25"/>
-      <c r="B27" s="35"/>
+    <row r="27" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A27" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>47</v>
+      </c>
       <c r="C27" s="24"/>
       <c r="D27" s="23"/>
       <c r="E27" s="24"/>
       <c r="F27" s="23"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="23"/>
+      <c r="H27" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="I27" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J27" s="24"/>
       <c r="K27" s="2"/>
@@ -2384,9 +2443,9 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="28" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A28" s="25"/>
-      <c r="B28" s="36"/>
+      <c r="B28" s="35"/>
       <c r="C28" s="24"/>
       <c r="D28" s="23"/>
       <c r="E28" s="24"/>
@@ -2413,9 +2472,9 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="29" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A29" s="25"/>
-      <c r="B29" s="36"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="24"/>
       <c r="D29" s="23"/>
       <c r="E29" s="24"/>
@@ -2442,9 +2501,9 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="30" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A30" s="25"/>
-      <c r="B30" s="36"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="24"/>
       <c r="D30" s="23"/>
       <c r="E30" s="24"/>
@@ -2471,9 +2530,9 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" ht="19.149999999999999" customHeight="1">
+    <row r="31" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A31" s="25"/>
-      <c r="B31" s="36"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="24"/>
       <c r="D31" s="23"/>
       <c r="E31" s="24"/>
@@ -2500,19 +2559,19 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" ht="19.149999999999999" customHeight="1">
-      <c r="A32" s="27"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="30" t="s">
+    <row r="32" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A32" s="26"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="J32" s="29"/>
+      <c r="J32" s="28"/>
       <c r="K32" s="2"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -2529,19 +2588,19 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="1:25" ht="19.149999999999999" customHeight="1">
-      <c r="A33" s="31"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="32"/>
+    <row r="33" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A33" s="30"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="31"/>
       <c r="I33" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J33" s="33"/>
+      <c r="J33" s="32"/>
       <c r="K33" s="2"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -2558,19 +2617,19 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="1:25" ht="19.149999999999999" customHeight="1">
-      <c r="A34" s="31"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="32"/>
+    <row r="34" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A34" s="30"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="31"/>
       <c r="I34" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J34" s="33"/>
+      <c r="J34" s="32"/>
       <c r="K34" s="2"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -2587,19 +2646,19 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="1:25" ht="19.149999999999999" customHeight="1">
-      <c r="A35" s="31"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="32"/>
+    <row r="35" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A35" s="30"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="31"/>
       <c r="I35" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J35" s="33"/>
+      <c r="J35" s="32"/>
       <c r="K35" s="2"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -2616,19 +2675,19 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:25" ht="19.149999999999999" customHeight="1">
-      <c r="A36" s="31"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="32"/>
+    <row r="36" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A36" s="30"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="31"/>
       <c r="I36" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J36" s="33"/>
+      <c r="J36" s="32"/>
       <c r="K36" s="2"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -2645,19 +2704,19 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" ht="19.149999999999999" customHeight="1">
-      <c r="A37" s="31"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="32"/>
+    <row r="37" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A37" s="30"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="31"/>
       <c r="I37" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J37" s="33"/>
+      <c r="J37" s="32"/>
       <c r="K37" s="2"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -2674,19 +2733,19 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:25" ht="19.149999999999999" customHeight="1">
-      <c r="A38" s="31"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="32"/>
+    <row r="38" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A38" s="30"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="31"/>
       <c r="I38" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J38" s="33"/>
+      <c r="J38" s="32"/>
       <c r="K38" s="2"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -2703,19 +2762,19 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25" ht="19.149999999999999" customHeight="1">
-      <c r="A39" s="31"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="32"/>
+    <row r="39" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A39" s="30"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="31"/>
       <c r="I39" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J39" s="33"/>
+      <c r="J39" s="32"/>
       <c r="K39" s="2"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -2732,19 +2791,19 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:25" ht="19.149999999999999" customHeight="1">
-      <c r="A40" s="31"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="32"/>
+    <row r="40" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A40" s="30"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="31"/>
       <c r="I40" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J40" s="33"/>
+      <c r="J40" s="32"/>
       <c r="K40" s="2"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -2761,19 +2820,19 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:25" ht="19.149999999999999" customHeight="1">
-      <c r="A41" s="31"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="32"/>
+    <row r="41" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A41" s="30"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="31"/>
       <c r="I41" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J41" s="33"/>
+      <c r="J41" s="32"/>
       <c r="K41" s="2"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -2790,19 +2849,19 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" ht="19.149999999999999" customHeight="1">
-      <c r="A42" s="31"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="32"/>
+    <row r="42" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A42" s="30"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="31"/>
       <c r="I42" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J42" s="33"/>
+      <c r="J42" s="32"/>
       <c r="K42" s="2"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -2819,19 +2878,19 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25" ht="19.149999999999999" customHeight="1">
-      <c r="A43" s="31"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="32"/>
+    <row r="43" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A43" s="30"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="31"/>
       <c r="I43" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J43" s="33"/>
+      <c r="J43" s="32"/>
       <c r="K43" s="2"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -2848,19 +2907,19 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="19.149999999999999" customHeight="1">
-      <c r="A44" s="31"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="32"/>
+    <row r="44" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A44" s="30"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="31"/>
       <c r="I44" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J44" s="33"/>
+      <c r="J44" s="32"/>
       <c r="K44" s="2"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -2877,19 +2936,19 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" spans="1:25" ht="19.149999999999999" customHeight="1">
-      <c r="A45" s="31"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="32"/>
+    <row r="45" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A45" s="30"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="31"/>
       <c r="I45" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J45" s="33"/>
+      <c r="J45" s="32"/>
       <c r="K45" s="2"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -2906,19 +2965,19 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" spans="1:25" ht="19.149999999999999" customHeight="1">
-      <c r="A46" s="31"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="32"/>
+    <row r="46" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A46" s="30"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="31"/>
       <c r="I46" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J46" s="33"/>
+      <c r="J46" s="32"/>
       <c r="K46" s="2"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -2935,19 +2994,19 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" spans="1:25" ht="19.149999999999999" customHeight="1">
-      <c r="A47" s="31"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="32"/>
+    <row r="47" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A47" s="30"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="31"/>
       <c r="I47" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J47" s="33"/>
+      <c r="J47" s="32"/>
       <c r="K47" s="2"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -2964,19 +3023,19 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" spans="1:25" ht="19.149999999999999" customHeight="1">
-      <c r="A48" s="31"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="32"/>
+    <row r="48" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A48" s="30"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="31"/>
       <c r="I48" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J48" s="33"/>
+      <c r="J48" s="32"/>
       <c r="K48" s="2"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -2993,19 +3052,19 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="1:25" ht="19.149999999999999" customHeight="1">
-      <c r="A49" s="31"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="32"/>
+    <row r="49" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A49" s="30"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="31"/>
       <c r="I49" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J49" s="33"/>
+      <c r="J49" s="32"/>
       <c r="K49" s="2"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -3022,19 +3081,19 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="19.149999999999999" customHeight="1">
-      <c r="A50" s="31"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="32"/>
+    <row r="50" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A50" s="30"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="31"/>
       <c r="I50" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J50" s="33"/>
+      <c r="J50" s="32"/>
       <c r="K50" s="2"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -3051,19 +3110,19 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
     </row>
-    <row r="51" spans="1:25" ht="19.149999999999999" customHeight="1">
-      <c r="A51" s="31"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="32"/>
+    <row r="51" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A51" s="30"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="31"/>
       <c r="I51" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J51" s="33"/>
+      <c r="J51" s="32"/>
       <c r="K51" s="2"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -3080,19 +3139,19 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52" spans="1:25" ht="19.149999999999999" customHeight="1">
-      <c r="A52" s="31"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="32"/>
+    <row r="52" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A52" s="30"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="31"/>
       <c r="I52" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J52" s="33"/>
+      <c r="J52" s="32"/>
       <c r="K52" s="2"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
@@ -3109,19 +3168,19 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53" spans="1:25" ht="19.149999999999999" customHeight="1">
-      <c r="A53" s="31"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="32"/>
+    <row r="53" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A53" s="30"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="31"/>
       <c r="I53" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J53" s="33"/>
+      <c r="J53" s="32"/>
       <c r="K53" s="2"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -3138,19 +3197,19 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
     </row>
-    <row r="54" spans="1:25" ht="19.149999999999999" customHeight="1">
-      <c r="A54" s="31"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="32"/>
+    <row r="54" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A54" s="30"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="31"/>
       <c r="I54" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J54" s="33"/>
+      <c r="J54" s="32"/>
       <c r="K54" s="2"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -3167,19 +3226,19 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
     </row>
-    <row r="55" spans="1:25" ht="19.149999999999999" customHeight="1">
-      <c r="A55" s="31"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="32"/>
+    <row r="55" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A55" s="30"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="31"/>
       <c r="I55" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J55" s="33"/>
+      <c r="J55" s="32"/>
       <c r="K55" s="2"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -3196,19 +3255,19 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
     </row>
-    <row r="56" spans="1:25" ht="19.149999999999999" customHeight="1">
-      <c r="A56" s="31"/>
-      <c r="B56" s="38"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="32"/>
+    <row r="56" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A56" s="30"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="31"/>
       <c r="I56" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J56" s="33"/>
+      <c r="J56" s="32"/>
       <c r="K56" s="2"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -3225,19 +3284,19 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
     </row>
-    <row r="57" spans="1:25" ht="19.149999999999999" customHeight="1">
-      <c r="A57" s="31"/>
-      <c r="B57" s="38"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="32"/>
+    <row r="57" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A57" s="30"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="31"/>
       <c r="I57" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J57" s="33"/>
+      <c r="J57" s="32"/>
       <c r="K57" s="2"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -3254,19 +3313,19 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
     </row>
-    <row r="58" spans="1:25" ht="19.149999999999999" customHeight="1">
-      <c r="A58" s="31"/>
-      <c r="B58" s="38"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="32"/>
+    <row r="58" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A58" s="30"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="31"/>
       <c r="I58" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J58" s="33"/>
+      <c r="J58" s="32"/>
       <c r="K58" s="2"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -3283,19 +3342,19 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
     </row>
-    <row r="59" spans="1:25" ht="19.149999999999999" customHeight="1">
-      <c r="A59" s="31"/>
-      <c r="B59" s="38"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="32"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="32"/>
+    <row r="59" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A59" s="30"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="31"/>
       <c r="I59" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J59" s="33"/>
+      <c r="J59" s="32"/>
       <c r="K59" s="2"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -3312,19 +3371,19 @@
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
     </row>
-    <row r="60" spans="1:25" ht="19.149999999999999" customHeight="1">
-      <c r="A60" s="31"/>
-      <c r="B60" s="38"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="32"/>
+    <row r="60" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A60" s="30"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="31"/>
       <c r="I60" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J60" s="33"/>
+      <c r="J60" s="32"/>
       <c r="K60" s="2"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -3341,19 +3400,19 @@
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
     </row>
-    <row r="61" spans="1:25" ht="19.149999999999999" customHeight="1">
-      <c r="A61" s="31"/>
-      <c r="B61" s="38"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="32"/>
+    <row r="61" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A61" s="30"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="31"/>
       <c r="I61" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J61" s="33"/>
+      <c r="J61" s="32"/>
       <c r="K61" s="2"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
@@ -3370,7 +3429,7 @@
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
     </row>
-    <row r="62" spans="1:25" ht="12.75">
+    <row r="62" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
@@ -3397,7 +3456,7 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
     </row>
-    <row r="63" spans="1:25" ht="12.75">
+    <row r="63" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
@@ -3424,7 +3483,7 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
     </row>
-    <row r="64" spans="1:25" ht="12.75">
+    <row r="64" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
@@ -3451,7 +3510,7 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
     </row>
-    <row r="65" spans="1:25" ht="12.75">
+    <row r="65" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -3478,7 +3537,7 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
     </row>
-    <row r="66" spans="1:25" ht="12.75">
+    <row r="66" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
@@ -3505,7 +3564,7 @@
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
     </row>
-    <row r="67" spans="1:25" ht="12.75">
+    <row r="67" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
@@ -3532,7 +3591,7 @@
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
     </row>
-    <row r="68" spans="1:25" ht="12.75">
+    <row r="68" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
@@ -3559,7 +3618,7 @@
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
     </row>
-    <row r="69" spans="1:25" ht="12.75">
+    <row r="69" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
@@ -3586,7 +3645,7 @@
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
     </row>
-    <row r="70" spans="1:25" ht="12.75">
+    <row r="70" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
@@ -3613,7 +3672,7 @@
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
     </row>
-    <row r="71" spans="1:25" ht="12.75">
+    <row r="71" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
@@ -3640,7 +3699,7 @@
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
     </row>
-    <row r="72" spans="1:25" ht="12.75">
+    <row r="72" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
@@ -3667,7 +3726,7 @@
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
     </row>
-    <row r="73" spans="1:25" ht="12.75">
+    <row r="73" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -3694,7 +3753,7 @@
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
     </row>
-    <row r="74" spans="1:25" ht="12.75">
+    <row r="74" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="12"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
@@ -3721,7 +3780,7 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
     </row>
-    <row r="75" spans="1:25" ht="12.75">
+    <row r="75" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
@@ -3748,7 +3807,7 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
     </row>
-    <row r="76" spans="1:25" ht="12.75">
+    <row r="76" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="12"/>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
@@ -3775,7 +3834,7 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
     </row>
-    <row r="77" spans="1:25" ht="12.75">
+    <row r="77" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
@@ -3802,7 +3861,7 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
     </row>
-    <row r="78" spans="1:25" ht="12.75">
+    <row r="78" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="12"/>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
@@ -3829,7 +3888,7 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
     </row>
-    <row r="79" spans="1:25" ht="12.75">
+    <row r="79" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="12"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
@@ -3856,7 +3915,7 @@
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
     </row>
-    <row r="80" spans="1:25" ht="12.75">
+    <row r="80" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="12"/>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
@@ -3883,7 +3942,7 @@
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
     </row>
-    <row r="81" spans="1:25" ht="12.75">
+    <row r="81" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
@@ -3910,7 +3969,7 @@
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
     </row>
-    <row r="82" spans="1:25" ht="12.75">
+    <row r="82" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="12"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
@@ -3937,7 +3996,7 @@
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
     </row>
-    <row r="83" spans="1:25" ht="12.75">
+    <row r="83" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="12"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
@@ -3964,7 +4023,7 @@
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
     </row>
-    <row r="84" spans="1:25" ht="12.75">
+    <row r="84" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="12"/>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
@@ -3991,7 +4050,7 @@
       <c r="X84" s="1"/>
       <c r="Y84" s="1"/>
     </row>
-    <row r="85" spans="1:25" ht="12.75">
+    <row r="85" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="12"/>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
@@ -4018,7 +4077,7 @@
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
     </row>
-    <row r="86" spans="1:25" ht="12.75">
+    <row r="86" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="12"/>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
@@ -4045,7 +4104,7 @@
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
     </row>
-    <row r="87" spans="1:25" ht="12.75">
+    <row r="87" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="12"/>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
@@ -4072,7 +4131,7 @@
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
     </row>
-    <row r="88" spans="1:25" ht="12.75">
+    <row r="88" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="12"/>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
@@ -4099,7 +4158,7 @@
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
     </row>
-    <row r="89" spans="1:25" ht="12.75">
+    <row r="89" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="12"/>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
@@ -4126,7 +4185,7 @@
       <c r="X89" s="1"/>
       <c r="Y89" s="1"/>
     </row>
-    <row r="90" spans="1:25" ht="12.75">
+    <row r="90" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="12"/>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
@@ -4153,7 +4212,7 @@
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
     </row>
-    <row r="91" spans="1:25" ht="12.75">
+    <row r="91" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
@@ -4180,7 +4239,7 @@
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
     </row>
-    <row r="92" spans="1:25" ht="12.75">
+    <row r="92" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="12"/>
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
@@ -4207,7 +4266,7 @@
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
     </row>
-    <row r="93" spans="1:25" ht="12.75">
+    <row r="93" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="12"/>
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
@@ -4234,7 +4293,7 @@
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
     </row>
-    <row r="94" spans="1:25" ht="12.75">
+    <row r="94" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="12"/>
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
@@ -4261,7 +4320,7 @@
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
     </row>
-    <row r="95" spans="1:25" ht="12.75">
+    <row r="95" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="12"/>
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
@@ -4288,7 +4347,7 @@
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
     </row>
-    <row r="96" spans="1:25" ht="12.75">
+    <row r="96" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
@@ -4315,7 +4374,7 @@
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
     </row>
-    <row r="97" spans="1:25" ht="12.75">
+    <row r="97" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="12"/>
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
@@ -4342,7 +4401,7 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
     </row>
-    <row r="98" spans="1:25" ht="12.75">
+    <row r="98" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="12"/>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
@@ -4369,7 +4428,7 @@
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
     </row>
-    <row r="99" spans="1:25" ht="12.75">
+    <row r="99" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="12"/>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
@@ -4396,7 +4455,7 @@
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
     </row>
-    <row r="100" spans="1:25" ht="12.75">
+    <row r="100" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="12"/>
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
@@ -4423,7 +4482,7 @@
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
     </row>
-    <row r="101" spans="1:25" ht="12.75">
+    <row r="101" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="12"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
@@ -4450,7 +4509,7 @@
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
     </row>
-    <row r="102" spans="1:25" ht="12.75">
+    <row r="102" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="12"/>
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
@@ -4477,7 +4536,7 @@
       <c r="X102" s="1"/>
       <c r="Y102" s="1"/>
     </row>
-    <row r="103" spans="1:25" ht="12.75">
+    <row r="103" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
@@ -4504,7 +4563,7 @@
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
     </row>
-    <row r="104" spans="1:25" ht="12.75">
+    <row r="104" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="12"/>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
@@ -4531,7 +4590,7 @@
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
     </row>
-    <row r="105" spans="1:25" ht="12.75">
+    <row r="105" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="12"/>
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
@@ -4558,7 +4617,7 @@
       <c r="X105" s="1"/>
       <c r="Y105" s="1"/>
     </row>
-    <row r="106" spans="1:25" ht="12.75">
+    <row r="106" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="12"/>
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
@@ -4585,7 +4644,7 @@
       <c r="X106" s="1"/>
       <c r="Y106" s="1"/>
     </row>
-    <row r="107" spans="1:25" ht="12.75">
+    <row r="107" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="12"/>
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
@@ -4612,7 +4671,7 @@
       <c r="X107" s="1"/>
       <c r="Y107" s="1"/>
     </row>
-    <row r="108" spans="1:25" ht="12.75">
+    <row r="108" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
       <c r="C108" s="12"/>
@@ -4639,7 +4698,7 @@
       <c r="X108" s="1"/>
       <c r="Y108" s="1"/>
     </row>
-    <row r="109" spans="1:25" ht="12.75">
+    <row r="109" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
       <c r="C109" s="12"/>
@@ -4666,7 +4725,7 @@
       <c r="X109" s="1"/>
       <c r="Y109" s="1"/>
     </row>
-    <row r="110" spans="1:25" ht="12.75">
+    <row r="110" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
@@ -4693,7 +4752,7 @@
       <c r="X110" s="1"/>
       <c r="Y110" s="1"/>
     </row>
-    <row r="111" spans="1:25" ht="12.75">
+    <row r="111" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="12"/>
       <c r="B111" s="12"/>
       <c r="C111" s="12"/>
@@ -4720,7 +4779,7 @@
       <c r="X111" s="1"/>
       <c r="Y111" s="1"/>
     </row>
-    <row r="112" spans="1:25" ht="12.75">
+    <row r="112" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="12"/>
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
@@ -4747,7 +4806,7 @@
       <c r="X112" s="1"/>
       <c r="Y112" s="1"/>
     </row>
-    <row r="113" spans="1:25" ht="12.75">
+    <row r="113" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -4774,7 +4833,7 @@
       <c r="X113" s="1"/>
       <c r="Y113" s="1"/>
     </row>
-    <row r="114" spans="1:25" ht="12.75">
+    <row r="114" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -4801,7 +4860,7 @@
       <c r="X114" s="1"/>
       <c r="Y114" s="1"/>
     </row>
-    <row r="115" spans="1:25" ht="12.75">
+    <row r="115" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -4828,7 +4887,7 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
     </row>
-    <row r="116" spans="1:25" ht="12.75">
+    <row r="116" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -4855,7 +4914,7 @@
       <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
     </row>
-    <row r="117" spans="1:25" ht="12.75">
+    <row r="117" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="12"/>
       <c r="B117" s="12"/>
       <c r="C117" s="12"/>
@@ -4882,7 +4941,7 @@
       <c r="X117" s="1"/>
       <c r="Y117" s="1"/>
     </row>
-    <row r="118" spans="1:25" ht="12.75">
+    <row r="118" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="12"/>
       <c r="B118" s="12"/>
       <c r="C118" s="12"/>
@@ -4909,7 +4968,7 @@
       <c r="X118" s="1"/>
       <c r="Y118" s="1"/>
     </row>
-    <row r="119" spans="1:25" ht="12.75">
+    <row r="119" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="12"/>
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
@@ -4936,7 +4995,7 @@
       <c r="X119" s="1"/>
       <c r="Y119" s="1"/>
     </row>
-    <row r="120" spans="1:25" ht="12.75">
+    <row r="120" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="12"/>
       <c r="B120" s="12"/>
       <c r="C120" s="12"/>
@@ -4963,7 +5022,7 @@
       <c r="X120" s="1"/>
       <c r="Y120" s="1"/>
     </row>
-    <row r="121" spans="1:25" ht="12.75">
+    <row r="121" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="12"/>
       <c r="B121" s="12"/>
       <c r="C121" s="12"/>
@@ -4990,7 +5049,7 @@
       <c r="X121" s="1"/>
       <c r="Y121" s="1"/>
     </row>
-    <row r="122" spans="1:25" ht="12.75">
+    <row r="122" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="12"/>
       <c r="B122" s="12"/>
       <c r="C122" s="12"/>
@@ -5017,7 +5076,7 @@
       <c r="X122" s="1"/>
       <c r="Y122" s="1"/>
     </row>
-    <row r="123" spans="1:25" ht="12.75">
+    <row r="123" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="12"/>
       <c r="B123" s="12"/>
       <c r="C123" s="12"/>
@@ -5044,7 +5103,7 @@
       <c r="X123" s="1"/>
       <c r="Y123" s="1"/>
     </row>
-    <row r="124" spans="1:25" ht="12.75">
+    <row r="124" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="12"/>
       <c r="B124" s="12"/>
       <c r="C124" s="12"/>
@@ -5071,7 +5130,7 @@
       <c r="X124" s="1"/>
       <c r="Y124" s="1"/>
     </row>
-    <row r="125" spans="1:25" ht="12.75">
+    <row r="125" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="12"/>
       <c r="B125" s="12"/>
       <c r="C125" s="12"/>
@@ -5098,7 +5157,7 @@
       <c r="X125" s="1"/>
       <c r="Y125" s="1"/>
     </row>
-    <row r="126" spans="1:25" ht="12.75">
+    <row r="126" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="12"/>
       <c r="B126" s="12"/>
       <c r="C126" s="12"/>
@@ -5125,7 +5184,7 @@
       <c r="X126" s="1"/>
       <c r="Y126" s="1"/>
     </row>
-    <row r="127" spans="1:25" ht="12.75">
+    <row r="127" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="12"/>
       <c r="B127" s="12"/>
       <c r="C127" s="12"/>
@@ -5152,7 +5211,7 @@
       <c r="X127" s="1"/>
       <c r="Y127" s="1"/>
     </row>
-    <row r="128" spans="1:25" ht="12.75">
+    <row r="128" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="12"/>
       <c r="B128" s="12"/>
       <c r="C128" s="12"/>
@@ -5179,7 +5238,7 @@
       <c r="X128" s="1"/>
       <c r="Y128" s="1"/>
     </row>
-    <row r="129" spans="1:25" ht="12.75">
+    <row r="129" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="12"/>
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
@@ -5206,7 +5265,7 @@
       <c r="X129" s="1"/>
       <c r="Y129" s="1"/>
     </row>
-    <row r="130" spans="1:25" ht="12.75">
+    <row r="130" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="12"/>
       <c r="B130" s="12"/>
       <c r="C130" s="12"/>
@@ -5233,7 +5292,7 @@
       <c r="X130" s="1"/>
       <c r="Y130" s="1"/>
     </row>
-    <row r="131" spans="1:25" ht="12.75">
+    <row r="131" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="12"/>
       <c r="B131" s="12"/>
       <c r="C131" s="12"/>
@@ -5260,7 +5319,7 @@
       <c r="X131" s="1"/>
       <c r="Y131" s="1"/>
     </row>
-    <row r="132" spans="1:25" ht="12.75">
+    <row r="132" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" s="12"/>
       <c r="B132" s="12"/>
       <c r="C132" s="12"/>
@@ -5287,7 +5346,7 @@
       <c r="X132" s="1"/>
       <c r="Y132" s="1"/>
     </row>
-    <row r="133" spans="1:25" ht="12.75">
+    <row r="133" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="12"/>
       <c r="B133" s="12"/>
       <c r="C133" s="12"/>
@@ -5314,7 +5373,7 @@
       <c r="X133" s="1"/>
       <c r="Y133" s="1"/>
     </row>
-    <row r="134" spans="1:25" ht="12.75">
+    <row r="134" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="12"/>
       <c r="B134" s="12"/>
       <c r="C134" s="12"/>
@@ -5341,7 +5400,7 @@
       <c r="X134" s="1"/>
       <c r="Y134" s="1"/>
     </row>
-    <row r="135" spans="1:25" ht="12.75">
+    <row r="135" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="12"/>
       <c r="B135" s="12"/>
       <c r="C135" s="12"/>
@@ -5368,7 +5427,7 @@
       <c r="X135" s="1"/>
       <c r="Y135" s="1"/>
     </row>
-    <row r="136" spans="1:25" ht="12.75">
+    <row r="136" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" s="12"/>
       <c r="B136" s="12"/>
       <c r="C136" s="12"/>
@@ -5395,7 +5454,7 @@
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
     </row>
-    <row r="137" spans="1:25" ht="12.75">
+    <row r="137" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="12"/>
       <c r="B137" s="12"/>
       <c r="C137" s="12"/>
@@ -5422,7 +5481,7 @@
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
     </row>
-    <row r="138" spans="1:25" ht="12.75">
+    <row r="138" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="12"/>
       <c r="B138" s="12"/>
       <c r="C138" s="12"/>
@@ -5449,7 +5508,7 @@
       <c r="X138" s="1"/>
       <c r="Y138" s="1"/>
     </row>
-    <row r="139" spans="1:25" ht="12.75">
+    <row r="139" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" s="12"/>
       <c r="B139" s="12"/>
       <c r="C139" s="12"/>
@@ -5476,7 +5535,7 @@
       <c r="X139" s="1"/>
       <c r="Y139" s="1"/>
     </row>
-    <row r="140" spans="1:25" ht="12.75">
+    <row r="140" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="12"/>
       <c r="B140" s="12"/>
       <c r="C140" s="12"/>
@@ -5503,7 +5562,7 @@
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
     </row>
-    <row r="141" spans="1:25" ht="12.75">
+    <row r="141" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="12"/>
       <c r="B141" s="12"/>
       <c r="C141" s="12"/>
@@ -5530,7 +5589,7 @@
       <c r="X141" s="1"/>
       <c r="Y141" s="1"/>
     </row>
-    <row r="142" spans="1:25" ht="12.75">
+    <row r="142" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="12"/>
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
@@ -5557,7 +5616,7 @@
       <c r="X142" s="1"/>
       <c r="Y142" s="1"/>
     </row>
-    <row r="143" spans="1:25" ht="12.75">
+    <row r="143" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="12"/>
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
@@ -5584,7 +5643,7 @@
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
     </row>
-    <row r="144" spans="1:25" ht="12.75">
+    <row r="144" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="12"/>
       <c r="B144" s="12"/>
       <c r="C144" s="12"/>
@@ -5611,7 +5670,7 @@
       <c r="X144" s="1"/>
       <c r="Y144" s="1"/>
     </row>
-    <row r="145" spans="1:25" ht="12.75">
+    <row r="145" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" s="12"/>
       <c r="B145" s="12"/>
       <c r="C145" s="12"/>
@@ -5638,7 +5697,7 @@
       <c r="X145" s="1"/>
       <c r="Y145" s="1"/>
     </row>
-    <row r="146" spans="1:25" ht="12.75">
+    <row r="146" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="12"/>
       <c r="B146" s="12"/>
       <c r="C146" s="12"/>
@@ -5665,7 +5724,7 @@
       <c r="X146" s="1"/>
       <c r="Y146" s="1"/>
     </row>
-    <row r="147" spans="1:25" ht="12.75">
+    <row r="147" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A147" s="12"/>
       <c r="B147" s="12"/>
       <c r="C147" s="12"/>
@@ -5692,7 +5751,7 @@
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
     </row>
-    <row r="148" spans="1:25" ht="12.75">
+    <row r="148" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" s="12"/>
       <c r="B148" s="12"/>
       <c r="C148" s="12"/>
@@ -5719,7 +5778,7 @@
       <c r="X148" s="1"/>
       <c r="Y148" s="1"/>
     </row>
-    <row r="149" spans="1:25" ht="12.75">
+    <row r="149" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" s="12"/>
       <c r="B149" s="12"/>
       <c r="C149" s="12"/>
@@ -5746,7 +5805,7 @@
       <c r="X149" s="1"/>
       <c r="Y149" s="1"/>
     </row>
-    <row r="150" spans="1:25" ht="12.75">
+    <row r="150" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A150" s="12"/>
       <c r="B150" s="12"/>
       <c r="C150" s="12"/>
@@ -5773,7 +5832,7 @@
       <c r="X150" s="1"/>
       <c r="Y150" s="1"/>
     </row>
-    <row r="151" spans="1:25" ht="12.75">
+    <row r="151" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A151" s="12"/>
       <c r="B151" s="12"/>
       <c r="C151" s="12"/>
@@ -5800,7 +5859,7 @@
       <c r="X151" s="1"/>
       <c r="Y151" s="1"/>
     </row>
-    <row r="152" spans="1:25" ht="12.75">
+    <row r="152" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A152" s="12"/>
       <c r="B152" s="12"/>
       <c r="C152" s="12"/>
@@ -5827,7 +5886,7 @@
       <c r="X152" s="1"/>
       <c r="Y152" s="1"/>
     </row>
-    <row r="153" spans="1:25" ht="12.75">
+    <row r="153" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A153" s="12"/>
       <c r="B153" s="12"/>
       <c r="C153" s="12"/>
@@ -5854,7 +5913,7 @@
       <c r="X153" s="1"/>
       <c r="Y153" s="1"/>
     </row>
-    <row r="154" spans="1:25" ht="12.75">
+    <row r="154" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A154" s="12"/>
       <c r="B154" s="12"/>
       <c r="C154" s="12"/>
@@ -5881,7 +5940,7 @@
       <c r="X154" s="1"/>
       <c r="Y154" s="1"/>
     </row>
-    <row r="155" spans="1:25" ht="12.75">
+    <row r="155" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A155" s="12"/>
       <c r="B155" s="12"/>
       <c r="C155" s="12"/>
@@ -5908,7 +5967,7 @@
       <c r="X155" s="1"/>
       <c r="Y155" s="1"/>
     </row>
-    <row r="156" spans="1:25" ht="12.75">
+    <row r="156" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A156" s="12"/>
       <c r="B156" s="12"/>
       <c r="C156" s="12"/>
@@ -5935,7 +5994,7 @@
       <c r="X156" s="1"/>
       <c r="Y156" s="1"/>
     </row>
-    <row r="157" spans="1:25" ht="12.75">
+    <row r="157" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A157" s="12"/>
       <c r="B157" s="12"/>
       <c r="C157" s="12"/>
@@ -5962,7 +6021,7 @@
       <c r="X157" s="1"/>
       <c r="Y157" s="1"/>
     </row>
-    <row r="158" spans="1:25" ht="12.75">
+    <row r="158" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A158" s="12"/>
       <c r="B158" s="12"/>
       <c r="C158" s="12"/>
@@ -5989,7 +6048,7 @@
       <c r="X158" s="1"/>
       <c r="Y158" s="1"/>
     </row>
-    <row r="159" spans="1:25" ht="12.75">
+    <row r="159" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A159" s="12"/>
       <c r="B159" s="12"/>
       <c r="C159" s="12"/>
@@ -6016,7 +6075,7 @@
       <c r="X159" s="1"/>
       <c r="Y159" s="1"/>
     </row>
-    <row r="160" spans="1:25" ht="12.75">
+    <row r="160" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A160" s="12"/>
       <c r="B160" s="12"/>
       <c r="C160" s="12"/>
@@ -6043,7 +6102,7 @@
       <c r="X160" s="1"/>
       <c r="Y160" s="1"/>
     </row>
-    <row r="161" spans="1:25" ht="12.75">
+    <row r="161" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A161" s="12"/>
       <c r="B161" s="12"/>
       <c r="C161" s="12"/>
@@ -6070,7 +6129,7 @@
       <c r="X161" s="1"/>
       <c r="Y161" s="1"/>
     </row>
-    <row r="162" spans="1:25" ht="12.75">
+    <row r="162" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A162" s="12"/>
       <c r="B162" s="12"/>
       <c r="C162" s="12"/>
@@ -6097,7 +6156,7 @@
       <c r="X162" s="1"/>
       <c r="Y162" s="1"/>
     </row>
-    <row r="163" spans="1:25" ht="12.75">
+    <row r="163" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A163" s="12"/>
       <c r="B163" s="12"/>
       <c r="C163" s="12"/>
@@ -6124,7 +6183,7 @@
       <c r="X163" s="1"/>
       <c r="Y163" s="1"/>
     </row>
-    <row r="164" spans="1:25" ht="12.75">
+    <row r="164" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A164" s="12"/>
       <c r="B164" s="12"/>
       <c r="C164" s="12"/>
@@ -6151,7 +6210,7 @@
       <c r="X164" s="1"/>
       <c r="Y164" s="1"/>
     </row>
-    <row r="165" spans="1:25" ht="12.75">
+    <row r="165" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A165" s="12"/>
       <c r="B165" s="12"/>
       <c r="C165" s="12"/>
@@ -6178,7 +6237,7 @@
       <c r="X165" s="1"/>
       <c r="Y165" s="1"/>
     </row>
-    <row r="166" spans="1:25" ht="12.75">
+    <row r="166" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A166" s="12"/>
       <c r="B166" s="12"/>
       <c r="C166" s="12"/>
@@ -6205,7 +6264,7 @@
       <c r="X166" s="1"/>
       <c r="Y166" s="1"/>
     </row>
-    <row r="167" spans="1:25" ht="12.75">
+    <row r="167" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A167" s="12"/>
       <c r="B167" s="12"/>
       <c r="C167" s="12"/>
@@ -6232,7 +6291,7 @@
       <c r="X167" s="1"/>
       <c r="Y167" s="1"/>
     </row>
-    <row r="168" spans="1:25" ht="12.75">
+    <row r="168" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A168" s="12"/>
       <c r="B168" s="12"/>
       <c r="C168" s="12"/>
@@ -6259,7 +6318,7 @@
       <c r="X168" s="1"/>
       <c r="Y168" s="1"/>
     </row>
-    <row r="169" spans="1:25" ht="12.75">
+    <row r="169" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A169" s="12"/>
       <c r="B169" s="12"/>
       <c r="C169" s="12"/>
@@ -6286,7 +6345,7 @@
       <c r="X169" s="1"/>
       <c r="Y169" s="1"/>
     </row>
-    <row r="170" spans="1:25" ht="12.75">
+    <row r="170" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A170" s="12"/>
       <c r="B170" s="12"/>
       <c r="C170" s="12"/>
@@ -6313,7 +6372,7 @@
       <c r="X170" s="1"/>
       <c r="Y170" s="1"/>
     </row>
-    <row r="171" spans="1:25" ht="12.75">
+    <row r="171" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A171" s="12"/>
       <c r="B171" s="12"/>
       <c r="C171" s="12"/>
@@ -6340,7 +6399,7 @@
       <c r="X171" s="1"/>
       <c r="Y171" s="1"/>
     </row>
-    <row r="172" spans="1:25" ht="12.75">
+    <row r="172" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A172" s="12"/>
       <c r="B172" s="12"/>
       <c r="C172" s="12"/>
@@ -6367,7 +6426,7 @@
       <c r="X172" s="1"/>
       <c r="Y172" s="1"/>
     </row>
-    <row r="173" spans="1:25" ht="12.75">
+    <row r="173" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A173" s="12"/>
       <c r="B173" s="12"/>
       <c r="C173" s="12"/>
@@ -6394,7 +6453,7 @@
       <c r="X173" s="1"/>
       <c r="Y173" s="1"/>
     </row>
-    <row r="174" spans="1:25" ht="12.75">
+    <row r="174" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A174" s="12"/>
       <c r="B174" s="12"/>
       <c r="C174" s="12"/>
@@ -6421,7 +6480,7 @@
       <c r="X174" s="1"/>
       <c r="Y174" s="1"/>
     </row>
-    <row r="175" spans="1:25" ht="12.75">
+    <row r="175" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A175" s="12"/>
       <c r="B175" s="12"/>
       <c r="C175" s="12"/>
@@ -6448,7 +6507,7 @@
       <c r="X175" s="1"/>
       <c r="Y175" s="1"/>
     </row>
-    <row r="176" spans="1:25" ht="12.75">
+    <row r="176" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A176" s="12"/>
       <c r="B176" s="12"/>
       <c r="C176" s="12"/>
@@ -6475,7 +6534,7 @@
       <c r="X176" s="1"/>
       <c r="Y176" s="1"/>
     </row>
-    <row r="177" spans="1:25" ht="12.75">
+    <row r="177" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A177" s="12"/>
       <c r="B177" s="12"/>
       <c r="C177" s="12"/>
@@ -6502,7 +6561,7 @@
       <c r="X177" s="1"/>
       <c r="Y177" s="1"/>
     </row>
-    <row r="178" spans="1:25" ht="12.75">
+    <row r="178" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A178" s="12"/>
       <c r="B178" s="12"/>
       <c r="C178" s="12"/>
@@ -6529,7 +6588,7 @@
       <c r="X178" s="1"/>
       <c r="Y178" s="1"/>
     </row>
-    <row r="179" spans="1:25" ht="12.75">
+    <row r="179" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A179" s="12"/>
       <c r="B179" s="12"/>
       <c r="C179" s="12"/>
@@ -6556,7 +6615,7 @@
       <c r="X179" s="1"/>
       <c r="Y179" s="1"/>
     </row>
-    <row r="180" spans="1:25" ht="12.75">
+    <row r="180" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A180" s="12"/>
       <c r="B180" s="12"/>
       <c r="C180" s="12"/>
@@ -6583,7 +6642,7 @@
       <c r="X180" s="1"/>
       <c r="Y180" s="1"/>
     </row>
-    <row r="181" spans="1:25" ht="12.75">
+    <row r="181" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A181" s="12"/>
       <c r="B181" s="12"/>
       <c r="C181" s="12"/>
@@ -6610,7 +6669,7 @@
       <c r="X181" s="1"/>
       <c r="Y181" s="1"/>
     </row>
-    <row r="182" spans="1:25" ht="12.75">
+    <row r="182" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A182" s="12"/>
       <c r="B182" s="12"/>
       <c r="C182" s="12"/>
@@ -6637,7 +6696,7 @@
       <c r="X182" s="1"/>
       <c r="Y182" s="1"/>
     </row>
-    <row r="183" spans="1:25" ht="12.75">
+    <row r="183" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A183" s="12"/>
       <c r="B183" s="12"/>
       <c r="C183" s="12"/>
@@ -6664,7 +6723,7 @@
       <c r="X183" s="1"/>
       <c r="Y183" s="1"/>
     </row>
-    <row r="184" spans="1:25" ht="12.75">
+    <row r="184" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A184" s="12"/>
       <c r="B184" s="12"/>
       <c r="C184" s="12"/>
@@ -6691,7 +6750,7 @@
       <c r="X184" s="1"/>
       <c r="Y184" s="1"/>
     </row>
-    <row r="185" spans="1:25" ht="12.75">
+    <row r="185" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A185" s="12"/>
       <c r="B185" s="12"/>
       <c r="C185" s="12"/>
@@ -6718,7 +6777,7 @@
       <c r="X185" s="1"/>
       <c r="Y185" s="1"/>
     </row>
-    <row r="186" spans="1:25" ht="12.75">
+    <row r="186" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A186" s="12"/>
       <c r="B186" s="12"/>
       <c r="C186" s="12"/>
@@ -6745,7 +6804,7 @@
       <c r="X186" s="1"/>
       <c r="Y186" s="1"/>
     </row>
-    <row r="187" spans="1:25" ht="12.75">
+    <row r="187" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A187" s="12"/>
       <c r="B187" s="12"/>
       <c r="C187" s="12"/>
@@ -6772,7 +6831,7 @@
       <c r="X187" s="1"/>
       <c r="Y187" s="1"/>
     </row>
-    <row r="188" spans="1:25" ht="12.75">
+    <row r="188" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A188" s="12"/>
       <c r="B188" s="12"/>
       <c r="C188" s="12"/>
@@ -6799,7 +6858,7 @@
       <c r="X188" s="1"/>
       <c r="Y188" s="1"/>
     </row>
-    <row r="189" spans="1:25" ht="12.75">
+    <row r="189" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A189" s="12"/>
       <c r="B189" s="12"/>
       <c r="C189" s="12"/>
@@ -6826,7 +6885,7 @@
       <c r="X189" s="1"/>
       <c r="Y189" s="1"/>
     </row>
-    <row r="190" spans="1:25" ht="12.75">
+    <row r="190" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A190" s="12"/>
       <c r="B190" s="12"/>
       <c r="C190" s="12"/>
@@ -6853,7 +6912,7 @@
       <c r="X190" s="1"/>
       <c r="Y190" s="1"/>
     </row>
-    <row r="191" spans="1:25" ht="12.75">
+    <row r="191" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A191" s="12"/>
       <c r="B191" s="12"/>
       <c r="C191" s="12"/>
@@ -6880,7 +6939,7 @@
       <c r="X191" s="1"/>
       <c r="Y191" s="1"/>
     </row>
-    <row r="192" spans="1:25" ht="12.75">
+    <row r="192" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A192" s="12"/>
       <c r="B192" s="12"/>
       <c r="C192" s="12"/>
@@ -6907,7 +6966,7 @@
       <c r="X192" s="1"/>
       <c r="Y192" s="1"/>
     </row>
-    <row r="193" spans="1:25" ht="12.75">
+    <row r="193" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A193" s="12"/>
       <c r="B193" s="12"/>
       <c r="C193" s="12"/>
@@ -6934,7 +6993,7 @@
       <c r="X193" s="1"/>
       <c r="Y193" s="1"/>
     </row>
-    <row r="194" spans="1:25" ht="12.75">
+    <row r="194" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A194" s="12"/>
       <c r="B194" s="12"/>
       <c r="C194" s="12"/>
@@ -6961,7 +7020,7 @@
       <c r="X194" s="1"/>
       <c r="Y194" s="1"/>
     </row>
-    <row r="195" spans="1:25" ht="12.75">
+    <row r="195" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A195" s="12"/>
       <c r="B195" s="12"/>
       <c r="C195" s="12"/>
@@ -6988,7 +7047,7 @@
       <c r="X195" s="1"/>
       <c r="Y195" s="1"/>
     </row>
-    <row r="196" spans="1:25" ht="12.75">
+    <row r="196" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A196" s="12"/>
       <c r="B196" s="12"/>
       <c r="C196" s="12"/>
@@ -7015,7 +7074,7 @@
       <c r="X196" s="1"/>
       <c r="Y196" s="1"/>
     </row>
-    <row r="197" spans="1:25" ht="12.75">
+    <row r="197" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A197" s="12"/>
       <c r="B197" s="12"/>
       <c r="C197" s="12"/>
@@ -7042,7 +7101,7 @@
       <c r="X197" s="1"/>
       <c r="Y197" s="1"/>
     </row>
-    <row r="198" spans="1:25" ht="12.75">
+    <row r="198" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A198" s="12"/>
       <c r="B198" s="12"/>
       <c r="C198" s="12"/>
@@ -7069,7 +7128,7 @@
       <c r="X198" s="1"/>
       <c r="Y198" s="1"/>
     </row>
-    <row r="199" spans="1:25" ht="12.75">
+    <row r="199" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A199" s="12"/>
       <c r="B199" s="12"/>
       <c r="C199" s="12"/>
@@ -7096,7 +7155,7 @@
       <c r="X199" s="1"/>
       <c r="Y199" s="1"/>
     </row>
-    <row r="200" spans="1:25" ht="12.75">
+    <row r="200" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A200" s="12"/>
       <c r="B200" s="12"/>
       <c r="C200" s="12"/>
@@ -7123,7 +7182,7 @@
       <c r="X200" s="1"/>
       <c r="Y200" s="1"/>
     </row>
-    <row r="201" spans="1:25" ht="12.75">
+    <row r="201" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A201" s="12"/>
       <c r="B201" s="12"/>
       <c r="C201" s="12"/>
@@ -7150,7 +7209,7 @@
       <c r="X201" s="1"/>
       <c r="Y201" s="1"/>
     </row>
-    <row r="202" spans="1:25" ht="12.75">
+    <row r="202" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A202" s="12"/>
       <c r="B202" s="12"/>
       <c r="C202" s="12"/>
@@ -7177,7 +7236,7 @@
       <c r="X202" s="1"/>
       <c r="Y202" s="1"/>
     </row>
-    <row r="203" spans="1:25" ht="12.75">
+    <row r="203" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A203" s="12"/>
       <c r="B203" s="12"/>
       <c r="C203" s="12"/>
@@ -7204,7 +7263,7 @@
       <c r="X203" s="1"/>
       <c r="Y203" s="1"/>
     </row>
-    <row r="204" spans="1:25" ht="12.75">
+    <row r="204" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A204" s="12"/>
       <c r="B204" s="12"/>
       <c r="C204" s="12"/>
@@ -7231,7 +7290,7 @@
       <c r="X204" s="1"/>
       <c r="Y204" s="1"/>
     </row>
-    <row r="205" spans="1:25" ht="12.75">
+    <row r="205" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A205" s="12"/>
       <c r="B205" s="12"/>
       <c r="C205" s="12"/>
@@ -7258,7 +7317,7 @@
       <c r="X205" s="1"/>
       <c r="Y205" s="1"/>
     </row>
-    <row r="206" spans="1:25" ht="12.75">
+    <row r="206" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A206" s="12"/>
       <c r="B206" s="12"/>
       <c r="C206" s="12"/>
@@ -7285,7 +7344,7 @@
       <c r="X206" s="1"/>
       <c r="Y206" s="1"/>
     </row>
-    <row r="207" spans="1:25" ht="12.75">
+    <row r="207" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A207" s="12"/>
       <c r="B207" s="12"/>
       <c r="C207" s="12"/>
@@ -7312,7 +7371,7 @@
       <c r="X207" s="1"/>
       <c r="Y207" s="1"/>
     </row>
-    <row r="208" spans="1:25" ht="12.75">
+    <row r="208" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A208" s="12"/>
       <c r="B208" s="12"/>
       <c r="C208" s="12"/>
@@ -7339,7 +7398,7 @@
       <c r="X208" s="1"/>
       <c r="Y208" s="1"/>
     </row>
-    <row r="209" spans="1:25" ht="12.75">
+    <row r="209" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A209" s="12"/>
       <c r="B209" s="12"/>
       <c r="C209" s="12"/>
@@ -7366,7 +7425,7 @@
       <c r="X209" s="1"/>
       <c r="Y209" s="1"/>
     </row>
-    <row r="210" spans="1:25" ht="12.75">
+    <row r="210" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A210" s="12"/>
       <c r="B210" s="12"/>
       <c r="C210" s="12"/>
@@ -7393,7 +7452,7 @@
       <c r="X210" s="1"/>
       <c r="Y210" s="1"/>
     </row>
-    <row r="211" spans="1:25" ht="12.75">
+    <row r="211" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A211" s="12"/>
       <c r="B211" s="12"/>
       <c r="C211" s="12"/>
@@ -7420,7 +7479,7 @@
       <c r="X211" s="1"/>
       <c r="Y211" s="1"/>
     </row>
-    <row r="212" spans="1:25" ht="12.75">
+    <row r="212" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A212" s="12"/>
       <c r="B212" s="12"/>
       <c r="C212" s="12"/>
@@ -7447,7 +7506,7 @@
       <c r="X212" s="1"/>
       <c r="Y212" s="1"/>
     </row>
-    <row r="213" spans="1:25" ht="12.75">
+    <row r="213" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A213" s="12"/>
       <c r="B213" s="12"/>
       <c r="C213" s="12"/>
@@ -7474,7 +7533,7 @@
       <c r="X213" s="1"/>
       <c r="Y213" s="1"/>
     </row>
-    <row r="214" spans="1:25" ht="12.75">
+    <row r="214" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A214" s="12"/>
       <c r="B214" s="12"/>
       <c r="C214" s="12"/>
@@ -7501,7 +7560,7 @@
       <c r="X214" s="1"/>
       <c r="Y214" s="1"/>
     </row>
-    <row r="215" spans="1:25" ht="12.75">
+    <row r="215" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A215" s="12"/>
       <c r="B215" s="12"/>
       <c r="C215" s="12"/>
@@ -7528,7 +7587,7 @@
       <c r="X215" s="1"/>
       <c r="Y215" s="1"/>
     </row>
-    <row r="216" spans="1:25" ht="12.75">
+    <row r="216" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A216" s="12"/>
       <c r="B216" s="12"/>
       <c r="C216" s="12"/>
@@ -7555,7 +7614,7 @@
       <c r="X216" s="1"/>
       <c r="Y216" s="1"/>
     </row>
-    <row r="217" spans="1:25" ht="12.75">
+    <row r="217" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A217" s="12"/>
       <c r="B217" s="12"/>
       <c r="C217" s="12"/>
@@ -7582,7 +7641,7 @@
       <c r="X217" s="1"/>
       <c r="Y217" s="1"/>
     </row>
-    <row r="218" spans="1:25" ht="12.75">
+    <row r="218" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A218" s="12"/>
       <c r="B218" s="12"/>
       <c r="C218" s="12"/>
@@ -7609,7 +7668,7 @@
       <c r="X218" s="1"/>
       <c r="Y218" s="1"/>
     </row>
-    <row r="219" spans="1:25" ht="12.75">
+    <row r="219" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A219" s="12"/>
       <c r="B219" s="12"/>
       <c r="C219" s="12"/>
@@ -7636,7 +7695,7 @@
       <c r="X219" s="1"/>
       <c r="Y219" s="1"/>
     </row>
-    <row r="220" spans="1:25" ht="12.75">
+    <row r="220" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A220" s="12"/>
       <c r="B220" s="12"/>
       <c r="C220" s="12"/>
@@ -7663,7 +7722,7 @@
       <c r="X220" s="1"/>
       <c r="Y220" s="1"/>
     </row>
-    <row r="221" spans="1:25" ht="12.75">
+    <row r="221" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A221" s="12"/>
       <c r="B221" s="12"/>
       <c r="C221" s="12"/>
@@ -7690,7 +7749,7 @@
       <c r="X221" s="1"/>
       <c r="Y221" s="1"/>
     </row>
-    <row r="222" spans="1:25" ht="12.75">
+    <row r="222" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A222" s="12"/>
       <c r="B222" s="12"/>
       <c r="C222" s="12"/>
@@ -7717,7 +7776,7 @@
       <c r="X222" s="1"/>
       <c r="Y222" s="1"/>
     </row>
-    <row r="223" spans="1:25" ht="12.75">
+    <row r="223" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A223" s="12"/>
       <c r="B223" s="12"/>
       <c r="C223" s="12"/>
@@ -7744,7 +7803,7 @@
       <c r="X223" s="1"/>
       <c r="Y223" s="1"/>
     </row>
-    <row r="224" spans="1:25" ht="12.75">
+    <row r="224" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A224" s="12"/>
       <c r="B224" s="12"/>
       <c r="C224" s="12"/>
@@ -7771,7 +7830,7 @@
       <c r="X224" s="1"/>
       <c r="Y224" s="1"/>
     </row>
-    <row r="225" spans="1:25" ht="12.75">
+    <row r="225" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A225" s="12"/>
       <c r="B225" s="12"/>
       <c r="C225" s="12"/>
@@ -7798,7 +7857,7 @@
       <c r="X225" s="1"/>
       <c r="Y225" s="1"/>
     </row>
-    <row r="226" spans="1:25" ht="12.75">
+    <row r="226" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A226" s="12"/>
       <c r="B226" s="12"/>
       <c r="C226" s="12"/>
@@ -7825,7 +7884,7 @@
       <c r="X226" s="1"/>
       <c r="Y226" s="1"/>
     </row>
-    <row r="227" spans="1:25" ht="12.75">
+    <row r="227" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A227" s="12"/>
       <c r="B227" s="12"/>
       <c r="C227" s="12"/>
@@ -7852,7 +7911,7 @@
       <c r="X227" s="1"/>
       <c r="Y227" s="1"/>
     </row>
-    <row r="228" spans="1:25" ht="12.75">
+    <row r="228" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A228" s="12"/>
       <c r="B228" s="12"/>
       <c r="C228" s="12"/>
@@ -7879,7 +7938,7 @@
       <c r="X228" s="1"/>
       <c r="Y228" s="1"/>
     </row>
-    <row r="229" spans="1:25" ht="12.75">
+    <row r="229" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A229" s="12"/>
       <c r="B229" s="12"/>
       <c r="C229" s="12"/>
@@ -7906,7 +7965,7 @@
       <c r="X229" s="1"/>
       <c r="Y229" s="1"/>
     </row>
-    <row r="230" spans="1:25" ht="12.75">
+    <row r="230" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A230" s="12"/>
       <c r="B230" s="12"/>
       <c r="C230" s="12"/>
@@ -7933,7 +7992,7 @@
       <c r="X230" s="1"/>
       <c r="Y230" s="1"/>
     </row>
-    <row r="231" spans="1:25" ht="12.75">
+    <row r="231" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A231" s="12"/>
       <c r="B231" s="12"/>
       <c r="C231" s="12"/>
@@ -7960,7 +8019,7 @@
       <c r="X231" s="1"/>
       <c r="Y231" s="1"/>
     </row>
-    <row r="232" spans="1:25" ht="12.75">
+    <row r="232" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A232" s="12"/>
       <c r="B232" s="12"/>
       <c r="C232" s="12"/>
@@ -7987,7 +8046,7 @@
       <c r="X232" s="1"/>
       <c r="Y232" s="1"/>
     </row>
-    <row r="233" spans="1:25" ht="12.75">
+    <row r="233" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A233" s="12"/>
       <c r="B233" s="12"/>
       <c r="C233" s="12"/>
@@ -8014,7 +8073,7 @@
       <c r="X233" s="1"/>
       <c r="Y233" s="1"/>
     </row>
-    <row r="234" spans="1:25" ht="12.75">
+    <row r="234" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A234" s="12"/>
       <c r="B234" s="12"/>
       <c r="C234" s="12"/>
@@ -8041,7 +8100,7 @@
       <c r="X234" s="1"/>
       <c r="Y234" s="1"/>
     </row>
-    <row r="235" spans="1:25" ht="12.75">
+    <row r="235" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A235" s="12"/>
       <c r="B235" s="12"/>
       <c r="C235" s="12"/>
@@ -8068,7 +8127,7 @@
       <c r="X235" s="1"/>
       <c r="Y235" s="1"/>
     </row>
-    <row r="236" spans="1:25" ht="12.75">
+    <row r="236" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A236" s="12"/>
       <c r="B236" s="12"/>
       <c r="C236" s="12"/>
@@ -8095,7 +8154,7 @@
       <c r="X236" s="1"/>
       <c r="Y236" s="1"/>
     </row>
-    <row r="237" spans="1:25" ht="12.75">
+    <row r="237" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A237" s="12"/>
       <c r="B237" s="12"/>
       <c r="C237" s="12"/>
@@ -8122,7 +8181,7 @@
       <c r="X237" s="1"/>
       <c r="Y237" s="1"/>
     </row>
-    <row r="238" spans="1:25" ht="12.75">
+    <row r="238" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A238" s="12"/>
       <c r="B238" s="12"/>
       <c r="C238" s="12"/>
@@ -8149,7 +8208,7 @@
       <c r="X238" s="1"/>
       <c r="Y238" s="1"/>
     </row>
-    <row r="239" spans="1:25" ht="12.75">
+    <row r="239" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A239" s="12"/>
       <c r="B239" s="12"/>
       <c r="C239" s="12"/>
@@ -8176,7 +8235,7 @@
       <c r="X239" s="1"/>
       <c r="Y239" s="1"/>
     </row>
-    <row r="240" spans="1:25" ht="12.75">
+    <row r="240" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A240" s="12"/>
       <c r="B240" s="12"/>
       <c r="C240" s="12"/>
@@ -8203,7 +8262,7 @@
       <c r="X240" s="1"/>
       <c r="Y240" s="1"/>
     </row>
-    <row r="241" spans="1:25" ht="12.75">
+    <row r="241" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A241" s="12"/>
       <c r="B241" s="12"/>
       <c r="C241" s="12"/>
@@ -8230,7 +8289,7 @@
       <c r="X241" s="1"/>
       <c r="Y241" s="1"/>
     </row>
-    <row r="242" spans="1:25" ht="12.75">
+    <row r="242" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A242" s="12"/>
       <c r="B242" s="12"/>
       <c r="C242" s="12"/>
@@ -8257,7 +8316,7 @@
       <c r="X242" s="1"/>
       <c r="Y242" s="1"/>
     </row>
-    <row r="243" spans="1:25" ht="12.75">
+    <row r="243" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A243" s="12"/>
       <c r="B243" s="12"/>
       <c r="C243" s="12"/>
@@ -8284,7 +8343,7 @@
       <c r="X243" s="1"/>
       <c r="Y243" s="1"/>
     </row>
-    <row r="244" spans="1:25" ht="12.75">
+    <row r="244" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A244" s="12"/>
       <c r="B244" s="12"/>
       <c r="C244" s="12"/>
@@ -8311,7 +8370,7 @@
       <c r="X244" s="1"/>
       <c r="Y244" s="1"/>
     </row>
-    <row r="245" spans="1:25" ht="12.75">
+    <row r="245" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A245" s="12"/>
       <c r="B245" s="12"/>
       <c r="C245" s="12"/>
@@ -8338,7 +8397,7 @@
       <c r="X245" s="1"/>
       <c r="Y245" s="1"/>
     </row>
-    <row r="246" spans="1:25" ht="12.75">
+    <row r="246" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A246" s="12"/>
       <c r="B246" s="12"/>
       <c r="C246" s="12"/>
@@ -8365,7 +8424,7 @@
       <c r="X246" s="1"/>
       <c r="Y246" s="1"/>
     </row>
-    <row r="247" spans="1:25" ht="12.75">
+    <row r="247" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A247" s="12"/>
       <c r="B247" s="12"/>
       <c r="C247" s="12"/>
@@ -8392,7 +8451,7 @@
       <c r="X247" s="1"/>
       <c r="Y247" s="1"/>
     </row>
-    <row r="248" spans="1:25" ht="12.75">
+    <row r="248" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A248" s="12"/>
       <c r="B248" s="12"/>
       <c r="C248" s="12"/>
@@ -8419,7 +8478,7 @@
       <c r="X248" s="1"/>
       <c r="Y248" s="1"/>
     </row>
-    <row r="249" spans="1:25" ht="12.75">
+    <row r="249" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A249" s="12"/>
       <c r="B249" s="12"/>
       <c r="C249" s="12"/>
@@ -8446,7 +8505,7 @@
       <c r="X249" s="1"/>
       <c r="Y249" s="1"/>
     </row>
-    <row r="250" spans="1:25" ht="12.75">
+    <row r="250" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A250" s="12"/>
       <c r="B250" s="12"/>
       <c r="C250" s="12"/>
@@ -8473,7 +8532,7 @@
       <c r="X250" s="1"/>
       <c r="Y250" s="1"/>
     </row>
-    <row r="251" spans="1:25" ht="12.75">
+    <row r="251" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A251" s="12"/>
       <c r="B251" s="12"/>
       <c r="C251" s="12"/>
@@ -8500,7 +8559,7 @@
       <c r="X251" s="1"/>
       <c r="Y251" s="1"/>
     </row>
-    <row r="252" spans="1:25" ht="12.75">
+    <row r="252" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A252" s="12"/>
       <c r="B252" s="12"/>
       <c r="C252" s="12"/>
@@ -8527,7 +8586,7 @@
       <c r="X252" s="1"/>
       <c r="Y252" s="1"/>
     </row>
-    <row r="253" spans="1:25" ht="12.75">
+    <row r="253" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A253" s="12"/>
       <c r="B253" s="12"/>
       <c r="C253" s="12"/>
@@ -8554,7 +8613,7 @@
       <c r="X253" s="1"/>
       <c r="Y253" s="1"/>
     </row>
-    <row r="254" spans="1:25" ht="12.75">
+    <row r="254" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A254" s="12"/>
       <c r="B254" s="12"/>
       <c r="C254" s="12"/>
@@ -8581,7 +8640,7 @@
       <c r="X254" s="1"/>
       <c r="Y254" s="1"/>
     </row>
-    <row r="255" spans="1:25" ht="12.75">
+    <row r="255" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A255" s="12"/>
       <c r="B255" s="12"/>
       <c r="C255" s="12"/>
@@ -8608,7 +8667,7 @@
       <c r="X255" s="1"/>
       <c r="Y255" s="1"/>
     </row>
-    <row r="256" spans="1:25" ht="12.75">
+    <row r="256" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A256" s="12"/>
       <c r="B256" s="12"/>
       <c r="C256" s="12"/>
@@ -8635,7 +8694,7 @@
       <c r="X256" s="1"/>
       <c r="Y256" s="1"/>
     </row>
-    <row r="257" spans="1:25" ht="12.75">
+    <row r="257" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A257" s="12"/>
       <c r="B257" s="12"/>
       <c r="C257" s="12"/>
@@ -8662,7 +8721,7 @@
       <c r="X257" s="1"/>
       <c r="Y257" s="1"/>
     </row>
-    <row r="258" spans="1:25" ht="12.75">
+    <row r="258" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A258" s="12"/>
       <c r="B258" s="12"/>
       <c r="C258" s="12"/>
@@ -8689,7 +8748,7 @@
       <c r="X258" s="1"/>
       <c r="Y258" s="1"/>
     </row>
-    <row r="259" spans="1:25" ht="12.75">
+    <row r="259" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A259" s="12"/>
       <c r="B259" s="12"/>
       <c r="C259" s="12"/>
@@ -8716,7 +8775,7 @@
       <c r="X259" s="1"/>
       <c r="Y259" s="1"/>
     </row>
-    <row r="260" spans="1:25" ht="12.75">
+    <row r="260" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A260" s="12"/>
       <c r="B260" s="12"/>
       <c r="C260" s="12"/>
@@ -8743,7 +8802,7 @@
       <c r="X260" s="1"/>
       <c r="Y260" s="1"/>
     </row>
-    <row r="261" spans="1:25" ht="12.75">
+    <row r="261" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A261" s="12"/>
       <c r="B261" s="12"/>
       <c r="C261" s="12"/>
@@ -8770,7 +8829,7 @@
       <c r="X261" s="1"/>
       <c r="Y261" s="1"/>
     </row>
-    <row r="262" spans="1:25" ht="12.75">
+    <row r="262" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A262" s="12"/>
       <c r="B262" s="12"/>
       <c r="C262" s="12"/>
@@ -8797,7 +8856,7 @@
       <c r="X262" s="1"/>
       <c r="Y262" s="1"/>
     </row>
-    <row r="263" spans="1:25" ht="12.75">
+    <row r="263" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A263" s="12"/>
       <c r="B263" s="12"/>
       <c r="C263" s="12"/>
@@ -8824,7 +8883,7 @@
       <c r="X263" s="1"/>
       <c r="Y263" s="1"/>
     </row>
-    <row r="264" spans="1:25" ht="12.75">
+    <row r="264" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A264" s="12"/>
       <c r="B264" s="12"/>
       <c r="C264" s="12"/>
@@ -8851,7 +8910,7 @@
       <c r="X264" s="1"/>
       <c r="Y264" s="1"/>
     </row>
-    <row r="265" spans="1:25" ht="12.75">
+    <row r="265" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A265" s="12"/>
       <c r="B265" s="12"/>
       <c r="C265" s="12"/>
@@ -8878,7 +8937,7 @@
       <c r="X265" s="1"/>
       <c r="Y265" s="1"/>
     </row>
-    <row r="266" spans="1:25" ht="12.75">
+    <row r="266" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A266" s="12"/>
       <c r="B266" s="12"/>
       <c r="C266" s="12"/>
@@ -8905,7 +8964,7 @@
       <c r="X266" s="1"/>
       <c r="Y266" s="1"/>
     </row>
-    <row r="267" spans="1:25" ht="12.75">
+    <row r="267" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A267" s="12"/>
       <c r="B267" s="12"/>
       <c r="C267" s="12"/>
@@ -8932,7 +8991,7 @@
       <c r="X267" s="1"/>
       <c r="Y267" s="1"/>
     </row>
-    <row r="268" spans="1:25" ht="12.75">
+    <row r="268" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A268" s="12"/>
       <c r="B268" s="12"/>
       <c r="C268" s="12"/>
@@ -8959,7 +9018,7 @@
       <c r="X268" s="1"/>
       <c r="Y268" s="1"/>
     </row>
-    <row r="269" spans="1:25" ht="12.75">
+    <row r="269" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A269" s="12"/>
       <c r="B269" s="12"/>
       <c r="C269" s="12"/>
@@ -8986,7 +9045,7 @@
       <c r="X269" s="1"/>
       <c r="Y269" s="1"/>
     </row>
-    <row r="270" spans="1:25" ht="12.75">
+    <row r="270" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A270" s="12"/>
       <c r="B270" s="12"/>
       <c r="C270" s="12"/>
@@ -9013,7 +9072,7 @@
       <c r="X270" s="1"/>
       <c r="Y270" s="1"/>
     </row>
-    <row r="271" spans="1:25" ht="12.75">
+    <row r="271" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A271" s="12"/>
       <c r="B271" s="12"/>
       <c r="C271" s="12"/>
@@ -9040,7 +9099,7 @@
       <c r="X271" s="1"/>
       <c r="Y271" s="1"/>
     </row>
-    <row r="272" spans="1:25" ht="12.75">
+    <row r="272" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A272" s="12"/>
       <c r="B272" s="12"/>
       <c r="C272" s="12"/>
@@ -9067,7 +9126,7 @@
       <c r="X272" s="1"/>
       <c r="Y272" s="1"/>
     </row>
-    <row r="273" spans="1:25" ht="12.75">
+    <row r="273" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A273" s="12"/>
       <c r="B273" s="12"/>
       <c r="C273" s="12"/>
@@ -9094,7 +9153,7 @@
       <c r="X273" s="1"/>
       <c r="Y273" s="1"/>
     </row>
-    <row r="274" spans="1:25" ht="12.75">
+    <row r="274" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A274" s="12"/>
       <c r="B274" s="12"/>
       <c r="C274" s="12"/>
@@ -9121,7 +9180,7 @@
       <c r="X274" s="1"/>
       <c r="Y274" s="1"/>
     </row>
-    <row r="275" spans="1:25" ht="12.75">
+    <row r="275" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A275" s="12"/>
       <c r="B275" s="12"/>
       <c r="C275" s="12"/>
@@ -9148,7 +9207,7 @@
       <c r="X275" s="1"/>
       <c r="Y275" s="1"/>
     </row>
-    <row r="276" spans="1:25" ht="12.75">
+    <row r="276" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A276" s="12"/>
       <c r="B276" s="12"/>
       <c r="C276" s="12"/>
@@ -9175,7 +9234,7 @@
       <c r="X276" s="1"/>
       <c r="Y276" s="1"/>
     </row>
-    <row r="277" spans="1:25" ht="12.75">
+    <row r="277" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A277" s="12"/>
       <c r="B277" s="12"/>
       <c r="C277" s="12"/>
@@ -9202,7 +9261,7 @@
       <c r="X277" s="1"/>
       <c r="Y277" s="1"/>
     </row>
-    <row r="278" spans="1:25" ht="12.75">
+    <row r="278" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A278" s="12"/>
       <c r="B278" s="12"/>
       <c r="C278" s="12"/>
@@ -9229,7 +9288,7 @@
       <c r="X278" s="1"/>
       <c r="Y278" s="1"/>
     </row>
-    <row r="279" spans="1:25" ht="12.75">
+    <row r="279" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A279" s="12"/>
       <c r="B279" s="12"/>
       <c r="C279" s="12"/>
@@ -9256,7 +9315,7 @@
       <c r="X279" s="1"/>
       <c r="Y279" s="1"/>
     </row>
-    <row r="280" spans="1:25" ht="12.75">
+    <row r="280" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A280" s="12"/>
       <c r="B280" s="12"/>
       <c r="C280" s="12"/>
@@ -9283,7 +9342,7 @@
       <c r="X280" s="1"/>
       <c r="Y280" s="1"/>
     </row>
-    <row r="281" spans="1:25" ht="12.75">
+    <row r="281" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A281" s="12"/>
       <c r="B281" s="12"/>
       <c r="C281" s="12"/>
@@ -9310,7 +9369,7 @@
       <c r="X281" s="1"/>
       <c r="Y281" s="1"/>
     </row>
-    <row r="282" spans="1:25" ht="12.75">
+    <row r="282" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A282" s="12"/>
       <c r="B282" s="12"/>
       <c r="C282" s="12"/>
@@ -9337,7 +9396,7 @@
       <c r="X282" s="1"/>
       <c r="Y282" s="1"/>
     </row>
-    <row r="283" spans="1:25" ht="12.75">
+    <row r="283" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A283" s="12"/>
       <c r="B283" s="12"/>
       <c r="C283" s="12"/>
@@ -9364,7 +9423,7 @@
       <c r="X283" s="1"/>
       <c r="Y283" s="1"/>
     </row>
-    <row r="284" spans="1:25" ht="12.75">
+    <row r="284" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A284" s="12"/>
       <c r="B284" s="12"/>
       <c r="C284" s="12"/>
@@ -9391,7 +9450,7 @@
       <c r="X284" s="1"/>
       <c r="Y284" s="1"/>
     </row>
-    <row r="285" spans="1:25" ht="12.75">
+    <row r="285" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A285" s="12"/>
       <c r="B285" s="12"/>
       <c r="C285" s="12"/>
@@ -9418,7 +9477,7 @@
       <c r="X285" s="1"/>
       <c r="Y285" s="1"/>
     </row>
-    <row r="286" spans="1:25" ht="12.75">
+    <row r="286" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A286" s="12"/>
       <c r="B286" s="12"/>
       <c r="C286" s="12"/>
@@ -9445,7 +9504,7 @@
       <c r="X286" s="1"/>
       <c r="Y286" s="1"/>
     </row>
-    <row r="287" spans="1:25" ht="12.75">
+    <row r="287" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A287" s="12"/>
       <c r="B287" s="12"/>
       <c r="C287" s="12"/>
@@ -9472,7 +9531,7 @@
       <c r="X287" s="1"/>
       <c r="Y287" s="1"/>
     </row>
-    <row r="288" spans="1:25" ht="12.75">
+    <row r="288" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A288" s="12"/>
       <c r="B288" s="12"/>
       <c r="C288" s="12"/>
@@ -9499,7 +9558,7 @@
       <c r="X288" s="1"/>
       <c r="Y288" s="1"/>
     </row>
-    <row r="289" spans="1:25" ht="12.75">
+    <row r="289" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A289" s="12"/>
       <c r="B289" s="12"/>
       <c r="C289" s="12"/>
@@ -9526,7 +9585,7 @@
       <c r="X289" s="1"/>
       <c r="Y289" s="1"/>
     </row>
-    <row r="290" spans="1:25" ht="12.75">
+    <row r="290" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A290" s="12"/>
       <c r="B290" s="12"/>
       <c r="C290" s="12"/>
@@ -9553,7 +9612,7 @@
       <c r="X290" s="1"/>
       <c r="Y290" s="1"/>
     </row>
-    <row r="291" spans="1:25" ht="12.75">
+    <row r="291" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A291" s="12"/>
       <c r="B291" s="12"/>
       <c r="C291" s="12"/>
@@ -9580,7 +9639,7 @@
       <c r="X291" s="1"/>
       <c r="Y291" s="1"/>
     </row>
-    <row r="292" spans="1:25" ht="12.75">
+    <row r="292" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A292" s="12"/>
       <c r="B292" s="12"/>
       <c r="C292" s="12"/>
@@ -9607,7 +9666,7 @@
       <c r="X292" s="1"/>
       <c r="Y292" s="1"/>
     </row>
-    <row r="293" spans="1:25" ht="12.75">
+    <row r="293" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A293" s="12"/>
       <c r="B293" s="12"/>
       <c r="C293" s="12"/>
@@ -9634,7 +9693,7 @@
       <c r="X293" s="1"/>
       <c r="Y293" s="1"/>
     </row>
-    <row r="294" spans="1:25" ht="12.75">
+    <row r="294" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A294" s="12"/>
       <c r="B294" s="12"/>
       <c r="C294" s="12"/>
@@ -9661,7 +9720,7 @@
       <c r="X294" s="1"/>
       <c r="Y294" s="1"/>
     </row>
-    <row r="295" spans="1:25" ht="12.75">
+    <row r="295" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A295" s="12"/>
       <c r="B295" s="12"/>
       <c r="C295" s="12"/>
@@ -9688,7 +9747,7 @@
       <c r="X295" s="1"/>
       <c r="Y295" s="1"/>
     </row>
-    <row r="296" spans="1:25" ht="12.75">
+    <row r="296" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A296" s="12"/>
       <c r="B296" s="12"/>
       <c r="C296" s="12"/>
@@ -9715,7 +9774,7 @@
       <c r="X296" s="1"/>
       <c r="Y296" s="1"/>
     </row>
-    <row r="297" spans="1:25" ht="12.75">
+    <row r="297" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A297" s="12"/>
       <c r="B297" s="12"/>
       <c r="C297" s="12"/>
@@ -9742,7 +9801,7 @@
       <c r="X297" s="1"/>
       <c r="Y297" s="1"/>
     </row>
-    <row r="298" spans="1:25" ht="12.75">
+    <row r="298" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A298" s="12"/>
       <c r="B298" s="12"/>
       <c r="C298" s="12"/>
@@ -9769,7 +9828,7 @@
       <c r="X298" s="1"/>
       <c r="Y298" s="1"/>
     </row>
-    <row r="299" spans="1:25" ht="12.75">
+    <row r="299" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A299" s="12"/>
       <c r="B299" s="12"/>
       <c r="C299" s="12"/>
@@ -9796,7 +9855,7 @@
       <c r="X299" s="1"/>
       <c r="Y299" s="1"/>
     </row>
-    <row r="300" spans="1:25" ht="12.75">
+    <row r="300" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A300" s="12"/>
       <c r="B300" s="12"/>
       <c r="C300" s="12"/>
@@ -9823,7 +9882,7 @@
       <c r="X300" s="1"/>
       <c r="Y300" s="1"/>
     </row>
-    <row r="301" spans="1:25" ht="12.75">
+    <row r="301" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A301" s="12"/>
       <c r="B301" s="12"/>
       <c r="C301" s="12"/>
@@ -9850,7 +9909,7 @@
       <c r="X301" s="1"/>
       <c r="Y301" s="1"/>
     </row>
-    <row r="302" spans="1:25" ht="12.75">
+    <row r="302" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A302" s="12"/>
       <c r="B302" s="12"/>
       <c r="C302" s="12"/>
@@ -9877,7 +9936,7 @@
       <c r="X302" s="1"/>
       <c r="Y302" s="1"/>
     </row>
-    <row r="303" spans="1:25" ht="12.75">
+    <row r="303" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A303" s="12"/>
       <c r="B303" s="12"/>
       <c r="C303" s="12"/>
@@ -9904,7 +9963,7 @@
       <c r="X303" s="1"/>
       <c r="Y303" s="1"/>
     </row>
-    <row r="304" spans="1:25" ht="12.75">
+    <row r="304" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A304" s="12"/>
       <c r="B304" s="12"/>
       <c r="C304" s="12"/>
@@ -9931,7 +9990,7 @@
       <c r="X304" s="1"/>
       <c r="Y304" s="1"/>
     </row>
-    <row r="305" spans="1:25" ht="12.75">
+    <row r="305" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A305" s="12"/>
       <c r="B305" s="12"/>
       <c r="C305" s="12"/>
@@ -9958,7 +10017,7 @@
       <c r="X305" s="1"/>
       <c r="Y305" s="1"/>
     </row>
-    <row r="306" spans="1:25" ht="12.75">
+    <row r="306" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A306" s="12"/>
       <c r="B306" s="12"/>
       <c r="C306" s="12"/>
@@ -9985,7 +10044,7 @@
       <c r="X306" s="1"/>
       <c r="Y306" s="1"/>
     </row>
-    <row r="307" spans="1:25" ht="12.75">
+    <row r="307" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A307" s="12"/>
       <c r="B307" s="12"/>
       <c r="C307" s="12"/>
@@ -10012,7 +10071,7 @@
       <c r="X307" s="1"/>
       <c r="Y307" s="1"/>
     </row>
-    <row r="308" spans="1:25" ht="12.75">
+    <row r="308" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A308" s="12"/>
       <c r="B308" s="12"/>
       <c r="C308" s="12"/>
@@ -10039,7 +10098,7 @@
       <c r="X308" s="1"/>
       <c r="Y308" s="1"/>
     </row>
-    <row r="309" spans="1:25" ht="12.75">
+    <row r="309" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A309" s="12"/>
       <c r="B309" s="12"/>
       <c r="C309" s="12"/>
@@ -10066,7 +10125,7 @@
       <c r="X309" s="1"/>
       <c r="Y309" s="1"/>
     </row>
-    <row r="310" spans="1:25" ht="12.75">
+    <row r="310" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A310" s="12"/>
       <c r="B310" s="12"/>
       <c r="C310" s="12"/>
@@ -10093,7 +10152,7 @@
       <c r="X310" s="1"/>
       <c r="Y310" s="1"/>
     </row>
-    <row r="311" spans="1:25" ht="12.75">
+    <row r="311" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A311" s="12"/>
       <c r="B311" s="12"/>
       <c r="C311" s="12"/>
@@ -10120,7 +10179,7 @@
       <c r="X311" s="1"/>
       <c r="Y311" s="1"/>
     </row>
-    <row r="312" spans="1:25" ht="12.75">
+    <row r="312" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A312" s="12"/>
       <c r="B312" s="12"/>
       <c r="C312" s="12"/>
@@ -10147,7 +10206,7 @@
       <c r="X312" s="1"/>
       <c r="Y312" s="1"/>
     </row>
-    <row r="313" spans="1:25" ht="12.75">
+    <row r="313" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A313" s="12"/>
       <c r="B313" s="12"/>
       <c r="C313" s="12"/>
@@ -10174,7 +10233,7 @@
       <c r="X313" s="1"/>
       <c r="Y313" s="1"/>
     </row>
-    <row r="314" spans="1:25" ht="12.75">
+    <row r="314" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A314" s="12"/>
       <c r="B314" s="12"/>
       <c r="C314" s="12"/>
@@ -10201,7 +10260,7 @@
       <c r="X314" s="1"/>
       <c r="Y314" s="1"/>
     </row>
-    <row r="315" spans="1:25" ht="12.75">
+    <row r="315" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A315" s="12"/>
       <c r="B315" s="12"/>
       <c r="C315" s="12"/>
@@ -10228,7 +10287,7 @@
       <c r="X315" s="1"/>
       <c r="Y315" s="1"/>
     </row>
-    <row r="316" spans="1:25" ht="12.75">
+    <row r="316" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A316" s="12"/>
       <c r="B316" s="12"/>
       <c r="C316" s="12"/>
@@ -10255,7 +10314,7 @@
       <c r="X316" s="1"/>
       <c r="Y316" s="1"/>
     </row>
-    <row r="317" spans="1:25" ht="12.75">
+    <row r="317" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A317" s="12"/>
       <c r="B317" s="12"/>
       <c r="C317" s="12"/>
@@ -10282,7 +10341,7 @@
       <c r="X317" s="1"/>
       <c r="Y317" s="1"/>
     </row>
-    <row r="318" spans="1:25" ht="12.75">
+    <row r="318" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A318" s="12"/>
       <c r="B318" s="12"/>
       <c r="C318" s="12"/>
@@ -10309,7 +10368,7 @@
       <c r="X318" s="1"/>
       <c r="Y318" s="1"/>
     </row>
-    <row r="319" spans="1:25" ht="12.75">
+    <row r="319" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A319" s="12"/>
       <c r="B319" s="12"/>
       <c r="C319" s="12"/>
@@ -10336,7 +10395,7 @@
       <c r="X319" s="1"/>
       <c r="Y319" s="1"/>
     </row>
-    <row r="320" spans="1:25" ht="12.75">
+    <row r="320" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A320" s="12"/>
       <c r="B320" s="12"/>
       <c r="C320" s="12"/>
@@ -10363,7 +10422,7 @@
       <c r="X320" s="1"/>
       <c r="Y320" s="1"/>
     </row>
-    <row r="321" spans="1:25" ht="12.75">
+    <row r="321" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A321" s="12"/>
       <c r="B321" s="12"/>
       <c r="C321" s="12"/>
@@ -10390,7 +10449,7 @@
       <c r="X321" s="1"/>
       <c r="Y321" s="1"/>
     </row>
-    <row r="322" spans="1:25" ht="12.75">
+    <row r="322" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A322" s="12"/>
       <c r="B322" s="12"/>
       <c r="C322" s="12"/>
@@ -10417,7 +10476,7 @@
       <c r="X322" s="1"/>
       <c r="Y322" s="1"/>
     </row>
-    <row r="323" spans="1:25" ht="12.75">
+    <row r="323" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A323" s="12"/>
       <c r="B323" s="12"/>
       <c r="C323" s="12"/>
@@ -10444,7 +10503,7 @@
       <c r="X323" s="1"/>
       <c r="Y323" s="1"/>
     </row>
-    <row r="324" spans="1:25" ht="12.75">
+    <row r="324" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A324" s="12"/>
       <c r="B324" s="12"/>
       <c r="C324" s="12"/>
@@ -10471,7 +10530,7 @@
       <c r="X324" s="1"/>
       <c r="Y324" s="1"/>
     </row>
-    <row r="325" spans="1:25" ht="12.75">
+    <row r="325" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A325" s="12"/>
       <c r="B325" s="12"/>
       <c r="C325" s="12"/>
@@ -10498,7 +10557,7 @@
       <c r="X325" s="1"/>
       <c r="Y325" s="1"/>
     </row>
-    <row r="326" spans="1:25" ht="12.75">
+    <row r="326" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A326" s="12"/>
       <c r="B326" s="12"/>
       <c r="C326" s="12"/>
@@ -10525,7 +10584,7 @@
       <c r="X326" s="1"/>
       <c r="Y326" s="1"/>
     </row>
-    <row r="327" spans="1:25" ht="12.75">
+    <row r="327" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A327" s="12"/>
       <c r="B327" s="12"/>
       <c r="C327" s="12"/>
@@ -10552,7 +10611,7 @@
       <c r="X327" s="1"/>
       <c r="Y327" s="1"/>
     </row>
-    <row r="328" spans="1:25" ht="12.75">
+    <row r="328" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A328" s="12"/>
       <c r="B328" s="12"/>
       <c r="C328" s="12"/>
@@ -10579,7 +10638,7 @@
       <c r="X328" s="1"/>
       <c r="Y328" s="1"/>
     </row>
-    <row r="329" spans="1:25" ht="12.75">
+    <row r="329" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A329" s="12"/>
       <c r="B329" s="12"/>
       <c r="C329" s="12"/>
@@ -10606,7 +10665,7 @@
       <c r="X329" s="1"/>
       <c r="Y329" s="1"/>
     </row>
-    <row r="330" spans="1:25" ht="12.75">
+    <row r="330" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A330" s="12"/>
       <c r="B330" s="12"/>
       <c r="C330" s="12"/>
@@ -10633,7 +10692,7 @@
       <c r="X330" s="1"/>
       <c r="Y330" s="1"/>
     </row>
-    <row r="331" spans="1:25" ht="12.75">
+    <row r="331" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A331" s="12"/>
       <c r="B331" s="12"/>
       <c r="C331" s="12"/>
@@ -10660,7 +10719,7 @@
       <c r="X331" s="1"/>
       <c r="Y331" s="1"/>
     </row>
-    <row r="332" spans="1:25" ht="12.75">
+    <row r="332" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A332" s="12"/>
       <c r="B332" s="12"/>
       <c r="C332" s="12"/>
@@ -10687,7 +10746,7 @@
       <c r="X332" s="1"/>
       <c r="Y332" s="1"/>
     </row>
-    <row r="333" spans="1:25" ht="12.75">
+    <row r="333" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A333" s="12"/>
       <c r="B333" s="12"/>
       <c r="C333" s="12"/>
@@ -10714,7 +10773,7 @@
       <c r="X333" s="1"/>
       <c r="Y333" s="1"/>
     </row>
-    <row r="334" spans="1:25" ht="12.75">
+    <row r="334" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A334" s="12"/>
       <c r="B334" s="12"/>
       <c r="C334" s="12"/>
@@ -10741,7 +10800,7 @@
       <c r="X334" s="1"/>
       <c r="Y334" s="1"/>
     </row>
-    <row r="335" spans="1:25" ht="12.75">
+    <row r="335" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A335" s="12"/>
       <c r="B335" s="12"/>
       <c r="C335" s="12"/>
@@ -10768,7 +10827,7 @@
       <c r="X335" s="1"/>
       <c r="Y335" s="1"/>
     </row>
-    <row r="336" spans="1:25" ht="12.75">
+    <row r="336" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A336" s="12"/>
       <c r="B336" s="12"/>
       <c r="C336" s="12"/>
@@ -10795,7 +10854,7 @@
       <c r="X336" s="1"/>
       <c r="Y336" s="1"/>
     </row>
-    <row r="337" spans="1:25" ht="12.75">
+    <row r="337" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A337" s="12"/>
       <c r="B337" s="12"/>
       <c r="C337" s="12"/>
@@ -10822,7 +10881,7 @@
       <c r="X337" s="1"/>
       <c r="Y337" s="1"/>
     </row>
-    <row r="338" spans="1:25" ht="12.75">
+    <row r="338" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A338" s="12"/>
       <c r="B338" s="12"/>
       <c r="C338" s="12"/>
@@ -10849,7 +10908,7 @@
       <c r="X338" s="1"/>
       <c r="Y338" s="1"/>
     </row>
-    <row r="339" spans="1:25" ht="12.75">
+    <row r="339" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A339" s="12"/>
       <c r="B339" s="12"/>
       <c r="C339" s="12"/>
@@ -10876,7 +10935,7 @@
       <c r="X339" s="1"/>
       <c r="Y339" s="1"/>
     </row>
-    <row r="340" spans="1:25" ht="12.75">
+    <row r="340" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A340" s="12"/>
       <c r="B340" s="12"/>
       <c r="C340" s="12"/>
@@ -10903,7 +10962,7 @@
       <c r="X340" s="1"/>
       <c r="Y340" s="1"/>
     </row>
-    <row r="341" spans="1:25" ht="12.75">
+    <row r="341" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A341" s="12"/>
       <c r="B341" s="12"/>
       <c r="C341" s="12"/>
@@ -10930,7 +10989,7 @@
       <c r="X341" s="1"/>
       <c r="Y341" s="1"/>
     </row>
-    <row r="342" spans="1:25" ht="12.75">
+    <row r="342" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A342" s="12"/>
       <c r="B342" s="12"/>
       <c r="C342" s="12"/>
@@ -10957,7 +11016,7 @@
       <c r="X342" s="1"/>
       <c r="Y342" s="1"/>
     </row>
-    <row r="343" spans="1:25" ht="12.75">
+    <row r="343" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A343" s="12"/>
       <c r="B343" s="12"/>
       <c r="C343" s="12"/>
@@ -10984,7 +11043,7 @@
       <c r="X343" s="1"/>
       <c r="Y343" s="1"/>
     </row>
-    <row r="344" spans="1:25" ht="12.75">
+    <row r="344" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A344" s="12"/>
       <c r="B344" s="12"/>
       <c r="C344" s="12"/>
@@ -11011,7 +11070,7 @@
       <c r="X344" s="1"/>
       <c r="Y344" s="1"/>
     </row>
-    <row r="345" spans="1:25" ht="12.75">
+    <row r="345" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A345" s="12"/>
       <c r="B345" s="12"/>
       <c r="C345" s="12"/>
@@ -11038,7 +11097,7 @@
       <c r="X345" s="1"/>
       <c r="Y345" s="1"/>
     </row>
-    <row r="346" spans="1:25" ht="12.75">
+    <row r="346" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A346" s="12"/>
       <c r="B346" s="12"/>
       <c r="C346" s="12"/>
@@ -11065,7 +11124,7 @@
       <c r="X346" s="1"/>
       <c r="Y346" s="1"/>
     </row>
-    <row r="347" spans="1:25" ht="12.75">
+    <row r="347" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A347" s="12"/>
       <c r="B347" s="12"/>
       <c r="C347" s="12"/>
@@ -11092,7 +11151,7 @@
       <c r="X347" s="1"/>
       <c r="Y347" s="1"/>
     </row>
-    <row r="348" spans="1:25" ht="12.75">
+    <row r="348" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A348" s="12"/>
       <c r="B348" s="12"/>
       <c r="C348" s="12"/>
@@ -11119,7 +11178,7 @@
       <c r="X348" s="1"/>
       <c r="Y348" s="1"/>
     </row>
-    <row r="349" spans="1:25" ht="12.75">
+    <row r="349" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A349" s="12"/>
       <c r="B349" s="12"/>
       <c r="C349" s="12"/>
@@ -11146,7 +11205,7 @@
       <c r="X349" s="1"/>
       <c r="Y349" s="1"/>
     </row>
-    <row r="350" spans="1:25" ht="12.75">
+    <row r="350" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A350" s="12"/>
       <c r="B350" s="12"/>
       <c r="C350" s="12"/>
@@ -11173,7 +11232,7 @@
       <c r="X350" s="1"/>
       <c r="Y350" s="1"/>
     </row>
-    <row r="351" spans="1:25" ht="12.75">
+    <row r="351" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A351" s="12"/>
       <c r="B351" s="12"/>
       <c r="C351" s="12"/>
@@ -11200,7 +11259,7 @@
       <c r="X351" s="1"/>
       <c r="Y351" s="1"/>
     </row>
-    <row r="352" spans="1:25" ht="12.75">
+    <row r="352" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A352" s="12"/>
       <c r="B352" s="12"/>
       <c r="C352" s="12"/>
@@ -11227,7 +11286,7 @@
       <c r="X352" s="1"/>
       <c r="Y352" s="1"/>
     </row>
-    <row r="353" spans="1:25" ht="12.75">
+    <row r="353" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A353" s="12"/>
       <c r="B353" s="12"/>
       <c r="C353" s="12"/>
@@ -11254,7 +11313,7 @@
       <c r="X353" s="1"/>
       <c r="Y353" s="1"/>
     </row>
-    <row r="354" spans="1:25" ht="12.75">
+    <row r="354" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A354" s="12"/>
       <c r="B354" s="12"/>
       <c r="C354" s="12"/>
@@ -11281,7 +11340,7 @@
       <c r="X354" s="1"/>
       <c r="Y354" s="1"/>
     </row>
-    <row r="355" spans="1:25" ht="12.75">
+    <row r="355" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A355" s="12"/>
       <c r="B355" s="12"/>
       <c r="C355" s="12"/>
@@ -11308,7 +11367,7 @@
       <c r="X355" s="1"/>
       <c r="Y355" s="1"/>
     </row>
-    <row r="356" spans="1:25" ht="12.75">
+    <row r="356" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A356" s="12"/>
       <c r="B356" s="12"/>
       <c r="C356" s="12"/>
@@ -11335,7 +11394,7 @@
       <c r="X356" s="1"/>
       <c r="Y356" s="1"/>
     </row>
-    <row r="357" spans="1:25" ht="12.75">
+    <row r="357" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A357" s="12"/>
       <c r="B357" s="12"/>
       <c r="C357" s="12"/>
@@ -11362,7 +11421,7 @@
       <c r="X357" s="1"/>
       <c r="Y357" s="1"/>
     </row>
-    <row r="358" spans="1:25" ht="12.75">
+    <row r="358" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A358" s="12"/>
       <c r="B358" s="12"/>
       <c r="C358" s="12"/>
@@ -11389,7 +11448,7 @@
       <c r="X358" s="1"/>
       <c r="Y358" s="1"/>
     </row>
-    <row r="359" spans="1:25" ht="12.75">
+    <row r="359" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A359" s="12"/>
       <c r="B359" s="12"/>
       <c r="C359" s="12"/>
@@ -11416,7 +11475,7 @@
       <c r="X359" s="1"/>
       <c r="Y359" s="1"/>
     </row>
-    <row r="360" spans="1:25" ht="12.75">
+    <row r="360" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A360" s="12"/>
       <c r="B360" s="12"/>
       <c r="C360" s="12"/>
@@ -11443,7 +11502,7 @@
       <c r="X360" s="1"/>
       <c r="Y360" s="1"/>
     </row>
-    <row r="361" spans="1:25" ht="12.75">
+    <row r="361" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A361" s="12"/>
       <c r="B361" s="12"/>
       <c r="C361" s="12"/>
@@ -11470,7 +11529,7 @@
       <c r="X361" s="1"/>
       <c r="Y361" s="1"/>
     </row>
-    <row r="362" spans="1:25" ht="12.75">
+    <row r="362" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A362" s="12"/>
       <c r="B362" s="12"/>
       <c r="C362" s="12"/>
@@ -11497,7 +11556,7 @@
       <c r="X362" s="1"/>
       <c r="Y362" s="1"/>
     </row>
-    <row r="363" spans="1:25" ht="12.75">
+    <row r="363" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A363" s="12"/>
       <c r="B363" s="12"/>
       <c r="C363" s="12"/>
@@ -11524,7 +11583,7 @@
       <c r="X363" s="1"/>
       <c r="Y363" s="1"/>
     </row>
-    <row r="364" spans="1:25" ht="12.75">
+    <row r="364" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A364" s="12"/>
       <c r="B364" s="12"/>
       <c r="C364" s="12"/>
@@ -11551,7 +11610,7 @@
       <c r="X364" s="1"/>
       <c r="Y364" s="1"/>
     </row>
-    <row r="365" spans="1:25" ht="12.75">
+    <row r="365" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A365" s="12"/>
       <c r="B365" s="12"/>
       <c r="C365" s="12"/>
@@ -11578,7 +11637,7 @@
       <c r="X365" s="1"/>
       <c r="Y365" s="1"/>
     </row>
-    <row r="366" spans="1:25" ht="12.75">
+    <row r="366" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A366" s="12"/>
       <c r="B366" s="12"/>
       <c r="C366" s="12"/>
@@ -11605,7 +11664,7 @@
       <c r="X366" s="1"/>
       <c r="Y366" s="1"/>
     </row>
-    <row r="367" spans="1:25" ht="12.75">
+    <row r="367" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A367" s="12"/>
       <c r="B367" s="12"/>
       <c r="C367" s="12"/>
@@ -11632,7 +11691,7 @@
       <c r="X367" s="1"/>
       <c r="Y367" s="1"/>
     </row>
-    <row r="368" spans="1:25" ht="12.75">
+    <row r="368" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A368" s="12"/>
       <c r="B368" s="12"/>
       <c r="C368" s="12"/>
@@ -11659,7 +11718,7 @@
       <c r="X368" s="1"/>
       <c r="Y368" s="1"/>
     </row>
-    <row r="369" spans="1:25" ht="12.75">
+    <row r="369" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A369" s="12"/>
       <c r="B369" s="12"/>
       <c r="C369" s="12"/>
@@ -11686,7 +11745,7 @@
       <c r="X369" s="1"/>
       <c r="Y369" s="1"/>
     </row>
-    <row r="370" spans="1:25" ht="12.75">
+    <row r="370" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A370" s="12"/>
       <c r="B370" s="12"/>
       <c r="C370" s="12"/>
@@ -11713,7 +11772,7 @@
       <c r="X370" s="1"/>
       <c r="Y370" s="1"/>
     </row>
-    <row r="371" spans="1:25" ht="12.75">
+    <row r="371" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A371" s="12"/>
       <c r="B371" s="12"/>
       <c r="C371" s="12"/>
@@ -11740,7 +11799,7 @@
       <c r="X371" s="1"/>
       <c r="Y371" s="1"/>
     </row>
-    <row r="372" spans="1:25" ht="12.75">
+    <row r="372" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A372" s="12"/>
       <c r="B372" s="12"/>
       <c r="C372" s="12"/>
@@ -11767,7 +11826,7 @@
       <c r="X372" s="1"/>
       <c r="Y372" s="1"/>
     </row>
-    <row r="373" spans="1:25" ht="12.75">
+    <row r="373" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A373" s="12"/>
       <c r="B373" s="12"/>
       <c r="C373" s="12"/>
@@ -11794,7 +11853,7 @@
       <c r="X373" s="1"/>
       <c r="Y373" s="1"/>
     </row>
-    <row r="374" spans="1:25" ht="12.75">
+    <row r="374" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A374" s="12"/>
       <c r="B374" s="12"/>
       <c r="C374" s="12"/>
@@ -11821,7 +11880,7 @@
       <c r="X374" s="1"/>
       <c r="Y374" s="1"/>
     </row>
-    <row r="375" spans="1:25" ht="12.75">
+    <row r="375" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A375" s="12"/>
       <c r="B375" s="12"/>
       <c r="C375" s="12"/>
@@ -11848,7 +11907,7 @@
       <c r="X375" s="1"/>
       <c r="Y375" s="1"/>
     </row>
-    <row r="376" spans="1:25" ht="12.75">
+    <row r="376" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A376" s="12"/>
       <c r="B376" s="12"/>
       <c r="C376" s="12"/>
@@ -11875,7 +11934,7 @@
       <c r="X376" s="1"/>
       <c r="Y376" s="1"/>
     </row>
-    <row r="377" spans="1:25" ht="12.75">
+    <row r="377" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A377" s="12"/>
       <c r="B377" s="12"/>
       <c r="C377" s="12"/>
@@ -11902,7 +11961,7 @@
       <c r="X377" s="1"/>
       <c r="Y377" s="1"/>
     </row>
-    <row r="378" spans="1:25" ht="12.75">
+    <row r="378" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A378" s="12"/>
       <c r="B378" s="12"/>
       <c r="C378" s="12"/>
@@ -11929,7 +11988,7 @@
       <c r="X378" s="1"/>
       <c r="Y378" s="1"/>
     </row>
-    <row r="379" spans="1:25" ht="12.75">
+    <row r="379" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A379" s="12"/>
       <c r="B379" s="12"/>
       <c r="C379" s="12"/>
@@ -11956,7 +12015,7 @@
       <c r="X379" s="1"/>
       <c r="Y379" s="1"/>
     </row>
-    <row r="380" spans="1:25" ht="12.75">
+    <row r="380" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A380" s="12"/>
       <c r="B380" s="12"/>
       <c r="C380" s="12"/>
@@ -11983,7 +12042,7 @@
       <c r="X380" s="1"/>
       <c r="Y380" s="1"/>
     </row>
-    <row r="381" spans="1:25" ht="12.75">
+    <row r="381" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A381" s="12"/>
       <c r="B381" s="12"/>
       <c r="C381" s="12"/>
@@ -12010,7 +12069,7 @@
       <c r="X381" s="1"/>
       <c r="Y381" s="1"/>
     </row>
-    <row r="382" spans="1:25" ht="12.75">
+    <row r="382" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A382" s="12"/>
       <c r="B382" s="12"/>
       <c r="C382" s="12"/>
@@ -12037,7 +12096,7 @@
       <c r="X382" s="1"/>
       <c r="Y382" s="1"/>
     </row>
-    <row r="383" spans="1:25" ht="12.75">
+    <row r="383" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A383" s="12"/>
       <c r="B383" s="12"/>
       <c r="C383" s="12"/>
@@ -12064,7 +12123,7 @@
       <c r="X383" s="1"/>
       <c r="Y383" s="1"/>
     </row>
-    <row r="384" spans="1:25" ht="12.75">
+    <row r="384" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A384" s="12"/>
       <c r="B384" s="12"/>
       <c r="C384" s="12"/>
@@ -12091,7 +12150,7 @@
       <c r="X384" s="1"/>
       <c r="Y384" s="1"/>
     </row>
-    <row r="385" spans="1:25" ht="12.75">
+    <row r="385" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A385" s="12"/>
       <c r="B385" s="12"/>
       <c r="C385" s="12"/>
@@ -12118,7 +12177,7 @@
       <c r="X385" s="1"/>
       <c r="Y385" s="1"/>
     </row>
-    <row r="386" spans="1:25" ht="12.75">
+    <row r="386" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A386" s="12"/>
       <c r="B386" s="12"/>
       <c r="C386" s="12"/>
@@ -12145,7 +12204,7 @@
       <c r="X386" s="1"/>
       <c r="Y386" s="1"/>
     </row>
-    <row r="387" spans="1:25" ht="12.75">
+    <row r="387" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A387" s="12"/>
       <c r="B387" s="12"/>
       <c r="C387" s="12"/>
@@ -12172,7 +12231,7 @@
       <c r="X387" s="1"/>
       <c r="Y387" s="1"/>
     </row>
-    <row r="388" spans="1:25" ht="12.75">
+    <row r="388" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A388" s="12"/>
       <c r="B388" s="12"/>
       <c r="C388" s="12"/>
@@ -12199,7 +12258,7 @@
       <c r="X388" s="1"/>
       <c r="Y388" s="1"/>
     </row>
-    <row r="389" spans="1:25" ht="12.75">
+    <row r="389" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A389" s="12"/>
       <c r="B389" s="12"/>
       <c r="C389" s="12"/>
@@ -12226,7 +12285,7 @@
       <c r="X389" s="1"/>
       <c r="Y389" s="1"/>
     </row>
-    <row r="390" spans="1:25" ht="12.75">
+    <row r="390" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A390" s="12"/>
       <c r="B390" s="12"/>
       <c r="C390" s="12"/>
@@ -12253,7 +12312,7 @@
       <c r="X390" s="1"/>
       <c r="Y390" s="1"/>
     </row>
-    <row r="391" spans="1:25" ht="12.75">
+    <row r="391" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A391" s="12"/>
       <c r="B391" s="12"/>
       <c r="C391" s="12"/>
@@ -12280,7 +12339,7 @@
       <c r="X391" s="1"/>
       <c r="Y391" s="1"/>
     </row>
-    <row r="392" spans="1:25" ht="12.75">
+    <row r="392" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A392" s="12"/>
       <c r="B392" s="12"/>
       <c r="C392" s="12"/>
@@ -12307,7 +12366,7 @@
       <c r="X392" s="1"/>
       <c r="Y392" s="1"/>
     </row>
-    <row r="393" spans="1:25" ht="12.75">
+    <row r="393" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A393" s="12"/>
       <c r="B393" s="12"/>
       <c r="C393" s="12"/>
@@ -12334,7 +12393,7 @@
       <c r="X393" s="1"/>
       <c r="Y393" s="1"/>
     </row>
-    <row r="394" spans="1:25" ht="12.75">
+    <row r="394" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A394" s="12"/>
       <c r="B394" s="12"/>
       <c r="C394" s="12"/>
@@ -12361,7 +12420,7 @@
       <c r="X394" s="1"/>
       <c r="Y394" s="1"/>
     </row>
-    <row r="395" spans="1:25" ht="12.75">
+    <row r="395" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A395" s="12"/>
       <c r="B395" s="12"/>
       <c r="C395" s="12"/>
@@ -12388,7 +12447,7 @@
       <c r="X395" s="1"/>
       <c r="Y395" s="1"/>
     </row>
-    <row r="396" spans="1:25" ht="12.75">
+    <row r="396" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A396" s="12"/>
       <c r="B396" s="12"/>
       <c r="C396" s="12"/>
@@ -12415,7 +12474,7 @@
       <c r="X396" s="1"/>
       <c r="Y396" s="1"/>
     </row>
-    <row r="397" spans="1:25" ht="12.75">
+    <row r="397" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A397" s="12"/>
       <c r="B397" s="12"/>
       <c r="C397" s="12"/>
@@ -12442,7 +12501,7 @@
       <c r="X397" s="1"/>
       <c r="Y397" s="1"/>
     </row>
-    <row r="398" spans="1:25" ht="12.75">
+    <row r="398" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A398" s="12"/>
       <c r="B398" s="12"/>
       <c r="C398" s="12"/>
@@ -12469,7 +12528,7 @@
       <c r="X398" s="1"/>
       <c r="Y398" s="1"/>
     </row>
-    <row r="399" spans="1:25" ht="12.75">
+    <row r="399" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A399" s="12"/>
       <c r="B399" s="12"/>
       <c r="C399" s="12"/>
@@ -12496,7 +12555,7 @@
       <c r="X399" s="1"/>
       <c r="Y399" s="1"/>
     </row>
-    <row r="400" spans="1:25" ht="12.75">
+    <row r="400" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A400" s="12"/>
       <c r="B400" s="12"/>
       <c r="C400" s="12"/>
@@ -12523,7 +12582,7 @@
       <c r="X400" s="1"/>
       <c r="Y400" s="1"/>
     </row>
-    <row r="401" spans="1:25" ht="12.75">
+    <row r="401" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A401" s="12"/>
       <c r="B401" s="12"/>
       <c r="C401" s="12"/>
@@ -12550,7 +12609,7 @@
       <c r="X401" s="1"/>
       <c r="Y401" s="1"/>
     </row>
-    <row r="402" spans="1:25" ht="12.75">
+    <row r="402" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A402" s="12"/>
       <c r="B402" s="12"/>
       <c r="C402" s="12"/>
@@ -12577,7 +12636,7 @@
       <c r="X402" s="1"/>
       <c r="Y402" s="1"/>
     </row>
-    <row r="403" spans="1:25" ht="12.75">
+    <row r="403" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A403" s="12"/>
       <c r="B403" s="12"/>
       <c r="C403" s="12"/>
@@ -12604,7 +12663,7 @@
       <c r="X403" s="1"/>
       <c r="Y403" s="1"/>
     </row>
-    <row r="404" spans="1:25" ht="12.75">
+    <row r="404" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A404" s="12"/>
       <c r="B404" s="12"/>
       <c r="C404" s="12"/>
@@ -12631,7 +12690,7 @@
       <c r="X404" s="1"/>
       <c r="Y404" s="1"/>
     </row>
-    <row r="405" spans="1:25" ht="12.75">
+    <row r="405" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A405" s="12"/>
       <c r="B405" s="12"/>
       <c r="C405" s="12"/>
@@ -12658,7 +12717,7 @@
       <c r="X405" s="1"/>
       <c r="Y405" s="1"/>
     </row>
-    <row r="406" spans="1:25" ht="12.75">
+    <row r="406" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A406" s="12"/>
       <c r="B406" s="12"/>
       <c r="C406" s="12"/>
@@ -12685,7 +12744,7 @@
       <c r="X406" s="1"/>
       <c r="Y406" s="1"/>
     </row>
-    <row r="407" spans="1:25" ht="12.75">
+    <row r="407" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A407" s="12"/>
       <c r="B407" s="12"/>
       <c r="C407" s="12"/>
@@ -12712,7 +12771,7 @@
       <c r="X407" s="1"/>
       <c r="Y407" s="1"/>
     </row>
-    <row r="408" spans="1:25" ht="12.75">
+    <row r="408" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A408" s="12"/>
       <c r="B408" s="12"/>
       <c r="C408" s="12"/>
@@ -12739,7 +12798,7 @@
       <c r="X408" s="1"/>
       <c r="Y408" s="1"/>
     </row>
-    <row r="409" spans="1:25" ht="12.75">
+    <row r="409" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A409" s="12"/>
       <c r="B409" s="12"/>
       <c r="C409" s="12"/>
@@ -12766,7 +12825,7 @@
       <c r="X409" s="1"/>
       <c r="Y409" s="1"/>
     </row>
-    <row r="410" spans="1:25" ht="12.75">
+    <row r="410" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A410" s="12"/>
       <c r="B410" s="12"/>
       <c r="C410" s="12"/>
@@ -12793,7 +12852,7 @@
       <c r="X410" s="1"/>
       <c r="Y410" s="1"/>
     </row>
-    <row r="411" spans="1:25" ht="12.75">
+    <row r="411" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A411" s="12"/>
       <c r="B411" s="12"/>
       <c r="C411" s="12"/>
@@ -12820,7 +12879,7 @@
       <c r="X411" s="1"/>
       <c r="Y411" s="1"/>
     </row>
-    <row r="412" spans="1:25" ht="12.75">
+    <row r="412" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A412" s="12"/>
       <c r="B412" s="12"/>
       <c r="C412" s="12"/>
@@ -12847,7 +12906,7 @@
       <c r="X412" s="1"/>
       <c r="Y412" s="1"/>
     </row>
-    <row r="413" spans="1:25" ht="12.75">
+    <row r="413" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A413" s="12"/>
       <c r="B413" s="12"/>
       <c r="C413" s="12"/>
@@ -12874,7 +12933,7 @@
       <c r="X413" s="1"/>
       <c r="Y413" s="1"/>
     </row>
-    <row r="414" spans="1:25" ht="12.75">
+    <row r="414" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A414" s="12"/>
       <c r="B414" s="12"/>
       <c r="C414" s="12"/>
@@ -12901,7 +12960,7 @@
       <c r="X414" s="1"/>
       <c r="Y414" s="1"/>
     </row>
-    <row r="415" spans="1:25" ht="12.75">
+    <row r="415" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A415" s="12"/>
       <c r="B415" s="12"/>
       <c r="C415" s="12"/>
@@ -12928,7 +12987,7 @@
       <c r="X415" s="1"/>
       <c r="Y415" s="1"/>
     </row>
-    <row r="416" spans="1:25" ht="12.75">
+    <row r="416" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A416" s="12"/>
       <c r="B416" s="12"/>
       <c r="C416" s="12"/>
@@ -12955,7 +13014,7 @@
       <c r="X416" s="1"/>
       <c r="Y416" s="1"/>
     </row>
-    <row r="417" spans="1:25" ht="12.75">
+    <row r="417" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A417" s="12"/>
       <c r="B417" s="12"/>
       <c r="C417" s="12"/>
@@ -12982,7 +13041,7 @@
       <c r="X417" s="1"/>
       <c r="Y417" s="1"/>
     </row>
-    <row r="418" spans="1:25" ht="12.75">
+    <row r="418" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A418" s="12"/>
       <c r="B418" s="12"/>
       <c r="C418" s="12"/>
@@ -13009,7 +13068,7 @@
       <c r="X418" s="1"/>
       <c r="Y418" s="1"/>
     </row>
-    <row r="419" spans="1:25" ht="12.75">
+    <row r="419" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A419" s="12"/>
       <c r="B419" s="12"/>
       <c r="C419" s="12"/>
@@ -13036,7 +13095,7 @@
       <c r="X419" s="1"/>
       <c r="Y419" s="1"/>
     </row>
-    <row r="420" spans="1:25" ht="12.75">
+    <row r="420" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A420" s="12"/>
       <c r="B420" s="12"/>
       <c r="C420" s="12"/>
@@ -13063,7 +13122,7 @@
       <c r="X420" s="1"/>
       <c r="Y420" s="1"/>
     </row>
-    <row r="421" spans="1:25" ht="12.75">
+    <row r="421" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A421" s="12"/>
       <c r="B421" s="12"/>
       <c r="C421" s="12"/>
@@ -13090,7 +13149,7 @@
       <c r="X421" s="1"/>
       <c r="Y421" s="1"/>
     </row>
-    <row r="422" spans="1:25" ht="12.75">
+    <row r="422" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A422" s="12"/>
       <c r="B422" s="12"/>
       <c r="C422" s="12"/>
@@ -13117,7 +13176,7 @@
       <c r="X422" s="1"/>
       <c r="Y422" s="1"/>
     </row>
-    <row r="423" spans="1:25" ht="12.75">
+    <row r="423" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A423" s="12"/>
       <c r="B423" s="12"/>
       <c r="C423" s="12"/>
@@ -13144,7 +13203,7 @@
       <c r="X423" s="1"/>
       <c r="Y423" s="1"/>
     </row>
-    <row r="424" spans="1:25" ht="12.75">
+    <row r="424" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A424" s="12"/>
       <c r="B424" s="12"/>
       <c r="C424" s="12"/>
@@ -13171,7 +13230,7 @@
       <c r="X424" s="1"/>
       <c r="Y424" s="1"/>
     </row>
-    <row r="425" spans="1:25" ht="12.75">
+    <row r="425" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A425" s="12"/>
       <c r="B425" s="12"/>
       <c r="C425" s="12"/>
@@ -13198,7 +13257,7 @@
       <c r="X425" s="1"/>
       <c r="Y425" s="1"/>
     </row>
-    <row r="426" spans="1:25" ht="12.75">
+    <row r="426" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A426" s="12"/>
       <c r="B426" s="12"/>
       <c r="C426" s="12"/>
@@ -13225,7 +13284,7 @@
       <c r="X426" s="1"/>
       <c r="Y426" s="1"/>
     </row>
-    <row r="427" spans="1:25" ht="12.75">
+    <row r="427" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A427" s="12"/>
       <c r="B427" s="12"/>
       <c r="C427" s="12"/>
@@ -13252,7 +13311,7 @@
       <c r="X427" s="1"/>
       <c r="Y427" s="1"/>
     </row>
-    <row r="428" spans="1:25" ht="12.75">
+    <row r="428" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A428" s="12"/>
       <c r="B428" s="12"/>
       <c r="C428" s="12"/>
@@ -13279,7 +13338,7 @@
       <c r="X428" s="1"/>
       <c r="Y428" s="1"/>
     </row>
-    <row r="429" spans="1:25" ht="12.75">
+    <row r="429" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A429" s="12"/>
       <c r="B429" s="12"/>
       <c r="C429" s="12"/>
@@ -13306,7 +13365,7 @@
       <c r="X429" s="1"/>
       <c r="Y429" s="1"/>
     </row>
-    <row r="430" spans="1:25" ht="12.75">
+    <row r="430" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A430" s="12"/>
       <c r="B430" s="12"/>
       <c r="C430" s="12"/>
@@ -13333,7 +13392,7 @@
       <c r="X430" s="1"/>
       <c r="Y430" s="1"/>
     </row>
-    <row r="431" spans="1:25" ht="12.75">
+    <row r="431" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A431" s="12"/>
       <c r="B431" s="12"/>
       <c r="C431" s="12"/>
@@ -13360,7 +13419,7 @@
       <c r="X431" s="1"/>
       <c r="Y431" s="1"/>
     </row>
-    <row r="432" spans="1:25" ht="12.75">
+    <row r="432" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A432" s="12"/>
       <c r="B432" s="12"/>
       <c r="C432" s="12"/>
@@ -13387,7 +13446,7 @@
       <c r="X432" s="1"/>
       <c r="Y432" s="1"/>
     </row>
-    <row r="433" spans="1:25" ht="12.75">
+    <row r="433" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A433" s="12"/>
       <c r="B433" s="12"/>
       <c r="C433" s="12"/>
@@ -13414,7 +13473,7 @@
       <c r="X433" s="1"/>
       <c r="Y433" s="1"/>
     </row>
-    <row r="434" spans="1:25" ht="12.75">
+    <row r="434" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A434" s="12"/>
       <c r="B434" s="12"/>
       <c r="C434" s="12"/>
@@ -13441,7 +13500,7 @@
       <c r="X434" s="1"/>
       <c r="Y434" s="1"/>
     </row>
-    <row r="435" spans="1:25" ht="12.75">
+    <row r="435" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A435" s="12"/>
       <c r="B435" s="12"/>
       <c r="C435" s="12"/>
@@ -13468,7 +13527,7 @@
       <c r="X435" s="1"/>
       <c r="Y435" s="1"/>
     </row>
-    <row r="436" spans="1:25" ht="12.75">
+    <row r="436" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A436" s="12"/>
       <c r="B436" s="12"/>
       <c r="C436" s="12"/>
@@ -13495,7 +13554,7 @@
       <c r="X436" s="1"/>
       <c r="Y436" s="1"/>
     </row>
-    <row r="437" spans="1:25" ht="12.75">
+    <row r="437" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A437" s="12"/>
       <c r="B437" s="12"/>
       <c r="C437" s="12"/>
@@ -13522,7 +13581,7 @@
       <c r="X437" s="1"/>
       <c r="Y437" s="1"/>
     </row>
-    <row r="438" spans="1:25" ht="12.75">
+    <row r="438" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A438" s="12"/>
       <c r="B438" s="12"/>
       <c r="C438" s="12"/>
@@ -13549,7 +13608,7 @@
       <c r="X438" s="1"/>
       <c r="Y438" s="1"/>
     </row>
-    <row r="439" spans="1:25" ht="12.75">
+    <row r="439" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A439" s="12"/>
       <c r="B439" s="12"/>
       <c r="C439" s="12"/>
@@ -13576,7 +13635,7 @@
       <c r="X439" s="1"/>
       <c r="Y439" s="1"/>
     </row>
-    <row r="440" spans="1:25" ht="12.75">
+    <row r="440" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A440" s="12"/>
       <c r="B440" s="12"/>
       <c r="C440" s="12"/>
@@ -13603,7 +13662,7 @@
       <c r="X440" s="1"/>
       <c r="Y440" s="1"/>
     </row>
-    <row r="441" spans="1:25" ht="12.75">
+    <row r="441" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A441" s="12"/>
       <c r="B441" s="12"/>
       <c r="C441" s="12"/>
@@ -13630,7 +13689,7 @@
       <c r="X441" s="1"/>
       <c r="Y441" s="1"/>
     </row>
-    <row r="442" spans="1:25" ht="12.75">
+    <row r="442" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A442" s="12"/>
       <c r="B442" s="12"/>
       <c r="C442" s="12"/>
@@ -13657,7 +13716,7 @@
       <c r="X442" s="1"/>
       <c r="Y442" s="1"/>
     </row>
-    <row r="443" spans="1:25" ht="12.75">
+    <row r="443" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A443" s="12"/>
       <c r="B443" s="12"/>
       <c r="C443" s="12"/>
@@ -13684,7 +13743,7 @@
       <c r="X443" s="1"/>
       <c r="Y443" s="1"/>
     </row>
-    <row r="444" spans="1:25" ht="12.75">
+    <row r="444" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A444" s="12"/>
       <c r="B444" s="12"/>
       <c r="C444" s="12"/>
@@ -13711,7 +13770,7 @@
       <c r="X444" s="1"/>
       <c r="Y444" s="1"/>
     </row>
-    <row r="445" spans="1:25" ht="12.75">
+    <row r="445" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A445" s="12"/>
       <c r="B445" s="12"/>
       <c r="C445" s="12"/>
@@ -13738,7 +13797,7 @@
       <c r="X445" s="1"/>
       <c r="Y445" s="1"/>
     </row>
-    <row r="446" spans="1:25" ht="12.75">
+    <row r="446" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A446" s="12"/>
       <c r="B446" s="12"/>
       <c r="C446" s="12"/>
@@ -13765,7 +13824,7 @@
       <c r="X446" s="1"/>
       <c r="Y446" s="1"/>
     </row>
-    <row r="447" spans="1:25" ht="12.75">
+    <row r="447" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A447" s="12"/>
       <c r="B447" s="12"/>
       <c r="C447" s="12"/>
@@ -13792,7 +13851,7 @@
       <c r="X447" s="1"/>
       <c r="Y447" s="1"/>
     </row>
-    <row r="448" spans="1:25" ht="12.75">
+    <row r="448" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A448" s="12"/>
       <c r="B448" s="12"/>
       <c r="C448" s="12"/>
@@ -13819,7 +13878,7 @@
       <c r="X448" s="1"/>
       <c r="Y448" s="1"/>
     </row>
-    <row r="449" spans="1:25" ht="12.75">
+    <row r="449" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A449" s="12"/>
       <c r="B449" s="12"/>
       <c r="C449" s="12"/>
@@ -13846,7 +13905,7 @@
       <c r="X449" s="1"/>
       <c r="Y449" s="1"/>
     </row>
-    <row r="450" spans="1:25" ht="12.75">
+    <row r="450" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A450" s="12"/>
       <c r="B450" s="12"/>
       <c r="C450" s="12"/>
@@ -13873,7 +13932,7 @@
       <c r="X450" s="1"/>
       <c r="Y450" s="1"/>
     </row>
-    <row r="451" spans="1:25" ht="12.75">
+    <row r="451" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A451" s="12"/>
       <c r="B451" s="12"/>
       <c r="C451" s="12"/>
@@ -13900,7 +13959,7 @@
       <c r="X451" s="1"/>
       <c r="Y451" s="1"/>
     </row>
-    <row r="452" spans="1:25" ht="12.75">
+    <row r="452" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A452" s="12"/>
       <c r="B452" s="12"/>
       <c r="C452" s="12"/>
@@ -13927,7 +13986,7 @@
       <c r="X452" s="1"/>
       <c r="Y452" s="1"/>
     </row>
-    <row r="453" spans="1:25" ht="12.75">
+    <row r="453" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A453" s="12"/>
       <c r="B453" s="12"/>
       <c r="C453" s="12"/>
@@ -13954,7 +14013,7 @@
       <c r="X453" s="1"/>
       <c r="Y453" s="1"/>
     </row>
-    <row r="454" spans="1:25" ht="12.75">
+    <row r="454" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A454" s="12"/>
       <c r="B454" s="12"/>
       <c r="C454" s="12"/>
@@ -13981,7 +14040,7 @@
       <c r="X454" s="1"/>
       <c r="Y454" s="1"/>
     </row>
-    <row r="455" spans="1:25" ht="12.75">
+    <row r="455" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A455" s="12"/>
       <c r="B455" s="12"/>
       <c r="C455" s="12"/>
@@ -14008,7 +14067,7 @@
       <c r="X455" s="1"/>
       <c r="Y455" s="1"/>
     </row>
-    <row r="456" spans="1:25" ht="12.75">
+    <row r="456" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A456" s="12"/>
       <c r="B456" s="12"/>
       <c r="C456" s="12"/>
@@ -14035,7 +14094,7 @@
       <c r="X456" s="1"/>
       <c r="Y456" s="1"/>
     </row>
-    <row r="457" spans="1:25" ht="12.75">
+    <row r="457" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A457" s="12"/>
       <c r="B457" s="12"/>
       <c r="C457" s="12"/>
@@ -14062,7 +14121,7 @@
       <c r="X457" s="1"/>
       <c r="Y457" s="1"/>
     </row>
-    <row r="458" spans="1:25" ht="12.75">
+    <row r="458" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A458" s="12"/>
       <c r="B458" s="12"/>
       <c r="C458" s="12"/>
@@ -14089,7 +14148,7 @@
       <c r="X458" s="1"/>
       <c r="Y458" s="1"/>
     </row>
-    <row r="459" spans="1:25" ht="12.75">
+    <row r="459" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A459" s="12"/>
       <c r="B459" s="12"/>
       <c r="C459" s="12"/>
@@ -14116,7 +14175,7 @@
       <c r="X459" s="1"/>
       <c r="Y459" s="1"/>
     </row>
-    <row r="460" spans="1:25" ht="12.75">
+    <row r="460" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A460" s="12"/>
       <c r="B460" s="12"/>
       <c r="C460" s="12"/>
@@ -14143,7 +14202,7 @@
       <c r="X460" s="1"/>
       <c r="Y460" s="1"/>
     </row>
-    <row r="461" spans="1:25" ht="12.75">
+    <row r="461" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A461" s="12"/>
       <c r="B461" s="12"/>
       <c r="C461" s="12"/>
@@ -14170,7 +14229,7 @@
       <c r="X461" s="1"/>
       <c r="Y461" s="1"/>
     </row>
-    <row r="462" spans="1:25" ht="12.75">
+    <row r="462" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A462" s="12"/>
       <c r="B462" s="12"/>
       <c r="C462" s="12"/>
@@ -14197,7 +14256,7 @@
       <c r="X462" s="1"/>
       <c r="Y462" s="1"/>
     </row>
-    <row r="463" spans="1:25" ht="12.75">
+    <row r="463" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A463" s="12"/>
       <c r="B463" s="12"/>
       <c r="C463" s="12"/>
@@ -14224,7 +14283,7 @@
       <c r="X463" s="1"/>
       <c r="Y463" s="1"/>
     </row>
-    <row r="464" spans="1:25" ht="12.75">
+    <row r="464" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A464" s="12"/>
       <c r="B464" s="12"/>
       <c r="C464" s="12"/>
@@ -14251,7 +14310,7 @@
       <c r="X464" s="1"/>
       <c r="Y464" s="1"/>
     </row>
-    <row r="465" spans="1:25" ht="12.75">
+    <row r="465" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A465" s="12"/>
       <c r="B465" s="12"/>
       <c r="C465" s="12"/>
@@ -14278,7 +14337,7 @@
       <c r="X465" s="1"/>
       <c r="Y465" s="1"/>
     </row>
-    <row r="466" spans="1:25" ht="12.75">
+    <row r="466" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A466" s="12"/>
       <c r="B466" s="12"/>
       <c r="C466" s="12"/>
@@ -14305,7 +14364,7 @@
       <c r="X466" s="1"/>
       <c r="Y466" s="1"/>
     </row>
-    <row r="467" spans="1:25" ht="12.75">
+    <row r="467" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A467" s="12"/>
       <c r="B467" s="12"/>
       <c r="C467" s="12"/>
@@ -14332,7 +14391,7 @@
       <c r="X467" s="1"/>
       <c r="Y467" s="1"/>
     </row>
-    <row r="468" spans="1:25" ht="12.75">
+    <row r="468" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A468" s="12"/>
       <c r="B468" s="12"/>
       <c r="C468" s="12"/>
@@ -14359,7 +14418,7 @@
       <c r="X468" s="1"/>
       <c r="Y468" s="1"/>
     </row>
-    <row r="469" spans="1:25" ht="12.75">
+    <row r="469" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A469" s="12"/>
       <c r="B469" s="12"/>
       <c r="C469" s="12"/>
@@ -14386,7 +14445,7 @@
       <c r="X469" s="1"/>
       <c r="Y469" s="1"/>
     </row>
-    <row r="470" spans="1:25" ht="12.75">
+    <row r="470" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A470" s="12"/>
       <c r="B470" s="12"/>
       <c r="C470" s="12"/>
@@ -14413,7 +14472,7 @@
       <c r="X470" s="1"/>
       <c r="Y470" s="1"/>
     </row>
-    <row r="471" spans="1:25" ht="12.75">
+    <row r="471" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A471" s="12"/>
       <c r="B471" s="12"/>
       <c r="C471" s="12"/>
@@ -14440,7 +14499,7 @@
       <c r="X471" s="1"/>
       <c r="Y471" s="1"/>
     </row>
-    <row r="472" spans="1:25" ht="12.75">
+    <row r="472" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A472" s="12"/>
       <c r="B472" s="12"/>
       <c r="C472" s="12"/>
@@ -14467,7 +14526,7 @@
       <c r="X472" s="1"/>
       <c r="Y472" s="1"/>
     </row>
-    <row r="473" spans="1:25" ht="12.75">
+    <row r="473" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A473" s="12"/>
       <c r="B473" s="12"/>
       <c r="C473" s="12"/>
@@ -14494,7 +14553,7 @@
       <c r="X473" s="1"/>
       <c r="Y473" s="1"/>
     </row>
-    <row r="474" spans="1:25" ht="12.75">
+    <row r="474" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A474" s="12"/>
       <c r="B474" s="12"/>
       <c r="C474" s="12"/>
@@ -14521,7 +14580,7 @@
       <c r="X474" s="1"/>
       <c r="Y474" s="1"/>
     </row>
-    <row r="475" spans="1:25" ht="12.75">
+    <row r="475" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A475" s="12"/>
       <c r="B475" s="12"/>
       <c r="C475" s="12"/>
@@ -14548,7 +14607,7 @@
       <c r="X475" s="1"/>
       <c r="Y475" s="1"/>
     </row>
-    <row r="476" spans="1:25" ht="12.75">
+    <row r="476" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A476" s="12"/>
       <c r="B476" s="12"/>
       <c r="C476" s="12"/>
@@ -14575,7 +14634,7 @@
       <c r="X476" s="1"/>
       <c r="Y476" s="1"/>
     </row>
-    <row r="477" spans="1:25" ht="12.75">
+    <row r="477" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A477" s="12"/>
       <c r="B477" s="12"/>
       <c r="C477" s="12"/>
@@ -14602,7 +14661,7 @@
       <c r="X477" s="1"/>
       <c r="Y477" s="1"/>
     </row>
-    <row r="478" spans="1:25" ht="12.75">
+    <row r="478" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A478" s="12"/>
       <c r="B478" s="12"/>
       <c r="C478" s="12"/>
@@ -14629,7 +14688,7 @@
       <c r="X478" s="1"/>
       <c r="Y478" s="1"/>
     </row>
-    <row r="479" spans="1:25" ht="12.75">
+    <row r="479" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A479" s="12"/>
       <c r="B479" s="12"/>
       <c r="C479" s="12"/>
@@ -14656,7 +14715,7 @@
       <c r="X479" s="1"/>
       <c r="Y479" s="1"/>
     </row>
-    <row r="480" spans="1:25" ht="12.75">
+    <row r="480" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A480" s="12"/>
       <c r="B480" s="12"/>
       <c r="C480" s="12"/>
@@ -14683,7 +14742,7 @@
       <c r="X480" s="1"/>
       <c r="Y480" s="1"/>
     </row>
-    <row r="481" spans="1:25" ht="12.75">
+    <row r="481" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A481" s="12"/>
       <c r="B481" s="12"/>
       <c r="C481" s="12"/>
@@ -14710,7 +14769,7 @@
       <c r="X481" s="1"/>
       <c r="Y481" s="1"/>
     </row>
-    <row r="482" spans="1:25" ht="12.75">
+    <row r="482" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A482" s="12"/>
       <c r="B482" s="12"/>
       <c r="C482" s="12"/>
@@ -14737,7 +14796,7 @@
       <c r="X482" s="1"/>
       <c r="Y482" s="1"/>
     </row>
-    <row r="483" spans="1:25" ht="12.75">
+    <row r="483" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A483" s="12"/>
       <c r="B483" s="12"/>
       <c r="C483" s="12"/>
@@ -14764,7 +14823,7 @@
       <c r="X483" s="1"/>
       <c r="Y483" s="1"/>
     </row>
-    <row r="484" spans="1:25" ht="12.75">
+    <row r="484" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A484" s="12"/>
       <c r="B484" s="12"/>
       <c r="C484" s="12"/>
@@ -14791,7 +14850,7 @@
       <c r="X484" s="1"/>
       <c r="Y484" s="1"/>
     </row>
-    <row r="485" spans="1:25" ht="12.75">
+    <row r="485" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A485" s="12"/>
       <c r="B485" s="12"/>
       <c r="C485" s="12"/>
@@ -14818,7 +14877,7 @@
       <c r="X485" s="1"/>
       <c r="Y485" s="1"/>
     </row>
-    <row r="486" spans="1:25" ht="12.75">
+    <row r="486" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A486" s="12"/>
       <c r="B486" s="12"/>
       <c r="C486" s="12"/>
@@ -14845,7 +14904,7 @@
       <c r="X486" s="1"/>
       <c r="Y486" s="1"/>
     </row>
-    <row r="487" spans="1:25" ht="12.75">
+    <row r="487" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A487" s="12"/>
       <c r="B487" s="12"/>
       <c r="C487" s="12"/>
@@ -14872,7 +14931,7 @@
       <c r="X487" s="1"/>
       <c r="Y487" s="1"/>
     </row>
-    <row r="488" spans="1:25" ht="12.75">
+    <row r="488" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A488" s="12"/>
       <c r="B488" s="12"/>
       <c r="C488" s="12"/>
@@ -14899,7 +14958,7 @@
       <c r="X488" s="1"/>
       <c r="Y488" s="1"/>
     </row>
-    <row r="489" spans="1:25" ht="12.75">
+    <row r="489" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A489" s="12"/>
       <c r="B489" s="12"/>
       <c r="C489" s="12"/>
@@ -14926,7 +14985,7 @@
       <c r="X489" s="1"/>
       <c r="Y489" s="1"/>
     </row>
-    <row r="490" spans="1:25" ht="12.75">
+    <row r="490" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A490" s="12"/>
       <c r="B490" s="12"/>
       <c r="C490" s="12"/>
@@ -14953,7 +15012,7 @@
       <c r="X490" s="1"/>
       <c r="Y490" s="1"/>
     </row>
-    <row r="491" spans="1:25" ht="12.75">
+    <row r="491" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A491" s="12"/>
       <c r="B491" s="12"/>
       <c r="C491" s="12"/>
@@ -14980,7 +15039,7 @@
       <c r="X491" s="1"/>
       <c r="Y491" s="1"/>
     </row>
-    <row r="492" spans="1:25" ht="12.75">
+    <row r="492" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A492" s="12"/>
       <c r="B492" s="12"/>
       <c r="C492" s="12"/>
@@ -15007,7 +15066,7 @@
       <c r="X492" s="1"/>
       <c r="Y492" s="1"/>
     </row>
-    <row r="493" spans="1:25" ht="12.75">
+    <row r="493" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A493" s="12"/>
       <c r="B493" s="12"/>
       <c r="C493" s="12"/>
@@ -15034,7 +15093,7 @@
       <c r="X493" s="1"/>
       <c r="Y493" s="1"/>
     </row>
-    <row r="494" spans="1:25" ht="12.75">
+    <row r="494" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A494" s="12"/>
       <c r="B494" s="12"/>
       <c r="C494" s="12"/>
@@ -15061,7 +15120,7 @@
       <c r="X494" s="1"/>
       <c r="Y494" s="1"/>
     </row>
-    <row r="495" spans="1:25" ht="12.75">
+    <row r="495" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A495" s="12"/>
       <c r="B495" s="12"/>
       <c r="C495" s="12"/>
@@ -15088,7 +15147,7 @@
       <c r="X495" s="1"/>
       <c r="Y495" s="1"/>
     </row>
-    <row r="496" spans="1:25" ht="12.75">
+    <row r="496" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A496" s="12"/>
       <c r="B496" s="12"/>
       <c r="C496" s="12"/>
@@ -15115,7 +15174,7 @@
       <c r="X496" s="1"/>
       <c r="Y496" s="1"/>
     </row>
-    <row r="497" spans="1:25" ht="12.75">
+    <row r="497" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A497" s="12"/>
       <c r="B497" s="12"/>
       <c r="C497" s="12"/>
@@ -15142,7 +15201,7 @@
       <c r="X497" s="1"/>
       <c r="Y497" s="1"/>
     </row>
-    <row r="498" spans="1:25" ht="12.75">
+    <row r="498" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A498" s="12"/>
       <c r="B498" s="12"/>
       <c r="C498" s="12"/>
@@ -15169,7 +15228,7 @@
       <c r="X498" s="1"/>
       <c r="Y498" s="1"/>
     </row>
-    <row r="499" spans="1:25" ht="12.75">
+    <row r="499" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A499" s="12"/>
       <c r="B499" s="12"/>
       <c r="C499" s="12"/>
@@ -15196,7 +15255,7 @@
       <c r="X499" s="1"/>
       <c r="Y499" s="1"/>
     </row>
-    <row r="500" spans="1:25" ht="12.75">
+    <row r="500" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A500" s="12"/>
       <c r="B500" s="12"/>
       <c r="C500" s="12"/>
@@ -15223,7 +15282,7 @@
       <c r="X500" s="1"/>
       <c r="Y500" s="1"/>
     </row>
-    <row r="501" spans="1:25" ht="12.75">
+    <row r="501" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A501" s="12"/>
       <c r="B501" s="12"/>
       <c r="C501" s="12"/>
@@ -15250,7 +15309,7 @@
       <c r="X501" s="1"/>
       <c r="Y501" s="1"/>
     </row>
-    <row r="502" spans="1:25" ht="12.75">
+    <row r="502" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A502" s="12"/>
       <c r="B502" s="12"/>
       <c r="C502" s="12"/>
@@ -15277,7 +15336,7 @@
       <c r="X502" s="1"/>
       <c r="Y502" s="1"/>
     </row>
-    <row r="503" spans="1:25" ht="12.75">
+    <row r="503" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A503" s="12"/>
       <c r="B503" s="12"/>
       <c r="C503" s="12"/>
@@ -15304,7 +15363,7 @@
       <c r="X503" s="1"/>
       <c r="Y503" s="1"/>
     </row>
-    <row r="504" spans="1:25" ht="12.75">
+    <row r="504" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A504" s="12"/>
       <c r="B504" s="12"/>
       <c r="C504" s="12"/>
@@ -15331,7 +15390,7 @@
       <c r="X504" s="1"/>
       <c r="Y504" s="1"/>
     </row>
-    <row r="505" spans="1:25" ht="12.75">
+    <row r="505" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A505" s="12"/>
       <c r="B505" s="12"/>
       <c r="C505" s="12"/>
@@ -15358,7 +15417,7 @@
       <c r="X505" s="1"/>
       <c r="Y505" s="1"/>
     </row>
-    <row r="506" spans="1:25" ht="12.75">
+    <row r="506" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A506" s="12"/>
       <c r="B506" s="12"/>
       <c r="C506" s="12"/>
@@ -15385,7 +15444,7 @@
       <c r="X506" s="1"/>
       <c r="Y506" s="1"/>
     </row>
-    <row r="507" spans="1:25" ht="12.75">
+    <row r="507" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A507" s="12"/>
       <c r="B507" s="12"/>
       <c r="C507" s="12"/>
@@ -15412,7 +15471,7 @@
       <c r="X507" s="1"/>
       <c r="Y507" s="1"/>
     </row>
-    <row r="508" spans="1:25" ht="12.75">
+    <row r="508" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A508" s="12"/>
       <c r="B508" s="12"/>
       <c r="C508" s="12"/>
@@ -15439,7 +15498,7 @@
       <c r="X508" s="1"/>
       <c r="Y508" s="1"/>
     </row>
-    <row r="509" spans="1:25" ht="12.75">
+    <row r="509" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A509" s="12"/>
       <c r="B509" s="12"/>
       <c r="C509" s="12"/>
@@ -15466,7 +15525,7 @@
       <c r="X509" s="1"/>
       <c r="Y509" s="1"/>
     </row>
-    <row r="510" spans="1:25" ht="12.75">
+    <row r="510" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A510" s="12"/>
       <c r="B510" s="12"/>
       <c r="C510" s="12"/>
@@ -15493,7 +15552,7 @@
       <c r="X510" s="1"/>
       <c r="Y510" s="1"/>
     </row>
-    <row r="511" spans="1:25" ht="12.75">
+    <row r="511" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A511" s="12"/>
       <c r="B511" s="12"/>
       <c r="C511" s="12"/>
@@ -15520,7 +15579,7 @@
       <c r="X511" s="1"/>
       <c r="Y511" s="1"/>
     </row>
-    <row r="512" spans="1:25" ht="12.75">
+    <row r="512" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A512" s="12"/>
       <c r="B512" s="12"/>
       <c r="C512" s="12"/>
@@ -15547,7 +15606,7 @@
       <c r="X512" s="1"/>
       <c r="Y512" s="1"/>
     </row>
-    <row r="513" spans="1:25" ht="12.75">
+    <row r="513" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A513" s="12"/>
       <c r="B513" s="12"/>
       <c r="C513" s="12"/>
@@ -15574,7 +15633,7 @@
       <c r="X513" s="1"/>
       <c r="Y513" s="1"/>
     </row>
-    <row r="514" spans="1:25" ht="12.75">
+    <row r="514" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A514" s="12"/>
       <c r="B514" s="12"/>
       <c r="C514" s="12"/>
@@ -15601,7 +15660,7 @@
       <c r="X514" s="1"/>
       <c r="Y514" s="1"/>
     </row>
-    <row r="515" spans="1:25" ht="12.75">
+    <row r="515" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A515" s="12"/>
       <c r="B515" s="12"/>
       <c r="C515" s="12"/>
@@ -15628,7 +15687,7 @@
       <c r="X515" s="1"/>
       <c r="Y515" s="1"/>
     </row>
-    <row r="516" spans="1:25" ht="12.75">
+    <row r="516" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A516" s="12"/>
       <c r="B516" s="12"/>
       <c r="C516" s="12"/>
@@ -15655,7 +15714,7 @@
       <c r="X516" s="1"/>
       <c r="Y516" s="1"/>
     </row>
-    <row r="517" spans="1:25" ht="12.75">
+    <row r="517" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A517" s="12"/>
       <c r="B517" s="12"/>
       <c r="C517" s="12"/>
@@ -15682,7 +15741,7 @@
       <c r="X517" s="1"/>
       <c r="Y517" s="1"/>
     </row>
-    <row r="518" spans="1:25" ht="12.75">
+    <row r="518" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A518" s="12"/>
       <c r="B518" s="12"/>
       <c r="C518" s="12"/>
@@ -15709,7 +15768,7 @@
       <c r="X518" s="1"/>
       <c r="Y518" s="1"/>
     </row>
-    <row r="519" spans="1:25" ht="12.75">
+    <row r="519" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A519" s="12"/>
       <c r="B519" s="12"/>
       <c r="C519" s="12"/>
@@ -15736,7 +15795,7 @@
       <c r="X519" s="1"/>
       <c r="Y519" s="1"/>
     </row>
-    <row r="520" spans="1:25" ht="12.75">
+    <row r="520" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A520" s="12"/>
       <c r="B520" s="12"/>
       <c r="C520" s="12"/>
@@ -15763,7 +15822,7 @@
       <c r="X520" s="1"/>
       <c r="Y520" s="1"/>
     </row>
-    <row r="521" spans="1:25" ht="12.75">
+    <row r="521" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A521" s="12"/>
       <c r="B521" s="12"/>
       <c r="C521" s="12"/>
@@ -15790,7 +15849,7 @@
       <c r="X521" s="1"/>
       <c r="Y521" s="1"/>
     </row>
-    <row r="522" spans="1:25" ht="12.75">
+    <row r="522" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A522" s="12"/>
       <c r="B522" s="12"/>
       <c r="C522" s="12"/>
@@ -15817,7 +15876,7 @@
       <c r="X522" s="1"/>
       <c r="Y522" s="1"/>
     </row>
-    <row r="523" spans="1:25" ht="12.75">
+    <row r="523" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A523" s="12"/>
       <c r="B523" s="12"/>
       <c r="C523" s="12"/>
@@ -15844,7 +15903,7 @@
       <c r="X523" s="1"/>
       <c r="Y523" s="1"/>
     </row>
-    <row r="524" spans="1:25" ht="12.75">
+    <row r="524" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A524" s="12"/>
       <c r="B524" s="12"/>
       <c r="C524" s="12"/>
@@ -15871,7 +15930,7 @@
       <c r="X524" s="1"/>
       <c r="Y524" s="1"/>
     </row>
-    <row r="525" spans="1:25" ht="12.75">
+    <row r="525" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A525" s="12"/>
       <c r="B525" s="12"/>
       <c r="C525" s="12"/>
@@ -15898,7 +15957,7 @@
       <c r="X525" s="1"/>
       <c r="Y525" s="1"/>
     </row>
-    <row r="526" spans="1:25" ht="12.75">
+    <row r="526" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A526" s="12"/>
       <c r="B526" s="12"/>
       <c r="C526" s="12"/>
@@ -15925,7 +15984,7 @@
       <c r="X526" s="1"/>
       <c r="Y526" s="1"/>
     </row>
-    <row r="527" spans="1:25" ht="12.75">
+    <row r="527" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A527" s="12"/>
       <c r="B527" s="12"/>
       <c r="C527" s="12"/>
@@ -15952,7 +16011,7 @@
       <c r="X527" s="1"/>
       <c r="Y527" s="1"/>
     </row>
-    <row r="528" spans="1:25" ht="12.75">
+    <row r="528" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A528" s="12"/>
       <c r="B528" s="12"/>
       <c r="C528" s="12"/>
@@ -15979,7 +16038,7 @@
       <c r="X528" s="1"/>
       <c r="Y528" s="1"/>
     </row>
-    <row r="529" spans="1:25" ht="12.75">
+    <row r="529" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A529" s="12"/>
       <c r="B529" s="12"/>
       <c r="C529" s="12"/>
@@ -16006,7 +16065,7 @@
       <c r="X529" s="1"/>
       <c r="Y529" s="1"/>
     </row>
-    <row r="530" spans="1:25" ht="12.75">
+    <row r="530" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A530" s="12"/>
       <c r="B530" s="12"/>
       <c r="C530" s="12"/>
@@ -16033,7 +16092,7 @@
       <c r="X530" s="1"/>
       <c r="Y530" s="1"/>
     </row>
-    <row r="531" spans="1:25" ht="12.75">
+    <row r="531" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A531" s="12"/>
       <c r="B531" s="12"/>
       <c r="C531" s="12"/>
@@ -16060,7 +16119,7 @@
       <c r="X531" s="1"/>
       <c r="Y531" s="1"/>
     </row>
-    <row r="532" spans="1:25" ht="12.75">
+    <row r="532" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A532" s="12"/>
       <c r="B532" s="12"/>
       <c r="C532" s="12"/>
@@ -16087,7 +16146,7 @@
       <c r="X532" s="1"/>
       <c r="Y532" s="1"/>
     </row>
-    <row r="533" spans="1:25" ht="12.75">
+    <row r="533" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A533" s="12"/>
       <c r="B533" s="12"/>
       <c r="C533" s="12"/>
@@ -16114,7 +16173,7 @@
       <c r="X533" s="1"/>
       <c r="Y533" s="1"/>
     </row>
-    <row r="534" spans="1:25" ht="12.75">
+    <row r="534" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A534" s="12"/>
       <c r="B534" s="12"/>
       <c r="C534" s="12"/>
@@ -16141,7 +16200,7 @@
       <c r="X534" s="1"/>
       <c r="Y534" s="1"/>
     </row>
-    <row r="535" spans="1:25" ht="12.75">
+    <row r="535" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A535" s="12"/>
       <c r="B535" s="12"/>
       <c r="C535" s="12"/>
@@ -16168,7 +16227,7 @@
       <c r="X535" s="1"/>
       <c r="Y535" s="1"/>
     </row>
-    <row r="536" spans="1:25" ht="12.75">
+    <row r="536" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A536" s="12"/>
       <c r="B536" s="12"/>
       <c r="C536" s="12"/>
@@ -16195,7 +16254,7 @@
       <c r="X536" s="1"/>
       <c r="Y536" s="1"/>
     </row>
-    <row r="537" spans="1:25" ht="12.75">
+    <row r="537" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A537" s="12"/>
       <c r="B537" s="12"/>
       <c r="C537" s="12"/>
@@ -16222,7 +16281,7 @@
       <c r="X537" s="1"/>
       <c r="Y537" s="1"/>
     </row>
-    <row r="538" spans="1:25" ht="12.75">
+    <row r="538" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A538" s="12"/>
       <c r="B538" s="12"/>
       <c r="C538" s="12"/>
@@ -16249,7 +16308,7 @@
       <c r="X538" s="1"/>
       <c r="Y538" s="1"/>
     </row>
-    <row r="539" spans="1:25" ht="12.75">
+    <row r="539" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A539" s="12"/>
       <c r="B539" s="12"/>
       <c r="C539" s="12"/>
@@ -16276,7 +16335,7 @@
       <c r="X539" s="1"/>
       <c r="Y539" s="1"/>
     </row>
-    <row r="540" spans="1:25" ht="12.75">
+    <row r="540" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A540" s="12"/>
       <c r="B540" s="12"/>
       <c r="C540" s="12"/>
@@ -16303,7 +16362,7 @@
       <c r="X540" s="1"/>
       <c r="Y540" s="1"/>
     </row>
-    <row r="541" spans="1:25" ht="12.75">
+    <row r="541" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A541" s="12"/>
       <c r="B541" s="12"/>
       <c r="C541" s="12"/>
@@ -16330,7 +16389,7 @@
       <c r="X541" s="1"/>
       <c r="Y541" s="1"/>
     </row>
-    <row r="542" spans="1:25" ht="12.75">
+    <row r="542" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A542" s="12"/>
       <c r="B542" s="12"/>
       <c r="C542" s="12"/>
@@ -16357,7 +16416,7 @@
       <c r="X542" s="1"/>
       <c r="Y542" s="1"/>
     </row>
-    <row r="543" spans="1:25" ht="12.75">
+    <row r="543" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A543" s="12"/>
       <c r="B543" s="12"/>
       <c r="C543" s="12"/>
@@ -16384,7 +16443,7 @@
       <c r="X543" s="1"/>
       <c r="Y543" s="1"/>
     </row>
-    <row r="544" spans="1:25" ht="12.75">
+    <row r="544" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A544" s="12"/>
       <c r="B544" s="12"/>
       <c r="C544" s="12"/>
@@ -16411,7 +16470,7 @@
       <c r="X544" s="1"/>
       <c r="Y544" s="1"/>
     </row>
-    <row r="545" spans="1:25" ht="12.75">
+    <row r="545" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A545" s="12"/>
       <c r="B545" s="12"/>
       <c r="C545" s="12"/>
@@ -16438,7 +16497,7 @@
       <c r="X545" s="1"/>
       <c r="Y545" s="1"/>
     </row>
-    <row r="546" spans="1:25" ht="12.75">
+    <row r="546" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A546" s="12"/>
       <c r="B546" s="12"/>
       <c r="C546" s="12"/>
@@ -16465,7 +16524,7 @@
       <c r="X546" s="1"/>
       <c r="Y546" s="1"/>
     </row>
-    <row r="547" spans="1:25" ht="12.75">
+    <row r="547" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A547" s="12"/>
       <c r="B547" s="12"/>
       <c r="C547" s="12"/>
@@ -16492,7 +16551,7 @@
       <c r="X547" s="1"/>
       <c r="Y547" s="1"/>
     </row>
-    <row r="548" spans="1:25" ht="12.75">
+    <row r="548" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A548" s="12"/>
       <c r="B548" s="12"/>
       <c r="C548" s="12"/>
@@ -16519,7 +16578,7 @@
       <c r="X548" s="1"/>
       <c r="Y548" s="1"/>
     </row>
-    <row r="549" spans="1:25" ht="12.75">
+    <row r="549" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A549" s="12"/>
       <c r="B549" s="12"/>
       <c r="C549" s="12"/>
@@ -16546,7 +16605,7 @@
       <c r="X549" s="1"/>
       <c r="Y549" s="1"/>
     </row>
-    <row r="550" spans="1:25" ht="12.75">
+    <row r="550" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A550" s="12"/>
       <c r="B550" s="12"/>
       <c r="C550" s="12"/>
@@ -16573,7 +16632,7 @@
       <c r="X550" s="1"/>
       <c r="Y550" s="1"/>
     </row>
-    <row r="551" spans="1:25" ht="12.75">
+    <row r="551" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A551" s="12"/>
       <c r="B551" s="12"/>
       <c r="C551" s="12"/>
@@ -16600,7 +16659,7 @@
       <c r="X551" s="1"/>
       <c r="Y551" s="1"/>
     </row>
-    <row r="552" spans="1:25" ht="12.75">
+    <row r="552" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A552" s="12"/>
       <c r="B552" s="12"/>
       <c r="C552" s="12"/>
@@ -16627,7 +16686,7 @@
       <c r="X552" s="1"/>
       <c r="Y552" s="1"/>
     </row>
-    <row r="553" spans="1:25" ht="12.75">
+    <row r="553" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A553" s="12"/>
       <c r="B553" s="12"/>
       <c r="C553" s="12"/>
@@ -16654,7 +16713,7 @@
       <c r="X553" s="1"/>
       <c r="Y553" s="1"/>
     </row>
-    <row r="554" spans="1:25" ht="12.75">
+    <row r="554" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A554" s="12"/>
       <c r="B554" s="12"/>
       <c r="C554" s="12"/>
@@ -16681,7 +16740,7 @@
       <c r="X554" s="1"/>
       <c r="Y554" s="1"/>
     </row>
-    <row r="555" spans="1:25" ht="12.75">
+    <row r="555" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A555" s="12"/>
       <c r="B555" s="12"/>
       <c r="C555" s="12"/>
@@ -16708,7 +16767,7 @@
       <c r="X555" s="1"/>
       <c r="Y555" s="1"/>
     </row>
-    <row r="556" spans="1:25" ht="12.75">
+    <row r="556" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A556" s="12"/>
       <c r="B556" s="12"/>
       <c r="C556" s="12"/>
@@ -16735,7 +16794,7 @@
       <c r="X556" s="1"/>
       <c r="Y556" s="1"/>
     </row>
-    <row r="557" spans="1:25" ht="12.75">
+    <row r="557" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A557" s="12"/>
       <c r="B557" s="12"/>
       <c r="C557" s="12"/>
@@ -16762,7 +16821,7 @@
       <c r="X557" s="1"/>
       <c r="Y557" s="1"/>
     </row>
-    <row r="558" spans="1:25" ht="12.75">
+    <row r="558" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A558" s="12"/>
       <c r="B558" s="12"/>
       <c r="C558" s="12"/>
@@ -16789,7 +16848,7 @@
       <c r="X558" s="1"/>
       <c r="Y558" s="1"/>
     </row>
-    <row r="559" spans="1:25" ht="12.75">
+    <row r="559" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A559" s="12"/>
       <c r="B559" s="12"/>
       <c r="C559" s="12"/>
@@ -16816,7 +16875,7 @@
       <c r="X559" s="1"/>
       <c r="Y559" s="1"/>
     </row>
-    <row r="560" spans="1:25" ht="12.75">
+    <row r="560" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A560" s="12"/>
       <c r="B560" s="12"/>
       <c r="C560" s="12"/>
@@ -16843,7 +16902,7 @@
       <c r="X560" s="1"/>
       <c r="Y560" s="1"/>
     </row>
-    <row r="561" spans="1:25" ht="12.75">
+    <row r="561" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A561" s="12"/>
       <c r="B561" s="12"/>
       <c r="C561" s="12"/>
@@ -16870,7 +16929,7 @@
       <c r="X561" s="1"/>
       <c r="Y561" s="1"/>
     </row>
-    <row r="562" spans="1:25" ht="12.75">
+    <row r="562" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A562" s="12"/>
       <c r="B562" s="12"/>
       <c r="C562" s="12"/>
@@ -16897,7 +16956,7 @@
       <c r="X562" s="1"/>
       <c r="Y562" s="1"/>
     </row>
-    <row r="563" spans="1:25" ht="12.75">
+    <row r="563" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A563" s="12"/>
       <c r="B563" s="12"/>
       <c r="C563" s="12"/>
@@ -16924,7 +16983,7 @@
       <c r="X563" s="1"/>
       <c r="Y563" s="1"/>
     </row>
-    <row r="564" spans="1:25" ht="12.75">
+    <row r="564" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A564" s="12"/>
       <c r="B564" s="12"/>
       <c r="C564" s="12"/>
@@ -16951,7 +17010,7 @@
       <c r="X564" s="1"/>
       <c r="Y564" s="1"/>
     </row>
-    <row r="565" spans="1:25" ht="12.75">
+    <row r="565" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A565" s="12"/>
       <c r="B565" s="12"/>
       <c r="C565" s="12"/>
@@ -16978,7 +17037,7 @@
       <c r="X565" s="1"/>
       <c r="Y565" s="1"/>
     </row>
-    <row r="566" spans="1:25" ht="12.75">
+    <row r="566" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A566" s="12"/>
       <c r="B566" s="12"/>
       <c r="C566" s="12"/>
@@ -17005,7 +17064,7 @@
       <c r="X566" s="1"/>
       <c r="Y566" s="1"/>
     </row>
-    <row r="567" spans="1:25" ht="12.75">
+    <row r="567" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A567" s="12"/>
       <c r="B567" s="12"/>
       <c r="C567" s="12"/>
@@ -17032,7 +17091,7 @@
       <c r="X567" s="1"/>
       <c r="Y567" s="1"/>
     </row>
-    <row r="568" spans="1:25" ht="12.75">
+    <row r="568" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A568" s="12"/>
       <c r="B568" s="12"/>
       <c r="C568" s="12"/>
@@ -17059,7 +17118,7 @@
       <c r="X568" s="1"/>
       <c r="Y568" s="1"/>
     </row>
-    <row r="569" spans="1:25" ht="12.75">
+    <row r="569" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A569" s="12"/>
       <c r="B569" s="12"/>
       <c r="C569" s="12"/>
@@ -17086,7 +17145,7 @@
       <c r="X569" s="1"/>
       <c r="Y569" s="1"/>
     </row>
-    <row r="570" spans="1:25" ht="12.75">
+    <row r="570" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A570" s="12"/>
       <c r="B570" s="12"/>
       <c r="C570" s="12"/>
@@ -17113,7 +17172,7 @@
       <c r="X570" s="1"/>
       <c r="Y570" s="1"/>
     </row>
-    <row r="571" spans="1:25" ht="12.75">
+    <row r="571" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A571" s="12"/>
       <c r="B571" s="12"/>
       <c r="C571" s="12"/>
@@ -17140,7 +17199,7 @@
       <c r="X571" s="1"/>
       <c r="Y571" s="1"/>
     </row>
-    <row r="572" spans="1:25" ht="12.75">
+    <row r="572" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A572" s="12"/>
       <c r="B572" s="12"/>
       <c r="C572" s="12"/>
@@ -17167,7 +17226,7 @@
       <c r="X572" s="1"/>
       <c r="Y572" s="1"/>
     </row>
-    <row r="573" spans="1:25" ht="12.75">
+    <row r="573" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A573" s="12"/>
       <c r="B573" s="12"/>
       <c r="C573" s="12"/>
@@ -17194,7 +17253,7 @@
       <c r="X573" s="1"/>
       <c r="Y573" s="1"/>
     </row>
-    <row r="574" spans="1:25" ht="12.75">
+    <row r="574" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A574" s="12"/>
       <c r="B574" s="12"/>
       <c r="C574" s="12"/>
@@ -17221,7 +17280,7 @@
       <c r="X574" s="1"/>
       <c r="Y574" s="1"/>
     </row>
-    <row r="575" spans="1:25" ht="12.75">
+    <row r="575" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A575" s="12"/>
       <c r="B575" s="12"/>
       <c r="C575" s="12"/>
@@ -17248,7 +17307,7 @@
       <c r="X575" s="1"/>
       <c r="Y575" s="1"/>
     </row>
-    <row r="576" spans="1:25" ht="12.75">
+    <row r="576" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A576" s="12"/>
       <c r="B576" s="12"/>
       <c r="C576" s="12"/>
@@ -17275,7 +17334,7 @@
       <c r="X576" s="1"/>
       <c r="Y576" s="1"/>
     </row>
-    <row r="577" spans="1:25" ht="12.75">
+    <row r="577" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A577" s="12"/>
       <c r="B577" s="12"/>
       <c r="C577" s="12"/>
@@ -17302,7 +17361,7 @@
       <c r="X577" s="1"/>
       <c r="Y577" s="1"/>
     </row>
-    <row r="578" spans="1:25" ht="12.75">
+    <row r="578" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A578" s="12"/>
       <c r="B578" s="12"/>
       <c r="C578" s="12"/>
@@ -17329,7 +17388,7 @@
       <c r="X578" s="1"/>
       <c r="Y578" s="1"/>
     </row>
-    <row r="579" spans="1:25" ht="12.75">
+    <row r="579" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A579" s="12"/>
       <c r="B579" s="12"/>
       <c r="C579" s="12"/>
@@ -17356,7 +17415,7 @@
       <c r="X579" s="1"/>
       <c r="Y579" s="1"/>
     </row>
-    <row r="580" spans="1:25" ht="12.75">
+    <row r="580" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A580" s="12"/>
       <c r="B580" s="12"/>
       <c r="C580" s="12"/>
@@ -17383,7 +17442,7 @@
       <c r="X580" s="1"/>
       <c r="Y580" s="1"/>
     </row>
-    <row r="581" spans="1:25" ht="12.75">
+    <row r="581" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A581" s="12"/>
       <c r="B581" s="12"/>
       <c r="C581" s="12"/>
@@ -17410,7 +17469,7 @@
       <c r="X581" s="1"/>
       <c r="Y581" s="1"/>
     </row>
-    <row r="582" spans="1:25" ht="12.75">
+    <row r="582" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A582" s="12"/>
       <c r="B582" s="12"/>
       <c r="C582" s="12"/>
@@ -17437,7 +17496,7 @@
       <c r="X582" s="1"/>
       <c r="Y582" s="1"/>
     </row>
-    <row r="583" spans="1:25" ht="12.75">
+    <row r="583" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A583" s="12"/>
       <c r="B583" s="12"/>
       <c r="C583" s="12"/>
@@ -17464,7 +17523,7 @@
       <c r="X583" s="1"/>
       <c r="Y583" s="1"/>
     </row>
-    <row r="584" spans="1:25" ht="12.75">
+    <row r="584" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A584" s="12"/>
       <c r="B584" s="12"/>
       <c r="C584" s="12"/>
@@ -17491,7 +17550,7 @@
       <c r="X584" s="1"/>
       <c r="Y584" s="1"/>
     </row>
-    <row r="585" spans="1:25" ht="12.75">
+    <row r="585" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A585" s="12"/>
       <c r="B585" s="12"/>
       <c r="C585" s="12"/>
@@ -17518,7 +17577,7 @@
       <c r="X585" s="1"/>
       <c r="Y585" s="1"/>
     </row>
-    <row r="586" spans="1:25" ht="12.75">
+    <row r="586" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A586" s="12"/>
       <c r="B586" s="12"/>
       <c r="C586" s="12"/>
@@ -17545,7 +17604,7 @@
       <c r="X586" s="1"/>
       <c r="Y586" s="1"/>
     </row>
-    <row r="587" spans="1:25" ht="12.75">
+    <row r="587" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A587" s="12"/>
       <c r="B587" s="12"/>
       <c r="C587" s="12"/>
@@ -17572,7 +17631,7 @@
       <c r="X587" s="1"/>
       <c r="Y587" s="1"/>
     </row>
-    <row r="588" spans="1:25" ht="12.75">
+    <row r="588" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A588" s="12"/>
       <c r="B588" s="12"/>
       <c r="C588" s="12"/>
@@ -17599,7 +17658,7 @@
       <c r="X588" s="1"/>
       <c r="Y588" s="1"/>
     </row>
-    <row r="589" spans="1:25" ht="12.75">
+    <row r="589" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A589" s="12"/>
       <c r="B589" s="12"/>
       <c r="C589" s="12"/>
@@ -17626,7 +17685,7 @@
       <c r="X589" s="1"/>
       <c r="Y589" s="1"/>
     </row>
-    <row r="590" spans="1:25" ht="12.75">
+    <row r="590" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A590" s="12"/>
       <c r="B590" s="12"/>
       <c r="C590" s="12"/>
@@ -17653,7 +17712,7 @@
       <c r="X590" s="1"/>
       <c r="Y590" s="1"/>
     </row>
-    <row r="591" spans="1:25" ht="12.75">
+    <row r="591" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A591" s="12"/>
       <c r="B591" s="12"/>
       <c r="C591" s="12"/>
@@ -17680,7 +17739,7 @@
       <c r="X591" s="1"/>
       <c r="Y591" s="1"/>
     </row>
-    <row r="592" spans="1:25" ht="12.75">
+    <row r="592" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A592" s="12"/>
       <c r="B592" s="12"/>
       <c r="C592" s="12"/>
@@ -17707,7 +17766,7 @@
       <c r="X592" s="1"/>
       <c r="Y592" s="1"/>
     </row>
-    <row r="593" spans="1:25" ht="12.75">
+    <row r="593" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A593" s="12"/>
       <c r="B593" s="12"/>
       <c r="C593" s="12"/>
@@ -17734,7 +17793,7 @@
       <c r="X593" s="1"/>
       <c r="Y593" s="1"/>
     </row>
-    <row r="594" spans="1:25" ht="12.75">
+    <row r="594" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A594" s="12"/>
       <c r="B594" s="12"/>
       <c r="C594" s="12"/>
@@ -17761,7 +17820,7 @@
       <c r="X594" s="1"/>
       <c r="Y594" s="1"/>
     </row>
-    <row r="595" spans="1:25" ht="12.75">
+    <row r="595" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A595" s="12"/>
       <c r="B595" s="12"/>
       <c r="C595" s="12"/>
@@ -17788,7 +17847,7 @@
       <c r="X595" s="1"/>
       <c r="Y595" s="1"/>
     </row>
-    <row r="596" spans="1:25" ht="12.75">
+    <row r="596" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A596" s="12"/>
       <c r="B596" s="12"/>
       <c r="C596" s="12"/>
@@ -17815,7 +17874,7 @@
       <c r="X596" s="1"/>
       <c r="Y596" s="1"/>
     </row>
-    <row r="597" spans="1:25" ht="12.75">
+    <row r="597" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A597" s="12"/>
       <c r="B597" s="12"/>
       <c r="C597" s="12"/>
@@ -17842,7 +17901,7 @@
       <c r="X597" s="1"/>
       <c r="Y597" s="1"/>
     </row>
-    <row r="598" spans="1:25" ht="12.75">
+    <row r="598" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A598" s="12"/>
       <c r="B598" s="12"/>
       <c r="C598" s="12"/>
@@ -17869,7 +17928,7 @@
       <c r="X598" s="1"/>
       <c r="Y598" s="1"/>
     </row>
-    <row r="599" spans="1:25" ht="12.75">
+    <row r="599" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A599" s="12"/>
       <c r="B599" s="12"/>
       <c r="C599" s="12"/>
@@ -17896,7 +17955,7 @@
       <c r="X599" s="1"/>
       <c r="Y599" s="1"/>
     </row>
-    <row r="600" spans="1:25" ht="12.75">
+    <row r="600" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A600" s="12"/>
       <c r="B600" s="12"/>
       <c r="C600" s="12"/>
@@ -17923,7 +17982,7 @@
       <c r="X600" s="1"/>
       <c r="Y600" s="1"/>
     </row>
-    <row r="601" spans="1:25" ht="12.75">
+    <row r="601" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A601" s="12"/>
       <c r="B601" s="12"/>
       <c r="C601" s="12"/>
@@ -17950,7 +18009,7 @@
       <c r="X601" s="1"/>
       <c r="Y601" s="1"/>
     </row>
-    <row r="602" spans="1:25" ht="12.75">
+    <row r="602" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A602" s="12"/>
       <c r="B602" s="12"/>
       <c r="C602" s="12"/>
@@ -17977,7 +18036,7 @@
       <c r="X602" s="1"/>
       <c r="Y602" s="1"/>
     </row>
-    <row r="603" spans="1:25" ht="12.75">
+    <row r="603" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A603" s="12"/>
       <c r="B603" s="12"/>
       <c r="C603" s="12"/>
@@ -18004,7 +18063,7 @@
       <c r="X603" s="1"/>
       <c r="Y603" s="1"/>
     </row>
-    <row r="604" spans="1:25" ht="12.75">
+    <row r="604" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A604" s="12"/>
       <c r="B604" s="12"/>
       <c r="C604" s="12"/>
@@ -18031,7 +18090,7 @@
       <c r="X604" s="1"/>
       <c r="Y604" s="1"/>
     </row>
-    <row r="605" spans="1:25" ht="12.75">
+    <row r="605" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A605" s="12"/>
       <c r="B605" s="12"/>
       <c r="C605" s="12"/>
@@ -18058,7 +18117,7 @@
       <c r="X605" s="1"/>
       <c r="Y605" s="1"/>
     </row>
-    <row r="606" spans="1:25" ht="12.75">
+    <row r="606" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A606" s="12"/>
       <c r="B606" s="12"/>
       <c r="C606" s="12"/>
@@ -18085,7 +18144,7 @@
       <c r="X606" s="1"/>
       <c r="Y606" s="1"/>
     </row>
-    <row r="607" spans="1:25" ht="12.75">
+    <row r="607" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A607" s="12"/>
       <c r="B607" s="12"/>
       <c r="C607" s="12"/>
@@ -18112,7 +18171,7 @@
       <c r="X607" s="1"/>
       <c r="Y607" s="1"/>
     </row>
-    <row r="608" spans="1:25" ht="12.75">
+    <row r="608" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A608" s="12"/>
       <c r="B608" s="12"/>
       <c r="C608" s="12"/>
@@ -18139,7 +18198,7 @@
       <c r="X608" s="1"/>
       <c r="Y608" s="1"/>
     </row>
-    <row r="609" spans="1:25" ht="12.75">
+    <row r="609" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A609" s="12"/>
       <c r="B609" s="12"/>
       <c r="C609" s="12"/>
@@ -18166,7 +18225,7 @@
       <c r="X609" s="1"/>
       <c r="Y609" s="1"/>
     </row>
-    <row r="610" spans="1:25" ht="12.75">
+    <row r="610" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A610" s="12"/>
       <c r="B610" s="12"/>
       <c r="C610" s="12"/>
@@ -18193,7 +18252,7 @@
       <c r="X610" s="1"/>
       <c r="Y610" s="1"/>
     </row>
-    <row r="611" spans="1:25" ht="12.75">
+    <row r="611" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A611" s="12"/>
       <c r="B611" s="12"/>
       <c r="C611" s="12"/>
@@ -18220,7 +18279,7 @@
       <c r="X611" s="1"/>
       <c r="Y611" s="1"/>
     </row>
-    <row r="612" spans="1:25" ht="12.75">
+    <row r="612" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A612" s="12"/>
       <c r="B612" s="12"/>
       <c r="C612" s="12"/>
@@ -18247,7 +18306,7 @@
       <c r="X612" s="1"/>
       <c r="Y612" s="1"/>
     </row>
-    <row r="613" spans="1:25" ht="12.75">
+    <row r="613" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A613" s="12"/>
       <c r="B613" s="12"/>
       <c r="C613" s="12"/>
@@ -18274,7 +18333,7 @@
       <c r="X613" s="1"/>
       <c r="Y613" s="1"/>
     </row>
-    <row r="614" spans="1:25" ht="12.75">
+    <row r="614" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A614" s="12"/>
       <c r="B614" s="12"/>
       <c r="C614" s="12"/>
@@ -18301,7 +18360,7 @@
       <c r="X614" s="1"/>
       <c r="Y614" s="1"/>
     </row>
-    <row r="615" spans="1:25" ht="12.75">
+    <row r="615" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A615" s="12"/>
       <c r="B615" s="12"/>
       <c r="C615" s="12"/>
@@ -18328,7 +18387,7 @@
       <c r="X615" s="1"/>
       <c r="Y615" s="1"/>
     </row>
-    <row r="616" spans="1:25" ht="12.75">
+    <row r="616" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A616" s="12"/>
       <c r="B616" s="12"/>
       <c r="C616" s="12"/>
@@ -18355,7 +18414,7 @@
       <c r="X616" s="1"/>
       <c r="Y616" s="1"/>
     </row>
-    <row r="617" spans="1:25" ht="12.75">
+    <row r="617" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A617" s="12"/>
       <c r="B617" s="12"/>
       <c r="C617" s="12"/>
@@ -18382,7 +18441,7 @@
       <c r="X617" s="1"/>
       <c r="Y617" s="1"/>
     </row>
-    <row r="618" spans="1:25" ht="12.75">
+    <row r="618" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A618" s="12"/>
       <c r="B618" s="12"/>
       <c r="C618" s="12"/>
@@ -18409,7 +18468,7 @@
       <c r="X618" s="1"/>
       <c r="Y618" s="1"/>
     </row>
-    <row r="619" spans="1:25" ht="12.75">
+    <row r="619" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A619" s="12"/>
       <c r="B619" s="12"/>
       <c r="C619" s="12"/>
@@ -18436,7 +18495,7 @@
       <c r="X619" s="1"/>
       <c r="Y619" s="1"/>
     </row>
-    <row r="620" spans="1:25" ht="12.75">
+    <row r="620" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A620" s="12"/>
       <c r="B620" s="12"/>
       <c r="C620" s="12"/>
@@ -18463,7 +18522,7 @@
       <c r="X620" s="1"/>
       <c r="Y620" s="1"/>
     </row>
-    <row r="621" spans="1:25" ht="12.75">
+    <row r="621" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A621" s="12"/>
       <c r="B621" s="12"/>
       <c r="C621" s="12"/>
@@ -18490,7 +18549,7 @@
       <c r="X621" s="1"/>
       <c r="Y621" s="1"/>
     </row>
-    <row r="622" spans="1:25" ht="12.75">
+    <row r="622" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A622" s="12"/>
       <c r="B622" s="12"/>
       <c r="C622" s="12"/>
@@ -18517,7 +18576,7 @@
       <c r="X622" s="1"/>
       <c r="Y622" s="1"/>
     </row>
-    <row r="623" spans="1:25" ht="12.75">
+    <row r="623" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A623" s="12"/>
       <c r="B623" s="12"/>
       <c r="C623" s="12"/>
@@ -18544,7 +18603,7 @@
       <c r="X623" s="1"/>
       <c r="Y623" s="1"/>
     </row>
-    <row r="624" spans="1:25" ht="12.75">
+    <row r="624" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A624" s="12"/>
       <c r="B624" s="12"/>
       <c r="C624" s="12"/>
@@ -18571,7 +18630,7 @@
       <c r="X624" s="1"/>
       <c r="Y624" s="1"/>
     </row>
-    <row r="625" spans="1:25" ht="12.75">
+    <row r="625" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A625" s="12"/>
       <c r="B625" s="12"/>
       <c r="C625" s="12"/>
@@ -18598,7 +18657,7 @@
       <c r="X625" s="1"/>
       <c r="Y625" s="1"/>
     </row>
-    <row r="626" spans="1:25" ht="12.75">
+    <row r="626" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A626" s="12"/>
       <c r="B626" s="12"/>
       <c r="C626" s="12"/>
@@ -18625,7 +18684,7 @@
       <c r="X626" s="1"/>
       <c r="Y626" s="1"/>
     </row>
-    <row r="627" spans="1:25" ht="12.75">
+    <row r="627" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A627" s="12"/>
       <c r="B627" s="12"/>
       <c r="C627" s="12"/>
@@ -18652,7 +18711,7 @@
       <c r="X627" s="1"/>
       <c r="Y627" s="1"/>
     </row>
-    <row r="628" spans="1:25" ht="12.75">
+    <row r="628" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A628" s="12"/>
       <c r="B628" s="12"/>
       <c r="C628" s="12"/>
@@ -18679,7 +18738,7 @@
       <c r="X628" s="1"/>
       <c r="Y628" s="1"/>
     </row>
-    <row r="629" spans="1:25" ht="12.75">
+    <row r="629" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A629" s="12"/>
       <c r="B629" s="12"/>
       <c r="C629" s="12"/>
@@ -18706,7 +18765,7 @@
       <c r="X629" s="1"/>
       <c r="Y629" s="1"/>
     </row>
-    <row r="630" spans="1:25" ht="12.75">
+    <row r="630" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A630" s="12"/>
       <c r="B630" s="12"/>
       <c r="C630" s="12"/>
@@ -18733,7 +18792,7 @@
       <c r="X630" s="1"/>
       <c r="Y630" s="1"/>
     </row>
-    <row r="631" spans="1:25" ht="12.75">
+    <row r="631" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A631" s="12"/>
       <c r="B631" s="12"/>
       <c r="C631" s="12"/>
@@ -18760,7 +18819,7 @@
       <c r="X631" s="1"/>
       <c r="Y631" s="1"/>
     </row>
-    <row r="632" spans="1:25" ht="12.75">
+    <row r="632" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A632" s="12"/>
       <c r="B632" s="12"/>
       <c r="C632" s="12"/>
@@ -18787,7 +18846,7 @@
       <c r="X632" s="1"/>
       <c r="Y632" s="1"/>
     </row>
-    <row r="633" spans="1:25" ht="12.75">
+    <row r="633" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A633" s="12"/>
       <c r="B633" s="12"/>
       <c r="C633" s="12"/>
@@ -18814,7 +18873,7 @@
       <c r="X633" s="1"/>
       <c r="Y633" s="1"/>
     </row>
-    <row r="634" spans="1:25" ht="12.75">
+    <row r="634" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A634" s="12"/>
       <c r="B634" s="12"/>
       <c r="C634" s="12"/>
@@ -18841,7 +18900,7 @@
       <c r="X634" s="1"/>
       <c r="Y634" s="1"/>
     </row>
-    <row r="635" spans="1:25" ht="12.75">
+    <row r="635" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A635" s="12"/>
       <c r="B635" s="12"/>
       <c r="C635" s="12"/>
@@ -18868,7 +18927,7 @@
       <c r="X635" s="1"/>
       <c r="Y635" s="1"/>
     </row>
-    <row r="636" spans="1:25" ht="12.75">
+    <row r="636" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A636" s="12"/>
       <c r="B636" s="12"/>
       <c r="C636" s="12"/>
@@ -18895,7 +18954,7 @@
       <c r="X636" s="1"/>
       <c r="Y636" s="1"/>
     </row>
-    <row r="637" spans="1:25" ht="12.75">
+    <row r="637" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A637" s="12"/>
       <c r="B637" s="12"/>
       <c r="C637" s="12"/>
@@ -18922,7 +18981,7 @@
       <c r="X637" s="1"/>
       <c r="Y637" s="1"/>
     </row>
-    <row r="638" spans="1:25" ht="12.75">
+    <row r="638" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A638" s="12"/>
       <c r="B638" s="12"/>
       <c r="C638" s="12"/>
@@ -18949,7 +19008,7 @@
       <c r="X638" s="1"/>
       <c r="Y638" s="1"/>
     </row>
-    <row r="639" spans="1:25" ht="12.75">
+    <row r="639" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A639" s="12"/>
       <c r="B639" s="12"/>
       <c r="C639" s="12"/>
@@ -18976,7 +19035,7 @@
       <c r="X639" s="1"/>
       <c r="Y639" s="1"/>
     </row>
-    <row r="640" spans="1:25" ht="12.75">
+    <row r="640" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A640" s="12"/>
       <c r="B640" s="12"/>
       <c r="C640" s="12"/>
@@ -19003,7 +19062,7 @@
       <c r="X640" s="1"/>
       <c r="Y640" s="1"/>
     </row>
-    <row r="641" spans="1:25" ht="12.75">
+    <row r="641" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A641" s="12"/>
       <c r="B641" s="12"/>
       <c r="C641" s="12"/>
@@ -19030,7 +19089,7 @@
       <c r="X641" s="1"/>
       <c r="Y641" s="1"/>
     </row>
-    <row r="642" spans="1:25" ht="12.75">
+    <row r="642" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A642" s="12"/>
       <c r="B642" s="12"/>
       <c r="C642" s="12"/>
@@ -19057,7 +19116,7 @@
       <c r="X642" s="1"/>
       <c r="Y642" s="1"/>
     </row>
-    <row r="643" spans="1:25" ht="12.75">
+    <row r="643" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A643" s="12"/>
       <c r="B643" s="12"/>
       <c r="C643" s="12"/>
@@ -19084,7 +19143,7 @@
       <c r="X643" s="1"/>
       <c r="Y643" s="1"/>
     </row>
-    <row r="644" spans="1:25" ht="12.75">
+    <row r="644" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A644" s="12"/>
       <c r="B644" s="12"/>
       <c r="C644" s="12"/>
@@ -19111,7 +19170,7 @@
       <c r="X644" s="1"/>
       <c r="Y644" s="1"/>
     </row>
-    <row r="645" spans="1:25" ht="12.75">
+    <row r="645" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A645" s="12"/>
       <c r="B645" s="12"/>
       <c r="C645" s="12"/>
@@ -19138,7 +19197,7 @@
       <c r="X645" s="1"/>
       <c r="Y645" s="1"/>
     </row>
-    <row r="646" spans="1:25" ht="12.75">
+    <row r="646" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A646" s="12"/>
       <c r="B646" s="12"/>
       <c r="C646" s="12"/>
@@ -19165,7 +19224,7 @@
       <c r="X646" s="1"/>
       <c r="Y646" s="1"/>
     </row>
-    <row r="647" spans="1:25" ht="12.75">
+    <row r="647" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A647" s="12"/>
       <c r="B647" s="12"/>
       <c r="C647" s="12"/>
@@ -19192,7 +19251,7 @@
       <c r="X647" s="1"/>
       <c r="Y647" s="1"/>
     </row>
-    <row r="648" spans="1:25" ht="12.75">
+    <row r="648" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A648" s="12"/>
       <c r="B648" s="12"/>
       <c r="C648" s="12"/>
@@ -19219,7 +19278,7 @@
       <c r="X648" s="1"/>
       <c r="Y648" s="1"/>
     </row>
-    <row r="649" spans="1:25" ht="12.75">
+    <row r="649" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A649" s="12"/>
       <c r="B649" s="12"/>
       <c r="C649" s="12"/>
@@ -19246,7 +19305,7 @@
       <c r="X649" s="1"/>
       <c r="Y649" s="1"/>
     </row>
-    <row r="650" spans="1:25" ht="12.75">
+    <row r="650" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A650" s="12"/>
       <c r="B650" s="12"/>
       <c r="C650" s="12"/>
@@ -19273,7 +19332,7 @@
       <c r="X650" s="1"/>
       <c r="Y650" s="1"/>
     </row>
-    <row r="651" spans="1:25" ht="12.75">
+    <row r="651" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A651" s="12"/>
       <c r="B651" s="12"/>
       <c r="C651" s="12"/>
@@ -19300,7 +19359,7 @@
       <c r="X651" s="1"/>
       <c r="Y651" s="1"/>
     </row>
-    <row r="652" spans="1:25" ht="12.75">
+    <row r="652" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A652" s="12"/>
       <c r="B652" s="12"/>
       <c r="C652" s="12"/>
@@ -19327,7 +19386,7 @@
       <c r="X652" s="1"/>
       <c r="Y652" s="1"/>
     </row>
-    <row r="653" spans="1:25" ht="12.75">
+    <row r="653" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A653" s="12"/>
       <c r="B653" s="12"/>
       <c r="C653" s="12"/>
@@ -19354,7 +19413,7 @@
       <c r="X653" s="1"/>
       <c r="Y653" s="1"/>
     </row>
-    <row r="654" spans="1:25" ht="12.75">
+    <row r="654" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A654" s="12"/>
       <c r="B654" s="12"/>
       <c r="C654" s="12"/>
@@ -19381,7 +19440,7 @@
       <c r="X654" s="1"/>
       <c r="Y654" s="1"/>
     </row>
-    <row r="655" spans="1:25" ht="12.75">
+    <row r="655" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A655" s="12"/>
       <c r="B655" s="12"/>
       <c r="C655" s="12"/>
@@ -19408,7 +19467,7 @@
       <c r="X655" s="1"/>
       <c r="Y655" s="1"/>
     </row>
-    <row r="656" spans="1:25" ht="12.75">
+    <row r="656" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A656" s="12"/>
       <c r="B656" s="12"/>
       <c r="C656" s="12"/>
@@ -19435,7 +19494,7 @@
       <c r="X656" s="1"/>
       <c r="Y656" s="1"/>
     </row>
-    <row r="657" spans="1:25" ht="12.75">
+    <row r="657" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A657" s="12"/>
       <c r="B657" s="12"/>
       <c r="C657" s="12"/>
@@ -19462,7 +19521,7 @@
       <c r="X657" s="1"/>
       <c r="Y657" s="1"/>
     </row>
-    <row r="658" spans="1:25" ht="12.75">
+    <row r="658" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A658" s="12"/>
       <c r="B658" s="12"/>
       <c r="C658" s="12"/>
@@ -19489,7 +19548,7 @@
       <c r="X658" s="1"/>
       <c r="Y658" s="1"/>
     </row>
-    <row r="659" spans="1:25" ht="12.75">
+    <row r="659" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A659" s="12"/>
       <c r="B659" s="12"/>
       <c r="C659" s="12"/>
@@ -19516,7 +19575,7 @@
       <c r="X659" s="1"/>
       <c r="Y659" s="1"/>
     </row>
-    <row r="660" spans="1:25" ht="12.75">
+    <row r="660" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A660" s="12"/>
       <c r="B660" s="12"/>
       <c r="C660" s="12"/>
@@ -19543,7 +19602,7 @@
       <c r="X660" s="1"/>
       <c r="Y660" s="1"/>
     </row>
-    <row r="661" spans="1:25" ht="12.75">
+    <row r="661" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A661" s="12"/>
       <c r="B661" s="12"/>
       <c r="C661" s="12"/>
@@ -19570,7 +19629,7 @@
       <c r="X661" s="1"/>
       <c r="Y661" s="1"/>
     </row>
-    <row r="662" spans="1:25" ht="12.75">
+    <row r="662" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A662" s="12"/>
       <c r="B662" s="12"/>
       <c r="C662" s="12"/>
@@ -19597,7 +19656,7 @@
       <c r="X662" s="1"/>
       <c r="Y662" s="1"/>
     </row>
-    <row r="663" spans="1:25" ht="12.75">
+    <row r="663" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A663" s="12"/>
       <c r="B663" s="12"/>
       <c r="C663" s="12"/>
@@ -19624,7 +19683,7 @@
       <c r="X663" s="1"/>
       <c r="Y663" s="1"/>
     </row>
-    <row r="664" spans="1:25" ht="12.75">
+    <row r="664" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A664" s="12"/>
       <c r="B664" s="12"/>
       <c r="C664" s="12"/>
@@ -19651,7 +19710,7 @@
       <c r="X664" s="1"/>
       <c r="Y664" s="1"/>
     </row>
-    <row r="665" spans="1:25" ht="12.75">
+    <row r="665" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A665" s="12"/>
       <c r="B665" s="12"/>
       <c r="C665" s="12"/>
@@ -19678,7 +19737,7 @@
       <c r="X665" s="1"/>
       <c r="Y665" s="1"/>
     </row>
-    <row r="666" spans="1:25" ht="12.75">
+    <row r="666" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A666" s="12"/>
       <c r="B666" s="12"/>
       <c r="C666" s="12"/>
@@ -19705,7 +19764,7 @@
       <c r="X666" s="1"/>
       <c r="Y666" s="1"/>
     </row>
-    <row r="667" spans="1:25" ht="12.75">
+    <row r="667" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A667" s="12"/>
       <c r="B667" s="12"/>
       <c r="C667" s="12"/>
@@ -19732,7 +19791,7 @@
       <c r="X667" s="1"/>
       <c r="Y667" s="1"/>
     </row>
-    <row r="668" spans="1:25" ht="12.75">
+    <row r="668" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A668" s="12"/>
       <c r="B668" s="12"/>
       <c r="C668" s="12"/>
@@ -19759,7 +19818,7 @@
       <c r="X668" s="1"/>
       <c r="Y668" s="1"/>
     </row>
-    <row r="669" spans="1:25" ht="12.75">
+    <row r="669" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A669" s="12"/>
       <c r="B669" s="12"/>
       <c r="C669" s="12"/>
@@ -19786,7 +19845,7 @@
       <c r="X669" s="1"/>
       <c r="Y669" s="1"/>
     </row>
-    <row r="670" spans="1:25" ht="12.75">
+    <row r="670" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A670" s="12"/>
       <c r="B670" s="12"/>
       <c r="C670" s="12"/>
@@ -19813,7 +19872,7 @@
       <c r="X670" s="1"/>
       <c r="Y670" s="1"/>
     </row>
-    <row r="671" spans="1:25" ht="12.75">
+    <row r="671" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A671" s="12"/>
       <c r="B671" s="12"/>
       <c r="C671" s="12"/>
@@ -19840,7 +19899,7 @@
       <c r="X671" s="1"/>
       <c r="Y671" s="1"/>
     </row>
-    <row r="672" spans="1:25" ht="12.75">
+    <row r="672" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A672" s="12"/>
       <c r="B672" s="12"/>
       <c r="C672" s="12"/>
@@ -19867,7 +19926,7 @@
       <c r="X672" s="1"/>
       <c r="Y672" s="1"/>
     </row>
-    <row r="673" spans="1:25" ht="12.75">
+    <row r="673" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A673" s="12"/>
       <c r="B673" s="12"/>
       <c r="C673" s="12"/>
@@ -19894,7 +19953,7 @@
       <c r="X673" s="1"/>
       <c r="Y673" s="1"/>
     </row>
-    <row r="674" spans="1:25" ht="12.75">
+    <row r="674" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A674" s="12"/>
       <c r="B674" s="12"/>
       <c r="C674" s="12"/>
@@ -19921,7 +19980,7 @@
       <c r="X674" s="1"/>
       <c r="Y674" s="1"/>
     </row>
-    <row r="675" spans="1:25" ht="12.75">
+    <row r="675" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A675" s="12"/>
       <c r="B675" s="12"/>
       <c r="C675" s="12"/>
@@ -19948,7 +20007,7 @@
       <c r="X675" s="1"/>
       <c r="Y675" s="1"/>
     </row>
-    <row r="676" spans="1:25" ht="12.75">
+    <row r="676" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A676" s="12"/>
       <c r="B676" s="12"/>
       <c r="C676" s="12"/>
@@ -19975,7 +20034,7 @@
       <c r="X676" s="1"/>
       <c r="Y676" s="1"/>
     </row>
-    <row r="677" spans="1:25" ht="12.75">
+    <row r="677" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A677" s="12"/>
       <c r="B677" s="12"/>
       <c r="C677" s="12"/>
@@ -20002,7 +20061,7 @@
       <c r="X677" s="1"/>
       <c r="Y677" s="1"/>
     </row>
-    <row r="678" spans="1:25" ht="12.75">
+    <row r="678" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A678" s="12"/>
       <c r="B678" s="12"/>
       <c r="C678" s="12"/>
@@ -20029,7 +20088,7 @@
       <c r="X678" s="1"/>
       <c r="Y678" s="1"/>
     </row>
-    <row r="679" spans="1:25" ht="12.75">
+    <row r="679" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A679" s="12"/>
       <c r="B679" s="12"/>
       <c r="C679" s="12"/>
@@ -20056,7 +20115,7 @@
       <c r="X679" s="1"/>
       <c r="Y679" s="1"/>
     </row>
-    <row r="680" spans="1:25" ht="12.75">
+    <row r="680" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A680" s="12"/>
       <c r="B680" s="12"/>
       <c r="C680" s="12"/>
@@ -20083,7 +20142,7 @@
       <c r="X680" s="1"/>
       <c r="Y680" s="1"/>
     </row>
-    <row r="681" spans="1:25" ht="12.75">
+    <row r="681" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A681" s="12"/>
       <c r="B681" s="12"/>
       <c r="C681" s="12"/>
@@ -20110,7 +20169,7 @@
       <c r="X681" s="1"/>
       <c r="Y681" s="1"/>
     </row>
-    <row r="682" spans="1:25" ht="12.75">
+    <row r="682" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A682" s="12"/>
       <c r="B682" s="12"/>
       <c r="C682" s="12"/>
@@ -20137,7 +20196,7 @@
       <c r="X682" s="1"/>
       <c r="Y682" s="1"/>
     </row>
-    <row r="683" spans="1:25" ht="12.75">
+    <row r="683" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A683" s="12"/>
       <c r="B683" s="12"/>
       <c r="C683" s="12"/>
@@ -20164,7 +20223,7 @@
       <c r="X683" s="1"/>
       <c r="Y683" s="1"/>
     </row>
-    <row r="684" spans="1:25" ht="12.75">
+    <row r="684" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A684" s="12"/>
       <c r="B684" s="12"/>
       <c r="C684" s="12"/>
@@ -20191,7 +20250,7 @@
       <c r="X684" s="1"/>
       <c r="Y684" s="1"/>
     </row>
-    <row r="685" spans="1:25" ht="12.75">
+    <row r="685" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A685" s="12"/>
       <c r="B685" s="12"/>
       <c r="C685" s="12"/>
@@ -20218,7 +20277,7 @@
       <c r="X685" s="1"/>
       <c r="Y685" s="1"/>
     </row>
-    <row r="686" spans="1:25" ht="12.75">
+    <row r="686" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A686" s="12"/>
       <c r="B686" s="12"/>
       <c r="C686" s="12"/>
@@ -20245,7 +20304,7 @@
       <c r="X686" s="1"/>
       <c r="Y686" s="1"/>
     </row>
-    <row r="687" spans="1:25" ht="12.75">
+    <row r="687" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A687" s="12"/>
       <c r="B687" s="12"/>
       <c r="C687" s="12"/>
@@ -20272,7 +20331,7 @@
       <c r="X687" s="1"/>
       <c r="Y687" s="1"/>
     </row>
-    <row r="688" spans="1:25" ht="12.75">
+    <row r="688" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A688" s="12"/>
       <c r="B688" s="12"/>
       <c r="C688" s="12"/>
@@ -20299,7 +20358,7 @@
       <c r="X688" s="1"/>
       <c r="Y688" s="1"/>
     </row>
-    <row r="689" spans="1:25" ht="12.75">
+    <row r="689" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A689" s="12"/>
       <c r="B689" s="12"/>
       <c r="C689" s="12"/>
@@ -20326,7 +20385,7 @@
       <c r="X689" s="1"/>
       <c r="Y689" s="1"/>
     </row>
-    <row r="690" spans="1:25" ht="12.75">
+    <row r="690" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A690" s="12"/>
       <c r="B690" s="12"/>
       <c r="C690" s="12"/>
@@ -20353,7 +20412,7 @@
       <c r="X690" s="1"/>
       <c r="Y690" s="1"/>
     </row>
-    <row r="691" spans="1:25" ht="12.75">
+    <row r="691" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A691" s="12"/>
       <c r="B691" s="12"/>
       <c r="C691" s="12"/>
@@ -20380,7 +20439,7 @@
       <c r="X691" s="1"/>
       <c r="Y691" s="1"/>
     </row>
-    <row r="692" spans="1:25" ht="12.75">
+    <row r="692" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A692" s="12"/>
       <c r="B692" s="12"/>
       <c r="C692" s="12"/>
@@ -20407,7 +20466,7 @@
       <c r="X692" s="1"/>
       <c r="Y692" s="1"/>
     </row>
-    <row r="693" spans="1:25" ht="12.75">
+    <row r="693" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A693" s="12"/>
       <c r="B693" s="12"/>
       <c r="C693" s="12"/>
@@ -20434,7 +20493,7 @@
       <c r="X693" s="1"/>
       <c r="Y693" s="1"/>
     </row>
-    <row r="694" spans="1:25" ht="12.75">
+    <row r="694" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A694" s="12"/>
       <c r="B694" s="12"/>
       <c r="C694" s="12"/>
@@ -20461,7 +20520,7 @@
       <c r="X694" s="1"/>
       <c r="Y694" s="1"/>
     </row>
-    <row r="695" spans="1:25" ht="12.75">
+    <row r="695" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A695" s="12"/>
       <c r="B695" s="12"/>
       <c r="C695" s="12"/>
@@ -20488,7 +20547,7 @@
       <c r="X695" s="1"/>
       <c r="Y695" s="1"/>
     </row>
-    <row r="696" spans="1:25" ht="12.75">
+    <row r="696" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A696" s="12"/>
       <c r="B696" s="12"/>
       <c r="C696" s="12"/>
@@ -20515,7 +20574,7 @@
       <c r="X696" s="1"/>
       <c r="Y696" s="1"/>
     </row>
-    <row r="697" spans="1:25" ht="12.75">
+    <row r="697" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A697" s="12"/>
       <c r="B697" s="12"/>
       <c r="C697" s="12"/>
@@ -20542,7 +20601,7 @@
       <c r="X697" s="1"/>
       <c r="Y697" s="1"/>
     </row>
-    <row r="698" spans="1:25" ht="12.75">
+    <row r="698" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A698" s="12"/>
       <c r="B698" s="12"/>
       <c r="C698" s="12"/>
@@ -20569,7 +20628,7 @@
       <c r="X698" s="1"/>
       <c r="Y698" s="1"/>
     </row>
-    <row r="699" spans="1:25" ht="12.75">
+    <row r="699" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A699" s="12"/>
       <c r="B699" s="12"/>
       <c r="C699" s="12"/>
@@ -20596,7 +20655,7 @@
       <c r="X699" s="1"/>
       <c r="Y699" s="1"/>
     </row>
-    <row r="700" spans="1:25" ht="12.75">
+    <row r="700" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A700" s="12"/>
       <c r="B700" s="12"/>
       <c r="C700" s="12"/>
@@ -20623,7 +20682,7 @@
       <c r="X700" s="1"/>
       <c r="Y700" s="1"/>
     </row>
-    <row r="701" spans="1:25" ht="12.75">
+    <row r="701" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A701" s="12"/>
       <c r="B701" s="12"/>
       <c r="C701" s="12"/>
@@ -20650,7 +20709,7 @@
       <c r="X701" s="1"/>
       <c r="Y701" s="1"/>
     </row>
-    <row r="702" spans="1:25" ht="12.75">
+    <row r="702" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A702" s="12"/>
       <c r="B702" s="12"/>
       <c r="C702" s="12"/>
@@ -20677,7 +20736,7 @@
       <c r="X702" s="1"/>
       <c r="Y702" s="1"/>
     </row>
-    <row r="703" spans="1:25" ht="12.75">
+    <row r="703" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A703" s="12"/>
       <c r="B703" s="12"/>
       <c r="C703" s="12"/>
@@ -20704,7 +20763,7 @@
       <c r="X703" s="1"/>
       <c r="Y703" s="1"/>
     </row>
-    <row r="704" spans="1:25" ht="12.75">
+    <row r="704" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A704" s="12"/>
       <c r="B704" s="12"/>
       <c r="C704" s="12"/>
@@ -20731,7 +20790,7 @@
       <c r="X704" s="1"/>
       <c r="Y704" s="1"/>
     </row>
-    <row r="705" spans="1:25" ht="12.75">
+    <row r="705" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A705" s="12"/>
       <c r="B705" s="12"/>
       <c r="C705" s="12"/>
@@ -20758,7 +20817,7 @@
       <c r="X705" s="1"/>
       <c r="Y705" s="1"/>
     </row>
-    <row r="706" spans="1:25" ht="12.75">
+    <row r="706" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A706" s="12"/>
       <c r="B706" s="12"/>
       <c r="C706" s="12"/>
@@ -20785,7 +20844,7 @@
       <c r="X706" s="1"/>
       <c r="Y706" s="1"/>
     </row>
-    <row r="707" spans="1:25" ht="12.75">
+    <row r="707" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A707" s="12"/>
       <c r="B707" s="12"/>
       <c r="C707" s="12"/>
@@ -20812,7 +20871,7 @@
       <c r="X707" s="1"/>
       <c r="Y707" s="1"/>
     </row>
-    <row r="708" spans="1:25" ht="12.75">
+    <row r="708" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A708" s="12"/>
       <c r="B708" s="12"/>
       <c r="C708" s="12"/>
@@ -20839,7 +20898,7 @@
       <c r="X708" s="1"/>
       <c r="Y708" s="1"/>
     </row>
-    <row r="709" spans="1:25" ht="12.75">
+    <row r="709" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A709" s="12"/>
       <c r="B709" s="12"/>
       <c r="C709" s="12"/>
@@ -20866,7 +20925,7 @@
       <c r="X709" s="1"/>
       <c r="Y709" s="1"/>
     </row>
-    <row r="710" spans="1:25" ht="12.75">
+    <row r="710" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A710" s="12"/>
       <c r="B710" s="12"/>
       <c r="C710" s="12"/>
@@ -20893,7 +20952,7 @@
       <c r="X710" s="1"/>
       <c r="Y710" s="1"/>
     </row>
-    <row r="711" spans="1:25" ht="12.75">
+    <row r="711" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A711" s="12"/>
       <c r="B711" s="12"/>
       <c r="C711" s="12"/>
@@ -20920,7 +20979,7 @@
       <c r="X711" s="1"/>
       <c r="Y711" s="1"/>
     </row>
-    <row r="712" spans="1:25" ht="12.75">
+    <row r="712" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A712" s="12"/>
       <c r="B712" s="12"/>
       <c r="C712" s="12"/>
@@ -20947,7 +21006,7 @@
       <c r="X712" s="1"/>
       <c r="Y712" s="1"/>
     </row>
-    <row r="713" spans="1:25" ht="12.75">
+    <row r="713" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A713" s="12"/>
       <c r="B713" s="12"/>
       <c r="C713" s="12"/>
@@ -20974,7 +21033,7 @@
       <c r="X713" s="1"/>
       <c r="Y713" s="1"/>
     </row>
-    <row r="714" spans="1:25" ht="12.75">
+    <row r="714" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A714" s="12"/>
       <c r="B714" s="12"/>
       <c r="C714" s="12"/>
@@ -21001,7 +21060,7 @@
       <c r="X714" s="1"/>
       <c r="Y714" s="1"/>
     </row>
-    <row r="715" spans="1:25" ht="12.75">
+    <row r="715" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A715" s="12"/>
       <c r="B715" s="12"/>
       <c r="C715" s="12"/>
@@ -21028,7 +21087,7 @@
       <c r="X715" s="1"/>
       <c r="Y715" s="1"/>
     </row>
-    <row r="716" spans="1:25" ht="12.75">
+    <row r="716" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A716" s="12"/>
       <c r="B716" s="12"/>
       <c r="C716" s="12"/>
@@ -21055,7 +21114,7 @@
       <c r="X716" s="1"/>
       <c r="Y716" s="1"/>
     </row>
-    <row r="717" spans="1:25" ht="12.75">
+    <row r="717" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A717" s="12"/>
       <c r="B717" s="12"/>
       <c r="C717" s="12"/>
@@ -21082,7 +21141,7 @@
       <c r="X717" s="1"/>
       <c r="Y717" s="1"/>
     </row>
-    <row r="718" spans="1:25" ht="12.75">
+    <row r="718" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A718" s="12"/>
       <c r="B718" s="12"/>
       <c r="C718" s="12"/>
@@ -21109,7 +21168,7 @@
       <c r="X718" s="1"/>
       <c r="Y718" s="1"/>
     </row>
-    <row r="719" spans="1:25" ht="12.75">
+    <row r="719" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A719" s="12"/>
       <c r="B719" s="12"/>
       <c r="C719" s="12"/>
@@ -21136,7 +21195,7 @@
       <c r="X719" s="1"/>
       <c r="Y719" s="1"/>
     </row>
-    <row r="720" spans="1:25" ht="12.75">
+    <row r="720" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A720" s="12"/>
       <c r="B720" s="12"/>
       <c r="C720" s="12"/>
@@ -21163,7 +21222,7 @@
       <c r="X720" s="1"/>
       <c r="Y720" s="1"/>
     </row>
-    <row r="721" spans="1:25" ht="12.75">
+    <row r="721" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A721" s="12"/>
       <c r="B721" s="12"/>
       <c r="C721" s="12"/>
@@ -21190,7 +21249,7 @@
       <c r="X721" s="1"/>
       <c r="Y721" s="1"/>
     </row>
-    <row r="722" spans="1:25" ht="12.75">
+    <row r="722" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A722" s="12"/>
       <c r="B722" s="12"/>
       <c r="C722" s="12"/>
@@ -21217,7 +21276,7 @@
       <c r="X722" s="1"/>
       <c r="Y722" s="1"/>
     </row>
-    <row r="723" spans="1:25" ht="12.75">
+    <row r="723" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A723" s="12"/>
       <c r="B723" s="12"/>
       <c r="C723" s="12"/>
@@ -21244,7 +21303,7 @@
       <c r="X723" s="1"/>
       <c r="Y723" s="1"/>
     </row>
-    <row r="724" spans="1:25" ht="12.75">
+    <row r="724" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A724" s="12"/>
       <c r="B724" s="12"/>
       <c r="C724" s="12"/>
@@ -21271,7 +21330,7 @@
       <c r="X724" s="1"/>
       <c r="Y724" s="1"/>
     </row>
-    <row r="725" spans="1:25" ht="12.75">
+    <row r="725" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A725" s="12"/>
       <c r="B725" s="12"/>
       <c r="C725" s="12"/>
@@ -21298,7 +21357,7 @@
       <c r="X725" s="1"/>
       <c r="Y725" s="1"/>
     </row>
-    <row r="726" spans="1:25" ht="12.75">
+    <row r="726" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A726" s="12"/>
       <c r="B726" s="12"/>
       <c r="C726" s="12"/>
@@ -21325,7 +21384,7 @@
       <c r="X726" s="1"/>
       <c r="Y726" s="1"/>
     </row>
-    <row r="727" spans="1:25" ht="12.75">
+    <row r="727" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A727" s="12"/>
       <c r="B727" s="12"/>
       <c r="C727" s="12"/>
@@ -21352,7 +21411,7 @@
       <c r="X727" s="1"/>
       <c r="Y727" s="1"/>
     </row>
-    <row r="728" spans="1:25" ht="12.75">
+    <row r="728" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A728" s="12"/>
       <c r="B728" s="12"/>
       <c r="C728" s="12"/>
@@ -21379,7 +21438,7 @@
       <c r="X728" s="1"/>
       <c r="Y728" s="1"/>
     </row>
-    <row r="729" spans="1:25" ht="12.75">
+    <row r="729" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A729" s="12"/>
       <c r="B729" s="12"/>
       <c r="C729" s="12"/>
@@ -21406,7 +21465,7 @@
       <c r="X729" s="1"/>
       <c r="Y729" s="1"/>
     </row>
-    <row r="730" spans="1:25" ht="12.75">
+    <row r="730" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A730" s="12"/>
       <c r="B730" s="12"/>
       <c r="C730" s="12"/>
@@ -21433,7 +21492,7 @@
       <c r="X730" s="1"/>
       <c r="Y730" s="1"/>
     </row>
-    <row r="731" spans="1:25" ht="12.75">
+    <row r="731" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A731" s="12"/>
       <c r="B731" s="12"/>
       <c r="C731" s="12"/>
@@ -21460,7 +21519,7 @@
       <c r="X731" s="1"/>
       <c r="Y731" s="1"/>
     </row>
-    <row r="732" spans="1:25" ht="12.75">
+    <row r="732" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A732" s="12"/>
       <c r="B732" s="12"/>
       <c r="C732" s="12"/>
@@ -21487,7 +21546,7 @@
       <c r="X732" s="1"/>
       <c r="Y732" s="1"/>
     </row>
-    <row r="733" spans="1:25" ht="12.75">
+    <row r="733" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A733" s="12"/>
       <c r="B733" s="12"/>
       <c r="C733" s="12"/>
@@ -21514,7 +21573,7 @@
       <c r="X733" s="1"/>
       <c r="Y733" s="1"/>
     </row>
-    <row r="734" spans="1:25" ht="12.75">
+    <row r="734" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A734" s="12"/>
       <c r="B734" s="12"/>
       <c r="C734" s="12"/>
@@ -21541,7 +21600,7 @@
       <c r="X734" s="1"/>
       <c r="Y734" s="1"/>
     </row>
-    <row r="735" spans="1:25" ht="12.75">
+    <row r="735" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A735" s="12"/>
       <c r="B735" s="12"/>
       <c r="C735" s="12"/>
@@ -21568,7 +21627,7 @@
       <c r="X735" s="1"/>
       <c r="Y735" s="1"/>
     </row>
-    <row r="736" spans="1:25" ht="12.75">
+    <row r="736" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A736" s="12"/>
       <c r="B736" s="12"/>
       <c r="C736" s="12"/>
@@ -21595,7 +21654,7 @@
       <c r="X736" s="1"/>
       <c r="Y736" s="1"/>
     </row>
-    <row r="737" spans="1:25" ht="12.75">
+    <row r="737" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A737" s="12"/>
       <c r="B737" s="12"/>
       <c r="C737" s="12"/>
@@ -21622,7 +21681,7 @@
       <c r="X737" s="1"/>
       <c r="Y737" s="1"/>
     </row>
-    <row r="738" spans="1:25" ht="12.75">
+    <row r="738" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A738" s="12"/>
       <c r="B738" s="12"/>
       <c r="C738" s="12"/>
@@ -21649,7 +21708,7 @@
       <c r="X738" s="1"/>
       <c r="Y738" s="1"/>
     </row>
-    <row r="739" spans="1:25" ht="12.75">
+    <row r="739" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A739" s="12"/>
       <c r="B739" s="12"/>
       <c r="C739" s="12"/>
@@ -21676,7 +21735,7 @@
       <c r="X739" s="1"/>
       <c r="Y739" s="1"/>
     </row>
-    <row r="740" spans="1:25" ht="12.75">
+    <row r="740" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A740" s="12"/>
       <c r="B740" s="12"/>
       <c r="C740" s="12"/>
@@ -21703,7 +21762,7 @@
       <c r="X740" s="1"/>
       <c r="Y740" s="1"/>
     </row>
-    <row r="741" spans="1:25" ht="12.75">
+    <row r="741" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A741" s="12"/>
       <c r="B741" s="12"/>
       <c r="C741" s="12"/>
@@ -21730,7 +21789,7 @@
       <c r="X741" s="1"/>
       <c r="Y741" s="1"/>
     </row>
-    <row r="742" spans="1:25" ht="12.75">
+    <row r="742" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A742" s="12"/>
       <c r="B742" s="12"/>
       <c r="C742" s="12"/>
@@ -21757,7 +21816,7 @@
       <c r="X742" s="1"/>
       <c r="Y742" s="1"/>
     </row>
-    <row r="743" spans="1:25" ht="12.75">
+    <row r="743" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A743" s="12"/>
       <c r="B743" s="12"/>
       <c r="C743" s="12"/>
@@ -21784,7 +21843,7 @@
       <c r="X743" s="1"/>
       <c r="Y743" s="1"/>
     </row>
-    <row r="744" spans="1:25" ht="12.75">
+    <row r="744" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A744" s="12"/>
       <c r="B744" s="12"/>
       <c r="C744" s="12"/>
@@ -21811,7 +21870,7 @@
       <c r="X744" s="1"/>
       <c r="Y744" s="1"/>
     </row>
-    <row r="745" spans="1:25" ht="12.75">
+    <row r="745" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A745" s="12"/>
       <c r="B745" s="12"/>
       <c r="C745" s="12"/>
@@ -21838,7 +21897,7 @@
       <c r="X745" s="1"/>
       <c r="Y745" s="1"/>
     </row>
-    <row r="746" spans="1:25" ht="12.75">
+    <row r="746" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A746" s="12"/>
       <c r="B746" s="12"/>
       <c r="C746" s="12"/>
@@ -21865,7 +21924,7 @@
       <c r="X746" s="1"/>
       <c r="Y746" s="1"/>
     </row>
-    <row r="747" spans="1:25" ht="12.75">
+    <row r="747" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A747" s="12"/>
       <c r="B747" s="12"/>
       <c r="C747" s="12"/>
@@ -21892,7 +21951,7 @@
       <c r="X747" s="1"/>
       <c r="Y747" s="1"/>
     </row>
-    <row r="748" spans="1:25" ht="12.75">
+    <row r="748" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A748" s="12"/>
       <c r="B748" s="12"/>
       <c r="C748" s="12"/>
@@ -21919,7 +21978,7 @@
       <c r="X748" s="1"/>
       <c r="Y748" s="1"/>
     </row>
-    <row r="749" spans="1:25" ht="12.75">
+    <row r="749" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A749" s="12"/>
       <c r="B749" s="12"/>
       <c r="C749" s="12"/>
@@ -21946,7 +22005,7 @@
       <c r="X749" s="1"/>
       <c r="Y749" s="1"/>
     </row>
-    <row r="750" spans="1:25" ht="12.75">
+    <row r="750" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A750" s="12"/>
       <c r="B750" s="12"/>
       <c r="C750" s="12"/>
@@ -21973,7 +22032,7 @@
       <c r="X750" s="1"/>
       <c r="Y750" s="1"/>
     </row>
-    <row r="751" spans="1:25" ht="12.75">
+    <row r="751" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A751" s="12"/>
       <c r="B751" s="12"/>
       <c r="C751" s="12"/>
@@ -22000,7 +22059,7 @@
       <c r="X751" s="1"/>
       <c r="Y751" s="1"/>
     </row>
-    <row r="752" spans="1:25" ht="12.75">
+    <row r="752" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A752" s="12"/>
       <c r="B752" s="12"/>
       <c r="C752" s="12"/>
@@ -22027,7 +22086,7 @@
       <c r="X752" s="1"/>
       <c r="Y752" s="1"/>
     </row>
-    <row r="753" spans="1:25" ht="12.75">
+    <row r="753" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A753" s="12"/>
       <c r="B753" s="12"/>
       <c r="C753" s="12"/>
@@ -22054,7 +22113,7 @@
       <c r="X753" s="1"/>
       <c r="Y753" s="1"/>
     </row>
-    <row r="754" spans="1:25" ht="12.75">
+    <row r="754" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A754" s="12"/>
       <c r="B754" s="12"/>
       <c r="C754" s="12"/>
@@ -22081,7 +22140,7 @@
       <c r="X754" s="1"/>
       <c r="Y754" s="1"/>
     </row>
-    <row r="755" spans="1:25" ht="12.75">
+    <row r="755" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A755" s="12"/>
       <c r="B755" s="12"/>
       <c r="C755" s="12"/>
@@ -22108,7 +22167,7 @@
       <c r="X755" s="1"/>
       <c r="Y755" s="1"/>
     </row>
-    <row r="756" spans="1:25" ht="12.75">
+    <row r="756" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A756" s="12"/>
       <c r="B756" s="12"/>
       <c r="C756" s="12"/>
@@ -22135,7 +22194,7 @@
       <c r="X756" s="1"/>
       <c r="Y756" s="1"/>
     </row>
-    <row r="757" spans="1:25" ht="12.75">
+    <row r="757" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A757" s="12"/>
       <c r="B757" s="12"/>
       <c r="C757" s="12"/>
@@ -22162,7 +22221,7 @@
       <c r="X757" s="1"/>
       <c r="Y757" s="1"/>
     </row>
-    <row r="758" spans="1:25" ht="12.75">
+    <row r="758" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A758" s="12"/>
       <c r="B758" s="12"/>
       <c r="C758" s="12"/>
@@ -22189,7 +22248,7 @@
       <c r="X758" s="1"/>
       <c r="Y758" s="1"/>
     </row>
-    <row r="759" spans="1:25" ht="12.75">
+    <row r="759" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A759" s="12"/>
       <c r="B759" s="12"/>
       <c r="C759" s="12"/>
@@ -22216,7 +22275,7 @@
       <c r="X759" s="1"/>
       <c r="Y759" s="1"/>
     </row>
-    <row r="760" spans="1:25" ht="12.75">
+    <row r="760" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A760" s="12"/>
       <c r="B760" s="12"/>
       <c r="C760" s="12"/>
@@ -22243,7 +22302,7 @@
       <c r="X760" s="1"/>
       <c r="Y760" s="1"/>
     </row>
-    <row r="761" spans="1:25" ht="12.75">
+    <row r="761" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A761" s="12"/>
       <c r="B761" s="12"/>
       <c r="C761" s="12"/>
@@ -22270,7 +22329,7 @@
       <c r="X761" s="1"/>
       <c r="Y761" s="1"/>
     </row>
-    <row r="762" spans="1:25" ht="12.75">
+    <row r="762" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A762" s="12"/>
       <c r="B762" s="12"/>
       <c r="C762" s="12"/>
@@ -22297,7 +22356,7 @@
       <c r="X762" s="1"/>
       <c r="Y762" s="1"/>
     </row>
-    <row r="763" spans="1:25" ht="12.75">
+    <row r="763" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A763" s="12"/>
       <c r="B763" s="12"/>
       <c r="C763" s="12"/>
@@ -22324,7 +22383,7 @@
       <c r="X763" s="1"/>
       <c r="Y763" s="1"/>
     </row>
-    <row r="764" spans="1:25" ht="12.75">
+    <row r="764" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A764" s="12"/>
       <c r="B764" s="12"/>
       <c r="C764" s="12"/>
@@ -22351,7 +22410,7 @@
       <c r="X764" s="1"/>
       <c r="Y764" s="1"/>
     </row>
-    <row r="765" spans="1:25" ht="12.75">
+    <row r="765" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A765" s="12"/>
       <c r="B765" s="12"/>
       <c r="C765" s="12"/>
@@ -22378,7 +22437,7 @@
       <c r="X765" s="1"/>
       <c r="Y765" s="1"/>
     </row>
-    <row r="766" spans="1:25" ht="12.75">
+    <row r="766" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A766" s="12"/>
       <c r="B766" s="12"/>
       <c r="C766" s="12"/>
@@ -22405,7 +22464,7 @@
       <c r="X766" s="1"/>
       <c r="Y766" s="1"/>
     </row>
-    <row r="767" spans="1:25" ht="12.75">
+    <row r="767" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A767" s="12"/>
       <c r="B767" s="12"/>
       <c r="C767" s="12"/>
@@ -22432,7 +22491,7 @@
       <c r="X767" s="1"/>
       <c r="Y767" s="1"/>
     </row>
-    <row r="768" spans="1:25" ht="12.75">
+    <row r="768" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A768" s="12"/>
       <c r="B768" s="12"/>
       <c r="C768" s="12"/>
@@ -22459,7 +22518,7 @@
       <c r="X768" s="1"/>
       <c r="Y768" s="1"/>
     </row>
-    <row r="769" spans="1:25" ht="12.75">
+    <row r="769" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A769" s="12"/>
       <c r="B769" s="12"/>
       <c r="C769" s="12"/>
@@ -22486,7 +22545,7 @@
       <c r="X769" s="1"/>
       <c r="Y769" s="1"/>
     </row>
-    <row r="770" spans="1:25" ht="12.75">
+    <row r="770" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A770" s="12"/>
       <c r="B770" s="12"/>
       <c r="C770" s="12"/>
@@ -22513,7 +22572,7 @@
       <c r="X770" s="1"/>
       <c r="Y770" s="1"/>
     </row>
-    <row r="771" spans="1:25" ht="12.75">
+    <row r="771" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A771" s="12"/>
       <c r="B771" s="12"/>
       <c r="C771" s="12"/>
@@ -22540,7 +22599,7 @@
       <c r="X771" s="1"/>
       <c r="Y771" s="1"/>
     </row>
-    <row r="772" spans="1:25" ht="12.75">
+    <row r="772" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A772" s="12"/>
       <c r="B772" s="12"/>
       <c r="C772" s="12"/>
@@ -22567,7 +22626,7 @@
       <c r="X772" s="1"/>
       <c r="Y772" s="1"/>
     </row>
-    <row r="773" spans="1:25" ht="12.75">
+    <row r="773" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A773" s="12"/>
       <c r="B773" s="12"/>
       <c r="C773" s="12"/>
@@ -22594,7 +22653,7 @@
       <c r="X773" s="1"/>
       <c r="Y773" s="1"/>
     </row>
-    <row r="774" spans="1:25" ht="12.75">
+    <row r="774" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A774" s="12"/>
       <c r="B774" s="12"/>
       <c r="C774" s="12"/>
@@ -22621,7 +22680,7 @@
       <c r="X774" s="1"/>
       <c r="Y774" s="1"/>
     </row>
-    <row r="775" spans="1:25" ht="12.75">
+    <row r="775" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A775" s="12"/>
       <c r="B775" s="12"/>
       <c r="C775" s="12"/>
@@ -22648,7 +22707,7 @@
       <c r="X775" s="1"/>
       <c r="Y775" s="1"/>
     </row>
-    <row r="776" spans="1:25" ht="12.75">
+    <row r="776" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A776" s="12"/>
       <c r="B776" s="12"/>
       <c r="C776" s="12"/>
@@ -22675,7 +22734,7 @@
       <c r="X776" s="1"/>
       <c r="Y776" s="1"/>
     </row>
-    <row r="777" spans="1:25" ht="12.75">
+    <row r="777" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A777" s="12"/>
       <c r="B777" s="12"/>
       <c r="C777" s="12"/>
@@ -22702,7 +22761,7 @@
       <c r="X777" s="1"/>
       <c r="Y777" s="1"/>
     </row>
-    <row r="778" spans="1:25" ht="12.75">
+    <row r="778" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A778" s="12"/>
       <c r="B778" s="12"/>
       <c r="C778" s="12"/>
@@ -22729,7 +22788,7 @@
       <c r="X778" s="1"/>
       <c r="Y778" s="1"/>
     </row>
-    <row r="779" spans="1:25" ht="12.75">
+    <row r="779" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A779" s="12"/>
       <c r="B779" s="12"/>
       <c r="C779" s="12"/>
@@ -22756,7 +22815,7 @@
       <c r="X779" s="1"/>
       <c r="Y779" s="1"/>
     </row>
-    <row r="780" spans="1:25" ht="12.75">
+    <row r="780" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A780" s="12"/>
       <c r="B780" s="12"/>
       <c r="C780" s="12"/>
@@ -22783,7 +22842,7 @@
       <c r="X780" s="1"/>
       <c r="Y780" s="1"/>
     </row>
-    <row r="781" spans="1:25" ht="12.75">
+    <row r="781" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A781" s="12"/>
       <c r="B781" s="12"/>
       <c r="C781" s="12"/>
@@ -22810,7 +22869,7 @@
       <c r="X781" s="1"/>
       <c r="Y781" s="1"/>
     </row>
-    <row r="782" spans="1:25" ht="12.75">
+    <row r="782" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A782" s="12"/>
       <c r="B782" s="12"/>
       <c r="C782" s="12"/>
@@ -22837,7 +22896,7 @@
       <c r="X782" s="1"/>
       <c r="Y782" s="1"/>
     </row>
-    <row r="783" spans="1:25" ht="12.75">
+    <row r="783" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A783" s="12"/>
       <c r="B783" s="12"/>
       <c r="C783" s="12"/>
@@ -22864,7 +22923,7 @@
       <c r="X783" s="1"/>
       <c r="Y783" s="1"/>
     </row>
-    <row r="784" spans="1:25" ht="12.75">
+    <row r="784" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A784" s="12"/>
       <c r="B784" s="12"/>
       <c r="C784" s="12"/>
@@ -22891,7 +22950,7 @@
       <c r="X784" s="1"/>
       <c r="Y784" s="1"/>
     </row>
-    <row r="785" spans="1:25" ht="12.75">
+    <row r="785" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A785" s="12"/>
       <c r="B785" s="12"/>
       <c r="C785" s="12"/>
@@ -22918,7 +22977,7 @@
       <c r="X785" s="1"/>
       <c r="Y785" s="1"/>
     </row>
-    <row r="786" spans="1:25" ht="12.75">
+    <row r="786" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A786" s="12"/>
       <c r="B786" s="12"/>
       <c r="C786" s="12"/>
@@ -22945,7 +23004,7 @@
       <c r="X786" s="1"/>
       <c r="Y786" s="1"/>
     </row>
-    <row r="787" spans="1:25" ht="12.75">
+    <row r="787" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A787" s="12"/>
       <c r="B787" s="12"/>
       <c r="C787" s="12"/>
@@ -22972,7 +23031,7 @@
       <c r="X787" s="1"/>
       <c r="Y787" s="1"/>
     </row>
-    <row r="788" spans="1:25" ht="12.75">
+    <row r="788" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A788" s="12"/>
       <c r="B788" s="12"/>
       <c r="C788" s="12"/>
@@ -22999,7 +23058,7 @@
       <c r="X788" s="1"/>
       <c r="Y788" s="1"/>
     </row>
-    <row r="789" spans="1:25" ht="12.75">
+    <row r="789" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A789" s="12"/>
       <c r="B789" s="12"/>
       <c r="C789" s="12"/>
@@ -23026,7 +23085,7 @@
       <c r="X789" s="1"/>
       <c r="Y789" s="1"/>
     </row>
-    <row r="790" spans="1:25" ht="12.75">
+    <row r="790" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A790" s="12"/>
       <c r="B790" s="12"/>
       <c r="C790" s="12"/>
@@ -23053,7 +23112,7 @@
       <c r="X790" s="1"/>
       <c r="Y790" s="1"/>
     </row>
-    <row r="791" spans="1:25" ht="12.75">
+    <row r="791" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A791" s="12"/>
       <c r="B791" s="12"/>
       <c r="C791" s="12"/>
@@ -23080,7 +23139,7 @@
       <c r="X791" s="1"/>
       <c r="Y791" s="1"/>
     </row>
-    <row r="792" spans="1:25" ht="12.75">
+    <row r="792" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A792" s="12"/>
       <c r="B792" s="12"/>
       <c r="C792" s="12"/>
@@ -23107,7 +23166,7 @@
       <c r="X792" s="1"/>
       <c r="Y792" s="1"/>
     </row>
-    <row r="793" spans="1:25" ht="12.75">
+    <row r="793" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A793" s="12"/>
       <c r="B793" s="12"/>
       <c r="C793" s="12"/>
@@ -23134,7 +23193,7 @@
       <c r="X793" s="1"/>
       <c r="Y793" s="1"/>
     </row>
-    <row r="794" spans="1:25" ht="12.75">
+    <row r="794" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A794" s="12"/>
       <c r="B794" s="12"/>
       <c r="C794" s="12"/>
@@ -23161,7 +23220,7 @@
       <c r="X794" s="1"/>
       <c r="Y794" s="1"/>
     </row>
-    <row r="795" spans="1:25" ht="12.75">
+    <row r="795" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A795" s="12"/>
       <c r="B795" s="12"/>
       <c r="C795" s="12"/>
@@ -23188,7 +23247,7 @@
       <c r="X795" s="1"/>
       <c r="Y795" s="1"/>
     </row>
-    <row r="796" spans="1:25" ht="12.75">
+    <row r="796" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A796" s="12"/>
       <c r="B796" s="12"/>
       <c r="C796" s="12"/>
@@ -23215,7 +23274,7 @@
       <c r="X796" s="1"/>
       <c r="Y796" s="1"/>
     </row>
-    <row r="797" spans="1:25" ht="12.75">
+    <row r="797" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A797" s="12"/>
       <c r="B797" s="12"/>
       <c r="C797" s="12"/>
@@ -23242,7 +23301,7 @@
       <c r="X797" s="1"/>
       <c r="Y797" s="1"/>
     </row>
-    <row r="798" spans="1:25" ht="12.75">
+    <row r="798" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A798" s="12"/>
       <c r="B798" s="12"/>
       <c r="C798" s="12"/>
@@ -23269,7 +23328,7 @@
       <c r="X798" s="1"/>
       <c r="Y798" s="1"/>
     </row>
-    <row r="799" spans="1:25" ht="12.75">
+    <row r="799" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A799" s="12"/>
       <c r="B799" s="12"/>
       <c r="C799" s="12"/>
@@ -23296,7 +23355,7 @@
       <c r="X799" s="1"/>
       <c r="Y799" s="1"/>
     </row>
-    <row r="800" spans="1:25" ht="12.75">
+    <row r="800" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A800" s="12"/>
       <c r="B800" s="12"/>
       <c r="C800" s="12"/>
@@ -23323,7 +23382,7 @@
       <c r="X800" s="1"/>
       <c r="Y800" s="1"/>
     </row>
-    <row r="801" spans="1:25" ht="12.75">
+    <row r="801" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A801" s="12"/>
       <c r="B801" s="12"/>
       <c r="C801" s="12"/>
@@ -23350,7 +23409,7 @@
       <c r="X801" s="1"/>
       <c r="Y801" s="1"/>
     </row>
-    <row r="802" spans="1:25" ht="12.75">
+    <row r="802" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A802" s="12"/>
       <c r="B802" s="12"/>
       <c r="C802" s="12"/>
@@ -23377,7 +23436,7 @@
       <c r="X802" s="1"/>
       <c r="Y802" s="1"/>
     </row>
-    <row r="803" spans="1:25" ht="12.75">
+    <row r="803" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A803" s="12"/>
       <c r="B803" s="12"/>
       <c r="C803" s="12"/>
@@ -23404,7 +23463,7 @@
       <c r="X803" s="1"/>
       <c r="Y803" s="1"/>
     </row>
-    <row r="804" spans="1:25" ht="12.75">
+    <row r="804" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A804" s="12"/>
       <c r="B804" s="12"/>
       <c r="C804" s="12"/>
@@ -23431,7 +23490,7 @@
       <c r="X804" s="1"/>
       <c r="Y804" s="1"/>
     </row>
-    <row r="805" spans="1:25" ht="12.75">
+    <row r="805" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A805" s="12"/>
       <c r="B805" s="12"/>
       <c r="C805" s="12"/>
@@ -23458,7 +23517,7 @@
       <c r="X805" s="1"/>
       <c r="Y805" s="1"/>
     </row>
-    <row r="806" spans="1:25" ht="12.75">
+    <row r="806" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A806" s="12"/>
       <c r="B806" s="12"/>
       <c r="C806" s="12"/>
@@ -23485,7 +23544,7 @@
       <c r="X806" s="1"/>
       <c r="Y806" s="1"/>
     </row>
-    <row r="807" spans="1:25" ht="12.75">
+    <row r="807" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A807" s="12"/>
       <c r="B807" s="12"/>
       <c r="C807" s="12"/>
@@ -23512,7 +23571,7 @@
       <c r="X807" s="1"/>
       <c r="Y807" s="1"/>
     </row>
-    <row r="808" spans="1:25" ht="12.75">
+    <row r="808" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A808" s="12"/>
       <c r="B808" s="12"/>
       <c r="C808" s="12"/>
@@ -23539,7 +23598,7 @@
       <c r="X808" s="1"/>
       <c r="Y808" s="1"/>
     </row>
-    <row r="809" spans="1:25" ht="12.75">
+    <row r="809" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A809" s="12"/>
       <c r="B809" s="12"/>
       <c r="C809" s="12"/>
@@ -23566,7 +23625,7 @@
       <c r="X809" s="1"/>
       <c r="Y809" s="1"/>
     </row>
-    <row r="810" spans="1:25" ht="12.75">
+    <row r="810" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A810" s="12"/>
       <c r="B810" s="12"/>
       <c r="C810" s="12"/>
@@ -23593,7 +23652,7 @@
       <c r="X810" s="1"/>
       <c r="Y810" s="1"/>
     </row>
-    <row r="811" spans="1:25" ht="12.75">
+    <row r="811" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A811" s="12"/>
       <c r="B811" s="12"/>
       <c r="C811" s="12"/>
@@ -23620,7 +23679,7 @@
       <c r="X811" s="1"/>
       <c r="Y811" s="1"/>
     </row>
-    <row r="812" spans="1:25" ht="12.75">
+    <row r="812" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A812" s="12"/>
       <c r="B812" s="12"/>
       <c r="C812" s="12"/>
@@ -23647,7 +23706,7 @@
       <c r="X812" s="1"/>
       <c r="Y812" s="1"/>
     </row>
-    <row r="813" spans="1:25" ht="12.75">
+    <row r="813" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A813" s="12"/>
       <c r="B813" s="12"/>
       <c r="C813" s="12"/>
@@ -23674,7 +23733,7 @@
       <c r="X813" s="1"/>
       <c r="Y813" s="1"/>
     </row>
-    <row r="814" spans="1:25" ht="12.75">
+    <row r="814" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A814" s="12"/>
       <c r="B814" s="12"/>
       <c r="C814" s="12"/>
@@ -23701,7 +23760,7 @@
       <c r="X814" s="1"/>
       <c r="Y814" s="1"/>
     </row>
-    <row r="815" spans="1:25" ht="12.75">
+    <row r="815" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A815" s="12"/>
       <c r="B815" s="12"/>
       <c r="C815" s="12"/>
@@ -23728,7 +23787,7 @@
       <c r="X815" s="1"/>
       <c r="Y815" s="1"/>
     </row>
-    <row r="816" spans="1:25" ht="12.75">
+    <row r="816" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A816" s="12"/>
       <c r="B816" s="12"/>
       <c r="C816" s="12"/>
@@ -23755,7 +23814,7 @@
       <c r="X816" s="1"/>
       <c r="Y816" s="1"/>
     </row>
-    <row r="817" spans="1:25" ht="12.75">
+    <row r="817" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A817" s="12"/>
       <c r="B817" s="12"/>
       <c r="C817" s="12"/>
@@ -23782,7 +23841,7 @@
       <c r="X817" s="1"/>
       <c r="Y817" s="1"/>
     </row>
-    <row r="818" spans="1:25" ht="12.75">
+    <row r="818" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A818" s="12"/>
       <c r="B818" s="12"/>
       <c r="C818" s="12"/>
@@ -23809,7 +23868,7 @@
       <c r="X818" s="1"/>
       <c r="Y818" s="1"/>
     </row>
-    <row r="819" spans="1:25" ht="12.75">
+    <row r="819" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A819" s="12"/>
       <c r="B819" s="12"/>
       <c r="C819" s="12"/>
@@ -23836,7 +23895,7 @@
       <c r="X819" s="1"/>
       <c r="Y819" s="1"/>
     </row>
-    <row r="820" spans="1:25" ht="12.75">
+    <row r="820" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A820" s="12"/>
       <c r="B820" s="12"/>
       <c r="C820" s="12"/>
@@ -23863,7 +23922,7 @@
       <c r="X820" s="1"/>
       <c r="Y820" s="1"/>
     </row>
-    <row r="821" spans="1:25" ht="12.75">
+    <row r="821" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A821" s="12"/>
       <c r="B821" s="12"/>
       <c r="C821" s="12"/>
@@ -23890,7 +23949,7 @@
       <c r="X821" s="1"/>
       <c r="Y821" s="1"/>
     </row>
-    <row r="822" spans="1:25" ht="12.75">
+    <row r="822" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A822" s="12"/>
       <c r="B822" s="12"/>
       <c r="C822" s="12"/>
@@ -23917,7 +23976,7 @@
       <c r="X822" s="1"/>
       <c r="Y822" s="1"/>
     </row>
-    <row r="823" spans="1:25" ht="12.75">
+    <row r="823" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A823" s="12"/>
       <c r="B823" s="12"/>
       <c r="C823" s="12"/>
@@ -23944,7 +24003,7 @@
       <c r="X823" s="1"/>
       <c r="Y823" s="1"/>
     </row>
-    <row r="824" spans="1:25" ht="12.75">
+    <row r="824" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A824" s="12"/>
       <c r="B824" s="12"/>
       <c r="C824" s="12"/>
@@ -23971,7 +24030,7 @@
       <c r="X824" s="1"/>
       <c r="Y824" s="1"/>
     </row>
-    <row r="825" spans="1:25" ht="12.75">
+    <row r="825" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A825" s="12"/>
       <c r="B825" s="12"/>
       <c r="C825" s="12"/>
@@ -23998,7 +24057,7 @@
       <c r="X825" s="1"/>
       <c r="Y825" s="1"/>
     </row>
-    <row r="826" spans="1:25" ht="12.75">
+    <row r="826" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A826" s="12"/>
       <c r="B826" s="12"/>
       <c r="C826" s="12"/>
@@ -24025,7 +24084,7 @@
       <c r="X826" s="1"/>
       <c r="Y826" s="1"/>
     </row>
-    <row r="827" spans="1:25" ht="12.75">
+    <row r="827" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A827" s="12"/>
       <c r="B827" s="12"/>
       <c r="C827" s="12"/>
@@ -24052,7 +24111,7 @@
       <c r="X827" s="1"/>
       <c r="Y827" s="1"/>
     </row>
-    <row r="828" spans="1:25" ht="12.75">
+    <row r="828" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A828" s="12"/>
       <c r="B828" s="12"/>
       <c r="C828" s="12"/>
@@ -24079,7 +24138,7 @@
       <c r="X828" s="1"/>
       <c r="Y828" s="1"/>
     </row>
-    <row r="829" spans="1:25" ht="12.75">
+    <row r="829" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A829" s="12"/>
       <c r="B829" s="12"/>
       <c r="C829" s="12"/>
@@ -24106,7 +24165,7 @@
       <c r="X829" s="1"/>
       <c r="Y829" s="1"/>
     </row>
-    <row r="830" spans="1:25" ht="12.75">
+    <row r="830" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A830" s="12"/>
       <c r="B830" s="12"/>
       <c r="C830" s="12"/>
@@ -24133,7 +24192,7 @@
       <c r="X830" s="1"/>
       <c r="Y830" s="1"/>
     </row>
-    <row r="831" spans="1:25" ht="12.75">
+    <row r="831" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A831" s="12"/>
       <c r="B831" s="12"/>
       <c r="C831" s="12"/>
@@ -24160,7 +24219,7 @@
       <c r="X831" s="1"/>
       <c r="Y831" s="1"/>
     </row>
-    <row r="832" spans="1:25" ht="12.75">
+    <row r="832" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A832" s="12"/>
       <c r="B832" s="12"/>
       <c r="C832" s="12"/>
@@ -24187,7 +24246,7 @@
       <c r="X832" s="1"/>
       <c r="Y832" s="1"/>
     </row>
-    <row r="833" spans="1:25" ht="12.75">
+    <row r="833" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A833" s="12"/>
       <c r="B833" s="12"/>
       <c r="C833" s="12"/>
@@ -24214,7 +24273,7 @@
       <c r="X833" s="1"/>
       <c r="Y833" s="1"/>
     </row>
-    <row r="834" spans="1:25" ht="12.75">
+    <row r="834" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A834" s="12"/>
       <c r="B834" s="12"/>
       <c r="C834" s="12"/>
@@ -24241,7 +24300,7 @@
       <c r="X834" s="1"/>
       <c r="Y834" s="1"/>
     </row>
-    <row r="835" spans="1:25" ht="12.75">
+    <row r="835" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A835" s="12"/>
       <c r="B835" s="12"/>
       <c r="C835" s="12"/>
@@ -24268,7 +24327,7 @@
       <c r="X835" s="1"/>
       <c r="Y835" s="1"/>
     </row>
-    <row r="836" spans="1:25" ht="12.75">
+    <row r="836" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A836" s="12"/>
       <c r="B836" s="12"/>
       <c r="C836" s="12"/>
@@ -24295,7 +24354,7 @@
       <c r="X836" s="1"/>
       <c r="Y836" s="1"/>
     </row>
-    <row r="837" spans="1:25" ht="12.75">
+    <row r="837" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A837" s="12"/>
       <c r="B837" s="12"/>
       <c r="C837" s="12"/>
@@ -24322,7 +24381,7 @@
       <c r="X837" s="1"/>
       <c r="Y837" s="1"/>
     </row>
-    <row r="838" spans="1:25" ht="12.75">
+    <row r="838" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A838" s="12"/>
       <c r="B838" s="12"/>
       <c r="C838" s="12"/>
@@ -24349,7 +24408,7 @@
       <c r="X838" s="1"/>
       <c r="Y838" s="1"/>
     </row>
-    <row r="839" spans="1:25" ht="12.75">
+    <row r="839" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A839" s="12"/>
       <c r="B839" s="12"/>
       <c r="C839" s="12"/>
@@ -24376,7 +24435,7 @@
       <c r="X839" s="1"/>
       <c r="Y839" s="1"/>
     </row>
-    <row r="840" spans="1:25" ht="12.75">
+    <row r="840" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A840" s="12"/>
       <c r="B840" s="12"/>
       <c r="C840" s="12"/>
@@ -24403,7 +24462,7 @@
       <c r="X840" s="1"/>
       <c r="Y840" s="1"/>
     </row>
-    <row r="841" spans="1:25" ht="12.75">
+    <row r="841" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A841" s="12"/>
       <c r="B841" s="12"/>
       <c r="C841" s="12"/>
@@ -24430,7 +24489,7 @@
       <c r="X841" s="1"/>
       <c r="Y841" s="1"/>
     </row>
-    <row r="842" spans="1:25" ht="12.75">
+    <row r="842" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A842" s="12"/>
       <c r="B842" s="12"/>
       <c r="C842" s="12"/>
@@ -24457,7 +24516,7 @@
       <c r="X842" s="1"/>
       <c r="Y842" s="1"/>
     </row>
-    <row r="843" spans="1:25" ht="12.75">
+    <row r="843" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A843" s="12"/>
       <c r="B843" s="12"/>
       <c r="C843" s="12"/>
@@ -24484,7 +24543,7 @@
       <c r="X843" s="1"/>
       <c r="Y843" s="1"/>
     </row>
-    <row r="844" spans="1:25" ht="12.75">
+    <row r="844" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A844" s="12"/>
       <c r="B844" s="12"/>
       <c r="C844" s="12"/>
@@ -24511,7 +24570,7 @@
       <c r="X844" s="1"/>
       <c r="Y844" s="1"/>
     </row>
-    <row r="845" spans="1:25" ht="12.75">
+    <row r="845" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A845" s="12"/>
       <c r="B845" s="12"/>
       <c r="C845" s="12"/>
@@ -24538,7 +24597,7 @@
       <c r="X845" s="1"/>
       <c r="Y845" s="1"/>
     </row>
-    <row r="846" spans="1:25" ht="12.75">
+    <row r="846" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A846" s="12"/>
       <c r="B846" s="12"/>
       <c r="C846" s="12"/>
@@ -24565,7 +24624,7 @@
       <c r="X846" s="1"/>
       <c r="Y846" s="1"/>
     </row>
-    <row r="847" spans="1:25" ht="12.75">
+    <row r="847" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A847" s="12"/>
       <c r="B847" s="12"/>
       <c r="C847" s="12"/>
@@ -24592,7 +24651,7 @@
       <c r="X847" s="1"/>
       <c r="Y847" s="1"/>
     </row>
-    <row r="848" spans="1:25" ht="12.75">
+    <row r="848" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A848" s="12"/>
       <c r="B848" s="12"/>
       <c r="C848" s="12"/>
@@ -24619,7 +24678,7 @@
       <c r="X848" s="1"/>
       <c r="Y848" s="1"/>
     </row>
-    <row r="849" spans="1:25" ht="12.75">
+    <row r="849" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A849" s="12"/>
       <c r="B849" s="12"/>
       <c r="C849" s="12"/>
@@ -24646,7 +24705,7 @@
       <c r="X849" s="1"/>
       <c r="Y849" s="1"/>
     </row>
-    <row r="850" spans="1:25" ht="12.75">
+    <row r="850" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A850" s="12"/>
       <c r="B850" s="12"/>
       <c r="C850" s="12"/>
@@ -24673,7 +24732,7 @@
       <c r="X850" s="1"/>
       <c r="Y850" s="1"/>
     </row>
-    <row r="851" spans="1:25" ht="12.75">
+    <row r="851" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A851" s="12"/>
       <c r="B851" s="12"/>
       <c r="C851" s="12"/>
@@ -24700,7 +24759,7 @@
       <c r="X851" s="1"/>
       <c r="Y851" s="1"/>
     </row>
-    <row r="852" spans="1:25" ht="12.75">
+    <row r="852" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A852" s="12"/>
       <c r="B852" s="12"/>
       <c r="C852" s="12"/>
@@ -24727,7 +24786,7 @@
       <c r="X852" s="1"/>
       <c r="Y852" s="1"/>
     </row>
-    <row r="853" spans="1:25" ht="12.75">
+    <row r="853" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A853" s="12"/>
       <c r="B853" s="12"/>
       <c r="C853" s="12"/>
@@ -24754,7 +24813,7 @@
       <c r="X853" s="1"/>
       <c r="Y853" s="1"/>
     </row>
-    <row r="854" spans="1:25" ht="12.75">
+    <row r="854" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A854" s="12"/>
       <c r="B854" s="12"/>
       <c r="C854" s="12"/>
@@ -24781,7 +24840,7 @@
       <c r="X854" s="1"/>
       <c r="Y854" s="1"/>
     </row>
-    <row r="855" spans="1:25" ht="12.75">
+    <row r="855" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A855" s="12"/>
       <c r="B855" s="12"/>
       <c r="C855" s="12"/>
@@ -24814,16 +24873,6 @@
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
   <mergeCells count="26">
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="J12:J13"/>
@@ -24840,6 +24889,16 @@
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="I14:I1048576">
     <cfRule type="containsText" dxfId="17" priority="22" operator="containsText" text="HASI GABE">
@@ -24918,7 +24977,7 @@
     <dataValidation type="list" sqref="B14:B61">
       <formula1>"TALDEA:,APP:,ERP:,INTERFAZ:,DA:,ZERBITZU:,"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H14:H61 F14:F61">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F14:F61 H14:H61">
       <formula1>"ANDER,LANDER,TSB"</formula1>
     </dataValidation>
   </dataValidations>

--- a/0.1- PLANIFIKAZIOA/TSB EGUNEROKOA.xlsx
+++ b/0.1- PLANIFIKAZIOA/TSB EGUNEROKOA.xlsx
@@ -932,41 +932,6 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -986,6 +951,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1017,39 +991,37 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00778B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00778B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00778B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00778B"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="25">
     <dxf>
       <fill>
         <patternFill>
@@ -1089,6 +1061,83 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6E7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00778B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00778B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00778B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00778B"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1508,8 +1557,8 @@
   </sheetPr>
   <dimension ref="A1:Y855"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:A27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1525,18 +1574,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="34.799999999999997" x14ac:dyDescent="0.7">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
       <c r="G1" s="16"/>
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
-      <c r="J1" s="57"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="2"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1554,18 +1603,18 @@
       <c r="Y1" s="1"/>
     </row>
     <row r="2" spans="1:25" ht="34.799999999999997" x14ac:dyDescent="1.2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="58"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="43"/>
       <c r="K2" s="2"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1583,16 +1632,16 @@
       <c r="Y2" s="1"/>
     </row>
     <row r="3" spans="1:25" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="59"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="44"/>
       <c r="K3" s="2"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1637,17 +1686,17 @@
       <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
       <c r="J5" s="6"/>
       <c r="K5" s="2"/>
       <c r="L5" s="1"/>
@@ -1666,21 +1715,21 @@
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="1:25" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="78" t="s">
+      <c r="B6" s="64"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="78" t="s">
+      <c r="E6" s="64"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="77"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="65"/>
       <c r="J6" s="41" t="s">
         <v>17</v>
       </c>
@@ -1701,21 +1750,21 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="51" t="s">
+      <c r="B7" s="74"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="51" t="s">
+      <c r="E7" s="74"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="53"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="75"/>
       <c r="J7" s="38" t="s">
         <v>21</v>
       </c>
@@ -1736,19 +1785,19 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="54" t="s">
+      <c r="B8" s="77"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="55"/>
-      <c r="I8" s="56"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="78"/>
       <c r="J8" s="39" t="s">
         <v>23</v>
       </c>
@@ -1769,19 +1818,19 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="42" t="s">
+      <c r="B9" s="50"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="43"/>
-      <c r="I9" s="44"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="51"/>
       <c r="J9" s="40" t="s">
         <v>25</v>
       </c>
@@ -1808,11 +1857,11 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="64" t="s">
+      <c r="G10" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="65"/>
-      <c r="I10" s="66"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
       <c r="J10" s="11"/>
       <c r="K10" s="2"/>
       <c r="L10" s="1"/>
@@ -1858,30 +1907,30 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="72"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="69" t="s">
+      <c r="E12" s="60"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="74" t="s">
+      <c r="H12" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="69" t="s">
+      <c r="I12" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="62" t="s">
+      <c r="J12" s="47" t="s">
         <v>9</v>
       </c>
       <c r="K12" s="1"/>
@@ -1901,9 +1950,9 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A13" s="68"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
       <c r="D13" s="14" t="s">
         <v>4</v>
       </c>
@@ -1913,10 +1962,10 @@
       <c r="F13" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="63"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="48"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="1"/>
@@ -24873,6 +24922,16 @@
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
   <mergeCells count="26">
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="J12:J13"/>
@@ -24889,78 +24948,71 @@
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="I14:I1048576">
-    <cfRule type="containsText" dxfId="17" priority="22" operator="containsText" text="HASI GABE">
+    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="HASI GABE">
       <formula>NOT(ISERROR(SEARCH("HASI GABE",I14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="21" operator="containsText" text="PROZESUAN">
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="PROZESUAN">
       <formula>NOT(ISERROR(SEARCH("PROZESUAN",I14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="20" operator="containsText" text="EGINDA">
+    <cfRule type="containsText" dxfId="22" priority="21" operator="containsText" text="EGINDA">
       <formula>NOT(ISERROR(SEARCH("EGINDA",I14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D61">
-    <cfRule type="containsText" dxfId="14" priority="19" operator="containsText" text="TSB">
+    <cfRule type="containsText" dxfId="21" priority="20" operator="containsText" text="TSB">
       <formula>NOT(ISERROR(SEARCH("TSB",D14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:H61">
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="LANDER">
+    <cfRule type="containsText" dxfId="20" priority="12" operator="containsText" text="LANDER">
       <formula>NOT(ISERROR(SEARCH("LANDER",H14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="ANDER">
+    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text="ANDER">
       <formula>NOT(ISERROR(SEARCH("ANDER",H14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="ANDER, LANDER">
+    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="ANDER, LANDER">
       <formula>NOT(ISERROR(SEARCH("ANDER, LANDER",H14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="TSB">
+    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="TSB">
       <formula>NOT(ISERROR(SEARCH("TSB",H14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B61">
-    <cfRule type="beginsWith" dxfId="9" priority="10" operator="beginsWith" text="TALDEA:">
+    <cfRule type="beginsWith" dxfId="7" priority="11" operator="beginsWith" text="TALDEA:">
       <formula>LEFT(B14,LEN("TALDEA:"))="TALDEA:"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="8" priority="9" operator="beginsWith" text="APP:">
+    <cfRule type="beginsWith" dxfId="8" priority="10" operator="beginsWith" text="APP:">
       <formula>LEFT(B14,LEN("APP:"))="APP:"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="7" priority="8" operator="beginsWith" text="ERP:">
+    <cfRule type="beginsWith" dxfId="9" priority="9" operator="beginsWith" text="ERP:">
       <formula>LEFT(B14,LEN("ERP:"))="ERP:"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="6" priority="7" operator="beginsWith" text="INTERFAZ:">
+    <cfRule type="beginsWith" dxfId="10" priority="8" operator="beginsWith" text="INTERFAZ:">
       <formula>LEFT(B14,LEN("INTERFAZ:"))="INTERFAZ:"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="DA:">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="DA:">
       <formula>NOT(ISERROR(SEARCH("DA:",B14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="ZERBITZU:">
+    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="ZERBITZU:">
       <formula>NOT(ISERROR(SEARCH("ZERBITZU:",B14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="ENPRESA:">
+      <formula>NOT(ISERROR(SEARCH("ENPRESA:",B14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F61">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="LANDER">
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="LANDER">
       <formula>NOT(ISERROR(SEARCH("LANDER",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="ANDER">
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="ANDER">
       <formula>NOT(ISERROR(SEARCH("ANDER",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="ANDER, LANDER">
+    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="ANDER, LANDER">
       <formula>NOT(ISERROR(SEARCH("ANDER, LANDER",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="TSB">
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="TSB">
       <formula>NOT(ISERROR(SEARCH("TSB",F14)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24974,11 +25026,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14:A61">
       <formula1>"16/10/2023 - 20/10/2023,23/10/2023 - 27/10/2023,30/10/2023 - 03/11/2023,06/11/2023 - 10/11/2023,13/11/2023 - 17/11/2023"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="B14:B61">
-      <formula1>"TALDEA:,APP:,ERP:,INTERFAZ:,DA:,ZERBITZU:,"</formula1>
-    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F14:F61 H14:H61">
       <formula1>"ANDER,LANDER,TSB"</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="B12:B61">
+      <formula1>"TALDEA:,APP:,ERP:,INTERFAZ:,DA:,ZERBITZU:,ENPRESA:,"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0.1- PLANIFIKAZIOA/TSB EGUNEROKOA.xlsx
+++ b/0.1- PLANIFIKAZIOA/TSB EGUNEROKOA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikaltamirapaag2\Desktop\ERRONKA TSB RETURNS\0.1- PLANIFIKAZIOA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikaltamirapaag2\Documents\GitHub\ERRONKA-TSB-RETURNS\0.1- PLANIFIKAZIOA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12312"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Planifikazioa" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="54">
   <si>
     <t>ENTREGA</t>
   </si>
@@ -204,6 +204,21 @@
   </si>
   <si>
     <t>APP: Zein datu base erabiliko dugun aukeratu (SQLIte)</t>
+  </si>
+  <si>
+    <t>ENPRESA: Forma juridikoa</t>
+  </si>
+  <si>
+    <t>ENPRESA: ODS</t>
+  </si>
+  <si>
+    <t>ENPRESA: Canvas taula</t>
+  </si>
+  <si>
+    <t>ENPRESA: Merkatu ikerketa</t>
+  </si>
+  <si>
+    <t>ENPRESA: Enpresaren ideia pentsatu eta idatzi</t>
   </si>
 </sst>
 </file>
@@ -853,7 +868,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -899,9 +914,6 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -932,6 +944,41 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -951,15 +998,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
@@ -991,37 +1029,46 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00778B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00778B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00778B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00778B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1061,83 +1108,6 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6E7B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00778B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00778B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00778B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00778B"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1558,34 +1528,34 @@
   <dimension ref="A1:Y855"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.77734375" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.44140625" style="15"/>
-    <col min="6" max="6" width="20.44140625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="31.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="15"/>
-    <col min="9" max="9" width="22.88671875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="27.6640625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14.42578125" style="15"/>
+    <col min="6" max="6" width="20.42578125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="15"/>
+    <col min="9" max="9" width="22.85546875" style="15" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="34.799999999999997" x14ac:dyDescent="0.7">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:25" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
       <c r="G1" s="16"/>
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
-      <c r="J1" s="42"/>
+      <c r="J1" s="56"/>
       <c r="K1" s="2"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1602,19 +1572,19 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="34.799999999999997" x14ac:dyDescent="1.2">
-      <c r="A2" s="67" t="s">
+    <row r="2" spans="1:25" ht="34.5" x14ac:dyDescent="0.95">
+      <c r="A2" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="43"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="57"/>
       <c r="K2" s="2"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1631,17 +1601,17 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="44"/>
+    <row r="3" spans="1:25" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="58"/>
       <c r="K3" s="2"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1658,7 +1628,7 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:25" ht="19.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1685,18 +1655,18 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A5" s="71" t="s">
+    <row r="5" spans="1:25" ht="29.25" thickBot="1" x14ac:dyDescent="0.85">
+      <c r="A5" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
       <c r="J5" s="6"/>
       <c r="K5" s="2"/>
       <c r="L5" s="1"/>
@@ -1714,23 +1684,23 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A6" s="63" t="s">
+    <row r="6" spans="1:25" ht="20.25" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66" t="s">
+      <c r="B6" s="75"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="64"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="66" t="s">
+      <c r="E6" s="75"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="64"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="41" t="s">
+      <c r="H6" s="75"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="40" t="s">
         <v>17</v>
       </c>
       <c r="K6" s="2"/>
@@ -1749,23 +1719,23 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="73" t="s">
+    <row r="7" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="73" t="s">
+      <c r="B7" s="51"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="74"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="73" t="s">
+      <c r="E7" s="51"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="74"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="38" t="s">
+      <c r="H7" s="51"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="37" t="s">
         <v>21</v>
       </c>
       <c r="K7" s="2"/>
@@ -1784,21 +1754,21 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="76" t="s">
+    <row r="8" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="76" t="s">
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="77"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="39" t="s">
+      <c r="H8" s="54"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="38" t="s">
         <v>23</v>
       </c>
       <c r="K8" s="2"/>
@@ -1817,21 +1787,21 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="49" t="s">
+    <row r="9" spans="1:25" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="49" t="s">
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="40" t="s">
+      <c r="H9" s="42"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="39" t="s">
         <v>25</v>
       </c>
       <c r="K9" s="2"/>
@@ -1850,18 +1820,18 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:25" ht="20.25" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="52" t="s">
+      <c r="G10" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="65"/>
       <c r="J10" s="11"/>
       <c r="K10" s="2"/>
       <c r="L10" s="1"/>
@@ -1879,7 +1849,7 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1906,31 +1876,31 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
-      <c r="A12" s="55" t="s">
+    <row r="12" spans="1:25" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="60"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="57" t="s">
+      <c r="E12" s="71"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="62" t="s">
+      <c r="H12" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="57" t="s">
+      <c r="I12" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="47" t="s">
+      <c r="J12" s="61" t="s">
         <v>9</v>
       </c>
       <c r="K12" s="1"/>
@@ -1949,10 +1919,10 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A13" s="56"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
+    <row r="13" spans="1:25" ht="20.25" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A13" s="67"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
       <c r="D13" s="14" t="s">
         <v>4</v>
       </c>
@@ -1962,10 +1932,10 @@
       <c r="F13" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="48"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="62"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="1"/>
@@ -1982,11 +1952,11 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="32" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="20"/>
@@ -2019,11 +1989,11 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="20"/>
@@ -2056,11 +2026,11 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="32" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="20"/>
@@ -2093,11 +2063,11 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="32" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="20"/>
@@ -2130,11 +2100,11 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="32" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="20"/>
@@ -2167,11 +2137,11 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="32" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="20"/>
@@ -2204,11 +2174,11 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="32" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="20"/>
@@ -2241,11 +2211,11 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="33" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="24"/>
@@ -2278,11 +2248,11 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="33" t="s">
         <v>48</v>
       </c>
       <c r="C22" s="24"/>
@@ -2315,11 +2285,11 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="33" t="s">
         <v>43</v>
       </c>
       <c r="C23" s="24"/>
@@ -2352,15 +2322,17 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="33" t="s">
         <v>44</v>
       </c>
       <c r="C24" s="24"/>
-      <c r="D24" s="23"/>
+      <c r="D24" s="23" t="s">
+        <v>30</v>
+      </c>
       <c r="E24" s="24"/>
       <c r="F24" s="23"/>
       <c r="G24" s="24"/>
@@ -2387,17 +2359,19 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="33" t="s">
         <v>45</v>
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="23"/>
       <c r="E25" s="24"/>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23" t="s">
+        <v>33</v>
+      </c>
       <c r="G25" s="24"/>
       <c r="H25" s="23" t="s">
         <v>33</v>
@@ -2422,20 +2396,22 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="33" t="s">
         <v>46</v>
       </c>
       <c r="C26" s="24"/>
-      <c r="D26" s="23"/>
+      <c r="D26" s="23" t="s">
+        <v>30</v>
+      </c>
       <c r="E26" s="24"/>
       <c r="F26" s="23"/>
       <c r="G26" s="24"/>
       <c r="H26" s="23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I26" s="11" t="s">
         <v>29</v>
@@ -2457,20 +2433,22 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="33" t="s">
         <v>47</v>
       </c>
       <c r="C27" s="24"/>
-      <c r="D27" s="23"/>
+      <c r="D27" s="23" t="s">
+        <v>30</v>
+      </c>
       <c r="E27" s="24"/>
       <c r="F27" s="23"/>
       <c r="G27" s="24"/>
       <c r="H27" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I27" s="11" t="s">
         <v>29</v>
@@ -2492,17 +2470,23 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="25"/>
-      <c r="B28" s="35"/>
+      <c r="B28" s="34" t="s">
+        <v>53</v>
+      </c>
       <c r="C28" s="24"/>
       <c r="D28" s="23"/>
       <c r="E28" s="24"/>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23" t="s">
+        <v>33</v>
+      </c>
       <c r="G28" s="24"/>
-      <c r="H28" s="23"/>
+      <c r="H28" s="23" t="s">
+        <v>33</v>
+      </c>
       <c r="I28" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J28" s="24"/>
       <c r="K28" s="2"/>
@@ -2521,17 +2505,23 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="25"/>
-      <c r="B29" s="35"/>
+      <c r="B29" s="34" t="s">
+        <v>49</v>
+      </c>
       <c r="C29" s="24"/>
       <c r="D29" s="23"/>
       <c r="E29" s="24"/>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23" t="s">
+        <v>33</v>
+      </c>
       <c r="G29" s="24"/>
-      <c r="H29" s="23"/>
+      <c r="H29" s="23" t="s">
+        <v>33</v>
+      </c>
       <c r="I29" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J29" s="24"/>
       <c r="K29" s="2"/>
@@ -2550,17 +2540,23 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="25"/>
-      <c r="B30" s="35"/>
+      <c r="B30" s="34" t="s">
+        <v>50</v>
+      </c>
       <c r="C30" s="24"/>
       <c r="D30" s="23"/>
       <c r="E30" s="24"/>
-      <c r="F30" s="23"/>
+      <c r="F30" s="23" t="s">
+        <v>33</v>
+      </c>
       <c r="G30" s="24"/>
-      <c r="H30" s="23"/>
+      <c r="H30" s="23" t="s">
+        <v>33</v>
+      </c>
       <c r="I30" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J30" s="24"/>
       <c r="K30" s="2"/>
@@ -2579,17 +2575,23 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="25"/>
-      <c r="B31" s="35"/>
+      <c r="B31" s="34" t="s">
+        <v>51</v>
+      </c>
       <c r="C31" s="24"/>
       <c r="D31" s="23"/>
       <c r="E31" s="24"/>
-      <c r="F31" s="23"/>
+      <c r="F31" s="23" t="s">
+        <v>33</v>
+      </c>
       <c r="G31" s="24"/>
-      <c r="H31" s="23"/>
+      <c r="H31" s="23" t="s">
+        <v>33</v>
+      </c>
       <c r="I31" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J31" s="24"/>
       <c r="K31" s="2"/>
@@ -2608,19 +2610,25 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="26"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="29" t="s">
-        <v>27</v>
+      <c r="B32" s="35" t="s">
+        <v>52</v>
       </c>
-      <c r="J32" s="28"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="27"/>
+      <c r="H32" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J32" s="27"/>
       <c r="K32" s="2"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -2637,19 +2645,19 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A33" s="30"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="31"/>
+    <row r="33" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="29"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="30"/>
       <c r="I33" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J33" s="32"/>
+      <c r="J33" s="31"/>
       <c r="K33" s="2"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -2666,19 +2674,19 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A34" s="30"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="31"/>
+    <row r="34" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="29"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="30"/>
       <c r="I34" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J34" s="32"/>
+      <c r="J34" s="31"/>
       <c r="K34" s="2"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -2695,19 +2703,19 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A35" s="30"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="31"/>
+    <row r="35" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="29"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="30"/>
       <c r="I35" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J35" s="32"/>
+      <c r="J35" s="31"/>
       <c r="K35" s="2"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -2724,19 +2732,19 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A36" s="30"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="31"/>
+    <row r="36" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="29"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="30"/>
       <c r="I36" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J36" s="32"/>
+      <c r="J36" s="31"/>
       <c r="K36" s="2"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -2753,19 +2761,19 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A37" s="30"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="31"/>
+    <row r="37" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="29"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="30"/>
       <c r="I37" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J37" s="32"/>
+      <c r="J37" s="31"/>
       <c r="K37" s="2"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -2782,19 +2790,19 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A38" s="30"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="31"/>
+    <row r="38" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="29"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="30"/>
       <c r="I38" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J38" s="32"/>
+      <c r="J38" s="31"/>
       <c r="K38" s="2"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -2811,19 +2819,19 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A39" s="30"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="31"/>
+    <row r="39" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="29"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="30"/>
       <c r="I39" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J39" s="32"/>
+      <c r="J39" s="31"/>
       <c r="K39" s="2"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -2840,19 +2848,19 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A40" s="30"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="31"/>
+    <row r="40" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="29"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="30"/>
       <c r="I40" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J40" s="32"/>
+      <c r="J40" s="31"/>
       <c r="K40" s="2"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -2869,19 +2877,19 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A41" s="30"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="31"/>
+    <row r="41" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="29"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="30"/>
       <c r="I41" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J41" s="32"/>
+      <c r="J41" s="31"/>
       <c r="K41" s="2"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -2898,19 +2906,19 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A42" s="30"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="31"/>
+    <row r="42" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="29"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="30"/>
       <c r="I42" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J42" s="32"/>
+      <c r="J42" s="31"/>
       <c r="K42" s="2"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -2927,19 +2935,19 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A43" s="30"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="31"/>
+    <row r="43" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="29"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="30"/>
       <c r="I43" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J43" s="32"/>
+      <c r="J43" s="31"/>
       <c r="K43" s="2"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -2956,19 +2964,19 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A44" s="30"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="31"/>
+    <row r="44" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="29"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="30"/>
       <c r="I44" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J44" s="32"/>
+      <c r="J44" s="31"/>
       <c r="K44" s="2"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -2985,19 +2993,19 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A45" s="30"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="31"/>
+    <row r="45" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="29"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="30"/>
       <c r="I45" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J45" s="32"/>
+      <c r="J45" s="31"/>
       <c r="K45" s="2"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -3014,19 +3022,19 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A46" s="30"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="31"/>
+    <row r="46" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="29"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="30"/>
       <c r="I46" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J46" s="32"/>
+      <c r="J46" s="31"/>
       <c r="K46" s="2"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -3043,19 +3051,19 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A47" s="30"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="31"/>
+    <row r="47" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="29"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="30"/>
       <c r="I47" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J47" s="32"/>
+      <c r="J47" s="31"/>
       <c r="K47" s="2"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -3072,19 +3080,19 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A48" s="30"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="31"/>
+    <row r="48" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="29"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="30"/>
       <c r="I48" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J48" s="32"/>
+      <c r="J48" s="31"/>
       <c r="K48" s="2"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -3101,19 +3109,19 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A49" s="30"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="31"/>
+    <row r="49" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="29"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="30"/>
       <c r="I49" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J49" s="32"/>
+      <c r="J49" s="31"/>
       <c r="K49" s="2"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -3130,19 +3138,19 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A50" s="30"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="31"/>
+    <row r="50" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="29"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="30"/>
       <c r="I50" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J50" s="32"/>
+      <c r="J50" s="31"/>
       <c r="K50" s="2"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -3159,19 +3167,19 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
     </row>
-    <row r="51" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A51" s="30"/>
-      <c r="B51" s="37"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="31"/>
+    <row r="51" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="29"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="30"/>
       <c r="I51" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J51" s="32"/>
+      <c r="J51" s="31"/>
       <c r="K51" s="2"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -3188,19 +3196,19 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A52" s="30"/>
-      <c r="B52" s="37"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="31"/>
+    <row r="52" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="29"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="30"/>
       <c r="I52" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J52" s="32"/>
+      <c r="J52" s="31"/>
       <c r="K52" s="2"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
@@ -3217,19 +3225,19 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A53" s="30"/>
-      <c r="B53" s="37"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="31"/>
+    <row r="53" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="29"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="30"/>
       <c r="I53" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J53" s="32"/>
+      <c r="J53" s="31"/>
       <c r="K53" s="2"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -3246,19 +3254,19 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
     </row>
-    <row r="54" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A54" s="30"/>
-      <c r="B54" s="37"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="31"/>
+    <row r="54" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="29"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="30"/>
       <c r="I54" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J54" s="32"/>
+      <c r="J54" s="31"/>
       <c r="K54" s="2"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -3275,19 +3283,19 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
     </row>
-    <row r="55" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A55" s="30"/>
-      <c r="B55" s="37"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="31"/>
+    <row r="55" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="29"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="30"/>
       <c r="I55" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J55" s="32"/>
+      <c r="J55" s="31"/>
       <c r="K55" s="2"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -3304,19 +3312,19 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
     </row>
-    <row r="56" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A56" s="30"/>
-      <c r="B56" s="37"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="31"/>
+    <row r="56" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="29"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="30"/>
       <c r="I56" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J56" s="32"/>
+      <c r="J56" s="31"/>
       <c r="K56" s="2"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -3333,19 +3341,19 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
     </row>
-    <row r="57" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A57" s="30"/>
-      <c r="B57" s="37"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="31"/>
+    <row r="57" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="29"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="30"/>
       <c r="I57" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J57" s="32"/>
+      <c r="J57" s="31"/>
       <c r="K57" s="2"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -3362,19 +3370,19 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
     </row>
-    <row r="58" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A58" s="30"/>
-      <c r="B58" s="37"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="31"/>
+    <row r="58" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="29"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="30"/>
       <c r="I58" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J58" s="32"/>
+      <c r="J58" s="31"/>
       <c r="K58" s="2"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -3391,19 +3399,19 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
     </row>
-    <row r="59" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A59" s="30"/>
-      <c r="B59" s="37"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="31"/>
+    <row r="59" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="29"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="30"/>
       <c r="I59" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J59" s="32"/>
+      <c r="J59" s="31"/>
       <c r="K59" s="2"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -3420,19 +3428,19 @@
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
     </row>
-    <row r="60" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A60" s="30"/>
-      <c r="B60" s="37"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="31"/>
+    <row r="60" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="29"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="30"/>
       <c r="I60" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J60" s="32"/>
+      <c r="J60" s="31"/>
       <c r="K60" s="2"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -3449,19 +3457,19 @@
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
     </row>
-    <row r="61" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A61" s="30"/>
-      <c r="B61" s="37"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="31"/>
+    <row r="61" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="29"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="30"/>
       <c r="I61" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J61" s="32"/>
+      <c r="J61" s="31"/>
       <c r="K61" s="2"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
@@ -3478,7 +3486,7 @@
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
     </row>
-    <row r="62" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
@@ -3505,7 +3513,7 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
     </row>
-    <row r="63" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
@@ -3532,7 +3540,7 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
     </row>
-    <row r="64" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
@@ -3559,7 +3567,7 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
     </row>
-    <row r="65" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -3586,7 +3594,7 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
     </row>
-    <row r="66" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
@@ -3613,7 +3621,7 @@
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
     </row>
-    <row r="67" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
@@ -3640,7 +3648,7 @@
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
     </row>
-    <row r="68" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
@@ -3667,7 +3675,7 @@
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
     </row>
-    <row r="69" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
@@ -3694,7 +3702,7 @@
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
     </row>
-    <row r="70" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
@@ -3721,7 +3729,7 @@
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
     </row>
-    <row r="71" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
@@ -3748,7 +3756,7 @@
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
     </row>
-    <row r="72" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
@@ -3775,7 +3783,7 @@
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
     </row>
-    <row r="73" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -3802,7 +3810,7 @@
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
     </row>
-    <row r="74" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="12"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
@@ -3829,7 +3837,7 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
     </row>
-    <row r="75" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
@@ -3856,7 +3864,7 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
     </row>
-    <row r="76" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="12"/>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
@@ -3883,7 +3891,7 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
     </row>
-    <row r="77" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
@@ -3910,7 +3918,7 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
     </row>
-    <row r="78" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="12"/>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
@@ -3937,7 +3945,7 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
     </row>
-    <row r="79" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="12"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
@@ -3964,7 +3972,7 @@
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
     </row>
-    <row r="80" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="12"/>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
@@ -3991,7 +3999,7 @@
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
     </row>
-    <row r="81" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
@@ -4018,7 +4026,7 @@
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
     </row>
-    <row r="82" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="12"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
@@ -4045,7 +4053,7 @@
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
     </row>
-    <row r="83" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="12"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
@@ -4072,7 +4080,7 @@
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
     </row>
-    <row r="84" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="12"/>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
@@ -4099,7 +4107,7 @@
       <c r="X84" s="1"/>
       <c r="Y84" s="1"/>
     </row>
-    <row r="85" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="12"/>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
@@ -4126,7 +4134,7 @@
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
     </row>
-    <row r="86" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="12"/>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
@@ -4153,7 +4161,7 @@
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
     </row>
-    <row r="87" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="12"/>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
@@ -4180,7 +4188,7 @@
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
     </row>
-    <row r="88" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="12"/>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
@@ -4207,7 +4215,7 @@
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
     </row>
-    <row r="89" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="12"/>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
@@ -4234,7 +4242,7 @@
       <c r="X89" s="1"/>
       <c r="Y89" s="1"/>
     </row>
-    <row r="90" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="12"/>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
@@ -4261,7 +4269,7 @@
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
     </row>
-    <row r="91" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
@@ -4288,7 +4296,7 @@
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
     </row>
-    <row r="92" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="12"/>
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
@@ -4315,7 +4323,7 @@
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
     </row>
-    <row r="93" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="12"/>
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
@@ -4342,7 +4350,7 @@
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
     </row>
-    <row r="94" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="12"/>
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
@@ -4369,7 +4377,7 @@
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
     </row>
-    <row r="95" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="12"/>
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
@@ -4396,7 +4404,7 @@
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
     </row>
-    <row r="96" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
@@ -4423,7 +4431,7 @@
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
     </row>
-    <row r="97" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="12"/>
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
@@ -4450,7 +4458,7 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
     </row>
-    <row r="98" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="12"/>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
@@ -4477,7 +4485,7 @@
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
     </row>
-    <row r="99" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="12"/>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
@@ -4504,7 +4512,7 @@
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
     </row>
-    <row r="100" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="12"/>
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
@@ -4531,7 +4539,7 @@
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
     </row>
-    <row r="101" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="12"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
@@ -4558,7 +4566,7 @@
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
     </row>
-    <row r="102" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="12"/>
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
@@ -4585,7 +4593,7 @@
       <c r="X102" s="1"/>
       <c r="Y102" s="1"/>
     </row>
-    <row r="103" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
@@ -4612,7 +4620,7 @@
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
     </row>
-    <row r="104" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="12"/>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
@@ -4639,7 +4647,7 @@
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
     </row>
-    <row r="105" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="12"/>
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
@@ -4666,7 +4674,7 @@
       <c r="X105" s="1"/>
       <c r="Y105" s="1"/>
     </row>
-    <row r="106" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="12"/>
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
@@ -4693,7 +4701,7 @@
       <c r="X106" s="1"/>
       <c r="Y106" s="1"/>
     </row>
-    <row r="107" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="12"/>
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
@@ -4720,7 +4728,7 @@
       <c r="X107" s="1"/>
       <c r="Y107" s="1"/>
     </row>
-    <row r="108" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
       <c r="C108" s="12"/>
@@ -4747,7 +4755,7 @@
       <c r="X108" s="1"/>
       <c r="Y108" s="1"/>
     </row>
-    <row r="109" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
       <c r="C109" s="12"/>
@@ -4774,7 +4782,7 @@
       <c r="X109" s="1"/>
       <c r="Y109" s="1"/>
     </row>
-    <row r="110" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
@@ -4801,7 +4809,7 @@
       <c r="X110" s="1"/>
       <c r="Y110" s="1"/>
     </row>
-    <row r="111" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="12"/>
       <c r="B111" s="12"/>
       <c r="C111" s="12"/>
@@ -4828,7 +4836,7 @@
       <c r="X111" s="1"/>
       <c r="Y111" s="1"/>
     </row>
-    <row r="112" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="12"/>
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
@@ -4855,7 +4863,7 @@
       <c r="X112" s="1"/>
       <c r="Y112" s="1"/>
     </row>
-    <row r="113" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -4882,7 +4890,7 @@
       <c r="X113" s="1"/>
       <c r="Y113" s="1"/>
     </row>
-    <row r="114" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -4909,7 +4917,7 @@
       <c r="X114" s="1"/>
       <c r="Y114" s="1"/>
     </row>
-    <row r="115" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -4936,7 +4944,7 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
     </row>
-    <row r="116" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -4963,7 +4971,7 @@
       <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
     </row>
-    <row r="117" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="12"/>
       <c r="B117" s="12"/>
       <c r="C117" s="12"/>
@@ -4990,7 +4998,7 @@
       <c r="X117" s="1"/>
       <c r="Y117" s="1"/>
     </row>
-    <row r="118" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="12"/>
       <c r="B118" s="12"/>
       <c r="C118" s="12"/>
@@ -5017,7 +5025,7 @@
       <c r="X118" s="1"/>
       <c r="Y118" s="1"/>
     </row>
-    <row r="119" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="12"/>
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
@@ -5044,7 +5052,7 @@
       <c r="X119" s="1"/>
       <c r="Y119" s="1"/>
     </row>
-    <row r="120" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="12"/>
       <c r="B120" s="12"/>
       <c r="C120" s="12"/>
@@ -5071,7 +5079,7 @@
       <c r="X120" s="1"/>
       <c r="Y120" s="1"/>
     </row>
-    <row r="121" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="12"/>
       <c r="B121" s="12"/>
       <c r="C121" s="12"/>
@@ -5098,7 +5106,7 @@
       <c r="X121" s="1"/>
       <c r="Y121" s="1"/>
     </row>
-    <row r="122" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="12"/>
       <c r="B122" s="12"/>
       <c r="C122" s="12"/>
@@ -5125,7 +5133,7 @@
       <c r="X122" s="1"/>
       <c r="Y122" s="1"/>
     </row>
-    <row r="123" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="12"/>
       <c r="B123" s="12"/>
       <c r="C123" s="12"/>
@@ -5152,7 +5160,7 @@
       <c r="X123" s="1"/>
       <c r="Y123" s="1"/>
     </row>
-    <row r="124" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="12"/>
       <c r="B124" s="12"/>
       <c r="C124" s="12"/>
@@ -5179,7 +5187,7 @@
       <c r="X124" s="1"/>
       <c r="Y124" s="1"/>
     </row>
-    <row r="125" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="12"/>
       <c r="B125" s="12"/>
       <c r="C125" s="12"/>
@@ -5206,7 +5214,7 @@
       <c r="X125" s="1"/>
       <c r="Y125" s="1"/>
     </row>
-    <row r="126" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="12"/>
       <c r="B126" s="12"/>
       <c r="C126" s="12"/>
@@ -5233,7 +5241,7 @@
       <c r="X126" s="1"/>
       <c r="Y126" s="1"/>
     </row>
-    <row r="127" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="12"/>
       <c r="B127" s="12"/>
       <c r="C127" s="12"/>
@@ -5260,7 +5268,7 @@
       <c r="X127" s="1"/>
       <c r="Y127" s="1"/>
     </row>
-    <row r="128" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="12"/>
       <c r="B128" s="12"/>
       <c r="C128" s="12"/>
@@ -5287,7 +5295,7 @@
       <c r="X128" s="1"/>
       <c r="Y128" s="1"/>
     </row>
-    <row r="129" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="12"/>
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
@@ -5314,7 +5322,7 @@
       <c r="X129" s="1"/>
       <c r="Y129" s="1"/>
     </row>
-    <row r="130" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="12"/>
       <c r="B130" s="12"/>
       <c r="C130" s="12"/>
@@ -5341,7 +5349,7 @@
       <c r="X130" s="1"/>
       <c r="Y130" s="1"/>
     </row>
-    <row r="131" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="12"/>
       <c r="B131" s="12"/>
       <c r="C131" s="12"/>
@@ -5368,7 +5376,7 @@
       <c r="X131" s="1"/>
       <c r="Y131" s="1"/>
     </row>
-    <row r="132" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="12"/>
       <c r="B132" s="12"/>
       <c r="C132" s="12"/>
@@ -5395,7 +5403,7 @@
       <c r="X132" s="1"/>
       <c r="Y132" s="1"/>
     </row>
-    <row r="133" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="12"/>
       <c r="B133" s="12"/>
       <c r="C133" s="12"/>
@@ -5422,7 +5430,7 @@
       <c r="X133" s="1"/>
       <c r="Y133" s="1"/>
     </row>
-    <row r="134" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="12"/>
       <c r="B134" s="12"/>
       <c r="C134" s="12"/>
@@ -5449,7 +5457,7 @@
       <c r="X134" s="1"/>
       <c r="Y134" s="1"/>
     </row>
-    <row r="135" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="12"/>
       <c r="B135" s="12"/>
       <c r="C135" s="12"/>
@@ -5476,7 +5484,7 @@
       <c r="X135" s="1"/>
       <c r="Y135" s="1"/>
     </row>
-    <row r="136" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="12"/>
       <c r="B136" s="12"/>
       <c r="C136" s="12"/>
@@ -5503,7 +5511,7 @@
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
     </row>
-    <row r="137" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="12"/>
       <c r="B137" s="12"/>
       <c r="C137" s="12"/>
@@ -5530,7 +5538,7 @@
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
     </row>
-    <row r="138" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="12"/>
       <c r="B138" s="12"/>
       <c r="C138" s="12"/>
@@ -5557,7 +5565,7 @@
       <c r="X138" s="1"/>
       <c r="Y138" s="1"/>
     </row>
-    <row r="139" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="12"/>
       <c r="B139" s="12"/>
       <c r="C139" s="12"/>
@@ -5584,7 +5592,7 @@
       <c r="X139" s="1"/>
       <c r="Y139" s="1"/>
     </row>
-    <row r="140" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="12"/>
       <c r="B140" s="12"/>
       <c r="C140" s="12"/>
@@ -5611,7 +5619,7 @@
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
     </row>
-    <row r="141" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="12"/>
       <c r="B141" s="12"/>
       <c r="C141" s="12"/>
@@ -5638,7 +5646,7 @@
       <c r="X141" s="1"/>
       <c r="Y141" s="1"/>
     </row>
-    <row r="142" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="12"/>
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
@@ -5665,7 +5673,7 @@
       <c r="X142" s="1"/>
       <c r="Y142" s="1"/>
     </row>
-    <row r="143" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="12"/>
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
@@ -5692,7 +5700,7 @@
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
     </row>
-    <row r="144" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="12"/>
       <c r="B144" s="12"/>
       <c r="C144" s="12"/>
@@ -5719,7 +5727,7 @@
       <c r="X144" s="1"/>
       <c r="Y144" s="1"/>
     </row>
-    <row r="145" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="12"/>
       <c r="B145" s="12"/>
       <c r="C145" s="12"/>
@@ -5746,7 +5754,7 @@
       <c r="X145" s="1"/>
       <c r="Y145" s="1"/>
     </row>
-    <row r="146" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="12"/>
       <c r="B146" s="12"/>
       <c r="C146" s="12"/>
@@ -5773,7 +5781,7 @@
       <c r="X146" s="1"/>
       <c r="Y146" s="1"/>
     </row>
-    <row r="147" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="12"/>
       <c r="B147" s="12"/>
       <c r="C147" s="12"/>
@@ -5800,7 +5808,7 @@
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
     </row>
-    <row r="148" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="12"/>
       <c r="B148" s="12"/>
       <c r="C148" s="12"/>
@@ -5827,7 +5835,7 @@
       <c r="X148" s="1"/>
       <c r="Y148" s="1"/>
     </row>
-    <row r="149" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="12"/>
       <c r="B149" s="12"/>
       <c r="C149" s="12"/>
@@ -5854,7 +5862,7 @@
       <c r="X149" s="1"/>
       <c r="Y149" s="1"/>
     </row>
-    <row r="150" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="12"/>
       <c r="B150" s="12"/>
       <c r="C150" s="12"/>
@@ -5881,7 +5889,7 @@
       <c r="X150" s="1"/>
       <c r="Y150" s="1"/>
     </row>
-    <row r="151" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="12"/>
       <c r="B151" s="12"/>
       <c r="C151" s="12"/>
@@ -5908,7 +5916,7 @@
       <c r="X151" s="1"/>
       <c r="Y151" s="1"/>
     </row>
-    <row r="152" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="12"/>
       <c r="B152" s="12"/>
       <c r="C152" s="12"/>
@@ -5935,7 +5943,7 @@
       <c r="X152" s="1"/>
       <c r="Y152" s="1"/>
     </row>
-    <row r="153" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="12"/>
       <c r="B153" s="12"/>
       <c r="C153" s="12"/>
@@ -5962,7 +5970,7 @@
       <c r="X153" s="1"/>
       <c r="Y153" s="1"/>
     </row>
-    <row r="154" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="12"/>
       <c r="B154" s="12"/>
       <c r="C154" s="12"/>
@@ -5989,7 +5997,7 @@
       <c r="X154" s="1"/>
       <c r="Y154" s="1"/>
     </row>
-    <row r="155" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="12"/>
       <c r="B155" s="12"/>
       <c r="C155" s="12"/>
@@ -6016,7 +6024,7 @@
       <c r="X155" s="1"/>
       <c r="Y155" s="1"/>
     </row>
-    <row r="156" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="12"/>
       <c r="B156" s="12"/>
       <c r="C156" s="12"/>
@@ -6043,7 +6051,7 @@
       <c r="X156" s="1"/>
       <c r="Y156" s="1"/>
     </row>
-    <row r="157" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="12"/>
       <c r="B157" s="12"/>
       <c r="C157" s="12"/>
@@ -6070,7 +6078,7 @@
       <c r="X157" s="1"/>
       <c r="Y157" s="1"/>
     </row>
-    <row r="158" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="12"/>
       <c r="B158" s="12"/>
       <c r="C158" s="12"/>
@@ -6097,7 +6105,7 @@
       <c r="X158" s="1"/>
       <c r="Y158" s="1"/>
     </row>
-    <row r="159" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="12"/>
       <c r="B159" s="12"/>
       <c r="C159" s="12"/>
@@ -6124,7 +6132,7 @@
       <c r="X159" s="1"/>
       <c r="Y159" s="1"/>
     </row>
-    <row r="160" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="12"/>
       <c r="B160" s="12"/>
       <c r="C160" s="12"/>
@@ -6151,7 +6159,7 @@
       <c r="X160" s="1"/>
       <c r="Y160" s="1"/>
     </row>
-    <row r="161" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="12"/>
       <c r="B161" s="12"/>
       <c r="C161" s="12"/>
@@ -6178,7 +6186,7 @@
       <c r="X161" s="1"/>
       <c r="Y161" s="1"/>
     </row>
-    <row r="162" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="12"/>
       <c r="B162" s="12"/>
       <c r="C162" s="12"/>
@@ -6205,7 +6213,7 @@
       <c r="X162" s="1"/>
       <c r="Y162" s="1"/>
     </row>
-    <row r="163" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="12"/>
       <c r="B163" s="12"/>
       <c r="C163" s="12"/>
@@ -6232,7 +6240,7 @@
       <c r="X163" s="1"/>
       <c r="Y163" s="1"/>
     </row>
-    <row r="164" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="12"/>
       <c r="B164" s="12"/>
       <c r="C164" s="12"/>
@@ -6259,7 +6267,7 @@
       <c r="X164" s="1"/>
       <c r="Y164" s="1"/>
     </row>
-    <row r="165" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="12"/>
       <c r="B165" s="12"/>
       <c r="C165" s="12"/>
@@ -6286,7 +6294,7 @@
       <c r="X165" s="1"/>
       <c r="Y165" s="1"/>
     </row>
-    <row r="166" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="12"/>
       <c r="B166" s="12"/>
       <c r="C166" s="12"/>
@@ -6313,7 +6321,7 @@
       <c r="X166" s="1"/>
       <c r="Y166" s="1"/>
     </row>
-    <row r="167" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="12"/>
       <c r="B167" s="12"/>
       <c r="C167" s="12"/>
@@ -6340,7 +6348,7 @@
       <c r="X167" s="1"/>
       <c r="Y167" s="1"/>
     </row>
-    <row r="168" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="12"/>
       <c r="B168" s="12"/>
       <c r="C168" s="12"/>
@@ -6367,7 +6375,7 @@
       <c r="X168" s="1"/>
       <c r="Y168" s="1"/>
     </row>
-    <row r="169" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="12"/>
       <c r="B169" s="12"/>
       <c r="C169" s="12"/>
@@ -6394,7 +6402,7 @@
       <c r="X169" s="1"/>
       <c r="Y169" s="1"/>
     </row>
-    <row r="170" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="12"/>
       <c r="B170" s="12"/>
       <c r="C170" s="12"/>
@@ -6421,7 +6429,7 @@
       <c r="X170" s="1"/>
       <c r="Y170" s="1"/>
     </row>
-    <row r="171" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="12"/>
       <c r="B171" s="12"/>
       <c r="C171" s="12"/>
@@ -6448,7 +6456,7 @@
       <c r="X171" s="1"/>
       <c r="Y171" s="1"/>
     </row>
-    <row r="172" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="12"/>
       <c r="B172" s="12"/>
       <c r="C172" s="12"/>
@@ -6475,7 +6483,7 @@
       <c r="X172" s="1"/>
       <c r="Y172" s="1"/>
     </row>
-    <row r="173" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="12"/>
       <c r="B173" s="12"/>
       <c r="C173" s="12"/>
@@ -6502,7 +6510,7 @@
       <c r="X173" s="1"/>
       <c r="Y173" s="1"/>
     </row>
-    <row r="174" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="12"/>
       <c r="B174" s="12"/>
       <c r="C174" s="12"/>
@@ -6529,7 +6537,7 @@
       <c r="X174" s="1"/>
       <c r="Y174" s="1"/>
     </row>
-    <row r="175" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="12"/>
       <c r="B175" s="12"/>
       <c r="C175" s="12"/>
@@ -6556,7 +6564,7 @@
       <c r="X175" s="1"/>
       <c r="Y175" s="1"/>
     </row>
-    <row r="176" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="12"/>
       <c r="B176" s="12"/>
       <c r="C176" s="12"/>
@@ -6583,7 +6591,7 @@
       <c r="X176" s="1"/>
       <c r="Y176" s="1"/>
     </row>
-    <row r="177" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="12"/>
       <c r="B177" s="12"/>
       <c r="C177" s="12"/>
@@ -6610,7 +6618,7 @@
       <c r="X177" s="1"/>
       <c r="Y177" s="1"/>
     </row>
-    <row r="178" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="12"/>
       <c r="B178" s="12"/>
       <c r="C178" s="12"/>
@@ -6637,7 +6645,7 @@
       <c r="X178" s="1"/>
       <c r="Y178" s="1"/>
     </row>
-    <row r="179" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="12"/>
       <c r="B179" s="12"/>
       <c r="C179" s="12"/>
@@ -6664,7 +6672,7 @@
       <c r="X179" s="1"/>
       <c r="Y179" s="1"/>
     </row>
-    <row r="180" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="12"/>
       <c r="B180" s="12"/>
       <c r="C180" s="12"/>
@@ -6691,7 +6699,7 @@
       <c r="X180" s="1"/>
       <c r="Y180" s="1"/>
     </row>
-    <row r="181" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="12"/>
       <c r="B181" s="12"/>
       <c r="C181" s="12"/>
@@ -6718,7 +6726,7 @@
       <c r="X181" s="1"/>
       <c r="Y181" s="1"/>
     </row>
-    <row r="182" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="12"/>
       <c r="B182" s="12"/>
       <c r="C182" s="12"/>
@@ -6745,7 +6753,7 @@
       <c r="X182" s="1"/>
       <c r="Y182" s="1"/>
     </row>
-    <row r="183" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="12"/>
       <c r="B183" s="12"/>
       <c r="C183" s="12"/>
@@ -6772,7 +6780,7 @@
       <c r="X183" s="1"/>
       <c r="Y183" s="1"/>
     </row>
-    <row r="184" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="12"/>
       <c r="B184" s="12"/>
       <c r="C184" s="12"/>
@@ -6799,7 +6807,7 @@
       <c r="X184" s="1"/>
       <c r="Y184" s="1"/>
     </row>
-    <row r="185" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="12"/>
       <c r="B185" s="12"/>
       <c r="C185" s="12"/>
@@ -6826,7 +6834,7 @@
       <c r="X185" s="1"/>
       <c r="Y185" s="1"/>
     </row>
-    <row r="186" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="12"/>
       <c r="B186" s="12"/>
       <c r="C186" s="12"/>
@@ -6853,7 +6861,7 @@
       <c r="X186" s="1"/>
       <c r="Y186" s="1"/>
     </row>
-    <row r="187" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="12"/>
       <c r="B187" s="12"/>
       <c r="C187" s="12"/>
@@ -6880,7 +6888,7 @@
       <c r="X187" s="1"/>
       <c r="Y187" s="1"/>
     </row>
-    <row r="188" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="12"/>
       <c r="B188" s="12"/>
       <c r="C188" s="12"/>
@@ -6907,7 +6915,7 @@
       <c r="X188" s="1"/>
       <c r="Y188" s="1"/>
     </row>
-    <row r="189" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="12"/>
       <c r="B189" s="12"/>
       <c r="C189" s="12"/>
@@ -6934,7 +6942,7 @@
       <c r="X189" s="1"/>
       <c r="Y189" s="1"/>
     </row>
-    <row r="190" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="12"/>
       <c r="B190" s="12"/>
       <c r="C190" s="12"/>
@@ -6961,7 +6969,7 @@
       <c r="X190" s="1"/>
       <c r="Y190" s="1"/>
     </row>
-    <row r="191" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="12"/>
       <c r="B191" s="12"/>
       <c r="C191" s="12"/>
@@ -6988,7 +6996,7 @@
       <c r="X191" s="1"/>
       <c r="Y191" s="1"/>
     </row>
-    <row r="192" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="12"/>
       <c r="B192" s="12"/>
       <c r="C192" s="12"/>
@@ -7015,7 +7023,7 @@
       <c r="X192" s="1"/>
       <c r="Y192" s="1"/>
     </row>
-    <row r="193" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="12"/>
       <c r="B193" s="12"/>
       <c r="C193" s="12"/>
@@ -7042,7 +7050,7 @@
       <c r="X193" s="1"/>
       <c r="Y193" s="1"/>
     </row>
-    <row r="194" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="12"/>
       <c r="B194" s="12"/>
       <c r="C194" s="12"/>
@@ -7069,7 +7077,7 @@
       <c r="X194" s="1"/>
       <c r="Y194" s="1"/>
     </row>
-    <row r="195" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="12"/>
       <c r="B195" s="12"/>
       <c r="C195" s="12"/>
@@ -7096,7 +7104,7 @@
       <c r="X195" s="1"/>
       <c r="Y195" s="1"/>
     </row>
-    <row r="196" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="12"/>
       <c r="B196" s="12"/>
       <c r="C196" s="12"/>
@@ -7123,7 +7131,7 @@
       <c r="X196" s="1"/>
       <c r="Y196" s="1"/>
     </row>
-    <row r="197" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="12"/>
       <c r="B197" s="12"/>
       <c r="C197" s="12"/>
@@ -7150,7 +7158,7 @@
       <c r="X197" s="1"/>
       <c r="Y197" s="1"/>
     </row>
-    <row r="198" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="12"/>
       <c r="B198" s="12"/>
       <c r="C198" s="12"/>
@@ -7177,7 +7185,7 @@
       <c r="X198" s="1"/>
       <c r="Y198" s="1"/>
     </row>
-    <row r="199" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="12"/>
       <c r="B199" s="12"/>
       <c r="C199" s="12"/>
@@ -7204,7 +7212,7 @@
       <c r="X199" s="1"/>
       <c r="Y199" s="1"/>
     </row>
-    <row r="200" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="12"/>
       <c r="B200" s="12"/>
       <c r="C200" s="12"/>
@@ -7231,7 +7239,7 @@
       <c r="X200" s="1"/>
       <c r="Y200" s="1"/>
     </row>
-    <row r="201" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="12"/>
       <c r="B201" s="12"/>
       <c r="C201" s="12"/>
@@ -7258,7 +7266,7 @@
       <c r="X201" s="1"/>
       <c r="Y201" s="1"/>
     </row>
-    <row r="202" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="12"/>
       <c r="B202" s="12"/>
       <c r="C202" s="12"/>
@@ -7285,7 +7293,7 @@
       <c r="X202" s="1"/>
       <c r="Y202" s="1"/>
     </row>
-    <row r="203" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="12"/>
       <c r="B203" s="12"/>
       <c r="C203" s="12"/>
@@ -7312,7 +7320,7 @@
       <c r="X203" s="1"/>
       <c r="Y203" s="1"/>
     </row>
-    <row r="204" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="12"/>
       <c r="B204" s="12"/>
       <c r="C204" s="12"/>
@@ -7339,7 +7347,7 @@
       <c r="X204" s="1"/>
       <c r="Y204" s="1"/>
     </row>
-    <row r="205" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="12"/>
       <c r="B205" s="12"/>
       <c r="C205" s="12"/>
@@ -7366,7 +7374,7 @@
       <c r="X205" s="1"/>
       <c r="Y205" s="1"/>
     </row>
-    <row r="206" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="12"/>
       <c r="B206" s="12"/>
       <c r="C206" s="12"/>
@@ -7393,7 +7401,7 @@
       <c r="X206" s="1"/>
       <c r="Y206" s="1"/>
     </row>
-    <row r="207" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="12"/>
       <c r="B207" s="12"/>
       <c r="C207" s="12"/>
@@ -7420,7 +7428,7 @@
       <c r="X207" s="1"/>
       <c r="Y207" s="1"/>
     </row>
-    <row r="208" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="12"/>
       <c r="B208" s="12"/>
       <c r="C208" s="12"/>
@@ -7447,7 +7455,7 @@
       <c r="X208" s="1"/>
       <c r="Y208" s="1"/>
     </row>
-    <row r="209" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="12"/>
       <c r="B209" s="12"/>
       <c r="C209" s="12"/>
@@ -7474,7 +7482,7 @@
       <c r="X209" s="1"/>
       <c r="Y209" s="1"/>
     </row>
-    <row r="210" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="12"/>
       <c r="B210" s="12"/>
       <c r="C210" s="12"/>
@@ -7501,7 +7509,7 @@
       <c r="X210" s="1"/>
       <c r="Y210" s="1"/>
     </row>
-    <row r="211" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="12"/>
       <c r="B211" s="12"/>
       <c r="C211" s="12"/>
@@ -7528,7 +7536,7 @@
       <c r="X211" s="1"/>
       <c r="Y211" s="1"/>
     </row>
-    <row r="212" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="12"/>
       <c r="B212" s="12"/>
       <c r="C212" s="12"/>
@@ -7555,7 +7563,7 @@
       <c r="X212" s="1"/>
       <c r="Y212" s="1"/>
     </row>
-    <row r="213" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="12"/>
       <c r="B213" s="12"/>
       <c r="C213" s="12"/>
@@ -7582,7 +7590,7 @@
       <c r="X213" s="1"/>
       <c r="Y213" s="1"/>
     </row>
-    <row r="214" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="12"/>
       <c r="B214" s="12"/>
       <c r="C214" s="12"/>
@@ -7609,7 +7617,7 @@
       <c r="X214" s="1"/>
       <c r="Y214" s="1"/>
     </row>
-    <row r="215" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="12"/>
       <c r="B215" s="12"/>
       <c r="C215" s="12"/>
@@ -7636,7 +7644,7 @@
       <c r="X215" s="1"/>
       <c r="Y215" s="1"/>
     </row>
-    <row r="216" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="12"/>
       <c r="B216" s="12"/>
       <c r="C216" s="12"/>
@@ -7663,7 +7671,7 @@
       <c r="X216" s="1"/>
       <c r="Y216" s="1"/>
     </row>
-    <row r="217" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="12"/>
       <c r="B217" s="12"/>
       <c r="C217" s="12"/>
@@ -7690,7 +7698,7 @@
       <c r="X217" s="1"/>
       <c r="Y217" s="1"/>
     </row>
-    <row r="218" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="12"/>
       <c r="B218" s="12"/>
       <c r="C218" s="12"/>
@@ -7717,7 +7725,7 @@
       <c r="X218" s="1"/>
       <c r="Y218" s="1"/>
     </row>
-    <row r="219" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A219" s="12"/>
       <c r="B219" s="12"/>
       <c r="C219" s="12"/>
@@ -7744,7 +7752,7 @@
       <c r="X219" s="1"/>
       <c r="Y219" s="1"/>
     </row>
-    <row r="220" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="12"/>
       <c r="B220" s="12"/>
       <c r="C220" s="12"/>
@@ -7771,7 +7779,7 @@
       <c r="X220" s="1"/>
       <c r="Y220" s="1"/>
     </row>
-    <row r="221" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="12"/>
       <c r="B221" s="12"/>
       <c r="C221" s="12"/>
@@ -7798,7 +7806,7 @@
       <c r="X221" s="1"/>
       <c r="Y221" s="1"/>
     </row>
-    <row r="222" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="12"/>
       <c r="B222" s="12"/>
       <c r="C222" s="12"/>
@@ -7825,7 +7833,7 @@
       <c r="X222" s="1"/>
       <c r="Y222" s="1"/>
     </row>
-    <row r="223" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A223" s="12"/>
       <c r="B223" s="12"/>
       <c r="C223" s="12"/>
@@ -7852,7 +7860,7 @@
       <c r="X223" s="1"/>
       <c r="Y223" s="1"/>
     </row>
-    <row r="224" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="12"/>
       <c r="B224" s="12"/>
       <c r="C224" s="12"/>
@@ -7879,7 +7887,7 @@
       <c r="X224" s="1"/>
       <c r="Y224" s="1"/>
     </row>
-    <row r="225" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="12"/>
       <c r="B225" s="12"/>
       <c r="C225" s="12"/>
@@ -7906,7 +7914,7 @@
       <c r="X225" s="1"/>
       <c r="Y225" s="1"/>
     </row>
-    <row r="226" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" s="12"/>
       <c r="B226" s="12"/>
       <c r="C226" s="12"/>
@@ -7933,7 +7941,7 @@
       <c r="X226" s="1"/>
       <c r="Y226" s="1"/>
     </row>
-    <row r="227" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="12"/>
       <c r="B227" s="12"/>
       <c r="C227" s="12"/>
@@ -7960,7 +7968,7 @@
       <c r="X227" s="1"/>
       <c r="Y227" s="1"/>
     </row>
-    <row r="228" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A228" s="12"/>
       <c r="B228" s="12"/>
       <c r="C228" s="12"/>
@@ -7987,7 +7995,7 @@
       <c r="X228" s="1"/>
       <c r="Y228" s="1"/>
     </row>
-    <row r="229" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A229" s="12"/>
       <c r="B229" s="12"/>
       <c r="C229" s="12"/>
@@ -8014,7 +8022,7 @@
       <c r="X229" s="1"/>
       <c r="Y229" s="1"/>
     </row>
-    <row r="230" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A230" s="12"/>
       <c r="B230" s="12"/>
       <c r="C230" s="12"/>
@@ -8041,7 +8049,7 @@
       <c r="X230" s="1"/>
       <c r="Y230" s="1"/>
     </row>
-    <row r="231" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A231" s="12"/>
       <c r="B231" s="12"/>
       <c r="C231" s="12"/>
@@ -8068,7 +8076,7 @@
       <c r="X231" s="1"/>
       <c r="Y231" s="1"/>
     </row>
-    <row r="232" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A232" s="12"/>
       <c r="B232" s="12"/>
       <c r="C232" s="12"/>
@@ -8095,7 +8103,7 @@
       <c r="X232" s="1"/>
       <c r="Y232" s="1"/>
     </row>
-    <row r="233" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A233" s="12"/>
       <c r="B233" s="12"/>
       <c r="C233" s="12"/>
@@ -8122,7 +8130,7 @@
       <c r="X233" s="1"/>
       <c r="Y233" s="1"/>
     </row>
-    <row r="234" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A234" s="12"/>
       <c r="B234" s="12"/>
       <c r="C234" s="12"/>
@@ -8149,7 +8157,7 @@
       <c r="X234" s="1"/>
       <c r="Y234" s="1"/>
     </row>
-    <row r="235" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A235" s="12"/>
       <c r="B235" s="12"/>
       <c r="C235" s="12"/>
@@ -8176,7 +8184,7 @@
       <c r="X235" s="1"/>
       <c r="Y235" s="1"/>
     </row>
-    <row r="236" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A236" s="12"/>
       <c r="B236" s="12"/>
       <c r="C236" s="12"/>
@@ -8203,7 +8211,7 @@
       <c r="X236" s="1"/>
       <c r="Y236" s="1"/>
     </row>
-    <row r="237" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="12"/>
       <c r="B237" s="12"/>
       <c r="C237" s="12"/>
@@ -8230,7 +8238,7 @@
       <c r="X237" s="1"/>
       <c r="Y237" s="1"/>
     </row>
-    <row r="238" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="12"/>
       <c r="B238" s="12"/>
       <c r="C238" s="12"/>
@@ -8257,7 +8265,7 @@
       <c r="X238" s="1"/>
       <c r="Y238" s="1"/>
     </row>
-    <row r="239" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="12"/>
       <c r="B239" s="12"/>
       <c r="C239" s="12"/>
@@ -8284,7 +8292,7 @@
       <c r="X239" s="1"/>
       <c r="Y239" s="1"/>
     </row>
-    <row r="240" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A240" s="12"/>
       <c r="B240" s="12"/>
       <c r="C240" s="12"/>
@@ -8311,7 +8319,7 @@
       <c r="X240" s="1"/>
       <c r="Y240" s="1"/>
     </row>
-    <row r="241" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" s="12"/>
       <c r="B241" s="12"/>
       <c r="C241" s="12"/>
@@ -8338,7 +8346,7 @@
       <c r="X241" s="1"/>
       <c r="Y241" s="1"/>
     </row>
-    <row r="242" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" s="12"/>
       <c r="B242" s="12"/>
       <c r="C242" s="12"/>
@@ -8365,7 +8373,7 @@
       <c r="X242" s="1"/>
       <c r="Y242" s="1"/>
     </row>
-    <row r="243" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A243" s="12"/>
       <c r="B243" s="12"/>
       <c r="C243" s="12"/>
@@ -8392,7 +8400,7 @@
       <c r="X243" s="1"/>
       <c r="Y243" s="1"/>
     </row>
-    <row r="244" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A244" s="12"/>
       <c r="B244" s="12"/>
       <c r="C244" s="12"/>
@@ -8419,7 +8427,7 @@
       <c r="X244" s="1"/>
       <c r="Y244" s="1"/>
     </row>
-    <row r="245" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A245" s="12"/>
       <c r="B245" s="12"/>
       <c r="C245" s="12"/>
@@ -8446,7 +8454,7 @@
       <c r="X245" s="1"/>
       <c r="Y245" s="1"/>
     </row>
-    <row r="246" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A246" s="12"/>
       <c r="B246" s="12"/>
       <c r="C246" s="12"/>
@@ -8473,7 +8481,7 @@
       <c r="X246" s="1"/>
       <c r="Y246" s="1"/>
     </row>
-    <row r="247" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" s="12"/>
       <c r="B247" s="12"/>
       <c r="C247" s="12"/>
@@ -8500,7 +8508,7 @@
       <c r="X247" s="1"/>
       <c r="Y247" s="1"/>
     </row>
-    <row r="248" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A248" s="12"/>
       <c r="B248" s="12"/>
       <c r="C248" s="12"/>
@@ -8527,7 +8535,7 @@
       <c r="X248" s="1"/>
       <c r="Y248" s="1"/>
     </row>
-    <row r="249" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" s="12"/>
       <c r="B249" s="12"/>
       <c r="C249" s="12"/>
@@ -8554,7 +8562,7 @@
       <c r="X249" s="1"/>
       <c r="Y249" s="1"/>
     </row>
-    <row r="250" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" s="12"/>
       <c r="B250" s="12"/>
       <c r="C250" s="12"/>
@@ -8581,7 +8589,7 @@
       <c r="X250" s="1"/>
       <c r="Y250" s="1"/>
     </row>
-    <row r="251" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A251" s="12"/>
       <c r="B251" s="12"/>
       <c r="C251" s="12"/>
@@ -8608,7 +8616,7 @@
       <c r="X251" s="1"/>
       <c r="Y251" s="1"/>
     </row>
-    <row r="252" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A252" s="12"/>
       <c r="B252" s="12"/>
       <c r="C252" s="12"/>
@@ -8635,7 +8643,7 @@
       <c r="X252" s="1"/>
       <c r="Y252" s="1"/>
     </row>
-    <row r="253" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" s="12"/>
       <c r="B253" s="12"/>
       <c r="C253" s="12"/>
@@ -8662,7 +8670,7 @@
       <c r="X253" s="1"/>
       <c r="Y253" s="1"/>
     </row>
-    <row r="254" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" s="12"/>
       <c r="B254" s="12"/>
       <c r="C254" s="12"/>
@@ -8689,7 +8697,7 @@
       <c r="X254" s="1"/>
       <c r="Y254" s="1"/>
     </row>
-    <row r="255" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A255" s="12"/>
       <c r="B255" s="12"/>
       <c r="C255" s="12"/>
@@ -8716,7 +8724,7 @@
       <c r="X255" s="1"/>
       <c r="Y255" s="1"/>
     </row>
-    <row r="256" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A256" s="12"/>
       <c r="B256" s="12"/>
       <c r="C256" s="12"/>
@@ -8743,7 +8751,7 @@
       <c r="X256" s="1"/>
       <c r="Y256" s="1"/>
     </row>
-    <row r="257" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" s="12"/>
       <c r="B257" s="12"/>
       <c r="C257" s="12"/>
@@ -8770,7 +8778,7 @@
       <c r="X257" s="1"/>
       <c r="Y257" s="1"/>
     </row>
-    <row r="258" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A258" s="12"/>
       <c r="B258" s="12"/>
       <c r="C258" s="12"/>
@@ -8797,7 +8805,7 @@
       <c r="X258" s="1"/>
       <c r="Y258" s="1"/>
     </row>
-    <row r="259" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A259" s="12"/>
       <c r="B259" s="12"/>
       <c r="C259" s="12"/>
@@ -8824,7 +8832,7 @@
       <c r="X259" s="1"/>
       <c r="Y259" s="1"/>
     </row>
-    <row r="260" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A260" s="12"/>
       <c r="B260" s="12"/>
       <c r="C260" s="12"/>
@@ -8851,7 +8859,7 @@
       <c r="X260" s="1"/>
       <c r="Y260" s="1"/>
     </row>
-    <row r="261" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A261" s="12"/>
       <c r="B261" s="12"/>
       <c r="C261" s="12"/>
@@ -8878,7 +8886,7 @@
       <c r="X261" s="1"/>
       <c r="Y261" s="1"/>
     </row>
-    <row r="262" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" s="12"/>
       <c r="B262" s="12"/>
       <c r="C262" s="12"/>
@@ -8905,7 +8913,7 @@
       <c r="X262" s="1"/>
       <c r="Y262" s="1"/>
     </row>
-    <row r="263" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A263" s="12"/>
       <c r="B263" s="12"/>
       <c r="C263" s="12"/>
@@ -8932,7 +8940,7 @@
       <c r="X263" s="1"/>
       <c r="Y263" s="1"/>
     </row>
-    <row r="264" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" s="12"/>
       <c r="B264" s="12"/>
       <c r="C264" s="12"/>
@@ -8959,7 +8967,7 @@
       <c r="X264" s="1"/>
       <c r="Y264" s="1"/>
     </row>
-    <row r="265" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" s="12"/>
       <c r="B265" s="12"/>
       <c r="C265" s="12"/>
@@ -8986,7 +8994,7 @@
       <c r="X265" s="1"/>
       <c r="Y265" s="1"/>
     </row>
-    <row r="266" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" s="12"/>
       <c r="B266" s="12"/>
       <c r="C266" s="12"/>
@@ -9013,7 +9021,7 @@
       <c r="X266" s="1"/>
       <c r="Y266" s="1"/>
     </row>
-    <row r="267" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A267" s="12"/>
       <c r="B267" s="12"/>
       <c r="C267" s="12"/>
@@ -9040,7 +9048,7 @@
       <c r="X267" s="1"/>
       <c r="Y267" s="1"/>
     </row>
-    <row r="268" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" s="12"/>
       <c r="B268" s="12"/>
       <c r="C268" s="12"/>
@@ -9067,7 +9075,7 @@
       <c r="X268" s="1"/>
       <c r="Y268" s="1"/>
     </row>
-    <row r="269" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A269" s="12"/>
       <c r="B269" s="12"/>
       <c r="C269" s="12"/>
@@ -9094,7 +9102,7 @@
       <c r="X269" s="1"/>
       <c r="Y269" s="1"/>
     </row>
-    <row r="270" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A270" s="12"/>
       <c r="B270" s="12"/>
       <c r="C270" s="12"/>
@@ -9121,7 +9129,7 @@
       <c r="X270" s="1"/>
       <c r="Y270" s="1"/>
     </row>
-    <row r="271" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A271" s="12"/>
       <c r="B271" s="12"/>
       <c r="C271" s="12"/>
@@ -9148,7 +9156,7 @@
       <c r="X271" s="1"/>
       <c r="Y271" s="1"/>
     </row>
-    <row r="272" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A272" s="12"/>
       <c r="B272" s="12"/>
       <c r="C272" s="12"/>
@@ -9175,7 +9183,7 @@
       <c r="X272" s="1"/>
       <c r="Y272" s="1"/>
     </row>
-    <row r="273" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="12"/>
       <c r="B273" s="12"/>
       <c r="C273" s="12"/>
@@ -9202,7 +9210,7 @@
       <c r="X273" s="1"/>
       <c r="Y273" s="1"/>
     </row>
-    <row r="274" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" s="12"/>
       <c r="B274" s="12"/>
       <c r="C274" s="12"/>
@@ -9229,7 +9237,7 @@
       <c r="X274" s="1"/>
       <c r="Y274" s="1"/>
     </row>
-    <row r="275" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" s="12"/>
       <c r="B275" s="12"/>
       <c r="C275" s="12"/>
@@ -9256,7 +9264,7 @@
       <c r="X275" s="1"/>
       <c r="Y275" s="1"/>
     </row>
-    <row r="276" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A276" s="12"/>
       <c r="B276" s="12"/>
       <c r="C276" s="12"/>
@@ -9283,7 +9291,7 @@
       <c r="X276" s="1"/>
       <c r="Y276" s="1"/>
     </row>
-    <row r="277" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A277" s="12"/>
       <c r="B277" s="12"/>
       <c r="C277" s="12"/>
@@ -9310,7 +9318,7 @@
       <c r="X277" s="1"/>
       <c r="Y277" s="1"/>
     </row>
-    <row r="278" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A278" s="12"/>
       <c r="B278" s="12"/>
       <c r="C278" s="12"/>
@@ -9337,7 +9345,7 @@
       <c r="X278" s="1"/>
       <c r="Y278" s="1"/>
     </row>
-    <row r="279" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A279" s="12"/>
       <c r="B279" s="12"/>
       <c r="C279" s="12"/>
@@ -9364,7 +9372,7 @@
       <c r="X279" s="1"/>
       <c r="Y279" s="1"/>
     </row>
-    <row r="280" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A280" s="12"/>
       <c r="B280" s="12"/>
       <c r="C280" s="12"/>
@@ -9391,7 +9399,7 @@
       <c r="X280" s="1"/>
       <c r="Y280" s="1"/>
     </row>
-    <row r="281" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A281" s="12"/>
       <c r="B281" s="12"/>
       <c r="C281" s="12"/>
@@ -9418,7 +9426,7 @@
       <c r="X281" s="1"/>
       <c r="Y281" s="1"/>
     </row>
-    <row r="282" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A282" s="12"/>
       <c r="B282" s="12"/>
       <c r="C282" s="12"/>
@@ -9445,7 +9453,7 @@
       <c r="X282" s="1"/>
       <c r="Y282" s="1"/>
     </row>
-    <row r="283" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A283" s="12"/>
       <c r="B283" s="12"/>
       <c r="C283" s="12"/>
@@ -9472,7 +9480,7 @@
       <c r="X283" s="1"/>
       <c r="Y283" s="1"/>
     </row>
-    <row r="284" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A284" s="12"/>
       <c r="B284" s="12"/>
       <c r="C284" s="12"/>
@@ -9499,7 +9507,7 @@
       <c r="X284" s="1"/>
       <c r="Y284" s="1"/>
     </row>
-    <row r="285" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A285" s="12"/>
       <c r="B285" s="12"/>
       <c r="C285" s="12"/>
@@ -9526,7 +9534,7 @@
       <c r="X285" s="1"/>
       <c r="Y285" s="1"/>
     </row>
-    <row r="286" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A286" s="12"/>
       <c r="B286" s="12"/>
       <c r="C286" s="12"/>
@@ -9553,7 +9561,7 @@
       <c r="X286" s="1"/>
       <c r="Y286" s="1"/>
     </row>
-    <row r="287" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A287" s="12"/>
       <c r="B287" s="12"/>
       <c r="C287" s="12"/>
@@ -9580,7 +9588,7 @@
       <c r="X287" s="1"/>
       <c r="Y287" s="1"/>
     </row>
-    <row r="288" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A288" s="12"/>
       <c r="B288" s="12"/>
       <c r="C288" s="12"/>
@@ -9607,7 +9615,7 @@
       <c r="X288" s="1"/>
       <c r="Y288" s="1"/>
     </row>
-    <row r="289" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A289" s="12"/>
       <c r="B289" s="12"/>
       <c r="C289" s="12"/>
@@ -9634,7 +9642,7 @@
       <c r="X289" s="1"/>
       <c r="Y289" s="1"/>
     </row>
-    <row r="290" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A290" s="12"/>
       <c r="B290" s="12"/>
       <c r="C290" s="12"/>
@@ -9661,7 +9669,7 @@
       <c r="X290" s="1"/>
       <c r="Y290" s="1"/>
     </row>
-    <row r="291" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A291" s="12"/>
       <c r="B291" s="12"/>
       <c r="C291" s="12"/>
@@ -9688,7 +9696,7 @@
       <c r="X291" s="1"/>
       <c r="Y291" s="1"/>
     </row>
-    <row r="292" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A292" s="12"/>
       <c r="B292" s="12"/>
       <c r="C292" s="12"/>
@@ -9715,7 +9723,7 @@
       <c r="X292" s="1"/>
       <c r="Y292" s="1"/>
     </row>
-    <row r="293" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A293" s="12"/>
       <c r="B293" s="12"/>
       <c r="C293" s="12"/>
@@ -9742,7 +9750,7 @@
       <c r="X293" s="1"/>
       <c r="Y293" s="1"/>
     </row>
-    <row r="294" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A294" s="12"/>
       <c r="B294" s="12"/>
       <c r="C294" s="12"/>
@@ -9769,7 +9777,7 @@
       <c r="X294" s="1"/>
       <c r="Y294" s="1"/>
     </row>
-    <row r="295" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A295" s="12"/>
       <c r="B295" s="12"/>
       <c r="C295" s="12"/>
@@ -9796,7 +9804,7 @@
       <c r="X295" s="1"/>
       <c r="Y295" s="1"/>
     </row>
-    <row r="296" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A296" s="12"/>
       <c r="B296" s="12"/>
       <c r="C296" s="12"/>
@@ -9823,7 +9831,7 @@
       <c r="X296" s="1"/>
       <c r="Y296" s="1"/>
     </row>
-    <row r="297" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A297" s="12"/>
       <c r="B297" s="12"/>
       <c r="C297" s="12"/>
@@ -9850,7 +9858,7 @@
       <c r="X297" s="1"/>
       <c r="Y297" s="1"/>
     </row>
-    <row r="298" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A298" s="12"/>
       <c r="B298" s="12"/>
       <c r="C298" s="12"/>
@@ -9877,7 +9885,7 @@
       <c r="X298" s="1"/>
       <c r="Y298" s="1"/>
     </row>
-    <row r="299" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A299" s="12"/>
       <c r="B299" s="12"/>
       <c r="C299" s="12"/>
@@ -9904,7 +9912,7 @@
       <c r="X299" s="1"/>
       <c r="Y299" s="1"/>
     </row>
-    <row r="300" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A300" s="12"/>
       <c r="B300" s="12"/>
       <c r="C300" s="12"/>
@@ -9931,7 +9939,7 @@
       <c r="X300" s="1"/>
       <c r="Y300" s="1"/>
     </row>
-    <row r="301" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A301" s="12"/>
       <c r="B301" s="12"/>
       <c r="C301" s="12"/>
@@ -9958,7 +9966,7 @@
       <c r="X301" s="1"/>
       <c r="Y301" s="1"/>
     </row>
-    <row r="302" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A302" s="12"/>
       <c r="B302" s="12"/>
       <c r="C302" s="12"/>
@@ -9985,7 +9993,7 @@
       <c r="X302" s="1"/>
       <c r="Y302" s="1"/>
     </row>
-    <row r="303" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A303" s="12"/>
       <c r="B303" s="12"/>
       <c r="C303" s="12"/>
@@ -10012,7 +10020,7 @@
       <c r="X303" s="1"/>
       <c r="Y303" s="1"/>
     </row>
-    <row r="304" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A304" s="12"/>
       <c r="B304" s="12"/>
       <c r="C304" s="12"/>
@@ -10039,7 +10047,7 @@
       <c r="X304" s="1"/>
       <c r="Y304" s="1"/>
     </row>
-    <row r="305" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A305" s="12"/>
       <c r="B305" s="12"/>
       <c r="C305" s="12"/>
@@ -10066,7 +10074,7 @@
       <c r="X305" s="1"/>
       <c r="Y305" s="1"/>
     </row>
-    <row r="306" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A306" s="12"/>
       <c r="B306" s="12"/>
       <c r="C306" s="12"/>
@@ -10093,7 +10101,7 @@
       <c r="X306" s="1"/>
       <c r="Y306" s="1"/>
     </row>
-    <row r="307" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A307" s="12"/>
       <c r="B307" s="12"/>
       <c r="C307" s="12"/>
@@ -10120,7 +10128,7 @@
       <c r="X307" s="1"/>
       <c r="Y307" s="1"/>
     </row>
-    <row r="308" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A308" s="12"/>
       <c r="B308" s="12"/>
       <c r="C308" s="12"/>
@@ -10147,7 +10155,7 @@
       <c r="X308" s="1"/>
       <c r="Y308" s="1"/>
     </row>
-    <row r="309" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A309" s="12"/>
       <c r="B309" s="12"/>
       <c r="C309" s="12"/>
@@ -10174,7 +10182,7 @@
       <c r="X309" s="1"/>
       <c r="Y309" s="1"/>
     </row>
-    <row r="310" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A310" s="12"/>
       <c r="B310" s="12"/>
       <c r="C310" s="12"/>
@@ -10201,7 +10209,7 @@
       <c r="X310" s="1"/>
       <c r="Y310" s="1"/>
     </row>
-    <row r="311" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A311" s="12"/>
       <c r="B311" s="12"/>
       <c r="C311" s="12"/>
@@ -10228,7 +10236,7 @@
       <c r="X311" s="1"/>
       <c r="Y311" s="1"/>
     </row>
-    <row r="312" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A312" s="12"/>
       <c r="B312" s="12"/>
       <c r="C312" s="12"/>
@@ -10255,7 +10263,7 @@
       <c r="X312" s="1"/>
       <c r="Y312" s="1"/>
     </row>
-    <row r="313" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A313" s="12"/>
       <c r="B313" s="12"/>
       <c r="C313" s="12"/>
@@ -10282,7 +10290,7 @@
       <c r="X313" s="1"/>
       <c r="Y313" s="1"/>
     </row>
-    <row r="314" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A314" s="12"/>
       <c r="B314" s="12"/>
       <c r="C314" s="12"/>
@@ -10309,7 +10317,7 @@
       <c r="X314" s="1"/>
       <c r="Y314" s="1"/>
     </row>
-    <row r="315" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A315" s="12"/>
       <c r="B315" s="12"/>
       <c r="C315" s="12"/>
@@ -10336,7 +10344,7 @@
       <c r="X315" s="1"/>
       <c r="Y315" s="1"/>
     </row>
-    <row r="316" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A316" s="12"/>
       <c r="B316" s="12"/>
       <c r="C316" s="12"/>
@@ -10363,7 +10371,7 @@
       <c r="X316" s="1"/>
       <c r="Y316" s="1"/>
     </row>
-    <row r="317" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A317" s="12"/>
       <c r="B317" s="12"/>
       <c r="C317" s="12"/>
@@ -10390,7 +10398,7 @@
       <c r="X317" s="1"/>
       <c r="Y317" s="1"/>
     </row>
-    <row r="318" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A318" s="12"/>
       <c r="B318" s="12"/>
       <c r="C318" s="12"/>
@@ -10417,7 +10425,7 @@
       <c r="X318" s="1"/>
       <c r="Y318" s="1"/>
     </row>
-    <row r="319" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A319" s="12"/>
       <c r="B319" s="12"/>
       <c r="C319" s="12"/>
@@ -10444,7 +10452,7 @@
       <c r="X319" s="1"/>
       <c r="Y319" s="1"/>
     </row>
-    <row r="320" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A320" s="12"/>
       <c r="B320" s="12"/>
       <c r="C320" s="12"/>
@@ -10471,7 +10479,7 @@
       <c r="X320" s="1"/>
       <c r="Y320" s="1"/>
     </row>
-    <row r="321" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A321" s="12"/>
       <c r="B321" s="12"/>
       <c r="C321" s="12"/>
@@ -10498,7 +10506,7 @@
       <c r="X321" s="1"/>
       <c r="Y321" s="1"/>
     </row>
-    <row r="322" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A322" s="12"/>
       <c r="B322" s="12"/>
       <c r="C322" s="12"/>
@@ -10525,7 +10533,7 @@
       <c r="X322" s="1"/>
       <c r="Y322" s="1"/>
     </row>
-    <row r="323" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A323" s="12"/>
       <c r="B323" s="12"/>
       <c r="C323" s="12"/>
@@ -10552,7 +10560,7 @@
       <c r="X323" s="1"/>
       <c r="Y323" s="1"/>
     </row>
-    <row r="324" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A324" s="12"/>
       <c r="B324" s="12"/>
       <c r="C324" s="12"/>
@@ -10579,7 +10587,7 @@
       <c r="X324" s="1"/>
       <c r="Y324" s="1"/>
     </row>
-    <row r="325" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A325" s="12"/>
       <c r="B325" s="12"/>
       <c r="C325" s="12"/>
@@ -10606,7 +10614,7 @@
       <c r="X325" s="1"/>
       <c r="Y325" s="1"/>
     </row>
-    <row r="326" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A326" s="12"/>
       <c r="B326" s="12"/>
       <c r="C326" s="12"/>
@@ -10633,7 +10641,7 @@
       <c r="X326" s="1"/>
       <c r="Y326" s="1"/>
     </row>
-    <row r="327" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A327" s="12"/>
       <c r="B327" s="12"/>
       <c r="C327" s="12"/>
@@ -10660,7 +10668,7 @@
       <c r="X327" s="1"/>
       <c r="Y327" s="1"/>
     </row>
-    <row r="328" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A328" s="12"/>
       <c r="B328" s="12"/>
       <c r="C328" s="12"/>
@@ -10687,7 +10695,7 @@
       <c r="X328" s="1"/>
       <c r="Y328" s="1"/>
     </row>
-    <row r="329" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A329" s="12"/>
       <c r="B329" s="12"/>
       <c r="C329" s="12"/>
@@ -10714,7 +10722,7 @@
       <c r="X329" s="1"/>
       <c r="Y329" s="1"/>
     </row>
-    <row r="330" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A330" s="12"/>
       <c r="B330" s="12"/>
       <c r="C330" s="12"/>
@@ -10741,7 +10749,7 @@
       <c r="X330" s="1"/>
       <c r="Y330" s="1"/>
     </row>
-    <row r="331" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A331" s="12"/>
       <c r="B331" s="12"/>
       <c r="C331" s="12"/>
@@ -10768,7 +10776,7 @@
       <c r="X331" s="1"/>
       <c r="Y331" s="1"/>
     </row>
-    <row r="332" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A332" s="12"/>
       <c r="B332" s="12"/>
       <c r="C332" s="12"/>
@@ -10795,7 +10803,7 @@
       <c r="X332" s="1"/>
       <c r="Y332" s="1"/>
     </row>
-    <row r="333" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A333" s="12"/>
       <c r="B333" s="12"/>
       <c r="C333" s="12"/>
@@ -10822,7 +10830,7 @@
       <c r="X333" s="1"/>
       <c r="Y333" s="1"/>
     </row>
-    <row r="334" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A334" s="12"/>
       <c r="B334" s="12"/>
       <c r="C334" s="12"/>
@@ -10849,7 +10857,7 @@
       <c r="X334" s="1"/>
       <c r="Y334" s="1"/>
     </row>
-    <row r="335" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A335" s="12"/>
       <c r="B335" s="12"/>
       <c r="C335" s="12"/>
@@ -10876,7 +10884,7 @@
       <c r="X335" s="1"/>
       <c r="Y335" s="1"/>
     </row>
-    <row r="336" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A336" s="12"/>
       <c r="B336" s="12"/>
       <c r="C336" s="12"/>
@@ -10903,7 +10911,7 @@
       <c r="X336" s="1"/>
       <c r="Y336" s="1"/>
     </row>
-    <row r="337" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A337" s="12"/>
       <c r="B337" s="12"/>
       <c r="C337" s="12"/>
@@ -10930,7 +10938,7 @@
       <c r="X337" s="1"/>
       <c r="Y337" s="1"/>
     </row>
-    <row r="338" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A338" s="12"/>
       <c r="B338" s="12"/>
       <c r="C338" s="12"/>
@@ -10957,7 +10965,7 @@
       <c r="X338" s="1"/>
       <c r="Y338" s="1"/>
     </row>
-    <row r="339" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A339" s="12"/>
       <c r="B339" s="12"/>
       <c r="C339" s="12"/>
@@ -10984,7 +10992,7 @@
       <c r="X339" s="1"/>
       <c r="Y339" s="1"/>
     </row>
-    <row r="340" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A340" s="12"/>
       <c r="B340" s="12"/>
       <c r="C340" s="12"/>
@@ -11011,7 +11019,7 @@
       <c r="X340" s="1"/>
       <c r="Y340" s="1"/>
     </row>
-    <row r="341" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A341" s="12"/>
       <c r="B341" s="12"/>
       <c r="C341" s="12"/>
@@ -11038,7 +11046,7 @@
       <c r="X341" s="1"/>
       <c r="Y341" s="1"/>
     </row>
-    <row r="342" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A342" s="12"/>
       <c r="B342" s="12"/>
       <c r="C342" s="12"/>
@@ -11065,7 +11073,7 @@
       <c r="X342" s="1"/>
       <c r="Y342" s="1"/>
     </row>
-    <row r="343" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A343" s="12"/>
       <c r="B343" s="12"/>
       <c r="C343" s="12"/>
@@ -11092,7 +11100,7 @@
       <c r="X343" s="1"/>
       <c r="Y343" s="1"/>
     </row>
-    <row r="344" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A344" s="12"/>
       <c r="B344" s="12"/>
       <c r="C344" s="12"/>
@@ -11119,7 +11127,7 @@
       <c r="X344" s="1"/>
       <c r="Y344" s="1"/>
     </row>
-    <row r="345" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A345" s="12"/>
       <c r="B345" s="12"/>
       <c r="C345" s="12"/>
@@ -11146,7 +11154,7 @@
       <c r="X345" s="1"/>
       <c r="Y345" s="1"/>
     </row>
-    <row r="346" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A346" s="12"/>
       <c r="B346" s="12"/>
       <c r="C346" s="12"/>
@@ -11173,7 +11181,7 @@
       <c r="X346" s="1"/>
       <c r="Y346" s="1"/>
     </row>
-    <row r="347" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A347" s="12"/>
       <c r="B347" s="12"/>
       <c r="C347" s="12"/>
@@ -11200,7 +11208,7 @@
       <c r="X347" s="1"/>
       <c r="Y347" s="1"/>
     </row>
-    <row r="348" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A348" s="12"/>
       <c r="B348" s="12"/>
       <c r="C348" s="12"/>
@@ -11227,7 +11235,7 @@
       <c r="X348" s="1"/>
       <c r="Y348" s="1"/>
     </row>
-    <row r="349" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A349" s="12"/>
       <c r="B349" s="12"/>
       <c r="C349" s="12"/>
@@ -11254,7 +11262,7 @@
       <c r="X349" s="1"/>
       <c r="Y349" s="1"/>
     </row>
-    <row r="350" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A350" s="12"/>
       <c r="B350" s="12"/>
       <c r="C350" s="12"/>
@@ -11281,7 +11289,7 @@
       <c r="X350" s="1"/>
       <c r="Y350" s="1"/>
     </row>
-    <row r="351" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A351" s="12"/>
       <c r="B351" s="12"/>
       <c r="C351" s="12"/>
@@ -11308,7 +11316,7 @@
       <c r="X351" s="1"/>
       <c r="Y351" s="1"/>
     </row>
-    <row r="352" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A352" s="12"/>
       <c r="B352" s="12"/>
       <c r="C352" s="12"/>
@@ -11335,7 +11343,7 @@
       <c r="X352" s="1"/>
       <c r="Y352" s="1"/>
     </row>
-    <row r="353" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A353" s="12"/>
       <c r="B353" s="12"/>
       <c r="C353" s="12"/>
@@ -11362,7 +11370,7 @@
       <c r="X353" s="1"/>
       <c r="Y353" s="1"/>
     </row>
-    <row r="354" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A354" s="12"/>
       <c r="B354" s="12"/>
       <c r="C354" s="12"/>
@@ -11389,7 +11397,7 @@
       <c r="X354" s="1"/>
       <c r="Y354" s="1"/>
     </row>
-    <row r="355" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A355" s="12"/>
       <c r="B355" s="12"/>
       <c r="C355" s="12"/>
@@ -11416,7 +11424,7 @@
       <c r="X355" s="1"/>
       <c r="Y355" s="1"/>
     </row>
-    <row r="356" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A356" s="12"/>
       <c r="B356" s="12"/>
       <c r="C356" s="12"/>
@@ -11443,7 +11451,7 @@
       <c r="X356" s="1"/>
       <c r="Y356" s="1"/>
     </row>
-    <row r="357" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A357" s="12"/>
       <c r="B357" s="12"/>
       <c r="C357" s="12"/>
@@ -11470,7 +11478,7 @@
       <c r="X357" s="1"/>
       <c r="Y357" s="1"/>
     </row>
-    <row r="358" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A358" s="12"/>
       <c r="B358" s="12"/>
       <c r="C358" s="12"/>
@@ -11497,7 +11505,7 @@
       <c r="X358" s="1"/>
       <c r="Y358" s="1"/>
     </row>
-    <row r="359" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A359" s="12"/>
       <c r="B359" s="12"/>
       <c r="C359" s="12"/>
@@ -11524,7 +11532,7 @@
       <c r="X359" s="1"/>
       <c r="Y359" s="1"/>
     </row>
-    <row r="360" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A360" s="12"/>
       <c r="B360" s="12"/>
       <c r="C360" s="12"/>
@@ -11551,7 +11559,7 @@
       <c r="X360" s="1"/>
       <c r="Y360" s="1"/>
     </row>
-    <row r="361" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A361" s="12"/>
       <c r="B361" s="12"/>
       <c r="C361" s="12"/>
@@ -11578,7 +11586,7 @@
       <c r="X361" s="1"/>
       <c r="Y361" s="1"/>
     </row>
-    <row r="362" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A362" s="12"/>
       <c r="B362" s="12"/>
       <c r="C362" s="12"/>
@@ -11605,7 +11613,7 @@
       <c r="X362" s="1"/>
       <c r="Y362" s="1"/>
     </row>
-    <row r="363" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A363" s="12"/>
       <c r="B363" s="12"/>
       <c r="C363" s="12"/>
@@ -11632,7 +11640,7 @@
       <c r="X363" s="1"/>
       <c r="Y363" s="1"/>
     </row>
-    <row r="364" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A364" s="12"/>
       <c r="B364" s="12"/>
       <c r="C364" s="12"/>
@@ -11659,7 +11667,7 @@
       <c r="X364" s="1"/>
       <c r="Y364" s="1"/>
     </row>
-    <row r="365" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A365" s="12"/>
       <c r="B365" s="12"/>
       <c r="C365" s="12"/>
@@ -11686,7 +11694,7 @@
       <c r="X365" s="1"/>
       <c r="Y365" s="1"/>
     </row>
-    <row r="366" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A366" s="12"/>
       <c r="B366" s="12"/>
       <c r="C366" s="12"/>
@@ -11713,7 +11721,7 @@
       <c r="X366" s="1"/>
       <c r="Y366" s="1"/>
     </row>
-    <row r="367" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A367" s="12"/>
       <c r="B367" s="12"/>
       <c r="C367" s="12"/>
@@ -11740,7 +11748,7 @@
       <c r="X367" s="1"/>
       <c r="Y367" s="1"/>
     </row>
-    <row r="368" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A368" s="12"/>
       <c r="B368" s="12"/>
       <c r="C368" s="12"/>
@@ -11767,7 +11775,7 @@
       <c r="X368" s="1"/>
       <c r="Y368" s="1"/>
     </row>
-    <row r="369" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A369" s="12"/>
       <c r="B369" s="12"/>
       <c r="C369" s="12"/>
@@ -11794,7 +11802,7 @@
       <c r="X369" s="1"/>
       <c r="Y369" s="1"/>
     </row>
-    <row r="370" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A370" s="12"/>
       <c r="B370" s="12"/>
       <c r="C370" s="12"/>
@@ -11821,7 +11829,7 @@
       <c r="X370" s="1"/>
       <c r="Y370" s="1"/>
     </row>
-    <row r="371" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A371" s="12"/>
       <c r="B371" s="12"/>
       <c r="C371" s="12"/>
@@ -11848,7 +11856,7 @@
       <c r="X371" s="1"/>
       <c r="Y371" s="1"/>
     </row>
-    <row r="372" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A372" s="12"/>
       <c r="B372" s="12"/>
       <c r="C372" s="12"/>
@@ -11875,7 +11883,7 @@
       <c r="X372" s="1"/>
       <c r="Y372" s="1"/>
     </row>
-    <row r="373" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A373" s="12"/>
       <c r="B373" s="12"/>
       <c r="C373" s="12"/>
@@ -11902,7 +11910,7 @@
       <c r="X373" s="1"/>
       <c r="Y373" s="1"/>
     </row>
-    <row r="374" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A374" s="12"/>
       <c r="B374" s="12"/>
       <c r="C374" s="12"/>
@@ -11929,7 +11937,7 @@
       <c r="X374" s="1"/>
       <c r="Y374" s="1"/>
     </row>
-    <row r="375" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A375" s="12"/>
       <c r="B375" s="12"/>
       <c r="C375" s="12"/>
@@ -11956,7 +11964,7 @@
       <c r="X375" s="1"/>
       <c r="Y375" s="1"/>
     </row>
-    <row r="376" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A376" s="12"/>
       <c r="B376" s="12"/>
       <c r="C376" s="12"/>
@@ -11983,7 +11991,7 @@
       <c r="X376" s="1"/>
       <c r="Y376" s="1"/>
     </row>
-    <row r="377" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A377" s="12"/>
       <c r="B377" s="12"/>
       <c r="C377" s="12"/>
@@ -12010,7 +12018,7 @@
       <c r="X377" s="1"/>
       <c r="Y377" s="1"/>
     </row>
-    <row r="378" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A378" s="12"/>
       <c r="B378" s="12"/>
       <c r="C378" s="12"/>
@@ -12037,7 +12045,7 @@
       <c r="X378" s="1"/>
       <c r="Y378" s="1"/>
     </row>
-    <row r="379" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A379" s="12"/>
       <c r="B379" s="12"/>
       <c r="C379" s="12"/>
@@ -12064,7 +12072,7 @@
       <c r="X379" s="1"/>
       <c r="Y379" s="1"/>
     </row>
-    <row r="380" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A380" s="12"/>
       <c r="B380" s="12"/>
       <c r="C380" s="12"/>
@@ -12091,7 +12099,7 @@
       <c r="X380" s="1"/>
       <c r="Y380" s="1"/>
     </row>
-    <row r="381" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A381" s="12"/>
       <c r="B381" s="12"/>
       <c r="C381" s="12"/>
@@ -12118,7 +12126,7 @@
       <c r="X381" s="1"/>
       <c r="Y381" s="1"/>
     </row>
-    <row r="382" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A382" s="12"/>
       <c r="B382" s="12"/>
       <c r="C382" s="12"/>
@@ -12145,7 +12153,7 @@
       <c r="X382" s="1"/>
       <c r="Y382" s="1"/>
     </row>
-    <row r="383" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A383" s="12"/>
       <c r="B383" s="12"/>
       <c r="C383" s="12"/>
@@ -12172,7 +12180,7 @@
       <c r="X383" s="1"/>
       <c r="Y383" s="1"/>
     </row>
-    <row r="384" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A384" s="12"/>
       <c r="B384" s="12"/>
       <c r="C384" s="12"/>
@@ -12199,7 +12207,7 @@
       <c r="X384" s="1"/>
       <c r="Y384" s="1"/>
     </row>
-    <row r="385" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A385" s="12"/>
       <c r="B385" s="12"/>
       <c r="C385" s="12"/>
@@ -12226,7 +12234,7 @@
       <c r="X385" s="1"/>
       <c r="Y385" s="1"/>
     </row>
-    <row r="386" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A386" s="12"/>
       <c r="B386" s="12"/>
       <c r="C386" s="12"/>
@@ -12253,7 +12261,7 @@
       <c r="X386" s="1"/>
       <c r="Y386" s="1"/>
     </row>
-    <row r="387" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A387" s="12"/>
       <c r="B387" s="12"/>
       <c r="C387" s="12"/>
@@ -12280,7 +12288,7 @@
       <c r="X387" s="1"/>
       <c r="Y387" s="1"/>
     </row>
-    <row r="388" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A388" s="12"/>
       <c r="B388" s="12"/>
       <c r="C388" s="12"/>
@@ -12307,7 +12315,7 @@
       <c r="X388" s="1"/>
       <c r="Y388" s="1"/>
     </row>
-    <row r="389" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A389" s="12"/>
       <c r="B389" s="12"/>
       <c r="C389" s="12"/>
@@ -12334,7 +12342,7 @@
       <c r="X389" s="1"/>
       <c r="Y389" s="1"/>
     </row>
-    <row r="390" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A390" s="12"/>
       <c r="B390" s="12"/>
       <c r="C390" s="12"/>
@@ -12361,7 +12369,7 @@
       <c r="X390" s="1"/>
       <c r="Y390" s="1"/>
     </row>
-    <row r="391" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A391" s="12"/>
       <c r="B391" s="12"/>
       <c r="C391" s="12"/>
@@ -12388,7 +12396,7 @@
       <c r="X391" s="1"/>
       <c r="Y391" s="1"/>
     </row>
-    <row r="392" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A392" s="12"/>
       <c r="B392" s="12"/>
       <c r="C392" s="12"/>
@@ -12415,7 +12423,7 @@
       <c r="X392" s="1"/>
       <c r="Y392" s="1"/>
     </row>
-    <row r="393" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A393" s="12"/>
       <c r="B393" s="12"/>
       <c r="C393" s="12"/>
@@ -12442,7 +12450,7 @@
       <c r="X393" s="1"/>
       <c r="Y393" s="1"/>
     </row>
-    <row r="394" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A394" s="12"/>
       <c r="B394" s="12"/>
       <c r="C394" s="12"/>
@@ -12469,7 +12477,7 @@
       <c r="X394" s="1"/>
       <c r="Y394" s="1"/>
     </row>
-    <row r="395" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A395" s="12"/>
       <c r="B395" s="12"/>
       <c r="C395" s="12"/>
@@ -12496,7 +12504,7 @@
       <c r="X395" s="1"/>
       <c r="Y395" s="1"/>
     </row>
-    <row r="396" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A396" s="12"/>
       <c r="B396" s="12"/>
       <c r="C396" s="12"/>
@@ -12523,7 +12531,7 @@
       <c r="X396" s="1"/>
       <c r="Y396" s="1"/>
     </row>
-    <row r="397" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A397" s="12"/>
       <c r="B397" s="12"/>
       <c r="C397" s="12"/>
@@ -12550,7 +12558,7 @@
       <c r="X397" s="1"/>
       <c r="Y397" s="1"/>
     </row>
-    <row r="398" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A398" s="12"/>
       <c r="B398" s="12"/>
       <c r="C398" s="12"/>
@@ -12577,7 +12585,7 @@
       <c r="X398" s="1"/>
       <c r="Y398" s="1"/>
     </row>
-    <row r="399" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A399" s="12"/>
       <c r="B399" s="12"/>
       <c r="C399" s="12"/>
@@ -12604,7 +12612,7 @@
       <c r="X399" s="1"/>
       <c r="Y399" s="1"/>
     </row>
-    <row r="400" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A400" s="12"/>
       <c r="B400" s="12"/>
       <c r="C400" s="12"/>
@@ -12631,7 +12639,7 @@
       <c r="X400" s="1"/>
       <c r="Y400" s="1"/>
     </row>
-    <row r="401" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A401" s="12"/>
       <c r="B401" s="12"/>
       <c r="C401" s="12"/>
@@ -12658,7 +12666,7 @@
       <c r="X401" s="1"/>
       <c r="Y401" s="1"/>
     </row>
-    <row r="402" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A402" s="12"/>
       <c r="B402" s="12"/>
       <c r="C402" s="12"/>
@@ -12685,7 +12693,7 @@
       <c r="X402" s="1"/>
       <c r="Y402" s="1"/>
     </row>
-    <row r="403" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A403" s="12"/>
       <c r="B403" s="12"/>
       <c r="C403" s="12"/>
@@ -12712,7 +12720,7 @@
       <c r="X403" s="1"/>
       <c r="Y403" s="1"/>
     </row>
-    <row r="404" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A404" s="12"/>
       <c r="B404" s="12"/>
       <c r="C404" s="12"/>
@@ -12739,7 +12747,7 @@
       <c r="X404" s="1"/>
       <c r="Y404" s="1"/>
     </row>
-    <row r="405" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A405" s="12"/>
       <c r="B405" s="12"/>
       <c r="C405" s="12"/>
@@ -12766,7 +12774,7 @@
       <c r="X405" s="1"/>
       <c r="Y405" s="1"/>
     </row>
-    <row r="406" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A406" s="12"/>
       <c r="B406" s="12"/>
       <c r="C406" s="12"/>
@@ -12793,7 +12801,7 @@
       <c r="X406" s="1"/>
       <c r="Y406" s="1"/>
     </row>
-    <row r="407" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A407" s="12"/>
       <c r="B407" s="12"/>
       <c r="C407" s="12"/>
@@ -12820,7 +12828,7 @@
       <c r="X407" s="1"/>
       <c r="Y407" s="1"/>
     </row>
-    <row r="408" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A408" s="12"/>
       <c r="B408" s="12"/>
       <c r="C408" s="12"/>
@@ -12847,7 +12855,7 @@
       <c r="X408" s="1"/>
       <c r="Y408" s="1"/>
     </row>
-    <row r="409" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A409" s="12"/>
       <c r="B409" s="12"/>
       <c r="C409" s="12"/>
@@ -12874,7 +12882,7 @@
       <c r="X409" s="1"/>
       <c r="Y409" s="1"/>
     </row>
-    <row r="410" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A410" s="12"/>
       <c r="B410" s="12"/>
       <c r="C410" s="12"/>
@@ -12901,7 +12909,7 @@
       <c r="X410" s="1"/>
       <c r="Y410" s="1"/>
     </row>
-    <row r="411" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A411" s="12"/>
       <c r="B411" s="12"/>
       <c r="C411" s="12"/>
@@ -12928,7 +12936,7 @@
       <c r="X411" s="1"/>
       <c r="Y411" s="1"/>
     </row>
-    <row r="412" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A412" s="12"/>
       <c r="B412" s="12"/>
       <c r="C412" s="12"/>
@@ -12955,7 +12963,7 @@
       <c r="X412" s="1"/>
       <c r="Y412" s="1"/>
     </row>
-    <row r="413" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A413" s="12"/>
       <c r="B413" s="12"/>
       <c r="C413" s="12"/>
@@ -12982,7 +12990,7 @@
       <c r="X413" s="1"/>
       <c r="Y413" s="1"/>
     </row>
-    <row r="414" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A414" s="12"/>
       <c r="B414" s="12"/>
       <c r="C414" s="12"/>
@@ -13009,7 +13017,7 @@
       <c r="X414" s="1"/>
       <c r="Y414" s="1"/>
     </row>
-    <row r="415" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A415" s="12"/>
       <c r="B415" s="12"/>
       <c r="C415" s="12"/>
@@ -13036,7 +13044,7 @@
       <c r="X415" s="1"/>
       <c r="Y415" s="1"/>
     </row>
-    <row r="416" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A416" s="12"/>
       <c r="B416" s="12"/>
       <c r="C416" s="12"/>
@@ -13063,7 +13071,7 @@
       <c r="X416" s="1"/>
       <c r="Y416" s="1"/>
     </row>
-    <row r="417" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A417" s="12"/>
       <c r="B417" s="12"/>
       <c r="C417" s="12"/>
@@ -13090,7 +13098,7 @@
       <c r="X417" s="1"/>
       <c r="Y417" s="1"/>
     </row>
-    <row r="418" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A418" s="12"/>
       <c r="B418" s="12"/>
       <c r="C418" s="12"/>
@@ -13117,7 +13125,7 @@
       <c r="X418" s="1"/>
       <c r="Y418" s="1"/>
     </row>
-    <row r="419" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A419" s="12"/>
       <c r="B419" s="12"/>
       <c r="C419" s="12"/>
@@ -13144,7 +13152,7 @@
       <c r="X419" s="1"/>
       <c r="Y419" s="1"/>
     </row>
-    <row r="420" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A420" s="12"/>
       <c r="B420" s="12"/>
       <c r="C420" s="12"/>
@@ -13171,7 +13179,7 @@
       <c r="X420" s="1"/>
       <c r="Y420" s="1"/>
     </row>
-    <row r="421" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A421" s="12"/>
       <c r="B421" s="12"/>
       <c r="C421" s="12"/>
@@ -13198,7 +13206,7 @@
       <c r="X421" s="1"/>
       <c r="Y421" s="1"/>
     </row>
-    <row r="422" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A422" s="12"/>
       <c r="B422" s="12"/>
       <c r="C422" s="12"/>
@@ -13225,7 +13233,7 @@
       <c r="X422" s="1"/>
       <c r="Y422" s="1"/>
     </row>
-    <row r="423" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A423" s="12"/>
       <c r="B423" s="12"/>
       <c r="C423" s="12"/>
@@ -13252,7 +13260,7 @@
       <c r="X423" s="1"/>
       <c r="Y423" s="1"/>
     </row>
-    <row r="424" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A424" s="12"/>
       <c r="B424" s="12"/>
       <c r="C424" s="12"/>
@@ -13279,7 +13287,7 @@
       <c r="X424" s="1"/>
       <c r="Y424" s="1"/>
     </row>
-    <row r="425" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A425" s="12"/>
       <c r="B425" s="12"/>
       <c r="C425" s="12"/>
@@ -13306,7 +13314,7 @@
       <c r="X425" s="1"/>
       <c r="Y425" s="1"/>
     </row>
-    <row r="426" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A426" s="12"/>
       <c r="B426" s="12"/>
       <c r="C426" s="12"/>
@@ -13333,7 +13341,7 @@
       <c r="X426" s="1"/>
       <c r="Y426" s="1"/>
     </row>
-    <row r="427" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A427" s="12"/>
       <c r="B427" s="12"/>
       <c r="C427" s="12"/>
@@ -13360,7 +13368,7 @@
       <c r="X427" s="1"/>
       <c r="Y427" s="1"/>
     </row>
-    <row r="428" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A428" s="12"/>
       <c r="B428" s="12"/>
       <c r="C428" s="12"/>
@@ -13387,7 +13395,7 @@
       <c r="X428" s="1"/>
       <c r="Y428" s="1"/>
     </row>
-    <row r="429" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A429" s="12"/>
       <c r="B429" s="12"/>
       <c r="C429" s="12"/>
@@ -13414,7 +13422,7 @@
       <c r="X429" s="1"/>
       <c r="Y429" s="1"/>
     </row>
-    <row r="430" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A430" s="12"/>
       <c r="B430" s="12"/>
       <c r="C430" s="12"/>
@@ -13441,7 +13449,7 @@
       <c r="X430" s="1"/>
       <c r="Y430" s="1"/>
     </row>
-    <row r="431" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A431" s="12"/>
       <c r="B431" s="12"/>
       <c r="C431" s="12"/>
@@ -13468,7 +13476,7 @@
       <c r="X431" s="1"/>
       <c r="Y431" s="1"/>
     </row>
-    <row r="432" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A432" s="12"/>
       <c r="B432" s="12"/>
       <c r="C432" s="12"/>
@@ -13495,7 +13503,7 @@
       <c r="X432" s="1"/>
       <c r="Y432" s="1"/>
     </row>
-    <row r="433" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A433" s="12"/>
       <c r="B433" s="12"/>
       <c r="C433" s="12"/>
@@ -13522,7 +13530,7 @@
       <c r="X433" s="1"/>
       <c r="Y433" s="1"/>
     </row>
-    <row r="434" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A434" s="12"/>
       <c r="B434" s="12"/>
       <c r="C434" s="12"/>
@@ -13549,7 +13557,7 @@
       <c r="X434" s="1"/>
       <c r="Y434" s="1"/>
     </row>
-    <row r="435" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A435" s="12"/>
       <c r="B435" s="12"/>
       <c r="C435" s="12"/>
@@ -13576,7 +13584,7 @@
       <c r="X435" s="1"/>
       <c r="Y435" s="1"/>
     </row>
-    <row r="436" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A436" s="12"/>
       <c r="B436" s="12"/>
       <c r="C436" s="12"/>
@@ -13603,7 +13611,7 @@
       <c r="X436" s="1"/>
       <c r="Y436" s="1"/>
     </row>
-    <row r="437" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A437" s="12"/>
       <c r="B437" s="12"/>
       <c r="C437" s="12"/>
@@ -13630,7 +13638,7 @@
       <c r="X437" s="1"/>
       <c r="Y437" s="1"/>
     </row>
-    <row r="438" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A438" s="12"/>
       <c r="B438" s="12"/>
       <c r="C438" s="12"/>
@@ -13657,7 +13665,7 @@
       <c r="X438" s="1"/>
       <c r="Y438" s="1"/>
     </row>
-    <row r="439" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A439" s="12"/>
       <c r="B439" s="12"/>
       <c r="C439" s="12"/>
@@ -13684,7 +13692,7 @@
       <c r="X439" s="1"/>
       <c r="Y439" s="1"/>
     </row>
-    <row r="440" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A440" s="12"/>
       <c r="B440" s="12"/>
       <c r="C440" s="12"/>
@@ -13711,7 +13719,7 @@
       <c r="X440" s="1"/>
       <c r="Y440" s="1"/>
     </row>
-    <row r="441" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A441" s="12"/>
       <c r="B441" s="12"/>
       <c r="C441" s="12"/>
@@ -13738,7 +13746,7 @@
       <c r="X441" s="1"/>
       <c r="Y441" s="1"/>
     </row>
-    <row r="442" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A442" s="12"/>
       <c r="B442" s="12"/>
       <c r="C442" s="12"/>
@@ -13765,7 +13773,7 @@
       <c r="X442" s="1"/>
       <c r="Y442" s="1"/>
     </row>
-    <row r="443" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A443" s="12"/>
       <c r="B443" s="12"/>
       <c r="C443" s="12"/>
@@ -13792,7 +13800,7 @@
       <c r="X443" s="1"/>
       <c r="Y443" s="1"/>
     </row>
-    <row r="444" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A444" s="12"/>
       <c r="B444" s="12"/>
       <c r="C444" s="12"/>
@@ -13819,7 +13827,7 @@
       <c r="X444" s="1"/>
       <c r="Y444" s="1"/>
     </row>
-    <row r="445" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A445" s="12"/>
       <c r="B445" s="12"/>
       <c r="C445" s="12"/>
@@ -13846,7 +13854,7 @@
       <c r="X445" s="1"/>
       <c r="Y445" s="1"/>
     </row>
-    <row r="446" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A446" s="12"/>
       <c r="B446" s="12"/>
       <c r="C446" s="12"/>
@@ -13873,7 +13881,7 @@
       <c r="X446" s="1"/>
       <c r="Y446" s="1"/>
     </row>
-    <row r="447" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A447" s="12"/>
       <c r="B447" s="12"/>
       <c r="C447" s="12"/>
@@ -13900,7 +13908,7 @@
       <c r="X447" s="1"/>
       <c r="Y447" s="1"/>
     </row>
-    <row r="448" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A448" s="12"/>
       <c r="B448" s="12"/>
       <c r="C448" s="12"/>
@@ -13927,7 +13935,7 @@
       <c r="X448" s="1"/>
       <c r="Y448" s="1"/>
     </row>
-    <row r="449" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A449" s="12"/>
       <c r="B449" s="12"/>
       <c r="C449" s="12"/>
@@ -13954,7 +13962,7 @@
       <c r="X449" s="1"/>
       <c r="Y449" s="1"/>
     </row>
-    <row r="450" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A450" s="12"/>
       <c r="B450" s="12"/>
       <c r="C450" s="12"/>
@@ -13981,7 +13989,7 @@
       <c r="X450" s="1"/>
       <c r="Y450" s="1"/>
     </row>
-    <row r="451" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A451" s="12"/>
       <c r="B451" s="12"/>
       <c r="C451" s="12"/>
@@ -14008,7 +14016,7 @@
       <c r="X451" s="1"/>
       <c r="Y451" s="1"/>
     </row>
-    <row r="452" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A452" s="12"/>
       <c r="B452" s="12"/>
       <c r="C452" s="12"/>
@@ -14035,7 +14043,7 @@
       <c r="X452" s="1"/>
       <c r="Y452" s="1"/>
     </row>
-    <row r="453" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A453" s="12"/>
       <c r="B453" s="12"/>
       <c r="C453" s="12"/>
@@ -14062,7 +14070,7 @@
       <c r="X453" s="1"/>
       <c r="Y453" s="1"/>
     </row>
-    <row r="454" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A454" s="12"/>
       <c r="B454" s="12"/>
       <c r="C454" s="12"/>
@@ -14089,7 +14097,7 @@
       <c r="X454" s="1"/>
       <c r="Y454" s="1"/>
     </row>
-    <row r="455" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A455" s="12"/>
       <c r="B455" s="12"/>
       <c r="C455" s="12"/>
@@ -14116,7 +14124,7 @@
       <c r="X455" s="1"/>
       <c r="Y455" s="1"/>
     </row>
-    <row r="456" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A456" s="12"/>
       <c r="B456" s="12"/>
       <c r="C456" s="12"/>
@@ -14143,7 +14151,7 @@
       <c r="X456" s="1"/>
       <c r="Y456" s="1"/>
     </row>
-    <row r="457" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A457" s="12"/>
       <c r="B457" s="12"/>
       <c r="C457" s="12"/>
@@ -14170,7 +14178,7 @@
       <c r="X457" s="1"/>
       <c r="Y457" s="1"/>
     </row>
-    <row r="458" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A458" s="12"/>
       <c r="B458" s="12"/>
       <c r="C458" s="12"/>
@@ -14197,7 +14205,7 @@
       <c r="X458" s="1"/>
       <c r="Y458" s="1"/>
     </row>
-    <row r="459" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A459" s="12"/>
       <c r="B459" s="12"/>
       <c r="C459" s="12"/>
@@ -14224,7 +14232,7 @@
       <c r="X459" s="1"/>
       <c r="Y459" s="1"/>
     </row>
-    <row r="460" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A460" s="12"/>
       <c r="B460" s="12"/>
       <c r="C460" s="12"/>
@@ -14251,7 +14259,7 @@
       <c r="X460" s="1"/>
       <c r="Y460" s="1"/>
     </row>
-    <row r="461" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A461" s="12"/>
       <c r="B461" s="12"/>
       <c r="C461" s="12"/>
@@ -14278,7 +14286,7 @@
       <c r="X461" s="1"/>
       <c r="Y461" s="1"/>
     </row>
-    <row r="462" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A462" s="12"/>
       <c r="B462" s="12"/>
       <c r="C462" s="12"/>
@@ -14305,7 +14313,7 @@
       <c r="X462" s="1"/>
       <c r="Y462" s="1"/>
     </row>
-    <row r="463" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A463" s="12"/>
       <c r="B463" s="12"/>
       <c r="C463" s="12"/>
@@ -14332,7 +14340,7 @@
       <c r="X463" s="1"/>
       <c r="Y463" s="1"/>
     </row>
-    <row r="464" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A464" s="12"/>
       <c r="B464" s="12"/>
       <c r="C464" s="12"/>
@@ -14359,7 +14367,7 @@
       <c r="X464" s="1"/>
       <c r="Y464" s="1"/>
     </row>
-    <row r="465" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A465" s="12"/>
       <c r="B465" s="12"/>
       <c r="C465" s="12"/>
@@ -14386,7 +14394,7 @@
       <c r="X465" s="1"/>
       <c r="Y465" s="1"/>
     </row>
-    <row r="466" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A466" s="12"/>
       <c r="B466" s="12"/>
       <c r="C466" s="12"/>
@@ -14413,7 +14421,7 @@
       <c r="X466" s="1"/>
       <c r="Y466" s="1"/>
     </row>
-    <row r="467" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A467" s="12"/>
       <c r="B467" s="12"/>
       <c r="C467" s="12"/>
@@ -14440,7 +14448,7 @@
       <c r="X467" s="1"/>
       <c r="Y467" s="1"/>
     </row>
-    <row r="468" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A468" s="12"/>
       <c r="B468" s="12"/>
       <c r="C468" s="12"/>
@@ -14467,7 +14475,7 @@
       <c r="X468" s="1"/>
       <c r="Y468" s="1"/>
     </row>
-    <row r="469" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A469" s="12"/>
       <c r="B469" s="12"/>
       <c r="C469" s="12"/>
@@ -14494,7 +14502,7 @@
       <c r="X469" s="1"/>
       <c r="Y469" s="1"/>
     </row>
-    <row r="470" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A470" s="12"/>
       <c r="B470" s="12"/>
       <c r="C470" s="12"/>
@@ -14521,7 +14529,7 @@
       <c r="X470" s="1"/>
       <c r="Y470" s="1"/>
     </row>
-    <row r="471" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A471" s="12"/>
       <c r="B471" s="12"/>
       <c r="C471" s="12"/>
@@ -14548,7 +14556,7 @@
       <c r="X471" s="1"/>
       <c r="Y471" s="1"/>
     </row>
-    <row r="472" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A472" s="12"/>
       <c r="B472" s="12"/>
       <c r="C472" s="12"/>
@@ -14575,7 +14583,7 @@
       <c r="X472" s="1"/>
       <c r="Y472" s="1"/>
     </row>
-    <row r="473" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A473" s="12"/>
       <c r="B473" s="12"/>
       <c r="C473" s="12"/>
@@ -14602,7 +14610,7 @@
       <c r="X473" s="1"/>
       <c r="Y473" s="1"/>
     </row>
-    <row r="474" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A474" s="12"/>
       <c r="B474" s="12"/>
       <c r="C474" s="12"/>
@@ -14629,7 +14637,7 @@
       <c r="X474" s="1"/>
       <c r="Y474" s="1"/>
     </row>
-    <row r="475" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A475" s="12"/>
       <c r="B475" s="12"/>
       <c r="C475" s="12"/>
@@ -14656,7 +14664,7 @@
       <c r="X475" s="1"/>
       <c r="Y475" s="1"/>
     </row>
-    <row r="476" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A476" s="12"/>
       <c r="B476" s="12"/>
       <c r="C476" s="12"/>
@@ -14683,7 +14691,7 @@
       <c r="X476" s="1"/>
       <c r="Y476" s="1"/>
     </row>
-    <row r="477" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A477" s="12"/>
       <c r="B477" s="12"/>
       <c r="C477" s="12"/>
@@ -14710,7 +14718,7 @@
       <c r="X477" s="1"/>
       <c r="Y477" s="1"/>
     </row>
-    <row r="478" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A478" s="12"/>
       <c r="B478" s="12"/>
       <c r="C478" s="12"/>
@@ -14737,7 +14745,7 @@
       <c r="X478" s="1"/>
       <c r="Y478" s="1"/>
     </row>
-    <row r="479" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A479" s="12"/>
       <c r="B479" s="12"/>
       <c r="C479" s="12"/>
@@ -14764,7 +14772,7 @@
       <c r="X479" s="1"/>
       <c r="Y479" s="1"/>
     </row>
-    <row r="480" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A480" s="12"/>
       <c r="B480" s="12"/>
       <c r="C480" s="12"/>
@@ -14791,7 +14799,7 @@
       <c r="X480" s="1"/>
       <c r="Y480" s="1"/>
     </row>
-    <row r="481" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A481" s="12"/>
       <c r="B481" s="12"/>
       <c r="C481" s="12"/>
@@ -14818,7 +14826,7 @@
       <c r="X481" s="1"/>
       <c r="Y481" s="1"/>
     </row>
-    <row r="482" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A482" s="12"/>
       <c r="B482" s="12"/>
       <c r="C482" s="12"/>
@@ -14845,7 +14853,7 @@
       <c r="X482" s="1"/>
       <c r="Y482" s="1"/>
     </row>
-    <row r="483" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A483" s="12"/>
       <c r="B483" s="12"/>
       <c r="C483" s="12"/>
@@ -14872,7 +14880,7 @@
       <c r="X483" s="1"/>
       <c r="Y483" s="1"/>
     </row>
-    <row r="484" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A484" s="12"/>
       <c r="B484" s="12"/>
       <c r="C484" s="12"/>
@@ -14899,7 +14907,7 @@
       <c r="X484" s="1"/>
       <c r="Y484" s="1"/>
     </row>
-    <row r="485" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A485" s="12"/>
       <c r="B485" s="12"/>
       <c r="C485" s="12"/>
@@ -14926,7 +14934,7 @@
       <c r="X485" s="1"/>
       <c r="Y485" s="1"/>
     </row>
-    <row r="486" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A486" s="12"/>
       <c r="B486" s="12"/>
       <c r="C486" s="12"/>
@@ -14953,7 +14961,7 @@
       <c r="X486" s="1"/>
       <c r="Y486" s="1"/>
     </row>
-    <row r="487" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A487" s="12"/>
       <c r="B487" s="12"/>
       <c r="C487" s="12"/>
@@ -14980,7 +14988,7 @@
       <c r="X487" s="1"/>
       <c r="Y487" s="1"/>
     </row>
-    <row r="488" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A488" s="12"/>
       <c r="B488" s="12"/>
       <c r="C488" s="12"/>
@@ -15007,7 +15015,7 @@
       <c r="X488" s="1"/>
       <c r="Y488" s="1"/>
     </row>
-    <row r="489" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A489" s="12"/>
       <c r="B489" s="12"/>
       <c r="C489" s="12"/>
@@ -15034,7 +15042,7 @@
       <c r="X489" s="1"/>
       <c r="Y489" s="1"/>
     </row>
-    <row r="490" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A490" s="12"/>
       <c r="B490" s="12"/>
       <c r="C490" s="12"/>
@@ -15061,7 +15069,7 @@
       <c r="X490" s="1"/>
       <c r="Y490" s="1"/>
     </row>
-    <row r="491" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A491" s="12"/>
       <c r="B491" s="12"/>
       <c r="C491" s="12"/>
@@ -15088,7 +15096,7 @@
       <c r="X491" s="1"/>
       <c r="Y491" s="1"/>
     </row>
-    <row r="492" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A492" s="12"/>
       <c r="B492" s="12"/>
       <c r="C492" s="12"/>
@@ -15115,7 +15123,7 @@
       <c r="X492" s="1"/>
       <c r="Y492" s="1"/>
     </row>
-    <row r="493" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A493" s="12"/>
       <c r="B493" s="12"/>
       <c r="C493" s="12"/>
@@ -15142,7 +15150,7 @@
       <c r="X493" s="1"/>
       <c r="Y493" s="1"/>
     </row>
-    <row r="494" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A494" s="12"/>
       <c r="B494" s="12"/>
       <c r="C494" s="12"/>
@@ -15169,7 +15177,7 @@
       <c r="X494" s="1"/>
       <c r="Y494" s="1"/>
     </row>
-    <row r="495" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A495" s="12"/>
       <c r="B495" s="12"/>
       <c r="C495" s="12"/>
@@ -15196,7 +15204,7 @@
       <c r="X495" s="1"/>
       <c r="Y495" s="1"/>
     </row>
-    <row r="496" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A496" s="12"/>
       <c r="B496" s="12"/>
       <c r="C496" s="12"/>
@@ -15223,7 +15231,7 @@
       <c r="X496" s="1"/>
       <c r="Y496" s="1"/>
     </row>
-    <row r="497" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A497" s="12"/>
       <c r="B497" s="12"/>
       <c r="C497" s="12"/>
@@ -15250,7 +15258,7 @@
       <c r="X497" s="1"/>
       <c r="Y497" s="1"/>
     </row>
-    <row r="498" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A498" s="12"/>
       <c r="B498" s="12"/>
       <c r="C498" s="12"/>
@@ -15277,7 +15285,7 @@
       <c r="X498" s="1"/>
       <c r="Y498" s="1"/>
     </row>
-    <row r="499" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A499" s="12"/>
       <c r="B499" s="12"/>
       <c r="C499" s="12"/>
@@ -15304,7 +15312,7 @@
       <c r="X499" s="1"/>
       <c r="Y499" s="1"/>
     </row>
-    <row r="500" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A500" s="12"/>
       <c r="B500" s="12"/>
       <c r="C500" s="12"/>
@@ -15331,7 +15339,7 @@
       <c r="X500" s="1"/>
       <c r="Y500" s="1"/>
     </row>
-    <row r="501" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A501" s="12"/>
       <c r="B501" s="12"/>
       <c r="C501" s="12"/>
@@ -15358,7 +15366,7 @@
       <c r="X501" s="1"/>
       <c r="Y501" s="1"/>
     </row>
-    <row r="502" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A502" s="12"/>
       <c r="B502" s="12"/>
       <c r="C502" s="12"/>
@@ -15385,7 +15393,7 @@
       <c r="X502" s="1"/>
       <c r="Y502" s="1"/>
     </row>
-    <row r="503" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A503" s="12"/>
       <c r="B503" s="12"/>
       <c r="C503" s="12"/>
@@ -15412,7 +15420,7 @@
       <c r="X503" s="1"/>
       <c r="Y503" s="1"/>
     </row>
-    <row r="504" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A504" s="12"/>
       <c r="B504" s="12"/>
       <c r="C504" s="12"/>
@@ -15439,7 +15447,7 @@
       <c r="X504" s="1"/>
       <c r="Y504" s="1"/>
     </row>
-    <row r="505" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A505" s="12"/>
       <c r="B505" s="12"/>
       <c r="C505" s="12"/>
@@ -15466,7 +15474,7 @@
       <c r="X505" s="1"/>
       <c r="Y505" s="1"/>
     </row>
-    <row r="506" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A506" s="12"/>
       <c r="B506" s="12"/>
       <c r="C506" s="12"/>
@@ -15493,7 +15501,7 @@
       <c r="X506" s="1"/>
       <c r="Y506" s="1"/>
     </row>
-    <row r="507" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A507" s="12"/>
       <c r="B507" s="12"/>
       <c r="C507" s="12"/>
@@ -15520,7 +15528,7 @@
       <c r="X507" s="1"/>
       <c r="Y507" s="1"/>
     </row>
-    <row r="508" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A508" s="12"/>
       <c r="B508" s="12"/>
       <c r="C508" s="12"/>
@@ -15547,7 +15555,7 @@
       <c r="X508" s="1"/>
       <c r="Y508" s="1"/>
     </row>
-    <row r="509" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A509" s="12"/>
       <c r="B509" s="12"/>
       <c r="C509" s="12"/>
@@ -15574,7 +15582,7 @@
       <c r="X509" s="1"/>
       <c r="Y509" s="1"/>
     </row>
-    <row r="510" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A510" s="12"/>
       <c r="B510" s="12"/>
       <c r="C510" s="12"/>
@@ -15601,7 +15609,7 @@
       <c r="X510" s="1"/>
       <c r="Y510" s="1"/>
     </row>
-    <row r="511" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A511" s="12"/>
       <c r="B511" s="12"/>
       <c r="C511" s="12"/>
@@ -15628,7 +15636,7 @@
       <c r="X511" s="1"/>
       <c r="Y511" s="1"/>
     </row>
-    <row r="512" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A512" s="12"/>
       <c r="B512" s="12"/>
       <c r="C512" s="12"/>
@@ -15655,7 +15663,7 @@
       <c r="X512" s="1"/>
       <c r="Y512" s="1"/>
     </row>
-    <row r="513" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A513" s="12"/>
       <c r="B513" s="12"/>
       <c r="C513" s="12"/>
@@ -15682,7 +15690,7 @@
       <c r="X513" s="1"/>
       <c r="Y513" s="1"/>
     </row>
-    <row r="514" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A514" s="12"/>
       <c r="B514" s="12"/>
       <c r="C514" s="12"/>
@@ -15709,7 +15717,7 @@
       <c r="X514" s="1"/>
       <c r="Y514" s="1"/>
     </row>
-    <row r="515" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A515" s="12"/>
       <c r="B515" s="12"/>
       <c r="C515" s="12"/>
@@ -15736,7 +15744,7 @@
       <c r="X515" s="1"/>
       <c r="Y515" s="1"/>
     </row>
-    <row r="516" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A516" s="12"/>
       <c r="B516" s="12"/>
       <c r="C516" s="12"/>
@@ -15763,7 +15771,7 @@
       <c r="X516" s="1"/>
       <c r="Y516" s="1"/>
     </row>
-    <row r="517" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A517" s="12"/>
       <c r="B517" s="12"/>
       <c r="C517" s="12"/>
@@ -15790,7 +15798,7 @@
       <c r="X517" s="1"/>
       <c r="Y517" s="1"/>
     </row>
-    <row r="518" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A518" s="12"/>
       <c r="B518" s="12"/>
       <c r="C518" s="12"/>
@@ -15817,7 +15825,7 @@
       <c r="X518" s="1"/>
       <c r="Y518" s="1"/>
     </row>
-    <row r="519" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A519" s="12"/>
       <c r="B519" s="12"/>
       <c r="C519" s="12"/>
@@ -15844,7 +15852,7 @@
       <c r="X519" s="1"/>
       <c r="Y519" s="1"/>
     </row>
-    <row r="520" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A520" s="12"/>
       <c r="B520" s="12"/>
       <c r="C520" s="12"/>
@@ -15871,7 +15879,7 @@
       <c r="X520" s="1"/>
       <c r="Y520" s="1"/>
     </row>
-    <row r="521" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A521" s="12"/>
       <c r="B521" s="12"/>
       <c r="C521" s="12"/>
@@ -15898,7 +15906,7 @@
       <c r="X521" s="1"/>
       <c r="Y521" s="1"/>
     </row>
-    <row r="522" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A522" s="12"/>
       <c r="B522" s="12"/>
       <c r="C522" s="12"/>
@@ -15925,7 +15933,7 @@
       <c r="X522" s="1"/>
       <c r="Y522" s="1"/>
     </row>
-    <row r="523" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A523" s="12"/>
       <c r="B523" s="12"/>
       <c r="C523" s="12"/>
@@ -15952,7 +15960,7 @@
       <c r="X523" s="1"/>
       <c r="Y523" s="1"/>
     </row>
-    <row r="524" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A524" s="12"/>
       <c r="B524" s="12"/>
       <c r="C524" s="12"/>
@@ -15979,7 +15987,7 @@
       <c r="X524" s="1"/>
       <c r="Y524" s="1"/>
     </row>
-    <row r="525" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A525" s="12"/>
       <c r="B525" s="12"/>
       <c r="C525" s="12"/>
@@ -16006,7 +16014,7 @@
       <c r="X525" s="1"/>
       <c r="Y525" s="1"/>
     </row>
-    <row r="526" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A526" s="12"/>
       <c r="B526" s="12"/>
       <c r="C526" s="12"/>
@@ -16033,7 +16041,7 @@
       <c r="X526" s="1"/>
       <c r="Y526" s="1"/>
     </row>
-    <row r="527" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A527" s="12"/>
       <c r="B527" s="12"/>
       <c r="C527" s="12"/>
@@ -16060,7 +16068,7 @@
       <c r="X527" s="1"/>
       <c r="Y527" s="1"/>
     </row>
-    <row r="528" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A528" s="12"/>
       <c r="B528" s="12"/>
       <c r="C528" s="12"/>
@@ -16087,7 +16095,7 @@
       <c r="X528" s="1"/>
       <c r="Y528" s="1"/>
     </row>
-    <row r="529" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A529" s="12"/>
       <c r="B529" s="12"/>
       <c r="C529" s="12"/>
@@ -16114,7 +16122,7 @@
       <c r="X529" s="1"/>
       <c r="Y529" s="1"/>
     </row>
-    <row r="530" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A530" s="12"/>
       <c r="B530" s="12"/>
       <c r="C530" s="12"/>
@@ -16141,7 +16149,7 @@
       <c r="X530" s="1"/>
       <c r="Y530" s="1"/>
     </row>
-    <row r="531" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A531" s="12"/>
       <c r="B531" s="12"/>
       <c r="C531" s="12"/>
@@ -16168,7 +16176,7 @@
       <c r="X531" s="1"/>
       <c r="Y531" s="1"/>
     </row>
-    <row r="532" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A532" s="12"/>
       <c r="B532" s="12"/>
       <c r="C532" s="12"/>
@@ -16195,7 +16203,7 @@
       <c r="X532" s="1"/>
       <c r="Y532" s="1"/>
     </row>
-    <row r="533" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A533" s="12"/>
       <c r="B533" s="12"/>
       <c r="C533" s="12"/>
@@ -16222,7 +16230,7 @@
       <c r="X533" s="1"/>
       <c r="Y533" s="1"/>
     </row>
-    <row r="534" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A534" s="12"/>
       <c r="B534" s="12"/>
       <c r="C534" s="12"/>
@@ -16249,7 +16257,7 @@
       <c r="X534" s="1"/>
       <c r="Y534" s="1"/>
     </row>
-    <row r="535" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A535" s="12"/>
       <c r="B535" s="12"/>
       <c r="C535" s="12"/>
@@ -16276,7 +16284,7 @@
       <c r="X535" s="1"/>
       <c r="Y535" s="1"/>
     </row>
-    <row r="536" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A536" s="12"/>
       <c r="B536" s="12"/>
       <c r="C536" s="12"/>
@@ -16303,7 +16311,7 @@
       <c r="X536" s="1"/>
       <c r="Y536" s="1"/>
     </row>
-    <row r="537" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A537" s="12"/>
       <c r="B537" s="12"/>
       <c r="C537" s="12"/>
@@ -16330,7 +16338,7 @@
       <c r="X537" s="1"/>
       <c r="Y537" s="1"/>
     </row>
-    <row r="538" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A538" s="12"/>
       <c r="B538" s="12"/>
       <c r="C538" s="12"/>
@@ -16357,7 +16365,7 @@
       <c r="X538" s="1"/>
       <c r="Y538" s="1"/>
     </row>
-    <row r="539" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A539" s="12"/>
       <c r="B539" s="12"/>
       <c r="C539" s="12"/>
@@ -16384,7 +16392,7 @@
       <c r="X539" s="1"/>
       <c r="Y539" s="1"/>
     </row>
-    <row r="540" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A540" s="12"/>
       <c r="B540" s="12"/>
       <c r="C540" s="12"/>
@@ -16411,7 +16419,7 @@
       <c r="X540" s="1"/>
       <c r="Y540" s="1"/>
     </row>
-    <row r="541" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A541" s="12"/>
       <c r="B541" s="12"/>
       <c r="C541" s="12"/>
@@ -16438,7 +16446,7 @@
       <c r="X541" s="1"/>
       <c r="Y541" s="1"/>
     </row>
-    <row r="542" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A542" s="12"/>
       <c r="B542" s="12"/>
       <c r="C542" s="12"/>
@@ -16465,7 +16473,7 @@
       <c r="X542" s="1"/>
       <c r="Y542" s="1"/>
     </row>
-    <row r="543" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A543" s="12"/>
       <c r="B543" s="12"/>
       <c r="C543" s="12"/>
@@ -16492,7 +16500,7 @@
       <c r="X543" s="1"/>
       <c r="Y543" s="1"/>
     </row>
-    <row r="544" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A544" s="12"/>
       <c r="B544" s="12"/>
       <c r="C544" s="12"/>
@@ -16519,7 +16527,7 @@
       <c r="X544" s="1"/>
       <c r="Y544" s="1"/>
     </row>
-    <row r="545" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A545" s="12"/>
       <c r="B545" s="12"/>
       <c r="C545" s="12"/>
@@ -16546,7 +16554,7 @@
       <c r="X545" s="1"/>
       <c r="Y545" s="1"/>
     </row>
-    <row r="546" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A546" s="12"/>
       <c r="B546" s="12"/>
       <c r="C546" s="12"/>
@@ -16573,7 +16581,7 @@
       <c r="X546" s="1"/>
       <c r="Y546" s="1"/>
     </row>
-    <row r="547" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A547" s="12"/>
       <c r="B547" s="12"/>
       <c r="C547" s="12"/>
@@ -16600,7 +16608,7 @@
       <c r="X547" s="1"/>
       <c r="Y547" s="1"/>
     </row>
-    <row r="548" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A548" s="12"/>
       <c r="B548" s="12"/>
       <c r="C548" s="12"/>
@@ -16627,7 +16635,7 @@
       <c r="X548" s="1"/>
       <c r="Y548" s="1"/>
     </row>
-    <row r="549" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A549" s="12"/>
       <c r="B549" s="12"/>
       <c r="C549" s="12"/>
@@ -16654,7 +16662,7 @@
       <c r="X549" s="1"/>
       <c r="Y549" s="1"/>
     </row>
-    <row r="550" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A550" s="12"/>
       <c r="B550" s="12"/>
       <c r="C550" s="12"/>
@@ -16681,7 +16689,7 @@
       <c r="X550" s="1"/>
       <c r="Y550" s="1"/>
     </row>
-    <row r="551" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A551" s="12"/>
       <c r="B551" s="12"/>
       <c r="C551" s="12"/>
@@ -16708,7 +16716,7 @@
       <c r="X551" s="1"/>
       <c r="Y551" s="1"/>
     </row>
-    <row r="552" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A552" s="12"/>
       <c r="B552" s="12"/>
       <c r="C552" s="12"/>
@@ -16735,7 +16743,7 @@
       <c r="X552" s="1"/>
       <c r="Y552" s="1"/>
     </row>
-    <row r="553" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A553" s="12"/>
       <c r="B553" s="12"/>
       <c r="C553" s="12"/>
@@ -16762,7 +16770,7 @@
       <c r="X553" s="1"/>
       <c r="Y553" s="1"/>
     </row>
-    <row r="554" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A554" s="12"/>
       <c r="B554" s="12"/>
       <c r="C554" s="12"/>
@@ -16789,7 +16797,7 @@
       <c r="X554" s="1"/>
       <c r="Y554" s="1"/>
     </row>
-    <row r="555" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A555" s="12"/>
       <c r="B555" s="12"/>
       <c r="C555" s="12"/>
@@ -16816,7 +16824,7 @@
       <c r="X555" s="1"/>
       <c r="Y555" s="1"/>
     </row>
-    <row r="556" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A556" s="12"/>
       <c r="B556" s="12"/>
       <c r="C556" s="12"/>
@@ -16843,7 +16851,7 @@
       <c r="X556" s="1"/>
       <c r="Y556" s="1"/>
     </row>
-    <row r="557" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A557" s="12"/>
       <c r="B557" s="12"/>
       <c r="C557" s="12"/>
@@ -16870,7 +16878,7 @@
       <c r="X557" s="1"/>
       <c r="Y557" s="1"/>
     </row>
-    <row r="558" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A558" s="12"/>
       <c r="B558" s="12"/>
       <c r="C558" s="12"/>
@@ -16897,7 +16905,7 @@
       <c r="X558" s="1"/>
       <c r="Y558" s="1"/>
     </row>
-    <row r="559" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A559" s="12"/>
       <c r="B559" s="12"/>
       <c r="C559" s="12"/>
@@ -16924,7 +16932,7 @@
       <c r="X559" s="1"/>
       <c r="Y559" s="1"/>
     </row>
-    <row r="560" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A560" s="12"/>
       <c r="B560" s="12"/>
       <c r="C560" s="12"/>
@@ -16951,7 +16959,7 @@
       <c r="X560" s="1"/>
       <c r="Y560" s="1"/>
     </row>
-    <row r="561" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A561" s="12"/>
       <c r="B561" s="12"/>
       <c r="C561" s="12"/>
@@ -16978,7 +16986,7 @@
       <c r="X561" s="1"/>
       <c r="Y561" s="1"/>
     </row>
-    <row r="562" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A562" s="12"/>
       <c r="B562" s="12"/>
       <c r="C562" s="12"/>
@@ -17005,7 +17013,7 @@
       <c r="X562" s="1"/>
       <c r="Y562" s="1"/>
     </row>
-    <row r="563" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A563" s="12"/>
       <c r="B563" s="12"/>
       <c r="C563" s="12"/>
@@ -17032,7 +17040,7 @@
       <c r="X563" s="1"/>
       <c r="Y563" s="1"/>
     </row>
-    <row r="564" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A564" s="12"/>
       <c r="B564" s="12"/>
       <c r="C564" s="12"/>
@@ -17059,7 +17067,7 @@
       <c r="X564" s="1"/>
       <c r="Y564" s="1"/>
     </row>
-    <row r="565" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A565" s="12"/>
       <c r="B565" s="12"/>
       <c r="C565" s="12"/>
@@ -17086,7 +17094,7 @@
       <c r="X565" s="1"/>
       <c r="Y565" s="1"/>
     </row>
-    <row r="566" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A566" s="12"/>
       <c r="B566" s="12"/>
       <c r="C566" s="12"/>
@@ -17113,7 +17121,7 @@
       <c r="X566" s="1"/>
       <c r="Y566" s="1"/>
     </row>
-    <row r="567" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A567" s="12"/>
       <c r="B567" s="12"/>
       <c r="C567" s="12"/>
@@ -17140,7 +17148,7 @@
       <c r="X567" s="1"/>
       <c r="Y567" s="1"/>
     </row>
-    <row r="568" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A568" s="12"/>
       <c r="B568" s="12"/>
       <c r="C568" s="12"/>
@@ -17167,7 +17175,7 @@
       <c r="X568" s="1"/>
       <c r="Y568" s="1"/>
     </row>
-    <row r="569" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A569" s="12"/>
       <c r="B569" s="12"/>
       <c r="C569" s="12"/>
@@ -17194,7 +17202,7 @@
       <c r="X569" s="1"/>
       <c r="Y569" s="1"/>
     </row>
-    <row r="570" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A570" s="12"/>
       <c r="B570" s="12"/>
       <c r="C570" s="12"/>
@@ -17221,7 +17229,7 @@
       <c r="X570" s="1"/>
       <c r="Y570" s="1"/>
     </row>
-    <row r="571" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A571" s="12"/>
       <c r="B571" s="12"/>
       <c r="C571" s="12"/>
@@ -17248,7 +17256,7 @@
       <c r="X571" s="1"/>
       <c r="Y571" s="1"/>
     </row>
-    <row r="572" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A572" s="12"/>
       <c r="B572" s="12"/>
       <c r="C572" s="12"/>
@@ -17275,7 +17283,7 @@
       <c r="X572" s="1"/>
       <c r="Y572" s="1"/>
     </row>
-    <row r="573" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A573" s="12"/>
       <c r="B573" s="12"/>
       <c r="C573" s="12"/>
@@ -17302,7 +17310,7 @@
       <c r="X573" s="1"/>
       <c r="Y573" s="1"/>
     </row>
-    <row r="574" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A574" s="12"/>
       <c r="B574" s="12"/>
       <c r="C574" s="12"/>
@@ -17329,7 +17337,7 @@
       <c r="X574" s="1"/>
       <c r="Y574" s="1"/>
     </row>
-    <row r="575" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A575" s="12"/>
       <c r="B575" s="12"/>
       <c r="C575" s="12"/>
@@ -17356,7 +17364,7 @@
       <c r="X575" s="1"/>
       <c r="Y575" s="1"/>
     </row>
-    <row r="576" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A576" s="12"/>
       <c r="B576" s="12"/>
       <c r="C576" s="12"/>
@@ -17383,7 +17391,7 @@
       <c r="X576" s="1"/>
       <c r="Y576" s="1"/>
     </row>
-    <row r="577" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A577" s="12"/>
       <c r="B577" s="12"/>
       <c r="C577" s="12"/>
@@ -17410,7 +17418,7 @@
       <c r="X577" s="1"/>
       <c r="Y577" s="1"/>
     </row>
-    <row r="578" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A578" s="12"/>
       <c r="B578" s="12"/>
       <c r="C578" s="12"/>
@@ -17437,7 +17445,7 @@
       <c r="X578" s="1"/>
       <c r="Y578" s="1"/>
     </row>
-    <row r="579" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A579" s="12"/>
       <c r="B579" s="12"/>
       <c r="C579" s="12"/>
@@ -17464,7 +17472,7 @@
       <c r="X579" s="1"/>
       <c r="Y579" s="1"/>
     </row>
-    <row r="580" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A580" s="12"/>
       <c r="B580" s="12"/>
       <c r="C580" s="12"/>
@@ -17491,7 +17499,7 @@
       <c r="X580" s="1"/>
       <c r="Y580" s="1"/>
     </row>
-    <row r="581" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A581" s="12"/>
       <c r="B581" s="12"/>
       <c r="C581" s="12"/>
@@ -17518,7 +17526,7 @@
       <c r="X581" s="1"/>
       <c r="Y581" s="1"/>
     </row>
-    <row r="582" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A582" s="12"/>
       <c r="B582" s="12"/>
       <c r="C582" s="12"/>
@@ -17545,7 +17553,7 @@
       <c r="X582" s="1"/>
       <c r="Y582" s="1"/>
     </row>
-    <row r="583" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A583" s="12"/>
       <c r="B583" s="12"/>
       <c r="C583" s="12"/>
@@ -17572,7 +17580,7 @@
       <c r="X583" s="1"/>
       <c r="Y583" s="1"/>
     </row>
-    <row r="584" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A584" s="12"/>
       <c r="B584" s="12"/>
       <c r="C584" s="12"/>
@@ -17599,7 +17607,7 @@
       <c r="X584" s="1"/>
       <c r="Y584" s="1"/>
     </row>
-    <row r="585" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A585" s="12"/>
       <c r="B585" s="12"/>
       <c r="C585" s="12"/>
@@ -17626,7 +17634,7 @@
       <c r="X585" s="1"/>
       <c r="Y585" s="1"/>
     </row>
-    <row r="586" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A586" s="12"/>
       <c r="B586" s="12"/>
       <c r="C586" s="12"/>
@@ -17653,7 +17661,7 @@
       <c r="X586" s="1"/>
       <c r="Y586" s="1"/>
     </row>
-    <row r="587" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A587" s="12"/>
       <c r="B587" s="12"/>
       <c r="C587" s="12"/>
@@ -17680,7 +17688,7 @@
       <c r="X587" s="1"/>
       <c r="Y587" s="1"/>
     </row>
-    <row r="588" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A588" s="12"/>
       <c r="B588" s="12"/>
       <c r="C588" s="12"/>
@@ -17707,7 +17715,7 @@
       <c r="X588" s="1"/>
       <c r="Y588" s="1"/>
     </row>
-    <row r="589" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A589" s="12"/>
       <c r="B589" s="12"/>
       <c r="C589" s="12"/>
@@ -17734,7 +17742,7 @@
       <c r="X589" s="1"/>
       <c r="Y589" s="1"/>
     </row>
-    <row r="590" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A590" s="12"/>
       <c r="B590" s="12"/>
       <c r="C590" s="12"/>
@@ -17761,7 +17769,7 @@
       <c r="X590" s="1"/>
       <c r="Y590" s="1"/>
     </row>
-    <row r="591" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A591" s="12"/>
       <c r="B591" s="12"/>
       <c r="C591" s="12"/>
@@ -17788,7 +17796,7 @@
       <c r="X591" s="1"/>
       <c r="Y591" s="1"/>
     </row>
-    <row r="592" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A592" s="12"/>
       <c r="B592" s="12"/>
       <c r="C592" s="12"/>
@@ -17815,7 +17823,7 @@
       <c r="X592" s="1"/>
       <c r="Y592" s="1"/>
     </row>
-    <row r="593" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A593" s="12"/>
       <c r="B593" s="12"/>
       <c r="C593" s="12"/>
@@ -17842,7 +17850,7 @@
       <c r="X593" s="1"/>
       <c r="Y593" s="1"/>
     </row>
-    <row r="594" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A594" s="12"/>
       <c r="B594" s="12"/>
       <c r="C594" s="12"/>
@@ -17869,7 +17877,7 @@
       <c r="X594" s="1"/>
       <c r="Y594" s="1"/>
     </row>
-    <row r="595" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A595" s="12"/>
       <c r="B595" s="12"/>
       <c r="C595" s="12"/>
@@ -17896,7 +17904,7 @@
       <c r="X595" s="1"/>
       <c r="Y595" s="1"/>
     </row>
-    <row r="596" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A596" s="12"/>
       <c r="B596" s="12"/>
       <c r="C596" s="12"/>
@@ -17923,7 +17931,7 @@
       <c r="X596" s="1"/>
       <c r="Y596" s="1"/>
     </row>
-    <row r="597" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A597" s="12"/>
       <c r="B597" s="12"/>
       <c r="C597" s="12"/>
@@ -17950,7 +17958,7 @@
       <c r="X597" s="1"/>
       <c r="Y597" s="1"/>
     </row>
-    <row r="598" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A598" s="12"/>
       <c r="B598" s="12"/>
       <c r="C598" s="12"/>
@@ -17977,7 +17985,7 @@
       <c r="X598" s="1"/>
       <c r="Y598" s="1"/>
     </row>
-    <row r="599" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A599" s="12"/>
       <c r="B599" s="12"/>
       <c r="C599" s="12"/>
@@ -18004,7 +18012,7 @@
       <c r="X599" s="1"/>
       <c r="Y599" s="1"/>
     </row>
-    <row r="600" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A600" s="12"/>
       <c r="B600" s="12"/>
       <c r="C600" s="12"/>
@@ -18031,7 +18039,7 @@
       <c r="X600" s="1"/>
       <c r="Y600" s="1"/>
     </row>
-    <row r="601" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A601" s="12"/>
       <c r="B601" s="12"/>
       <c r="C601" s="12"/>
@@ -18058,7 +18066,7 @@
       <c r="X601" s="1"/>
       <c r="Y601" s="1"/>
     </row>
-    <row r="602" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A602" s="12"/>
       <c r="B602" s="12"/>
       <c r="C602" s="12"/>
@@ -18085,7 +18093,7 @@
       <c r="X602" s="1"/>
       <c r="Y602" s="1"/>
     </row>
-    <row r="603" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A603" s="12"/>
       <c r="B603" s="12"/>
       <c r="C603" s="12"/>
@@ -18112,7 +18120,7 @@
       <c r="X603" s="1"/>
       <c r="Y603" s="1"/>
     </row>
-    <row r="604" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A604" s="12"/>
       <c r="B604" s="12"/>
       <c r="C604" s="12"/>
@@ -18139,7 +18147,7 @@
       <c r="X604" s="1"/>
       <c r="Y604" s="1"/>
     </row>
-    <row r="605" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A605" s="12"/>
       <c r="B605" s="12"/>
       <c r="C605" s="12"/>
@@ -18166,7 +18174,7 @@
       <c r="X605" s="1"/>
       <c r="Y605" s="1"/>
     </row>
-    <row r="606" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A606" s="12"/>
       <c r="B606" s="12"/>
       <c r="C606" s="12"/>
@@ -18193,7 +18201,7 @@
       <c r="X606" s="1"/>
       <c r="Y606" s="1"/>
     </row>
-    <row r="607" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A607" s="12"/>
       <c r="B607" s="12"/>
       <c r="C607" s="12"/>
@@ -18220,7 +18228,7 @@
       <c r="X607" s="1"/>
       <c r="Y607" s="1"/>
     </row>
-    <row r="608" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A608" s="12"/>
       <c r="B608" s="12"/>
       <c r="C608" s="12"/>
@@ -18247,7 +18255,7 @@
       <c r="X608" s="1"/>
       <c r="Y608" s="1"/>
     </row>
-    <row r="609" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A609" s="12"/>
       <c r="B609" s="12"/>
       <c r="C609" s="12"/>
@@ -18274,7 +18282,7 @@
       <c r="X609" s="1"/>
       <c r="Y609" s="1"/>
     </row>
-    <row r="610" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A610" s="12"/>
       <c r="B610" s="12"/>
       <c r="C610" s="12"/>
@@ -18301,7 +18309,7 @@
       <c r="X610" s="1"/>
       <c r="Y610" s="1"/>
     </row>
-    <row r="611" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A611" s="12"/>
       <c r="B611" s="12"/>
       <c r="C611" s="12"/>
@@ -18328,7 +18336,7 @@
       <c r="X611" s="1"/>
       <c r="Y611" s="1"/>
     </row>
-    <row r="612" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A612" s="12"/>
       <c r="B612" s="12"/>
       <c r="C612" s="12"/>
@@ -18355,7 +18363,7 @@
       <c r="X612" s="1"/>
       <c r="Y612" s="1"/>
     </row>
-    <row r="613" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A613" s="12"/>
       <c r="B613" s="12"/>
       <c r="C613" s="12"/>
@@ -18382,7 +18390,7 @@
       <c r="X613" s="1"/>
       <c r="Y613" s="1"/>
     </row>
-    <row r="614" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A614" s="12"/>
       <c r="B614" s="12"/>
       <c r="C614" s="12"/>
@@ -18409,7 +18417,7 @@
       <c r="X614" s="1"/>
       <c r="Y614" s="1"/>
     </row>
-    <row r="615" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A615" s="12"/>
       <c r="B615" s="12"/>
       <c r="C615" s="12"/>
@@ -18436,7 +18444,7 @@
       <c r="X615" s="1"/>
       <c r="Y615" s="1"/>
     </row>
-    <row r="616" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A616" s="12"/>
       <c r="B616" s="12"/>
       <c r="C616" s="12"/>
@@ -18463,7 +18471,7 @@
       <c r="X616" s="1"/>
       <c r="Y616" s="1"/>
     </row>
-    <row r="617" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A617" s="12"/>
       <c r="B617" s="12"/>
       <c r="C617" s="12"/>
@@ -18490,7 +18498,7 @@
       <c r="X617" s="1"/>
       <c r="Y617" s="1"/>
     </row>
-    <row r="618" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A618" s="12"/>
       <c r="B618" s="12"/>
       <c r="C618" s="12"/>
@@ -18517,7 +18525,7 @@
       <c r="X618" s="1"/>
       <c r="Y618" s="1"/>
     </row>
-    <row r="619" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A619" s="12"/>
       <c r="B619" s="12"/>
       <c r="C619" s="12"/>
@@ -18544,7 +18552,7 @@
       <c r="X619" s="1"/>
       <c r="Y619" s="1"/>
     </row>
-    <row r="620" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A620" s="12"/>
       <c r="B620" s="12"/>
       <c r="C620" s="12"/>
@@ -18571,7 +18579,7 @@
       <c r="X620" s="1"/>
       <c r="Y620" s="1"/>
     </row>
-    <row r="621" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A621" s="12"/>
       <c r="B621" s="12"/>
       <c r="C621" s="12"/>
@@ -18598,7 +18606,7 @@
       <c r="X621" s="1"/>
       <c r="Y621" s="1"/>
     </row>
-    <row r="622" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A622" s="12"/>
       <c r="B622" s="12"/>
       <c r="C622" s="12"/>
@@ -18625,7 +18633,7 @@
       <c r="X622" s="1"/>
       <c r="Y622" s="1"/>
     </row>
-    <row r="623" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A623" s="12"/>
       <c r="B623" s="12"/>
       <c r="C623" s="12"/>
@@ -18652,7 +18660,7 @@
       <c r="X623" s="1"/>
       <c r="Y623" s="1"/>
     </row>
-    <row r="624" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A624" s="12"/>
       <c r="B624" s="12"/>
       <c r="C624" s="12"/>
@@ -18679,7 +18687,7 @@
       <c r="X624" s="1"/>
       <c r="Y624" s="1"/>
     </row>
-    <row r="625" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A625" s="12"/>
       <c r="B625" s="12"/>
       <c r="C625" s="12"/>
@@ -18706,7 +18714,7 @@
       <c r="X625" s="1"/>
       <c r="Y625" s="1"/>
     </row>
-    <row r="626" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A626" s="12"/>
       <c r="B626" s="12"/>
       <c r="C626" s="12"/>
@@ -18733,7 +18741,7 @@
       <c r="X626" s="1"/>
       <c r="Y626" s="1"/>
     </row>
-    <row r="627" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A627" s="12"/>
       <c r="B627" s="12"/>
       <c r="C627" s="12"/>
@@ -18760,7 +18768,7 @@
       <c r="X627" s="1"/>
       <c r="Y627" s="1"/>
     </row>
-    <row r="628" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A628" s="12"/>
       <c r="B628" s="12"/>
       <c r="C628" s="12"/>
@@ -18787,7 +18795,7 @@
       <c r="X628" s="1"/>
       <c r="Y628" s="1"/>
     </row>
-    <row r="629" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A629" s="12"/>
       <c r="B629" s="12"/>
       <c r="C629" s="12"/>
@@ -18814,7 +18822,7 @@
       <c r="X629" s="1"/>
       <c r="Y629" s="1"/>
     </row>
-    <row r="630" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A630" s="12"/>
       <c r="B630" s="12"/>
       <c r="C630" s="12"/>
@@ -18841,7 +18849,7 @@
       <c r="X630" s="1"/>
       <c r="Y630" s="1"/>
     </row>
-    <row r="631" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A631" s="12"/>
       <c r="B631" s="12"/>
       <c r="C631" s="12"/>
@@ -18868,7 +18876,7 @@
       <c r="X631" s="1"/>
       <c r="Y631" s="1"/>
     </row>
-    <row r="632" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A632" s="12"/>
       <c r="B632" s="12"/>
       <c r="C632" s="12"/>
@@ -18895,7 +18903,7 @@
       <c r="X632" s="1"/>
       <c r="Y632" s="1"/>
     </row>
-    <row r="633" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A633" s="12"/>
       <c r="B633" s="12"/>
       <c r="C633" s="12"/>
@@ -18922,7 +18930,7 @@
       <c r="X633" s="1"/>
       <c r="Y633" s="1"/>
     </row>
-    <row r="634" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A634" s="12"/>
       <c r="B634" s="12"/>
       <c r="C634" s="12"/>
@@ -18949,7 +18957,7 @@
       <c r="X634" s="1"/>
       <c r="Y634" s="1"/>
     </row>
-    <row r="635" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A635" s="12"/>
       <c r="B635" s="12"/>
       <c r="C635" s="12"/>
@@ -18976,7 +18984,7 @@
       <c r="X635" s="1"/>
       <c r="Y635" s="1"/>
     </row>
-    <row r="636" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A636" s="12"/>
       <c r="B636" s="12"/>
       <c r="C636" s="12"/>
@@ -19003,7 +19011,7 @@
       <c r="X636" s="1"/>
       <c r="Y636" s="1"/>
     </row>
-    <row r="637" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A637" s="12"/>
       <c r="B637" s="12"/>
       <c r="C637" s="12"/>
@@ -19030,7 +19038,7 @@
       <c r="X637" s="1"/>
       <c r="Y637" s="1"/>
     </row>
-    <row r="638" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A638" s="12"/>
       <c r="B638" s="12"/>
       <c r="C638" s="12"/>
@@ -19057,7 +19065,7 @@
       <c r="X638" s="1"/>
       <c r="Y638" s="1"/>
     </row>
-    <row r="639" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A639" s="12"/>
       <c r="B639" s="12"/>
       <c r="C639" s="12"/>
@@ -19084,7 +19092,7 @@
       <c r="X639" s="1"/>
       <c r="Y639" s="1"/>
     </row>
-    <row r="640" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A640" s="12"/>
       <c r="B640" s="12"/>
       <c r="C640" s="12"/>
@@ -19111,7 +19119,7 @@
       <c r="X640" s="1"/>
       <c r="Y640" s="1"/>
     </row>
-    <row r="641" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A641" s="12"/>
       <c r="B641" s="12"/>
       <c r="C641" s="12"/>
@@ -19138,7 +19146,7 @@
       <c r="X641" s="1"/>
       <c r="Y641" s="1"/>
     </row>
-    <row r="642" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A642" s="12"/>
       <c r="B642" s="12"/>
       <c r="C642" s="12"/>
@@ -19165,7 +19173,7 @@
       <c r="X642" s="1"/>
       <c r="Y642" s="1"/>
     </row>
-    <row r="643" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A643" s="12"/>
       <c r="B643" s="12"/>
       <c r="C643" s="12"/>
@@ -19192,7 +19200,7 @@
       <c r="X643" s="1"/>
       <c r="Y643" s="1"/>
     </row>
-    <row r="644" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A644" s="12"/>
       <c r="B644" s="12"/>
       <c r="C644" s="12"/>
@@ -19219,7 +19227,7 @@
       <c r="X644" s="1"/>
       <c r="Y644" s="1"/>
     </row>
-    <row r="645" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A645" s="12"/>
       <c r="B645" s="12"/>
       <c r="C645" s="12"/>
@@ -19246,7 +19254,7 @@
       <c r="X645" s="1"/>
       <c r="Y645" s="1"/>
     </row>
-    <row r="646" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A646" s="12"/>
       <c r="B646" s="12"/>
       <c r="C646" s="12"/>
@@ -19273,7 +19281,7 @@
       <c r="X646" s="1"/>
       <c r="Y646" s="1"/>
     </row>
-    <row r="647" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A647" s="12"/>
       <c r="B647" s="12"/>
       <c r="C647" s="12"/>
@@ -19300,7 +19308,7 @@
       <c r="X647" s="1"/>
       <c r="Y647" s="1"/>
     </row>
-    <row r="648" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A648" s="12"/>
       <c r="B648" s="12"/>
       <c r="C648" s="12"/>
@@ -19327,7 +19335,7 @@
       <c r="X648" s="1"/>
       <c r="Y648" s="1"/>
     </row>
-    <row r="649" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A649" s="12"/>
       <c r="B649" s="12"/>
       <c r="C649" s="12"/>
@@ -19354,7 +19362,7 @@
       <c r="X649" s="1"/>
       <c r="Y649" s="1"/>
     </row>
-    <row r="650" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A650" s="12"/>
       <c r="B650" s="12"/>
       <c r="C650" s="12"/>
@@ -19381,7 +19389,7 @@
       <c r="X650" s="1"/>
       <c r="Y650" s="1"/>
     </row>
-    <row r="651" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A651" s="12"/>
       <c r="B651" s="12"/>
       <c r="C651" s="12"/>
@@ -19408,7 +19416,7 @@
       <c r="X651" s="1"/>
       <c r="Y651" s="1"/>
     </row>
-    <row r="652" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A652" s="12"/>
       <c r="B652" s="12"/>
       <c r="C652" s="12"/>
@@ -19435,7 +19443,7 @@
       <c r="X652" s="1"/>
       <c r="Y652" s="1"/>
     </row>
-    <row r="653" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A653" s="12"/>
       <c r="B653" s="12"/>
       <c r="C653" s="12"/>
@@ -19462,7 +19470,7 @@
       <c r="X653" s="1"/>
       <c r="Y653" s="1"/>
     </row>
-    <row r="654" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A654" s="12"/>
       <c r="B654" s="12"/>
       <c r="C654" s="12"/>
@@ -19489,7 +19497,7 @@
       <c r="X654" s="1"/>
       <c r="Y654" s="1"/>
     </row>
-    <row r="655" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A655" s="12"/>
       <c r="B655" s="12"/>
       <c r="C655" s="12"/>
@@ -19516,7 +19524,7 @@
       <c r="X655" s="1"/>
       <c r="Y655" s="1"/>
     </row>
-    <row r="656" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A656" s="12"/>
       <c r="B656" s="12"/>
       <c r="C656" s="12"/>
@@ -19543,7 +19551,7 @@
       <c r="X656" s="1"/>
       <c r="Y656" s="1"/>
     </row>
-    <row r="657" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A657" s="12"/>
       <c r="B657" s="12"/>
       <c r="C657" s="12"/>
@@ -19570,7 +19578,7 @@
       <c r="X657" s="1"/>
       <c r="Y657" s="1"/>
     </row>
-    <row r="658" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A658" s="12"/>
       <c r="B658" s="12"/>
       <c r="C658" s="12"/>
@@ -19597,7 +19605,7 @@
       <c r="X658" s="1"/>
       <c r="Y658" s="1"/>
     </row>
-    <row r="659" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A659" s="12"/>
       <c r="B659" s="12"/>
       <c r="C659" s="12"/>
@@ -19624,7 +19632,7 @@
       <c r="X659" s="1"/>
       <c r="Y659" s="1"/>
     </row>
-    <row r="660" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A660" s="12"/>
       <c r="B660" s="12"/>
       <c r="C660" s="12"/>
@@ -19651,7 +19659,7 @@
       <c r="X660" s="1"/>
       <c r="Y660" s="1"/>
     </row>
-    <row r="661" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A661" s="12"/>
       <c r="B661" s="12"/>
       <c r="C661" s="12"/>
@@ -19678,7 +19686,7 @@
       <c r="X661" s="1"/>
       <c r="Y661" s="1"/>
     </row>
-    <row r="662" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A662" s="12"/>
       <c r="B662" s="12"/>
       <c r="C662" s="12"/>
@@ -19705,7 +19713,7 @@
       <c r="X662" s="1"/>
       <c r="Y662" s="1"/>
     </row>
-    <row r="663" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A663" s="12"/>
       <c r="B663" s="12"/>
       <c r="C663" s="12"/>
@@ -19732,7 +19740,7 @@
       <c r="X663" s="1"/>
       <c r="Y663" s="1"/>
     </row>
-    <row r="664" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A664" s="12"/>
       <c r="B664" s="12"/>
       <c r="C664" s="12"/>
@@ -19759,7 +19767,7 @@
       <c r="X664" s="1"/>
       <c r="Y664" s="1"/>
     </row>
-    <row r="665" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A665" s="12"/>
       <c r="B665" s="12"/>
       <c r="C665" s="12"/>
@@ -19786,7 +19794,7 @@
       <c r="X665" s="1"/>
       <c r="Y665" s="1"/>
     </row>
-    <row r="666" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A666" s="12"/>
       <c r="B666" s="12"/>
       <c r="C666" s="12"/>
@@ -19813,7 +19821,7 @@
       <c r="X666" s="1"/>
       <c r="Y666" s="1"/>
     </row>
-    <row r="667" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A667" s="12"/>
       <c r="B667" s="12"/>
       <c r="C667" s="12"/>
@@ -19840,7 +19848,7 @@
       <c r="X667" s="1"/>
       <c r="Y667" s="1"/>
     </row>
-    <row r="668" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A668" s="12"/>
       <c r="B668" s="12"/>
       <c r="C668" s="12"/>
@@ -19867,7 +19875,7 @@
       <c r="X668" s="1"/>
       <c r="Y668" s="1"/>
     </row>
-    <row r="669" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A669" s="12"/>
       <c r="B669" s="12"/>
       <c r="C669" s="12"/>
@@ -19894,7 +19902,7 @@
       <c r="X669" s="1"/>
       <c r="Y669" s="1"/>
     </row>
-    <row r="670" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A670" s="12"/>
       <c r="B670" s="12"/>
       <c r="C670" s="12"/>
@@ -19921,7 +19929,7 @@
       <c r="X670" s="1"/>
       <c r="Y670" s="1"/>
     </row>
-    <row r="671" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A671" s="12"/>
       <c r="B671" s="12"/>
       <c r="C671" s="12"/>
@@ -19948,7 +19956,7 @@
       <c r="X671" s="1"/>
       <c r="Y671" s="1"/>
     </row>
-    <row r="672" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A672" s="12"/>
       <c r="B672" s="12"/>
       <c r="C672" s="12"/>
@@ -19975,7 +19983,7 @@
       <c r="X672" s="1"/>
       <c r="Y672" s="1"/>
     </row>
-    <row r="673" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A673" s="12"/>
       <c r="B673" s="12"/>
       <c r="C673" s="12"/>
@@ -20002,7 +20010,7 @@
       <c r="X673" s="1"/>
       <c r="Y673" s="1"/>
     </row>
-    <row r="674" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A674" s="12"/>
       <c r="B674" s="12"/>
       <c r="C674" s="12"/>
@@ -20029,7 +20037,7 @@
       <c r="X674" s="1"/>
       <c r="Y674" s="1"/>
     </row>
-    <row r="675" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A675" s="12"/>
       <c r="B675" s="12"/>
       <c r="C675" s="12"/>
@@ -20056,7 +20064,7 @@
       <c r="X675" s="1"/>
       <c r="Y675" s="1"/>
     </row>
-    <row r="676" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A676" s="12"/>
       <c r="B676" s="12"/>
       <c r="C676" s="12"/>
@@ -20083,7 +20091,7 @@
       <c r="X676" s="1"/>
       <c r="Y676" s="1"/>
     </row>
-    <row r="677" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A677" s="12"/>
       <c r="B677" s="12"/>
       <c r="C677" s="12"/>
@@ -20110,7 +20118,7 @@
       <c r="X677" s="1"/>
       <c r="Y677" s="1"/>
     </row>
-    <row r="678" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A678" s="12"/>
       <c r="B678" s="12"/>
       <c r="C678" s="12"/>
@@ -20137,7 +20145,7 @@
       <c r="X678" s="1"/>
       <c r="Y678" s="1"/>
     </row>
-    <row r="679" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A679" s="12"/>
       <c r="B679" s="12"/>
       <c r="C679" s="12"/>
@@ -20164,7 +20172,7 @@
       <c r="X679" s="1"/>
       <c r="Y679" s="1"/>
     </row>
-    <row r="680" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A680" s="12"/>
       <c r="B680" s="12"/>
       <c r="C680" s="12"/>
@@ -20191,7 +20199,7 @@
       <c r="X680" s="1"/>
       <c r="Y680" s="1"/>
     </row>
-    <row r="681" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A681" s="12"/>
       <c r="B681" s="12"/>
       <c r="C681" s="12"/>
@@ -20218,7 +20226,7 @@
       <c r="X681" s="1"/>
       <c r="Y681" s="1"/>
     </row>
-    <row r="682" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A682" s="12"/>
       <c r="B682" s="12"/>
       <c r="C682" s="12"/>
@@ -20245,7 +20253,7 @@
       <c r="X682" s="1"/>
       <c r="Y682" s="1"/>
     </row>
-    <row r="683" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A683" s="12"/>
       <c r="B683" s="12"/>
       <c r="C683" s="12"/>
@@ -20272,7 +20280,7 @@
       <c r="X683" s="1"/>
       <c r="Y683" s="1"/>
     </row>
-    <row r="684" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A684" s="12"/>
       <c r="B684" s="12"/>
       <c r="C684" s="12"/>
@@ -20299,7 +20307,7 @@
       <c r="X684" s="1"/>
       <c r="Y684" s="1"/>
     </row>
-    <row r="685" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A685" s="12"/>
       <c r="B685" s="12"/>
       <c r="C685" s="12"/>
@@ -20326,7 +20334,7 @@
       <c r="X685" s="1"/>
       <c r="Y685" s="1"/>
     </row>
-    <row r="686" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A686" s="12"/>
       <c r="B686" s="12"/>
       <c r="C686" s="12"/>
@@ -20353,7 +20361,7 @@
       <c r="X686" s="1"/>
       <c r="Y686" s="1"/>
     </row>
-    <row r="687" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A687" s="12"/>
       <c r="B687" s="12"/>
       <c r="C687" s="12"/>
@@ -20380,7 +20388,7 @@
       <c r="X687" s="1"/>
       <c r="Y687" s="1"/>
     </row>
-    <row r="688" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A688" s="12"/>
       <c r="B688" s="12"/>
       <c r="C688" s="12"/>
@@ -20407,7 +20415,7 @@
       <c r="X688" s="1"/>
       <c r="Y688" s="1"/>
     </row>
-    <row r="689" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A689" s="12"/>
       <c r="B689" s="12"/>
       <c r="C689" s="12"/>
@@ -20434,7 +20442,7 @@
       <c r="X689" s="1"/>
       <c r="Y689" s="1"/>
     </row>
-    <row r="690" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A690" s="12"/>
       <c r="B690" s="12"/>
       <c r="C690" s="12"/>
@@ -20461,7 +20469,7 @@
       <c r="X690" s="1"/>
       <c r="Y690" s="1"/>
     </row>
-    <row r="691" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A691" s="12"/>
       <c r="B691" s="12"/>
       <c r="C691" s="12"/>
@@ -20488,7 +20496,7 @@
       <c r="X691" s="1"/>
       <c r="Y691" s="1"/>
     </row>
-    <row r="692" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A692" s="12"/>
       <c r="B692" s="12"/>
       <c r="C692" s="12"/>
@@ -20515,7 +20523,7 @@
       <c r="X692" s="1"/>
       <c r="Y692" s="1"/>
     </row>
-    <row r="693" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A693" s="12"/>
       <c r="B693" s="12"/>
       <c r="C693" s="12"/>
@@ -20542,7 +20550,7 @@
       <c r="X693" s="1"/>
       <c r="Y693" s="1"/>
     </row>
-    <row r="694" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A694" s="12"/>
       <c r="B694" s="12"/>
       <c r="C694" s="12"/>
@@ -20569,7 +20577,7 @@
       <c r="X694" s="1"/>
       <c r="Y694" s="1"/>
     </row>
-    <row r="695" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A695" s="12"/>
       <c r="B695" s="12"/>
       <c r="C695" s="12"/>
@@ -20596,7 +20604,7 @@
       <c r="X695" s="1"/>
       <c r="Y695" s="1"/>
     </row>
-    <row r="696" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A696" s="12"/>
       <c r="B696" s="12"/>
       <c r="C696" s="12"/>
@@ -20623,7 +20631,7 @@
       <c r="X696" s="1"/>
       <c r="Y696" s="1"/>
     </row>
-    <row r="697" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A697" s="12"/>
       <c r="B697" s="12"/>
       <c r="C697" s="12"/>
@@ -20650,7 +20658,7 @@
       <c r="X697" s="1"/>
       <c r="Y697" s="1"/>
     </row>
-    <row r="698" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A698" s="12"/>
       <c r="B698" s="12"/>
       <c r="C698" s="12"/>
@@ -20677,7 +20685,7 @@
       <c r="X698" s="1"/>
       <c r="Y698" s="1"/>
     </row>
-    <row r="699" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A699" s="12"/>
       <c r="B699" s="12"/>
       <c r="C699" s="12"/>
@@ -20704,7 +20712,7 @@
       <c r="X699" s="1"/>
       <c r="Y699" s="1"/>
     </row>
-    <row r="700" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A700" s="12"/>
       <c r="B700" s="12"/>
       <c r="C700" s="12"/>
@@ -20731,7 +20739,7 @@
       <c r="X700" s="1"/>
       <c r="Y700" s="1"/>
     </row>
-    <row r="701" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A701" s="12"/>
       <c r="B701" s="12"/>
       <c r="C701" s="12"/>
@@ -20758,7 +20766,7 @@
       <c r="X701" s="1"/>
       <c r="Y701" s="1"/>
     </row>
-    <row r="702" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A702" s="12"/>
       <c r="B702" s="12"/>
       <c r="C702" s="12"/>
@@ -20785,7 +20793,7 @@
       <c r="X702" s="1"/>
       <c r="Y702" s="1"/>
     </row>
-    <row r="703" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A703" s="12"/>
       <c r="B703" s="12"/>
       <c r="C703" s="12"/>
@@ -20812,7 +20820,7 @@
       <c r="X703" s="1"/>
       <c r="Y703" s="1"/>
     </row>
-    <row r="704" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A704" s="12"/>
       <c r="B704" s="12"/>
       <c r="C704" s="12"/>
@@ -20839,7 +20847,7 @@
       <c r="X704" s="1"/>
       <c r="Y704" s="1"/>
     </row>
-    <row r="705" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A705" s="12"/>
       <c r="B705" s="12"/>
       <c r="C705" s="12"/>
@@ -20866,7 +20874,7 @@
       <c r="X705" s="1"/>
       <c r="Y705" s="1"/>
     </row>
-    <row r="706" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A706" s="12"/>
       <c r="B706" s="12"/>
       <c r="C706" s="12"/>
@@ -20893,7 +20901,7 @@
       <c r="X706" s="1"/>
       <c r="Y706" s="1"/>
     </row>
-    <row r="707" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A707" s="12"/>
       <c r="B707" s="12"/>
       <c r="C707" s="12"/>
@@ -20920,7 +20928,7 @@
       <c r="X707" s="1"/>
       <c r="Y707" s="1"/>
     </row>
-    <row r="708" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A708" s="12"/>
       <c r="B708" s="12"/>
       <c r="C708" s="12"/>
@@ -20947,7 +20955,7 @@
       <c r="X708" s="1"/>
       <c r="Y708" s="1"/>
     </row>
-    <row r="709" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A709" s="12"/>
       <c r="B709" s="12"/>
       <c r="C709" s="12"/>
@@ -20974,7 +20982,7 @@
       <c r="X709" s="1"/>
       <c r="Y709" s="1"/>
     </row>
-    <row r="710" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A710" s="12"/>
       <c r="B710" s="12"/>
       <c r="C710" s="12"/>
@@ -21001,7 +21009,7 @@
       <c r="X710" s="1"/>
       <c r="Y710" s="1"/>
     </row>
-    <row r="711" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A711" s="12"/>
       <c r="B711" s="12"/>
       <c r="C711" s="12"/>
@@ -21028,7 +21036,7 @@
       <c r="X711" s="1"/>
       <c r="Y711" s="1"/>
     </row>
-    <row r="712" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A712" s="12"/>
       <c r="B712" s="12"/>
       <c r="C712" s="12"/>
@@ -21055,7 +21063,7 @@
       <c r="X712" s="1"/>
       <c r="Y712" s="1"/>
     </row>
-    <row r="713" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A713" s="12"/>
       <c r="B713" s="12"/>
       <c r="C713" s="12"/>
@@ -21082,7 +21090,7 @@
       <c r="X713" s="1"/>
       <c r="Y713" s="1"/>
     </row>
-    <row r="714" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A714" s="12"/>
       <c r="B714" s="12"/>
       <c r="C714" s="12"/>
@@ -21109,7 +21117,7 @@
       <c r="X714" s="1"/>
       <c r="Y714" s="1"/>
     </row>
-    <row r="715" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A715" s="12"/>
       <c r="B715" s="12"/>
       <c r="C715" s="12"/>
@@ -21136,7 +21144,7 @@
       <c r="X715" s="1"/>
       <c r="Y715" s="1"/>
     </row>
-    <row r="716" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A716" s="12"/>
       <c r="B716" s="12"/>
       <c r="C716" s="12"/>
@@ -21163,7 +21171,7 @@
       <c r="X716" s="1"/>
       <c r="Y716" s="1"/>
     </row>
-    <row r="717" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A717" s="12"/>
       <c r="B717" s="12"/>
       <c r="C717" s="12"/>
@@ -21190,7 +21198,7 @@
       <c r="X717" s="1"/>
       <c r="Y717" s="1"/>
     </row>
-    <row r="718" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A718" s="12"/>
       <c r="B718" s="12"/>
       <c r="C718" s="12"/>
@@ -21217,7 +21225,7 @@
       <c r="X718" s="1"/>
       <c r="Y718" s="1"/>
     </row>
-    <row r="719" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A719" s="12"/>
       <c r="B719" s="12"/>
       <c r="C719" s="12"/>
@@ -21244,7 +21252,7 @@
       <c r="X719" s="1"/>
       <c r="Y719" s="1"/>
     </row>
-    <row r="720" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A720" s="12"/>
       <c r="B720" s="12"/>
       <c r="C720" s="12"/>
@@ -21271,7 +21279,7 @@
       <c r="X720" s="1"/>
       <c r="Y720" s="1"/>
     </row>
-    <row r="721" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A721" s="12"/>
       <c r="B721" s="12"/>
       <c r="C721" s="12"/>
@@ -21298,7 +21306,7 @@
       <c r="X721" s="1"/>
       <c r="Y721" s="1"/>
     </row>
-    <row r="722" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A722" s="12"/>
       <c r="B722" s="12"/>
       <c r="C722" s="12"/>
@@ -21325,7 +21333,7 @@
       <c r="X722" s="1"/>
       <c r="Y722" s="1"/>
     </row>
-    <row r="723" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A723" s="12"/>
       <c r="B723" s="12"/>
       <c r="C723" s="12"/>
@@ -21352,7 +21360,7 @@
       <c r="X723" s="1"/>
       <c r="Y723" s="1"/>
     </row>
-    <row r="724" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A724" s="12"/>
       <c r="B724" s="12"/>
       <c r="C724" s="12"/>
@@ -21379,7 +21387,7 @@
       <c r="X724" s="1"/>
       <c r="Y724" s="1"/>
     </row>
-    <row r="725" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A725" s="12"/>
       <c r="B725" s="12"/>
       <c r="C725" s="12"/>
@@ -21406,7 +21414,7 @@
       <c r="X725" s="1"/>
       <c r="Y725" s="1"/>
     </row>
-    <row r="726" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A726" s="12"/>
       <c r="B726" s="12"/>
       <c r="C726" s="12"/>
@@ -21433,7 +21441,7 @@
       <c r="X726" s="1"/>
       <c r="Y726" s="1"/>
     </row>
-    <row r="727" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A727" s="12"/>
       <c r="B727" s="12"/>
       <c r="C727" s="12"/>
@@ -21460,7 +21468,7 @@
       <c r="X727" s="1"/>
       <c r="Y727" s="1"/>
     </row>
-    <row r="728" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A728" s="12"/>
       <c r="B728" s="12"/>
       <c r="C728" s="12"/>
@@ -21487,7 +21495,7 @@
       <c r="X728" s="1"/>
       <c r="Y728" s="1"/>
     </row>
-    <row r="729" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A729" s="12"/>
       <c r="B729" s="12"/>
       <c r="C729" s="12"/>
@@ -21514,7 +21522,7 @@
       <c r="X729" s="1"/>
       <c r="Y729" s="1"/>
     </row>
-    <row r="730" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A730" s="12"/>
       <c r="B730" s="12"/>
       <c r="C730" s="12"/>
@@ -21541,7 +21549,7 @@
       <c r="X730" s="1"/>
       <c r="Y730" s="1"/>
     </row>
-    <row r="731" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A731" s="12"/>
       <c r="B731" s="12"/>
       <c r="C731" s="12"/>
@@ -21568,7 +21576,7 @@
       <c r="X731" s="1"/>
       <c r="Y731" s="1"/>
     </row>
-    <row r="732" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A732" s="12"/>
       <c r="B732" s="12"/>
       <c r="C732" s="12"/>
@@ -21595,7 +21603,7 @@
       <c r="X732" s="1"/>
       <c r="Y732" s="1"/>
     </row>
-    <row r="733" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A733" s="12"/>
       <c r="B733" s="12"/>
       <c r="C733" s="12"/>
@@ -21622,7 +21630,7 @@
       <c r="X733" s="1"/>
       <c r="Y733" s="1"/>
     </row>
-    <row r="734" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A734" s="12"/>
       <c r="B734" s="12"/>
       <c r="C734" s="12"/>
@@ -21649,7 +21657,7 @@
       <c r="X734" s="1"/>
       <c r="Y734" s="1"/>
     </row>
-    <row r="735" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A735" s="12"/>
       <c r="B735" s="12"/>
       <c r="C735" s="12"/>
@@ -21676,7 +21684,7 @@
       <c r="X735" s="1"/>
       <c r="Y735" s="1"/>
     </row>
-    <row r="736" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A736" s="12"/>
       <c r="B736" s="12"/>
       <c r="C736" s="12"/>
@@ -21703,7 +21711,7 @@
       <c r="X736" s="1"/>
       <c r="Y736" s="1"/>
     </row>
-    <row r="737" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A737" s="12"/>
       <c r="B737" s="12"/>
       <c r="C737" s="12"/>
@@ -21730,7 +21738,7 @@
       <c r="X737" s="1"/>
       <c r="Y737" s="1"/>
     </row>
-    <row r="738" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A738" s="12"/>
       <c r="B738" s="12"/>
       <c r="C738" s="12"/>
@@ -21757,7 +21765,7 @@
       <c r="X738" s="1"/>
       <c r="Y738" s="1"/>
     </row>
-    <row r="739" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A739" s="12"/>
       <c r="B739" s="12"/>
       <c r="C739" s="12"/>
@@ -21784,7 +21792,7 @@
       <c r="X739" s="1"/>
       <c r="Y739" s="1"/>
     </row>
-    <row r="740" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A740" s="12"/>
       <c r="B740" s="12"/>
       <c r="C740" s="12"/>
@@ -21811,7 +21819,7 @@
       <c r="X740" s="1"/>
       <c r="Y740" s="1"/>
     </row>
-    <row r="741" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A741" s="12"/>
       <c r="B741" s="12"/>
       <c r="C741" s="12"/>
@@ -21838,7 +21846,7 @@
       <c r="X741" s="1"/>
       <c r="Y741" s="1"/>
     </row>
-    <row r="742" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A742" s="12"/>
       <c r="B742" s="12"/>
       <c r="C742" s="12"/>
@@ -21865,7 +21873,7 @@
       <c r="X742" s="1"/>
       <c r="Y742" s="1"/>
     </row>
-    <row r="743" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A743" s="12"/>
       <c r="B743" s="12"/>
       <c r="C743" s="12"/>
@@ -21892,7 +21900,7 @@
       <c r="X743" s="1"/>
       <c r="Y743" s="1"/>
     </row>
-    <row r="744" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A744" s="12"/>
       <c r="B744" s="12"/>
       <c r="C744" s="12"/>
@@ -21919,7 +21927,7 @@
       <c r="X744" s="1"/>
       <c r="Y744" s="1"/>
     </row>
-    <row r="745" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A745" s="12"/>
       <c r="B745" s="12"/>
       <c r="C745" s="12"/>
@@ -21946,7 +21954,7 @@
       <c r="X745" s="1"/>
       <c r="Y745" s="1"/>
     </row>
-    <row r="746" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A746" s="12"/>
       <c r="B746" s="12"/>
       <c r="C746" s="12"/>
@@ -21973,7 +21981,7 @@
       <c r="X746" s="1"/>
       <c r="Y746" s="1"/>
     </row>
-    <row r="747" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A747" s="12"/>
       <c r="B747" s="12"/>
       <c r="C747" s="12"/>
@@ -22000,7 +22008,7 @@
       <c r="X747" s="1"/>
       <c r="Y747" s="1"/>
     </row>
-    <row r="748" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A748" s="12"/>
       <c r="B748" s="12"/>
       <c r="C748" s="12"/>
@@ -22027,7 +22035,7 @@
       <c r="X748" s="1"/>
       <c r="Y748" s="1"/>
     </row>
-    <row r="749" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A749" s="12"/>
       <c r="B749" s="12"/>
       <c r="C749" s="12"/>
@@ -22054,7 +22062,7 @@
       <c r="X749" s="1"/>
       <c r="Y749" s="1"/>
     </row>
-    <row r="750" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A750" s="12"/>
       <c r="B750" s="12"/>
       <c r="C750" s="12"/>
@@ -22081,7 +22089,7 @@
       <c r="X750" s="1"/>
       <c r="Y750" s="1"/>
     </row>
-    <row r="751" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A751" s="12"/>
       <c r="B751" s="12"/>
       <c r="C751" s="12"/>
@@ -22108,7 +22116,7 @@
       <c r="X751" s="1"/>
       <c r="Y751" s="1"/>
     </row>
-    <row r="752" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A752" s="12"/>
       <c r="B752" s="12"/>
       <c r="C752" s="12"/>
@@ -22135,7 +22143,7 @@
       <c r="X752" s="1"/>
       <c r="Y752" s="1"/>
     </row>
-    <row r="753" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A753" s="12"/>
       <c r="B753" s="12"/>
       <c r="C753" s="12"/>
@@ -22162,7 +22170,7 @@
       <c r="X753" s="1"/>
       <c r="Y753" s="1"/>
     </row>
-    <row r="754" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A754" s="12"/>
       <c r="B754" s="12"/>
       <c r="C754" s="12"/>
@@ -22189,7 +22197,7 @@
       <c r="X754" s="1"/>
       <c r="Y754" s="1"/>
     </row>
-    <row r="755" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A755" s="12"/>
       <c r="B755" s="12"/>
       <c r="C755" s="12"/>
@@ -22216,7 +22224,7 @@
       <c r="X755" s="1"/>
       <c r="Y755" s="1"/>
     </row>
-    <row r="756" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A756" s="12"/>
       <c r="B756" s="12"/>
       <c r="C756" s="12"/>
@@ -22243,7 +22251,7 @@
       <c r="X756" s="1"/>
       <c r="Y756" s="1"/>
     </row>
-    <row r="757" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A757" s="12"/>
       <c r="B757" s="12"/>
       <c r="C757" s="12"/>
@@ -22270,7 +22278,7 @@
       <c r="X757" s="1"/>
       <c r="Y757" s="1"/>
     </row>
-    <row r="758" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A758" s="12"/>
       <c r="B758" s="12"/>
       <c r="C758" s="12"/>
@@ -22297,7 +22305,7 @@
       <c r="X758" s="1"/>
       <c r="Y758" s="1"/>
     </row>
-    <row r="759" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A759" s="12"/>
       <c r="B759" s="12"/>
       <c r="C759" s="12"/>
@@ -22324,7 +22332,7 @@
       <c r="X759" s="1"/>
       <c r="Y759" s="1"/>
     </row>
-    <row r="760" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A760" s="12"/>
       <c r="B760" s="12"/>
       <c r="C760" s="12"/>
@@ -22351,7 +22359,7 @@
       <c r="X760" s="1"/>
       <c r="Y760" s="1"/>
     </row>
-    <row r="761" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A761" s="12"/>
       <c r="B761" s="12"/>
       <c r="C761" s="12"/>
@@ -22378,7 +22386,7 @@
       <c r="X761" s="1"/>
       <c r="Y761" s="1"/>
     </row>
-    <row r="762" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A762" s="12"/>
       <c r="B762" s="12"/>
       <c r="C762" s="12"/>
@@ -22405,7 +22413,7 @@
       <c r="X762" s="1"/>
       <c r="Y762" s="1"/>
     </row>
-    <row r="763" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A763" s="12"/>
       <c r="B763" s="12"/>
       <c r="C763" s="12"/>
@@ -22432,7 +22440,7 @@
       <c r="X763" s="1"/>
       <c r="Y763" s="1"/>
     </row>
-    <row r="764" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A764" s="12"/>
       <c r="B764" s="12"/>
       <c r="C764" s="12"/>
@@ -22459,7 +22467,7 @@
       <c r="X764" s="1"/>
       <c r="Y764" s="1"/>
     </row>
-    <row r="765" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A765" s="12"/>
       <c r="B765" s="12"/>
       <c r="C765" s="12"/>
@@ -22486,7 +22494,7 @@
       <c r="X765" s="1"/>
       <c r="Y765" s="1"/>
     </row>
-    <row r="766" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A766" s="12"/>
       <c r="B766" s="12"/>
       <c r="C766" s="12"/>
@@ -22513,7 +22521,7 @@
       <c r="X766" s="1"/>
       <c r="Y766" s="1"/>
     </row>
-    <row r="767" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A767" s="12"/>
       <c r="B767" s="12"/>
       <c r="C767" s="12"/>
@@ -22540,7 +22548,7 @@
       <c r="X767" s="1"/>
       <c r="Y767" s="1"/>
     </row>
-    <row r="768" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A768" s="12"/>
       <c r="B768" s="12"/>
       <c r="C768" s="12"/>
@@ -22567,7 +22575,7 @@
       <c r="X768" s="1"/>
       <c r="Y768" s="1"/>
     </row>
-    <row r="769" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A769" s="12"/>
       <c r="B769" s="12"/>
       <c r="C769" s="12"/>
@@ -22594,7 +22602,7 @@
       <c r="X769" s="1"/>
       <c r="Y769" s="1"/>
     </row>
-    <row r="770" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A770" s="12"/>
       <c r="B770" s="12"/>
       <c r="C770" s="12"/>
@@ -22621,7 +22629,7 @@
       <c r="X770" s="1"/>
       <c r="Y770" s="1"/>
     </row>
-    <row r="771" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A771" s="12"/>
       <c r="B771" s="12"/>
       <c r="C771" s="12"/>
@@ -22648,7 +22656,7 @@
       <c r="X771" s="1"/>
       <c r="Y771" s="1"/>
     </row>
-    <row r="772" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A772" s="12"/>
       <c r="B772" s="12"/>
       <c r="C772" s="12"/>
@@ -22675,7 +22683,7 @@
       <c r="X772" s="1"/>
       <c r="Y772" s="1"/>
     </row>
-    <row r="773" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A773" s="12"/>
       <c r="B773" s="12"/>
       <c r="C773" s="12"/>
@@ -22702,7 +22710,7 @@
       <c r="X773" s="1"/>
       <c r="Y773" s="1"/>
     </row>
-    <row r="774" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A774" s="12"/>
       <c r="B774" s="12"/>
       <c r="C774" s="12"/>
@@ -22729,7 +22737,7 @@
       <c r="X774" s="1"/>
       <c r="Y774" s="1"/>
     </row>
-    <row r="775" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A775" s="12"/>
       <c r="B775" s="12"/>
       <c r="C775" s="12"/>
@@ -22756,7 +22764,7 @@
       <c r="X775" s="1"/>
       <c r="Y775" s="1"/>
     </row>
-    <row r="776" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A776" s="12"/>
       <c r="B776" s="12"/>
       <c r="C776" s="12"/>
@@ -22783,7 +22791,7 @@
       <c r="X776" s="1"/>
       <c r="Y776" s="1"/>
     </row>
-    <row r="777" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A777" s="12"/>
       <c r="B777" s="12"/>
       <c r="C777" s="12"/>
@@ -22810,7 +22818,7 @@
       <c r="X777" s="1"/>
       <c r="Y777" s="1"/>
     </row>
-    <row r="778" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A778" s="12"/>
       <c r="B778" s="12"/>
       <c r="C778" s="12"/>
@@ -22837,7 +22845,7 @@
       <c r="X778" s="1"/>
       <c r="Y778" s="1"/>
     </row>
-    <row r="779" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A779" s="12"/>
       <c r="B779" s="12"/>
       <c r="C779" s="12"/>
@@ -22864,7 +22872,7 @@
       <c r="X779" s="1"/>
       <c r="Y779" s="1"/>
     </row>
-    <row r="780" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A780" s="12"/>
       <c r="B780" s="12"/>
       <c r="C780" s="12"/>
@@ -22891,7 +22899,7 @@
       <c r="X780" s="1"/>
       <c r="Y780" s="1"/>
     </row>
-    <row r="781" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A781" s="12"/>
       <c r="B781" s="12"/>
       <c r="C781" s="12"/>
@@ -22918,7 +22926,7 @@
       <c r="X781" s="1"/>
       <c r="Y781" s="1"/>
     </row>
-    <row r="782" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A782" s="12"/>
       <c r="B782" s="12"/>
       <c r="C782" s="12"/>
@@ -22945,7 +22953,7 @@
       <c r="X782" s="1"/>
       <c r="Y782" s="1"/>
     </row>
-    <row r="783" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A783" s="12"/>
       <c r="B783" s="12"/>
       <c r="C783" s="12"/>
@@ -22972,7 +22980,7 @@
       <c r="X783" s="1"/>
       <c r="Y783" s="1"/>
     </row>
-    <row r="784" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A784" s="12"/>
       <c r="B784" s="12"/>
       <c r="C784" s="12"/>
@@ -22999,7 +23007,7 @@
       <c r="X784" s="1"/>
       <c r="Y784" s="1"/>
     </row>
-    <row r="785" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A785" s="12"/>
       <c r="B785" s="12"/>
       <c r="C785" s="12"/>
@@ -23026,7 +23034,7 @@
       <c r="X785" s="1"/>
       <c r="Y785" s="1"/>
     </row>
-    <row r="786" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A786" s="12"/>
       <c r="B786" s="12"/>
       <c r="C786" s="12"/>
@@ -23053,7 +23061,7 @@
       <c r="X786" s="1"/>
       <c r="Y786" s="1"/>
     </row>
-    <row r="787" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A787" s="12"/>
       <c r="B787" s="12"/>
       <c r="C787" s="12"/>
@@ -23080,7 +23088,7 @@
       <c r="X787" s="1"/>
       <c r="Y787" s="1"/>
     </row>
-    <row r="788" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A788" s="12"/>
       <c r="B788" s="12"/>
       <c r="C788" s="12"/>
@@ -23107,7 +23115,7 @@
       <c r="X788" s="1"/>
       <c r="Y788" s="1"/>
     </row>
-    <row r="789" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A789" s="12"/>
       <c r="B789" s="12"/>
       <c r="C789" s="12"/>
@@ -23134,7 +23142,7 @@
       <c r="X789" s="1"/>
       <c r="Y789" s="1"/>
     </row>
-    <row r="790" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A790" s="12"/>
       <c r="B790" s="12"/>
       <c r="C790" s="12"/>
@@ -23161,7 +23169,7 @@
       <c r="X790" s="1"/>
       <c r="Y790" s="1"/>
     </row>
-    <row r="791" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A791" s="12"/>
       <c r="B791" s="12"/>
       <c r="C791" s="12"/>
@@ -23188,7 +23196,7 @@
       <c r="X791" s="1"/>
       <c r="Y791" s="1"/>
     </row>
-    <row r="792" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A792" s="12"/>
       <c r="B792" s="12"/>
       <c r="C792" s="12"/>
@@ -23215,7 +23223,7 @@
       <c r="X792" s="1"/>
       <c r="Y792" s="1"/>
     </row>
-    <row r="793" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A793" s="12"/>
       <c r="B793" s="12"/>
       <c r="C793" s="12"/>
@@ -23242,7 +23250,7 @@
       <c r="X793" s="1"/>
       <c r="Y793" s="1"/>
     </row>
-    <row r="794" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A794" s="12"/>
       <c r="B794" s="12"/>
       <c r="C794" s="12"/>
@@ -23269,7 +23277,7 @@
       <c r="X794" s="1"/>
       <c r="Y794" s="1"/>
     </row>
-    <row r="795" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A795" s="12"/>
       <c r="B795" s="12"/>
       <c r="C795" s="12"/>
@@ -23296,7 +23304,7 @@
       <c r="X795" s="1"/>
       <c r="Y795" s="1"/>
     </row>
-    <row r="796" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A796" s="12"/>
       <c r="B796" s="12"/>
       <c r="C796" s="12"/>
@@ -23323,7 +23331,7 @@
       <c r="X796" s="1"/>
       <c r="Y796" s="1"/>
     </row>
-    <row r="797" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A797" s="12"/>
       <c r="B797" s="12"/>
       <c r="C797" s="12"/>
@@ -23350,7 +23358,7 @@
       <c r="X797" s="1"/>
       <c r="Y797" s="1"/>
     </row>
-    <row r="798" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A798" s="12"/>
       <c r="B798" s="12"/>
       <c r="C798" s="12"/>
@@ -23377,7 +23385,7 @@
       <c r="X798" s="1"/>
       <c r="Y798" s="1"/>
     </row>
-    <row r="799" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A799" s="12"/>
       <c r="B799" s="12"/>
       <c r="C799" s="12"/>
@@ -23404,7 +23412,7 @@
       <c r="X799" s="1"/>
       <c r="Y799" s="1"/>
     </row>
-    <row r="800" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A800" s="12"/>
       <c r="B800" s="12"/>
       <c r="C800" s="12"/>
@@ -23431,7 +23439,7 @@
       <c r="X800" s="1"/>
       <c r="Y800" s="1"/>
     </row>
-    <row r="801" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A801" s="12"/>
       <c r="B801" s="12"/>
       <c r="C801" s="12"/>
@@ -23458,7 +23466,7 @@
       <c r="X801" s="1"/>
       <c r="Y801" s="1"/>
     </row>
-    <row r="802" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A802" s="12"/>
       <c r="B802" s="12"/>
       <c r="C802" s="12"/>
@@ -23485,7 +23493,7 @@
       <c r="X802" s="1"/>
       <c r="Y802" s="1"/>
     </row>
-    <row r="803" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A803" s="12"/>
       <c r="B803" s="12"/>
       <c r="C803" s="12"/>
@@ -23512,7 +23520,7 @@
       <c r="X803" s="1"/>
       <c r="Y803" s="1"/>
     </row>
-    <row r="804" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A804" s="12"/>
       <c r="B804" s="12"/>
       <c r="C804" s="12"/>
@@ -23539,7 +23547,7 @@
       <c r="X804" s="1"/>
       <c r="Y804" s="1"/>
     </row>
-    <row r="805" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A805" s="12"/>
       <c r="B805" s="12"/>
       <c r="C805" s="12"/>
@@ -23566,7 +23574,7 @@
       <c r="X805" s="1"/>
       <c r="Y805" s="1"/>
     </row>
-    <row r="806" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A806" s="12"/>
       <c r="B806" s="12"/>
       <c r="C806" s="12"/>
@@ -23593,7 +23601,7 @@
       <c r="X806" s="1"/>
       <c r="Y806" s="1"/>
     </row>
-    <row r="807" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A807" s="12"/>
       <c r="B807" s="12"/>
       <c r="C807" s="12"/>
@@ -23620,7 +23628,7 @@
       <c r="X807" s="1"/>
       <c r="Y807" s="1"/>
     </row>
-    <row r="808" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A808" s="12"/>
       <c r="B808" s="12"/>
       <c r="C808" s="12"/>
@@ -23647,7 +23655,7 @@
       <c r="X808" s="1"/>
       <c r="Y808" s="1"/>
     </row>
-    <row r="809" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A809" s="12"/>
       <c r="B809" s="12"/>
       <c r="C809" s="12"/>
@@ -23674,7 +23682,7 @@
       <c r="X809" s="1"/>
       <c r="Y809" s="1"/>
     </row>
-    <row r="810" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A810" s="12"/>
       <c r="B810" s="12"/>
       <c r="C810" s="12"/>
@@ -23701,7 +23709,7 @@
       <c r="X810" s="1"/>
       <c r="Y810" s="1"/>
     </row>
-    <row r="811" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A811" s="12"/>
       <c r="B811" s="12"/>
       <c r="C811" s="12"/>
@@ -23728,7 +23736,7 @@
       <c r="X811" s="1"/>
       <c r="Y811" s="1"/>
     </row>
-    <row r="812" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A812" s="12"/>
       <c r="B812" s="12"/>
       <c r="C812" s="12"/>
@@ -23755,7 +23763,7 @@
       <c r="X812" s="1"/>
       <c r="Y812" s="1"/>
     </row>
-    <row r="813" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A813" s="12"/>
       <c r="B813" s="12"/>
       <c r="C813" s="12"/>
@@ -23782,7 +23790,7 @@
       <c r="X813" s="1"/>
       <c r="Y813" s="1"/>
     </row>
-    <row r="814" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A814" s="12"/>
       <c r="B814" s="12"/>
       <c r="C814" s="12"/>
@@ -23809,7 +23817,7 @@
       <c r="X814" s="1"/>
       <c r="Y814" s="1"/>
     </row>
-    <row r="815" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A815" s="12"/>
       <c r="B815" s="12"/>
       <c r="C815" s="12"/>
@@ -23836,7 +23844,7 @@
       <c r="X815" s="1"/>
       <c r="Y815" s="1"/>
     </row>
-    <row r="816" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A816" s="12"/>
       <c r="B816" s="12"/>
       <c r="C816" s="12"/>
@@ -23863,7 +23871,7 @@
       <c r="X816" s="1"/>
       <c r="Y816" s="1"/>
     </row>
-    <row r="817" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A817" s="12"/>
       <c r="B817" s="12"/>
       <c r="C817" s="12"/>
@@ -23890,7 +23898,7 @@
       <c r="X817" s="1"/>
       <c r="Y817" s="1"/>
     </row>
-    <row r="818" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A818" s="12"/>
       <c r="B818" s="12"/>
       <c r="C818" s="12"/>
@@ -23917,7 +23925,7 @@
       <c r="X818" s="1"/>
       <c r="Y818" s="1"/>
     </row>
-    <row r="819" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A819" s="12"/>
       <c r="B819" s="12"/>
       <c r="C819" s="12"/>
@@ -23944,7 +23952,7 @@
       <c r="X819" s="1"/>
       <c r="Y819" s="1"/>
     </row>
-    <row r="820" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A820" s="12"/>
       <c r="B820" s="12"/>
       <c r="C820" s="12"/>
@@ -23971,7 +23979,7 @@
       <c r="X820" s="1"/>
       <c r="Y820" s="1"/>
     </row>
-    <row r="821" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A821" s="12"/>
       <c r="B821" s="12"/>
       <c r="C821" s="12"/>
@@ -23998,7 +24006,7 @@
       <c r="X821" s="1"/>
       <c r="Y821" s="1"/>
     </row>
-    <row r="822" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A822" s="12"/>
       <c r="B822" s="12"/>
       <c r="C822" s="12"/>
@@ -24025,7 +24033,7 @@
       <c r="X822" s="1"/>
       <c r="Y822" s="1"/>
     </row>
-    <row r="823" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A823" s="12"/>
       <c r="B823" s="12"/>
       <c r="C823" s="12"/>
@@ -24052,7 +24060,7 @@
       <c r="X823" s="1"/>
       <c r="Y823" s="1"/>
     </row>
-    <row r="824" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A824" s="12"/>
       <c r="B824" s="12"/>
       <c r="C824" s="12"/>
@@ -24079,7 +24087,7 @@
       <c r="X824" s="1"/>
       <c r="Y824" s="1"/>
     </row>
-    <row r="825" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A825" s="12"/>
       <c r="B825" s="12"/>
       <c r="C825" s="12"/>
@@ -24106,7 +24114,7 @@
       <c r="X825" s="1"/>
       <c r="Y825" s="1"/>
     </row>
-    <row r="826" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A826" s="12"/>
       <c r="B826" s="12"/>
       <c r="C826" s="12"/>
@@ -24133,7 +24141,7 @@
       <c r="X826" s="1"/>
       <c r="Y826" s="1"/>
     </row>
-    <row r="827" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A827" s="12"/>
       <c r="B827" s="12"/>
       <c r="C827" s="12"/>
@@ -24160,7 +24168,7 @@
       <c r="X827" s="1"/>
       <c r="Y827" s="1"/>
     </row>
-    <row r="828" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A828" s="12"/>
       <c r="B828" s="12"/>
       <c r="C828" s="12"/>
@@ -24187,7 +24195,7 @@
       <c r="X828" s="1"/>
       <c r="Y828" s="1"/>
     </row>
-    <row r="829" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A829" s="12"/>
       <c r="B829" s="12"/>
       <c r="C829" s="12"/>
@@ -24214,7 +24222,7 @@
       <c r="X829" s="1"/>
       <c r="Y829" s="1"/>
     </row>
-    <row r="830" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A830" s="12"/>
       <c r="B830" s="12"/>
       <c r="C830" s="12"/>
@@ -24241,7 +24249,7 @@
       <c r="X830" s="1"/>
       <c r="Y830" s="1"/>
     </row>
-    <row r="831" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A831" s="12"/>
       <c r="B831" s="12"/>
       <c r="C831" s="12"/>
@@ -24268,7 +24276,7 @@
       <c r="X831" s="1"/>
       <c r="Y831" s="1"/>
     </row>
-    <row r="832" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A832" s="12"/>
       <c r="B832" s="12"/>
       <c r="C832" s="12"/>
@@ -24295,7 +24303,7 @@
       <c r="X832" s="1"/>
       <c r="Y832" s="1"/>
     </row>
-    <row r="833" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A833" s="12"/>
       <c r="B833" s="12"/>
       <c r="C833" s="12"/>
@@ -24322,7 +24330,7 @@
       <c r="X833" s="1"/>
       <c r="Y833" s="1"/>
     </row>
-    <row r="834" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A834" s="12"/>
       <c r="B834" s="12"/>
       <c r="C834" s="12"/>
@@ -24349,7 +24357,7 @@
       <c r="X834" s="1"/>
       <c r="Y834" s="1"/>
     </row>
-    <row r="835" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A835" s="12"/>
       <c r="B835" s="12"/>
       <c r="C835" s="12"/>
@@ -24376,7 +24384,7 @@
       <c r="X835" s="1"/>
       <c r="Y835" s="1"/>
     </row>
-    <row r="836" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A836" s="12"/>
       <c r="B836" s="12"/>
       <c r="C836" s="12"/>
@@ -24403,7 +24411,7 @@
       <c r="X836" s="1"/>
       <c r="Y836" s="1"/>
     </row>
-    <row r="837" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A837" s="12"/>
       <c r="B837" s="12"/>
       <c r="C837" s="12"/>
@@ -24430,7 +24438,7 @@
       <c r="X837" s="1"/>
       <c r="Y837" s="1"/>
     </row>
-    <row r="838" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A838" s="12"/>
       <c r="B838" s="12"/>
       <c r="C838" s="12"/>
@@ -24457,7 +24465,7 @@
       <c r="X838" s="1"/>
       <c r="Y838" s="1"/>
     </row>
-    <row r="839" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A839" s="12"/>
       <c r="B839" s="12"/>
       <c r="C839" s="12"/>
@@ -24484,7 +24492,7 @@
       <c r="X839" s="1"/>
       <c r="Y839" s="1"/>
     </row>
-    <row r="840" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A840" s="12"/>
       <c r="B840" s="12"/>
       <c r="C840" s="12"/>
@@ -24511,7 +24519,7 @@
       <c r="X840" s="1"/>
       <c r="Y840" s="1"/>
     </row>
-    <row r="841" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A841" s="12"/>
       <c r="B841" s="12"/>
       <c r="C841" s="12"/>
@@ -24538,7 +24546,7 @@
       <c r="X841" s="1"/>
       <c r="Y841" s="1"/>
     </row>
-    <row r="842" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A842" s="12"/>
       <c r="B842" s="12"/>
       <c r="C842" s="12"/>
@@ -24565,7 +24573,7 @@
       <c r="X842" s="1"/>
       <c r="Y842" s="1"/>
     </row>
-    <row r="843" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A843" s="12"/>
       <c r="B843" s="12"/>
       <c r="C843" s="12"/>
@@ -24592,7 +24600,7 @@
       <c r="X843" s="1"/>
       <c r="Y843" s="1"/>
     </row>
-    <row r="844" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A844" s="12"/>
       <c r="B844" s="12"/>
       <c r="C844" s="12"/>
@@ -24619,7 +24627,7 @@
       <c r="X844" s="1"/>
       <c r="Y844" s="1"/>
     </row>
-    <row r="845" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A845" s="12"/>
       <c r="B845" s="12"/>
       <c r="C845" s="12"/>
@@ -24646,7 +24654,7 @@
       <c r="X845" s="1"/>
       <c r="Y845" s="1"/>
     </row>
-    <row r="846" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A846" s="12"/>
       <c r="B846" s="12"/>
       <c r="C846" s="12"/>
@@ -24673,7 +24681,7 @@
       <c r="X846" s="1"/>
       <c r="Y846" s="1"/>
     </row>
-    <row r="847" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A847" s="12"/>
       <c r="B847" s="12"/>
       <c r="C847" s="12"/>
@@ -24700,7 +24708,7 @@
       <c r="X847" s="1"/>
       <c r="Y847" s="1"/>
     </row>
-    <row r="848" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A848" s="12"/>
       <c r="B848" s="12"/>
       <c r="C848" s="12"/>
@@ -24727,7 +24735,7 @@
       <c r="X848" s="1"/>
       <c r="Y848" s="1"/>
     </row>
-    <row r="849" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A849" s="12"/>
       <c r="B849" s="12"/>
       <c r="C849" s="12"/>
@@ -24754,7 +24762,7 @@
       <c r="X849" s="1"/>
       <c r="Y849" s="1"/>
     </row>
-    <row r="850" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A850" s="12"/>
       <c r="B850" s="12"/>
       <c r="C850" s="12"/>
@@ -24781,7 +24789,7 @@
       <c r="X850" s="1"/>
       <c r="Y850" s="1"/>
     </row>
-    <row r="851" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A851" s="12"/>
       <c r="B851" s="12"/>
       <c r="C851" s="12"/>
@@ -24808,7 +24816,7 @@
       <c r="X851" s="1"/>
       <c r="Y851" s="1"/>
     </row>
-    <row r="852" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A852" s="12"/>
       <c r="B852" s="12"/>
       <c r="C852" s="12"/>
@@ -24835,7 +24843,7 @@
       <c r="X852" s="1"/>
       <c r="Y852" s="1"/>
     </row>
-    <row r="853" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A853" s="12"/>
       <c r="B853" s="12"/>
       <c r="C853" s="12"/>
@@ -24862,7 +24870,7 @@
       <c r="X853" s="1"/>
       <c r="Y853" s="1"/>
     </row>
-    <row r="854" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A854" s="12"/>
       <c r="B854" s="12"/>
       <c r="C854" s="12"/>
@@ -24889,7 +24897,7 @@
       <c r="X854" s="1"/>
       <c r="Y854" s="1"/>
     </row>
-    <row r="855" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A855" s="12"/>
       <c r="B855" s="12"/>
       <c r="C855" s="12"/>
@@ -24922,16 +24930,6 @@
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
   <mergeCells count="26">
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="J12:J13"/>
@@ -24948,71 +24946,81 @@
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="I14:I1048576">
-    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="HASI GABE">
+    <cfRule type="containsText" dxfId="18" priority="23" operator="containsText" text="HASI GABE">
       <formula>NOT(ISERROR(SEARCH("HASI GABE",I14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="PROZESUAN">
+    <cfRule type="containsText" dxfId="17" priority="22" operator="containsText" text="PROZESUAN">
       <formula>NOT(ISERROR(SEARCH("PROZESUAN",I14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="21" operator="containsText" text="EGINDA">
+    <cfRule type="containsText" dxfId="16" priority="21" operator="containsText" text="EGINDA">
       <formula>NOT(ISERROR(SEARCH("EGINDA",I14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D61">
-    <cfRule type="containsText" dxfId="21" priority="20" operator="containsText" text="TSB">
+    <cfRule type="containsText" dxfId="15" priority="20" operator="containsText" text="TSB">
       <formula>NOT(ISERROR(SEARCH("TSB",D14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:H61">
-    <cfRule type="containsText" dxfId="20" priority="12" operator="containsText" text="LANDER">
+    <cfRule type="containsText" dxfId="14" priority="12" operator="containsText" text="LANDER">
       <formula>NOT(ISERROR(SEARCH("LANDER",H14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text="ANDER">
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="ANDER">
       <formula>NOT(ISERROR(SEARCH("ANDER",H14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="ANDER, LANDER">
+    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="ANDER, LANDER">
       <formula>NOT(ISERROR(SEARCH("ANDER, LANDER",H14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="TSB">
+    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="TSB">
       <formula>NOT(ISERROR(SEARCH("TSB",H14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B61">
-    <cfRule type="beginsWith" dxfId="7" priority="11" operator="beginsWith" text="TALDEA:">
+    <cfRule type="beginsWith" dxfId="10" priority="11" operator="beginsWith" text="TALDEA:">
       <formula>LEFT(B14,LEN("TALDEA:"))="TALDEA:"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="8" priority="10" operator="beginsWith" text="APP:">
+    <cfRule type="beginsWith" dxfId="9" priority="10" operator="beginsWith" text="APP:">
       <formula>LEFT(B14,LEN("APP:"))="APP:"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="9" priority="9" operator="beginsWith" text="ERP:">
+    <cfRule type="beginsWith" dxfId="8" priority="9" operator="beginsWith" text="ERP:">
       <formula>LEFT(B14,LEN("ERP:"))="ERP:"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="10" priority="8" operator="beginsWith" text="INTERFAZ:">
+    <cfRule type="beginsWith" dxfId="7" priority="8" operator="beginsWith" text="INTERFAZ:">
       <formula>LEFT(B14,LEN("INTERFAZ:"))="INTERFAZ:"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="DA:">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="DA:">
       <formula>NOT(ISERROR(SEARCH("DA:",B14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="ZERBITZU:">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="ZERBITZU:">
       <formula>NOT(ISERROR(SEARCH("ZERBITZU:",B14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="ENPRESA:">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="ENPRESA:">
       <formula>NOT(ISERROR(SEARCH("ENPRESA:",B14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F61">
-    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="LANDER">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="LANDER">
       <formula>NOT(ISERROR(SEARCH("LANDER",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="ANDER">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="ANDER">
       <formula>NOT(ISERROR(SEARCH("ANDER",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="ANDER, LANDER">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="ANDER, LANDER">
       <formula>NOT(ISERROR(SEARCH("ANDER, LANDER",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="TSB">
+    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="TSB">
       <formula>NOT(ISERROR(SEARCH("TSB",F14)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/0.1- PLANIFIKAZIOA/TSB EGUNEROKOA.xlsx
+++ b/0.1- PLANIFIKAZIOA/TSB EGUNEROKOA.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="54">
   <si>
     <t>ENTREGA</t>
   </si>
@@ -944,41 +944,6 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -998,6 +963,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1028,6 +1002,32 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1528,7 +1528,7 @@
   <dimension ref="A1:Y855"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1544,18 +1544,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="34.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
       <c r="G1" s="16"/>
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
-      <c r="J1" s="56"/>
+      <c r="J1" s="41"/>
       <c r="K1" s="2"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1573,18 +1573,18 @@
       <c r="Y1" s="1"/>
     </row>
     <row r="2" spans="1:25" ht="34.5" x14ac:dyDescent="0.95">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="57"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="42"/>
       <c r="K2" s="2"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1602,16 +1602,16 @@
       <c r="Y2" s="1"/>
     </row>
     <row r="3" spans="1:25" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="58"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="43"/>
       <c r="K3" s="2"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1656,17 +1656,17 @@
       <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="1:25" ht="29.25" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
       <c r="J5" s="6"/>
       <c r="K5" s="2"/>
       <c r="L5" s="1"/>
@@ -1685,21 +1685,21 @@
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="1:25" ht="20.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="77" t="s">
+      <c r="B6" s="63"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="75"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77" t="s">
+      <c r="E6" s="63"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="75"/>
-      <c r="I6" s="76"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="64"/>
       <c r="J6" s="40" t="s">
         <v>17</v>
       </c>
@@ -1720,21 +1720,21 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="50" t="s">
+      <c r="B7" s="73"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="50" t="s">
+      <c r="E7" s="73"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="74"/>
       <c r="J7" s="37" t="s">
         <v>21</v>
       </c>
@@ -1755,19 +1755,19 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="53" t="s">
+      <c r="B8" s="76"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="54"/>
-      <c r="I8" s="55"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="77"/>
       <c r="J8" s="38" t="s">
         <v>23</v>
       </c>
@@ -1788,19 +1788,19 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="41" t="s">
+      <c r="B9" s="49"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="42"/>
-      <c r="I9" s="43"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="50"/>
       <c r="J9" s="39" t="s">
         <v>25</v>
       </c>
@@ -1827,11 +1827,11 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="63" t="s">
+      <c r="G10" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="64"/>
-      <c r="I10" s="65"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="53"/>
       <c r="J10" s="11"/>
       <c r="K10" s="2"/>
       <c r="L10" s="1"/>
@@ -1877,30 +1877,30 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="19.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="71"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="68" t="s">
+      <c r="E12" s="59"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="73" t="s">
+      <c r="H12" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="68" t="s">
+      <c r="I12" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="61" t="s">
+      <c r="J12" s="46" t="s">
         <v>9</v>
       </c>
       <c r="K12" s="1"/>
@@ -1920,9 +1920,9 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" ht="20.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="67"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="14" t="s">
         <v>4</v>
       </c>
@@ -1932,10 +1932,10 @@
       <c r="F13" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="62"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="47"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="1"/>
@@ -2471,7 +2471,9 @@
       <c r="Y27" s="1"/>
     </row>
     <row r="28" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="25"/>
+      <c r="A28" s="25" t="s">
+        <v>34</v>
+      </c>
       <c r="B28" s="34" t="s">
         <v>53</v>
       </c>
@@ -2506,7 +2508,9 @@
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="25"/>
+      <c r="A29" s="25" t="s">
+        <v>34</v>
+      </c>
       <c r="B29" s="34" t="s">
         <v>49</v>
       </c>
@@ -2541,7 +2545,9 @@
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="25"/>
+      <c r="A30" s="25" t="s">
+        <v>34</v>
+      </c>
       <c r="B30" s="34" t="s">
         <v>50</v>
       </c>
@@ -2576,7 +2582,9 @@
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="25"/>
+      <c r="A31" s="25" t="s">
+        <v>34</v>
+      </c>
       <c r="B31" s="34" t="s">
         <v>51</v>
       </c>
@@ -2611,7 +2619,9 @@
       <c r="Y31" s="1"/>
     </row>
     <row r="32" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="26"/>
+      <c r="A32" s="26" t="s">
+        <v>34</v>
+      </c>
       <c r="B32" s="35" t="s">
         <v>52</v>
       </c>
@@ -24930,6 +24940,16 @@
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
   <mergeCells count="26">
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="J12:J13"/>
@@ -24946,16 +24966,6 @@
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="I14:I1048576">
     <cfRule type="containsText" dxfId="18" priority="23" operator="containsText" text="HASI GABE">

--- a/0.1- PLANIFIKAZIOA/TSB EGUNEROKOA.xlsx
+++ b/0.1- PLANIFIKAZIOA/TSB EGUNEROKOA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikaltamirapaag2\Documents\GitHub\ERRONKA-TSB-RETURNS\0.1- PLANIFIKAZIOA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikaltamirapaag2\Desktop\ERRONKA TSB RETURNS\0.1- PLANIFIKAZIOA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12312"/>
   </bookViews>
   <sheets>
     <sheet name="Planifikazioa" sheetId="3" r:id="rId1"/>
@@ -944,6 +944,41 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -963,15 +998,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1002,32 +1028,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1527,35 +1527,35 @@
   </sheetPr>
   <dimension ref="A1:Y855"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I27" sqref="B27:I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.42578125" style="15"/>
-    <col min="6" max="6" width="20.42578125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="31.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="15"/>
-    <col min="9" max="9" width="22.85546875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="27.7109375" style="15" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14.44140625" style="15"/>
+    <col min="6" max="6" width="20.44140625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="31.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="15"/>
+    <col min="9" max="9" width="22.88671875" style="15" customWidth="1"/>
+    <col min="10" max="10" width="27.6640625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="34.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:25" ht="34.799999999999997" x14ac:dyDescent="0.7">
+      <c r="A1" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
       <c r="G1" s="16"/>
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
-      <c r="J1" s="41"/>
+      <c r="J1" s="56"/>
       <c r="K1" s="2"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1572,19 +1572,19 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="34.5" x14ac:dyDescent="0.95">
-      <c r="A2" s="66" t="s">
+    <row r="2" spans="1:25" ht="34.799999999999997" x14ac:dyDescent="1.2">
+      <c r="A2" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="42"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="57"/>
       <c r="K2" s="2"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1601,17 +1601,17 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="43"/>
+    <row r="3" spans="1:25" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="58"/>
       <c r="K3" s="2"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1628,7 +1628,7 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1655,18 +1655,18 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="29.25" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="A5" s="70" t="s">
+    <row r="5" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.95">
+      <c r="A5" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
       <c r="J5" s="6"/>
       <c r="K5" s="2"/>
       <c r="L5" s="1"/>
@@ -1684,22 +1684,22 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="20.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="62" t="s">
+    <row r="6" spans="1:25" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A6" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="65" t="s">
+      <c r="B6" s="75"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="65" t="s">
+      <c r="E6" s="75"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="63"/>
-      <c r="I6" s="64"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="76"/>
       <c r="J6" s="40" t="s">
         <v>17</v>
       </c>
@@ -1719,22 +1719,22 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="72" t="s">
+    <row r="7" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="72" t="s">
+      <c r="B7" s="51"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="72" t="s">
+      <c r="E7" s="51"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="74"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="52"/>
       <c r="J7" s="37" t="s">
         <v>21</v>
       </c>
@@ -1754,20 +1754,20 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="75" t="s">
+    <row r="8" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="75" t="s">
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="77"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55"/>
       <c r="J8" s="38" t="s">
         <v>23</v>
       </c>
@@ -1787,20 +1787,20 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+    <row r="9" spans="1:25" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="48" t="s">
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="49"/>
-      <c r="I9" s="50"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="43"/>
       <c r="J9" s="39" t="s">
         <v>25</v>
       </c>
@@ -1820,18 +1820,18 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="20.25" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:25" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="51" t="s">
+      <c r="G10" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="65"/>
       <c r="J10" s="11"/>
       <c r="K10" s="2"/>
       <c r="L10" s="1"/>
@@ -1849,7 +1849,7 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1876,31 +1876,31 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="19.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="54" t="s">
+    <row r="12" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A12" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="59"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="56" t="s">
+      <c r="E12" s="71"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="61" t="s">
+      <c r="H12" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="56" t="s">
+      <c r="I12" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="46" t="s">
+      <c r="J12" s="61" t="s">
         <v>9</v>
       </c>
       <c r="K12" s="1"/>
@@ -1919,10 +1919,10 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="20.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="55"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
+    <row r="13" spans="1:25" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A13" s="67"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
       <c r="D13" s="14" t="s">
         <v>4</v>
       </c>
@@ -1932,10 +1932,10 @@
       <c r="F13" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="47"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="62"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="1"/>
@@ -1952,7 +1952,7 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="18" t="s">
         <v>34</v>
       </c>
@@ -1989,7 +1989,7 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="18" t="s">
         <v>34</v>
       </c>
@@ -2026,7 +2026,7 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="18" t="s">
         <v>34</v>
       </c>
@@ -2063,7 +2063,7 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="18" t="s">
         <v>34</v>
       </c>
@@ -2100,7 +2100,7 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A18" s="21" t="s">
         <v>34</v>
       </c>
@@ -2137,7 +2137,7 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A19" s="21" t="s">
         <v>34</v>
       </c>
@@ -2174,7 +2174,7 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A20" s="18" t="s">
         <v>34</v>
       </c>
@@ -2211,7 +2211,7 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A21" s="22" t="s">
         <v>34</v>
       </c>
@@ -2248,7 +2248,7 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A22" s="22" t="s">
         <v>34</v>
       </c>
@@ -2285,7 +2285,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A23" s="21" t="s">
         <v>34</v>
       </c>
@@ -2322,7 +2322,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A24" s="18" t="s">
         <v>34</v>
       </c>
@@ -2359,7 +2359,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A25" s="22" t="s">
         <v>34</v>
       </c>
@@ -2396,7 +2396,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A26" s="21" t="s">
         <v>34</v>
       </c>
@@ -2433,7 +2433,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A27" s="18" t="s">
         <v>34</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>30</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J27" s="24"/>
       <c r="K27" s="2"/>
@@ -2470,7 +2470,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A28" s="25" t="s">
         <v>34</v>
       </c>
@@ -2507,7 +2507,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A29" s="25" t="s">
         <v>34</v>
       </c>
@@ -2544,7 +2544,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A30" s="25" t="s">
         <v>34</v>
       </c>
@@ -2581,7 +2581,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A31" s="25" t="s">
         <v>34</v>
       </c>
@@ -2618,7 +2618,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A32" s="26" t="s">
         <v>34</v>
       </c>
@@ -2655,7 +2655,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A33" s="29"/>
       <c r="B33" s="36"/>
       <c r="C33" s="31"/>
@@ -2684,7 +2684,7 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A34" s="29"/>
       <c r="B34" s="36"/>
       <c r="C34" s="31"/>
@@ -2713,7 +2713,7 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A35" s="29"/>
       <c r="B35" s="36"/>
       <c r="C35" s="31"/>
@@ -2742,7 +2742,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A36" s="29"/>
       <c r="B36" s="36"/>
       <c r="C36" s="31"/>
@@ -2771,7 +2771,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A37" s="29"/>
       <c r="B37" s="36"/>
       <c r="C37" s="31"/>
@@ -2800,7 +2800,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A38" s="29"/>
       <c r="B38" s="36"/>
       <c r="C38" s="31"/>
@@ -2829,7 +2829,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A39" s="29"/>
       <c r="B39" s="36"/>
       <c r="C39" s="31"/>
@@ -2858,7 +2858,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A40" s="29"/>
       <c r="B40" s="36"/>
       <c r="C40" s="31"/>
@@ -2887,7 +2887,7 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A41" s="29"/>
       <c r="B41" s="36"/>
       <c r="C41" s="31"/>
@@ -2916,7 +2916,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A42" s="29"/>
       <c r="B42" s="36"/>
       <c r="C42" s="31"/>
@@ -2945,7 +2945,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A43" s="29"/>
       <c r="B43" s="36"/>
       <c r="C43" s="31"/>
@@ -2974,7 +2974,7 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A44" s="29"/>
       <c r="B44" s="36"/>
       <c r="C44" s="31"/>
@@ -3003,7 +3003,7 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A45" s="29"/>
       <c r="B45" s="36"/>
       <c r="C45" s="31"/>
@@ -3032,7 +3032,7 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A46" s="29"/>
       <c r="B46" s="36"/>
       <c r="C46" s="31"/>
@@ -3061,7 +3061,7 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A47" s="29"/>
       <c r="B47" s="36"/>
       <c r="C47" s="31"/>
@@ -3090,7 +3090,7 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A48" s="29"/>
       <c r="B48" s="36"/>
       <c r="C48" s="31"/>
@@ -3119,7 +3119,7 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A49" s="29"/>
       <c r="B49" s="36"/>
       <c r="C49" s="31"/>
@@ -3148,7 +3148,7 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A50" s="29"/>
       <c r="B50" s="36"/>
       <c r="C50" s="31"/>
@@ -3177,7 +3177,7 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
     </row>
-    <row r="51" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A51" s="29"/>
       <c r="B51" s="36"/>
       <c r="C51" s="31"/>
@@ -3206,7 +3206,7 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A52" s="29"/>
       <c r="B52" s="36"/>
       <c r="C52" s="31"/>
@@ -3235,7 +3235,7 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A53" s="29"/>
       <c r="B53" s="36"/>
       <c r="C53" s="31"/>
@@ -3264,7 +3264,7 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
     </row>
-    <row r="54" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A54" s="29"/>
       <c r="B54" s="36"/>
       <c r="C54" s="31"/>
@@ -3293,7 +3293,7 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
     </row>
-    <row r="55" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A55" s="29"/>
       <c r="B55" s="36"/>
       <c r="C55" s="31"/>
@@ -3322,7 +3322,7 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
     </row>
-    <row r="56" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A56" s="29"/>
       <c r="B56" s="36"/>
       <c r="C56" s="31"/>
@@ -3351,7 +3351,7 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
     </row>
-    <row r="57" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A57" s="29"/>
       <c r="B57" s="36"/>
       <c r="C57" s="31"/>
@@ -3380,7 +3380,7 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
     </row>
-    <row r="58" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A58" s="29"/>
       <c r="B58" s="36"/>
       <c r="C58" s="31"/>
@@ -3409,7 +3409,7 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
     </row>
-    <row r="59" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A59" s="29"/>
       <c r="B59" s="36"/>
       <c r="C59" s="31"/>
@@ -3438,7 +3438,7 @@
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
     </row>
-    <row r="60" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A60" s="29"/>
       <c r="B60" s="36"/>
       <c r="C60" s="31"/>
@@ -3467,7 +3467,7 @@
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
     </row>
-    <row r="61" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A61" s="29"/>
       <c r="B61" s="36"/>
       <c r="C61" s="31"/>
@@ -3496,7 +3496,7 @@
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
     </row>
-    <row r="62" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
@@ -3523,7 +3523,7 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
     </row>
-    <row r="63" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
@@ -3550,7 +3550,7 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
     </row>
-    <row r="64" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
@@ -3577,7 +3577,7 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
     </row>
-    <row r="65" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -3604,7 +3604,7 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
     </row>
-    <row r="66" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
@@ -3631,7 +3631,7 @@
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
     </row>
-    <row r="67" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
@@ -3658,7 +3658,7 @@
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
     </row>
-    <row r="68" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
@@ -3685,7 +3685,7 @@
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
     </row>
-    <row r="69" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
@@ -3712,7 +3712,7 @@
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
     </row>
-    <row r="70" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
@@ -3739,7 +3739,7 @@
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
     </row>
-    <row r="71" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
@@ -3766,7 +3766,7 @@
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
     </row>
-    <row r="72" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
@@ -3793,7 +3793,7 @@
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
     </row>
-    <row r="73" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -3820,7 +3820,7 @@
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
     </row>
-    <row r="74" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="12"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
@@ -3847,7 +3847,7 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
     </row>
-    <row r="75" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
@@ -3874,7 +3874,7 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
     </row>
-    <row r="76" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="12"/>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
@@ -3901,7 +3901,7 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
     </row>
-    <row r="77" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
@@ -3928,7 +3928,7 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
     </row>
-    <row r="78" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="12"/>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
@@ -3955,7 +3955,7 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
     </row>
-    <row r="79" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="12"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
@@ -3982,7 +3982,7 @@
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
     </row>
-    <row r="80" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="12"/>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
@@ -4009,7 +4009,7 @@
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
     </row>
-    <row r="81" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
@@ -4036,7 +4036,7 @@
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
     </row>
-    <row r="82" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="12"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
@@ -4063,7 +4063,7 @@
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
     </row>
-    <row r="83" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="12"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
@@ -4090,7 +4090,7 @@
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
     </row>
-    <row r="84" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="12"/>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
@@ -4117,7 +4117,7 @@
       <c r="X84" s="1"/>
       <c r="Y84" s="1"/>
     </row>
-    <row r="85" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="12"/>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
@@ -4144,7 +4144,7 @@
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
     </row>
-    <row r="86" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="12"/>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
@@ -4171,7 +4171,7 @@
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
     </row>
-    <row r="87" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="12"/>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
@@ -4198,7 +4198,7 @@
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
     </row>
-    <row r="88" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="12"/>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
@@ -4225,7 +4225,7 @@
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
     </row>
-    <row r="89" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="12"/>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
@@ -4252,7 +4252,7 @@
       <c r="X89" s="1"/>
       <c r="Y89" s="1"/>
     </row>
-    <row r="90" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="12"/>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
@@ -4279,7 +4279,7 @@
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
     </row>
-    <row r="91" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
@@ -4306,7 +4306,7 @@
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
     </row>
-    <row r="92" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="12"/>
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
@@ -4333,7 +4333,7 @@
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
     </row>
-    <row r="93" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="12"/>
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
@@ -4360,7 +4360,7 @@
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
     </row>
-    <row r="94" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="12"/>
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
@@ -4387,7 +4387,7 @@
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
     </row>
-    <row r="95" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="12"/>
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
@@ -4414,7 +4414,7 @@
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
     </row>
-    <row r="96" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
@@ -4441,7 +4441,7 @@
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
     </row>
-    <row r="97" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="12"/>
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
@@ -4468,7 +4468,7 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
     </row>
-    <row r="98" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="12"/>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
@@ -4495,7 +4495,7 @@
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
     </row>
-    <row r="99" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="12"/>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
@@ -4522,7 +4522,7 @@
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
     </row>
-    <row r="100" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="12"/>
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
@@ -4549,7 +4549,7 @@
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
     </row>
-    <row r="101" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="12"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
@@ -4576,7 +4576,7 @@
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
     </row>
-    <row r="102" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="12"/>
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
@@ -4603,7 +4603,7 @@
       <c r="X102" s="1"/>
       <c r="Y102" s="1"/>
     </row>
-    <row r="103" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
@@ -4630,7 +4630,7 @@
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
     </row>
-    <row r="104" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="12"/>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
@@ -4657,7 +4657,7 @@
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
     </row>
-    <row r="105" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="12"/>
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
@@ -4684,7 +4684,7 @@
       <c r="X105" s="1"/>
       <c r="Y105" s="1"/>
     </row>
-    <row r="106" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="12"/>
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
@@ -4711,7 +4711,7 @@
       <c r="X106" s="1"/>
       <c r="Y106" s="1"/>
     </row>
-    <row r="107" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="12"/>
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
@@ -4738,7 +4738,7 @@
       <c r="X107" s="1"/>
       <c r="Y107" s="1"/>
     </row>
-    <row r="108" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
       <c r="C108" s="12"/>
@@ -4765,7 +4765,7 @@
       <c r="X108" s="1"/>
       <c r="Y108" s="1"/>
     </row>
-    <row r="109" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
       <c r="C109" s="12"/>
@@ -4792,7 +4792,7 @@
       <c r="X109" s="1"/>
       <c r="Y109" s="1"/>
     </row>
-    <row r="110" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
@@ -4819,7 +4819,7 @@
       <c r="X110" s="1"/>
       <c r="Y110" s="1"/>
     </row>
-    <row r="111" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="12"/>
       <c r="B111" s="12"/>
       <c r="C111" s="12"/>
@@ -4846,7 +4846,7 @@
       <c r="X111" s="1"/>
       <c r="Y111" s="1"/>
     </row>
-    <row r="112" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="12"/>
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
@@ -4873,7 +4873,7 @@
       <c r="X112" s="1"/>
       <c r="Y112" s="1"/>
     </row>
-    <row r="113" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -4900,7 +4900,7 @@
       <c r="X113" s="1"/>
       <c r="Y113" s="1"/>
     </row>
-    <row r="114" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -4927,7 +4927,7 @@
       <c r="X114" s="1"/>
       <c r="Y114" s="1"/>
     </row>
-    <row r="115" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -4954,7 +4954,7 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
     </row>
-    <row r="116" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -4981,7 +4981,7 @@
       <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
     </row>
-    <row r="117" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="12"/>
       <c r="B117" s="12"/>
       <c r="C117" s="12"/>
@@ -5008,7 +5008,7 @@
       <c r="X117" s="1"/>
       <c r="Y117" s="1"/>
     </row>
-    <row r="118" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="12"/>
       <c r="B118" s="12"/>
       <c r="C118" s="12"/>
@@ -5035,7 +5035,7 @@
       <c r="X118" s="1"/>
       <c r="Y118" s="1"/>
     </row>
-    <row r="119" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="12"/>
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
@@ -5062,7 +5062,7 @@
       <c r="X119" s="1"/>
       <c r="Y119" s="1"/>
     </row>
-    <row r="120" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="12"/>
       <c r="B120" s="12"/>
       <c r="C120" s="12"/>
@@ -5089,7 +5089,7 @@
       <c r="X120" s="1"/>
       <c r="Y120" s="1"/>
     </row>
-    <row r="121" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="12"/>
       <c r="B121" s="12"/>
       <c r="C121" s="12"/>
@@ -5116,7 +5116,7 @@
       <c r="X121" s="1"/>
       <c r="Y121" s="1"/>
     </row>
-    <row r="122" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="12"/>
       <c r="B122" s="12"/>
       <c r="C122" s="12"/>
@@ -5143,7 +5143,7 @@
       <c r="X122" s="1"/>
       <c r="Y122" s="1"/>
     </row>
-    <row r="123" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="12"/>
       <c r="B123" s="12"/>
       <c r="C123" s="12"/>
@@ -5170,7 +5170,7 @@
       <c r="X123" s="1"/>
       <c r="Y123" s="1"/>
     </row>
-    <row r="124" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="12"/>
       <c r="B124" s="12"/>
       <c r="C124" s="12"/>
@@ -5197,7 +5197,7 @@
       <c r="X124" s="1"/>
       <c r="Y124" s="1"/>
     </row>
-    <row r="125" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="12"/>
       <c r="B125" s="12"/>
       <c r="C125" s="12"/>
@@ -5224,7 +5224,7 @@
       <c r="X125" s="1"/>
       <c r="Y125" s="1"/>
     </row>
-    <row r="126" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="12"/>
       <c r="B126" s="12"/>
       <c r="C126" s="12"/>
@@ -5251,7 +5251,7 @@
       <c r="X126" s="1"/>
       <c r="Y126" s="1"/>
     </row>
-    <row r="127" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="12"/>
       <c r="B127" s="12"/>
       <c r="C127" s="12"/>
@@ -5278,7 +5278,7 @@
       <c r="X127" s="1"/>
       <c r="Y127" s="1"/>
     </row>
-    <row r="128" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="12"/>
       <c r="B128" s="12"/>
       <c r="C128" s="12"/>
@@ -5305,7 +5305,7 @@
       <c r="X128" s="1"/>
       <c r="Y128" s="1"/>
     </row>
-    <row r="129" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="12"/>
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
@@ -5332,7 +5332,7 @@
       <c r="X129" s="1"/>
       <c r="Y129" s="1"/>
     </row>
-    <row r="130" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="12"/>
       <c r="B130" s="12"/>
       <c r="C130" s="12"/>
@@ -5359,7 +5359,7 @@
       <c r="X130" s="1"/>
       <c r="Y130" s="1"/>
     </row>
-    <row r="131" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="12"/>
       <c r="B131" s="12"/>
       <c r="C131" s="12"/>
@@ -5386,7 +5386,7 @@
       <c r="X131" s="1"/>
       <c r="Y131" s="1"/>
     </row>
-    <row r="132" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" s="12"/>
       <c r="B132" s="12"/>
       <c r="C132" s="12"/>
@@ -5413,7 +5413,7 @@
       <c r="X132" s="1"/>
       <c r="Y132" s="1"/>
     </row>
-    <row r="133" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="12"/>
       <c r="B133" s="12"/>
       <c r="C133" s="12"/>
@@ -5440,7 +5440,7 @@
       <c r="X133" s="1"/>
       <c r="Y133" s="1"/>
     </row>
-    <row r="134" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="12"/>
       <c r="B134" s="12"/>
       <c r="C134" s="12"/>
@@ -5467,7 +5467,7 @@
       <c r="X134" s="1"/>
       <c r="Y134" s="1"/>
     </row>
-    <row r="135" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="12"/>
       <c r="B135" s="12"/>
       <c r="C135" s="12"/>
@@ -5494,7 +5494,7 @@
       <c r="X135" s="1"/>
       <c r="Y135" s="1"/>
     </row>
-    <row r="136" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" s="12"/>
       <c r="B136" s="12"/>
       <c r="C136" s="12"/>
@@ -5521,7 +5521,7 @@
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
     </row>
-    <row r="137" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="12"/>
       <c r="B137" s="12"/>
       <c r="C137" s="12"/>
@@ -5548,7 +5548,7 @@
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
     </row>
-    <row r="138" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="12"/>
       <c r="B138" s="12"/>
       <c r="C138" s="12"/>
@@ -5575,7 +5575,7 @@
       <c r="X138" s="1"/>
       <c r="Y138" s="1"/>
     </row>
-    <row r="139" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" s="12"/>
       <c r="B139" s="12"/>
       <c r="C139" s="12"/>
@@ -5602,7 +5602,7 @@
       <c r="X139" s="1"/>
       <c r="Y139" s="1"/>
     </row>
-    <row r="140" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="12"/>
       <c r="B140" s="12"/>
       <c r="C140" s="12"/>
@@ -5629,7 +5629,7 @@
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
     </row>
-    <row r="141" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="12"/>
       <c r="B141" s="12"/>
       <c r="C141" s="12"/>
@@ -5656,7 +5656,7 @@
       <c r="X141" s="1"/>
       <c r="Y141" s="1"/>
     </row>
-    <row r="142" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="12"/>
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
@@ -5683,7 +5683,7 @@
       <c r="X142" s="1"/>
       <c r="Y142" s="1"/>
     </row>
-    <row r="143" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="12"/>
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
@@ -5710,7 +5710,7 @@
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
     </row>
-    <row r="144" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="12"/>
       <c r="B144" s="12"/>
       <c r="C144" s="12"/>
@@ -5737,7 +5737,7 @@
       <c r="X144" s="1"/>
       <c r="Y144" s="1"/>
     </row>
-    <row r="145" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" s="12"/>
       <c r="B145" s="12"/>
       <c r="C145" s="12"/>
@@ -5764,7 +5764,7 @@
       <c r="X145" s="1"/>
       <c r="Y145" s="1"/>
     </row>
-    <row r="146" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="12"/>
       <c r="B146" s="12"/>
       <c r="C146" s="12"/>
@@ -5791,7 +5791,7 @@
       <c r="X146" s="1"/>
       <c r="Y146" s="1"/>
     </row>
-    <row r="147" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A147" s="12"/>
       <c r="B147" s="12"/>
       <c r="C147" s="12"/>
@@ -5818,7 +5818,7 @@
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
     </row>
-    <row r="148" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" s="12"/>
       <c r="B148" s="12"/>
       <c r="C148" s="12"/>
@@ -5845,7 +5845,7 @@
       <c r="X148" s="1"/>
       <c r="Y148" s="1"/>
     </row>
-    <row r="149" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" s="12"/>
       <c r="B149" s="12"/>
       <c r="C149" s="12"/>
@@ -5872,7 +5872,7 @@
       <c r="X149" s="1"/>
       <c r="Y149" s="1"/>
     </row>
-    <row r="150" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A150" s="12"/>
       <c r="B150" s="12"/>
       <c r="C150" s="12"/>
@@ -5899,7 +5899,7 @@
       <c r="X150" s="1"/>
       <c r="Y150" s="1"/>
     </row>
-    <row r="151" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A151" s="12"/>
       <c r="B151" s="12"/>
       <c r="C151" s="12"/>
@@ -5926,7 +5926,7 @@
       <c r="X151" s="1"/>
       <c r="Y151" s="1"/>
     </row>
-    <row r="152" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A152" s="12"/>
       <c r="B152" s="12"/>
       <c r="C152" s="12"/>
@@ -5953,7 +5953,7 @@
       <c r="X152" s="1"/>
       <c r="Y152" s="1"/>
     </row>
-    <row r="153" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A153" s="12"/>
       <c r="B153" s="12"/>
       <c r="C153" s="12"/>
@@ -5980,7 +5980,7 @@
       <c r="X153" s="1"/>
       <c r="Y153" s="1"/>
     </row>
-    <row r="154" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A154" s="12"/>
       <c r="B154" s="12"/>
       <c r="C154" s="12"/>
@@ -6007,7 +6007,7 @@
       <c r="X154" s="1"/>
       <c r="Y154" s="1"/>
     </row>
-    <row r="155" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A155" s="12"/>
       <c r="B155" s="12"/>
       <c r="C155" s="12"/>
@@ -6034,7 +6034,7 @@
       <c r="X155" s="1"/>
       <c r="Y155" s="1"/>
     </row>
-    <row r="156" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A156" s="12"/>
       <c r="B156" s="12"/>
       <c r="C156" s="12"/>
@@ -6061,7 +6061,7 @@
       <c r="X156" s="1"/>
       <c r="Y156" s="1"/>
     </row>
-    <row r="157" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A157" s="12"/>
       <c r="B157" s="12"/>
       <c r="C157" s="12"/>
@@ -6088,7 +6088,7 @@
       <c r="X157" s="1"/>
       <c r="Y157" s="1"/>
     </row>
-    <row r="158" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A158" s="12"/>
       <c r="B158" s="12"/>
       <c r="C158" s="12"/>
@@ -6115,7 +6115,7 @@
       <c r="X158" s="1"/>
       <c r="Y158" s="1"/>
     </row>
-    <row r="159" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A159" s="12"/>
       <c r="B159" s="12"/>
       <c r="C159" s="12"/>
@@ -6142,7 +6142,7 @@
       <c r="X159" s="1"/>
       <c r="Y159" s="1"/>
     </row>
-    <row r="160" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A160" s="12"/>
       <c r="B160" s="12"/>
       <c r="C160" s="12"/>
@@ -6169,7 +6169,7 @@
       <c r="X160" s="1"/>
       <c r="Y160" s="1"/>
     </row>
-    <row r="161" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A161" s="12"/>
       <c r="B161" s="12"/>
       <c r="C161" s="12"/>
@@ -6196,7 +6196,7 @@
       <c r="X161" s="1"/>
       <c r="Y161" s="1"/>
     </row>
-    <row r="162" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A162" s="12"/>
       <c r="B162" s="12"/>
       <c r="C162" s="12"/>
@@ -6223,7 +6223,7 @@
       <c r="X162" s="1"/>
       <c r="Y162" s="1"/>
     </row>
-    <row r="163" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A163" s="12"/>
       <c r="B163" s="12"/>
       <c r="C163" s="12"/>
@@ -6250,7 +6250,7 @@
       <c r="X163" s="1"/>
       <c r="Y163" s="1"/>
     </row>
-    <row r="164" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A164" s="12"/>
       <c r="B164" s="12"/>
       <c r="C164" s="12"/>
@@ -6277,7 +6277,7 @@
       <c r="X164" s="1"/>
       <c r="Y164" s="1"/>
     </row>
-    <row r="165" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A165" s="12"/>
       <c r="B165" s="12"/>
       <c r="C165" s="12"/>
@@ -6304,7 +6304,7 @@
       <c r="X165" s="1"/>
       <c r="Y165" s="1"/>
     </row>
-    <row r="166" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A166" s="12"/>
       <c r="B166" s="12"/>
       <c r="C166" s="12"/>
@@ -6331,7 +6331,7 @@
       <c r="X166" s="1"/>
       <c r="Y166" s="1"/>
     </row>
-    <row r="167" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A167" s="12"/>
       <c r="B167" s="12"/>
       <c r="C167" s="12"/>
@@ -6358,7 +6358,7 @@
       <c r="X167" s="1"/>
       <c r="Y167" s="1"/>
     </row>
-    <row r="168" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A168" s="12"/>
       <c r="B168" s="12"/>
       <c r="C168" s="12"/>
@@ -6385,7 +6385,7 @@
       <c r="X168" s="1"/>
       <c r="Y168" s="1"/>
     </row>
-    <row r="169" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A169" s="12"/>
       <c r="B169" s="12"/>
       <c r="C169" s="12"/>
@@ -6412,7 +6412,7 @@
       <c r="X169" s="1"/>
       <c r="Y169" s="1"/>
     </row>
-    <row r="170" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A170" s="12"/>
       <c r="B170" s="12"/>
       <c r="C170" s="12"/>
@@ -6439,7 +6439,7 @@
       <c r="X170" s="1"/>
       <c r="Y170" s="1"/>
     </row>
-    <row r="171" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A171" s="12"/>
       <c r="B171" s="12"/>
       <c r="C171" s="12"/>
@@ -6466,7 +6466,7 @@
       <c r="X171" s="1"/>
       <c r="Y171" s="1"/>
     </row>
-    <row r="172" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A172" s="12"/>
       <c r="B172" s="12"/>
       <c r="C172" s="12"/>
@@ -6493,7 +6493,7 @@
       <c r="X172" s="1"/>
       <c r="Y172" s="1"/>
     </row>
-    <row r="173" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A173" s="12"/>
       <c r="B173" s="12"/>
       <c r="C173" s="12"/>
@@ -6520,7 +6520,7 @@
       <c r="X173" s="1"/>
       <c r="Y173" s="1"/>
     </row>
-    <row r="174" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A174" s="12"/>
       <c r="B174" s="12"/>
       <c r="C174" s="12"/>
@@ -6547,7 +6547,7 @@
       <c r="X174" s="1"/>
       <c r="Y174" s="1"/>
     </row>
-    <row r="175" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A175" s="12"/>
       <c r="B175" s="12"/>
       <c r="C175" s="12"/>
@@ -6574,7 +6574,7 @@
       <c r="X175" s="1"/>
       <c r="Y175" s="1"/>
     </row>
-    <row r="176" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A176" s="12"/>
       <c r="B176" s="12"/>
       <c r="C176" s="12"/>
@@ -6601,7 +6601,7 @@
       <c r="X176" s="1"/>
       <c r="Y176" s="1"/>
     </row>
-    <row r="177" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A177" s="12"/>
       <c r="B177" s="12"/>
       <c r="C177" s="12"/>
@@ -6628,7 +6628,7 @@
       <c r="X177" s="1"/>
       <c r="Y177" s="1"/>
     </row>
-    <row r="178" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A178" s="12"/>
       <c r="B178" s="12"/>
       <c r="C178" s="12"/>
@@ -6655,7 +6655,7 @@
       <c r="X178" s="1"/>
       <c r="Y178" s="1"/>
     </row>
-    <row r="179" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A179" s="12"/>
       <c r="B179" s="12"/>
       <c r="C179" s="12"/>
@@ -6682,7 +6682,7 @@
       <c r="X179" s="1"/>
       <c r="Y179" s="1"/>
     </row>
-    <row r="180" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A180" s="12"/>
       <c r="B180" s="12"/>
       <c r="C180" s="12"/>
@@ -6709,7 +6709,7 @@
       <c r="X180" s="1"/>
       <c r="Y180" s="1"/>
     </row>
-    <row r="181" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A181" s="12"/>
       <c r="B181" s="12"/>
       <c r="C181" s="12"/>
@@ -6736,7 +6736,7 @@
       <c r="X181" s="1"/>
       <c r="Y181" s="1"/>
     </row>
-    <row r="182" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A182" s="12"/>
       <c r="B182" s="12"/>
       <c r="C182" s="12"/>
@@ -6763,7 +6763,7 @@
       <c r="X182" s="1"/>
       <c r="Y182" s="1"/>
     </row>
-    <row r="183" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A183" s="12"/>
       <c r="B183" s="12"/>
       <c r="C183" s="12"/>
@@ -6790,7 +6790,7 @@
       <c r="X183" s="1"/>
       <c r="Y183" s="1"/>
     </row>
-    <row r="184" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A184" s="12"/>
       <c r="B184" s="12"/>
       <c r="C184" s="12"/>
@@ -6817,7 +6817,7 @@
       <c r="X184" s="1"/>
       <c r="Y184" s="1"/>
     </row>
-    <row r="185" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A185" s="12"/>
       <c r="B185" s="12"/>
       <c r="C185" s="12"/>
@@ -6844,7 +6844,7 @@
       <c r="X185" s="1"/>
       <c r="Y185" s="1"/>
     </row>
-    <row r="186" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A186" s="12"/>
       <c r="B186" s="12"/>
       <c r="C186" s="12"/>
@@ -6871,7 +6871,7 @@
       <c r="X186" s="1"/>
       <c r="Y186" s="1"/>
     </row>
-    <row r="187" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A187" s="12"/>
       <c r="B187" s="12"/>
       <c r="C187" s="12"/>
@@ -6898,7 +6898,7 @@
       <c r="X187" s="1"/>
       <c r="Y187" s="1"/>
     </row>
-    <row r="188" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A188" s="12"/>
       <c r="B188" s="12"/>
       <c r="C188" s="12"/>
@@ -6925,7 +6925,7 @@
       <c r="X188" s="1"/>
       <c r="Y188" s="1"/>
     </row>
-    <row r="189" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A189" s="12"/>
       <c r="B189" s="12"/>
       <c r="C189" s="12"/>
@@ -6952,7 +6952,7 @@
       <c r="X189" s="1"/>
       <c r="Y189" s="1"/>
     </row>
-    <row r="190" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A190" s="12"/>
       <c r="B190" s="12"/>
       <c r="C190" s="12"/>
@@ -6979,7 +6979,7 @@
       <c r="X190" s="1"/>
       <c r="Y190" s="1"/>
     </row>
-    <row r="191" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A191" s="12"/>
       <c r="B191" s="12"/>
       <c r="C191" s="12"/>
@@ -7006,7 +7006,7 @@
       <c r="X191" s="1"/>
       <c r="Y191" s="1"/>
     </row>
-    <row r="192" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A192" s="12"/>
       <c r="B192" s="12"/>
       <c r="C192" s="12"/>
@@ -7033,7 +7033,7 @@
       <c r="X192" s="1"/>
       <c r="Y192" s="1"/>
     </row>
-    <row r="193" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A193" s="12"/>
       <c r="B193" s="12"/>
       <c r="C193" s="12"/>
@@ -7060,7 +7060,7 @@
       <c r="X193" s="1"/>
       <c r="Y193" s="1"/>
     </row>
-    <row r="194" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A194" s="12"/>
       <c r="B194" s="12"/>
       <c r="C194" s="12"/>
@@ -7087,7 +7087,7 @@
       <c r="X194" s="1"/>
       <c r="Y194" s="1"/>
     </row>
-    <row r="195" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A195" s="12"/>
       <c r="B195" s="12"/>
       <c r="C195" s="12"/>
@@ -7114,7 +7114,7 @@
       <c r="X195" s="1"/>
       <c r="Y195" s="1"/>
     </row>
-    <row r="196" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A196" s="12"/>
       <c r="B196" s="12"/>
       <c r="C196" s="12"/>
@@ -7141,7 +7141,7 @@
       <c r="X196" s="1"/>
       <c r="Y196" s="1"/>
     </row>
-    <row r="197" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A197" s="12"/>
       <c r="B197" s="12"/>
       <c r="C197" s="12"/>
@@ -7168,7 +7168,7 @@
       <c r="X197" s="1"/>
       <c r="Y197" s="1"/>
     </row>
-    <row r="198" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A198" s="12"/>
       <c r="B198" s="12"/>
       <c r="C198" s="12"/>
@@ -7195,7 +7195,7 @@
       <c r="X198" s="1"/>
       <c r="Y198" s="1"/>
     </row>
-    <row r="199" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A199" s="12"/>
       <c r="B199" s="12"/>
       <c r="C199" s="12"/>
@@ -7222,7 +7222,7 @@
       <c r="X199" s="1"/>
       <c r="Y199" s="1"/>
     </row>
-    <row r="200" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A200" s="12"/>
       <c r="B200" s="12"/>
       <c r="C200" s="12"/>
@@ -7249,7 +7249,7 @@
       <c r="X200" s="1"/>
       <c r="Y200" s="1"/>
     </row>
-    <row r="201" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A201" s="12"/>
       <c r="B201" s="12"/>
       <c r="C201" s="12"/>
@@ -7276,7 +7276,7 @@
       <c r="X201" s="1"/>
       <c r="Y201" s="1"/>
     </row>
-    <row r="202" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A202" s="12"/>
       <c r="B202" s="12"/>
       <c r="C202" s="12"/>
@@ -7303,7 +7303,7 @@
       <c r="X202" s="1"/>
       <c r="Y202" s="1"/>
     </row>
-    <row r="203" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A203" s="12"/>
       <c r="B203" s="12"/>
       <c r="C203" s="12"/>
@@ -7330,7 +7330,7 @@
       <c r="X203" s="1"/>
       <c r="Y203" s="1"/>
     </row>
-    <row r="204" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A204" s="12"/>
       <c r="B204" s="12"/>
       <c r="C204" s="12"/>
@@ -7357,7 +7357,7 @@
       <c r="X204" s="1"/>
       <c r="Y204" s="1"/>
     </row>
-    <row r="205" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A205" s="12"/>
       <c r="B205" s="12"/>
       <c r="C205" s="12"/>
@@ -7384,7 +7384,7 @@
       <c r="X205" s="1"/>
       <c r="Y205" s="1"/>
     </row>
-    <row r="206" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A206" s="12"/>
       <c r="B206" s="12"/>
       <c r="C206" s="12"/>
@@ -7411,7 +7411,7 @@
       <c r="X206" s="1"/>
       <c r="Y206" s="1"/>
     </row>
-    <row r="207" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A207" s="12"/>
       <c r="B207" s="12"/>
       <c r="C207" s="12"/>
@@ -7438,7 +7438,7 @@
       <c r="X207" s="1"/>
       <c r="Y207" s="1"/>
     </row>
-    <row r="208" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A208" s="12"/>
       <c r="B208" s="12"/>
       <c r="C208" s="12"/>
@@ -7465,7 +7465,7 @@
       <c r="X208" s="1"/>
       <c r="Y208" s="1"/>
     </row>
-    <row r="209" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A209" s="12"/>
       <c r="B209" s="12"/>
       <c r="C209" s="12"/>
@@ -7492,7 +7492,7 @@
       <c r="X209" s="1"/>
       <c r="Y209" s="1"/>
     </row>
-    <row r="210" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A210" s="12"/>
       <c r="B210" s="12"/>
       <c r="C210" s="12"/>
@@ -7519,7 +7519,7 @@
       <c r="X210" s="1"/>
       <c r="Y210" s="1"/>
     </row>
-    <row r="211" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A211" s="12"/>
       <c r="B211" s="12"/>
       <c r="C211" s="12"/>
@@ -7546,7 +7546,7 @@
       <c r="X211" s="1"/>
       <c r="Y211" s="1"/>
     </row>
-    <row r="212" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A212" s="12"/>
       <c r="B212" s="12"/>
       <c r="C212" s="12"/>
@@ -7573,7 +7573,7 @@
       <c r="X212" s="1"/>
       <c r="Y212" s="1"/>
     </row>
-    <row r="213" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A213" s="12"/>
       <c r="B213" s="12"/>
       <c r="C213" s="12"/>
@@ -7600,7 +7600,7 @@
       <c r="X213" s="1"/>
       <c r="Y213" s="1"/>
     </row>
-    <row r="214" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A214" s="12"/>
       <c r="B214" s="12"/>
       <c r="C214" s="12"/>
@@ -7627,7 +7627,7 @@
       <c r="X214" s="1"/>
       <c r="Y214" s="1"/>
     </row>
-    <row r="215" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A215" s="12"/>
       <c r="B215" s="12"/>
       <c r="C215" s="12"/>
@@ -7654,7 +7654,7 @@
       <c r="X215" s="1"/>
       <c r="Y215" s="1"/>
     </row>
-    <row r="216" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A216" s="12"/>
       <c r="B216" s="12"/>
       <c r="C216" s="12"/>
@@ -7681,7 +7681,7 @@
       <c r="X216" s="1"/>
       <c r="Y216" s="1"/>
     </row>
-    <row r="217" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A217" s="12"/>
       <c r="B217" s="12"/>
       <c r="C217" s="12"/>
@@ -7708,7 +7708,7 @@
       <c r="X217" s="1"/>
       <c r="Y217" s="1"/>
     </row>
-    <row r="218" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A218" s="12"/>
       <c r="B218" s="12"/>
       <c r="C218" s="12"/>
@@ -7735,7 +7735,7 @@
       <c r="X218" s="1"/>
       <c r="Y218" s="1"/>
     </row>
-    <row r="219" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A219" s="12"/>
       <c r="B219" s="12"/>
       <c r="C219" s="12"/>
@@ -7762,7 +7762,7 @@
       <c r="X219" s="1"/>
       <c r="Y219" s="1"/>
     </row>
-    <row r="220" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A220" s="12"/>
       <c r="B220" s="12"/>
       <c r="C220" s="12"/>
@@ -7789,7 +7789,7 @@
       <c r="X220" s="1"/>
       <c r="Y220" s="1"/>
     </row>
-    <row r="221" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A221" s="12"/>
       <c r="B221" s="12"/>
       <c r="C221" s="12"/>
@@ -7816,7 +7816,7 @@
       <c r="X221" s="1"/>
       <c r="Y221" s="1"/>
     </row>
-    <row r="222" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A222" s="12"/>
       <c r="B222" s="12"/>
       <c r="C222" s="12"/>
@@ -7843,7 +7843,7 @@
       <c r="X222" s="1"/>
       <c r="Y222" s="1"/>
     </row>
-    <row r="223" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A223" s="12"/>
       <c r="B223" s="12"/>
       <c r="C223" s="12"/>
@@ -7870,7 +7870,7 @@
       <c r="X223" s="1"/>
       <c r="Y223" s="1"/>
     </row>
-    <row r="224" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A224" s="12"/>
       <c r="B224" s="12"/>
       <c r="C224" s="12"/>
@@ -7897,7 +7897,7 @@
       <c r="X224" s="1"/>
       <c r="Y224" s="1"/>
     </row>
-    <row r="225" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A225" s="12"/>
       <c r="B225" s="12"/>
       <c r="C225" s="12"/>
@@ -7924,7 +7924,7 @@
       <c r="X225" s="1"/>
       <c r="Y225" s="1"/>
     </row>
-    <row r="226" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A226" s="12"/>
       <c r="B226" s="12"/>
       <c r="C226" s="12"/>
@@ -7951,7 +7951,7 @@
       <c r="X226" s="1"/>
       <c r="Y226" s="1"/>
     </row>
-    <row r="227" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A227" s="12"/>
       <c r="B227" s="12"/>
       <c r="C227" s="12"/>
@@ -7978,7 +7978,7 @@
       <c r="X227" s="1"/>
       <c r="Y227" s="1"/>
     </row>
-    <row r="228" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A228" s="12"/>
       <c r="B228" s="12"/>
       <c r="C228" s="12"/>
@@ -8005,7 +8005,7 @@
       <c r="X228" s="1"/>
       <c r="Y228" s="1"/>
     </row>
-    <row r="229" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A229" s="12"/>
       <c r="B229" s="12"/>
       <c r="C229" s="12"/>
@@ -8032,7 +8032,7 @@
       <c r="X229" s="1"/>
       <c r="Y229" s="1"/>
     </row>
-    <row r="230" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A230" s="12"/>
       <c r="B230" s="12"/>
       <c r="C230" s="12"/>
@@ -8059,7 +8059,7 @@
       <c r="X230" s="1"/>
       <c r="Y230" s="1"/>
     </row>
-    <row r="231" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A231" s="12"/>
       <c r="B231" s="12"/>
       <c r="C231" s="12"/>
@@ -8086,7 +8086,7 @@
       <c r="X231" s="1"/>
       <c r="Y231" s="1"/>
     </row>
-    <row r="232" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A232" s="12"/>
       <c r="B232" s="12"/>
       <c r="C232" s="12"/>
@@ -8113,7 +8113,7 @@
       <c r="X232" s="1"/>
       <c r="Y232" s="1"/>
     </row>
-    <row r="233" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A233" s="12"/>
       <c r="B233" s="12"/>
       <c r="C233" s="12"/>
@@ -8140,7 +8140,7 @@
       <c r="X233" s="1"/>
       <c r="Y233" s="1"/>
     </row>
-    <row r="234" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A234" s="12"/>
       <c r="B234" s="12"/>
       <c r="C234" s="12"/>
@@ -8167,7 +8167,7 @@
       <c r="X234" s="1"/>
       <c r="Y234" s="1"/>
     </row>
-    <row r="235" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A235" s="12"/>
       <c r="B235" s="12"/>
       <c r="C235" s="12"/>
@@ -8194,7 +8194,7 @@
       <c r="X235" s="1"/>
       <c r="Y235" s="1"/>
     </row>
-    <row r="236" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A236" s="12"/>
       <c r="B236" s="12"/>
       <c r="C236" s="12"/>
@@ -8221,7 +8221,7 @@
       <c r="X236" s="1"/>
       <c r="Y236" s="1"/>
     </row>
-    <row r="237" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A237" s="12"/>
       <c r="B237" s="12"/>
       <c r="C237" s="12"/>
@@ -8248,7 +8248,7 @@
       <c r="X237" s="1"/>
       <c r="Y237" s="1"/>
     </row>
-    <row r="238" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A238" s="12"/>
       <c r="B238" s="12"/>
       <c r="C238" s="12"/>
@@ -8275,7 +8275,7 @@
       <c r="X238" s="1"/>
       <c r="Y238" s="1"/>
     </row>
-    <row r="239" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A239" s="12"/>
       <c r="B239" s="12"/>
       <c r="C239" s="12"/>
@@ -8302,7 +8302,7 @@
       <c r="X239" s="1"/>
       <c r="Y239" s="1"/>
     </row>
-    <row r="240" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A240" s="12"/>
       <c r="B240" s="12"/>
       <c r="C240" s="12"/>
@@ -8329,7 +8329,7 @@
       <c r="X240" s="1"/>
       <c r="Y240" s="1"/>
     </row>
-    <row r="241" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A241" s="12"/>
       <c r="B241" s="12"/>
       <c r="C241" s="12"/>
@@ -8356,7 +8356,7 @@
       <c r="X241" s="1"/>
       <c r="Y241" s="1"/>
     </row>
-    <row r="242" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A242" s="12"/>
       <c r="B242" s="12"/>
       <c r="C242" s="12"/>
@@ -8383,7 +8383,7 @@
       <c r="X242" s="1"/>
       <c r="Y242" s="1"/>
     </row>
-    <row r="243" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A243" s="12"/>
       <c r="B243" s="12"/>
       <c r="C243" s="12"/>
@@ -8410,7 +8410,7 @@
       <c r="X243" s="1"/>
       <c r="Y243" s="1"/>
     </row>
-    <row r="244" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A244" s="12"/>
       <c r="B244" s="12"/>
       <c r="C244" s="12"/>
@@ -8437,7 +8437,7 @@
       <c r="X244" s="1"/>
       <c r="Y244" s="1"/>
     </row>
-    <row r="245" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A245" s="12"/>
       <c r="B245" s="12"/>
       <c r="C245" s="12"/>
@@ -8464,7 +8464,7 @@
       <c r="X245" s="1"/>
       <c r="Y245" s="1"/>
     </row>
-    <row r="246" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A246" s="12"/>
       <c r="B246" s="12"/>
       <c r="C246" s="12"/>
@@ -8491,7 +8491,7 @@
       <c r="X246" s="1"/>
       <c r="Y246" s="1"/>
     </row>
-    <row r="247" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A247" s="12"/>
       <c r="B247" s="12"/>
       <c r="C247" s="12"/>
@@ -8518,7 +8518,7 @@
       <c r="X247" s="1"/>
       <c r="Y247" s="1"/>
     </row>
-    <row r="248" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A248" s="12"/>
       <c r="B248" s="12"/>
       <c r="C248" s="12"/>
@@ -8545,7 +8545,7 @@
       <c r="X248" s="1"/>
       <c r="Y248" s="1"/>
     </row>
-    <row r="249" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A249" s="12"/>
       <c r="B249" s="12"/>
       <c r="C249" s="12"/>
@@ -8572,7 +8572,7 @@
       <c r="X249" s="1"/>
       <c r="Y249" s="1"/>
     </row>
-    <row r="250" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A250" s="12"/>
       <c r="B250" s="12"/>
       <c r="C250" s="12"/>
@@ -8599,7 +8599,7 @@
       <c r="X250" s="1"/>
       <c r="Y250" s="1"/>
     </row>
-    <row r="251" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A251" s="12"/>
       <c r="B251" s="12"/>
       <c r="C251" s="12"/>
@@ -8626,7 +8626,7 @@
       <c r="X251" s="1"/>
       <c r="Y251" s="1"/>
     </row>
-    <row r="252" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A252" s="12"/>
       <c r="B252" s="12"/>
       <c r="C252" s="12"/>
@@ -8653,7 +8653,7 @@
       <c r="X252" s="1"/>
       <c r="Y252" s="1"/>
     </row>
-    <row r="253" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A253" s="12"/>
       <c r="B253" s="12"/>
       <c r="C253" s="12"/>
@@ -8680,7 +8680,7 @@
       <c r="X253" s="1"/>
       <c r="Y253" s="1"/>
     </row>
-    <row r="254" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A254" s="12"/>
       <c r="B254" s="12"/>
       <c r="C254" s="12"/>
@@ -8707,7 +8707,7 @@
       <c r="X254" s="1"/>
       <c r="Y254" s="1"/>
     </row>
-    <row r="255" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A255" s="12"/>
       <c r="B255" s="12"/>
       <c r="C255" s="12"/>
@@ -8734,7 +8734,7 @@
       <c r="X255" s="1"/>
       <c r="Y255" s="1"/>
     </row>
-    <row r="256" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A256" s="12"/>
       <c r="B256" s="12"/>
       <c r="C256" s="12"/>
@@ -8761,7 +8761,7 @@
       <c r="X256" s="1"/>
       <c r="Y256" s="1"/>
     </row>
-    <row r="257" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A257" s="12"/>
       <c r="B257" s="12"/>
       <c r="C257" s="12"/>
@@ -8788,7 +8788,7 @@
       <c r="X257" s="1"/>
       <c r="Y257" s="1"/>
     </row>
-    <row r="258" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A258" s="12"/>
       <c r="B258" s="12"/>
       <c r="C258" s="12"/>
@@ -8815,7 +8815,7 @@
       <c r="X258" s="1"/>
       <c r="Y258" s="1"/>
     </row>
-    <row r="259" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A259" s="12"/>
       <c r="B259" s="12"/>
       <c r="C259" s="12"/>
@@ -8842,7 +8842,7 @@
       <c r="X259" s="1"/>
       <c r="Y259" s="1"/>
     </row>
-    <row r="260" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A260" s="12"/>
       <c r="B260" s="12"/>
       <c r="C260" s="12"/>
@@ -8869,7 +8869,7 @@
       <c r="X260" s="1"/>
       <c r="Y260" s="1"/>
     </row>
-    <row r="261" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A261" s="12"/>
       <c r="B261" s="12"/>
       <c r="C261" s="12"/>
@@ -8896,7 +8896,7 @@
       <c r="X261" s="1"/>
       <c r="Y261" s="1"/>
     </row>
-    <row r="262" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A262" s="12"/>
       <c r="B262" s="12"/>
       <c r="C262" s="12"/>
@@ -8923,7 +8923,7 @@
       <c r="X262" s="1"/>
       <c r="Y262" s="1"/>
     </row>
-    <row r="263" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A263" s="12"/>
       <c r="B263" s="12"/>
       <c r="C263" s="12"/>
@@ -8950,7 +8950,7 @@
       <c r="X263" s="1"/>
       <c r="Y263" s="1"/>
     </row>
-    <row r="264" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A264" s="12"/>
       <c r="B264" s="12"/>
       <c r="C264" s="12"/>
@@ -8977,7 +8977,7 @@
       <c r="X264" s="1"/>
       <c r="Y264" s="1"/>
     </row>
-    <row r="265" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A265" s="12"/>
       <c r="B265" s="12"/>
       <c r="C265" s="12"/>
@@ -9004,7 +9004,7 @@
       <c r="X265" s="1"/>
       <c r="Y265" s="1"/>
     </row>
-    <row r="266" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A266" s="12"/>
       <c r="B266" s="12"/>
       <c r="C266" s="12"/>
@@ -9031,7 +9031,7 @@
       <c r="X266" s="1"/>
       <c r="Y266" s="1"/>
     </row>
-    <row r="267" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A267" s="12"/>
       <c r="B267" s="12"/>
       <c r="C267" s="12"/>
@@ -9058,7 +9058,7 @@
       <c r="X267" s="1"/>
       <c r="Y267" s="1"/>
     </row>
-    <row r="268" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A268" s="12"/>
       <c r="B268" s="12"/>
       <c r="C268" s="12"/>
@@ -9085,7 +9085,7 @@
       <c r="X268" s="1"/>
       <c r="Y268" s="1"/>
     </row>
-    <row r="269" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A269" s="12"/>
       <c r="B269" s="12"/>
       <c r="C269" s="12"/>
@@ -9112,7 +9112,7 @@
       <c r="X269" s="1"/>
       <c r="Y269" s="1"/>
     </row>
-    <row r="270" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A270" s="12"/>
       <c r="B270" s="12"/>
       <c r="C270" s="12"/>
@@ -9139,7 +9139,7 @@
       <c r="X270" s="1"/>
       <c r="Y270" s="1"/>
     </row>
-    <row r="271" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A271" s="12"/>
       <c r="B271" s="12"/>
       <c r="C271" s="12"/>
@@ -9166,7 +9166,7 @@
       <c r="X271" s="1"/>
       <c r="Y271" s="1"/>
     </row>
-    <row r="272" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A272" s="12"/>
       <c r="B272" s="12"/>
       <c r="C272" s="12"/>
@@ -9193,7 +9193,7 @@
       <c r="X272" s="1"/>
       <c r="Y272" s="1"/>
     </row>
-    <row r="273" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A273" s="12"/>
       <c r="B273" s="12"/>
       <c r="C273" s="12"/>
@@ -9220,7 +9220,7 @@
       <c r="X273" s="1"/>
       <c r="Y273" s="1"/>
     </row>
-    <row r="274" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A274" s="12"/>
       <c r="B274" s="12"/>
       <c r="C274" s="12"/>
@@ -9247,7 +9247,7 @@
       <c r="X274" s="1"/>
       <c r="Y274" s="1"/>
     </row>
-    <row r="275" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A275" s="12"/>
       <c r="B275" s="12"/>
       <c r="C275" s="12"/>
@@ -9274,7 +9274,7 @@
       <c r="X275" s="1"/>
       <c r="Y275" s="1"/>
     </row>
-    <row r="276" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A276" s="12"/>
       <c r="B276" s="12"/>
       <c r="C276" s="12"/>
@@ -9301,7 +9301,7 @@
       <c r="X276" s="1"/>
       <c r="Y276" s="1"/>
     </row>
-    <row r="277" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A277" s="12"/>
       <c r="B277" s="12"/>
       <c r="C277" s="12"/>
@@ -9328,7 +9328,7 @@
       <c r="X277" s="1"/>
       <c r="Y277" s="1"/>
     </row>
-    <row r="278" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A278" s="12"/>
       <c r="B278" s="12"/>
       <c r="C278" s="12"/>
@@ -9355,7 +9355,7 @@
       <c r="X278" s="1"/>
       <c r="Y278" s="1"/>
     </row>
-    <row r="279" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A279" s="12"/>
       <c r="B279" s="12"/>
       <c r="C279" s="12"/>
@@ -9382,7 +9382,7 @@
       <c r="X279" s="1"/>
       <c r="Y279" s="1"/>
     </row>
-    <row r="280" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A280" s="12"/>
       <c r="B280" s="12"/>
       <c r="C280" s="12"/>
@@ -9409,7 +9409,7 @@
       <c r="X280" s="1"/>
       <c r="Y280" s="1"/>
     </row>
-    <row r="281" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A281" s="12"/>
       <c r="B281" s="12"/>
       <c r="C281" s="12"/>
@@ -9436,7 +9436,7 @@
       <c r="X281" s="1"/>
       <c r="Y281" s="1"/>
     </row>
-    <row r="282" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A282" s="12"/>
       <c r="B282" s="12"/>
       <c r="C282" s="12"/>
@@ -9463,7 +9463,7 @@
       <c r="X282" s="1"/>
       <c r="Y282" s="1"/>
     </row>
-    <row r="283" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A283" s="12"/>
       <c r="B283" s="12"/>
       <c r="C283" s="12"/>
@@ -9490,7 +9490,7 @@
       <c r="X283" s="1"/>
       <c r="Y283" s="1"/>
     </row>
-    <row r="284" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A284" s="12"/>
       <c r="B284" s="12"/>
       <c r="C284" s="12"/>
@@ -9517,7 +9517,7 @@
       <c r="X284" s="1"/>
       <c r="Y284" s="1"/>
     </row>
-    <row r="285" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A285" s="12"/>
       <c r="B285" s="12"/>
       <c r="C285" s="12"/>
@@ -9544,7 +9544,7 @@
       <c r="X285" s="1"/>
       <c r="Y285" s="1"/>
     </row>
-    <row r="286" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A286" s="12"/>
       <c r="B286" s="12"/>
       <c r="C286" s="12"/>
@@ -9571,7 +9571,7 @@
       <c r="X286" s="1"/>
       <c r="Y286" s="1"/>
     </row>
-    <row r="287" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A287" s="12"/>
       <c r="B287" s="12"/>
       <c r="C287" s="12"/>
@@ -9598,7 +9598,7 @@
       <c r="X287" s="1"/>
       <c r="Y287" s="1"/>
     </row>
-    <row r="288" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A288" s="12"/>
       <c r="B288" s="12"/>
       <c r="C288" s="12"/>
@@ -9625,7 +9625,7 @@
       <c r="X288" s="1"/>
       <c r="Y288" s="1"/>
     </row>
-    <row r="289" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A289" s="12"/>
       <c r="B289" s="12"/>
       <c r="C289" s="12"/>
@@ -9652,7 +9652,7 @@
       <c r="X289" s="1"/>
       <c r="Y289" s="1"/>
     </row>
-    <row r="290" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A290" s="12"/>
       <c r="B290" s="12"/>
       <c r="C290" s="12"/>
@@ -9679,7 +9679,7 @@
       <c r="X290" s="1"/>
       <c r="Y290" s="1"/>
     </row>
-    <row r="291" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A291" s="12"/>
       <c r="B291" s="12"/>
       <c r="C291" s="12"/>
@@ -9706,7 +9706,7 @@
       <c r="X291" s="1"/>
       <c r="Y291" s="1"/>
     </row>
-    <row r="292" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A292" s="12"/>
       <c r="B292" s="12"/>
       <c r="C292" s="12"/>
@@ -9733,7 +9733,7 @@
       <c r="X292" s="1"/>
       <c r="Y292" s="1"/>
     </row>
-    <row r="293" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A293" s="12"/>
       <c r="B293" s="12"/>
       <c r="C293" s="12"/>
@@ -9760,7 +9760,7 @@
       <c r="X293" s="1"/>
       <c r="Y293" s="1"/>
     </row>
-    <row r="294" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A294" s="12"/>
       <c r="B294" s="12"/>
       <c r="C294" s="12"/>
@@ -9787,7 +9787,7 @@
       <c r="X294" s="1"/>
       <c r="Y294" s="1"/>
     </row>
-    <row r="295" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A295" s="12"/>
       <c r="B295" s="12"/>
       <c r="C295" s="12"/>
@@ -9814,7 +9814,7 @@
       <c r="X295" s="1"/>
       <c r="Y295" s="1"/>
     </row>
-    <row r="296" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A296" s="12"/>
       <c r="B296" s="12"/>
       <c r="C296" s="12"/>
@@ -9841,7 +9841,7 @@
       <c r="X296" s="1"/>
       <c r="Y296" s="1"/>
     </row>
-    <row r="297" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A297" s="12"/>
       <c r="B297" s="12"/>
       <c r="C297" s="12"/>
@@ -9868,7 +9868,7 @@
       <c r="X297" s="1"/>
       <c r="Y297" s="1"/>
     </row>
-    <row r="298" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A298" s="12"/>
       <c r="B298" s="12"/>
       <c r="C298" s="12"/>
@@ -9895,7 +9895,7 @@
       <c r="X298" s="1"/>
       <c r="Y298" s="1"/>
     </row>
-    <row r="299" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A299" s="12"/>
       <c r="B299" s="12"/>
       <c r="C299" s="12"/>
@@ -9922,7 +9922,7 @@
       <c r="X299" s="1"/>
       <c r="Y299" s="1"/>
     </row>
-    <row r="300" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A300" s="12"/>
       <c r="B300" s="12"/>
       <c r="C300" s="12"/>
@@ -9949,7 +9949,7 @@
       <c r="X300" s="1"/>
       <c r="Y300" s="1"/>
     </row>
-    <row r="301" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A301" s="12"/>
       <c r="B301" s="12"/>
       <c r="C301" s="12"/>
@@ -9976,7 +9976,7 @@
       <c r="X301" s="1"/>
       <c r="Y301" s="1"/>
     </row>
-    <row r="302" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A302" s="12"/>
       <c r="B302" s="12"/>
       <c r="C302" s="12"/>
@@ -10003,7 +10003,7 @@
       <c r="X302" s="1"/>
       <c r="Y302" s="1"/>
     </row>
-    <row r="303" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A303" s="12"/>
       <c r="B303" s="12"/>
       <c r="C303" s="12"/>
@@ -10030,7 +10030,7 @@
       <c r="X303" s="1"/>
       <c r="Y303" s="1"/>
     </row>
-    <row r="304" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A304" s="12"/>
       <c r="B304" s="12"/>
       <c r="C304" s="12"/>
@@ -10057,7 +10057,7 @@
       <c r="X304" s="1"/>
       <c r="Y304" s="1"/>
     </row>
-    <row r="305" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A305" s="12"/>
       <c r="B305" s="12"/>
       <c r="C305" s="12"/>
@@ -10084,7 +10084,7 @@
       <c r="X305" s="1"/>
       <c r="Y305" s="1"/>
     </row>
-    <row r="306" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A306" s="12"/>
       <c r="B306" s="12"/>
       <c r="C306" s="12"/>
@@ -10111,7 +10111,7 @@
       <c r="X306" s="1"/>
       <c r="Y306" s="1"/>
     </row>
-    <row r="307" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A307" s="12"/>
       <c r="B307" s="12"/>
       <c r="C307" s="12"/>
@@ -10138,7 +10138,7 @@
       <c r="X307" s="1"/>
       <c r="Y307" s="1"/>
     </row>
-    <row r="308" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A308" s="12"/>
       <c r="B308" s="12"/>
       <c r="C308" s="12"/>
@@ -10165,7 +10165,7 @@
       <c r="X308" s="1"/>
       <c r="Y308" s="1"/>
     </row>
-    <row r="309" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A309" s="12"/>
       <c r="B309" s="12"/>
       <c r="C309" s="12"/>
@@ -10192,7 +10192,7 @@
       <c r="X309" s="1"/>
       <c r="Y309" s="1"/>
     </row>
-    <row r="310" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A310" s="12"/>
       <c r="B310" s="12"/>
       <c r="C310" s="12"/>
@@ -10219,7 +10219,7 @@
       <c r="X310" s="1"/>
       <c r="Y310" s="1"/>
     </row>
-    <row r="311" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A311" s="12"/>
       <c r="B311" s="12"/>
       <c r="C311" s="12"/>
@@ -10246,7 +10246,7 @@
       <c r="X311" s="1"/>
       <c r="Y311" s="1"/>
     </row>
-    <row r="312" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A312" s="12"/>
       <c r="B312" s="12"/>
       <c r="C312" s="12"/>
@@ -10273,7 +10273,7 @@
       <c r="X312" s="1"/>
       <c r="Y312" s="1"/>
     </row>
-    <row r="313" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A313" s="12"/>
       <c r="B313" s="12"/>
       <c r="C313" s="12"/>
@@ -10300,7 +10300,7 @@
       <c r="X313" s="1"/>
       <c r="Y313" s="1"/>
     </row>
-    <row r="314" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A314" s="12"/>
       <c r="B314" s="12"/>
       <c r="C314" s="12"/>
@@ -10327,7 +10327,7 @@
       <c r="X314" s="1"/>
       <c r="Y314" s="1"/>
     </row>
-    <row r="315" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A315" s="12"/>
       <c r="B315" s="12"/>
       <c r="C315" s="12"/>
@@ -10354,7 +10354,7 @@
       <c r="X315" s="1"/>
       <c r="Y315" s="1"/>
     </row>
-    <row r="316" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A316" s="12"/>
       <c r="B316" s="12"/>
       <c r="C316" s="12"/>
@@ -10381,7 +10381,7 @@
       <c r="X316" s="1"/>
       <c r="Y316" s="1"/>
     </row>
-    <row r="317" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A317" s="12"/>
       <c r="B317" s="12"/>
       <c r="C317" s="12"/>
@@ -10408,7 +10408,7 @@
       <c r="X317" s="1"/>
       <c r="Y317" s="1"/>
     </row>
-    <row r="318" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A318" s="12"/>
       <c r="B318" s="12"/>
       <c r="C318" s="12"/>
@@ -10435,7 +10435,7 @@
       <c r="X318" s="1"/>
       <c r="Y318" s="1"/>
     </row>
-    <row r="319" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A319" s="12"/>
       <c r="B319" s="12"/>
       <c r="C319" s="12"/>
@@ -10462,7 +10462,7 @@
       <c r="X319" s="1"/>
       <c r="Y319" s="1"/>
     </row>
-    <row r="320" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A320" s="12"/>
       <c r="B320" s="12"/>
       <c r="C320" s="12"/>
@@ -10489,7 +10489,7 @@
       <c r="X320" s="1"/>
       <c r="Y320" s="1"/>
     </row>
-    <row r="321" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A321" s="12"/>
       <c r="B321" s="12"/>
       <c r="C321" s="12"/>
@@ -10516,7 +10516,7 @@
       <c r="X321" s="1"/>
       <c r="Y321" s="1"/>
     </row>
-    <row r="322" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A322" s="12"/>
       <c r="B322" s="12"/>
       <c r="C322" s="12"/>
@@ -10543,7 +10543,7 @@
       <c r="X322" s="1"/>
       <c r="Y322" s="1"/>
     </row>
-    <row r="323" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A323" s="12"/>
       <c r="B323" s="12"/>
       <c r="C323" s="12"/>
@@ -10570,7 +10570,7 @@
       <c r="X323" s="1"/>
       <c r="Y323" s="1"/>
     </row>
-    <row r="324" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A324" s="12"/>
       <c r="B324" s="12"/>
       <c r="C324" s="12"/>
@@ -10597,7 +10597,7 @@
       <c r="X324" s="1"/>
       <c r="Y324" s="1"/>
     </row>
-    <row r="325" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A325" s="12"/>
       <c r="B325" s="12"/>
       <c r="C325" s="12"/>
@@ -10624,7 +10624,7 @@
       <c r="X325" s="1"/>
       <c r="Y325" s="1"/>
     </row>
-    <row r="326" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A326" s="12"/>
       <c r="B326" s="12"/>
       <c r="C326" s="12"/>
@@ -10651,7 +10651,7 @@
       <c r="X326" s="1"/>
       <c r="Y326" s="1"/>
     </row>
-    <row r="327" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A327" s="12"/>
       <c r="B327" s="12"/>
       <c r="C327" s="12"/>
@@ -10678,7 +10678,7 @@
       <c r="X327" s="1"/>
       <c r="Y327" s="1"/>
     </row>
-    <row r="328" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A328" s="12"/>
       <c r="B328" s="12"/>
       <c r="C328" s="12"/>
@@ -10705,7 +10705,7 @@
       <c r="X328" s="1"/>
       <c r="Y328" s="1"/>
     </row>
-    <row r="329" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A329" s="12"/>
       <c r="B329" s="12"/>
       <c r="C329" s="12"/>
@@ -10732,7 +10732,7 @@
       <c r="X329" s="1"/>
       <c r="Y329" s="1"/>
     </row>
-    <row r="330" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A330" s="12"/>
       <c r="B330" s="12"/>
       <c r="C330" s="12"/>
@@ -10759,7 +10759,7 @@
       <c r="X330" s="1"/>
       <c r="Y330" s="1"/>
     </row>
-    <row r="331" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A331" s="12"/>
       <c r="B331" s="12"/>
       <c r="C331" s="12"/>
@@ -10786,7 +10786,7 @@
       <c r="X331" s="1"/>
       <c r="Y331" s="1"/>
     </row>
-    <row r="332" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A332" s="12"/>
       <c r="B332" s="12"/>
       <c r="C332" s="12"/>
@@ -10813,7 +10813,7 @@
       <c r="X332" s="1"/>
       <c r="Y332" s="1"/>
     </row>
-    <row r="333" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A333" s="12"/>
       <c r="B333" s="12"/>
       <c r="C333" s="12"/>
@@ -10840,7 +10840,7 @@
       <c r="X333" s="1"/>
       <c r="Y333" s="1"/>
     </row>
-    <row r="334" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A334" s="12"/>
       <c r="B334" s="12"/>
       <c r="C334" s="12"/>
@@ -10867,7 +10867,7 @@
       <c r="X334" s="1"/>
       <c r="Y334" s="1"/>
     </row>
-    <row r="335" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A335" s="12"/>
       <c r="B335" s="12"/>
       <c r="C335" s="12"/>
@@ -10894,7 +10894,7 @@
       <c r="X335" s="1"/>
       <c r="Y335" s="1"/>
     </row>
-    <row r="336" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A336" s="12"/>
       <c r="B336" s="12"/>
       <c r="C336" s="12"/>
@@ -10921,7 +10921,7 @@
       <c r="X336" s="1"/>
       <c r="Y336" s="1"/>
     </row>
-    <row r="337" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A337" s="12"/>
       <c r="B337" s="12"/>
       <c r="C337" s="12"/>
@@ -10948,7 +10948,7 @@
       <c r="X337" s="1"/>
       <c r="Y337" s="1"/>
     </row>
-    <row r="338" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A338" s="12"/>
       <c r="B338" s="12"/>
       <c r="C338" s="12"/>
@@ -10975,7 +10975,7 @@
       <c r="X338" s="1"/>
       <c r="Y338" s="1"/>
     </row>
-    <row r="339" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A339" s="12"/>
       <c r="B339" s="12"/>
       <c r="C339" s="12"/>
@@ -11002,7 +11002,7 @@
       <c r="X339" s="1"/>
       <c r="Y339" s="1"/>
     </row>
-    <row r="340" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A340" s="12"/>
       <c r="B340" s="12"/>
       <c r="C340" s="12"/>
@@ -11029,7 +11029,7 @@
       <c r="X340" s="1"/>
       <c r="Y340" s="1"/>
     </row>
-    <row r="341" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A341" s="12"/>
       <c r="B341" s="12"/>
       <c r="C341" s="12"/>
@@ -11056,7 +11056,7 @@
       <c r="X341" s="1"/>
       <c r="Y341" s="1"/>
     </row>
-    <row r="342" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A342" s="12"/>
       <c r="B342" s="12"/>
       <c r="C342" s="12"/>
@@ -11083,7 +11083,7 @@
       <c r="X342" s="1"/>
       <c r="Y342" s="1"/>
     </row>
-    <row r="343" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A343" s="12"/>
       <c r="B343" s="12"/>
       <c r="C343" s="12"/>
@@ -11110,7 +11110,7 @@
       <c r="X343" s="1"/>
       <c r="Y343" s="1"/>
     </row>
-    <row r="344" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A344" s="12"/>
       <c r="B344" s="12"/>
       <c r="C344" s="12"/>
@@ -11137,7 +11137,7 @@
       <c r="X344" s="1"/>
       <c r="Y344" s="1"/>
     </row>
-    <row r="345" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A345" s="12"/>
       <c r="B345" s="12"/>
       <c r="C345" s="12"/>
@@ -11164,7 +11164,7 @@
       <c r="X345" s="1"/>
       <c r="Y345" s="1"/>
     </row>
-    <row r="346" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A346" s="12"/>
       <c r="B346" s="12"/>
       <c r="C346" s="12"/>
@@ -11191,7 +11191,7 @@
       <c r="X346" s="1"/>
       <c r="Y346" s="1"/>
     </row>
-    <row r="347" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A347" s="12"/>
       <c r="B347" s="12"/>
       <c r="C347" s="12"/>
@@ -11218,7 +11218,7 @@
       <c r="X347" s="1"/>
       <c r="Y347" s="1"/>
     </row>
-    <row r="348" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A348" s="12"/>
       <c r="B348" s="12"/>
       <c r="C348" s="12"/>
@@ -11245,7 +11245,7 @@
       <c r="X348" s="1"/>
       <c r="Y348" s="1"/>
     </row>
-    <row r="349" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A349" s="12"/>
       <c r="B349" s="12"/>
       <c r="C349" s="12"/>
@@ -11272,7 +11272,7 @@
       <c r="X349" s="1"/>
       <c r="Y349" s="1"/>
     </row>
-    <row r="350" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A350" s="12"/>
       <c r="B350" s="12"/>
       <c r="C350" s="12"/>
@@ -11299,7 +11299,7 @@
       <c r="X350" s="1"/>
       <c r="Y350" s="1"/>
     </row>
-    <row r="351" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A351" s="12"/>
       <c r="B351" s="12"/>
       <c r="C351" s="12"/>
@@ -11326,7 +11326,7 @@
       <c r="X351" s="1"/>
       <c r="Y351" s="1"/>
     </row>
-    <row r="352" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A352" s="12"/>
       <c r="B352" s="12"/>
       <c r="C352" s="12"/>
@@ -11353,7 +11353,7 @@
       <c r="X352" s="1"/>
       <c r="Y352" s="1"/>
     </row>
-    <row r="353" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A353" s="12"/>
       <c r="B353" s="12"/>
       <c r="C353" s="12"/>
@@ -11380,7 +11380,7 @@
       <c r="X353" s="1"/>
       <c r="Y353" s="1"/>
     </row>
-    <row r="354" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A354" s="12"/>
       <c r="B354" s="12"/>
       <c r="C354" s="12"/>
@@ -11407,7 +11407,7 @@
       <c r="X354" s="1"/>
       <c r="Y354" s="1"/>
     </row>
-    <row r="355" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A355" s="12"/>
       <c r="B355" s="12"/>
       <c r="C355" s="12"/>
@@ -11434,7 +11434,7 @@
       <c r="X355" s="1"/>
       <c r="Y355" s="1"/>
     </row>
-    <row r="356" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A356" s="12"/>
       <c r="B356" s="12"/>
       <c r="C356" s="12"/>
@@ -11461,7 +11461,7 @@
       <c r="X356" s="1"/>
       <c r="Y356" s="1"/>
     </row>
-    <row r="357" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A357" s="12"/>
       <c r="B357" s="12"/>
       <c r="C357" s="12"/>
@@ -11488,7 +11488,7 @@
       <c r="X357" s="1"/>
       <c r="Y357" s="1"/>
     </row>
-    <row r="358" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A358" s="12"/>
       <c r="B358" s="12"/>
       <c r="C358" s="12"/>
@@ -11515,7 +11515,7 @@
       <c r="X358" s="1"/>
       <c r="Y358" s="1"/>
     </row>
-    <row r="359" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A359" s="12"/>
       <c r="B359" s="12"/>
       <c r="C359" s="12"/>
@@ -11542,7 +11542,7 @@
       <c r="X359" s="1"/>
       <c r="Y359" s="1"/>
     </row>
-    <row r="360" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A360" s="12"/>
       <c r="B360" s="12"/>
       <c r="C360" s="12"/>
@@ -11569,7 +11569,7 @@
       <c r="X360" s="1"/>
       <c r="Y360" s="1"/>
     </row>
-    <row r="361" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A361" s="12"/>
       <c r="B361" s="12"/>
       <c r="C361" s="12"/>
@@ -11596,7 +11596,7 @@
       <c r="X361" s="1"/>
       <c r="Y361" s="1"/>
     </row>
-    <row r="362" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A362" s="12"/>
       <c r="B362" s="12"/>
       <c r="C362" s="12"/>
@@ -11623,7 +11623,7 @@
       <c r="X362" s="1"/>
       <c r="Y362" s="1"/>
     </row>
-    <row r="363" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A363" s="12"/>
       <c r="B363" s="12"/>
       <c r="C363" s="12"/>
@@ -11650,7 +11650,7 @@
       <c r="X363" s="1"/>
       <c r="Y363" s="1"/>
     </row>
-    <row r="364" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A364" s="12"/>
       <c r="B364" s="12"/>
       <c r="C364" s="12"/>
@@ -11677,7 +11677,7 @@
       <c r="X364" s="1"/>
       <c r="Y364" s="1"/>
     </row>
-    <row r="365" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A365" s="12"/>
       <c r="B365" s="12"/>
       <c r="C365" s="12"/>
@@ -11704,7 +11704,7 @@
       <c r="X365" s="1"/>
       <c r="Y365" s="1"/>
     </row>
-    <row r="366" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A366" s="12"/>
       <c r="B366" s="12"/>
       <c r="C366" s="12"/>
@@ -11731,7 +11731,7 @@
       <c r="X366" s="1"/>
       <c r="Y366" s="1"/>
     </row>
-    <row r="367" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A367" s="12"/>
       <c r="B367" s="12"/>
       <c r="C367" s="12"/>
@@ -11758,7 +11758,7 @@
       <c r="X367" s="1"/>
       <c r="Y367" s="1"/>
     </row>
-    <row r="368" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A368" s="12"/>
       <c r="B368" s="12"/>
       <c r="C368" s="12"/>
@@ -11785,7 +11785,7 @@
       <c r="X368" s="1"/>
       <c r="Y368" s="1"/>
     </row>
-    <row r="369" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A369" s="12"/>
       <c r="B369" s="12"/>
       <c r="C369" s="12"/>
@@ -11812,7 +11812,7 @@
       <c r="X369" s="1"/>
       <c r="Y369" s="1"/>
     </row>
-    <row r="370" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A370" s="12"/>
       <c r="B370" s="12"/>
       <c r="C370" s="12"/>
@@ -11839,7 +11839,7 @@
       <c r="X370" s="1"/>
       <c r="Y370" s="1"/>
     </row>
-    <row r="371" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A371" s="12"/>
       <c r="B371" s="12"/>
       <c r="C371" s="12"/>
@@ -11866,7 +11866,7 @@
       <c r="X371" s="1"/>
       <c r="Y371" s="1"/>
     </row>
-    <row r="372" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A372" s="12"/>
       <c r="B372" s="12"/>
       <c r="C372" s="12"/>
@@ -11893,7 +11893,7 @@
       <c r="X372" s="1"/>
       <c r="Y372" s="1"/>
     </row>
-    <row r="373" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A373" s="12"/>
       <c r="B373" s="12"/>
       <c r="C373" s="12"/>
@@ -11920,7 +11920,7 @@
       <c r="X373" s="1"/>
       <c r="Y373" s="1"/>
     </row>
-    <row r="374" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A374" s="12"/>
       <c r="B374" s="12"/>
       <c r="C374" s="12"/>
@@ -11947,7 +11947,7 @@
       <c r="X374" s="1"/>
       <c r="Y374" s="1"/>
     </row>
-    <row r="375" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A375" s="12"/>
       <c r="B375" s="12"/>
       <c r="C375" s="12"/>
@@ -11974,7 +11974,7 @@
       <c r="X375" s="1"/>
       <c r="Y375" s="1"/>
     </row>
-    <row r="376" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A376" s="12"/>
       <c r="B376" s="12"/>
       <c r="C376" s="12"/>
@@ -12001,7 +12001,7 @@
       <c r="X376" s="1"/>
       <c r="Y376" s="1"/>
     </row>
-    <row r="377" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A377" s="12"/>
       <c r="B377" s="12"/>
       <c r="C377" s="12"/>
@@ -12028,7 +12028,7 @@
       <c r="X377" s="1"/>
       <c r="Y377" s="1"/>
     </row>
-    <row r="378" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A378" s="12"/>
       <c r="B378" s="12"/>
       <c r="C378" s="12"/>
@@ -12055,7 +12055,7 @@
       <c r="X378" s="1"/>
       <c r="Y378" s="1"/>
     </row>
-    <row r="379" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A379" s="12"/>
       <c r="B379" s="12"/>
       <c r="C379" s="12"/>
@@ -12082,7 +12082,7 @@
       <c r="X379" s="1"/>
       <c r="Y379" s="1"/>
     </row>
-    <row r="380" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A380" s="12"/>
       <c r="B380" s="12"/>
       <c r="C380" s="12"/>
@@ -12109,7 +12109,7 @@
       <c r="X380" s="1"/>
       <c r="Y380" s="1"/>
     </row>
-    <row r="381" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A381" s="12"/>
       <c r="B381" s="12"/>
       <c r="C381" s="12"/>
@@ -12136,7 +12136,7 @@
       <c r="X381" s="1"/>
       <c r="Y381" s="1"/>
     </row>
-    <row r="382" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A382" s="12"/>
       <c r="B382" s="12"/>
       <c r="C382" s="12"/>
@@ -12163,7 +12163,7 @@
       <c r="X382" s="1"/>
       <c r="Y382" s="1"/>
     </row>
-    <row r="383" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A383" s="12"/>
       <c r="B383" s="12"/>
       <c r="C383" s="12"/>
@@ -12190,7 +12190,7 @@
       <c r="X383" s="1"/>
       <c r="Y383" s="1"/>
     </row>
-    <row r="384" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A384" s="12"/>
       <c r="B384" s="12"/>
       <c r="C384" s="12"/>
@@ -12217,7 +12217,7 @@
       <c r="X384" s="1"/>
       <c r="Y384" s="1"/>
     </row>
-    <row r="385" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A385" s="12"/>
       <c r="B385" s="12"/>
       <c r="C385" s="12"/>
@@ -12244,7 +12244,7 @@
       <c r="X385" s="1"/>
       <c r="Y385" s="1"/>
     </row>
-    <row r="386" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A386" s="12"/>
       <c r="B386" s="12"/>
       <c r="C386" s="12"/>
@@ -12271,7 +12271,7 @@
       <c r="X386" s="1"/>
       <c r="Y386" s="1"/>
     </row>
-    <row r="387" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A387" s="12"/>
       <c r="B387" s="12"/>
       <c r="C387" s="12"/>
@@ -12298,7 +12298,7 @@
       <c r="X387" s="1"/>
       <c r="Y387" s="1"/>
     </row>
-    <row r="388" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A388" s="12"/>
       <c r="B388" s="12"/>
       <c r="C388" s="12"/>
@@ -12325,7 +12325,7 @@
       <c r="X388" s="1"/>
       <c r="Y388" s="1"/>
     </row>
-    <row r="389" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A389" s="12"/>
       <c r="B389" s="12"/>
       <c r="C389" s="12"/>
@@ -12352,7 +12352,7 @@
       <c r="X389" s="1"/>
       <c r="Y389" s="1"/>
     </row>
-    <row r="390" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A390" s="12"/>
       <c r="B390" s="12"/>
       <c r="C390" s="12"/>
@@ -12379,7 +12379,7 @@
       <c r="X390" s="1"/>
       <c r="Y390" s="1"/>
     </row>
-    <row r="391" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A391" s="12"/>
       <c r="B391" s="12"/>
       <c r="C391" s="12"/>
@@ -12406,7 +12406,7 @@
       <c r="X391" s="1"/>
       <c r="Y391" s="1"/>
     </row>
-    <row r="392" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A392" s="12"/>
       <c r="B392" s="12"/>
       <c r="C392" s="12"/>
@@ -12433,7 +12433,7 @@
       <c r="X392" s="1"/>
       <c r="Y392" s="1"/>
     </row>
-    <row r="393" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A393" s="12"/>
       <c r="B393" s="12"/>
       <c r="C393" s="12"/>
@@ -12460,7 +12460,7 @@
       <c r="X393" s="1"/>
       <c r="Y393" s="1"/>
     </row>
-    <row r="394" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A394" s="12"/>
       <c r="B394" s="12"/>
       <c r="C394" s="12"/>
@@ -12487,7 +12487,7 @@
       <c r="X394" s="1"/>
       <c r="Y394" s="1"/>
     </row>
-    <row r="395" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A395" s="12"/>
       <c r="B395" s="12"/>
       <c r="C395" s="12"/>
@@ -12514,7 +12514,7 @@
       <c r="X395" s="1"/>
       <c r="Y395" s="1"/>
     </row>
-    <row r="396" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A396" s="12"/>
       <c r="B396" s="12"/>
       <c r="C396" s="12"/>
@@ -12541,7 +12541,7 @@
       <c r="X396" s="1"/>
       <c r="Y396" s="1"/>
     </row>
-    <row r="397" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A397" s="12"/>
       <c r="B397" s="12"/>
       <c r="C397" s="12"/>
@@ -12568,7 +12568,7 @@
       <c r="X397" s="1"/>
       <c r="Y397" s="1"/>
     </row>
-    <row r="398" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A398" s="12"/>
       <c r="B398" s="12"/>
       <c r="C398" s="12"/>
@@ -12595,7 +12595,7 @@
       <c r="X398" s="1"/>
       <c r="Y398" s="1"/>
     </row>
-    <row r="399" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A399" s="12"/>
       <c r="B399" s="12"/>
       <c r="C399" s="12"/>
@@ -12622,7 +12622,7 @@
       <c r="X399" s="1"/>
       <c r="Y399" s="1"/>
     </row>
-    <row r="400" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A400" s="12"/>
       <c r="B400" s="12"/>
       <c r="C400" s="12"/>
@@ -12649,7 +12649,7 @@
       <c r="X400" s="1"/>
       <c r="Y400" s="1"/>
     </row>
-    <row r="401" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A401" s="12"/>
       <c r="B401" s="12"/>
       <c r="C401" s="12"/>
@@ -12676,7 +12676,7 @@
       <c r="X401" s="1"/>
       <c r="Y401" s="1"/>
     </row>
-    <row r="402" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A402" s="12"/>
       <c r="B402" s="12"/>
       <c r="C402" s="12"/>
@@ -12703,7 +12703,7 @@
       <c r="X402" s="1"/>
       <c r="Y402" s="1"/>
     </row>
-    <row r="403" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A403" s="12"/>
       <c r="B403" s="12"/>
       <c r="C403" s="12"/>
@@ -12730,7 +12730,7 @@
       <c r="X403" s="1"/>
       <c r="Y403" s="1"/>
     </row>
-    <row r="404" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A404" s="12"/>
       <c r="B404" s="12"/>
       <c r="C404" s="12"/>
@@ -12757,7 +12757,7 @@
       <c r="X404" s="1"/>
       <c r="Y404" s="1"/>
     </row>
-    <row r="405" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A405" s="12"/>
       <c r="B405" s="12"/>
       <c r="C405" s="12"/>
@@ -12784,7 +12784,7 @@
       <c r="X405" s="1"/>
       <c r="Y405" s="1"/>
     </row>
-    <row r="406" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A406" s="12"/>
       <c r="B406" s="12"/>
       <c r="C406" s="12"/>
@@ -12811,7 +12811,7 @@
       <c r="X406" s="1"/>
       <c r="Y406" s="1"/>
     </row>
-    <row r="407" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A407" s="12"/>
       <c r="B407" s="12"/>
       <c r="C407" s="12"/>
@@ -12838,7 +12838,7 @@
       <c r="X407" s="1"/>
       <c r="Y407" s="1"/>
     </row>
-    <row r="408" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A408" s="12"/>
       <c r="B408" s="12"/>
       <c r="C408" s="12"/>
@@ -12865,7 +12865,7 @@
       <c r="X408" s="1"/>
       <c r="Y408" s="1"/>
     </row>
-    <row r="409" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A409" s="12"/>
       <c r="B409" s="12"/>
       <c r="C409" s="12"/>
@@ -12892,7 +12892,7 @@
       <c r="X409" s="1"/>
       <c r="Y409" s="1"/>
     </row>
-    <row r="410" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A410" s="12"/>
       <c r="B410" s="12"/>
       <c r="C410" s="12"/>
@@ -12919,7 +12919,7 @@
       <c r="X410" s="1"/>
       <c r="Y410" s="1"/>
     </row>
-    <row r="411" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A411" s="12"/>
       <c r="B411" s="12"/>
       <c r="C411" s="12"/>
@@ -12946,7 +12946,7 @@
       <c r="X411" s="1"/>
       <c r="Y411" s="1"/>
     </row>
-    <row r="412" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A412" s="12"/>
       <c r="B412" s="12"/>
       <c r="C412" s="12"/>
@@ -12973,7 +12973,7 @@
       <c r="X412" s="1"/>
       <c r="Y412" s="1"/>
     </row>
-    <row r="413" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A413" s="12"/>
       <c r="B413" s="12"/>
       <c r="C413" s="12"/>
@@ -13000,7 +13000,7 @@
       <c r="X413" s="1"/>
       <c r="Y413" s="1"/>
     </row>
-    <row r="414" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A414" s="12"/>
       <c r="B414" s="12"/>
       <c r="C414" s="12"/>
@@ -13027,7 +13027,7 @@
       <c r="X414" s="1"/>
       <c r="Y414" s="1"/>
     </row>
-    <row r="415" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A415" s="12"/>
       <c r="B415" s="12"/>
       <c r="C415" s="12"/>
@@ -13054,7 +13054,7 @@
       <c r="X415" s="1"/>
       <c r="Y415" s="1"/>
     </row>
-    <row r="416" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A416" s="12"/>
       <c r="B416" s="12"/>
       <c r="C416" s="12"/>
@@ -13081,7 +13081,7 @@
       <c r="X416" s="1"/>
       <c r="Y416" s="1"/>
     </row>
-    <row r="417" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A417" s="12"/>
       <c r="B417" s="12"/>
       <c r="C417" s="12"/>
@@ -13108,7 +13108,7 @@
       <c r="X417" s="1"/>
       <c r="Y417" s="1"/>
     </row>
-    <row r="418" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A418" s="12"/>
       <c r="B418" s="12"/>
       <c r="C418" s="12"/>
@@ -13135,7 +13135,7 @@
       <c r="X418" s="1"/>
       <c r="Y418" s="1"/>
     </row>
-    <row r="419" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A419" s="12"/>
       <c r="B419" s="12"/>
       <c r="C419" s="12"/>
@@ -13162,7 +13162,7 @@
       <c r="X419" s="1"/>
       <c r="Y419" s="1"/>
     </row>
-    <row r="420" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A420" s="12"/>
       <c r="B420" s="12"/>
       <c r="C420" s="12"/>
@@ -13189,7 +13189,7 @@
       <c r="X420" s="1"/>
       <c r="Y420" s="1"/>
     </row>
-    <row r="421" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A421" s="12"/>
       <c r="B421" s="12"/>
       <c r="C421" s="12"/>
@@ -13216,7 +13216,7 @@
       <c r="X421" s="1"/>
       <c r="Y421" s="1"/>
     </row>
-    <row r="422" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A422" s="12"/>
       <c r="B422" s="12"/>
       <c r="C422" s="12"/>
@@ -13243,7 +13243,7 @@
       <c r="X422" s="1"/>
       <c r="Y422" s="1"/>
     </row>
-    <row r="423" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A423" s="12"/>
       <c r="B423" s="12"/>
       <c r="C423" s="12"/>
@@ -13270,7 +13270,7 @@
       <c r="X423" s="1"/>
       <c r="Y423" s="1"/>
     </row>
-    <row r="424" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A424" s="12"/>
       <c r="B424" s="12"/>
       <c r="C424" s="12"/>
@@ -13297,7 +13297,7 @@
       <c r="X424" s="1"/>
       <c r="Y424" s="1"/>
     </row>
-    <row r="425" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A425" s="12"/>
       <c r="B425" s="12"/>
       <c r="C425" s="12"/>
@@ -13324,7 +13324,7 @@
       <c r="X425" s="1"/>
       <c r="Y425" s="1"/>
     </row>
-    <row r="426" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A426" s="12"/>
       <c r="B426" s="12"/>
       <c r="C426" s="12"/>
@@ -13351,7 +13351,7 @@
       <c r="X426" s="1"/>
       <c r="Y426" s="1"/>
     </row>
-    <row r="427" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A427" s="12"/>
       <c r="B427" s="12"/>
       <c r="C427" s="12"/>
@@ -13378,7 +13378,7 @@
       <c r="X427" s="1"/>
       <c r="Y427" s="1"/>
     </row>
-    <row r="428" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A428" s="12"/>
       <c r="B428" s="12"/>
       <c r="C428" s="12"/>
@@ -13405,7 +13405,7 @@
       <c r="X428" s="1"/>
       <c r="Y428" s="1"/>
     </row>
-    <row r="429" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A429" s="12"/>
       <c r="B429" s="12"/>
       <c r="C429" s="12"/>
@@ -13432,7 +13432,7 @@
       <c r="X429" s="1"/>
       <c r="Y429" s="1"/>
     </row>
-    <row r="430" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A430" s="12"/>
       <c r="B430" s="12"/>
       <c r="C430" s="12"/>
@@ -13459,7 +13459,7 @@
       <c r="X430" s="1"/>
       <c r="Y430" s="1"/>
     </row>
-    <row r="431" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A431" s="12"/>
       <c r="B431" s="12"/>
       <c r="C431" s="12"/>
@@ -13486,7 +13486,7 @@
       <c r="X431" s="1"/>
       <c r="Y431" s="1"/>
     </row>
-    <row r="432" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A432" s="12"/>
       <c r="B432" s="12"/>
       <c r="C432" s="12"/>
@@ -13513,7 +13513,7 @@
       <c r="X432" s="1"/>
       <c r="Y432" s="1"/>
     </row>
-    <row r="433" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A433" s="12"/>
       <c r="B433" s="12"/>
       <c r="C433" s="12"/>
@@ -13540,7 +13540,7 @@
       <c r="X433" s="1"/>
       <c r="Y433" s="1"/>
     </row>
-    <row r="434" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A434" s="12"/>
       <c r="B434" s="12"/>
       <c r="C434" s="12"/>
@@ -13567,7 +13567,7 @@
       <c r="X434" s="1"/>
       <c r="Y434" s="1"/>
     </row>
-    <row r="435" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A435" s="12"/>
       <c r="B435" s="12"/>
       <c r="C435" s="12"/>
@@ -13594,7 +13594,7 @@
       <c r="X435" s="1"/>
       <c r="Y435" s="1"/>
     </row>
-    <row r="436" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A436" s="12"/>
       <c r="B436" s="12"/>
       <c r="C436" s="12"/>
@@ -13621,7 +13621,7 @@
       <c r="X436" s="1"/>
       <c r="Y436" s="1"/>
     </row>
-    <row r="437" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A437" s="12"/>
       <c r="B437" s="12"/>
       <c r="C437" s="12"/>
@@ -13648,7 +13648,7 @@
       <c r="X437" s="1"/>
       <c r="Y437" s="1"/>
     </row>
-    <row r="438" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A438" s="12"/>
       <c r="B438" s="12"/>
       <c r="C438" s="12"/>
@@ -13675,7 +13675,7 @@
       <c r="X438" s="1"/>
       <c r="Y438" s="1"/>
     </row>
-    <row r="439" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A439" s="12"/>
       <c r="B439" s="12"/>
       <c r="C439" s="12"/>
@@ -13702,7 +13702,7 @@
       <c r="X439" s="1"/>
       <c r="Y439" s="1"/>
     </row>
-    <row r="440" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A440" s="12"/>
       <c r="B440" s="12"/>
       <c r="C440" s="12"/>
@@ -13729,7 +13729,7 @@
       <c r="X440" s="1"/>
       <c r="Y440" s="1"/>
     </row>
-    <row r="441" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A441" s="12"/>
       <c r="B441" s="12"/>
       <c r="C441" s="12"/>
@@ -13756,7 +13756,7 @@
       <c r="X441" s="1"/>
       <c r="Y441" s="1"/>
     </row>
-    <row r="442" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A442" s="12"/>
       <c r="B442" s="12"/>
       <c r="C442" s="12"/>
@@ -13783,7 +13783,7 @@
       <c r="X442" s="1"/>
       <c r="Y442" s="1"/>
     </row>
-    <row r="443" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A443" s="12"/>
       <c r="B443" s="12"/>
       <c r="C443" s="12"/>
@@ -13810,7 +13810,7 @@
       <c r="X443" s="1"/>
       <c r="Y443" s="1"/>
     </row>
-    <row r="444" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A444" s="12"/>
       <c r="B444" s="12"/>
       <c r="C444" s="12"/>
@@ -13837,7 +13837,7 @@
       <c r="X444" s="1"/>
       <c r="Y444" s="1"/>
     </row>
-    <row r="445" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A445" s="12"/>
       <c r="B445" s="12"/>
       <c r="C445" s="12"/>
@@ -13864,7 +13864,7 @@
       <c r="X445" s="1"/>
       <c r="Y445" s="1"/>
     </row>
-    <row r="446" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A446" s="12"/>
       <c r="B446" s="12"/>
       <c r="C446" s="12"/>
@@ -13891,7 +13891,7 @@
       <c r="X446" s="1"/>
       <c r="Y446" s="1"/>
     </row>
-    <row r="447" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A447" s="12"/>
       <c r="B447" s="12"/>
       <c r="C447" s="12"/>
@@ -13918,7 +13918,7 @@
       <c r="X447" s="1"/>
       <c r="Y447" s="1"/>
     </row>
-    <row r="448" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A448" s="12"/>
       <c r="B448" s="12"/>
       <c r="C448" s="12"/>
@@ -13945,7 +13945,7 @@
       <c r="X448" s="1"/>
       <c r="Y448" s="1"/>
     </row>
-    <row r="449" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A449" s="12"/>
       <c r="B449" s="12"/>
       <c r="C449" s="12"/>
@@ -13972,7 +13972,7 @@
       <c r="X449" s="1"/>
       <c r="Y449" s="1"/>
     </row>
-    <row r="450" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A450" s="12"/>
       <c r="B450" s="12"/>
       <c r="C450" s="12"/>
@@ -13999,7 +13999,7 @@
       <c r="X450" s="1"/>
       <c r="Y450" s="1"/>
     </row>
-    <row r="451" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A451" s="12"/>
       <c r="B451" s="12"/>
       <c r="C451" s="12"/>
@@ -14026,7 +14026,7 @@
       <c r="X451" s="1"/>
       <c r="Y451" s="1"/>
     </row>
-    <row r="452" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A452" s="12"/>
       <c r="B452" s="12"/>
       <c r="C452" s="12"/>
@@ -14053,7 +14053,7 @@
       <c r="X452" s="1"/>
       <c r="Y452" s="1"/>
     </row>
-    <row r="453" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A453" s="12"/>
       <c r="B453" s="12"/>
       <c r="C453" s="12"/>
@@ -14080,7 +14080,7 @@
       <c r="X453" s="1"/>
       <c r="Y453" s="1"/>
     </row>
-    <row r="454" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A454" s="12"/>
       <c r="B454" s="12"/>
       <c r="C454" s="12"/>
@@ -14107,7 +14107,7 @@
       <c r="X454" s="1"/>
       <c r="Y454" s="1"/>
     </row>
-    <row r="455" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A455" s="12"/>
       <c r="B455" s="12"/>
       <c r="C455" s="12"/>
@@ -14134,7 +14134,7 @@
       <c r="X455" s="1"/>
       <c r="Y455" s="1"/>
     </row>
-    <row r="456" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A456" s="12"/>
       <c r="B456" s="12"/>
       <c r="C456" s="12"/>
@@ -14161,7 +14161,7 @@
       <c r="X456" s="1"/>
       <c r="Y456" s="1"/>
     </row>
-    <row r="457" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A457" s="12"/>
       <c r="B457" s="12"/>
       <c r="C457" s="12"/>
@@ -14188,7 +14188,7 @@
       <c r="X457" s="1"/>
       <c r="Y457" s="1"/>
     </row>
-    <row r="458" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A458" s="12"/>
       <c r="B458" s="12"/>
       <c r="C458" s="12"/>
@@ -14215,7 +14215,7 @@
       <c r="X458" s="1"/>
       <c r="Y458" s="1"/>
     </row>
-    <row r="459" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A459" s="12"/>
       <c r="B459" s="12"/>
       <c r="C459" s="12"/>
@@ -14242,7 +14242,7 @@
       <c r="X459" s="1"/>
       <c r="Y459" s="1"/>
     </row>
-    <row r="460" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A460" s="12"/>
       <c r="B460" s="12"/>
       <c r="C460" s="12"/>
@@ -14269,7 +14269,7 @@
       <c r="X460" s="1"/>
       <c r="Y460" s="1"/>
     </row>
-    <row r="461" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A461" s="12"/>
       <c r="B461" s="12"/>
       <c r="C461" s="12"/>
@@ -14296,7 +14296,7 @@
       <c r="X461" s="1"/>
       <c r="Y461" s="1"/>
     </row>
-    <row r="462" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A462" s="12"/>
       <c r="B462" s="12"/>
       <c r="C462" s="12"/>
@@ -14323,7 +14323,7 @@
       <c r="X462" s="1"/>
       <c r="Y462" s="1"/>
     </row>
-    <row r="463" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A463" s="12"/>
       <c r="B463" s="12"/>
       <c r="C463" s="12"/>
@@ -14350,7 +14350,7 @@
       <c r="X463" s="1"/>
       <c r="Y463" s="1"/>
     </row>
-    <row r="464" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A464" s="12"/>
       <c r="B464" s="12"/>
       <c r="C464" s="12"/>
@@ -14377,7 +14377,7 @@
       <c r="X464" s="1"/>
       <c r="Y464" s="1"/>
     </row>
-    <row r="465" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A465" s="12"/>
       <c r="B465" s="12"/>
       <c r="C465" s="12"/>
@@ -14404,7 +14404,7 @@
       <c r="X465" s="1"/>
       <c r="Y465" s="1"/>
     </row>
-    <row r="466" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A466" s="12"/>
       <c r="B466" s="12"/>
       <c r="C466" s="12"/>
@@ -14431,7 +14431,7 @@
       <c r="X466" s="1"/>
       <c r="Y466" s="1"/>
     </row>
-    <row r="467" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A467" s="12"/>
       <c r="B467" s="12"/>
       <c r="C467" s="12"/>
@@ -14458,7 +14458,7 @@
       <c r="X467" s="1"/>
       <c r="Y467" s="1"/>
     </row>
-    <row r="468" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A468" s="12"/>
       <c r="B468" s="12"/>
       <c r="C468" s="12"/>
@@ -14485,7 +14485,7 @@
       <c r="X468" s="1"/>
       <c r="Y468" s="1"/>
     </row>
-    <row r="469" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A469" s="12"/>
       <c r="B469" s="12"/>
       <c r="C469" s="12"/>
@@ -14512,7 +14512,7 @@
       <c r="X469" s="1"/>
       <c r="Y469" s="1"/>
     </row>
-    <row r="470" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A470" s="12"/>
       <c r="B470" s="12"/>
       <c r="C470" s="12"/>
@@ -14539,7 +14539,7 @@
       <c r="X470" s="1"/>
       <c r="Y470" s="1"/>
     </row>
-    <row r="471" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A471" s="12"/>
       <c r="B471" s="12"/>
       <c r="C471" s="12"/>
@@ -14566,7 +14566,7 @@
       <c r="X471" s="1"/>
       <c r="Y471" s="1"/>
     </row>
-    <row r="472" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A472" s="12"/>
       <c r="B472" s="12"/>
       <c r="C472" s="12"/>
@@ -14593,7 +14593,7 @@
       <c r="X472" s="1"/>
       <c r="Y472" s="1"/>
     </row>
-    <row r="473" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A473" s="12"/>
       <c r="B473" s="12"/>
       <c r="C473" s="12"/>
@@ -14620,7 +14620,7 @@
       <c r="X473" s="1"/>
       <c r="Y473" s="1"/>
     </row>
-    <row r="474" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A474" s="12"/>
       <c r="B474" s="12"/>
       <c r="C474" s="12"/>
@@ -14647,7 +14647,7 @@
       <c r="X474" s="1"/>
       <c r="Y474" s="1"/>
     </row>
-    <row r="475" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A475" s="12"/>
       <c r="B475" s="12"/>
       <c r="C475" s="12"/>
@@ -14674,7 +14674,7 @@
       <c r="X475" s="1"/>
       <c r="Y475" s="1"/>
     </row>
-    <row r="476" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A476" s="12"/>
       <c r="B476" s="12"/>
       <c r="C476" s="12"/>
@@ -14701,7 +14701,7 @@
       <c r="X476" s="1"/>
       <c r="Y476" s="1"/>
     </row>
-    <row r="477" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A477" s="12"/>
       <c r="B477" s="12"/>
       <c r="C477" s="12"/>
@@ -14728,7 +14728,7 @@
       <c r="X477" s="1"/>
       <c r="Y477" s="1"/>
     </row>
-    <row r="478" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A478" s="12"/>
       <c r="B478" s="12"/>
       <c r="C478" s="12"/>
@@ -14755,7 +14755,7 @@
       <c r="X478" s="1"/>
       <c r="Y478" s="1"/>
     </row>
-    <row r="479" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A479" s="12"/>
       <c r="B479" s="12"/>
       <c r="C479" s="12"/>
@@ -14782,7 +14782,7 @@
       <c r="X479" s="1"/>
       <c r="Y479" s="1"/>
     </row>
-    <row r="480" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A480" s="12"/>
       <c r="B480" s="12"/>
       <c r="C480" s="12"/>
@@ -14809,7 +14809,7 @@
       <c r="X480" s="1"/>
       <c r="Y480" s="1"/>
     </row>
-    <row r="481" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A481" s="12"/>
       <c r="B481" s="12"/>
       <c r="C481" s="12"/>
@@ -14836,7 +14836,7 @@
       <c r="X481" s="1"/>
       <c r="Y481" s="1"/>
     </row>
-    <row r="482" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A482" s="12"/>
       <c r="B482" s="12"/>
       <c r="C482" s="12"/>
@@ -14863,7 +14863,7 @@
       <c r="X482" s="1"/>
       <c r="Y482" s="1"/>
     </row>
-    <row r="483" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A483" s="12"/>
       <c r="B483" s="12"/>
       <c r="C483" s="12"/>
@@ -14890,7 +14890,7 @@
       <c r="X483" s="1"/>
       <c r="Y483" s="1"/>
     </row>
-    <row r="484" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A484" s="12"/>
       <c r="B484" s="12"/>
       <c r="C484" s="12"/>
@@ -14917,7 +14917,7 @@
       <c r="X484" s="1"/>
       <c r="Y484" s="1"/>
     </row>
-    <row r="485" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A485" s="12"/>
       <c r="B485" s="12"/>
       <c r="C485" s="12"/>
@@ -14944,7 +14944,7 @@
       <c r="X485" s="1"/>
       <c r="Y485" s="1"/>
     </row>
-    <row r="486" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A486" s="12"/>
       <c r="B486" s="12"/>
       <c r="C486" s="12"/>
@@ -14971,7 +14971,7 @@
       <c r="X486" s="1"/>
       <c r="Y486" s="1"/>
     </row>
-    <row r="487" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A487" s="12"/>
       <c r="B487" s="12"/>
       <c r="C487" s="12"/>
@@ -14998,7 +14998,7 @@
       <c r="X487" s="1"/>
       <c r="Y487" s="1"/>
     </row>
-    <row r="488" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A488" s="12"/>
       <c r="B488" s="12"/>
       <c r="C488" s="12"/>
@@ -15025,7 +15025,7 @@
       <c r="X488" s="1"/>
       <c r="Y488" s="1"/>
     </row>
-    <row r="489" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A489" s="12"/>
       <c r="B489" s="12"/>
       <c r="C489" s="12"/>
@@ -15052,7 +15052,7 @@
       <c r="X489" s="1"/>
       <c r="Y489" s="1"/>
     </row>
-    <row r="490" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A490" s="12"/>
       <c r="B490" s="12"/>
       <c r="C490" s="12"/>
@@ -15079,7 +15079,7 @@
       <c r="X490" s="1"/>
       <c r="Y490" s="1"/>
     </row>
-    <row r="491" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A491" s="12"/>
       <c r="B491" s="12"/>
       <c r="C491" s="12"/>
@@ -15106,7 +15106,7 @@
       <c r="X491" s="1"/>
       <c r="Y491" s="1"/>
     </row>
-    <row r="492" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A492" s="12"/>
       <c r="B492" s="12"/>
       <c r="C492" s="12"/>
@@ -15133,7 +15133,7 @@
       <c r="X492" s="1"/>
       <c r="Y492" s="1"/>
     </row>
-    <row r="493" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A493" s="12"/>
       <c r="B493" s="12"/>
       <c r="C493" s="12"/>
@@ -15160,7 +15160,7 @@
       <c r="X493" s="1"/>
       <c r="Y493" s="1"/>
     </row>
-    <row r="494" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A494" s="12"/>
       <c r="B494" s="12"/>
       <c r="C494" s="12"/>
@@ -15187,7 +15187,7 @@
       <c r="X494" s="1"/>
       <c r="Y494" s="1"/>
     </row>
-    <row r="495" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A495" s="12"/>
       <c r="B495" s="12"/>
       <c r="C495" s="12"/>
@@ -15214,7 +15214,7 @@
       <c r="X495" s="1"/>
       <c r="Y495" s="1"/>
     </row>
-    <row r="496" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A496" s="12"/>
       <c r="B496" s="12"/>
       <c r="C496" s="12"/>
@@ -15241,7 +15241,7 @@
       <c r="X496" s="1"/>
       <c r="Y496" s="1"/>
     </row>
-    <row r="497" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A497" s="12"/>
       <c r="B497" s="12"/>
       <c r="C497" s="12"/>
@@ -15268,7 +15268,7 @@
       <c r="X497" s="1"/>
       <c r="Y497" s="1"/>
     </row>
-    <row r="498" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A498" s="12"/>
       <c r="B498" s="12"/>
       <c r="C498" s="12"/>
@@ -15295,7 +15295,7 @@
       <c r="X498" s="1"/>
       <c r="Y498" s="1"/>
     </row>
-    <row r="499" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A499" s="12"/>
       <c r="B499" s="12"/>
       <c r="C499" s="12"/>
@@ -15322,7 +15322,7 @@
       <c r="X499" s="1"/>
       <c r="Y499" s="1"/>
     </row>
-    <row r="500" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A500" s="12"/>
       <c r="B500" s="12"/>
       <c r="C500" s="12"/>
@@ -15349,7 +15349,7 @@
       <c r="X500" s="1"/>
       <c r="Y500" s="1"/>
     </row>
-    <row r="501" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A501" s="12"/>
       <c r="B501" s="12"/>
       <c r="C501" s="12"/>
@@ -15376,7 +15376,7 @@
       <c r="X501" s="1"/>
       <c r="Y501" s="1"/>
     </row>
-    <row r="502" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A502" s="12"/>
       <c r="B502" s="12"/>
       <c r="C502" s="12"/>
@@ -15403,7 +15403,7 @@
       <c r="X502" s="1"/>
       <c r="Y502" s="1"/>
     </row>
-    <row r="503" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A503" s="12"/>
       <c r="B503" s="12"/>
       <c r="C503" s="12"/>
@@ -15430,7 +15430,7 @@
       <c r="X503" s="1"/>
       <c r="Y503" s="1"/>
     </row>
-    <row r="504" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A504" s="12"/>
       <c r="B504" s="12"/>
       <c r="C504" s="12"/>
@@ -15457,7 +15457,7 @@
       <c r="X504" s="1"/>
       <c r="Y504" s="1"/>
     </row>
-    <row r="505" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A505" s="12"/>
       <c r="B505" s="12"/>
       <c r="C505" s="12"/>
@@ -15484,7 +15484,7 @@
       <c r="X505" s="1"/>
       <c r="Y505" s="1"/>
     </row>
-    <row r="506" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A506" s="12"/>
       <c r="B506" s="12"/>
       <c r="C506" s="12"/>
@@ -15511,7 +15511,7 @@
       <c r="X506" s="1"/>
       <c r="Y506" s="1"/>
     </row>
-    <row r="507" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A507" s="12"/>
       <c r="B507" s="12"/>
       <c r="C507" s="12"/>
@@ -15538,7 +15538,7 @@
       <c r="X507" s="1"/>
       <c r="Y507" s="1"/>
     </row>
-    <row r="508" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A508" s="12"/>
       <c r="B508" s="12"/>
       <c r="C508" s="12"/>
@@ -15565,7 +15565,7 @@
       <c r="X508" s="1"/>
       <c r="Y508" s="1"/>
     </row>
-    <row r="509" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A509" s="12"/>
       <c r="B509" s="12"/>
       <c r="C509" s="12"/>
@@ -15592,7 +15592,7 @@
       <c r="X509" s="1"/>
       <c r="Y509" s="1"/>
     </row>
-    <row r="510" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A510" s="12"/>
       <c r="B510" s="12"/>
       <c r="C510" s="12"/>
@@ -15619,7 +15619,7 @@
       <c r="X510" s="1"/>
       <c r="Y510" s="1"/>
     </row>
-    <row r="511" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A511" s="12"/>
       <c r="B511" s="12"/>
       <c r="C511" s="12"/>
@@ -15646,7 +15646,7 @@
       <c r="X511" s="1"/>
       <c r="Y511" s="1"/>
     </row>
-    <row r="512" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A512" s="12"/>
       <c r="B512" s="12"/>
       <c r="C512" s="12"/>
@@ -15673,7 +15673,7 @@
       <c r="X512" s="1"/>
       <c r="Y512" s="1"/>
     </row>
-    <row r="513" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A513" s="12"/>
       <c r="B513" s="12"/>
       <c r="C513" s="12"/>
@@ -15700,7 +15700,7 @@
       <c r="X513" s="1"/>
       <c r="Y513" s="1"/>
     </row>
-    <row r="514" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A514" s="12"/>
       <c r="B514" s="12"/>
       <c r="C514" s="12"/>
@@ -15727,7 +15727,7 @@
       <c r="X514" s="1"/>
       <c r="Y514" s="1"/>
     </row>
-    <row r="515" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A515" s="12"/>
       <c r="B515" s="12"/>
       <c r="C515" s="12"/>
@@ -15754,7 +15754,7 @@
       <c r="X515" s="1"/>
       <c r="Y515" s="1"/>
     </row>
-    <row r="516" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A516" s="12"/>
       <c r="B516" s="12"/>
       <c r="C516" s="12"/>
@@ -15781,7 +15781,7 @@
       <c r="X516" s="1"/>
       <c r="Y516" s="1"/>
     </row>
-    <row r="517" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A517" s="12"/>
       <c r="B517" s="12"/>
       <c r="C517" s="12"/>
@@ -15808,7 +15808,7 @@
       <c r="X517" s="1"/>
       <c r="Y517" s="1"/>
     </row>
-    <row r="518" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A518" s="12"/>
       <c r="B518" s="12"/>
       <c r="C518" s="12"/>
@@ -15835,7 +15835,7 @@
       <c r="X518" s="1"/>
       <c r="Y518" s="1"/>
     </row>
-    <row r="519" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A519" s="12"/>
       <c r="B519" s="12"/>
       <c r="C519" s="12"/>
@@ -15862,7 +15862,7 @@
       <c r="X519" s="1"/>
       <c r="Y519" s="1"/>
     </row>
-    <row r="520" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A520" s="12"/>
       <c r="B520" s="12"/>
       <c r="C520" s="12"/>
@@ -15889,7 +15889,7 @@
       <c r="X520" s="1"/>
       <c r="Y520" s="1"/>
     </row>
-    <row r="521" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A521" s="12"/>
       <c r="B521" s="12"/>
       <c r="C521" s="12"/>
@@ -15916,7 +15916,7 @@
       <c r="X521" s="1"/>
       <c r="Y521" s="1"/>
     </row>
-    <row r="522" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A522" s="12"/>
       <c r="B522" s="12"/>
       <c r="C522" s="12"/>
@@ -15943,7 +15943,7 @@
       <c r="X522" s="1"/>
       <c r="Y522" s="1"/>
     </row>
-    <row r="523" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A523" s="12"/>
       <c r="B523" s="12"/>
       <c r="C523" s="12"/>
@@ -15970,7 +15970,7 @@
       <c r="X523" s="1"/>
       <c r="Y523" s="1"/>
     </row>
-    <row r="524" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A524" s="12"/>
       <c r="B524" s="12"/>
       <c r="C524" s="12"/>
@@ -15997,7 +15997,7 @@
       <c r="X524" s="1"/>
       <c r="Y524" s="1"/>
     </row>
-    <row r="525" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A525" s="12"/>
       <c r="B525" s="12"/>
       <c r="C525" s="12"/>
@@ -16024,7 +16024,7 @@
       <c r="X525" s="1"/>
       <c r="Y525" s="1"/>
     </row>
-    <row r="526" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A526" s="12"/>
       <c r="B526" s="12"/>
       <c r="C526" s="12"/>
@@ -16051,7 +16051,7 @@
       <c r="X526" s="1"/>
       <c r="Y526" s="1"/>
     </row>
-    <row r="527" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A527" s="12"/>
       <c r="B527" s="12"/>
       <c r="C527" s="12"/>
@@ -16078,7 +16078,7 @@
       <c r="X527" s="1"/>
       <c r="Y527" s="1"/>
     </row>
-    <row r="528" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A528" s="12"/>
       <c r="B528" s="12"/>
       <c r="C528" s="12"/>
@@ -16105,7 +16105,7 @@
       <c r="X528" s="1"/>
       <c r="Y528" s="1"/>
     </row>
-    <row r="529" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A529" s="12"/>
       <c r="B529" s="12"/>
       <c r="C529" s="12"/>
@@ -16132,7 +16132,7 @@
       <c r="X529" s="1"/>
       <c r="Y529" s="1"/>
     </row>
-    <row r="530" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A530" s="12"/>
       <c r="B530" s="12"/>
       <c r="C530" s="12"/>
@@ -16159,7 +16159,7 @@
       <c r="X530" s="1"/>
       <c r="Y530" s="1"/>
     </row>
-    <row r="531" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A531" s="12"/>
       <c r="B531" s="12"/>
       <c r="C531" s="12"/>
@@ -16186,7 +16186,7 @@
       <c r="X531" s="1"/>
       <c r="Y531" s="1"/>
     </row>
-    <row r="532" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A532" s="12"/>
       <c r="B532" s="12"/>
       <c r="C532" s="12"/>
@@ -16213,7 +16213,7 @@
       <c r="X532" s="1"/>
       <c r="Y532" s="1"/>
     </row>
-    <row r="533" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A533" s="12"/>
       <c r="B533" s="12"/>
       <c r="C533" s="12"/>
@@ -16240,7 +16240,7 @@
       <c r="X533" s="1"/>
       <c r="Y533" s="1"/>
     </row>
-    <row r="534" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A534" s="12"/>
       <c r="B534" s="12"/>
       <c r="C534" s="12"/>
@@ -16267,7 +16267,7 @@
       <c r="X534" s="1"/>
       <c r="Y534" s="1"/>
     </row>
-    <row r="535" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A535" s="12"/>
       <c r="B535" s="12"/>
       <c r="C535" s="12"/>
@@ -16294,7 +16294,7 @@
       <c r="X535" s="1"/>
       <c r="Y535" s="1"/>
     </row>
-    <row r="536" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A536" s="12"/>
       <c r="B536" s="12"/>
       <c r="C536" s="12"/>
@@ -16321,7 +16321,7 @@
       <c r="X536" s="1"/>
       <c r="Y536" s="1"/>
     </row>
-    <row r="537" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A537" s="12"/>
       <c r="B537" s="12"/>
       <c r="C537" s="12"/>
@@ -16348,7 +16348,7 @@
       <c r="X537" s="1"/>
       <c r="Y537" s="1"/>
     </row>
-    <row r="538" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A538" s="12"/>
       <c r="B538" s="12"/>
       <c r="C538" s="12"/>
@@ -16375,7 +16375,7 @@
       <c r="X538" s="1"/>
       <c r="Y538" s="1"/>
     </row>
-    <row r="539" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A539" s="12"/>
       <c r="B539" s="12"/>
       <c r="C539" s="12"/>
@@ -16402,7 +16402,7 @@
       <c r="X539" s="1"/>
       <c r="Y539" s="1"/>
     </row>
-    <row r="540" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A540" s="12"/>
       <c r="B540" s="12"/>
       <c r="C540" s="12"/>
@@ -16429,7 +16429,7 @@
       <c r="X540" s="1"/>
       <c r="Y540" s="1"/>
     </row>
-    <row r="541" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A541" s="12"/>
       <c r="B541" s="12"/>
       <c r="C541" s="12"/>
@@ -16456,7 +16456,7 @@
       <c r="X541" s="1"/>
       <c r="Y541" s="1"/>
     </row>
-    <row r="542" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A542" s="12"/>
       <c r="B542" s="12"/>
       <c r="C542" s="12"/>
@@ -16483,7 +16483,7 @@
       <c r="X542" s="1"/>
       <c r="Y542" s="1"/>
     </row>
-    <row r="543" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A543" s="12"/>
       <c r="B543" s="12"/>
       <c r="C543" s="12"/>
@@ -16510,7 +16510,7 @@
       <c r="X543" s="1"/>
       <c r="Y543" s="1"/>
     </row>
-    <row r="544" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A544" s="12"/>
       <c r="B544" s="12"/>
       <c r="C544" s="12"/>
@@ -16537,7 +16537,7 @@
       <c r="X544" s="1"/>
       <c r="Y544" s="1"/>
     </row>
-    <row r="545" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A545" s="12"/>
       <c r="B545" s="12"/>
       <c r="C545" s="12"/>
@@ -16564,7 +16564,7 @@
       <c r="X545" s="1"/>
       <c r="Y545" s="1"/>
     </row>
-    <row r="546" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A546" s="12"/>
       <c r="B546" s="12"/>
       <c r="C546" s="12"/>
@@ -16591,7 +16591,7 @@
       <c r="X546" s="1"/>
       <c r="Y546" s="1"/>
     </row>
-    <row r="547" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A547" s="12"/>
       <c r="B547" s="12"/>
       <c r="C547" s="12"/>
@@ -16618,7 +16618,7 @@
       <c r="X547" s="1"/>
       <c r="Y547" s="1"/>
     </row>
-    <row r="548" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A548" s="12"/>
       <c r="B548" s="12"/>
       <c r="C548" s="12"/>
@@ -16645,7 +16645,7 @@
       <c r="X548" s="1"/>
       <c r="Y548" s="1"/>
     </row>
-    <row r="549" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A549" s="12"/>
       <c r="B549" s="12"/>
       <c r="C549" s="12"/>
@@ -16672,7 +16672,7 @@
       <c r="X549" s="1"/>
       <c r="Y549" s="1"/>
     </row>
-    <row r="550" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A550" s="12"/>
       <c r="B550" s="12"/>
       <c r="C550" s="12"/>
@@ -16699,7 +16699,7 @@
       <c r="X550" s="1"/>
       <c r="Y550" s="1"/>
     </row>
-    <row r="551" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A551" s="12"/>
       <c r="B551" s="12"/>
       <c r="C551" s="12"/>
@@ -16726,7 +16726,7 @@
       <c r="X551" s="1"/>
       <c r="Y551" s="1"/>
     </row>
-    <row r="552" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A552" s="12"/>
       <c r="B552" s="12"/>
       <c r="C552" s="12"/>
@@ -16753,7 +16753,7 @@
       <c r="X552" s="1"/>
       <c r="Y552" s="1"/>
     </row>
-    <row r="553" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A553" s="12"/>
       <c r="B553" s="12"/>
       <c r="C553" s="12"/>
@@ -16780,7 +16780,7 @@
       <c r="X553" s="1"/>
       <c r="Y553" s="1"/>
     </row>
-    <row r="554" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A554" s="12"/>
       <c r="B554" s="12"/>
       <c r="C554" s="12"/>
@@ -16807,7 +16807,7 @@
       <c r="X554" s="1"/>
       <c r="Y554" s="1"/>
     </row>
-    <row r="555" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A555" s="12"/>
       <c r="B555" s="12"/>
       <c r="C555" s="12"/>
@@ -16834,7 +16834,7 @@
       <c r="X555" s="1"/>
       <c r="Y555" s="1"/>
     </row>
-    <row r="556" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A556" s="12"/>
       <c r="B556" s="12"/>
       <c r="C556" s="12"/>
@@ -16861,7 +16861,7 @@
       <c r="X556" s="1"/>
       <c r="Y556" s="1"/>
     </row>
-    <row r="557" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A557" s="12"/>
       <c r="B557" s="12"/>
       <c r="C557" s="12"/>
@@ -16888,7 +16888,7 @@
       <c r="X557" s="1"/>
       <c r="Y557" s="1"/>
     </row>
-    <row r="558" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A558" s="12"/>
       <c r="B558" s="12"/>
       <c r="C558" s="12"/>
@@ -16915,7 +16915,7 @@
       <c r="X558" s="1"/>
       <c r="Y558" s="1"/>
     </row>
-    <row r="559" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A559" s="12"/>
       <c r="B559" s="12"/>
       <c r="C559" s="12"/>
@@ -16942,7 +16942,7 @@
       <c r="X559" s="1"/>
       <c r="Y559" s="1"/>
     </row>
-    <row r="560" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A560" s="12"/>
       <c r="B560" s="12"/>
       <c r="C560" s="12"/>
@@ -16969,7 +16969,7 @@
       <c r="X560" s="1"/>
       <c r="Y560" s="1"/>
     </row>
-    <row r="561" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A561" s="12"/>
       <c r="B561" s="12"/>
       <c r="C561" s="12"/>
@@ -16996,7 +16996,7 @@
       <c r="X561" s="1"/>
       <c r="Y561" s="1"/>
     </row>
-    <row r="562" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A562" s="12"/>
       <c r="B562" s="12"/>
       <c r="C562" s="12"/>
@@ -17023,7 +17023,7 @@
       <c r="X562" s="1"/>
       <c r="Y562" s="1"/>
     </row>
-    <row r="563" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A563" s="12"/>
       <c r="B563" s="12"/>
       <c r="C563" s="12"/>
@@ -17050,7 +17050,7 @@
       <c r="X563" s="1"/>
       <c r="Y563" s="1"/>
     </row>
-    <row r="564" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A564" s="12"/>
       <c r="B564" s="12"/>
       <c r="C564" s="12"/>
@@ -17077,7 +17077,7 @@
       <c r="X564" s="1"/>
       <c r="Y564" s="1"/>
     </row>
-    <row r="565" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A565" s="12"/>
       <c r="B565" s="12"/>
       <c r="C565" s="12"/>
@@ -17104,7 +17104,7 @@
       <c r="X565" s="1"/>
       <c r="Y565" s="1"/>
     </row>
-    <row r="566" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A566" s="12"/>
       <c r="B566" s="12"/>
       <c r="C566" s="12"/>
@@ -17131,7 +17131,7 @@
       <c r="X566" s="1"/>
       <c r="Y566" s="1"/>
     </row>
-    <row r="567" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A567" s="12"/>
       <c r="B567" s="12"/>
       <c r="C567" s="12"/>
@@ -17158,7 +17158,7 @@
       <c r="X567" s="1"/>
       <c r="Y567" s="1"/>
     </row>
-    <row r="568" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A568" s="12"/>
       <c r="B568" s="12"/>
       <c r="C568" s="12"/>
@@ -17185,7 +17185,7 @@
       <c r="X568" s="1"/>
       <c r="Y568" s="1"/>
     </row>
-    <row r="569" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A569" s="12"/>
       <c r="B569" s="12"/>
       <c r="C569" s="12"/>
@@ -17212,7 +17212,7 @@
       <c r="X569" s="1"/>
       <c r="Y569" s="1"/>
     </row>
-    <row r="570" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A570" s="12"/>
       <c r="B570" s="12"/>
       <c r="C570" s="12"/>
@@ -17239,7 +17239,7 @@
       <c r="X570" s="1"/>
       <c r="Y570" s="1"/>
     </row>
-    <row r="571" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A571" s="12"/>
       <c r="B571" s="12"/>
       <c r="C571" s="12"/>
@@ -17266,7 +17266,7 @@
       <c r="X571" s="1"/>
       <c r="Y571" s="1"/>
     </row>
-    <row r="572" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A572" s="12"/>
       <c r="B572" s="12"/>
       <c r="C572" s="12"/>
@@ -17293,7 +17293,7 @@
       <c r="X572" s="1"/>
       <c r="Y572" s="1"/>
     </row>
-    <row r="573" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A573" s="12"/>
       <c r="B573" s="12"/>
       <c r="C573" s="12"/>
@@ -17320,7 +17320,7 @@
       <c r="X573" s="1"/>
       <c r="Y573" s="1"/>
     </row>
-    <row r="574" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A574" s="12"/>
       <c r="B574" s="12"/>
       <c r="C574" s="12"/>
@@ -17347,7 +17347,7 @@
       <c r="X574" s="1"/>
       <c r="Y574" s="1"/>
     </row>
-    <row r="575" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A575" s="12"/>
       <c r="B575" s="12"/>
       <c r="C575" s="12"/>
@@ -17374,7 +17374,7 @@
       <c r="X575" s="1"/>
       <c r="Y575" s="1"/>
     </row>
-    <row r="576" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A576" s="12"/>
       <c r="B576" s="12"/>
       <c r="C576" s="12"/>
@@ -17401,7 +17401,7 @@
       <c r="X576" s="1"/>
       <c r="Y576" s="1"/>
     </row>
-    <row r="577" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A577" s="12"/>
       <c r="B577" s="12"/>
       <c r="C577" s="12"/>
@@ -17428,7 +17428,7 @@
       <c r="X577" s="1"/>
       <c r="Y577" s="1"/>
     </row>
-    <row r="578" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A578" s="12"/>
       <c r="B578" s="12"/>
       <c r="C578" s="12"/>
@@ -17455,7 +17455,7 @@
       <c r="X578" s="1"/>
       <c r="Y578" s="1"/>
     </row>
-    <row r="579" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A579" s="12"/>
       <c r="B579" s="12"/>
       <c r="C579" s="12"/>
@@ -17482,7 +17482,7 @@
       <c r="X579" s="1"/>
       <c r="Y579" s="1"/>
     </row>
-    <row r="580" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A580" s="12"/>
       <c r="B580" s="12"/>
       <c r="C580" s="12"/>
@@ -17509,7 +17509,7 @@
       <c r="X580" s="1"/>
       <c r="Y580" s="1"/>
     </row>
-    <row r="581" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A581" s="12"/>
       <c r="B581" s="12"/>
       <c r="C581" s="12"/>
@@ -17536,7 +17536,7 @@
       <c r="X581" s="1"/>
       <c r="Y581" s="1"/>
     </row>
-    <row r="582" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A582" s="12"/>
       <c r="B582" s="12"/>
       <c r="C582" s="12"/>
@@ -17563,7 +17563,7 @@
       <c r="X582" s="1"/>
       <c r="Y582" s="1"/>
     </row>
-    <row r="583" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A583" s="12"/>
       <c r="B583" s="12"/>
       <c r="C583" s="12"/>
@@ -17590,7 +17590,7 @@
       <c r="X583" s="1"/>
       <c r="Y583" s="1"/>
     </row>
-    <row r="584" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A584" s="12"/>
       <c r="B584" s="12"/>
       <c r="C584" s="12"/>
@@ -17617,7 +17617,7 @@
       <c r="X584" s="1"/>
       <c r="Y584" s="1"/>
     </row>
-    <row r="585" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A585" s="12"/>
       <c r="B585" s="12"/>
       <c r="C585" s="12"/>
@@ -17644,7 +17644,7 @@
       <c r="X585" s="1"/>
       <c r="Y585" s="1"/>
     </row>
-    <row r="586" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A586" s="12"/>
       <c r="B586" s="12"/>
       <c r="C586" s="12"/>
@@ -17671,7 +17671,7 @@
       <c r="X586" s="1"/>
       <c r="Y586" s="1"/>
     </row>
-    <row r="587" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A587" s="12"/>
       <c r="B587" s="12"/>
       <c r="C587" s="12"/>
@@ -17698,7 +17698,7 @@
       <c r="X587" s="1"/>
       <c r="Y587" s="1"/>
     </row>
-    <row r="588" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A588" s="12"/>
       <c r="B588" s="12"/>
       <c r="C588" s="12"/>
@@ -17725,7 +17725,7 @@
       <c r="X588" s="1"/>
       <c r="Y588" s="1"/>
     </row>
-    <row r="589" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A589" s="12"/>
       <c r="B589" s="12"/>
       <c r="C589" s="12"/>
@@ -17752,7 +17752,7 @@
       <c r="X589" s="1"/>
       <c r="Y589" s="1"/>
     </row>
-    <row r="590" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A590" s="12"/>
       <c r="B590" s="12"/>
       <c r="C590" s="12"/>
@@ -17779,7 +17779,7 @@
       <c r="X590" s="1"/>
       <c r="Y590" s="1"/>
     </row>
-    <row r="591" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A591" s="12"/>
       <c r="B591" s="12"/>
       <c r="C591" s="12"/>
@@ -17806,7 +17806,7 @@
       <c r="X591" s="1"/>
       <c r="Y591" s="1"/>
     </row>
-    <row r="592" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A592" s="12"/>
       <c r="B592" s="12"/>
       <c r="C592" s="12"/>
@@ -17833,7 +17833,7 @@
       <c r="X592" s="1"/>
       <c r="Y592" s="1"/>
     </row>
-    <row r="593" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A593" s="12"/>
       <c r="B593" s="12"/>
       <c r="C593" s="12"/>
@@ -17860,7 +17860,7 @@
       <c r="X593" s="1"/>
       <c r="Y593" s="1"/>
     </row>
-    <row r="594" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A594" s="12"/>
       <c r="B594" s="12"/>
       <c r="C594" s="12"/>
@@ -17887,7 +17887,7 @@
       <c r="X594" s="1"/>
       <c r="Y594" s="1"/>
     </row>
-    <row r="595" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A595" s="12"/>
       <c r="B595" s="12"/>
       <c r="C595" s="12"/>
@@ -17914,7 +17914,7 @@
       <c r="X595" s="1"/>
       <c r="Y595" s="1"/>
     </row>
-    <row r="596" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A596" s="12"/>
       <c r="B596" s="12"/>
       <c r="C596" s="12"/>
@@ -17941,7 +17941,7 @@
       <c r="X596" s="1"/>
       <c r="Y596" s="1"/>
     </row>
-    <row r="597" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A597" s="12"/>
       <c r="B597" s="12"/>
       <c r="C597" s="12"/>
@@ -17968,7 +17968,7 @@
       <c r="X597" s="1"/>
       <c r="Y597" s="1"/>
     </row>
-    <row r="598" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A598" s="12"/>
       <c r="B598" s="12"/>
       <c r="C598" s="12"/>
@@ -17995,7 +17995,7 @@
       <c r="X598" s="1"/>
       <c r="Y598" s="1"/>
     </row>
-    <row r="599" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A599" s="12"/>
       <c r="B599" s="12"/>
       <c r="C599" s="12"/>
@@ -18022,7 +18022,7 @@
       <c r="X599" s="1"/>
       <c r="Y599" s="1"/>
     </row>
-    <row r="600" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A600" s="12"/>
       <c r="B600" s="12"/>
       <c r="C600" s="12"/>
@@ -18049,7 +18049,7 @@
       <c r="X600" s="1"/>
       <c r="Y600" s="1"/>
     </row>
-    <row r="601" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A601" s="12"/>
       <c r="B601" s="12"/>
       <c r="C601" s="12"/>
@@ -18076,7 +18076,7 @@
       <c r="X601" s="1"/>
       <c r="Y601" s="1"/>
     </row>
-    <row r="602" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A602" s="12"/>
       <c r="B602" s="12"/>
       <c r="C602" s="12"/>
@@ -18103,7 +18103,7 @@
       <c r="X602" s="1"/>
       <c r="Y602" s="1"/>
     </row>
-    <row r="603" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A603" s="12"/>
       <c r="B603" s="12"/>
       <c r="C603" s="12"/>
@@ -18130,7 +18130,7 @@
       <c r="X603" s="1"/>
       <c r="Y603" s="1"/>
     </row>
-    <row r="604" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A604" s="12"/>
       <c r="B604" s="12"/>
       <c r="C604" s="12"/>
@@ -18157,7 +18157,7 @@
       <c r="X604" s="1"/>
       <c r="Y604" s="1"/>
     </row>
-    <row r="605" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A605" s="12"/>
       <c r="B605" s="12"/>
       <c r="C605" s="12"/>
@@ -18184,7 +18184,7 @@
       <c r="X605" s="1"/>
       <c r="Y605" s="1"/>
     </row>
-    <row r="606" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A606" s="12"/>
       <c r="B606" s="12"/>
       <c r="C606" s="12"/>
@@ -18211,7 +18211,7 @@
       <c r="X606" s="1"/>
       <c r="Y606" s="1"/>
     </row>
-    <row r="607" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A607" s="12"/>
       <c r="B607" s="12"/>
       <c r="C607" s="12"/>
@@ -18238,7 +18238,7 @@
       <c r="X607" s="1"/>
       <c r="Y607" s="1"/>
     </row>
-    <row r="608" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A608" s="12"/>
       <c r="B608" s="12"/>
       <c r="C608" s="12"/>
@@ -18265,7 +18265,7 @@
       <c r="X608" s="1"/>
       <c r="Y608" s="1"/>
     </row>
-    <row r="609" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A609" s="12"/>
       <c r="B609" s="12"/>
       <c r="C609" s="12"/>
@@ -18292,7 +18292,7 @@
       <c r="X609" s="1"/>
       <c r="Y609" s="1"/>
     </row>
-    <row r="610" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A610" s="12"/>
       <c r="B610" s="12"/>
       <c r="C610" s="12"/>
@@ -18319,7 +18319,7 @@
       <c r="X610" s="1"/>
       <c r="Y610" s="1"/>
     </row>
-    <row r="611" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A611" s="12"/>
       <c r="B611" s="12"/>
       <c r="C611" s="12"/>
@@ -18346,7 +18346,7 @@
       <c r="X611" s="1"/>
       <c r="Y611" s="1"/>
     </row>
-    <row r="612" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A612" s="12"/>
       <c r="B612" s="12"/>
       <c r="C612" s="12"/>
@@ -18373,7 +18373,7 @@
       <c r="X612" s="1"/>
       <c r="Y612" s="1"/>
     </row>
-    <row r="613" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A613" s="12"/>
       <c r="B613" s="12"/>
       <c r="C613" s="12"/>
@@ -18400,7 +18400,7 @@
       <c r="X613" s="1"/>
       <c r="Y613" s="1"/>
     </row>
-    <row r="614" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A614" s="12"/>
       <c r="B614" s="12"/>
       <c r="C614" s="12"/>
@@ -18427,7 +18427,7 @@
       <c r="X614" s="1"/>
       <c r="Y614" s="1"/>
     </row>
-    <row r="615" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A615" s="12"/>
       <c r="B615" s="12"/>
       <c r="C615" s="12"/>
@@ -18454,7 +18454,7 @@
       <c r="X615" s="1"/>
       <c r="Y615" s="1"/>
     </row>
-    <row r="616" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A616" s="12"/>
       <c r="B616" s="12"/>
       <c r="C616" s="12"/>
@@ -18481,7 +18481,7 @@
       <c r="X616" s="1"/>
       <c r="Y616" s="1"/>
     </row>
-    <row r="617" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A617" s="12"/>
       <c r="B617" s="12"/>
       <c r="C617" s="12"/>
@@ -18508,7 +18508,7 @@
       <c r="X617" s="1"/>
       <c r="Y617" s="1"/>
     </row>
-    <row r="618" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A618" s="12"/>
       <c r="B618" s="12"/>
       <c r="C618" s="12"/>
@@ -18535,7 +18535,7 @@
       <c r="X618" s="1"/>
       <c r="Y618" s="1"/>
     </row>
-    <row r="619" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A619" s="12"/>
       <c r="B619" s="12"/>
       <c r="C619" s="12"/>
@@ -18562,7 +18562,7 @@
       <c r="X619" s="1"/>
       <c r="Y619" s="1"/>
     </row>
-    <row r="620" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A620" s="12"/>
       <c r="B620" s="12"/>
       <c r="C620" s="12"/>
@@ -18589,7 +18589,7 @@
       <c r="X620" s="1"/>
       <c r="Y620" s="1"/>
     </row>
-    <row r="621" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A621" s="12"/>
       <c r="B621" s="12"/>
       <c r="C621" s="12"/>
@@ -18616,7 +18616,7 @@
       <c r="X621" s="1"/>
       <c r="Y621" s="1"/>
     </row>
-    <row r="622" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A622" s="12"/>
       <c r="B622" s="12"/>
       <c r="C622" s="12"/>
@@ -18643,7 +18643,7 @@
       <c r="X622" s="1"/>
       <c r="Y622" s="1"/>
     </row>
-    <row r="623" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A623" s="12"/>
       <c r="B623" s="12"/>
       <c r="C623" s="12"/>
@@ -18670,7 +18670,7 @@
       <c r="X623" s="1"/>
       <c r="Y623" s="1"/>
     </row>
-    <row r="624" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A624" s="12"/>
       <c r="B624" s="12"/>
       <c r="C624" s="12"/>
@@ -18697,7 +18697,7 @@
       <c r="X624" s="1"/>
       <c r="Y624" s="1"/>
     </row>
-    <row r="625" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A625" s="12"/>
       <c r="B625" s="12"/>
       <c r="C625" s="12"/>
@@ -18724,7 +18724,7 @@
       <c r="X625" s="1"/>
       <c r="Y625" s="1"/>
     </row>
-    <row r="626" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A626" s="12"/>
       <c r="B626" s="12"/>
       <c r="C626" s="12"/>
@@ -18751,7 +18751,7 @@
       <c r="X626" s="1"/>
       <c r="Y626" s="1"/>
     </row>
-    <row r="627" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A627" s="12"/>
       <c r="B627" s="12"/>
       <c r="C627" s="12"/>
@@ -18778,7 +18778,7 @@
       <c r="X627" s="1"/>
       <c r="Y627" s="1"/>
     </row>
-    <row r="628" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A628" s="12"/>
       <c r="B628" s="12"/>
       <c r="C628" s="12"/>
@@ -18805,7 +18805,7 @@
       <c r="X628" s="1"/>
       <c r="Y628" s="1"/>
     </row>
-    <row r="629" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A629" s="12"/>
       <c r="B629" s="12"/>
       <c r="C629" s="12"/>
@@ -18832,7 +18832,7 @@
       <c r="X629" s="1"/>
       <c r="Y629" s="1"/>
     </row>
-    <row r="630" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A630" s="12"/>
       <c r="B630" s="12"/>
       <c r="C630" s="12"/>
@@ -18859,7 +18859,7 @@
       <c r="X630" s="1"/>
       <c r="Y630" s="1"/>
     </row>
-    <row r="631" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A631" s="12"/>
       <c r="B631" s="12"/>
       <c r="C631" s="12"/>
@@ -18886,7 +18886,7 @@
       <c r="X631" s="1"/>
       <c r="Y631" s="1"/>
     </row>
-    <row r="632" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A632" s="12"/>
       <c r="B632" s="12"/>
       <c r="C632" s="12"/>
@@ -18913,7 +18913,7 @@
       <c r="X632" s="1"/>
       <c r="Y632" s="1"/>
     </row>
-    <row r="633" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A633" s="12"/>
       <c r="B633" s="12"/>
       <c r="C633" s="12"/>
@@ -18940,7 +18940,7 @@
       <c r="X633" s="1"/>
       <c r="Y633" s="1"/>
     </row>
-    <row r="634" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A634" s="12"/>
       <c r="B634" s="12"/>
       <c r="C634" s="12"/>
@@ -18967,7 +18967,7 @@
       <c r="X634" s="1"/>
       <c r="Y634" s="1"/>
     </row>
-    <row r="635" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A635" s="12"/>
       <c r="B635" s="12"/>
       <c r="C635" s="12"/>
@@ -18994,7 +18994,7 @@
       <c r="X635" s="1"/>
       <c r="Y635" s="1"/>
     </row>
-    <row r="636" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A636" s="12"/>
       <c r="B636" s="12"/>
       <c r="C636" s="12"/>
@@ -19021,7 +19021,7 @@
       <c r="X636" s="1"/>
       <c r="Y636" s="1"/>
     </row>
-    <row r="637" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A637" s="12"/>
       <c r="B637" s="12"/>
       <c r="C637" s="12"/>
@@ -19048,7 +19048,7 @@
       <c r="X637" s="1"/>
       <c r="Y637" s="1"/>
     </row>
-    <row r="638" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A638" s="12"/>
       <c r="B638" s="12"/>
       <c r="C638" s="12"/>
@@ -19075,7 +19075,7 @@
       <c r="X638" s="1"/>
       <c r="Y638" s="1"/>
     </row>
-    <row r="639" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A639" s="12"/>
       <c r="B639" s="12"/>
       <c r="C639" s="12"/>
@@ -19102,7 +19102,7 @@
       <c r="X639" s="1"/>
       <c r="Y639" s="1"/>
     </row>
-    <row r="640" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A640" s="12"/>
       <c r="B640" s="12"/>
       <c r="C640" s="12"/>
@@ -19129,7 +19129,7 @@
       <c r="X640" s="1"/>
       <c r="Y640" s="1"/>
     </row>
-    <row r="641" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A641" s="12"/>
       <c r="B641" s="12"/>
       <c r="C641" s="12"/>
@@ -19156,7 +19156,7 @@
       <c r="X641" s="1"/>
       <c r="Y641" s="1"/>
     </row>
-    <row r="642" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A642" s="12"/>
       <c r="B642" s="12"/>
       <c r="C642" s="12"/>
@@ -19183,7 +19183,7 @@
       <c r="X642" s="1"/>
       <c r="Y642" s="1"/>
     </row>
-    <row r="643" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A643" s="12"/>
       <c r="B643" s="12"/>
       <c r="C643" s="12"/>
@@ -19210,7 +19210,7 @@
       <c r="X643" s="1"/>
       <c r="Y643" s="1"/>
     </row>
-    <row r="644" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A644" s="12"/>
       <c r="B644" s="12"/>
       <c r="C644" s="12"/>
@@ -19237,7 +19237,7 @@
       <c r="X644" s="1"/>
       <c r="Y644" s="1"/>
     </row>
-    <row r="645" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A645" s="12"/>
       <c r="B645" s="12"/>
       <c r="C645" s="12"/>
@@ -19264,7 +19264,7 @@
       <c r="X645" s="1"/>
       <c r="Y645" s="1"/>
     </row>
-    <row r="646" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A646" s="12"/>
       <c r="B646" s="12"/>
       <c r="C646" s="12"/>
@@ -19291,7 +19291,7 @@
       <c r="X646" s="1"/>
       <c r="Y646" s="1"/>
     </row>
-    <row r="647" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A647" s="12"/>
       <c r="B647" s="12"/>
       <c r="C647" s="12"/>
@@ -19318,7 +19318,7 @@
       <c r="X647" s="1"/>
       <c r="Y647" s="1"/>
     </row>
-    <row r="648" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A648" s="12"/>
       <c r="B648" s="12"/>
       <c r="C648" s="12"/>
@@ -19345,7 +19345,7 @@
       <c r="X648" s="1"/>
       <c r="Y648" s="1"/>
     </row>
-    <row r="649" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A649" s="12"/>
       <c r="B649" s="12"/>
       <c r="C649" s="12"/>
@@ -19372,7 +19372,7 @@
       <c r="X649" s="1"/>
       <c r="Y649" s="1"/>
     </row>
-    <row r="650" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A650" s="12"/>
       <c r="B650" s="12"/>
       <c r="C650" s="12"/>
@@ -19399,7 +19399,7 @@
       <c r="X650" s="1"/>
       <c r="Y650" s="1"/>
     </row>
-    <row r="651" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A651" s="12"/>
       <c r="B651" s="12"/>
       <c r="C651" s="12"/>
@@ -19426,7 +19426,7 @@
       <c r="X651" s="1"/>
       <c r="Y651" s="1"/>
     </row>
-    <row r="652" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A652" s="12"/>
       <c r="B652" s="12"/>
       <c r="C652" s="12"/>
@@ -19453,7 +19453,7 @@
       <c r="X652" s="1"/>
       <c r="Y652" s="1"/>
     </row>
-    <row r="653" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A653" s="12"/>
       <c r="B653" s="12"/>
       <c r="C653" s="12"/>
@@ -19480,7 +19480,7 @@
       <c r="X653" s="1"/>
       <c r="Y653" s="1"/>
     </row>
-    <row r="654" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A654" s="12"/>
       <c r="B654" s="12"/>
       <c r="C654" s="12"/>
@@ -19507,7 +19507,7 @@
       <c r="X654" s="1"/>
       <c r="Y654" s="1"/>
     </row>
-    <row r="655" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A655" s="12"/>
       <c r="B655" s="12"/>
       <c r="C655" s="12"/>
@@ -19534,7 +19534,7 @@
       <c r="X655" s="1"/>
       <c r="Y655" s="1"/>
     </row>
-    <row r="656" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A656" s="12"/>
       <c r="B656" s="12"/>
       <c r="C656" s="12"/>
@@ -19561,7 +19561,7 @@
       <c r="X656" s="1"/>
       <c r="Y656" s="1"/>
     </row>
-    <row r="657" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A657" s="12"/>
       <c r="B657" s="12"/>
       <c r="C657" s="12"/>
@@ -19588,7 +19588,7 @@
       <c r="X657" s="1"/>
       <c r="Y657" s="1"/>
     </row>
-    <row r="658" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A658" s="12"/>
       <c r="B658" s="12"/>
       <c r="C658" s="12"/>
@@ -19615,7 +19615,7 @@
       <c r="X658" s="1"/>
       <c r="Y658" s="1"/>
     </row>
-    <row r="659" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A659" s="12"/>
       <c r="B659" s="12"/>
       <c r="C659" s="12"/>
@@ -19642,7 +19642,7 @@
       <c r="X659" s="1"/>
       <c r="Y659" s="1"/>
     </row>
-    <row r="660" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A660" s="12"/>
       <c r="B660" s="12"/>
       <c r="C660" s="12"/>
@@ -19669,7 +19669,7 @@
       <c r="X660" s="1"/>
       <c r="Y660" s="1"/>
     </row>
-    <row r="661" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A661" s="12"/>
       <c r="B661" s="12"/>
       <c r="C661" s="12"/>
@@ -19696,7 +19696,7 @@
       <c r="X661" s="1"/>
       <c r="Y661" s="1"/>
     </row>
-    <row r="662" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A662" s="12"/>
       <c r="B662" s="12"/>
       <c r="C662" s="12"/>
@@ -19723,7 +19723,7 @@
       <c r="X662" s="1"/>
       <c r="Y662" s="1"/>
     </row>
-    <row r="663" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A663" s="12"/>
       <c r="B663" s="12"/>
       <c r="C663" s="12"/>
@@ -19750,7 +19750,7 @@
       <c r="X663" s="1"/>
       <c r="Y663" s="1"/>
     </row>
-    <row r="664" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A664" s="12"/>
       <c r="B664" s="12"/>
       <c r="C664" s="12"/>
@@ -19777,7 +19777,7 @@
       <c r="X664" s="1"/>
       <c r="Y664" s="1"/>
     </row>
-    <row r="665" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A665" s="12"/>
       <c r="B665" s="12"/>
       <c r="C665" s="12"/>
@@ -19804,7 +19804,7 @@
       <c r="X665" s="1"/>
       <c r="Y665" s="1"/>
     </row>
-    <row r="666" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A666" s="12"/>
       <c r="B666" s="12"/>
       <c r="C666" s="12"/>
@@ -19831,7 +19831,7 @@
       <c r="X666" s="1"/>
       <c r="Y666" s="1"/>
     </row>
-    <row r="667" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A667" s="12"/>
       <c r="B667" s="12"/>
       <c r="C667" s="12"/>
@@ -19858,7 +19858,7 @@
       <c r="X667" s="1"/>
       <c r="Y667" s="1"/>
     </row>
-    <row r="668" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A668" s="12"/>
       <c r="B668" s="12"/>
       <c r="C668" s="12"/>
@@ -19885,7 +19885,7 @@
       <c r="X668" s="1"/>
       <c r="Y668" s="1"/>
     </row>
-    <row r="669" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A669" s="12"/>
       <c r="B669" s="12"/>
       <c r="C669" s="12"/>
@@ -19912,7 +19912,7 @@
       <c r="X669" s="1"/>
       <c r="Y669" s="1"/>
     </row>
-    <row r="670" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A670" s="12"/>
       <c r="B670" s="12"/>
       <c r="C670" s="12"/>
@@ -19939,7 +19939,7 @@
       <c r="X670" s="1"/>
       <c r="Y670" s="1"/>
     </row>
-    <row r="671" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A671" s="12"/>
       <c r="B671" s="12"/>
       <c r="C671" s="12"/>
@@ -19966,7 +19966,7 @@
       <c r="X671" s="1"/>
       <c r="Y671" s="1"/>
     </row>
-    <row r="672" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A672" s="12"/>
       <c r="B672" s="12"/>
       <c r="C672" s="12"/>
@@ -19993,7 +19993,7 @@
       <c r="X672" s="1"/>
       <c r="Y672" s="1"/>
     </row>
-    <row r="673" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A673" s="12"/>
       <c r="B673" s="12"/>
       <c r="C673" s="12"/>
@@ -20020,7 +20020,7 @@
       <c r="X673" s="1"/>
       <c r="Y673" s="1"/>
     </row>
-    <row r="674" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A674" s="12"/>
       <c r="B674" s="12"/>
       <c r="C674" s="12"/>
@@ -20047,7 +20047,7 @@
       <c r="X674" s="1"/>
       <c r="Y674" s="1"/>
     </row>
-    <row r="675" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A675" s="12"/>
       <c r="B675" s="12"/>
       <c r="C675" s="12"/>
@@ -20074,7 +20074,7 @@
       <c r="X675" s="1"/>
       <c r="Y675" s="1"/>
     </row>
-    <row r="676" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A676" s="12"/>
       <c r="B676" s="12"/>
       <c r="C676" s="12"/>
@@ -20101,7 +20101,7 @@
       <c r="X676" s="1"/>
       <c r="Y676" s="1"/>
     </row>
-    <row r="677" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A677" s="12"/>
       <c r="B677" s="12"/>
       <c r="C677" s="12"/>
@@ -20128,7 +20128,7 @@
       <c r="X677" s="1"/>
       <c r="Y677" s="1"/>
     </row>
-    <row r="678" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A678" s="12"/>
       <c r="B678" s="12"/>
       <c r="C678" s="12"/>
@@ -20155,7 +20155,7 @@
       <c r="X678" s="1"/>
       <c r="Y678" s="1"/>
     </row>
-    <row r="679" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A679" s="12"/>
       <c r="B679" s="12"/>
       <c r="C679" s="12"/>
@@ -20182,7 +20182,7 @@
       <c r="X679" s="1"/>
       <c r="Y679" s="1"/>
     </row>
-    <row r="680" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A680" s="12"/>
       <c r="B680" s="12"/>
       <c r="C680" s="12"/>
@@ -20209,7 +20209,7 @@
       <c r="X680" s="1"/>
       <c r="Y680" s="1"/>
     </row>
-    <row r="681" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A681" s="12"/>
       <c r="B681" s="12"/>
       <c r="C681" s="12"/>
@@ -20236,7 +20236,7 @@
       <c r="X681" s="1"/>
       <c r="Y681" s="1"/>
     </row>
-    <row r="682" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A682" s="12"/>
       <c r="B682" s="12"/>
       <c r="C682" s="12"/>
@@ -20263,7 +20263,7 @@
       <c r="X682" s="1"/>
       <c r="Y682" s="1"/>
     </row>
-    <row r="683" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A683" s="12"/>
       <c r="B683" s="12"/>
       <c r="C683" s="12"/>
@@ -20290,7 +20290,7 @@
       <c r="X683" s="1"/>
       <c r="Y683" s="1"/>
     </row>
-    <row r="684" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A684" s="12"/>
       <c r="B684" s="12"/>
       <c r="C684" s="12"/>
@@ -20317,7 +20317,7 @@
       <c r="X684" s="1"/>
       <c r="Y684" s="1"/>
     </row>
-    <row r="685" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A685" s="12"/>
       <c r="B685" s="12"/>
       <c r="C685" s="12"/>
@@ -20344,7 +20344,7 @@
       <c r="X685" s="1"/>
       <c r="Y685" s="1"/>
     </row>
-    <row r="686" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A686" s="12"/>
       <c r="B686" s="12"/>
       <c r="C686" s="12"/>
@@ -20371,7 +20371,7 @@
       <c r="X686" s="1"/>
       <c r="Y686" s="1"/>
     </row>
-    <row r="687" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A687" s="12"/>
       <c r="B687" s="12"/>
       <c r="C687" s="12"/>
@@ -20398,7 +20398,7 @@
       <c r="X687" s="1"/>
       <c r="Y687" s="1"/>
     </row>
-    <row r="688" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A688" s="12"/>
       <c r="B688" s="12"/>
       <c r="C688" s="12"/>
@@ -20425,7 +20425,7 @@
       <c r="X688" s="1"/>
       <c r="Y688" s="1"/>
     </row>
-    <row r="689" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A689" s="12"/>
       <c r="B689" s="12"/>
       <c r="C689" s="12"/>
@@ -20452,7 +20452,7 @@
       <c r="X689" s="1"/>
       <c r="Y689" s="1"/>
     </row>
-    <row r="690" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A690" s="12"/>
       <c r="B690" s="12"/>
       <c r="C690" s="12"/>
@@ -20479,7 +20479,7 @@
       <c r="X690" s="1"/>
       <c r="Y690" s="1"/>
     </row>
-    <row r="691" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A691" s="12"/>
       <c r="B691" s="12"/>
       <c r="C691" s="12"/>
@@ -20506,7 +20506,7 @@
       <c r="X691" s="1"/>
       <c r="Y691" s="1"/>
     </row>
-    <row r="692" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A692" s="12"/>
       <c r="B692" s="12"/>
       <c r="C692" s="12"/>
@@ -20533,7 +20533,7 @@
       <c r="X692" s="1"/>
       <c r="Y692" s="1"/>
     </row>
-    <row r="693" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A693" s="12"/>
       <c r="B693" s="12"/>
       <c r="C693" s="12"/>
@@ -20560,7 +20560,7 @@
       <c r="X693" s="1"/>
       <c r="Y693" s="1"/>
     </row>
-    <row r="694" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A694" s="12"/>
       <c r="B694" s="12"/>
       <c r="C694" s="12"/>
@@ -20587,7 +20587,7 @@
       <c r="X694" s="1"/>
       <c r="Y694" s="1"/>
     </row>
-    <row r="695" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A695" s="12"/>
       <c r="B695" s="12"/>
       <c r="C695" s="12"/>
@@ -20614,7 +20614,7 @@
       <c r="X695" s="1"/>
       <c r="Y695" s="1"/>
     </row>
-    <row r="696" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A696" s="12"/>
       <c r="B696" s="12"/>
       <c r="C696" s="12"/>
@@ -20641,7 +20641,7 @@
       <c r="X696" s="1"/>
       <c r="Y696" s="1"/>
     </row>
-    <row r="697" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A697" s="12"/>
       <c r="B697" s="12"/>
       <c r="C697" s="12"/>
@@ -20668,7 +20668,7 @@
       <c r="X697" s="1"/>
       <c r="Y697" s="1"/>
     </row>
-    <row r="698" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A698" s="12"/>
       <c r="B698" s="12"/>
       <c r="C698" s="12"/>
@@ -20695,7 +20695,7 @@
       <c r="X698" s="1"/>
       <c r="Y698" s="1"/>
     </row>
-    <row r="699" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A699" s="12"/>
       <c r="B699" s="12"/>
       <c r="C699" s="12"/>
@@ -20722,7 +20722,7 @@
       <c r="X699" s="1"/>
       <c r="Y699" s="1"/>
     </row>
-    <row r="700" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A700" s="12"/>
       <c r="B700" s="12"/>
       <c r="C700" s="12"/>
@@ -20749,7 +20749,7 @@
       <c r="X700" s="1"/>
       <c r="Y700" s="1"/>
     </row>
-    <row r="701" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A701" s="12"/>
       <c r="B701" s="12"/>
       <c r="C701" s="12"/>
@@ -20776,7 +20776,7 @@
       <c r="X701" s="1"/>
       <c r="Y701" s="1"/>
     </row>
-    <row r="702" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A702" s="12"/>
       <c r="B702" s="12"/>
       <c r="C702" s="12"/>
@@ -20803,7 +20803,7 @@
       <c r="X702" s="1"/>
       <c r="Y702" s="1"/>
     </row>
-    <row r="703" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A703" s="12"/>
       <c r="B703" s="12"/>
       <c r="C703" s="12"/>
@@ -20830,7 +20830,7 @@
       <c r="X703" s="1"/>
       <c r="Y703" s="1"/>
     </row>
-    <row r="704" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A704" s="12"/>
       <c r="B704" s="12"/>
       <c r="C704" s="12"/>
@@ -20857,7 +20857,7 @@
       <c r="X704" s="1"/>
       <c r="Y704" s="1"/>
     </row>
-    <row r="705" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A705" s="12"/>
       <c r="B705" s="12"/>
       <c r="C705" s="12"/>
@@ -20884,7 +20884,7 @@
       <c r="X705" s="1"/>
       <c r="Y705" s="1"/>
     </row>
-    <row r="706" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A706" s="12"/>
       <c r="B706" s="12"/>
       <c r="C706" s="12"/>
@@ -20911,7 +20911,7 @@
       <c r="X706" s="1"/>
       <c r="Y706" s="1"/>
     </row>
-    <row r="707" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A707" s="12"/>
       <c r="B707" s="12"/>
       <c r="C707" s="12"/>
@@ -20938,7 +20938,7 @@
       <c r="X707" s="1"/>
       <c r="Y707" s="1"/>
     </row>
-    <row r="708" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A708" s="12"/>
       <c r="B708" s="12"/>
       <c r="C708" s="12"/>
@@ -20965,7 +20965,7 @@
       <c r="X708" s="1"/>
       <c r="Y708" s="1"/>
     </row>
-    <row r="709" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A709" s="12"/>
       <c r="B709" s="12"/>
       <c r="C709" s="12"/>
@@ -20992,7 +20992,7 @@
       <c r="X709" s="1"/>
       <c r="Y709" s="1"/>
     </row>
-    <row r="710" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A710" s="12"/>
       <c r="B710" s="12"/>
       <c r="C710" s="12"/>
@@ -21019,7 +21019,7 @@
       <c r="X710" s="1"/>
       <c r="Y710" s="1"/>
     </row>
-    <row r="711" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A711" s="12"/>
       <c r="B711" s="12"/>
       <c r="C711" s="12"/>
@@ -21046,7 +21046,7 @@
       <c r="X711" s="1"/>
       <c r="Y711" s="1"/>
     </row>
-    <row r="712" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A712" s="12"/>
       <c r="B712" s="12"/>
       <c r="C712" s="12"/>
@@ -21073,7 +21073,7 @@
       <c r="X712" s="1"/>
       <c r="Y712" s="1"/>
     </row>
-    <row r="713" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A713" s="12"/>
       <c r="B713" s="12"/>
       <c r="C713" s="12"/>
@@ -21100,7 +21100,7 @@
       <c r="X713" s="1"/>
       <c r="Y713" s="1"/>
     </row>
-    <row r="714" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A714" s="12"/>
       <c r="B714" s="12"/>
       <c r="C714" s="12"/>
@@ -21127,7 +21127,7 @@
       <c r="X714" s="1"/>
       <c r="Y714" s="1"/>
     </row>
-    <row r="715" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A715" s="12"/>
       <c r="B715" s="12"/>
       <c r="C715" s="12"/>
@@ -21154,7 +21154,7 @@
       <c r="X715" s="1"/>
       <c r="Y715" s="1"/>
     </row>
-    <row r="716" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A716" s="12"/>
       <c r="B716" s="12"/>
       <c r="C716" s="12"/>
@@ -21181,7 +21181,7 @@
       <c r="X716" s="1"/>
       <c r="Y716" s="1"/>
     </row>
-    <row r="717" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A717" s="12"/>
       <c r="B717" s="12"/>
       <c r="C717" s="12"/>
@@ -21208,7 +21208,7 @@
       <c r="X717" s="1"/>
       <c r="Y717" s="1"/>
     </row>
-    <row r="718" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A718" s="12"/>
       <c r="B718" s="12"/>
       <c r="C718" s="12"/>
@@ -21235,7 +21235,7 @@
       <c r="X718" s="1"/>
       <c r="Y718" s="1"/>
     </row>
-    <row r="719" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A719" s="12"/>
       <c r="B719" s="12"/>
       <c r="C719" s="12"/>
@@ -21262,7 +21262,7 @@
       <c r="X719" s="1"/>
       <c r="Y719" s="1"/>
     </row>
-    <row r="720" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A720" s="12"/>
       <c r="B720" s="12"/>
       <c r="C720" s="12"/>
@@ -21289,7 +21289,7 @@
       <c r="X720" s="1"/>
       <c r="Y720" s="1"/>
     </row>
-    <row r="721" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A721" s="12"/>
       <c r="B721" s="12"/>
       <c r="C721" s="12"/>
@@ -21316,7 +21316,7 @@
       <c r="X721" s="1"/>
       <c r="Y721" s="1"/>
     </row>
-    <row r="722" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A722" s="12"/>
       <c r="B722" s="12"/>
       <c r="C722" s="12"/>
@@ -21343,7 +21343,7 @@
       <c r="X722" s="1"/>
       <c r="Y722" s="1"/>
     </row>
-    <row r="723" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A723" s="12"/>
       <c r="B723" s="12"/>
       <c r="C723" s="12"/>
@@ -21370,7 +21370,7 @@
       <c r="X723" s="1"/>
       <c r="Y723" s="1"/>
     </row>
-    <row r="724" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A724" s="12"/>
       <c r="B724" s="12"/>
       <c r="C724" s="12"/>
@@ -21397,7 +21397,7 @@
       <c r="X724" s="1"/>
       <c r="Y724" s="1"/>
     </row>
-    <row r="725" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A725" s="12"/>
       <c r="B725" s="12"/>
       <c r="C725" s="12"/>
@@ -21424,7 +21424,7 @@
       <c r="X725" s="1"/>
       <c r="Y725" s="1"/>
     </row>
-    <row r="726" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A726" s="12"/>
       <c r="B726" s="12"/>
       <c r="C726" s="12"/>
@@ -21451,7 +21451,7 @@
       <c r="X726" s="1"/>
       <c r="Y726" s="1"/>
     </row>
-    <row r="727" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A727" s="12"/>
       <c r="B727" s="12"/>
       <c r="C727" s="12"/>
@@ -21478,7 +21478,7 @@
       <c r="X727" s="1"/>
       <c r="Y727" s="1"/>
     </row>
-    <row r="728" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A728" s="12"/>
       <c r="B728" s="12"/>
       <c r="C728" s="12"/>
@@ -21505,7 +21505,7 @@
       <c r="X728" s="1"/>
       <c r="Y728" s="1"/>
     </row>
-    <row r="729" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A729" s="12"/>
       <c r="B729" s="12"/>
       <c r="C729" s="12"/>
@@ -21532,7 +21532,7 @@
       <c r="X729" s="1"/>
       <c r="Y729" s="1"/>
     </row>
-    <row r="730" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A730" s="12"/>
       <c r="B730" s="12"/>
       <c r="C730" s="12"/>
@@ -21559,7 +21559,7 @@
       <c r="X730" s="1"/>
       <c r="Y730" s="1"/>
     </row>
-    <row r="731" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A731" s="12"/>
       <c r="B731" s="12"/>
       <c r="C731" s="12"/>
@@ -21586,7 +21586,7 @@
       <c r="X731" s="1"/>
       <c r="Y731" s="1"/>
     </row>
-    <row r="732" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A732" s="12"/>
       <c r="B732" s="12"/>
       <c r="C732" s="12"/>
@@ -21613,7 +21613,7 @@
       <c r="X732" s="1"/>
       <c r="Y732" s="1"/>
     </row>
-    <row r="733" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A733" s="12"/>
       <c r="B733" s="12"/>
       <c r="C733" s="12"/>
@@ -21640,7 +21640,7 @@
       <c r="X733" s="1"/>
       <c r="Y733" s="1"/>
     </row>
-    <row r="734" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A734" s="12"/>
       <c r="B734" s="12"/>
       <c r="C734" s="12"/>
@@ -21667,7 +21667,7 @@
       <c r="X734" s="1"/>
       <c r="Y734" s="1"/>
     </row>
-    <row r="735" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A735" s="12"/>
       <c r="B735" s="12"/>
       <c r="C735" s="12"/>
@@ -21694,7 +21694,7 @@
       <c r="X735" s="1"/>
       <c r="Y735" s="1"/>
     </row>
-    <row r="736" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A736" s="12"/>
       <c r="B736" s="12"/>
       <c r="C736" s="12"/>
@@ -21721,7 +21721,7 @@
       <c r="X736" s="1"/>
       <c r="Y736" s="1"/>
     </row>
-    <row r="737" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A737" s="12"/>
       <c r="B737" s="12"/>
       <c r="C737" s="12"/>
@@ -21748,7 +21748,7 @@
       <c r="X737" s="1"/>
       <c r="Y737" s="1"/>
     </row>
-    <row r="738" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A738" s="12"/>
       <c r="B738" s="12"/>
       <c r="C738" s="12"/>
@@ -21775,7 +21775,7 @@
       <c r="X738" s="1"/>
       <c r="Y738" s="1"/>
     </row>
-    <row r="739" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A739" s="12"/>
       <c r="B739" s="12"/>
       <c r="C739" s="12"/>
@@ -21802,7 +21802,7 @@
       <c r="X739" s="1"/>
       <c r="Y739" s="1"/>
     </row>
-    <row r="740" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A740" s="12"/>
       <c r="B740" s="12"/>
       <c r="C740" s="12"/>
@@ -21829,7 +21829,7 @@
       <c r="X740" s="1"/>
       <c r="Y740" s="1"/>
     </row>
-    <row r="741" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A741" s="12"/>
       <c r="B741" s="12"/>
       <c r="C741" s="12"/>
@@ -21856,7 +21856,7 @@
       <c r="X741" s="1"/>
       <c r="Y741" s="1"/>
     </row>
-    <row r="742" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A742" s="12"/>
       <c r="B742" s="12"/>
       <c r="C742" s="12"/>
@@ -21883,7 +21883,7 @@
       <c r="X742" s="1"/>
       <c r="Y742" s="1"/>
     </row>
-    <row r="743" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A743" s="12"/>
       <c r="B743" s="12"/>
       <c r="C743" s="12"/>
@@ -21910,7 +21910,7 @@
       <c r="X743" s="1"/>
       <c r="Y743" s="1"/>
     </row>
-    <row r="744" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A744" s="12"/>
       <c r="B744" s="12"/>
       <c r="C744" s="12"/>
@@ -21937,7 +21937,7 @@
       <c r="X744" s="1"/>
       <c r="Y744" s="1"/>
     </row>
-    <row r="745" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A745" s="12"/>
       <c r="B745" s="12"/>
       <c r="C745" s="12"/>
@@ -21964,7 +21964,7 @@
       <c r="X745" s="1"/>
       <c r="Y745" s="1"/>
     </row>
-    <row r="746" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A746" s="12"/>
       <c r="B746" s="12"/>
       <c r="C746" s="12"/>
@@ -21991,7 +21991,7 @@
       <c r="X746" s="1"/>
       <c r="Y746" s="1"/>
     </row>
-    <row r="747" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A747" s="12"/>
       <c r="B747" s="12"/>
       <c r="C747" s="12"/>
@@ -22018,7 +22018,7 @@
       <c r="X747" s="1"/>
       <c r="Y747" s="1"/>
     </row>
-    <row r="748" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A748" s="12"/>
       <c r="B748" s="12"/>
       <c r="C748" s="12"/>
@@ -22045,7 +22045,7 @@
       <c r="X748" s="1"/>
       <c r="Y748" s="1"/>
     </row>
-    <row r="749" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A749" s="12"/>
       <c r="B749" s="12"/>
       <c r="C749" s="12"/>
@@ -22072,7 +22072,7 @@
       <c r="X749" s="1"/>
       <c r="Y749" s="1"/>
     </row>
-    <row r="750" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A750" s="12"/>
       <c r="B750" s="12"/>
       <c r="C750" s="12"/>
@@ -22099,7 +22099,7 @@
       <c r="X750" s="1"/>
       <c r="Y750" s="1"/>
     </row>
-    <row r="751" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A751" s="12"/>
       <c r="B751" s="12"/>
       <c r="C751" s="12"/>
@@ -22126,7 +22126,7 @@
       <c r="X751" s="1"/>
       <c r="Y751" s="1"/>
     </row>
-    <row r="752" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A752" s="12"/>
       <c r="B752" s="12"/>
       <c r="C752" s="12"/>
@@ -22153,7 +22153,7 @@
       <c r="X752" s="1"/>
       <c r="Y752" s="1"/>
     </row>
-    <row r="753" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A753" s="12"/>
       <c r="B753" s="12"/>
       <c r="C753" s="12"/>
@@ -22180,7 +22180,7 @@
       <c r="X753" s="1"/>
       <c r="Y753" s="1"/>
     </row>
-    <row r="754" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A754" s="12"/>
       <c r="B754" s="12"/>
       <c r="C754" s="12"/>
@@ -22207,7 +22207,7 @@
       <c r="X754" s="1"/>
       <c r="Y754" s="1"/>
     </row>
-    <row r="755" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A755" s="12"/>
       <c r="B755" s="12"/>
       <c r="C755" s="12"/>
@@ -22234,7 +22234,7 @@
       <c r="X755" s="1"/>
       <c r="Y755" s="1"/>
     </row>
-    <row r="756" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A756" s="12"/>
       <c r="B756" s="12"/>
       <c r="C756" s="12"/>
@@ -22261,7 +22261,7 @@
       <c r="X756" s="1"/>
       <c r="Y756" s="1"/>
     </row>
-    <row r="757" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A757" s="12"/>
       <c r="B757" s="12"/>
       <c r="C757" s="12"/>
@@ -22288,7 +22288,7 @@
       <c r="X757" s="1"/>
       <c r="Y757" s="1"/>
     </row>
-    <row r="758" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A758" s="12"/>
       <c r="B758" s="12"/>
       <c r="C758" s="12"/>
@@ -22315,7 +22315,7 @@
       <c r="X758" s="1"/>
       <c r="Y758" s="1"/>
     </row>
-    <row r="759" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A759" s="12"/>
       <c r="B759" s="12"/>
       <c r="C759" s="12"/>
@@ -22342,7 +22342,7 @@
       <c r="X759" s="1"/>
       <c r="Y759" s="1"/>
     </row>
-    <row r="760" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A760" s="12"/>
       <c r="B760" s="12"/>
       <c r="C760" s="12"/>
@@ -22369,7 +22369,7 @@
       <c r="X760" s="1"/>
       <c r="Y760" s="1"/>
     </row>
-    <row r="761" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A761" s="12"/>
       <c r="B761" s="12"/>
       <c r="C761" s="12"/>
@@ -22396,7 +22396,7 @@
       <c r="X761" s="1"/>
       <c r="Y761" s="1"/>
     </row>
-    <row r="762" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A762" s="12"/>
       <c r="B762" s="12"/>
       <c r="C762" s="12"/>
@@ -22423,7 +22423,7 @@
       <c r="X762" s="1"/>
       <c r="Y762" s="1"/>
     </row>
-    <row r="763" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A763" s="12"/>
       <c r="B763" s="12"/>
       <c r="C763" s="12"/>
@@ -22450,7 +22450,7 @@
       <c r="X763" s="1"/>
       <c r="Y763" s="1"/>
     </row>
-    <row r="764" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A764" s="12"/>
       <c r="B764" s="12"/>
       <c r="C764" s="12"/>
@@ -22477,7 +22477,7 @@
       <c r="X764" s="1"/>
       <c r="Y764" s="1"/>
     </row>
-    <row r="765" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A765" s="12"/>
       <c r="B765" s="12"/>
       <c r="C765" s="12"/>
@@ -22504,7 +22504,7 @@
       <c r="X765" s="1"/>
       <c r="Y765" s="1"/>
     </row>
-    <row r="766" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A766" s="12"/>
       <c r="B766" s="12"/>
       <c r="C766" s="12"/>
@@ -22531,7 +22531,7 @@
       <c r="X766" s="1"/>
       <c r="Y766" s="1"/>
     </row>
-    <row r="767" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A767" s="12"/>
       <c r="B767" s="12"/>
       <c r="C767" s="12"/>
@@ -22558,7 +22558,7 @@
       <c r="X767" s="1"/>
       <c r="Y767" s="1"/>
     </row>
-    <row r="768" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A768" s="12"/>
       <c r="B768" s="12"/>
       <c r="C768" s="12"/>
@@ -22585,7 +22585,7 @@
       <c r="X768" s="1"/>
       <c r="Y768" s="1"/>
     </row>
-    <row r="769" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A769" s="12"/>
       <c r="B769" s="12"/>
       <c r="C769" s="12"/>
@@ -22612,7 +22612,7 @@
       <c r="X769" s="1"/>
       <c r="Y769" s="1"/>
     </row>
-    <row r="770" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A770" s="12"/>
       <c r="B770" s="12"/>
       <c r="C770" s="12"/>
@@ -22639,7 +22639,7 @@
       <c r="X770" s="1"/>
       <c r="Y770" s="1"/>
     </row>
-    <row r="771" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A771" s="12"/>
       <c r="B771" s="12"/>
       <c r="C771" s="12"/>
@@ -22666,7 +22666,7 @@
       <c r="X771" s="1"/>
       <c r="Y771" s="1"/>
     </row>
-    <row r="772" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A772" s="12"/>
       <c r="B772" s="12"/>
       <c r="C772" s="12"/>
@@ -22693,7 +22693,7 @@
       <c r="X772" s="1"/>
       <c r="Y772" s="1"/>
     </row>
-    <row r="773" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A773" s="12"/>
       <c r="B773" s="12"/>
       <c r="C773" s="12"/>
@@ -22720,7 +22720,7 @@
       <c r="X773" s="1"/>
       <c r="Y773" s="1"/>
     </row>
-    <row r="774" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A774" s="12"/>
       <c r="B774" s="12"/>
       <c r="C774" s="12"/>
@@ -22747,7 +22747,7 @@
       <c r="X774" s="1"/>
       <c r="Y774" s="1"/>
     </row>
-    <row r="775" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A775" s="12"/>
       <c r="B775" s="12"/>
       <c r="C775" s="12"/>
@@ -22774,7 +22774,7 @@
       <c r="X775" s="1"/>
       <c r="Y775" s="1"/>
     </row>
-    <row r="776" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A776" s="12"/>
       <c r="B776" s="12"/>
       <c r="C776" s="12"/>
@@ -22801,7 +22801,7 @@
       <c r="X776" s="1"/>
       <c r="Y776" s="1"/>
     </row>
-    <row r="777" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A777" s="12"/>
       <c r="B777" s="12"/>
       <c r="C777" s="12"/>
@@ -22828,7 +22828,7 @@
       <c r="X777" s="1"/>
       <c r="Y777" s="1"/>
     </row>
-    <row r="778" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A778" s="12"/>
       <c r="B778" s="12"/>
       <c r="C778" s="12"/>
@@ -22855,7 +22855,7 @@
       <c r="X778" s="1"/>
       <c r="Y778" s="1"/>
     </row>
-    <row r="779" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A779" s="12"/>
       <c r="B779" s="12"/>
       <c r="C779" s="12"/>
@@ -22882,7 +22882,7 @@
       <c r="X779" s="1"/>
       <c r="Y779" s="1"/>
     </row>
-    <row r="780" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A780" s="12"/>
       <c r="B780" s="12"/>
       <c r="C780" s="12"/>
@@ -22909,7 +22909,7 @@
       <c r="X780" s="1"/>
       <c r="Y780" s="1"/>
     </row>
-    <row r="781" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A781" s="12"/>
       <c r="B781" s="12"/>
       <c r="C781" s="12"/>
@@ -22936,7 +22936,7 @@
       <c r="X781" s="1"/>
       <c r="Y781" s="1"/>
     </row>
-    <row r="782" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A782" s="12"/>
       <c r="B782" s="12"/>
       <c r="C782" s="12"/>
@@ -22963,7 +22963,7 @@
       <c r="X782" s="1"/>
       <c r="Y782" s="1"/>
     </row>
-    <row r="783" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A783" s="12"/>
       <c r="B783" s="12"/>
       <c r="C783" s="12"/>
@@ -22990,7 +22990,7 @@
       <c r="X783" s="1"/>
       <c r="Y783" s="1"/>
     </row>
-    <row r="784" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A784" s="12"/>
       <c r="B784" s="12"/>
       <c r="C784" s="12"/>
@@ -23017,7 +23017,7 @@
       <c r="X784" s="1"/>
       <c r="Y784" s="1"/>
     </row>
-    <row r="785" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A785" s="12"/>
       <c r="B785" s="12"/>
       <c r="C785" s="12"/>
@@ -23044,7 +23044,7 @@
       <c r="X785" s="1"/>
       <c r="Y785" s="1"/>
     </row>
-    <row r="786" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A786" s="12"/>
       <c r="B786" s="12"/>
       <c r="C786" s="12"/>
@@ -23071,7 +23071,7 @@
       <c r="X786" s="1"/>
       <c r="Y786" s="1"/>
     </row>
-    <row r="787" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A787" s="12"/>
       <c r="B787" s="12"/>
       <c r="C787" s="12"/>
@@ -23098,7 +23098,7 @@
       <c r="X787" s="1"/>
       <c r="Y787" s="1"/>
     </row>
-    <row r="788" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A788" s="12"/>
       <c r="B788" s="12"/>
       <c r="C788" s="12"/>
@@ -23125,7 +23125,7 @@
       <c r="X788" s="1"/>
       <c r="Y788" s="1"/>
     </row>
-    <row r="789" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A789" s="12"/>
       <c r="B789" s="12"/>
       <c r="C789" s="12"/>
@@ -23152,7 +23152,7 @@
       <c r="X789" s="1"/>
       <c r="Y789" s="1"/>
     </row>
-    <row r="790" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A790" s="12"/>
       <c r="B790" s="12"/>
       <c r="C790" s="12"/>
@@ -23179,7 +23179,7 @@
       <c r="X790" s="1"/>
       <c r="Y790" s="1"/>
     </row>
-    <row r="791" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A791" s="12"/>
       <c r="B791" s="12"/>
       <c r="C791" s="12"/>
@@ -23206,7 +23206,7 @@
       <c r="X791" s="1"/>
       <c r="Y791" s="1"/>
     </row>
-    <row r="792" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A792" s="12"/>
       <c r="B792" s="12"/>
       <c r="C792" s="12"/>
@@ -23233,7 +23233,7 @@
       <c r="X792" s="1"/>
       <c r="Y792" s="1"/>
     </row>
-    <row r="793" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A793" s="12"/>
       <c r="B793" s="12"/>
       <c r="C793" s="12"/>
@@ -23260,7 +23260,7 @@
       <c r="X793" s="1"/>
       <c r="Y793" s="1"/>
     </row>
-    <row r="794" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A794" s="12"/>
       <c r="B794" s="12"/>
       <c r="C794" s="12"/>
@@ -23287,7 +23287,7 @@
       <c r="X794" s="1"/>
       <c r="Y794" s="1"/>
     </row>
-    <row r="795" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A795" s="12"/>
       <c r="B795" s="12"/>
       <c r="C795" s="12"/>
@@ -23314,7 +23314,7 @@
       <c r="X795" s="1"/>
       <c r="Y795" s="1"/>
     </row>
-    <row r="796" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A796" s="12"/>
       <c r="B796" s="12"/>
       <c r="C796" s="12"/>
@@ -23341,7 +23341,7 @@
       <c r="X796" s="1"/>
       <c r="Y796" s="1"/>
     </row>
-    <row r="797" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A797" s="12"/>
       <c r="B797" s="12"/>
       <c r="C797" s="12"/>
@@ -23368,7 +23368,7 @@
       <c r="X797" s="1"/>
       <c r="Y797" s="1"/>
     </row>
-    <row r="798" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A798" s="12"/>
       <c r="B798" s="12"/>
       <c r="C798" s="12"/>
@@ -23395,7 +23395,7 @@
       <c r="X798" s="1"/>
       <c r="Y798" s="1"/>
     </row>
-    <row r="799" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A799" s="12"/>
       <c r="B799" s="12"/>
       <c r="C799" s="12"/>
@@ -23422,7 +23422,7 @@
       <c r="X799" s="1"/>
       <c r="Y799" s="1"/>
     </row>
-    <row r="800" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A800" s="12"/>
       <c r="B800" s="12"/>
       <c r="C800" s="12"/>
@@ -23449,7 +23449,7 @@
       <c r="X800" s="1"/>
       <c r="Y800" s="1"/>
     </row>
-    <row r="801" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A801" s="12"/>
       <c r="B801" s="12"/>
       <c r="C801" s="12"/>
@@ -23476,7 +23476,7 @@
       <c r="X801" s="1"/>
       <c r="Y801" s="1"/>
     </row>
-    <row r="802" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A802" s="12"/>
       <c r="B802" s="12"/>
       <c r="C802" s="12"/>
@@ -23503,7 +23503,7 @@
       <c r="X802" s="1"/>
       <c r="Y802" s="1"/>
     </row>
-    <row r="803" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A803" s="12"/>
       <c r="B803" s="12"/>
       <c r="C803" s="12"/>
@@ -23530,7 +23530,7 @@
       <c r="X803" s="1"/>
       <c r="Y803" s="1"/>
     </row>
-    <row r="804" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A804" s="12"/>
       <c r="B804" s="12"/>
       <c r="C804" s="12"/>
@@ -23557,7 +23557,7 @@
       <c r="X804" s="1"/>
       <c r="Y804" s="1"/>
     </row>
-    <row r="805" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A805" s="12"/>
       <c r="B805" s="12"/>
       <c r="C805" s="12"/>
@@ -23584,7 +23584,7 @@
       <c r="X805" s="1"/>
       <c r="Y805" s="1"/>
     </row>
-    <row r="806" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A806" s="12"/>
       <c r="B806" s="12"/>
       <c r="C806" s="12"/>
@@ -23611,7 +23611,7 @@
       <c r="X806" s="1"/>
       <c r="Y806" s="1"/>
     </row>
-    <row r="807" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A807" s="12"/>
       <c r="B807" s="12"/>
       <c r="C807" s="12"/>
@@ -23638,7 +23638,7 @@
       <c r="X807" s="1"/>
       <c r="Y807" s="1"/>
     </row>
-    <row r="808" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A808" s="12"/>
       <c r="B808" s="12"/>
       <c r="C808" s="12"/>
@@ -23665,7 +23665,7 @@
       <c r="X808" s="1"/>
       <c r="Y808" s="1"/>
     </row>
-    <row r="809" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A809" s="12"/>
       <c r="B809" s="12"/>
       <c r="C809" s="12"/>
@@ -23692,7 +23692,7 @@
       <c r="X809" s="1"/>
       <c r="Y809" s="1"/>
     </row>
-    <row r="810" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A810" s="12"/>
       <c r="B810" s="12"/>
       <c r="C810" s="12"/>
@@ -23719,7 +23719,7 @@
       <c r="X810" s="1"/>
       <c r="Y810" s="1"/>
     </row>
-    <row r="811" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A811" s="12"/>
       <c r="B811" s="12"/>
       <c r="C811" s="12"/>
@@ -23746,7 +23746,7 @@
       <c r="X811" s="1"/>
       <c r="Y811" s="1"/>
     </row>
-    <row r="812" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A812" s="12"/>
       <c r="B812" s="12"/>
       <c r="C812" s="12"/>
@@ -23773,7 +23773,7 @@
       <c r="X812" s="1"/>
       <c r="Y812" s="1"/>
     </row>
-    <row r="813" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A813" s="12"/>
       <c r="B813" s="12"/>
       <c r="C813" s="12"/>
@@ -23800,7 +23800,7 @@
       <c r="X813" s="1"/>
       <c r="Y813" s="1"/>
     </row>
-    <row r="814" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A814" s="12"/>
       <c r="B814" s="12"/>
       <c r="C814" s="12"/>
@@ -23827,7 +23827,7 @@
       <c r="X814" s="1"/>
       <c r="Y814" s="1"/>
     </row>
-    <row r="815" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A815" s="12"/>
       <c r="B815" s="12"/>
       <c r="C815" s="12"/>
@@ -23854,7 +23854,7 @@
       <c r="X815" s="1"/>
       <c r="Y815" s="1"/>
     </row>
-    <row r="816" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A816" s="12"/>
       <c r="B816" s="12"/>
       <c r="C816" s="12"/>
@@ -23881,7 +23881,7 @@
       <c r="X816" s="1"/>
       <c r="Y816" s="1"/>
     </row>
-    <row r="817" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A817" s="12"/>
       <c r="B817" s="12"/>
       <c r="C817" s="12"/>
@@ -23908,7 +23908,7 @@
       <c r="X817" s="1"/>
       <c r="Y817" s="1"/>
     </row>
-    <row r="818" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A818" s="12"/>
       <c r="B818" s="12"/>
       <c r="C818" s="12"/>
@@ -23935,7 +23935,7 @@
       <c r="X818" s="1"/>
       <c r="Y818" s="1"/>
     </row>
-    <row r="819" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A819" s="12"/>
       <c r="B819" s="12"/>
       <c r="C819" s="12"/>
@@ -23962,7 +23962,7 @@
       <c r="X819" s="1"/>
       <c r="Y819" s="1"/>
     </row>
-    <row r="820" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A820" s="12"/>
       <c r="B820" s="12"/>
       <c r="C820" s="12"/>
@@ -23989,7 +23989,7 @@
       <c r="X820" s="1"/>
       <c r="Y820" s="1"/>
     </row>
-    <row r="821" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A821" s="12"/>
       <c r="B821" s="12"/>
       <c r="C821" s="12"/>
@@ -24016,7 +24016,7 @@
       <c r="X821" s="1"/>
       <c r="Y821" s="1"/>
     </row>
-    <row r="822" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A822" s="12"/>
       <c r="B822" s="12"/>
       <c r="C822" s="12"/>
@@ -24043,7 +24043,7 @@
       <c r="X822" s="1"/>
       <c r="Y822" s="1"/>
     </row>
-    <row r="823" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A823" s="12"/>
       <c r="B823" s="12"/>
       <c r="C823" s="12"/>
@@ -24070,7 +24070,7 @@
       <c r="X823" s="1"/>
       <c r="Y823" s="1"/>
     </row>
-    <row r="824" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A824" s="12"/>
       <c r="B824" s="12"/>
       <c r="C824" s="12"/>
@@ -24097,7 +24097,7 @@
       <c r="X824" s="1"/>
       <c r="Y824" s="1"/>
     </row>
-    <row r="825" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A825" s="12"/>
       <c r="B825" s="12"/>
       <c r="C825" s="12"/>
@@ -24124,7 +24124,7 @@
       <c r="X825" s="1"/>
       <c r="Y825" s="1"/>
     </row>
-    <row r="826" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A826" s="12"/>
       <c r="B826" s="12"/>
       <c r="C826" s="12"/>
@@ -24151,7 +24151,7 @@
       <c r="X826" s="1"/>
       <c r="Y826" s="1"/>
     </row>
-    <row r="827" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A827" s="12"/>
       <c r="B827" s="12"/>
       <c r="C827" s="12"/>
@@ -24178,7 +24178,7 @@
       <c r="X827" s="1"/>
       <c r="Y827" s="1"/>
     </row>
-    <row r="828" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A828" s="12"/>
       <c r="B828" s="12"/>
       <c r="C828" s="12"/>
@@ -24205,7 +24205,7 @@
       <c r="X828" s="1"/>
       <c r="Y828" s="1"/>
     </row>
-    <row r="829" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A829" s="12"/>
       <c r="B829" s="12"/>
       <c r="C829" s="12"/>
@@ -24232,7 +24232,7 @@
       <c r="X829" s="1"/>
       <c r="Y829" s="1"/>
     </row>
-    <row r="830" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A830" s="12"/>
       <c r="B830" s="12"/>
       <c r="C830" s="12"/>
@@ -24259,7 +24259,7 @@
       <c r="X830" s="1"/>
       <c r="Y830" s="1"/>
     </row>
-    <row r="831" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A831" s="12"/>
       <c r="B831" s="12"/>
       <c r="C831" s="12"/>
@@ -24286,7 +24286,7 @@
       <c r="X831" s="1"/>
       <c r="Y831" s="1"/>
     </row>
-    <row r="832" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A832" s="12"/>
       <c r="B832" s="12"/>
       <c r="C832" s="12"/>
@@ -24313,7 +24313,7 @@
       <c r="X832" s="1"/>
       <c r="Y832" s="1"/>
     </row>
-    <row r="833" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A833" s="12"/>
       <c r="B833" s="12"/>
       <c r="C833" s="12"/>
@@ -24340,7 +24340,7 @@
       <c r="X833" s="1"/>
       <c r="Y833" s="1"/>
     </row>
-    <row r="834" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A834" s="12"/>
       <c r="B834" s="12"/>
       <c r="C834" s="12"/>
@@ -24367,7 +24367,7 @@
       <c r="X834" s="1"/>
       <c r="Y834" s="1"/>
     </row>
-    <row r="835" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A835" s="12"/>
       <c r="B835" s="12"/>
       <c r="C835" s="12"/>
@@ -24394,7 +24394,7 @@
       <c r="X835" s="1"/>
       <c r="Y835" s="1"/>
     </row>
-    <row r="836" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A836" s="12"/>
       <c r="B836" s="12"/>
       <c r="C836" s="12"/>
@@ -24421,7 +24421,7 @@
       <c r="X836" s="1"/>
       <c r="Y836" s="1"/>
     </row>
-    <row r="837" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A837" s="12"/>
       <c r="B837" s="12"/>
       <c r="C837" s="12"/>
@@ -24448,7 +24448,7 @@
       <c r="X837" s="1"/>
       <c r="Y837" s="1"/>
     </row>
-    <row r="838" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A838" s="12"/>
       <c r="B838" s="12"/>
       <c r="C838" s="12"/>
@@ -24475,7 +24475,7 @@
       <c r="X838" s="1"/>
       <c r="Y838" s="1"/>
     </row>
-    <row r="839" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A839" s="12"/>
       <c r="B839" s="12"/>
       <c r="C839" s="12"/>
@@ -24502,7 +24502,7 @@
       <c r="X839" s="1"/>
       <c r="Y839" s="1"/>
     </row>
-    <row r="840" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A840" s="12"/>
       <c r="B840" s="12"/>
       <c r="C840" s="12"/>
@@ -24529,7 +24529,7 @@
       <c r="X840" s="1"/>
       <c r="Y840" s="1"/>
     </row>
-    <row r="841" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A841" s="12"/>
       <c r="B841" s="12"/>
       <c r="C841" s="12"/>
@@ -24556,7 +24556,7 @@
       <c r="X841" s="1"/>
       <c r="Y841" s="1"/>
     </row>
-    <row r="842" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A842" s="12"/>
       <c r="B842" s="12"/>
       <c r="C842" s="12"/>
@@ -24583,7 +24583,7 @@
       <c r="X842" s="1"/>
       <c r="Y842" s="1"/>
     </row>
-    <row r="843" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A843" s="12"/>
       <c r="B843" s="12"/>
       <c r="C843" s="12"/>
@@ -24610,7 +24610,7 @@
       <c r="X843" s="1"/>
       <c r="Y843" s="1"/>
     </row>
-    <row r="844" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A844" s="12"/>
       <c r="B844" s="12"/>
       <c r="C844" s="12"/>
@@ -24637,7 +24637,7 @@
       <c r="X844" s="1"/>
       <c r="Y844" s="1"/>
     </row>
-    <row r="845" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A845" s="12"/>
       <c r="B845" s="12"/>
       <c r="C845" s="12"/>
@@ -24664,7 +24664,7 @@
       <c r="X845" s="1"/>
       <c r="Y845" s="1"/>
     </row>
-    <row r="846" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A846" s="12"/>
       <c r="B846" s="12"/>
       <c r="C846" s="12"/>
@@ -24691,7 +24691,7 @@
       <c r="X846" s="1"/>
       <c r="Y846" s="1"/>
     </row>
-    <row r="847" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A847" s="12"/>
       <c r="B847" s="12"/>
       <c r="C847" s="12"/>
@@ -24718,7 +24718,7 @@
       <c r="X847" s="1"/>
       <c r="Y847" s="1"/>
     </row>
-    <row r="848" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A848" s="12"/>
       <c r="B848" s="12"/>
       <c r="C848" s="12"/>
@@ -24745,7 +24745,7 @@
       <c r="X848" s="1"/>
       <c r="Y848" s="1"/>
     </row>
-    <row r="849" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A849" s="12"/>
       <c r="B849" s="12"/>
       <c r="C849" s="12"/>
@@ -24772,7 +24772,7 @@
       <c r="X849" s="1"/>
       <c r="Y849" s="1"/>
     </row>
-    <row r="850" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A850" s="12"/>
       <c r="B850" s="12"/>
       <c r="C850" s="12"/>
@@ -24799,7 +24799,7 @@
       <c r="X850" s="1"/>
       <c r="Y850" s="1"/>
     </row>
-    <row r="851" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A851" s="12"/>
       <c r="B851" s="12"/>
       <c r="C851" s="12"/>
@@ -24826,7 +24826,7 @@
       <c r="X851" s="1"/>
       <c r="Y851" s="1"/>
     </row>
-    <row r="852" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A852" s="12"/>
       <c r="B852" s="12"/>
       <c r="C852" s="12"/>
@@ -24853,7 +24853,7 @@
       <c r="X852" s="1"/>
       <c r="Y852" s="1"/>
     </row>
-    <row r="853" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A853" s="12"/>
       <c r="B853" s="12"/>
       <c r="C853" s="12"/>
@@ -24880,7 +24880,7 @@
       <c r="X853" s="1"/>
       <c r="Y853" s="1"/>
     </row>
-    <row r="854" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A854" s="12"/>
       <c r="B854" s="12"/>
       <c r="C854" s="12"/>
@@ -24907,7 +24907,7 @@
       <c r="X854" s="1"/>
       <c r="Y854" s="1"/>
     </row>
-    <row r="855" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A855" s="12"/>
       <c r="B855" s="12"/>
       <c r="C855" s="12"/>
@@ -24940,16 +24940,6 @@
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
   <mergeCells count="26">
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="J12:J13"/>
@@ -24966,6 +24956,16 @@
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="I14:I1048576">
     <cfRule type="containsText" dxfId="18" priority="23" operator="containsText" text="HASI GABE">

--- a/0.1- PLANIFIKAZIOA/TSB EGUNEROKOA.xlsx
+++ b/0.1- PLANIFIKAZIOA/TSB EGUNEROKOA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikaltamirapaag2\Desktop\ERRONKA TSB RETURNS\0.1- PLANIFIKAZIOA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikaltamirapaag2\Documents\GitHub\ERRONKA-TSB-RETURNS\0.1- PLANIFIKAZIOA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12312"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Planifikazioa" sheetId="3" r:id="rId1"/>
@@ -944,41 +944,6 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -998,6 +963,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1028,6 +1002,32 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1528,34 +1528,34 @@
   <dimension ref="A1:Y855"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I27" sqref="B27:I27"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.44140625" style="15"/>
-    <col min="6" max="6" width="20.44140625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="31.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="15"/>
-    <col min="9" max="9" width="22.88671875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="27.6640625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14.42578125" style="15"/>
+    <col min="6" max="6" width="20.42578125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="15"/>
+    <col min="9" max="9" width="22.85546875" style="15" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="34.799999999999997" x14ac:dyDescent="0.7">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:25" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
       <c r="G1" s="16"/>
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
-      <c r="J1" s="56"/>
+      <c r="J1" s="41"/>
       <c r="K1" s="2"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1572,19 +1572,19 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="34.799999999999997" x14ac:dyDescent="1.2">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:25" ht="34.5" x14ac:dyDescent="0.95">
+      <c r="A2" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="57"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="42"/>
       <c r="K2" s="2"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1601,17 +1601,17 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="58"/>
+    <row r="3" spans="1:25" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="43"/>
       <c r="K3" s="2"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1628,7 +1628,7 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:25" ht="19.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1655,18 +1655,18 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A5" s="48" t="s">
+    <row r="5" spans="1:25" ht="29.25" thickBot="1" x14ac:dyDescent="0.85">
+      <c r="A5" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
       <c r="J5" s="6"/>
       <c r="K5" s="2"/>
       <c r="L5" s="1"/>
@@ -1684,22 +1684,22 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A6" s="74" t="s">
+    <row r="6" spans="1:25" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="77" t="s">
+      <c r="B6" s="63"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="75"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77" t="s">
+      <c r="E6" s="63"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="75"/>
-      <c r="I6" s="76"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="64"/>
       <c r="J6" s="40" t="s">
         <v>17</v>
       </c>
@@ -1719,22 +1719,22 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
+    <row r="7" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="50" t="s">
+      <c r="B7" s="73"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="50" t="s">
+      <c r="E7" s="73"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="74"/>
       <c r="J7" s="37" t="s">
         <v>21</v>
       </c>
@@ -1754,20 +1754,20 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
+    <row r="8" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="53" t="s">
+      <c r="B8" s="76"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="54"/>
-      <c r="I8" s="55"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="77"/>
       <c r="J8" s="38" t="s">
         <v>23</v>
       </c>
@@ -1787,20 +1787,20 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="41" t="s">
+    <row r="9" spans="1:25" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="41" t="s">
+      <c r="B9" s="49"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="42"/>
-      <c r="I9" s="43"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="50"/>
       <c r="J9" s="39" t="s">
         <v>25</v>
       </c>
@@ -1820,18 +1820,18 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:25" ht="20.25" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="63" t="s">
+      <c r="G10" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="64"/>
-      <c r="I10" s="65"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="53"/>
       <c r="J10" s="11"/>
       <c r="K10" s="2"/>
       <c r="L10" s="1"/>
@@ -1849,7 +1849,7 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1876,31 +1876,31 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
-      <c r="A12" s="66" t="s">
+    <row r="12" spans="1:25" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="71"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="68" t="s">
+      <c r="E12" s="59"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="73" t="s">
+      <c r="H12" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="68" t="s">
+      <c r="I12" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="61" t="s">
+      <c r="J12" s="46" t="s">
         <v>9</v>
       </c>
       <c r="K12" s="1"/>
@@ -1919,10 +1919,10 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A13" s="67"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
+    <row r="13" spans="1:25" ht="20.25" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A13" s="55"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="14" t="s">
         <v>4</v>
       </c>
@@ -1932,10 +1932,10 @@
       <c r="F13" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="62"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="47"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="1"/>
@@ -1952,7 +1952,7 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="18" t="s">
         <v>34</v>
       </c>
@@ -1989,7 +1989,7 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="18" t="s">
         <v>34</v>
       </c>
@@ -2026,7 +2026,7 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="18" t="s">
         <v>34</v>
       </c>
@@ -2063,7 +2063,7 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="18" t="s">
         <v>34</v>
       </c>
@@ -2100,7 +2100,7 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="21" t="s">
         <v>34</v>
       </c>
@@ -2137,7 +2137,7 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="21" t="s">
         <v>34</v>
       </c>
@@ -2174,7 +2174,7 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="18" t="s">
         <v>34</v>
       </c>
@@ -2211,7 +2211,7 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="22" t="s">
         <v>34</v>
       </c>
@@ -2248,7 +2248,7 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="22" t="s">
         <v>34</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>33</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J22" s="24"/>
       <c r="K22" s="2"/>
@@ -2285,7 +2285,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="21" t="s">
         <v>34</v>
       </c>
@@ -2322,7 +2322,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="18" t="s">
         <v>34</v>
       </c>
@@ -2359,7 +2359,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="22" t="s">
         <v>34</v>
       </c>
@@ -2396,7 +2396,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="21" t="s">
         <v>34</v>
       </c>
@@ -2433,7 +2433,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="18" t="s">
         <v>34</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>30</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J27" s="24"/>
       <c r="K27" s="2"/>
@@ -2470,7 +2470,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="25" t="s">
         <v>34</v>
       </c>
@@ -2507,7 +2507,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="25" t="s">
         <v>34</v>
       </c>
@@ -2544,7 +2544,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="25" t="s">
         <v>34</v>
       </c>
@@ -2581,7 +2581,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="25" t="s">
         <v>34</v>
       </c>
@@ -2618,7 +2618,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="26" t="s">
         <v>34</v>
       </c>
@@ -2655,7 +2655,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="29"/>
       <c r="B33" s="36"/>
       <c r="C33" s="31"/>
@@ -2684,7 +2684,7 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="29"/>
       <c r="B34" s="36"/>
       <c r="C34" s="31"/>
@@ -2713,7 +2713,7 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="29"/>
       <c r="B35" s="36"/>
       <c r="C35" s="31"/>
@@ -2742,7 +2742,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="29"/>
       <c r="B36" s="36"/>
       <c r="C36" s="31"/>
@@ -2771,7 +2771,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="29"/>
       <c r="B37" s="36"/>
       <c r="C37" s="31"/>
@@ -2800,7 +2800,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="29"/>
       <c r="B38" s="36"/>
       <c r="C38" s="31"/>
@@ -2829,7 +2829,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="29"/>
       <c r="B39" s="36"/>
       <c r="C39" s="31"/>
@@ -2858,7 +2858,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="29"/>
       <c r="B40" s="36"/>
       <c r="C40" s="31"/>
@@ -2887,7 +2887,7 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="29"/>
       <c r="B41" s="36"/>
       <c r="C41" s="31"/>
@@ -2916,7 +2916,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="29"/>
       <c r="B42" s="36"/>
       <c r="C42" s="31"/>
@@ -2945,7 +2945,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="29"/>
       <c r="B43" s="36"/>
       <c r="C43" s="31"/>
@@ -2974,7 +2974,7 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="29"/>
       <c r="B44" s="36"/>
       <c r="C44" s="31"/>
@@ -3003,7 +3003,7 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="29"/>
       <c r="B45" s="36"/>
       <c r="C45" s="31"/>
@@ -3032,7 +3032,7 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="29"/>
       <c r="B46" s="36"/>
       <c r="C46" s="31"/>
@@ -3061,7 +3061,7 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="29"/>
       <c r="B47" s="36"/>
       <c r="C47" s="31"/>
@@ -3090,7 +3090,7 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="29"/>
       <c r="B48" s="36"/>
       <c r="C48" s="31"/>
@@ -3119,7 +3119,7 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="29"/>
       <c r="B49" s="36"/>
       <c r="C49" s="31"/>
@@ -3148,7 +3148,7 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="29"/>
       <c r="B50" s="36"/>
       <c r="C50" s="31"/>
@@ -3177,7 +3177,7 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
     </row>
-    <row r="51" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="29"/>
       <c r="B51" s="36"/>
       <c r="C51" s="31"/>
@@ -3206,7 +3206,7 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="29"/>
       <c r="B52" s="36"/>
       <c r="C52" s="31"/>
@@ -3235,7 +3235,7 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="29"/>
       <c r="B53" s="36"/>
       <c r="C53" s="31"/>
@@ -3264,7 +3264,7 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
     </row>
-    <row r="54" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="29"/>
       <c r="B54" s="36"/>
       <c r="C54" s="31"/>
@@ -3293,7 +3293,7 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
     </row>
-    <row r="55" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="29"/>
       <c r="B55" s="36"/>
       <c r="C55" s="31"/>
@@ -3322,7 +3322,7 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
     </row>
-    <row r="56" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="29"/>
       <c r="B56" s="36"/>
       <c r="C56" s="31"/>
@@ -3351,7 +3351,7 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
     </row>
-    <row r="57" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="29"/>
       <c r="B57" s="36"/>
       <c r="C57" s="31"/>
@@ -3380,7 +3380,7 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
     </row>
-    <row r="58" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="29"/>
       <c r="B58" s="36"/>
       <c r="C58" s="31"/>
@@ -3409,7 +3409,7 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
     </row>
-    <row r="59" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="29"/>
       <c r="B59" s="36"/>
       <c r="C59" s="31"/>
@@ -3438,7 +3438,7 @@
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
     </row>
-    <row r="60" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="29"/>
       <c r="B60" s="36"/>
       <c r="C60" s="31"/>
@@ -3467,7 +3467,7 @@
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
     </row>
-    <row r="61" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="29"/>
       <c r="B61" s="36"/>
       <c r="C61" s="31"/>
@@ -3496,7 +3496,7 @@
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
     </row>
-    <row r="62" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
@@ -3523,7 +3523,7 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
     </row>
-    <row r="63" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
@@ -3550,7 +3550,7 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
     </row>
-    <row r="64" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
@@ -3577,7 +3577,7 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
     </row>
-    <row r="65" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -3604,7 +3604,7 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
     </row>
-    <row r="66" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
@@ -3631,7 +3631,7 @@
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
     </row>
-    <row r="67" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
@@ -3658,7 +3658,7 @@
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
     </row>
-    <row r="68" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
@@ -3685,7 +3685,7 @@
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
     </row>
-    <row r="69" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
@@ -3712,7 +3712,7 @@
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
     </row>
-    <row r="70" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
@@ -3739,7 +3739,7 @@
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
     </row>
-    <row r="71" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
@@ -3766,7 +3766,7 @@
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
     </row>
-    <row r="72" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
@@ -3793,7 +3793,7 @@
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
     </row>
-    <row r="73" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -3820,7 +3820,7 @@
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
     </row>
-    <row r="74" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="12"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
@@ -3847,7 +3847,7 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
     </row>
-    <row r="75" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
@@ -3874,7 +3874,7 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
     </row>
-    <row r="76" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="12"/>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
@@ -3901,7 +3901,7 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
     </row>
-    <row r="77" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
@@ -3928,7 +3928,7 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
     </row>
-    <row r="78" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="12"/>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
@@ -3955,7 +3955,7 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
     </row>
-    <row r="79" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="12"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
@@ -3982,7 +3982,7 @@
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
     </row>
-    <row r="80" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="12"/>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
@@ -4009,7 +4009,7 @@
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
     </row>
-    <row r="81" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
@@ -4036,7 +4036,7 @@
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
     </row>
-    <row r="82" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="12"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
@@ -4063,7 +4063,7 @@
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
     </row>
-    <row r="83" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="12"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
@@ -4090,7 +4090,7 @@
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
     </row>
-    <row r="84" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="12"/>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
@@ -4117,7 +4117,7 @@
       <c r="X84" s="1"/>
       <c r="Y84" s="1"/>
     </row>
-    <row r="85" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="12"/>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
@@ -4144,7 +4144,7 @@
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
     </row>
-    <row r="86" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="12"/>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
@@ -4171,7 +4171,7 @@
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
     </row>
-    <row r="87" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="12"/>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
@@ -4198,7 +4198,7 @@
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
     </row>
-    <row r="88" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="12"/>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
@@ -4225,7 +4225,7 @@
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
     </row>
-    <row r="89" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="12"/>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
@@ -4252,7 +4252,7 @@
       <c r="X89" s="1"/>
       <c r="Y89" s="1"/>
     </row>
-    <row r="90" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="12"/>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
@@ -4279,7 +4279,7 @@
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
     </row>
-    <row r="91" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
@@ -4306,7 +4306,7 @@
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
     </row>
-    <row r="92" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="12"/>
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
@@ -4333,7 +4333,7 @@
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
     </row>
-    <row r="93" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="12"/>
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
@@ -4360,7 +4360,7 @@
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
     </row>
-    <row r="94" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="12"/>
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
@@ -4387,7 +4387,7 @@
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
     </row>
-    <row r="95" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="12"/>
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
@@ -4414,7 +4414,7 @@
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
     </row>
-    <row r="96" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
@@ -4441,7 +4441,7 @@
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
     </row>
-    <row r="97" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="12"/>
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
@@ -4468,7 +4468,7 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
     </row>
-    <row r="98" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="12"/>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
@@ -4495,7 +4495,7 @@
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
     </row>
-    <row r="99" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="12"/>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
@@ -4522,7 +4522,7 @@
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
     </row>
-    <row r="100" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="12"/>
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
@@ -4549,7 +4549,7 @@
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
     </row>
-    <row r="101" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="12"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
@@ -4576,7 +4576,7 @@
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
     </row>
-    <row r="102" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="12"/>
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
@@ -4603,7 +4603,7 @@
       <c r="X102" s="1"/>
       <c r="Y102" s="1"/>
     </row>
-    <row r="103" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
@@ -4630,7 +4630,7 @@
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
     </row>
-    <row r="104" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="12"/>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
@@ -4657,7 +4657,7 @@
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
     </row>
-    <row r="105" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="12"/>
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
@@ -4684,7 +4684,7 @@
       <c r="X105" s="1"/>
       <c r="Y105" s="1"/>
     </row>
-    <row r="106" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="12"/>
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
@@ -4711,7 +4711,7 @@
       <c r="X106" s="1"/>
       <c r="Y106" s="1"/>
     </row>
-    <row r="107" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="12"/>
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
@@ -4738,7 +4738,7 @@
       <c r="X107" s="1"/>
       <c r="Y107" s="1"/>
     </row>
-    <row r="108" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
       <c r="C108" s="12"/>
@@ -4765,7 +4765,7 @@
       <c r="X108" s="1"/>
       <c r="Y108" s="1"/>
     </row>
-    <row r="109" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
       <c r="C109" s="12"/>
@@ -4792,7 +4792,7 @@
       <c r="X109" s="1"/>
       <c r="Y109" s="1"/>
     </row>
-    <row r="110" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
@@ -4819,7 +4819,7 @@
       <c r="X110" s="1"/>
       <c r="Y110" s="1"/>
     </row>
-    <row r="111" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="12"/>
       <c r="B111" s="12"/>
       <c r="C111" s="12"/>
@@ -4846,7 +4846,7 @@
       <c r="X111" s="1"/>
       <c r="Y111" s="1"/>
     </row>
-    <row r="112" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="12"/>
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
@@ -4873,7 +4873,7 @@
       <c r="X112" s="1"/>
       <c r="Y112" s="1"/>
     </row>
-    <row r="113" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -4900,7 +4900,7 @@
       <c r="X113" s="1"/>
       <c r="Y113" s="1"/>
     </row>
-    <row r="114" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -4927,7 +4927,7 @@
       <c r="X114" s="1"/>
       <c r="Y114" s="1"/>
     </row>
-    <row r="115" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -4954,7 +4954,7 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
     </row>
-    <row r="116" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -4981,7 +4981,7 @@
       <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
     </row>
-    <row r="117" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="12"/>
       <c r="B117" s="12"/>
       <c r="C117" s="12"/>
@@ -5008,7 +5008,7 @@
       <c r="X117" s="1"/>
       <c r="Y117" s="1"/>
     </row>
-    <row r="118" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="12"/>
       <c r="B118" s="12"/>
       <c r="C118" s="12"/>
@@ -5035,7 +5035,7 @@
       <c r="X118" s="1"/>
       <c r="Y118" s="1"/>
     </row>
-    <row r="119" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="12"/>
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
@@ -5062,7 +5062,7 @@
       <c r="X119" s="1"/>
       <c r="Y119" s="1"/>
     </row>
-    <row r="120" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="12"/>
       <c r="B120" s="12"/>
       <c r="C120" s="12"/>
@@ -5089,7 +5089,7 @@
       <c r="X120" s="1"/>
       <c r="Y120" s="1"/>
     </row>
-    <row r="121" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="12"/>
       <c r="B121" s="12"/>
       <c r="C121" s="12"/>
@@ -5116,7 +5116,7 @@
       <c r="X121" s="1"/>
       <c r="Y121" s="1"/>
     </row>
-    <row r="122" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="12"/>
       <c r="B122" s="12"/>
       <c r="C122" s="12"/>
@@ -5143,7 +5143,7 @@
       <c r="X122" s="1"/>
       <c r="Y122" s="1"/>
     </row>
-    <row r="123" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="12"/>
       <c r="B123" s="12"/>
       <c r="C123" s="12"/>
@@ -5170,7 +5170,7 @@
       <c r="X123" s="1"/>
       <c r="Y123" s="1"/>
     </row>
-    <row r="124" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="12"/>
       <c r="B124" s="12"/>
       <c r="C124" s="12"/>
@@ -5197,7 +5197,7 @@
       <c r="X124" s="1"/>
       <c r="Y124" s="1"/>
     </row>
-    <row r="125" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="12"/>
       <c r="B125" s="12"/>
       <c r="C125" s="12"/>
@@ -5224,7 +5224,7 @@
       <c r="X125" s="1"/>
       <c r="Y125" s="1"/>
     </row>
-    <row r="126" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="12"/>
       <c r="B126" s="12"/>
       <c r="C126" s="12"/>
@@ -5251,7 +5251,7 @@
       <c r="X126" s="1"/>
       <c r="Y126" s="1"/>
     </row>
-    <row r="127" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="12"/>
       <c r="B127" s="12"/>
       <c r="C127" s="12"/>
@@ -5278,7 +5278,7 @@
       <c r="X127" s="1"/>
       <c r="Y127" s="1"/>
     </row>
-    <row r="128" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="12"/>
       <c r="B128" s="12"/>
       <c r="C128" s="12"/>
@@ -5305,7 +5305,7 @@
       <c r="X128" s="1"/>
       <c r="Y128" s="1"/>
     </row>
-    <row r="129" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="12"/>
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
@@ -5332,7 +5332,7 @@
       <c r="X129" s="1"/>
       <c r="Y129" s="1"/>
     </row>
-    <row r="130" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="12"/>
       <c r="B130" s="12"/>
       <c r="C130" s="12"/>
@@ -5359,7 +5359,7 @@
       <c r="X130" s="1"/>
       <c r="Y130" s="1"/>
     </row>
-    <row r="131" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="12"/>
       <c r="B131" s="12"/>
       <c r="C131" s="12"/>
@@ -5386,7 +5386,7 @@
       <c r="X131" s="1"/>
       <c r="Y131" s="1"/>
     </row>
-    <row r="132" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="12"/>
       <c r="B132" s="12"/>
       <c r="C132" s="12"/>
@@ -5413,7 +5413,7 @@
       <c r="X132" s="1"/>
       <c r="Y132" s="1"/>
     </row>
-    <row r="133" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="12"/>
       <c r="B133" s="12"/>
       <c r="C133" s="12"/>
@@ -5440,7 +5440,7 @@
       <c r="X133" s="1"/>
       <c r="Y133" s="1"/>
     </row>
-    <row r="134" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="12"/>
       <c r="B134" s="12"/>
       <c r="C134" s="12"/>
@@ -5467,7 +5467,7 @@
       <c r="X134" s="1"/>
       <c r="Y134" s="1"/>
     </row>
-    <row r="135" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="12"/>
       <c r="B135" s="12"/>
       <c r="C135" s="12"/>
@@ -5494,7 +5494,7 @@
       <c r="X135" s="1"/>
       <c r="Y135" s="1"/>
     </row>
-    <row r="136" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="12"/>
       <c r="B136" s="12"/>
       <c r="C136" s="12"/>
@@ -5521,7 +5521,7 @@
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
     </row>
-    <row r="137" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="12"/>
       <c r="B137" s="12"/>
       <c r="C137" s="12"/>
@@ -5548,7 +5548,7 @@
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
     </row>
-    <row r="138" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="12"/>
       <c r="B138" s="12"/>
       <c r="C138" s="12"/>
@@ -5575,7 +5575,7 @@
       <c r="X138" s="1"/>
       <c r="Y138" s="1"/>
     </row>
-    <row r="139" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="12"/>
       <c r="B139" s="12"/>
       <c r="C139" s="12"/>
@@ -5602,7 +5602,7 @@
       <c r="X139" s="1"/>
       <c r="Y139" s="1"/>
     </row>
-    <row r="140" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="12"/>
       <c r="B140" s="12"/>
       <c r="C140" s="12"/>
@@ -5629,7 +5629,7 @@
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
     </row>
-    <row r="141" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="12"/>
       <c r="B141" s="12"/>
       <c r="C141" s="12"/>
@@ -5656,7 +5656,7 @@
       <c r="X141" s="1"/>
       <c r="Y141" s="1"/>
     </row>
-    <row r="142" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="12"/>
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
@@ -5683,7 +5683,7 @@
       <c r="X142" s="1"/>
       <c r="Y142" s="1"/>
     </row>
-    <row r="143" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="12"/>
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
@@ -5710,7 +5710,7 @@
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
     </row>
-    <row r="144" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="12"/>
       <c r="B144" s="12"/>
       <c r="C144" s="12"/>
@@ -5737,7 +5737,7 @@
       <c r="X144" s="1"/>
       <c r="Y144" s="1"/>
     </row>
-    <row r="145" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="12"/>
       <c r="B145" s="12"/>
       <c r="C145" s="12"/>
@@ -5764,7 +5764,7 @@
       <c r="X145" s="1"/>
       <c r="Y145" s="1"/>
     </row>
-    <row r="146" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="12"/>
       <c r="B146" s="12"/>
       <c r="C146" s="12"/>
@@ -5791,7 +5791,7 @@
       <c r="X146" s="1"/>
       <c r="Y146" s="1"/>
     </row>
-    <row r="147" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="12"/>
       <c r="B147" s="12"/>
       <c r="C147" s="12"/>
@@ -5818,7 +5818,7 @@
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
     </row>
-    <row r="148" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="12"/>
       <c r="B148" s="12"/>
       <c r="C148" s="12"/>
@@ -5845,7 +5845,7 @@
       <c r="X148" s="1"/>
       <c r="Y148" s="1"/>
     </row>
-    <row r="149" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="12"/>
       <c r="B149" s="12"/>
       <c r="C149" s="12"/>
@@ -5872,7 +5872,7 @@
       <c r="X149" s="1"/>
       <c r="Y149" s="1"/>
     </row>
-    <row r="150" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="12"/>
       <c r="B150" s="12"/>
       <c r="C150" s="12"/>
@@ -5899,7 +5899,7 @@
       <c r="X150" s="1"/>
       <c r="Y150" s="1"/>
     </row>
-    <row r="151" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="12"/>
       <c r="B151" s="12"/>
       <c r="C151" s="12"/>
@@ -5926,7 +5926,7 @@
       <c r="X151" s="1"/>
       <c r="Y151" s="1"/>
     </row>
-    <row r="152" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="12"/>
       <c r="B152" s="12"/>
       <c r="C152" s="12"/>
@@ -5953,7 +5953,7 @@
       <c r="X152" s="1"/>
       <c r="Y152" s="1"/>
     </row>
-    <row r="153" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="12"/>
       <c r="B153" s="12"/>
       <c r="C153" s="12"/>
@@ -5980,7 +5980,7 @@
       <c r="X153" s="1"/>
       <c r="Y153" s="1"/>
     </row>
-    <row r="154" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="12"/>
       <c r="B154" s="12"/>
       <c r="C154" s="12"/>
@@ -6007,7 +6007,7 @@
       <c r="X154" s="1"/>
       <c r="Y154" s="1"/>
     </row>
-    <row r="155" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="12"/>
       <c r="B155" s="12"/>
       <c r="C155" s="12"/>
@@ -6034,7 +6034,7 @@
       <c r="X155" s="1"/>
       <c r="Y155" s="1"/>
     </row>
-    <row r="156" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="12"/>
       <c r="B156" s="12"/>
       <c r="C156" s="12"/>
@@ -6061,7 +6061,7 @@
       <c r="X156" s="1"/>
       <c r="Y156" s="1"/>
     </row>
-    <row r="157" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="12"/>
       <c r="B157" s="12"/>
       <c r="C157" s="12"/>
@@ -6088,7 +6088,7 @@
       <c r="X157" s="1"/>
       <c r="Y157" s="1"/>
     </row>
-    <row r="158" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="12"/>
       <c r="B158" s="12"/>
       <c r="C158" s="12"/>
@@ -6115,7 +6115,7 @@
       <c r="X158" s="1"/>
       <c r="Y158" s="1"/>
     </row>
-    <row r="159" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="12"/>
       <c r="B159" s="12"/>
       <c r="C159" s="12"/>
@@ -6142,7 +6142,7 @@
       <c r="X159" s="1"/>
       <c r="Y159" s="1"/>
     </row>
-    <row r="160" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="12"/>
       <c r="B160" s="12"/>
       <c r="C160" s="12"/>
@@ -6169,7 +6169,7 @@
       <c r="X160" s="1"/>
       <c r="Y160" s="1"/>
     </row>
-    <row r="161" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="12"/>
       <c r="B161" s="12"/>
       <c r="C161" s="12"/>
@@ -6196,7 +6196,7 @@
       <c r="X161" s="1"/>
       <c r="Y161" s="1"/>
     </row>
-    <row r="162" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="12"/>
       <c r="B162" s="12"/>
       <c r="C162" s="12"/>
@@ -6223,7 +6223,7 @@
       <c r="X162" s="1"/>
       <c r="Y162" s="1"/>
     </row>
-    <row r="163" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="12"/>
       <c r="B163" s="12"/>
       <c r="C163" s="12"/>
@@ -6250,7 +6250,7 @@
       <c r="X163" s="1"/>
       <c r="Y163" s="1"/>
     </row>
-    <row r="164" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="12"/>
       <c r="B164" s="12"/>
       <c r="C164" s="12"/>
@@ -6277,7 +6277,7 @@
       <c r="X164" s="1"/>
       <c r="Y164" s="1"/>
     </row>
-    <row r="165" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="12"/>
       <c r="B165" s="12"/>
       <c r="C165" s="12"/>
@@ -6304,7 +6304,7 @@
       <c r="X165" s="1"/>
       <c r="Y165" s="1"/>
     </row>
-    <row r="166" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="12"/>
       <c r="B166" s="12"/>
       <c r="C166" s="12"/>
@@ -6331,7 +6331,7 @@
       <c r="X166" s="1"/>
       <c r="Y166" s="1"/>
     </row>
-    <row r="167" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="12"/>
       <c r="B167" s="12"/>
       <c r="C167" s="12"/>
@@ -6358,7 +6358,7 @@
       <c r="X167" s="1"/>
       <c r="Y167" s="1"/>
     </row>
-    <row r="168" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="12"/>
       <c r="B168" s="12"/>
       <c r="C168" s="12"/>
@@ -6385,7 +6385,7 @@
       <c r="X168" s="1"/>
       <c r="Y168" s="1"/>
     </row>
-    <row r="169" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="12"/>
       <c r="B169" s="12"/>
       <c r="C169" s="12"/>
@@ -6412,7 +6412,7 @@
       <c r="X169" s="1"/>
       <c r="Y169" s="1"/>
     </row>
-    <row r="170" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="12"/>
       <c r="B170" s="12"/>
       <c r="C170" s="12"/>
@@ -6439,7 +6439,7 @@
       <c r="X170" s="1"/>
       <c r="Y170" s="1"/>
     </row>
-    <row r="171" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="12"/>
       <c r="B171" s="12"/>
       <c r="C171" s="12"/>
@@ -6466,7 +6466,7 @@
       <c r="X171" s="1"/>
       <c r="Y171" s="1"/>
     </row>
-    <row r="172" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="12"/>
       <c r="B172" s="12"/>
       <c r="C172" s="12"/>
@@ -6493,7 +6493,7 @@
       <c r="X172" s="1"/>
       <c r="Y172" s="1"/>
     </row>
-    <row r="173" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="12"/>
       <c r="B173" s="12"/>
       <c r="C173" s="12"/>
@@ -6520,7 +6520,7 @@
       <c r="X173" s="1"/>
       <c r="Y173" s="1"/>
     </row>
-    <row r="174" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="12"/>
       <c r="B174" s="12"/>
       <c r="C174" s="12"/>
@@ -6547,7 +6547,7 @@
       <c r="X174" s="1"/>
       <c r="Y174" s="1"/>
     </row>
-    <row r="175" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="12"/>
       <c r="B175" s="12"/>
       <c r="C175" s="12"/>
@@ -6574,7 +6574,7 @@
       <c r="X175" s="1"/>
       <c r="Y175" s="1"/>
     </row>
-    <row r="176" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="12"/>
       <c r="B176" s="12"/>
       <c r="C176" s="12"/>
@@ -6601,7 +6601,7 @@
       <c r="X176" s="1"/>
       <c r="Y176" s="1"/>
     </row>
-    <row r="177" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="12"/>
       <c r="B177" s="12"/>
       <c r="C177" s="12"/>
@@ -6628,7 +6628,7 @@
       <c r="X177" s="1"/>
       <c r="Y177" s="1"/>
     </row>
-    <row r="178" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="12"/>
       <c r="B178" s="12"/>
       <c r="C178" s="12"/>
@@ -6655,7 +6655,7 @@
       <c r="X178" s="1"/>
       <c r="Y178" s="1"/>
     </row>
-    <row r="179" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="12"/>
       <c r="B179" s="12"/>
       <c r="C179" s="12"/>
@@ -6682,7 +6682,7 @@
       <c r="X179" s="1"/>
       <c r="Y179" s="1"/>
     </row>
-    <row r="180" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="12"/>
       <c r="B180" s="12"/>
       <c r="C180" s="12"/>
@@ -6709,7 +6709,7 @@
       <c r="X180" s="1"/>
       <c r="Y180" s="1"/>
     </row>
-    <row r="181" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="12"/>
       <c r="B181" s="12"/>
       <c r="C181" s="12"/>
@@ -6736,7 +6736,7 @@
       <c r="X181" s="1"/>
       <c r="Y181" s="1"/>
     </row>
-    <row r="182" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="12"/>
       <c r="B182" s="12"/>
       <c r="C182" s="12"/>
@@ -6763,7 +6763,7 @@
       <c r="X182" s="1"/>
       <c r="Y182" s="1"/>
     </row>
-    <row r="183" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="12"/>
       <c r="B183" s="12"/>
       <c r="C183" s="12"/>
@@ -6790,7 +6790,7 @@
       <c r="X183" s="1"/>
       <c r="Y183" s="1"/>
     </row>
-    <row r="184" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="12"/>
       <c r="B184" s="12"/>
       <c r="C184" s="12"/>
@@ -6817,7 +6817,7 @@
       <c r="X184" s="1"/>
       <c r="Y184" s="1"/>
     </row>
-    <row r="185" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="12"/>
       <c r="B185" s="12"/>
       <c r="C185" s="12"/>
@@ -6844,7 +6844,7 @@
       <c r="X185" s="1"/>
       <c r="Y185" s="1"/>
     </row>
-    <row r="186" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="12"/>
       <c r="B186" s="12"/>
       <c r="C186" s="12"/>
@@ -6871,7 +6871,7 @@
       <c r="X186" s="1"/>
       <c r="Y186" s="1"/>
     </row>
-    <row r="187" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="12"/>
       <c r="B187" s="12"/>
       <c r="C187" s="12"/>
@@ -6898,7 +6898,7 @@
       <c r="X187" s="1"/>
       <c r="Y187" s="1"/>
     </row>
-    <row r="188" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="12"/>
       <c r="B188" s="12"/>
       <c r="C188" s="12"/>
@@ -6925,7 +6925,7 @@
       <c r="X188" s="1"/>
       <c r="Y188" s="1"/>
     </row>
-    <row r="189" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="12"/>
       <c r="B189" s="12"/>
       <c r="C189" s="12"/>
@@ -6952,7 +6952,7 @@
       <c r="X189" s="1"/>
       <c r="Y189" s="1"/>
     </row>
-    <row r="190" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="12"/>
       <c r="B190" s="12"/>
       <c r="C190" s="12"/>
@@ -6979,7 +6979,7 @@
       <c r="X190" s="1"/>
       <c r="Y190" s="1"/>
     </row>
-    <row r="191" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="12"/>
       <c r="B191" s="12"/>
       <c r="C191" s="12"/>
@@ -7006,7 +7006,7 @@
       <c r="X191" s="1"/>
       <c r="Y191" s="1"/>
     </row>
-    <row r="192" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="12"/>
       <c r="B192" s="12"/>
       <c r="C192" s="12"/>
@@ -7033,7 +7033,7 @@
       <c r="X192" s="1"/>
       <c r="Y192" s="1"/>
     </row>
-    <row r="193" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="12"/>
       <c r="B193" s="12"/>
       <c r="C193" s="12"/>
@@ -7060,7 +7060,7 @@
       <c r="X193" s="1"/>
       <c r="Y193" s="1"/>
     </row>
-    <row r="194" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="12"/>
       <c r="B194" s="12"/>
       <c r="C194" s="12"/>
@@ -7087,7 +7087,7 @@
       <c r="X194" s="1"/>
       <c r="Y194" s="1"/>
     </row>
-    <row r="195" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="12"/>
       <c r="B195" s="12"/>
       <c r="C195" s="12"/>
@@ -7114,7 +7114,7 @@
       <c r="X195" s="1"/>
       <c r="Y195" s="1"/>
     </row>
-    <row r="196" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="12"/>
       <c r="B196" s="12"/>
       <c r="C196" s="12"/>
@@ -7141,7 +7141,7 @@
       <c r="X196" s="1"/>
       <c r="Y196" s="1"/>
     </row>
-    <row r="197" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="12"/>
       <c r="B197" s="12"/>
       <c r="C197" s="12"/>
@@ -7168,7 +7168,7 @@
       <c r="X197" s="1"/>
       <c r="Y197" s="1"/>
     </row>
-    <row r="198" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="12"/>
       <c r="B198" s="12"/>
       <c r="C198" s="12"/>
@@ -7195,7 +7195,7 @@
       <c r="X198" s="1"/>
       <c r="Y198" s="1"/>
     </row>
-    <row r="199" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="12"/>
       <c r="B199" s="12"/>
       <c r="C199" s="12"/>
@@ -7222,7 +7222,7 @@
       <c r="X199" s="1"/>
       <c r="Y199" s="1"/>
     </row>
-    <row r="200" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="12"/>
       <c r="B200" s="12"/>
       <c r="C200" s="12"/>
@@ -7249,7 +7249,7 @@
       <c r="X200" s="1"/>
       <c r="Y200" s="1"/>
     </row>
-    <row r="201" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="12"/>
       <c r="B201" s="12"/>
       <c r="C201" s="12"/>
@@ -7276,7 +7276,7 @@
       <c r="X201" s="1"/>
       <c r="Y201" s="1"/>
     </row>
-    <row r="202" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="12"/>
       <c r="B202" s="12"/>
       <c r="C202" s="12"/>
@@ -7303,7 +7303,7 @@
       <c r="X202" s="1"/>
       <c r="Y202" s="1"/>
     </row>
-    <row r="203" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="12"/>
       <c r="B203" s="12"/>
       <c r="C203" s="12"/>
@@ -7330,7 +7330,7 @@
       <c r="X203" s="1"/>
       <c r="Y203" s="1"/>
     </row>
-    <row r="204" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="12"/>
       <c r="B204" s="12"/>
       <c r="C204" s="12"/>
@@ -7357,7 +7357,7 @@
       <c r="X204" s="1"/>
       <c r="Y204" s="1"/>
     </row>
-    <row r="205" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="12"/>
       <c r="B205" s="12"/>
       <c r="C205" s="12"/>
@@ -7384,7 +7384,7 @@
       <c r="X205" s="1"/>
       <c r="Y205" s="1"/>
     </row>
-    <row r="206" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="12"/>
       <c r="B206" s="12"/>
       <c r="C206" s="12"/>
@@ -7411,7 +7411,7 @@
       <c r="X206" s="1"/>
       <c r="Y206" s="1"/>
     </row>
-    <row r="207" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="12"/>
       <c r="B207" s="12"/>
       <c r="C207" s="12"/>
@@ -7438,7 +7438,7 @@
       <c r="X207" s="1"/>
       <c r="Y207" s="1"/>
     </row>
-    <row r="208" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="12"/>
       <c r="B208" s="12"/>
       <c r="C208" s="12"/>
@@ -7465,7 +7465,7 @@
       <c r="X208" s="1"/>
       <c r="Y208" s="1"/>
     </row>
-    <row r="209" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="12"/>
       <c r="B209" s="12"/>
       <c r="C209" s="12"/>
@@ -7492,7 +7492,7 @@
       <c r="X209" s="1"/>
       <c r="Y209" s="1"/>
     </row>
-    <row r="210" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="12"/>
       <c r="B210" s="12"/>
       <c r="C210" s="12"/>
@@ -7519,7 +7519,7 @@
       <c r="X210" s="1"/>
       <c r="Y210" s="1"/>
     </row>
-    <row r="211" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="12"/>
       <c r="B211" s="12"/>
       <c r="C211" s="12"/>
@@ -7546,7 +7546,7 @@
       <c r="X211" s="1"/>
       <c r="Y211" s="1"/>
     </row>
-    <row r="212" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="12"/>
       <c r="B212" s="12"/>
       <c r="C212" s="12"/>
@@ -7573,7 +7573,7 @@
       <c r="X212" s="1"/>
       <c r="Y212" s="1"/>
     </row>
-    <row r="213" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="12"/>
       <c r="B213" s="12"/>
       <c r="C213" s="12"/>
@@ -7600,7 +7600,7 @@
       <c r="X213" s="1"/>
       <c r="Y213" s="1"/>
     </row>
-    <row r="214" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="12"/>
       <c r="B214" s="12"/>
       <c r="C214" s="12"/>
@@ -7627,7 +7627,7 @@
       <c r="X214" s="1"/>
       <c r="Y214" s="1"/>
     </row>
-    <row r="215" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="12"/>
       <c r="B215" s="12"/>
       <c r="C215" s="12"/>
@@ -7654,7 +7654,7 @@
       <c r="X215" s="1"/>
       <c r="Y215" s="1"/>
     </row>
-    <row r="216" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="12"/>
       <c r="B216" s="12"/>
       <c r="C216" s="12"/>
@@ -7681,7 +7681,7 @@
       <c r="X216" s="1"/>
       <c r="Y216" s="1"/>
     </row>
-    <row r="217" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="12"/>
       <c r="B217" s="12"/>
       <c r="C217" s="12"/>
@@ -7708,7 +7708,7 @@
       <c r="X217" s="1"/>
       <c r="Y217" s="1"/>
     </row>
-    <row r="218" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="12"/>
       <c r="B218" s="12"/>
       <c r="C218" s="12"/>
@@ -7735,7 +7735,7 @@
       <c r="X218" s="1"/>
       <c r="Y218" s="1"/>
     </row>
-    <row r="219" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A219" s="12"/>
       <c r="B219" s="12"/>
       <c r="C219" s="12"/>
@@ -7762,7 +7762,7 @@
       <c r="X219" s="1"/>
       <c r="Y219" s="1"/>
     </row>
-    <row r="220" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="12"/>
       <c r="B220" s="12"/>
       <c r="C220" s="12"/>
@@ -7789,7 +7789,7 @@
       <c r="X220" s="1"/>
       <c r="Y220" s="1"/>
     </row>
-    <row r="221" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="12"/>
       <c r="B221" s="12"/>
       <c r="C221" s="12"/>
@@ -7816,7 +7816,7 @@
       <c r="X221" s="1"/>
       <c r="Y221" s="1"/>
     </row>
-    <row r="222" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="12"/>
       <c r="B222" s="12"/>
       <c r="C222" s="12"/>
@@ -7843,7 +7843,7 @@
       <c r="X222" s="1"/>
       <c r="Y222" s="1"/>
     </row>
-    <row r="223" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A223" s="12"/>
       <c r="B223" s="12"/>
       <c r="C223" s="12"/>
@@ -7870,7 +7870,7 @@
       <c r="X223" s="1"/>
       <c r="Y223" s="1"/>
     </row>
-    <row r="224" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="12"/>
       <c r="B224" s="12"/>
       <c r="C224" s="12"/>
@@ -7897,7 +7897,7 @@
       <c r="X224" s="1"/>
       <c r="Y224" s="1"/>
     </row>
-    <row r="225" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="12"/>
       <c r="B225" s="12"/>
       <c r="C225" s="12"/>
@@ -7924,7 +7924,7 @@
       <c r="X225" s="1"/>
       <c r="Y225" s="1"/>
     </row>
-    <row r="226" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" s="12"/>
       <c r="B226" s="12"/>
       <c r="C226" s="12"/>
@@ -7951,7 +7951,7 @@
       <c r="X226" s="1"/>
       <c r="Y226" s="1"/>
     </row>
-    <row r="227" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="12"/>
       <c r="B227" s="12"/>
       <c r="C227" s="12"/>
@@ -7978,7 +7978,7 @@
       <c r="X227" s="1"/>
       <c r="Y227" s="1"/>
     </row>
-    <row r="228" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A228" s="12"/>
       <c r="B228" s="12"/>
       <c r="C228" s="12"/>
@@ -8005,7 +8005,7 @@
       <c r="X228" s="1"/>
       <c r="Y228" s="1"/>
     </row>
-    <row r="229" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A229" s="12"/>
       <c r="B229" s="12"/>
       <c r="C229" s="12"/>
@@ -8032,7 +8032,7 @@
       <c r="X229" s="1"/>
       <c r="Y229" s="1"/>
     </row>
-    <row r="230" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A230" s="12"/>
       <c r="B230" s="12"/>
       <c r="C230" s="12"/>
@@ -8059,7 +8059,7 @@
       <c r="X230" s="1"/>
       <c r="Y230" s="1"/>
     </row>
-    <row r="231" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A231" s="12"/>
       <c r="B231" s="12"/>
       <c r="C231" s="12"/>
@@ -8086,7 +8086,7 @@
       <c r="X231" s="1"/>
       <c r="Y231" s="1"/>
     </row>
-    <row r="232" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A232" s="12"/>
       <c r="B232" s="12"/>
       <c r="C232" s="12"/>
@@ -8113,7 +8113,7 @@
       <c r="X232" s="1"/>
       <c r="Y232" s="1"/>
     </row>
-    <row r="233" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A233" s="12"/>
       <c r="B233" s="12"/>
       <c r="C233" s="12"/>
@@ -8140,7 +8140,7 @@
       <c r="X233" s="1"/>
       <c r="Y233" s="1"/>
     </row>
-    <row r="234" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A234" s="12"/>
       <c r="B234" s="12"/>
       <c r="C234" s="12"/>
@@ -8167,7 +8167,7 @@
       <c r="X234" s="1"/>
       <c r="Y234" s="1"/>
     </row>
-    <row r="235" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A235" s="12"/>
       <c r="B235" s="12"/>
       <c r="C235" s="12"/>
@@ -8194,7 +8194,7 @@
       <c r="X235" s="1"/>
       <c r="Y235" s="1"/>
     </row>
-    <row r="236" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A236" s="12"/>
       <c r="B236" s="12"/>
       <c r="C236" s="12"/>
@@ -8221,7 +8221,7 @@
       <c r="X236" s="1"/>
       <c r="Y236" s="1"/>
     </row>
-    <row r="237" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="12"/>
       <c r="B237" s="12"/>
       <c r="C237" s="12"/>
@@ -8248,7 +8248,7 @@
       <c r="X237" s="1"/>
       <c r="Y237" s="1"/>
     </row>
-    <row r="238" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="12"/>
       <c r="B238" s="12"/>
       <c r="C238" s="12"/>
@@ -8275,7 +8275,7 @@
       <c r="X238" s="1"/>
       <c r="Y238" s="1"/>
     </row>
-    <row r="239" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="12"/>
       <c r="B239" s="12"/>
       <c r="C239" s="12"/>
@@ -8302,7 +8302,7 @@
       <c r="X239" s="1"/>
       <c r="Y239" s="1"/>
     </row>
-    <row r="240" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A240" s="12"/>
       <c r="B240" s="12"/>
       <c r="C240" s="12"/>
@@ -8329,7 +8329,7 @@
       <c r="X240" s="1"/>
       <c r="Y240" s="1"/>
     </row>
-    <row r="241" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" s="12"/>
       <c r="B241" s="12"/>
       <c r="C241" s="12"/>
@@ -8356,7 +8356,7 @@
       <c r="X241" s="1"/>
       <c r="Y241" s="1"/>
     </row>
-    <row r="242" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" s="12"/>
       <c r="B242" s="12"/>
       <c r="C242" s="12"/>
@@ -8383,7 +8383,7 @@
       <c r="X242" s="1"/>
       <c r="Y242" s="1"/>
     </row>
-    <row r="243" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A243" s="12"/>
       <c r="B243" s="12"/>
       <c r="C243" s="12"/>
@@ -8410,7 +8410,7 @@
       <c r="X243" s="1"/>
       <c r="Y243" s="1"/>
     </row>
-    <row r="244" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A244" s="12"/>
       <c r="B244" s="12"/>
       <c r="C244" s="12"/>
@@ -8437,7 +8437,7 @@
       <c r="X244" s="1"/>
       <c r="Y244" s="1"/>
     </row>
-    <row r="245" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A245" s="12"/>
       <c r="B245" s="12"/>
       <c r="C245" s="12"/>
@@ -8464,7 +8464,7 @@
       <c r="X245" s="1"/>
       <c r="Y245" s="1"/>
     </row>
-    <row r="246" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A246" s="12"/>
       <c r="B246" s="12"/>
       <c r="C246" s="12"/>
@@ -8491,7 +8491,7 @@
       <c r="X246" s="1"/>
       <c r="Y246" s="1"/>
     </row>
-    <row r="247" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" s="12"/>
       <c r="B247" s="12"/>
       <c r="C247" s="12"/>
@@ -8518,7 +8518,7 @@
       <c r="X247" s="1"/>
       <c r="Y247" s="1"/>
     </row>
-    <row r="248" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A248" s="12"/>
       <c r="B248" s="12"/>
       <c r="C248" s="12"/>
@@ -8545,7 +8545,7 @@
       <c r="X248" s="1"/>
       <c r="Y248" s="1"/>
     </row>
-    <row r="249" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" s="12"/>
       <c r="B249" s="12"/>
       <c r="C249" s="12"/>
@@ -8572,7 +8572,7 @@
       <c r="X249" s="1"/>
       <c r="Y249" s="1"/>
     </row>
-    <row r="250" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" s="12"/>
       <c r="B250" s="12"/>
       <c r="C250" s="12"/>
@@ -8599,7 +8599,7 @@
       <c r="X250" s="1"/>
       <c r="Y250" s="1"/>
     </row>
-    <row r="251" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A251" s="12"/>
       <c r="B251" s="12"/>
       <c r="C251" s="12"/>
@@ -8626,7 +8626,7 @@
       <c r="X251" s="1"/>
       <c r="Y251" s="1"/>
     </row>
-    <row r="252" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A252" s="12"/>
       <c r="B252" s="12"/>
       <c r="C252" s="12"/>
@@ -8653,7 +8653,7 @@
       <c r="X252" s="1"/>
       <c r="Y252" s="1"/>
     </row>
-    <row r="253" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" s="12"/>
       <c r="B253" s="12"/>
       <c r="C253" s="12"/>
@@ -8680,7 +8680,7 @@
       <c r="X253" s="1"/>
       <c r="Y253" s="1"/>
     </row>
-    <row r="254" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" s="12"/>
       <c r="B254" s="12"/>
       <c r="C254" s="12"/>
@@ -8707,7 +8707,7 @@
       <c r="X254" s="1"/>
       <c r="Y254" s="1"/>
     </row>
-    <row r="255" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A255" s="12"/>
       <c r="B255" s="12"/>
       <c r="C255" s="12"/>
@@ -8734,7 +8734,7 @@
       <c r="X255" s="1"/>
       <c r="Y255" s="1"/>
     </row>
-    <row r="256" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A256" s="12"/>
       <c r="B256" s="12"/>
       <c r="C256" s="12"/>
@@ -8761,7 +8761,7 @@
       <c r="X256" s="1"/>
       <c r="Y256" s="1"/>
     </row>
-    <row r="257" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" s="12"/>
       <c r="B257" s="12"/>
       <c r="C257" s="12"/>
@@ -8788,7 +8788,7 @@
       <c r="X257" s="1"/>
       <c r="Y257" s="1"/>
     </row>
-    <row r="258" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A258" s="12"/>
       <c r="B258" s="12"/>
       <c r="C258" s="12"/>
@@ -8815,7 +8815,7 @@
       <c r="X258" s="1"/>
       <c r="Y258" s="1"/>
     </row>
-    <row r="259" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A259" s="12"/>
       <c r="B259" s="12"/>
       <c r="C259" s="12"/>
@@ -8842,7 +8842,7 @@
       <c r="X259" s="1"/>
       <c r="Y259" s="1"/>
     </row>
-    <row r="260" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A260" s="12"/>
       <c r="B260" s="12"/>
       <c r="C260" s="12"/>
@@ -8869,7 +8869,7 @@
       <c r="X260" s="1"/>
       <c r="Y260" s="1"/>
     </row>
-    <row r="261" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A261" s="12"/>
       <c r="B261" s="12"/>
       <c r="C261" s="12"/>
@@ -8896,7 +8896,7 @@
       <c r="X261" s="1"/>
       <c r="Y261" s="1"/>
     </row>
-    <row r="262" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" s="12"/>
       <c r="B262" s="12"/>
       <c r="C262" s="12"/>
@@ -8923,7 +8923,7 @@
       <c r="X262" s="1"/>
       <c r="Y262" s="1"/>
     </row>
-    <row r="263" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A263" s="12"/>
       <c r="B263" s="12"/>
       <c r="C263" s="12"/>
@@ -8950,7 +8950,7 @@
       <c r="X263" s="1"/>
       <c r="Y263" s="1"/>
     </row>
-    <row r="264" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" s="12"/>
       <c r="B264" s="12"/>
       <c r="C264" s="12"/>
@@ -8977,7 +8977,7 @@
       <c r="X264" s="1"/>
       <c r="Y264" s="1"/>
     </row>
-    <row r="265" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" s="12"/>
       <c r="B265" s="12"/>
       <c r="C265" s="12"/>
@@ -9004,7 +9004,7 @@
       <c r="X265" s="1"/>
       <c r="Y265" s="1"/>
     </row>
-    <row r="266" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" s="12"/>
       <c r="B266" s="12"/>
       <c r="C266" s="12"/>
@@ -9031,7 +9031,7 @@
       <c r="X266" s="1"/>
       <c r="Y266" s="1"/>
     </row>
-    <row r="267" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A267" s="12"/>
       <c r="B267" s="12"/>
       <c r="C267" s="12"/>
@@ -9058,7 +9058,7 @@
       <c r="X267" s="1"/>
       <c r="Y267" s="1"/>
     </row>
-    <row r="268" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" s="12"/>
       <c r="B268" s="12"/>
       <c r="C268" s="12"/>
@@ -9085,7 +9085,7 @@
       <c r="X268" s="1"/>
       <c r="Y268" s="1"/>
     </row>
-    <row r="269" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A269" s="12"/>
       <c r="B269" s="12"/>
       <c r="C269" s="12"/>
@@ -9112,7 +9112,7 @@
       <c r="X269" s="1"/>
       <c r="Y269" s="1"/>
     </row>
-    <row r="270" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A270" s="12"/>
       <c r="B270" s="12"/>
       <c r="C270" s="12"/>
@@ -9139,7 +9139,7 @@
       <c r="X270" s="1"/>
       <c r="Y270" s="1"/>
     </row>
-    <row r="271" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A271" s="12"/>
       <c r="B271" s="12"/>
       <c r="C271" s="12"/>
@@ -9166,7 +9166,7 @@
       <c r="X271" s="1"/>
       <c r="Y271" s="1"/>
     </row>
-    <row r="272" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A272" s="12"/>
       <c r="B272" s="12"/>
       <c r="C272" s="12"/>
@@ -9193,7 +9193,7 @@
       <c r="X272" s="1"/>
       <c r="Y272" s="1"/>
     </row>
-    <row r="273" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="12"/>
       <c r="B273" s="12"/>
       <c r="C273" s="12"/>
@@ -9220,7 +9220,7 @@
       <c r="X273" s="1"/>
       <c r="Y273" s="1"/>
     </row>
-    <row r="274" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" s="12"/>
       <c r="B274" s="12"/>
       <c r="C274" s="12"/>
@@ -9247,7 +9247,7 @@
       <c r="X274" s="1"/>
       <c r="Y274" s="1"/>
     </row>
-    <row r="275" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" s="12"/>
       <c r="B275" s="12"/>
       <c r="C275" s="12"/>
@@ -9274,7 +9274,7 @@
       <c r="X275" s="1"/>
       <c r="Y275" s="1"/>
     </row>
-    <row r="276" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A276" s="12"/>
       <c r="B276" s="12"/>
       <c r="C276" s="12"/>
@@ -9301,7 +9301,7 @@
       <c r="X276" s="1"/>
       <c r="Y276" s="1"/>
     </row>
-    <row r="277" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A277" s="12"/>
       <c r="B277" s="12"/>
       <c r="C277" s="12"/>
@@ -9328,7 +9328,7 @@
       <c r="X277" s="1"/>
       <c r="Y277" s="1"/>
     </row>
-    <row r="278" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A278" s="12"/>
       <c r="B278" s="12"/>
       <c r="C278" s="12"/>
@@ -9355,7 +9355,7 @@
       <c r="X278" s="1"/>
       <c r="Y278" s="1"/>
     </row>
-    <row r="279" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A279" s="12"/>
       <c r="B279" s="12"/>
       <c r="C279" s="12"/>
@@ -9382,7 +9382,7 @@
       <c r="X279" s="1"/>
       <c r="Y279" s="1"/>
     </row>
-    <row r="280" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A280" s="12"/>
       <c r="B280" s="12"/>
       <c r="C280" s="12"/>
@@ -9409,7 +9409,7 @@
       <c r="X280" s="1"/>
       <c r="Y280" s="1"/>
     </row>
-    <row r="281" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A281" s="12"/>
       <c r="B281" s="12"/>
       <c r="C281" s="12"/>
@@ -9436,7 +9436,7 @@
       <c r="X281" s="1"/>
       <c r="Y281" s="1"/>
     </row>
-    <row r="282" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A282" s="12"/>
       <c r="B282" s="12"/>
       <c r="C282" s="12"/>
@@ -9463,7 +9463,7 @@
       <c r="X282" s="1"/>
       <c r="Y282" s="1"/>
     </row>
-    <row r="283" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A283" s="12"/>
       <c r="B283" s="12"/>
       <c r="C283" s="12"/>
@@ -9490,7 +9490,7 @@
       <c r="X283" s="1"/>
       <c r="Y283" s="1"/>
     </row>
-    <row r="284" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A284" s="12"/>
       <c r="B284" s="12"/>
       <c r="C284" s="12"/>
@@ -9517,7 +9517,7 @@
       <c r="X284" s="1"/>
       <c r="Y284" s="1"/>
     </row>
-    <row r="285" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A285" s="12"/>
       <c r="B285" s="12"/>
       <c r="C285" s="12"/>
@@ -9544,7 +9544,7 @@
       <c r="X285" s="1"/>
       <c r="Y285" s="1"/>
     </row>
-    <row r="286" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A286" s="12"/>
       <c r="B286" s="12"/>
       <c r="C286" s="12"/>
@@ -9571,7 +9571,7 @@
       <c r="X286" s="1"/>
       <c r="Y286" s="1"/>
     </row>
-    <row r="287" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A287" s="12"/>
       <c r="B287" s="12"/>
       <c r="C287" s="12"/>
@@ -9598,7 +9598,7 @@
       <c r="X287" s="1"/>
       <c r="Y287" s="1"/>
     </row>
-    <row r="288" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A288" s="12"/>
       <c r="B288" s="12"/>
       <c r="C288" s="12"/>
@@ -9625,7 +9625,7 @@
       <c r="X288" s="1"/>
       <c r="Y288" s="1"/>
     </row>
-    <row r="289" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A289" s="12"/>
       <c r="B289" s="12"/>
       <c r="C289" s="12"/>
@@ -9652,7 +9652,7 @@
       <c r="X289" s="1"/>
       <c r="Y289" s="1"/>
     </row>
-    <row r="290" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A290" s="12"/>
       <c r="B290" s="12"/>
       <c r="C290" s="12"/>
@@ -9679,7 +9679,7 @@
       <c r="X290" s="1"/>
       <c r="Y290" s="1"/>
     </row>
-    <row r="291" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A291" s="12"/>
       <c r="B291" s="12"/>
       <c r="C291" s="12"/>
@@ -9706,7 +9706,7 @@
       <c r="X291" s="1"/>
       <c r="Y291" s="1"/>
     </row>
-    <row r="292" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A292" s="12"/>
       <c r="B292" s="12"/>
       <c r="C292" s="12"/>
@@ -9733,7 +9733,7 @@
       <c r="X292" s="1"/>
       <c r="Y292" s="1"/>
     </row>
-    <row r="293" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A293" s="12"/>
       <c r="B293" s="12"/>
       <c r="C293" s="12"/>
@@ -9760,7 +9760,7 @@
       <c r="X293" s="1"/>
       <c r="Y293" s="1"/>
     </row>
-    <row r="294" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A294" s="12"/>
       <c r="B294" s="12"/>
       <c r="C294" s="12"/>
@@ -9787,7 +9787,7 @@
       <c r="X294" s="1"/>
       <c r="Y294" s="1"/>
     </row>
-    <row r="295" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A295" s="12"/>
       <c r="B295" s="12"/>
       <c r="C295" s="12"/>
@@ -9814,7 +9814,7 @@
       <c r="X295" s="1"/>
       <c r="Y295" s="1"/>
     </row>
-    <row r="296" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A296" s="12"/>
       <c r="B296" s="12"/>
       <c r="C296" s="12"/>
@@ -9841,7 +9841,7 @@
       <c r="X296" s="1"/>
       <c r="Y296" s="1"/>
     </row>
-    <row r="297" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A297" s="12"/>
       <c r="B297" s="12"/>
       <c r="C297" s="12"/>
@@ -9868,7 +9868,7 @@
       <c r="X297" s="1"/>
       <c r="Y297" s="1"/>
     </row>
-    <row r="298" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A298" s="12"/>
       <c r="B298" s="12"/>
       <c r="C298" s="12"/>
@@ -9895,7 +9895,7 @@
       <c r="X298" s="1"/>
       <c r="Y298" s="1"/>
     </row>
-    <row r="299" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A299" s="12"/>
       <c r="B299" s="12"/>
       <c r="C299" s="12"/>
@@ -9922,7 +9922,7 @@
       <c r="X299" s="1"/>
       <c r="Y299" s="1"/>
     </row>
-    <row r="300" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A300" s="12"/>
       <c r="B300" s="12"/>
       <c r="C300" s="12"/>
@@ -9949,7 +9949,7 @@
       <c r="X300" s="1"/>
       <c r="Y300" s="1"/>
     </row>
-    <row r="301" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A301" s="12"/>
       <c r="B301" s="12"/>
       <c r="C301" s="12"/>
@@ -9976,7 +9976,7 @@
       <c r="X301" s="1"/>
       <c r="Y301" s="1"/>
     </row>
-    <row r="302" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A302" s="12"/>
       <c r="B302" s="12"/>
       <c r="C302" s="12"/>
@@ -10003,7 +10003,7 @@
       <c r="X302" s="1"/>
       <c r="Y302" s="1"/>
     </row>
-    <row r="303" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A303" s="12"/>
       <c r="B303" s="12"/>
       <c r="C303" s="12"/>
@@ -10030,7 +10030,7 @@
       <c r="X303" s="1"/>
       <c r="Y303" s="1"/>
     </row>
-    <row r="304" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A304" s="12"/>
       <c r="B304" s="12"/>
       <c r="C304" s="12"/>
@@ -10057,7 +10057,7 @@
       <c r="X304" s="1"/>
       <c r="Y304" s="1"/>
     </row>
-    <row r="305" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A305" s="12"/>
       <c r="B305" s="12"/>
       <c r="C305" s="12"/>
@@ -10084,7 +10084,7 @@
       <c r="X305" s="1"/>
       <c r="Y305" s="1"/>
     </row>
-    <row r="306" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A306" s="12"/>
       <c r="B306" s="12"/>
       <c r="C306" s="12"/>
@@ -10111,7 +10111,7 @@
       <c r="X306" s="1"/>
       <c r="Y306" s="1"/>
     </row>
-    <row r="307" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A307" s="12"/>
       <c r="B307" s="12"/>
       <c r="C307" s="12"/>
@@ -10138,7 +10138,7 @@
       <c r="X307" s="1"/>
       <c r="Y307" s="1"/>
     </row>
-    <row r="308" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A308" s="12"/>
       <c r="B308" s="12"/>
       <c r="C308" s="12"/>
@@ -10165,7 +10165,7 @@
       <c r="X308" s="1"/>
       <c r="Y308" s="1"/>
     </row>
-    <row r="309" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A309" s="12"/>
       <c r="B309" s="12"/>
       <c r="C309" s="12"/>
@@ -10192,7 +10192,7 @@
       <c r="X309" s="1"/>
       <c r="Y309" s="1"/>
     </row>
-    <row r="310" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A310" s="12"/>
       <c r="B310" s="12"/>
       <c r="C310" s="12"/>
@@ -10219,7 +10219,7 @@
       <c r="X310" s="1"/>
       <c r="Y310" s="1"/>
     </row>
-    <row r="311" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A311" s="12"/>
       <c r="B311" s="12"/>
       <c r="C311" s="12"/>
@@ -10246,7 +10246,7 @@
       <c r="X311" s="1"/>
       <c r="Y311" s="1"/>
     </row>
-    <row r="312" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A312" s="12"/>
       <c r="B312" s="12"/>
       <c r="C312" s="12"/>
@@ -10273,7 +10273,7 @@
       <c r="X312" s="1"/>
       <c r="Y312" s="1"/>
     </row>
-    <row r="313" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A313" s="12"/>
       <c r="B313" s="12"/>
       <c r="C313" s="12"/>
@@ -10300,7 +10300,7 @@
       <c r="X313" s="1"/>
       <c r="Y313" s="1"/>
     </row>
-    <row r="314" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A314" s="12"/>
       <c r="B314" s="12"/>
       <c r="C314" s="12"/>
@@ -10327,7 +10327,7 @@
       <c r="X314" s="1"/>
       <c r="Y314" s="1"/>
     </row>
-    <row r="315" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A315" s="12"/>
       <c r="B315" s="12"/>
       <c r="C315" s="12"/>
@@ -10354,7 +10354,7 @@
       <c r="X315" s="1"/>
       <c r="Y315" s="1"/>
     </row>
-    <row r="316" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A316" s="12"/>
       <c r="B316" s="12"/>
       <c r="C316" s="12"/>
@@ -10381,7 +10381,7 @@
       <c r="X316" s="1"/>
       <c r="Y316" s="1"/>
     </row>
-    <row r="317" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A317" s="12"/>
       <c r="B317" s="12"/>
       <c r="C317" s="12"/>
@@ -10408,7 +10408,7 @@
       <c r="X317" s="1"/>
       <c r="Y317" s="1"/>
     </row>
-    <row r="318" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A318" s="12"/>
       <c r="B318" s="12"/>
       <c r="C318" s="12"/>
@@ -10435,7 +10435,7 @@
       <c r="X318" s="1"/>
       <c r="Y318" s="1"/>
     </row>
-    <row r="319" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A319" s="12"/>
       <c r="B319" s="12"/>
       <c r="C319" s="12"/>
@@ -10462,7 +10462,7 @@
       <c r="X319" s="1"/>
       <c r="Y319" s="1"/>
     </row>
-    <row r="320" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A320" s="12"/>
       <c r="B320" s="12"/>
       <c r="C320" s="12"/>
@@ -10489,7 +10489,7 @@
       <c r="X320" s="1"/>
       <c r="Y320" s="1"/>
     </row>
-    <row r="321" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A321" s="12"/>
       <c r="B321" s="12"/>
       <c r="C321" s="12"/>
@@ -10516,7 +10516,7 @@
       <c r="X321" s="1"/>
       <c r="Y321" s="1"/>
     </row>
-    <row r="322" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A322" s="12"/>
       <c r="B322" s="12"/>
       <c r="C322" s="12"/>
@@ -10543,7 +10543,7 @@
       <c r="X322" s="1"/>
       <c r="Y322" s="1"/>
     </row>
-    <row r="323" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A323" s="12"/>
       <c r="B323" s="12"/>
       <c r="C323" s="12"/>
@@ -10570,7 +10570,7 @@
       <c r="X323" s="1"/>
       <c r="Y323" s="1"/>
     </row>
-    <row r="324" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A324" s="12"/>
       <c r="B324" s="12"/>
       <c r="C324" s="12"/>
@@ -10597,7 +10597,7 @@
       <c r="X324" s="1"/>
       <c r="Y324" s="1"/>
     </row>
-    <row r="325" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A325" s="12"/>
       <c r="B325" s="12"/>
       <c r="C325" s="12"/>
@@ -10624,7 +10624,7 @@
       <c r="X325" s="1"/>
       <c r="Y325" s="1"/>
     </row>
-    <row r="326" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A326" s="12"/>
       <c r="B326" s="12"/>
       <c r="C326" s="12"/>
@@ -10651,7 +10651,7 @@
       <c r="X326" s="1"/>
       <c r="Y326" s="1"/>
     </row>
-    <row r="327" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A327" s="12"/>
       <c r="B327" s="12"/>
       <c r="C327" s="12"/>
@@ -10678,7 +10678,7 @@
       <c r="X327" s="1"/>
       <c r="Y327" s="1"/>
     </row>
-    <row r="328" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A328" s="12"/>
       <c r="B328" s="12"/>
       <c r="C328" s="12"/>
@@ -10705,7 +10705,7 @@
       <c r="X328" s="1"/>
       <c r="Y328" s="1"/>
     </row>
-    <row r="329" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A329" s="12"/>
       <c r="B329" s="12"/>
       <c r="C329" s="12"/>
@@ -10732,7 +10732,7 @@
       <c r="X329" s="1"/>
       <c r="Y329" s="1"/>
     </row>
-    <row r="330" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A330" s="12"/>
       <c r="B330" s="12"/>
       <c r="C330" s="12"/>
@@ -10759,7 +10759,7 @@
       <c r="X330" s="1"/>
       <c r="Y330" s="1"/>
     </row>
-    <row r="331" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A331" s="12"/>
       <c r="B331" s="12"/>
       <c r="C331" s="12"/>
@@ -10786,7 +10786,7 @@
       <c r="X331" s="1"/>
       <c r="Y331" s="1"/>
     </row>
-    <row r="332" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A332" s="12"/>
       <c r="B332" s="12"/>
       <c r="C332" s="12"/>
@@ -10813,7 +10813,7 @@
       <c r="X332" s="1"/>
       <c r="Y332" s="1"/>
     </row>
-    <row r="333" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A333" s="12"/>
       <c r="B333" s="12"/>
       <c r="C333" s="12"/>
@@ -10840,7 +10840,7 @@
       <c r="X333" s="1"/>
       <c r="Y333" s="1"/>
     </row>
-    <row r="334" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A334" s="12"/>
       <c r="B334" s="12"/>
       <c r="C334" s="12"/>
@@ -10867,7 +10867,7 @@
       <c r="X334" s="1"/>
       <c r="Y334" s="1"/>
     </row>
-    <row r="335" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A335" s="12"/>
       <c r="B335" s="12"/>
       <c r="C335" s="12"/>
@@ -10894,7 +10894,7 @@
       <c r="X335" s="1"/>
       <c r="Y335" s="1"/>
     </row>
-    <row r="336" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A336" s="12"/>
       <c r="B336" s="12"/>
       <c r="C336" s="12"/>
@@ -10921,7 +10921,7 @@
       <c r="X336" s="1"/>
       <c r="Y336" s="1"/>
     </row>
-    <row r="337" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A337" s="12"/>
       <c r="B337" s="12"/>
       <c r="C337" s="12"/>
@@ -10948,7 +10948,7 @@
       <c r="X337" s="1"/>
       <c r="Y337" s="1"/>
     </row>
-    <row r="338" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A338" s="12"/>
       <c r="B338" s="12"/>
       <c r="C338" s="12"/>
@@ -10975,7 +10975,7 @@
       <c r="X338" s="1"/>
       <c r="Y338" s="1"/>
     </row>
-    <row r="339" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A339" s="12"/>
       <c r="B339" s="12"/>
       <c r="C339" s="12"/>
@@ -11002,7 +11002,7 @@
       <c r="X339" s="1"/>
       <c r="Y339" s="1"/>
     </row>
-    <row r="340" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A340" s="12"/>
       <c r="B340" s="12"/>
       <c r="C340" s="12"/>
@@ -11029,7 +11029,7 @@
       <c r="X340" s="1"/>
       <c r="Y340" s="1"/>
     </row>
-    <row r="341" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A341" s="12"/>
       <c r="B341" s="12"/>
       <c r="C341" s="12"/>
@@ -11056,7 +11056,7 @@
       <c r="X341" s="1"/>
       <c r="Y341" s="1"/>
     </row>
-    <row r="342" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A342" s="12"/>
       <c r="B342" s="12"/>
       <c r="C342" s="12"/>
@@ -11083,7 +11083,7 @@
       <c r="X342" s="1"/>
       <c r="Y342" s="1"/>
     </row>
-    <row r="343" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A343" s="12"/>
       <c r="B343" s="12"/>
       <c r="C343" s="12"/>
@@ -11110,7 +11110,7 @@
       <c r="X343" s="1"/>
       <c r="Y343" s="1"/>
     </row>
-    <row r="344" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A344" s="12"/>
       <c r="B344" s="12"/>
       <c r="C344" s="12"/>
@@ -11137,7 +11137,7 @@
       <c r="X344" s="1"/>
       <c r="Y344" s="1"/>
     </row>
-    <row r="345" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A345" s="12"/>
       <c r="B345" s="12"/>
       <c r="C345" s="12"/>
@@ -11164,7 +11164,7 @@
       <c r="X345" s="1"/>
       <c r="Y345" s="1"/>
     </row>
-    <row r="346" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A346" s="12"/>
       <c r="B346" s="12"/>
       <c r="C346" s="12"/>
@@ -11191,7 +11191,7 @@
       <c r="X346" s="1"/>
       <c r="Y346" s="1"/>
     </row>
-    <row r="347" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A347" s="12"/>
       <c r="B347" s="12"/>
       <c r="C347" s="12"/>
@@ -11218,7 +11218,7 @@
       <c r="X347" s="1"/>
       <c r="Y347" s="1"/>
     </row>
-    <row r="348" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A348" s="12"/>
       <c r="B348" s="12"/>
       <c r="C348" s="12"/>
@@ -11245,7 +11245,7 @@
       <c r="X348" s="1"/>
       <c r="Y348" s="1"/>
     </row>
-    <row r="349" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A349" s="12"/>
       <c r="B349" s="12"/>
       <c r="C349" s="12"/>
@@ -11272,7 +11272,7 @@
       <c r="X349" s="1"/>
       <c r="Y349" s="1"/>
     </row>
-    <row r="350" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A350" s="12"/>
       <c r="B350" s="12"/>
       <c r="C350" s="12"/>
@@ -11299,7 +11299,7 @@
       <c r="X350" s="1"/>
       <c r="Y350" s="1"/>
     </row>
-    <row r="351" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A351" s="12"/>
       <c r="B351" s="12"/>
       <c r="C351" s="12"/>
@@ -11326,7 +11326,7 @@
       <c r="X351" s="1"/>
       <c r="Y351" s="1"/>
     </row>
-    <row r="352" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A352" s="12"/>
       <c r="B352" s="12"/>
       <c r="C352" s="12"/>
@@ -11353,7 +11353,7 @@
       <c r="X352" s="1"/>
       <c r="Y352" s="1"/>
     </row>
-    <row r="353" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A353" s="12"/>
       <c r="B353" s="12"/>
       <c r="C353" s="12"/>
@@ -11380,7 +11380,7 @@
       <c r="X353" s="1"/>
       <c r="Y353" s="1"/>
     </row>
-    <row r="354" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A354" s="12"/>
       <c r="B354" s="12"/>
       <c r="C354" s="12"/>
@@ -11407,7 +11407,7 @@
       <c r="X354" s="1"/>
       <c r="Y354" s="1"/>
     </row>
-    <row r="355" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A355" s="12"/>
       <c r="B355" s="12"/>
       <c r="C355" s="12"/>
@@ -11434,7 +11434,7 @@
       <c r="X355" s="1"/>
       <c r="Y355" s="1"/>
     </row>
-    <row r="356" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A356" s="12"/>
       <c r="B356" s="12"/>
       <c r="C356" s="12"/>
@@ -11461,7 +11461,7 @@
       <c r="X356" s="1"/>
       <c r="Y356" s="1"/>
     </row>
-    <row r="357" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A357" s="12"/>
       <c r="B357" s="12"/>
       <c r="C357" s="12"/>
@@ -11488,7 +11488,7 @@
       <c r="X357" s="1"/>
       <c r="Y357" s="1"/>
     </row>
-    <row r="358" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A358" s="12"/>
       <c r="B358" s="12"/>
       <c r="C358" s="12"/>
@@ -11515,7 +11515,7 @@
       <c r="X358" s="1"/>
       <c r="Y358" s="1"/>
     </row>
-    <row r="359" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A359" s="12"/>
       <c r="B359" s="12"/>
       <c r="C359" s="12"/>
@@ -11542,7 +11542,7 @@
       <c r="X359" s="1"/>
       <c r="Y359" s="1"/>
     </row>
-    <row r="360" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A360" s="12"/>
       <c r="B360" s="12"/>
       <c r="C360" s="12"/>
@@ -11569,7 +11569,7 @@
       <c r="X360" s="1"/>
       <c r="Y360" s="1"/>
     </row>
-    <row r="361" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A361" s="12"/>
       <c r="B361" s="12"/>
       <c r="C361" s="12"/>
@@ -11596,7 +11596,7 @@
       <c r="X361" s="1"/>
       <c r="Y361" s="1"/>
     </row>
-    <row r="362" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A362" s="12"/>
       <c r="B362" s="12"/>
       <c r="C362" s="12"/>
@@ -11623,7 +11623,7 @@
       <c r="X362" s="1"/>
       <c r="Y362" s="1"/>
     </row>
-    <row r="363" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A363" s="12"/>
       <c r="B363" s="12"/>
       <c r="C363" s="12"/>
@@ -11650,7 +11650,7 @@
       <c r="X363" s="1"/>
       <c r="Y363" s="1"/>
     </row>
-    <row r="364" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A364" s="12"/>
       <c r="B364" s="12"/>
       <c r="C364" s="12"/>
@@ -11677,7 +11677,7 @@
       <c r="X364" s="1"/>
       <c r="Y364" s="1"/>
     </row>
-    <row r="365" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A365" s="12"/>
       <c r="B365" s="12"/>
       <c r="C365" s="12"/>
@@ -11704,7 +11704,7 @@
       <c r="X365" s="1"/>
       <c r="Y365" s="1"/>
     </row>
-    <row r="366" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A366" s="12"/>
       <c r="B366" s="12"/>
       <c r="C366" s="12"/>
@@ -11731,7 +11731,7 @@
       <c r="X366" s="1"/>
       <c r="Y366" s="1"/>
     </row>
-    <row r="367" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A367" s="12"/>
       <c r="B367" s="12"/>
       <c r="C367" s="12"/>
@@ -11758,7 +11758,7 @@
       <c r="X367" s="1"/>
       <c r="Y367" s="1"/>
     </row>
-    <row r="368" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A368" s="12"/>
       <c r="B368" s="12"/>
       <c r="C368" s="12"/>
@@ -11785,7 +11785,7 @@
       <c r="X368" s="1"/>
       <c r="Y368" s="1"/>
     </row>
-    <row r="369" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A369" s="12"/>
       <c r="B369" s="12"/>
       <c r="C369" s="12"/>
@@ -11812,7 +11812,7 @@
       <c r="X369" s="1"/>
       <c r="Y369" s="1"/>
     </row>
-    <row r="370" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A370" s="12"/>
       <c r="B370" s="12"/>
       <c r="C370" s="12"/>
@@ -11839,7 +11839,7 @@
       <c r="X370" s="1"/>
       <c r="Y370" s="1"/>
     </row>
-    <row r="371" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A371" s="12"/>
       <c r="B371" s="12"/>
       <c r="C371" s="12"/>
@@ -11866,7 +11866,7 @@
       <c r="X371" s="1"/>
       <c r="Y371" s="1"/>
     </row>
-    <row r="372" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A372" s="12"/>
       <c r="B372" s="12"/>
       <c r="C372" s="12"/>
@@ -11893,7 +11893,7 @@
       <c r="X372" s="1"/>
       <c r="Y372" s="1"/>
     </row>
-    <row r="373" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A373" s="12"/>
       <c r="B373" s="12"/>
       <c r="C373" s="12"/>
@@ -11920,7 +11920,7 @@
       <c r="X373" s="1"/>
       <c r="Y373" s="1"/>
     </row>
-    <row r="374" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A374" s="12"/>
       <c r="B374" s="12"/>
       <c r="C374" s="12"/>
@@ -11947,7 +11947,7 @@
       <c r="X374" s="1"/>
       <c r="Y374" s="1"/>
     </row>
-    <row r="375" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A375" s="12"/>
       <c r="B375" s="12"/>
       <c r="C375" s="12"/>
@@ -11974,7 +11974,7 @@
       <c r="X375" s="1"/>
       <c r="Y375" s="1"/>
     </row>
-    <row r="376" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A376" s="12"/>
       <c r="B376" s="12"/>
       <c r="C376" s="12"/>
@@ -12001,7 +12001,7 @@
       <c r="X376" s="1"/>
       <c r="Y376" s="1"/>
     </row>
-    <row r="377" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A377" s="12"/>
       <c r="B377" s="12"/>
       <c r="C377" s="12"/>
@@ -12028,7 +12028,7 @@
       <c r="X377" s="1"/>
       <c r="Y377" s="1"/>
     </row>
-    <row r="378" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A378" s="12"/>
       <c r="B378" s="12"/>
       <c r="C378" s="12"/>
@@ -12055,7 +12055,7 @@
       <c r="X378" s="1"/>
       <c r="Y378" s="1"/>
     </row>
-    <row r="379" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A379" s="12"/>
       <c r="B379" s="12"/>
       <c r="C379" s="12"/>
@@ -12082,7 +12082,7 @@
       <c r="X379" s="1"/>
       <c r="Y379" s="1"/>
     </row>
-    <row r="380" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A380" s="12"/>
       <c r="B380" s="12"/>
       <c r="C380" s="12"/>
@@ -12109,7 +12109,7 @@
       <c r="X380" s="1"/>
       <c r="Y380" s="1"/>
     </row>
-    <row r="381" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A381" s="12"/>
       <c r="B381" s="12"/>
       <c r="C381" s="12"/>
@@ -12136,7 +12136,7 @@
       <c r="X381" s="1"/>
       <c r="Y381" s="1"/>
     </row>
-    <row r="382" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A382" s="12"/>
       <c r="B382" s="12"/>
       <c r="C382" s="12"/>
@@ -12163,7 +12163,7 @@
       <c r="X382" s="1"/>
       <c r="Y382" s="1"/>
     </row>
-    <row r="383" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A383" s="12"/>
       <c r="B383" s="12"/>
       <c r="C383" s="12"/>
@@ -12190,7 +12190,7 @@
       <c r="X383" s="1"/>
       <c r="Y383" s="1"/>
     </row>
-    <row r="384" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A384" s="12"/>
       <c r="B384" s="12"/>
       <c r="C384" s="12"/>
@@ -12217,7 +12217,7 @@
       <c r="X384" s="1"/>
       <c r="Y384" s="1"/>
     </row>
-    <row r="385" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A385" s="12"/>
       <c r="B385" s="12"/>
       <c r="C385" s="12"/>
@@ -12244,7 +12244,7 @@
       <c r="X385" s="1"/>
       <c r="Y385" s="1"/>
     </row>
-    <row r="386" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A386" s="12"/>
       <c r="B386" s="12"/>
       <c r="C386" s="12"/>
@@ -12271,7 +12271,7 @@
       <c r="X386" s="1"/>
       <c r="Y386" s="1"/>
     </row>
-    <row r="387" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A387" s="12"/>
       <c r="B387" s="12"/>
       <c r="C387" s="12"/>
@@ -12298,7 +12298,7 @@
       <c r="X387" s="1"/>
       <c r="Y387" s="1"/>
     </row>
-    <row r="388" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A388" s="12"/>
       <c r="B388" s="12"/>
       <c r="C388" s="12"/>
@@ -12325,7 +12325,7 @@
       <c r="X388" s="1"/>
       <c r="Y388" s="1"/>
     </row>
-    <row r="389" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A389" s="12"/>
       <c r="B389" s="12"/>
       <c r="C389" s="12"/>
@@ -12352,7 +12352,7 @@
       <c r="X389" s="1"/>
       <c r="Y389" s="1"/>
     </row>
-    <row r="390" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A390" s="12"/>
       <c r="B390" s="12"/>
       <c r="C390" s="12"/>
@@ -12379,7 +12379,7 @@
       <c r="X390" s="1"/>
       <c r="Y390" s="1"/>
     </row>
-    <row r="391" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A391" s="12"/>
       <c r="B391" s="12"/>
       <c r="C391" s="12"/>
@@ -12406,7 +12406,7 @@
       <c r="X391" s="1"/>
       <c r="Y391" s="1"/>
     </row>
-    <row r="392" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A392" s="12"/>
       <c r="B392" s="12"/>
       <c r="C392" s="12"/>
@@ -12433,7 +12433,7 @@
       <c r="X392" s="1"/>
       <c r="Y392" s="1"/>
     </row>
-    <row r="393" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A393" s="12"/>
       <c r="B393" s="12"/>
       <c r="C393" s="12"/>
@@ -12460,7 +12460,7 @@
       <c r="X393" s="1"/>
       <c r="Y393" s="1"/>
     </row>
-    <row r="394" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A394" s="12"/>
       <c r="B394" s="12"/>
       <c r="C394" s="12"/>
@@ -12487,7 +12487,7 @@
       <c r="X394" s="1"/>
       <c r="Y394" s="1"/>
     </row>
-    <row r="395" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A395" s="12"/>
       <c r="B395" s="12"/>
       <c r="C395" s="12"/>
@@ -12514,7 +12514,7 @@
       <c r="X395" s="1"/>
       <c r="Y395" s="1"/>
     </row>
-    <row r="396" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A396" s="12"/>
       <c r="B396" s="12"/>
       <c r="C396" s="12"/>
@@ -12541,7 +12541,7 @@
       <c r="X396" s="1"/>
       <c r="Y396" s="1"/>
     </row>
-    <row r="397" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A397" s="12"/>
       <c r="B397" s="12"/>
       <c r="C397" s="12"/>
@@ -12568,7 +12568,7 @@
       <c r="X397" s="1"/>
       <c r="Y397" s="1"/>
     </row>
-    <row r="398" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A398" s="12"/>
       <c r="B398" s="12"/>
       <c r="C398" s="12"/>
@@ -12595,7 +12595,7 @@
       <c r="X398" s="1"/>
       <c r="Y398" s="1"/>
     </row>
-    <row r="399" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A399" s="12"/>
       <c r="B399" s="12"/>
       <c r="C399" s="12"/>
@@ -12622,7 +12622,7 @@
       <c r="X399" s="1"/>
       <c r="Y399" s="1"/>
     </row>
-    <row r="400" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A400" s="12"/>
       <c r="B400" s="12"/>
       <c r="C400" s="12"/>
@@ -12649,7 +12649,7 @@
       <c r="X400" s="1"/>
       <c r="Y400" s="1"/>
     </row>
-    <row r="401" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A401" s="12"/>
       <c r="B401" s="12"/>
       <c r="C401" s="12"/>
@@ -12676,7 +12676,7 @@
       <c r="X401" s="1"/>
       <c r="Y401" s="1"/>
     </row>
-    <row r="402" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A402" s="12"/>
       <c r="B402" s="12"/>
       <c r="C402" s="12"/>
@@ -12703,7 +12703,7 @@
       <c r="X402" s="1"/>
       <c r="Y402" s="1"/>
     </row>
-    <row r="403" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A403" s="12"/>
       <c r="B403" s="12"/>
       <c r="C403" s="12"/>
@@ -12730,7 +12730,7 @@
       <c r="X403" s="1"/>
       <c r="Y403" s="1"/>
     </row>
-    <row r="404" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A404" s="12"/>
       <c r="B404" s="12"/>
       <c r="C404" s="12"/>
@@ -12757,7 +12757,7 @@
       <c r="X404" s="1"/>
       <c r="Y404" s="1"/>
     </row>
-    <row r="405" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A405" s="12"/>
       <c r="B405" s="12"/>
       <c r="C405" s="12"/>
@@ -12784,7 +12784,7 @@
       <c r="X405" s="1"/>
       <c r="Y405" s="1"/>
     </row>
-    <row r="406" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A406" s="12"/>
       <c r="B406" s="12"/>
       <c r="C406" s="12"/>
@@ -12811,7 +12811,7 @@
       <c r="X406" s="1"/>
       <c r="Y406" s="1"/>
     </row>
-    <row r="407" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A407" s="12"/>
       <c r="B407" s="12"/>
       <c r="C407" s="12"/>
@@ -12838,7 +12838,7 @@
       <c r="X407" s="1"/>
       <c r="Y407" s="1"/>
     </row>
-    <row r="408" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A408" s="12"/>
       <c r="B408" s="12"/>
       <c r="C408" s="12"/>
@@ -12865,7 +12865,7 @@
       <c r="X408" s="1"/>
       <c r="Y408" s="1"/>
     </row>
-    <row r="409" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A409" s="12"/>
       <c r="B409" s="12"/>
       <c r="C409" s="12"/>
@@ -12892,7 +12892,7 @@
       <c r="X409" s="1"/>
       <c r="Y409" s="1"/>
     </row>
-    <row r="410" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A410" s="12"/>
       <c r="B410" s="12"/>
       <c r="C410" s="12"/>
@@ -12919,7 +12919,7 @@
       <c r="X410" s="1"/>
       <c r="Y410" s="1"/>
     </row>
-    <row r="411" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A411" s="12"/>
       <c r="B411" s="12"/>
       <c r="C411" s="12"/>
@@ -12946,7 +12946,7 @@
       <c r="X411" s="1"/>
       <c r="Y411" s="1"/>
     </row>
-    <row r="412" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A412" s="12"/>
       <c r="B412" s="12"/>
       <c r="C412" s="12"/>
@@ -12973,7 +12973,7 @@
       <c r="X412" s="1"/>
       <c r="Y412" s="1"/>
     </row>
-    <row r="413" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A413" s="12"/>
       <c r="B413" s="12"/>
       <c r="C413" s="12"/>
@@ -13000,7 +13000,7 @@
       <c r="X413" s="1"/>
       <c r="Y413" s="1"/>
     </row>
-    <row r="414" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A414" s="12"/>
       <c r="B414" s="12"/>
       <c r="C414" s="12"/>
@@ -13027,7 +13027,7 @@
       <c r="X414" s="1"/>
       <c r="Y414" s="1"/>
     </row>
-    <row r="415" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A415" s="12"/>
       <c r="B415" s="12"/>
       <c r="C415" s="12"/>
@@ -13054,7 +13054,7 @@
       <c r="X415" s="1"/>
       <c r="Y415" s="1"/>
     </row>
-    <row r="416" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A416" s="12"/>
       <c r="B416" s="12"/>
       <c r="C416" s="12"/>
@@ -13081,7 +13081,7 @@
       <c r="X416" s="1"/>
       <c r="Y416" s="1"/>
     </row>
-    <row r="417" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A417" s="12"/>
       <c r="B417" s="12"/>
       <c r="C417" s="12"/>
@@ -13108,7 +13108,7 @@
       <c r="X417" s="1"/>
       <c r="Y417" s="1"/>
     </row>
-    <row r="418" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A418" s="12"/>
       <c r="B418" s="12"/>
       <c r="C418" s="12"/>
@@ -13135,7 +13135,7 @@
       <c r="X418" s="1"/>
       <c r="Y418" s="1"/>
     </row>
-    <row r="419" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A419" s="12"/>
       <c r="B419" s="12"/>
       <c r="C419" s="12"/>
@@ -13162,7 +13162,7 @@
       <c r="X419" s="1"/>
       <c r="Y419" s="1"/>
     </row>
-    <row r="420" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A420" s="12"/>
       <c r="B420" s="12"/>
       <c r="C420" s="12"/>
@@ -13189,7 +13189,7 @@
       <c r="X420" s="1"/>
       <c r="Y420" s="1"/>
     </row>
-    <row r="421" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A421" s="12"/>
       <c r="B421" s="12"/>
       <c r="C421" s="12"/>
@@ -13216,7 +13216,7 @@
       <c r="X421" s="1"/>
       <c r="Y421" s="1"/>
     </row>
-    <row r="422" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A422" s="12"/>
       <c r="B422" s="12"/>
       <c r="C422" s="12"/>
@@ -13243,7 +13243,7 @@
       <c r="X422" s="1"/>
       <c r="Y422" s="1"/>
     </row>
-    <row r="423" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A423" s="12"/>
       <c r="B423" s="12"/>
       <c r="C423" s="12"/>
@@ -13270,7 +13270,7 @@
       <c r="X423" s="1"/>
       <c r="Y423" s="1"/>
     </row>
-    <row r="424" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A424" s="12"/>
       <c r="B424" s="12"/>
       <c r="C424" s="12"/>
@@ -13297,7 +13297,7 @@
       <c r="X424" s="1"/>
       <c r="Y424" s="1"/>
     </row>
-    <row r="425" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A425" s="12"/>
       <c r="B425" s="12"/>
       <c r="C425" s="12"/>
@@ -13324,7 +13324,7 @@
       <c r="X425" s="1"/>
       <c r="Y425" s="1"/>
     </row>
-    <row r="426" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A426" s="12"/>
       <c r="B426" s="12"/>
       <c r="C426" s="12"/>
@@ -13351,7 +13351,7 @@
       <c r="X426" s="1"/>
       <c r="Y426" s="1"/>
     </row>
-    <row r="427" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A427" s="12"/>
       <c r="B427" s="12"/>
       <c r="C427" s="12"/>
@@ -13378,7 +13378,7 @@
       <c r="X427" s="1"/>
       <c r="Y427" s="1"/>
     </row>
-    <row r="428" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A428" s="12"/>
       <c r="B428" s="12"/>
       <c r="C428" s="12"/>
@@ -13405,7 +13405,7 @@
       <c r="X428" s="1"/>
       <c r="Y428" s="1"/>
     </row>
-    <row r="429" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A429" s="12"/>
       <c r="B429" s="12"/>
       <c r="C429" s="12"/>
@@ -13432,7 +13432,7 @@
       <c r="X429" s="1"/>
       <c r="Y429" s="1"/>
     </row>
-    <row r="430" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A430" s="12"/>
       <c r="B430" s="12"/>
       <c r="C430" s="12"/>
@@ -13459,7 +13459,7 @@
       <c r="X430" s="1"/>
       <c r="Y430" s="1"/>
     </row>
-    <row r="431" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A431" s="12"/>
       <c r="B431" s="12"/>
       <c r="C431" s="12"/>
@@ -13486,7 +13486,7 @@
       <c r="X431" s="1"/>
       <c r="Y431" s="1"/>
     </row>
-    <row r="432" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A432" s="12"/>
       <c r="B432" s="12"/>
       <c r="C432" s="12"/>
@@ -13513,7 +13513,7 @@
       <c r="X432" s="1"/>
       <c r="Y432" s="1"/>
     </row>
-    <row r="433" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A433" s="12"/>
       <c r="B433" s="12"/>
       <c r="C433" s="12"/>
@@ -13540,7 +13540,7 @@
       <c r="X433" s="1"/>
       <c r="Y433" s="1"/>
     </row>
-    <row r="434" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A434" s="12"/>
       <c r="B434" s="12"/>
       <c r="C434" s="12"/>
@@ -13567,7 +13567,7 @@
       <c r="X434" s="1"/>
       <c r="Y434" s="1"/>
     </row>
-    <row r="435" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A435" s="12"/>
       <c r="B435" s="12"/>
       <c r="C435" s="12"/>
@@ -13594,7 +13594,7 @@
       <c r="X435" s="1"/>
       <c r="Y435" s="1"/>
     </row>
-    <row r="436" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A436" s="12"/>
       <c r="B436" s="12"/>
       <c r="C436" s="12"/>
@@ -13621,7 +13621,7 @@
       <c r="X436" s="1"/>
       <c r="Y436" s="1"/>
     </row>
-    <row r="437" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A437" s="12"/>
       <c r="B437" s="12"/>
       <c r="C437" s="12"/>
@@ -13648,7 +13648,7 @@
       <c r="X437" s="1"/>
       <c r="Y437" s="1"/>
     </row>
-    <row r="438" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A438" s="12"/>
       <c r="B438" s="12"/>
       <c r="C438" s="12"/>
@@ -13675,7 +13675,7 @@
       <c r="X438" s="1"/>
       <c r="Y438" s="1"/>
     </row>
-    <row r="439" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A439" s="12"/>
       <c r="B439" s="12"/>
       <c r="C439" s="12"/>
@@ -13702,7 +13702,7 @@
       <c r="X439" s="1"/>
       <c r="Y439" s="1"/>
     </row>
-    <row r="440" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A440" s="12"/>
       <c r="B440" s="12"/>
       <c r="C440" s="12"/>
@@ -13729,7 +13729,7 @@
       <c r="X440" s="1"/>
       <c r="Y440" s="1"/>
     </row>
-    <row r="441" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A441" s="12"/>
       <c r="B441" s="12"/>
       <c r="C441" s="12"/>
@@ -13756,7 +13756,7 @@
       <c r="X441" s="1"/>
       <c r="Y441" s="1"/>
     </row>
-    <row r="442" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A442" s="12"/>
       <c r="B442" s="12"/>
       <c r="C442" s="12"/>
@@ -13783,7 +13783,7 @@
       <c r="X442" s="1"/>
       <c r="Y442" s="1"/>
     </row>
-    <row r="443" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A443" s="12"/>
       <c r="B443" s="12"/>
       <c r="C443" s="12"/>
@@ -13810,7 +13810,7 @@
       <c r="X443" s="1"/>
       <c r="Y443" s="1"/>
     </row>
-    <row r="444" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A444" s="12"/>
       <c r="B444" s="12"/>
       <c r="C444" s="12"/>
@@ -13837,7 +13837,7 @@
       <c r="X444" s="1"/>
       <c r="Y444" s="1"/>
     </row>
-    <row r="445" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A445" s="12"/>
       <c r="B445" s="12"/>
       <c r="C445" s="12"/>
@@ -13864,7 +13864,7 @@
       <c r="X445" s="1"/>
       <c r="Y445" s="1"/>
     </row>
-    <row r="446" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A446" s="12"/>
       <c r="B446" s="12"/>
       <c r="C446" s="12"/>
@@ -13891,7 +13891,7 @@
       <c r="X446" s="1"/>
       <c r="Y446" s="1"/>
     </row>
-    <row r="447" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A447" s="12"/>
       <c r="B447" s="12"/>
       <c r="C447" s="12"/>
@@ -13918,7 +13918,7 @@
       <c r="X447" s="1"/>
       <c r="Y447" s="1"/>
     </row>
-    <row r="448" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A448" s="12"/>
       <c r="B448" s="12"/>
       <c r="C448" s="12"/>
@@ -13945,7 +13945,7 @@
       <c r="X448" s="1"/>
       <c r="Y448" s="1"/>
     </row>
-    <row r="449" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A449" s="12"/>
       <c r="B449" s="12"/>
       <c r="C449" s="12"/>
@@ -13972,7 +13972,7 @@
       <c r="X449" s="1"/>
       <c r="Y449" s="1"/>
     </row>
-    <row r="450" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A450" s="12"/>
       <c r="B450" s="12"/>
       <c r="C450" s="12"/>
@@ -13999,7 +13999,7 @@
       <c r="X450" s="1"/>
       <c r="Y450" s="1"/>
     </row>
-    <row r="451" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A451" s="12"/>
       <c r="B451" s="12"/>
       <c r="C451" s="12"/>
@@ -14026,7 +14026,7 @@
       <c r="X451" s="1"/>
       <c r="Y451" s="1"/>
     </row>
-    <row r="452" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A452" s="12"/>
       <c r="B452" s="12"/>
       <c r="C452" s="12"/>
@@ -14053,7 +14053,7 @@
       <c r="X452" s="1"/>
       <c r="Y452" s="1"/>
     </row>
-    <row r="453" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A453" s="12"/>
       <c r="B453" s="12"/>
       <c r="C453" s="12"/>
@@ -14080,7 +14080,7 @@
       <c r="X453" s="1"/>
       <c r="Y453" s="1"/>
     </row>
-    <row r="454" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A454" s="12"/>
       <c r="B454" s="12"/>
       <c r="C454" s="12"/>
@@ -14107,7 +14107,7 @@
       <c r="X454" s="1"/>
       <c r="Y454" s="1"/>
     </row>
-    <row r="455" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A455" s="12"/>
       <c r="B455" s="12"/>
       <c r="C455" s="12"/>
@@ -14134,7 +14134,7 @@
       <c r="X455" s="1"/>
       <c r="Y455" s="1"/>
     </row>
-    <row r="456" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A456" s="12"/>
       <c r="B456" s="12"/>
       <c r="C456" s="12"/>
@@ -14161,7 +14161,7 @@
       <c r="X456" s="1"/>
       <c r="Y456" s="1"/>
     </row>
-    <row r="457" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A457" s="12"/>
       <c r="B457" s="12"/>
       <c r="C457" s="12"/>
@@ -14188,7 +14188,7 @@
       <c r="X457" s="1"/>
       <c r="Y457" s="1"/>
     </row>
-    <row r="458" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A458" s="12"/>
       <c r="B458" s="12"/>
       <c r="C458" s="12"/>
@@ -14215,7 +14215,7 @@
       <c r="X458" s="1"/>
       <c r="Y458" s="1"/>
     </row>
-    <row r="459" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A459" s="12"/>
       <c r="B459" s="12"/>
       <c r="C459" s="12"/>
@@ -14242,7 +14242,7 @@
       <c r="X459" s="1"/>
       <c r="Y459" s="1"/>
     </row>
-    <row r="460" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A460" s="12"/>
       <c r="B460" s="12"/>
       <c r="C460" s="12"/>
@@ -14269,7 +14269,7 @@
       <c r="X460" s="1"/>
       <c r="Y460" s="1"/>
     </row>
-    <row r="461" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A461" s="12"/>
       <c r="B461" s="12"/>
       <c r="C461" s="12"/>
@@ -14296,7 +14296,7 @@
       <c r="X461" s="1"/>
       <c r="Y461" s="1"/>
     </row>
-    <row r="462" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A462" s="12"/>
       <c r="B462" s="12"/>
       <c r="C462" s="12"/>
@@ -14323,7 +14323,7 @@
       <c r="X462" s="1"/>
       <c r="Y462" s="1"/>
     </row>
-    <row r="463" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A463" s="12"/>
       <c r="B463" s="12"/>
       <c r="C463" s="12"/>
@@ -14350,7 +14350,7 @@
       <c r="X463" s="1"/>
       <c r="Y463" s="1"/>
     </row>
-    <row r="464" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A464" s="12"/>
       <c r="B464" s="12"/>
       <c r="C464" s="12"/>
@@ -14377,7 +14377,7 @@
       <c r="X464" s="1"/>
       <c r="Y464" s="1"/>
     </row>
-    <row r="465" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A465" s="12"/>
       <c r="B465" s="12"/>
       <c r="C465" s="12"/>
@@ -14404,7 +14404,7 @@
       <c r="X465" s="1"/>
       <c r="Y465" s="1"/>
     </row>
-    <row r="466" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A466" s="12"/>
       <c r="B466" s="12"/>
       <c r="C466" s="12"/>
@@ -14431,7 +14431,7 @@
       <c r="X466" s="1"/>
       <c r="Y466" s="1"/>
     </row>
-    <row r="467" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A467" s="12"/>
       <c r="B467" s="12"/>
       <c r="C467" s="12"/>
@@ -14458,7 +14458,7 @@
       <c r="X467" s="1"/>
       <c r="Y467" s="1"/>
     </row>
-    <row r="468" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A468" s="12"/>
       <c r="B468" s="12"/>
       <c r="C468" s="12"/>
@@ -14485,7 +14485,7 @@
       <c r="X468" s="1"/>
       <c r="Y468" s="1"/>
     </row>
-    <row r="469" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A469" s="12"/>
       <c r="B469" s="12"/>
       <c r="C469" s="12"/>
@@ -14512,7 +14512,7 @@
       <c r="X469" s="1"/>
       <c r="Y469" s="1"/>
     </row>
-    <row r="470" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A470" s="12"/>
       <c r="B470" s="12"/>
       <c r="C470" s="12"/>
@@ -14539,7 +14539,7 @@
       <c r="X470" s="1"/>
       <c r="Y470" s="1"/>
     </row>
-    <row r="471" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A471" s="12"/>
       <c r="B471" s="12"/>
       <c r="C471" s="12"/>
@@ -14566,7 +14566,7 @@
       <c r="X471" s="1"/>
       <c r="Y471" s="1"/>
     </row>
-    <row r="472" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A472" s="12"/>
       <c r="B472" s="12"/>
       <c r="C472" s="12"/>
@@ -14593,7 +14593,7 @@
       <c r="X472" s="1"/>
       <c r="Y472" s="1"/>
     </row>
-    <row r="473" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A473" s="12"/>
       <c r="B473" s="12"/>
       <c r="C473" s="12"/>
@@ -14620,7 +14620,7 @@
       <c r="X473" s="1"/>
       <c r="Y473" s="1"/>
     </row>
-    <row r="474" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A474" s="12"/>
       <c r="B474" s="12"/>
       <c r="C474" s="12"/>
@@ -14647,7 +14647,7 @@
       <c r="X474" s="1"/>
       <c r="Y474" s="1"/>
     </row>
-    <row r="475" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A475" s="12"/>
       <c r="B475" s="12"/>
       <c r="C475" s="12"/>
@@ -14674,7 +14674,7 @@
       <c r="X475" s="1"/>
       <c r="Y475" s="1"/>
     </row>
-    <row r="476" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A476" s="12"/>
       <c r="B476" s="12"/>
       <c r="C476" s="12"/>
@@ -14701,7 +14701,7 @@
       <c r="X476" s="1"/>
       <c r="Y476" s="1"/>
     </row>
-    <row r="477" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A477" s="12"/>
       <c r="B477" s="12"/>
       <c r="C477" s="12"/>
@@ -14728,7 +14728,7 @@
       <c r="X477" s="1"/>
       <c r="Y477" s="1"/>
     </row>
-    <row r="478" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A478" s="12"/>
       <c r="B478" s="12"/>
       <c r="C478" s="12"/>
@@ -14755,7 +14755,7 @@
       <c r="X478" s="1"/>
       <c r="Y478" s="1"/>
     </row>
-    <row r="479" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A479" s="12"/>
       <c r="B479" s="12"/>
       <c r="C479" s="12"/>
@@ -14782,7 +14782,7 @@
       <c r="X479" s="1"/>
       <c r="Y479" s="1"/>
     </row>
-    <row r="480" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A480" s="12"/>
       <c r="B480" s="12"/>
       <c r="C480" s="12"/>
@@ -14809,7 +14809,7 @@
       <c r="X480" s="1"/>
       <c r="Y480" s="1"/>
     </row>
-    <row r="481" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A481" s="12"/>
       <c r="B481" s="12"/>
       <c r="C481" s="12"/>
@@ -14836,7 +14836,7 @@
       <c r="X481" s="1"/>
       <c r="Y481" s="1"/>
     </row>
-    <row r="482" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A482" s="12"/>
       <c r="B482" s="12"/>
       <c r="C482" s="12"/>
@@ -14863,7 +14863,7 @@
       <c r="X482" s="1"/>
       <c r="Y482" s="1"/>
     </row>
-    <row r="483" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A483" s="12"/>
       <c r="B483" s="12"/>
       <c r="C483" s="12"/>
@@ -14890,7 +14890,7 @@
       <c r="X483" s="1"/>
       <c r="Y483" s="1"/>
     </row>
-    <row r="484" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A484" s="12"/>
       <c r="B484" s="12"/>
       <c r="C484" s="12"/>
@@ -14917,7 +14917,7 @@
       <c r="X484" s="1"/>
       <c r="Y484" s="1"/>
     </row>
-    <row r="485" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A485" s="12"/>
       <c r="B485" s="12"/>
       <c r="C485" s="12"/>
@@ -14944,7 +14944,7 @@
       <c r="X485" s="1"/>
       <c r="Y485" s="1"/>
     </row>
-    <row r="486" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A486" s="12"/>
       <c r="B486" s="12"/>
       <c r="C486" s="12"/>
@@ -14971,7 +14971,7 @@
       <c r="X486" s="1"/>
       <c r="Y486" s="1"/>
     </row>
-    <row r="487" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A487" s="12"/>
       <c r="B487" s="12"/>
       <c r="C487" s="12"/>
@@ -14998,7 +14998,7 @@
       <c r="X487" s="1"/>
       <c r="Y487" s="1"/>
     </row>
-    <row r="488" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A488" s="12"/>
       <c r="B488" s="12"/>
       <c r="C488" s="12"/>
@@ -15025,7 +15025,7 @@
       <c r="X488" s="1"/>
       <c r="Y488" s="1"/>
     </row>
-    <row r="489" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A489" s="12"/>
       <c r="B489" s="12"/>
       <c r="C489" s="12"/>
@@ -15052,7 +15052,7 @@
       <c r="X489" s="1"/>
       <c r="Y489" s="1"/>
     </row>
-    <row r="490" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A490" s="12"/>
       <c r="B490" s="12"/>
       <c r="C490" s="12"/>
@@ -15079,7 +15079,7 @@
       <c r="X490" s="1"/>
       <c r="Y490" s="1"/>
     </row>
-    <row r="491" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A491" s="12"/>
       <c r="B491" s="12"/>
       <c r="C491" s="12"/>
@@ -15106,7 +15106,7 @@
       <c r="X491" s="1"/>
       <c r="Y491" s="1"/>
     </row>
-    <row r="492" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A492" s="12"/>
       <c r="B492" s="12"/>
       <c r="C492" s="12"/>
@@ -15133,7 +15133,7 @@
       <c r="X492" s="1"/>
       <c r="Y492" s="1"/>
     </row>
-    <row r="493" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A493" s="12"/>
       <c r="B493" s="12"/>
       <c r="C493" s="12"/>
@@ -15160,7 +15160,7 @@
       <c r="X493" s="1"/>
       <c r="Y493" s="1"/>
     </row>
-    <row r="494" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A494" s="12"/>
       <c r="B494" s="12"/>
       <c r="C494" s="12"/>
@@ -15187,7 +15187,7 @@
       <c r="X494" s="1"/>
       <c r="Y494" s="1"/>
     </row>
-    <row r="495" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A495" s="12"/>
       <c r="B495" s="12"/>
       <c r="C495" s="12"/>
@@ -15214,7 +15214,7 @@
       <c r="X495" s="1"/>
       <c r="Y495" s="1"/>
     </row>
-    <row r="496" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A496" s="12"/>
       <c r="B496" s="12"/>
       <c r="C496" s="12"/>
@@ -15241,7 +15241,7 @@
       <c r="X496" s="1"/>
       <c r="Y496" s="1"/>
     </row>
-    <row r="497" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A497" s="12"/>
       <c r="B497" s="12"/>
       <c r="C497" s="12"/>
@@ -15268,7 +15268,7 @@
       <c r="X497" s="1"/>
       <c r="Y497" s="1"/>
     </row>
-    <row r="498" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A498" s="12"/>
       <c r="B498" s="12"/>
       <c r="C498" s="12"/>
@@ -15295,7 +15295,7 @@
       <c r="X498" s="1"/>
       <c r="Y498" s="1"/>
     </row>
-    <row r="499" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A499" s="12"/>
       <c r="B499" s="12"/>
       <c r="C499" s="12"/>
@@ -15322,7 +15322,7 @@
       <c r="X499" s="1"/>
       <c r="Y499" s="1"/>
     </row>
-    <row r="500" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A500" s="12"/>
       <c r="B500" s="12"/>
       <c r="C500" s="12"/>
@@ -15349,7 +15349,7 @@
       <c r="X500" s="1"/>
       <c r="Y500" s="1"/>
     </row>
-    <row r="501" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A501" s="12"/>
       <c r="B501" s="12"/>
       <c r="C501" s="12"/>
@@ -15376,7 +15376,7 @@
       <c r="X501" s="1"/>
       <c r="Y501" s="1"/>
     </row>
-    <row r="502" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A502" s="12"/>
       <c r="B502" s="12"/>
       <c r="C502" s="12"/>
@@ -15403,7 +15403,7 @@
       <c r="X502" s="1"/>
       <c r="Y502" s="1"/>
     </row>
-    <row r="503" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A503" s="12"/>
       <c r="B503" s="12"/>
       <c r="C503" s="12"/>
@@ -15430,7 +15430,7 @@
       <c r="X503" s="1"/>
       <c r="Y503" s="1"/>
     </row>
-    <row r="504" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A504" s="12"/>
       <c r="B504" s="12"/>
       <c r="C504" s="12"/>
@@ -15457,7 +15457,7 @@
       <c r="X504" s="1"/>
       <c r="Y504" s="1"/>
     </row>
-    <row r="505" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A505" s="12"/>
       <c r="B505" s="12"/>
       <c r="C505" s="12"/>
@@ -15484,7 +15484,7 @@
       <c r="X505" s="1"/>
       <c r="Y505" s="1"/>
     </row>
-    <row r="506" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A506" s="12"/>
       <c r="B506" s="12"/>
       <c r="C506" s="12"/>
@@ -15511,7 +15511,7 @@
       <c r="X506" s="1"/>
       <c r="Y506" s="1"/>
     </row>
-    <row r="507" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A507" s="12"/>
       <c r="B507" s="12"/>
       <c r="C507" s="12"/>
@@ -15538,7 +15538,7 @@
       <c r="X507" s="1"/>
       <c r="Y507" s="1"/>
     </row>
-    <row r="508" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A508" s="12"/>
       <c r="B508" s="12"/>
       <c r="C508" s="12"/>
@@ -15565,7 +15565,7 @@
       <c r="X508" s="1"/>
       <c r="Y508" s="1"/>
     </row>
-    <row r="509" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A509" s="12"/>
       <c r="B509" s="12"/>
       <c r="C509" s="12"/>
@@ -15592,7 +15592,7 @@
       <c r="X509" s="1"/>
       <c r="Y509" s="1"/>
     </row>
-    <row r="510" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A510" s="12"/>
       <c r="B510" s="12"/>
       <c r="C510" s="12"/>
@@ -15619,7 +15619,7 @@
       <c r="X510" s="1"/>
       <c r="Y510" s="1"/>
     </row>
-    <row r="511" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A511" s="12"/>
       <c r="B511" s="12"/>
       <c r="C511" s="12"/>
@@ -15646,7 +15646,7 @@
       <c r="X511" s="1"/>
       <c r="Y511" s="1"/>
     </row>
-    <row r="512" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A512" s="12"/>
       <c r="B512" s="12"/>
       <c r="C512" s="12"/>
@@ -15673,7 +15673,7 @@
       <c r="X512" s="1"/>
       <c r="Y512" s="1"/>
     </row>
-    <row r="513" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A513" s="12"/>
       <c r="B513" s="12"/>
       <c r="C513" s="12"/>
@@ -15700,7 +15700,7 @@
       <c r="X513" s="1"/>
       <c r="Y513" s="1"/>
     </row>
-    <row r="514" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A514" s="12"/>
       <c r="B514" s="12"/>
       <c r="C514" s="12"/>
@@ -15727,7 +15727,7 @@
       <c r="X514" s="1"/>
       <c r="Y514" s="1"/>
     </row>
-    <row r="515" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A515" s="12"/>
       <c r="B515" s="12"/>
       <c r="C515" s="12"/>
@@ -15754,7 +15754,7 @@
       <c r="X515" s="1"/>
       <c r="Y515" s="1"/>
     </row>
-    <row r="516" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A516" s="12"/>
       <c r="B516" s="12"/>
       <c r="C516" s="12"/>
@@ -15781,7 +15781,7 @@
       <c r="X516" s="1"/>
       <c r="Y516" s="1"/>
     </row>
-    <row r="517" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A517" s="12"/>
       <c r="B517" s="12"/>
       <c r="C517" s="12"/>
@@ -15808,7 +15808,7 @@
       <c r="X517" s="1"/>
       <c r="Y517" s="1"/>
     </row>
-    <row r="518" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A518" s="12"/>
       <c r="B518" s="12"/>
       <c r="C518" s="12"/>
@@ -15835,7 +15835,7 @@
       <c r="X518" s="1"/>
       <c r="Y518" s="1"/>
     </row>
-    <row r="519" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A519" s="12"/>
       <c r="B519" s="12"/>
       <c r="C519" s="12"/>
@@ -15862,7 +15862,7 @@
       <c r="X519" s="1"/>
       <c r="Y519" s="1"/>
     </row>
-    <row r="520" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A520" s="12"/>
       <c r="B520" s="12"/>
       <c r="C520" s="12"/>
@@ -15889,7 +15889,7 @@
       <c r="X520" s="1"/>
       <c r="Y520" s="1"/>
     </row>
-    <row r="521" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A521" s="12"/>
       <c r="B521" s="12"/>
       <c r="C521" s="12"/>
@@ -15916,7 +15916,7 @@
       <c r="X521" s="1"/>
       <c r="Y521" s="1"/>
     </row>
-    <row r="522" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A522" s="12"/>
       <c r="B522" s="12"/>
       <c r="C522" s="12"/>
@@ -15943,7 +15943,7 @@
       <c r="X522" s="1"/>
       <c r="Y522" s="1"/>
     </row>
-    <row r="523" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A523" s="12"/>
       <c r="B523" s="12"/>
       <c r="C523" s="12"/>
@@ -15970,7 +15970,7 @@
       <c r="X523" s="1"/>
       <c r="Y523" s="1"/>
     </row>
-    <row r="524" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A524" s="12"/>
       <c r="B524" s="12"/>
       <c r="C524" s="12"/>
@@ -15997,7 +15997,7 @@
       <c r="X524" s="1"/>
       <c r="Y524" s="1"/>
     </row>
-    <row r="525" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A525" s="12"/>
       <c r="B525" s="12"/>
       <c r="C525" s="12"/>
@@ -16024,7 +16024,7 @@
       <c r="X525" s="1"/>
       <c r="Y525" s="1"/>
     </row>
-    <row r="526" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A526" s="12"/>
       <c r="B526" s="12"/>
       <c r="C526" s="12"/>
@@ -16051,7 +16051,7 @@
       <c r="X526" s="1"/>
       <c r="Y526" s="1"/>
     </row>
-    <row r="527" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A527" s="12"/>
       <c r="B527" s="12"/>
       <c r="C527" s="12"/>
@@ -16078,7 +16078,7 @@
       <c r="X527" s="1"/>
       <c r="Y527" s="1"/>
     </row>
-    <row r="528" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A528" s="12"/>
       <c r="B528" s="12"/>
       <c r="C528" s="12"/>
@@ -16105,7 +16105,7 @@
       <c r="X528" s="1"/>
       <c r="Y528" s="1"/>
     </row>
-    <row r="529" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A529" s="12"/>
       <c r="B529" s="12"/>
       <c r="C529" s="12"/>
@@ -16132,7 +16132,7 @@
       <c r="X529" s="1"/>
       <c r="Y529" s="1"/>
     </row>
-    <row r="530" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A530" s="12"/>
       <c r="B530" s="12"/>
       <c r="C530" s="12"/>
@@ -16159,7 +16159,7 @@
       <c r="X530" s="1"/>
       <c r="Y530" s="1"/>
     </row>
-    <row r="531" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A531" s="12"/>
       <c r="B531" s="12"/>
       <c r="C531" s="12"/>
@@ -16186,7 +16186,7 @@
       <c r="X531" s="1"/>
       <c r="Y531" s="1"/>
     </row>
-    <row r="532" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A532" s="12"/>
       <c r="B532" s="12"/>
       <c r="C532" s="12"/>
@@ -16213,7 +16213,7 @@
       <c r="X532" s="1"/>
       <c r="Y532" s="1"/>
     </row>
-    <row r="533" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A533" s="12"/>
       <c r="B533" s="12"/>
       <c r="C533" s="12"/>
@@ -16240,7 +16240,7 @@
       <c r="X533" s="1"/>
       <c r="Y533" s="1"/>
     </row>
-    <row r="534" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A534" s="12"/>
       <c r="B534" s="12"/>
       <c r="C534" s="12"/>
@@ -16267,7 +16267,7 @@
       <c r="X534" s="1"/>
       <c r="Y534" s="1"/>
     </row>
-    <row r="535" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A535" s="12"/>
       <c r="B535" s="12"/>
       <c r="C535" s="12"/>
@@ -16294,7 +16294,7 @@
       <c r="X535" s="1"/>
       <c r="Y535" s="1"/>
     </row>
-    <row r="536" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A536" s="12"/>
       <c r="B536" s="12"/>
       <c r="C536" s="12"/>
@@ -16321,7 +16321,7 @@
       <c r="X536" s="1"/>
       <c r="Y536" s="1"/>
     </row>
-    <row r="537" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A537" s="12"/>
       <c r="B537" s="12"/>
       <c r="C537" s="12"/>
@@ -16348,7 +16348,7 @@
       <c r="X537" s="1"/>
       <c r="Y537" s="1"/>
     </row>
-    <row r="538" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A538" s="12"/>
       <c r="B538" s="12"/>
       <c r="C538" s="12"/>
@@ -16375,7 +16375,7 @@
       <c r="X538" s="1"/>
       <c r="Y538" s="1"/>
     </row>
-    <row r="539" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A539" s="12"/>
       <c r="B539" s="12"/>
       <c r="C539" s="12"/>
@@ -16402,7 +16402,7 @@
       <c r="X539" s="1"/>
       <c r="Y539" s="1"/>
     </row>
-    <row r="540" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A540" s="12"/>
       <c r="B540" s="12"/>
       <c r="C540" s="12"/>
@@ -16429,7 +16429,7 @@
       <c r="X540" s="1"/>
       <c r="Y540" s="1"/>
     </row>
-    <row r="541" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A541" s="12"/>
       <c r="B541" s="12"/>
       <c r="C541" s="12"/>
@@ -16456,7 +16456,7 @@
       <c r="X541" s="1"/>
       <c r="Y541" s="1"/>
     </row>
-    <row r="542" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A542" s="12"/>
       <c r="B542" s="12"/>
       <c r="C542" s="12"/>
@@ -16483,7 +16483,7 @@
       <c r="X542" s="1"/>
       <c r="Y542" s="1"/>
     </row>
-    <row r="543" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A543" s="12"/>
       <c r="B543" s="12"/>
       <c r="C543" s="12"/>
@@ -16510,7 +16510,7 @@
       <c r="X543" s="1"/>
       <c r="Y543" s="1"/>
     </row>
-    <row r="544" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A544" s="12"/>
       <c r="B544" s="12"/>
       <c r="C544" s="12"/>
@@ -16537,7 +16537,7 @@
       <c r="X544" s="1"/>
       <c r="Y544" s="1"/>
     </row>
-    <row r="545" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A545" s="12"/>
       <c r="B545" s="12"/>
       <c r="C545" s="12"/>
@@ -16564,7 +16564,7 @@
       <c r="X545" s="1"/>
       <c r="Y545" s="1"/>
     </row>
-    <row r="546" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A546" s="12"/>
       <c r="B546" s="12"/>
       <c r="C546" s="12"/>
@@ -16591,7 +16591,7 @@
       <c r="X546" s="1"/>
       <c r="Y546" s="1"/>
     </row>
-    <row r="547" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A547" s="12"/>
       <c r="B547" s="12"/>
       <c r="C547" s="12"/>
@@ -16618,7 +16618,7 @@
       <c r="X547" s="1"/>
       <c r="Y547" s="1"/>
     </row>
-    <row r="548" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A548" s="12"/>
       <c r="B548" s="12"/>
       <c r="C548" s="12"/>
@@ -16645,7 +16645,7 @@
       <c r="X548" s="1"/>
       <c r="Y548" s="1"/>
     </row>
-    <row r="549" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A549" s="12"/>
       <c r="B549" s="12"/>
       <c r="C549" s="12"/>
@@ -16672,7 +16672,7 @@
       <c r="X549" s="1"/>
       <c r="Y549" s="1"/>
     </row>
-    <row r="550" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A550" s="12"/>
       <c r="B550" s="12"/>
       <c r="C550" s="12"/>
@@ -16699,7 +16699,7 @@
       <c r="X550" s="1"/>
       <c r="Y550" s="1"/>
     </row>
-    <row r="551" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A551" s="12"/>
       <c r="B551" s="12"/>
       <c r="C551" s="12"/>
@@ -16726,7 +16726,7 @@
       <c r="X551" s="1"/>
       <c r="Y551" s="1"/>
     </row>
-    <row r="552" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A552" s="12"/>
       <c r="B552" s="12"/>
       <c r="C552" s="12"/>
@@ -16753,7 +16753,7 @@
       <c r="X552" s="1"/>
       <c r="Y552" s="1"/>
     </row>
-    <row r="553" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A553" s="12"/>
       <c r="B553" s="12"/>
       <c r="C553" s="12"/>
@@ -16780,7 +16780,7 @@
       <c r="X553" s="1"/>
       <c r="Y553" s="1"/>
     </row>
-    <row r="554" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A554" s="12"/>
       <c r="B554" s="12"/>
       <c r="C554" s="12"/>
@@ -16807,7 +16807,7 @@
       <c r="X554" s="1"/>
       <c r="Y554" s="1"/>
     </row>
-    <row r="555" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A555" s="12"/>
       <c r="B555" s="12"/>
       <c r="C555" s="12"/>
@@ -16834,7 +16834,7 @@
       <c r="X555" s="1"/>
       <c r="Y555" s="1"/>
     </row>
-    <row r="556" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A556" s="12"/>
       <c r="B556" s="12"/>
       <c r="C556" s="12"/>
@@ -16861,7 +16861,7 @@
       <c r="X556" s="1"/>
       <c r="Y556" s="1"/>
     </row>
-    <row r="557" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A557" s="12"/>
       <c r="B557" s="12"/>
       <c r="C557" s="12"/>
@@ -16888,7 +16888,7 @@
       <c r="X557" s="1"/>
       <c r="Y557" s="1"/>
     </row>
-    <row r="558" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A558" s="12"/>
       <c r="B558" s="12"/>
       <c r="C558" s="12"/>
@@ -16915,7 +16915,7 @@
       <c r="X558" s="1"/>
       <c r="Y558" s="1"/>
     </row>
-    <row r="559" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A559" s="12"/>
       <c r="B559" s="12"/>
       <c r="C559" s="12"/>
@@ -16942,7 +16942,7 @@
       <c r="X559" s="1"/>
       <c r="Y559" s="1"/>
     </row>
-    <row r="560" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A560" s="12"/>
       <c r="B560" s="12"/>
       <c r="C560" s="12"/>
@@ -16969,7 +16969,7 @@
       <c r="X560" s="1"/>
       <c r="Y560" s="1"/>
     </row>
-    <row r="561" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A561" s="12"/>
       <c r="B561" s="12"/>
       <c r="C561" s="12"/>
@@ -16996,7 +16996,7 @@
       <c r="X561" s="1"/>
       <c r="Y561" s="1"/>
     </row>
-    <row r="562" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A562" s="12"/>
       <c r="B562" s="12"/>
       <c r="C562" s="12"/>
@@ -17023,7 +17023,7 @@
       <c r="X562" s="1"/>
       <c r="Y562" s="1"/>
     </row>
-    <row r="563" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A563" s="12"/>
       <c r="B563" s="12"/>
       <c r="C563" s="12"/>
@@ -17050,7 +17050,7 @@
       <c r="X563" s="1"/>
       <c r="Y563" s="1"/>
     </row>
-    <row r="564" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A564" s="12"/>
       <c r="B564" s="12"/>
       <c r="C564" s="12"/>
@@ -17077,7 +17077,7 @@
       <c r="X564" s="1"/>
       <c r="Y564" s="1"/>
     </row>
-    <row r="565" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A565" s="12"/>
       <c r="B565" s="12"/>
       <c r="C565" s="12"/>
@@ -17104,7 +17104,7 @@
       <c r="X565" s="1"/>
       <c r="Y565" s="1"/>
     </row>
-    <row r="566" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A566" s="12"/>
       <c r="B566" s="12"/>
       <c r="C566" s="12"/>
@@ -17131,7 +17131,7 @@
       <c r="X566" s="1"/>
       <c r="Y566" s="1"/>
     </row>
-    <row r="567" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A567" s="12"/>
       <c r="B567" s="12"/>
       <c r="C567" s="12"/>
@@ -17158,7 +17158,7 @@
       <c r="X567" s="1"/>
       <c r="Y567" s="1"/>
     </row>
-    <row r="568" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A568" s="12"/>
       <c r="B568" s="12"/>
       <c r="C568" s="12"/>
@@ -17185,7 +17185,7 @@
       <c r="X568" s="1"/>
       <c r="Y568" s="1"/>
     </row>
-    <row r="569" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A569" s="12"/>
       <c r="B569" s="12"/>
       <c r="C569" s="12"/>
@@ -17212,7 +17212,7 @@
       <c r="X569" s="1"/>
       <c r="Y569" s="1"/>
     </row>
-    <row r="570" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A570" s="12"/>
       <c r="B570" s="12"/>
       <c r="C570" s="12"/>
@@ -17239,7 +17239,7 @@
       <c r="X570" s="1"/>
       <c r="Y570" s="1"/>
     </row>
-    <row r="571" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A571" s="12"/>
       <c r="B571" s="12"/>
       <c r="C571" s="12"/>
@@ -17266,7 +17266,7 @@
       <c r="X571" s="1"/>
       <c r="Y571" s="1"/>
     </row>
-    <row r="572" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A572" s="12"/>
       <c r="B572" s="12"/>
       <c r="C572" s="12"/>
@@ -17293,7 +17293,7 @@
       <c r="X572" s="1"/>
       <c r="Y572" s="1"/>
     </row>
-    <row r="573" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A573" s="12"/>
       <c r="B573" s="12"/>
       <c r="C573" s="12"/>
@@ -17320,7 +17320,7 @@
       <c r="X573" s="1"/>
       <c r="Y573" s="1"/>
     </row>
-    <row r="574" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A574" s="12"/>
       <c r="B574" s="12"/>
       <c r="C574" s="12"/>
@@ -17347,7 +17347,7 @@
       <c r="X574" s="1"/>
       <c r="Y574" s="1"/>
     </row>
-    <row r="575" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A575" s="12"/>
       <c r="B575" s="12"/>
       <c r="C575" s="12"/>
@@ -17374,7 +17374,7 @@
       <c r="X575" s="1"/>
       <c r="Y575" s="1"/>
     </row>
-    <row r="576" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A576" s="12"/>
       <c r="B576" s="12"/>
       <c r="C576" s="12"/>
@@ -17401,7 +17401,7 @@
       <c r="X576" s="1"/>
       <c r="Y576" s="1"/>
     </row>
-    <row r="577" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A577" s="12"/>
       <c r="B577" s="12"/>
       <c r="C577" s="12"/>
@@ -17428,7 +17428,7 @@
       <c r="X577" s="1"/>
       <c r="Y577" s="1"/>
     </row>
-    <row r="578" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A578" s="12"/>
       <c r="B578" s="12"/>
       <c r="C578" s="12"/>
@@ -17455,7 +17455,7 @@
       <c r="X578" s="1"/>
       <c r="Y578" s="1"/>
     </row>
-    <row r="579" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A579" s="12"/>
       <c r="B579" s="12"/>
       <c r="C579" s="12"/>
@@ -17482,7 +17482,7 @@
       <c r="X579" s="1"/>
       <c r="Y579" s="1"/>
     </row>
-    <row r="580" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A580" s="12"/>
       <c r="B580" s="12"/>
       <c r="C580" s="12"/>
@@ -17509,7 +17509,7 @@
       <c r="X580" s="1"/>
       <c r="Y580" s="1"/>
     </row>
-    <row r="581" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A581" s="12"/>
       <c r="B581" s="12"/>
       <c r="C581" s="12"/>
@@ -17536,7 +17536,7 @@
       <c r="X581" s="1"/>
       <c r="Y581" s="1"/>
     </row>
-    <row r="582" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A582" s="12"/>
       <c r="B582" s="12"/>
       <c r="C582" s="12"/>
@@ -17563,7 +17563,7 @@
       <c r="X582" s="1"/>
       <c r="Y582" s="1"/>
     </row>
-    <row r="583" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A583" s="12"/>
       <c r="B583" s="12"/>
       <c r="C583" s="12"/>
@@ -17590,7 +17590,7 @@
       <c r="X583" s="1"/>
       <c r="Y583" s="1"/>
     </row>
-    <row r="584" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A584" s="12"/>
       <c r="B584" s="12"/>
       <c r="C584" s="12"/>
@@ -17617,7 +17617,7 @@
       <c r="X584" s="1"/>
       <c r="Y584" s="1"/>
     </row>
-    <row r="585" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A585" s="12"/>
       <c r="B585" s="12"/>
       <c r="C585" s="12"/>
@@ -17644,7 +17644,7 @@
       <c r="X585" s="1"/>
       <c r="Y585" s="1"/>
     </row>
-    <row r="586" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A586" s="12"/>
       <c r="B586" s="12"/>
       <c r="C586" s="12"/>
@@ -17671,7 +17671,7 @@
       <c r="X586" s="1"/>
       <c r="Y586" s="1"/>
     </row>
-    <row r="587" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A587" s="12"/>
       <c r="B587" s="12"/>
       <c r="C587" s="12"/>
@@ -17698,7 +17698,7 @@
       <c r="X587" s="1"/>
       <c r="Y587" s="1"/>
     </row>
-    <row r="588" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A588" s="12"/>
       <c r="B588" s="12"/>
       <c r="C588" s="12"/>
@@ -17725,7 +17725,7 @@
       <c r="X588" s="1"/>
       <c r="Y588" s="1"/>
     </row>
-    <row r="589" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A589" s="12"/>
       <c r="B589" s="12"/>
       <c r="C589" s="12"/>
@@ -17752,7 +17752,7 @@
       <c r="X589" s="1"/>
       <c r="Y589" s="1"/>
     </row>
-    <row r="590" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A590" s="12"/>
       <c r="B590" s="12"/>
       <c r="C590" s="12"/>
@@ -17779,7 +17779,7 @@
       <c r="X590" s="1"/>
       <c r="Y590" s="1"/>
     </row>
-    <row r="591" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A591" s="12"/>
       <c r="B591" s="12"/>
       <c r="C591" s="12"/>
@@ -17806,7 +17806,7 @@
       <c r="X591" s="1"/>
       <c r="Y591" s="1"/>
     </row>
-    <row r="592" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A592" s="12"/>
       <c r="B592" s="12"/>
       <c r="C592" s="12"/>
@@ -17833,7 +17833,7 @@
       <c r="X592" s="1"/>
       <c r="Y592" s="1"/>
     </row>
-    <row r="593" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A593" s="12"/>
       <c r="B593" s="12"/>
       <c r="C593" s="12"/>
@@ -17860,7 +17860,7 @@
       <c r="X593" s="1"/>
       <c r="Y593" s="1"/>
     </row>
-    <row r="594" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A594" s="12"/>
       <c r="B594" s="12"/>
       <c r="C594" s="12"/>
@@ -17887,7 +17887,7 @@
       <c r="X594" s="1"/>
       <c r="Y594" s="1"/>
     </row>
-    <row r="595" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A595" s="12"/>
       <c r="B595" s="12"/>
       <c r="C595" s="12"/>
@@ -17914,7 +17914,7 @@
       <c r="X595" s="1"/>
       <c r="Y595" s="1"/>
     </row>
-    <row r="596" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A596" s="12"/>
       <c r="B596" s="12"/>
       <c r="C596" s="12"/>
@@ -17941,7 +17941,7 @@
       <c r="X596" s="1"/>
       <c r="Y596" s="1"/>
     </row>
-    <row r="597" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A597" s="12"/>
       <c r="B597" s="12"/>
       <c r="C597" s="12"/>
@@ -17968,7 +17968,7 @@
       <c r="X597" s="1"/>
       <c r="Y597" s="1"/>
     </row>
-    <row r="598" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A598" s="12"/>
       <c r="B598" s="12"/>
       <c r="C598" s="12"/>
@@ -17995,7 +17995,7 @@
       <c r="X598" s="1"/>
       <c r="Y598" s="1"/>
     </row>
-    <row r="599" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A599" s="12"/>
       <c r="B599" s="12"/>
       <c r="C599" s="12"/>
@@ -18022,7 +18022,7 @@
       <c r="X599" s="1"/>
       <c r="Y599" s="1"/>
     </row>
-    <row r="600" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A600" s="12"/>
       <c r="B600" s="12"/>
       <c r="C600" s="12"/>
@@ -18049,7 +18049,7 @@
       <c r="X600" s="1"/>
       <c r="Y600" s="1"/>
     </row>
-    <row r="601" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A601" s="12"/>
       <c r="B601" s="12"/>
       <c r="C601" s="12"/>
@@ -18076,7 +18076,7 @@
       <c r="X601" s="1"/>
       <c r="Y601" s="1"/>
     </row>
-    <row r="602" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A602" s="12"/>
       <c r="B602" s="12"/>
       <c r="C602" s="12"/>
@@ -18103,7 +18103,7 @@
       <c r="X602" s="1"/>
       <c r="Y602" s="1"/>
     </row>
-    <row r="603" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A603" s="12"/>
       <c r="B603" s="12"/>
       <c r="C603" s="12"/>
@@ -18130,7 +18130,7 @@
       <c r="X603" s="1"/>
       <c r="Y603" s="1"/>
     </row>
-    <row r="604" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A604" s="12"/>
       <c r="B604" s="12"/>
       <c r="C604" s="12"/>
@@ -18157,7 +18157,7 @@
       <c r="X604" s="1"/>
       <c r="Y604" s="1"/>
     </row>
-    <row r="605" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A605" s="12"/>
       <c r="B605" s="12"/>
       <c r="C605" s="12"/>
@@ -18184,7 +18184,7 @@
       <c r="X605" s="1"/>
       <c r="Y605" s="1"/>
     </row>
-    <row r="606" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A606" s="12"/>
       <c r="B606" s="12"/>
       <c r="C606" s="12"/>
@@ -18211,7 +18211,7 @@
       <c r="X606" s="1"/>
       <c r="Y606" s="1"/>
     </row>
-    <row r="607" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A607" s="12"/>
       <c r="B607" s="12"/>
       <c r="C607" s="12"/>
@@ -18238,7 +18238,7 @@
       <c r="X607" s="1"/>
       <c r="Y607" s="1"/>
     </row>
-    <row r="608" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A608" s="12"/>
       <c r="B608" s="12"/>
       <c r="C608" s="12"/>
@@ -18265,7 +18265,7 @@
       <c r="X608" s="1"/>
       <c r="Y608" s="1"/>
     </row>
-    <row r="609" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A609" s="12"/>
       <c r="B609" s="12"/>
       <c r="C609" s="12"/>
@@ -18292,7 +18292,7 @@
       <c r="X609" s="1"/>
       <c r="Y609" s="1"/>
     </row>
-    <row r="610" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A610" s="12"/>
       <c r="B610" s="12"/>
       <c r="C610" s="12"/>
@@ -18319,7 +18319,7 @@
       <c r="X610" s="1"/>
       <c r="Y610" s="1"/>
     </row>
-    <row r="611" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A611" s="12"/>
       <c r="B611" s="12"/>
       <c r="C611" s="12"/>
@@ -18346,7 +18346,7 @@
       <c r="X611" s="1"/>
       <c r="Y611" s="1"/>
     </row>
-    <row r="612" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A612" s="12"/>
       <c r="B612" s="12"/>
       <c r="C612" s="12"/>
@@ -18373,7 +18373,7 @@
       <c r="X612" s="1"/>
       <c r="Y612" s="1"/>
     </row>
-    <row r="613" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A613" s="12"/>
       <c r="B613" s="12"/>
       <c r="C613" s="12"/>
@@ -18400,7 +18400,7 @@
       <c r="X613" s="1"/>
       <c r="Y613" s="1"/>
     </row>
-    <row r="614" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A614" s="12"/>
       <c r="B614" s="12"/>
       <c r="C614" s="12"/>
@@ -18427,7 +18427,7 @@
       <c r="X614" s="1"/>
       <c r="Y614" s="1"/>
     </row>
-    <row r="615" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A615" s="12"/>
       <c r="B615" s="12"/>
       <c r="C615" s="12"/>
@@ -18454,7 +18454,7 @@
       <c r="X615" s="1"/>
       <c r="Y615" s="1"/>
     </row>
-    <row r="616" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A616" s="12"/>
       <c r="B616" s="12"/>
       <c r="C616" s="12"/>
@@ -18481,7 +18481,7 @@
       <c r="X616" s="1"/>
       <c r="Y616" s="1"/>
     </row>
-    <row r="617" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A617" s="12"/>
       <c r="B617" s="12"/>
       <c r="C617" s="12"/>
@@ -18508,7 +18508,7 @@
       <c r="X617" s="1"/>
       <c r="Y617" s="1"/>
     </row>
-    <row r="618" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A618" s="12"/>
       <c r="B618" s="12"/>
       <c r="C618" s="12"/>
@@ -18535,7 +18535,7 @@
       <c r="X618" s="1"/>
       <c r="Y618" s="1"/>
     </row>
-    <row r="619" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A619" s="12"/>
       <c r="B619" s="12"/>
       <c r="C619" s="12"/>
@@ -18562,7 +18562,7 @@
       <c r="X619" s="1"/>
       <c r="Y619" s="1"/>
     </row>
-    <row r="620" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A620" s="12"/>
       <c r="B620" s="12"/>
       <c r="C620" s="12"/>
@@ -18589,7 +18589,7 @@
       <c r="X620" s="1"/>
       <c r="Y620" s="1"/>
     </row>
-    <row r="621" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A621" s="12"/>
       <c r="B621" s="12"/>
       <c r="C621" s="12"/>
@@ -18616,7 +18616,7 @@
       <c r="X621" s="1"/>
       <c r="Y621" s="1"/>
     </row>
-    <row r="622" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A622" s="12"/>
       <c r="B622" s="12"/>
       <c r="C622" s="12"/>
@@ -18643,7 +18643,7 @@
       <c r="X622" s="1"/>
       <c r="Y622" s="1"/>
     </row>
-    <row r="623" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A623" s="12"/>
       <c r="B623" s="12"/>
       <c r="C623" s="12"/>
@@ -18670,7 +18670,7 @@
       <c r="X623" s="1"/>
       <c r="Y623" s="1"/>
     </row>
-    <row r="624" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A624" s="12"/>
       <c r="B624" s="12"/>
       <c r="C624" s="12"/>
@@ -18697,7 +18697,7 @@
       <c r="X624" s="1"/>
       <c r="Y624" s="1"/>
     </row>
-    <row r="625" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A625" s="12"/>
       <c r="B625" s="12"/>
       <c r="C625" s="12"/>
@@ -18724,7 +18724,7 @@
       <c r="X625" s="1"/>
       <c r="Y625" s="1"/>
     </row>
-    <row r="626" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A626" s="12"/>
       <c r="B626" s="12"/>
       <c r="C626" s="12"/>
@@ -18751,7 +18751,7 @@
       <c r="X626" s="1"/>
       <c r="Y626" s="1"/>
     </row>
-    <row r="627" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A627" s="12"/>
       <c r="B627" s="12"/>
       <c r="C627" s="12"/>
@@ -18778,7 +18778,7 @@
       <c r="X627" s="1"/>
       <c r="Y627" s="1"/>
     </row>
-    <row r="628" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A628" s="12"/>
       <c r="B628" s="12"/>
       <c r="C628" s="12"/>
@@ -18805,7 +18805,7 @@
       <c r="X628" s="1"/>
       <c r="Y628" s="1"/>
     </row>
-    <row r="629" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A629" s="12"/>
       <c r="B629" s="12"/>
       <c r="C629" s="12"/>
@@ -18832,7 +18832,7 @@
       <c r="X629" s="1"/>
       <c r="Y629" s="1"/>
     </row>
-    <row r="630" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A630" s="12"/>
       <c r="B630" s="12"/>
       <c r="C630" s="12"/>
@@ -18859,7 +18859,7 @@
       <c r="X630" s="1"/>
       <c r="Y630" s="1"/>
     </row>
-    <row r="631" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A631" s="12"/>
       <c r="B631" s="12"/>
       <c r="C631" s="12"/>
@@ -18886,7 +18886,7 @@
       <c r="X631" s="1"/>
       <c r="Y631" s="1"/>
     </row>
-    <row r="632" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A632" s="12"/>
       <c r="B632" s="12"/>
       <c r="C632" s="12"/>
@@ -18913,7 +18913,7 @@
       <c r="X632" s="1"/>
       <c r="Y632" s="1"/>
     </row>
-    <row r="633" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A633" s="12"/>
       <c r="B633" s="12"/>
       <c r="C633" s="12"/>
@@ -18940,7 +18940,7 @@
       <c r="X633" s="1"/>
       <c r="Y633" s="1"/>
     </row>
-    <row r="634" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A634" s="12"/>
       <c r="B634" s="12"/>
       <c r="C634" s="12"/>
@@ -18967,7 +18967,7 @@
       <c r="X634" s="1"/>
       <c r="Y634" s="1"/>
     </row>
-    <row r="635" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A635" s="12"/>
       <c r="B635" s="12"/>
       <c r="C635" s="12"/>
@@ -18994,7 +18994,7 @@
       <c r="X635" s="1"/>
       <c r="Y635" s="1"/>
     </row>
-    <row r="636" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A636" s="12"/>
       <c r="B636" s="12"/>
       <c r="C636" s="12"/>
@@ -19021,7 +19021,7 @@
       <c r="X636" s="1"/>
       <c r="Y636" s="1"/>
     </row>
-    <row r="637" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A637" s="12"/>
       <c r="B637" s="12"/>
       <c r="C637" s="12"/>
@@ -19048,7 +19048,7 @@
       <c r="X637" s="1"/>
       <c r="Y637" s="1"/>
     </row>
-    <row r="638" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A638" s="12"/>
       <c r="B638" s="12"/>
       <c r="C638" s="12"/>
@@ -19075,7 +19075,7 @@
       <c r="X638" s="1"/>
       <c r="Y638" s="1"/>
     </row>
-    <row r="639" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A639" s="12"/>
       <c r="B639" s="12"/>
       <c r="C639" s="12"/>
@@ -19102,7 +19102,7 @@
       <c r="X639" s="1"/>
       <c r="Y639" s="1"/>
     </row>
-    <row r="640" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A640" s="12"/>
       <c r="B640" s="12"/>
       <c r="C640" s="12"/>
@@ -19129,7 +19129,7 @@
       <c r="X640" s="1"/>
       <c r="Y640" s="1"/>
     </row>
-    <row r="641" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A641" s="12"/>
       <c r="B641" s="12"/>
       <c r="C641" s="12"/>
@@ -19156,7 +19156,7 @@
       <c r="X641" s="1"/>
       <c r="Y641" s="1"/>
     </row>
-    <row r="642" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A642" s="12"/>
       <c r="B642" s="12"/>
       <c r="C642" s="12"/>
@@ -19183,7 +19183,7 @@
       <c r="X642" s="1"/>
       <c r="Y642" s="1"/>
     </row>
-    <row r="643" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A643" s="12"/>
       <c r="B643" s="12"/>
       <c r="C643" s="12"/>
@@ -19210,7 +19210,7 @@
       <c r="X643" s="1"/>
       <c r="Y643" s="1"/>
     </row>
-    <row r="644" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A644" s="12"/>
       <c r="B644" s="12"/>
       <c r="C644" s="12"/>
@@ -19237,7 +19237,7 @@
       <c r="X644" s="1"/>
       <c r="Y644" s="1"/>
     </row>
-    <row r="645" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A645" s="12"/>
       <c r="B645" s="12"/>
       <c r="C645" s="12"/>
@@ -19264,7 +19264,7 @@
       <c r="X645" s="1"/>
       <c r="Y645" s="1"/>
     </row>
-    <row r="646" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A646" s="12"/>
       <c r="B646" s="12"/>
       <c r="C646" s="12"/>
@@ -19291,7 +19291,7 @@
       <c r="X646" s="1"/>
       <c r="Y646" s="1"/>
     </row>
-    <row r="647" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A647" s="12"/>
       <c r="B647" s="12"/>
       <c r="C647" s="12"/>
@@ -19318,7 +19318,7 @@
       <c r="X647" s="1"/>
       <c r="Y647" s="1"/>
     </row>
-    <row r="648" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A648" s="12"/>
       <c r="B648" s="12"/>
       <c r="C648" s="12"/>
@@ -19345,7 +19345,7 @@
       <c r="X648" s="1"/>
       <c r="Y648" s="1"/>
     </row>
-    <row r="649" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A649" s="12"/>
       <c r="B649" s="12"/>
       <c r="C649" s="12"/>
@@ -19372,7 +19372,7 @@
       <c r="X649" s="1"/>
       <c r="Y649" s="1"/>
     </row>
-    <row r="650" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A650" s="12"/>
       <c r="B650" s="12"/>
       <c r="C650" s="12"/>
@@ -19399,7 +19399,7 @@
       <c r="X650" s="1"/>
       <c r="Y650" s="1"/>
     </row>
-    <row r="651" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A651" s="12"/>
       <c r="B651" s="12"/>
       <c r="C651" s="12"/>
@@ -19426,7 +19426,7 @@
       <c r="X651" s="1"/>
       <c r="Y651" s="1"/>
     </row>
-    <row r="652" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A652" s="12"/>
       <c r="B652" s="12"/>
       <c r="C652" s="12"/>
@@ -19453,7 +19453,7 @@
       <c r="X652" s="1"/>
       <c r="Y652" s="1"/>
     </row>
-    <row r="653" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A653" s="12"/>
       <c r="B653" s="12"/>
       <c r="C653" s="12"/>
@@ -19480,7 +19480,7 @@
       <c r="X653" s="1"/>
       <c r="Y653" s="1"/>
     </row>
-    <row r="654" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A654" s="12"/>
       <c r="B654" s="12"/>
       <c r="C654" s="12"/>
@@ -19507,7 +19507,7 @@
       <c r="X654" s="1"/>
       <c r="Y654" s="1"/>
     </row>
-    <row r="655" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A655" s="12"/>
       <c r="B655" s="12"/>
       <c r="C655" s="12"/>
@@ -19534,7 +19534,7 @@
       <c r="X655" s="1"/>
       <c r="Y655" s="1"/>
     </row>
-    <row r="656" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A656" s="12"/>
       <c r="B656" s="12"/>
       <c r="C656" s="12"/>
@@ -19561,7 +19561,7 @@
       <c r="X656" s="1"/>
       <c r="Y656" s="1"/>
     </row>
-    <row r="657" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A657" s="12"/>
       <c r="B657" s="12"/>
       <c r="C657" s="12"/>
@@ -19588,7 +19588,7 @@
       <c r="X657" s="1"/>
       <c r="Y657" s="1"/>
     </row>
-    <row r="658" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A658" s="12"/>
       <c r="B658" s="12"/>
       <c r="C658" s="12"/>
@@ -19615,7 +19615,7 @@
       <c r="X658" s="1"/>
       <c r="Y658" s="1"/>
     </row>
-    <row r="659" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A659" s="12"/>
       <c r="B659" s="12"/>
       <c r="C659" s="12"/>
@@ -19642,7 +19642,7 @@
       <c r="X659" s="1"/>
       <c r="Y659" s="1"/>
     </row>
-    <row r="660" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A660" s="12"/>
       <c r="B660" s="12"/>
       <c r="C660" s="12"/>
@@ -19669,7 +19669,7 @@
       <c r="X660" s="1"/>
       <c r="Y660" s="1"/>
     </row>
-    <row r="661" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A661" s="12"/>
       <c r="B661" s="12"/>
       <c r="C661" s="12"/>
@@ -19696,7 +19696,7 @@
       <c r="X661" s="1"/>
       <c r="Y661" s="1"/>
     </row>
-    <row r="662" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A662" s="12"/>
       <c r="B662" s="12"/>
       <c r="C662" s="12"/>
@@ -19723,7 +19723,7 @@
       <c r="X662" s="1"/>
       <c r="Y662" s="1"/>
     </row>
-    <row r="663" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A663" s="12"/>
       <c r="B663" s="12"/>
       <c r="C663" s="12"/>
@@ -19750,7 +19750,7 @@
       <c r="X663" s="1"/>
       <c r="Y663" s="1"/>
     </row>
-    <row r="664" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A664" s="12"/>
       <c r="B664" s="12"/>
       <c r="C664" s="12"/>
@@ -19777,7 +19777,7 @@
       <c r="X664" s="1"/>
       <c r="Y664" s="1"/>
     </row>
-    <row r="665" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A665" s="12"/>
       <c r="B665" s="12"/>
       <c r="C665" s="12"/>
@@ -19804,7 +19804,7 @@
       <c r="X665" s="1"/>
       <c r="Y665" s="1"/>
     </row>
-    <row r="666" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A666" s="12"/>
       <c r="B666" s="12"/>
       <c r="C666" s="12"/>
@@ -19831,7 +19831,7 @@
       <c r="X666" s="1"/>
       <c r="Y666" s="1"/>
     </row>
-    <row r="667" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A667" s="12"/>
       <c r="B667" s="12"/>
       <c r="C667" s="12"/>
@@ -19858,7 +19858,7 @@
       <c r="X667" s="1"/>
       <c r="Y667" s="1"/>
     </row>
-    <row r="668" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A668" s="12"/>
       <c r="B668" s="12"/>
       <c r="C668" s="12"/>
@@ -19885,7 +19885,7 @@
       <c r="X668" s="1"/>
       <c r="Y668" s="1"/>
     </row>
-    <row r="669" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A669" s="12"/>
       <c r="B669" s="12"/>
       <c r="C669" s="12"/>
@@ -19912,7 +19912,7 @@
       <c r="X669" s="1"/>
       <c r="Y669" s="1"/>
     </row>
-    <row r="670" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A670" s="12"/>
       <c r="B670" s="12"/>
       <c r="C670" s="12"/>
@@ -19939,7 +19939,7 @@
       <c r="X670" s="1"/>
       <c r="Y670" s="1"/>
     </row>
-    <row r="671" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A671" s="12"/>
       <c r="B671" s="12"/>
       <c r="C671" s="12"/>
@@ -19966,7 +19966,7 @@
       <c r="X671" s="1"/>
       <c r="Y671" s="1"/>
     </row>
-    <row r="672" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A672" s="12"/>
       <c r="B672" s="12"/>
       <c r="C672" s="12"/>
@@ -19993,7 +19993,7 @@
       <c r="X672" s="1"/>
       <c r="Y672" s="1"/>
     </row>
-    <row r="673" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A673" s="12"/>
       <c r="B673" s="12"/>
       <c r="C673" s="12"/>
@@ -20020,7 +20020,7 @@
       <c r="X673" s="1"/>
       <c r="Y673" s="1"/>
     </row>
-    <row r="674" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A674" s="12"/>
       <c r="B674" s="12"/>
       <c r="C674" s="12"/>
@@ -20047,7 +20047,7 @@
       <c r="X674" s="1"/>
       <c r="Y674" s="1"/>
     </row>
-    <row r="675" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A675" s="12"/>
       <c r="B675" s="12"/>
       <c r="C675" s="12"/>
@@ -20074,7 +20074,7 @@
       <c r="X675" s="1"/>
       <c r="Y675" s="1"/>
     </row>
-    <row r="676" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A676" s="12"/>
       <c r="B676" s="12"/>
       <c r="C676" s="12"/>
@@ -20101,7 +20101,7 @@
       <c r="X676" s="1"/>
       <c r="Y676" s="1"/>
     </row>
-    <row r="677" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A677" s="12"/>
       <c r="B677" s="12"/>
       <c r="C677" s="12"/>
@@ -20128,7 +20128,7 @@
       <c r="X677" s="1"/>
       <c r="Y677" s="1"/>
     </row>
-    <row r="678" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A678" s="12"/>
       <c r="B678" s="12"/>
       <c r="C678" s="12"/>
@@ -20155,7 +20155,7 @@
       <c r="X678" s="1"/>
       <c r="Y678" s="1"/>
     </row>
-    <row r="679" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A679" s="12"/>
       <c r="B679" s="12"/>
       <c r="C679" s="12"/>
@@ -20182,7 +20182,7 @@
       <c r="X679" s="1"/>
       <c r="Y679" s="1"/>
     </row>
-    <row r="680" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A680" s="12"/>
       <c r="B680" s="12"/>
       <c r="C680" s="12"/>
@@ -20209,7 +20209,7 @@
       <c r="X680" s="1"/>
       <c r="Y680" s="1"/>
     </row>
-    <row r="681" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A681" s="12"/>
       <c r="B681" s="12"/>
       <c r="C681" s="12"/>
@@ -20236,7 +20236,7 @@
       <c r="X681" s="1"/>
       <c r="Y681" s="1"/>
     </row>
-    <row r="682" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A682" s="12"/>
       <c r="B682" s="12"/>
       <c r="C682" s="12"/>
@@ -20263,7 +20263,7 @@
       <c r="X682" s="1"/>
       <c r="Y682" s="1"/>
     </row>
-    <row r="683" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A683" s="12"/>
       <c r="B683" s="12"/>
       <c r="C683" s="12"/>
@@ -20290,7 +20290,7 @@
       <c r="X683" s="1"/>
       <c r="Y683" s="1"/>
     </row>
-    <row r="684" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A684" s="12"/>
       <c r="B684" s="12"/>
       <c r="C684" s="12"/>
@@ -20317,7 +20317,7 @@
       <c r="X684" s="1"/>
       <c r="Y684" s="1"/>
     </row>
-    <row r="685" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A685" s="12"/>
       <c r="B685" s="12"/>
       <c r="C685" s="12"/>
@@ -20344,7 +20344,7 @@
       <c r="X685" s="1"/>
       <c r="Y685" s="1"/>
     </row>
-    <row r="686" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A686" s="12"/>
       <c r="B686" s="12"/>
       <c r="C686" s="12"/>
@@ -20371,7 +20371,7 @@
       <c r="X686" s="1"/>
       <c r="Y686" s="1"/>
     </row>
-    <row r="687" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A687" s="12"/>
       <c r="B687" s="12"/>
       <c r="C687" s="12"/>
@@ -20398,7 +20398,7 @@
       <c r="X687" s="1"/>
       <c r="Y687" s="1"/>
     </row>
-    <row r="688" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A688" s="12"/>
       <c r="B688" s="12"/>
       <c r="C688" s="12"/>
@@ -20425,7 +20425,7 @@
       <c r="X688" s="1"/>
       <c r="Y688" s="1"/>
     </row>
-    <row r="689" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A689" s="12"/>
       <c r="B689" s="12"/>
       <c r="C689" s="12"/>
@@ -20452,7 +20452,7 @@
       <c r="X689" s="1"/>
       <c r="Y689" s="1"/>
     </row>
-    <row r="690" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A690" s="12"/>
       <c r="B690" s="12"/>
       <c r="C690" s="12"/>
@@ -20479,7 +20479,7 @@
       <c r="X690" s="1"/>
       <c r="Y690" s="1"/>
     </row>
-    <row r="691" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A691" s="12"/>
       <c r="B691" s="12"/>
       <c r="C691" s="12"/>
@@ -20506,7 +20506,7 @@
       <c r="X691" s="1"/>
       <c r="Y691" s="1"/>
     </row>
-    <row r="692" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A692" s="12"/>
       <c r="B692" s="12"/>
       <c r="C692" s="12"/>
@@ -20533,7 +20533,7 @@
       <c r="X692" s="1"/>
       <c r="Y692" s="1"/>
     </row>
-    <row r="693" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A693" s="12"/>
       <c r="B693" s="12"/>
       <c r="C693" s="12"/>
@@ -20560,7 +20560,7 @@
       <c r="X693" s="1"/>
       <c r="Y693" s="1"/>
     </row>
-    <row r="694" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A694" s="12"/>
       <c r="B694" s="12"/>
       <c r="C694" s="12"/>
@@ -20587,7 +20587,7 @@
       <c r="X694" s="1"/>
       <c r="Y694" s="1"/>
     </row>
-    <row r="695" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A695" s="12"/>
       <c r="B695" s="12"/>
       <c r="C695" s="12"/>
@@ -20614,7 +20614,7 @@
       <c r="X695" s="1"/>
       <c r="Y695" s="1"/>
     </row>
-    <row r="696" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A696" s="12"/>
       <c r="B696" s="12"/>
       <c r="C696" s="12"/>
@@ -20641,7 +20641,7 @@
       <c r="X696" s="1"/>
       <c r="Y696" s="1"/>
     </row>
-    <row r="697" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A697" s="12"/>
       <c r="B697" s="12"/>
       <c r="C697" s="12"/>
@@ -20668,7 +20668,7 @@
       <c r="X697" s="1"/>
       <c r="Y697" s="1"/>
     </row>
-    <row r="698" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A698" s="12"/>
       <c r="B698" s="12"/>
       <c r="C698" s="12"/>
@@ -20695,7 +20695,7 @@
       <c r="X698" s="1"/>
       <c r="Y698" s="1"/>
     </row>
-    <row r="699" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A699" s="12"/>
       <c r="B699" s="12"/>
       <c r="C699" s="12"/>
@@ -20722,7 +20722,7 @@
       <c r="X699" s="1"/>
       <c r="Y699" s="1"/>
     </row>
-    <row r="700" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A700" s="12"/>
       <c r="B700" s="12"/>
       <c r="C700" s="12"/>
@@ -20749,7 +20749,7 @@
       <c r="X700" s="1"/>
       <c r="Y700" s="1"/>
     </row>
-    <row r="701" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A701" s="12"/>
       <c r="B701" s="12"/>
       <c r="C701" s="12"/>
@@ -20776,7 +20776,7 @@
       <c r="X701" s="1"/>
       <c r="Y701" s="1"/>
     </row>
-    <row r="702" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A702" s="12"/>
       <c r="B702" s="12"/>
       <c r="C702" s="12"/>
@@ -20803,7 +20803,7 @@
       <c r="X702" s="1"/>
       <c r="Y702" s="1"/>
     </row>
-    <row r="703" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A703" s="12"/>
       <c r="B703" s="12"/>
       <c r="C703" s="12"/>
@@ -20830,7 +20830,7 @@
       <c r="X703" s="1"/>
       <c r="Y703" s="1"/>
     </row>
-    <row r="704" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A704" s="12"/>
       <c r="B704" s="12"/>
       <c r="C704" s="12"/>
@@ -20857,7 +20857,7 @@
       <c r="X704" s="1"/>
       <c r="Y704" s="1"/>
     </row>
-    <row r="705" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A705" s="12"/>
       <c r="B705" s="12"/>
       <c r="C705" s="12"/>
@@ -20884,7 +20884,7 @@
       <c r="X705" s="1"/>
       <c r="Y705" s="1"/>
     </row>
-    <row r="706" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A706" s="12"/>
       <c r="B706" s="12"/>
       <c r="C706" s="12"/>
@@ -20911,7 +20911,7 @@
       <c r="X706" s="1"/>
       <c r="Y706" s="1"/>
     </row>
-    <row r="707" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A707" s="12"/>
       <c r="B707" s="12"/>
       <c r="C707" s="12"/>
@@ -20938,7 +20938,7 @@
       <c r="X707" s="1"/>
       <c r="Y707" s="1"/>
     </row>
-    <row r="708" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A708" s="12"/>
       <c r="B708" s="12"/>
       <c r="C708" s="12"/>
@@ -20965,7 +20965,7 @@
       <c r="X708" s="1"/>
       <c r="Y708" s="1"/>
     </row>
-    <row r="709" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A709" s="12"/>
       <c r="B709" s="12"/>
       <c r="C709" s="12"/>
@@ -20992,7 +20992,7 @@
       <c r="X709" s="1"/>
       <c r="Y709" s="1"/>
     </row>
-    <row r="710" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A710" s="12"/>
       <c r="B710" s="12"/>
       <c r="C710" s="12"/>
@@ -21019,7 +21019,7 @@
       <c r="X710" s="1"/>
       <c r="Y710" s="1"/>
     </row>
-    <row r="711" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A711" s="12"/>
       <c r="B711" s="12"/>
       <c r="C711" s="12"/>
@@ -21046,7 +21046,7 @@
       <c r="X711" s="1"/>
       <c r="Y711" s="1"/>
     </row>
-    <row r="712" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A712" s="12"/>
       <c r="B712" s="12"/>
       <c r="C712" s="12"/>
@@ -21073,7 +21073,7 @@
       <c r="X712" s="1"/>
       <c r="Y712" s="1"/>
     </row>
-    <row r="713" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A713" s="12"/>
       <c r="B713" s="12"/>
       <c r="C713" s="12"/>
@@ -21100,7 +21100,7 @@
       <c r="X713" s="1"/>
       <c r="Y713" s="1"/>
     </row>
-    <row r="714" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A714" s="12"/>
       <c r="B714" s="12"/>
       <c r="C714" s="12"/>
@@ -21127,7 +21127,7 @@
       <c r="X714" s="1"/>
       <c r="Y714" s="1"/>
     </row>
-    <row r="715" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A715" s="12"/>
       <c r="B715" s="12"/>
       <c r="C715" s="12"/>
@@ -21154,7 +21154,7 @@
       <c r="X715" s="1"/>
       <c r="Y715" s="1"/>
     </row>
-    <row r="716" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A716" s="12"/>
       <c r="B716" s="12"/>
       <c r="C716" s="12"/>
@@ -21181,7 +21181,7 @@
       <c r="X716" s="1"/>
       <c r="Y716" s="1"/>
     </row>
-    <row r="717" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A717" s="12"/>
       <c r="B717" s="12"/>
       <c r="C717" s="12"/>
@@ -21208,7 +21208,7 @@
       <c r="X717" s="1"/>
       <c r="Y717" s="1"/>
     </row>
-    <row r="718" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A718" s="12"/>
       <c r="B718" s="12"/>
       <c r="C718" s="12"/>
@@ -21235,7 +21235,7 @@
       <c r="X718" s="1"/>
       <c r="Y718" s="1"/>
     </row>
-    <row r="719" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A719" s="12"/>
       <c r="B719" s="12"/>
       <c r="C719" s="12"/>
@@ -21262,7 +21262,7 @@
       <c r="X719" s="1"/>
       <c r="Y719" s="1"/>
     </row>
-    <row r="720" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A720" s="12"/>
       <c r="B720" s="12"/>
       <c r="C720" s="12"/>
@@ -21289,7 +21289,7 @@
       <c r="X720" s="1"/>
       <c r="Y720" s="1"/>
     </row>
-    <row r="721" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A721" s="12"/>
       <c r="B721" s="12"/>
       <c r="C721" s="12"/>
@@ -21316,7 +21316,7 @@
       <c r="X721" s="1"/>
       <c r="Y721" s="1"/>
     </row>
-    <row r="722" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A722" s="12"/>
       <c r="B722" s="12"/>
       <c r="C722" s="12"/>
@@ -21343,7 +21343,7 @@
       <c r="X722" s="1"/>
       <c r="Y722" s="1"/>
     </row>
-    <row r="723" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A723" s="12"/>
       <c r="B723" s="12"/>
       <c r="C723" s="12"/>
@@ -21370,7 +21370,7 @@
       <c r="X723" s="1"/>
       <c r="Y723" s="1"/>
     </row>
-    <row r="724" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A724" s="12"/>
       <c r="B724" s="12"/>
       <c r="C724" s="12"/>
@@ -21397,7 +21397,7 @@
       <c r="X724" s="1"/>
       <c r="Y724" s="1"/>
     </row>
-    <row r="725" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A725" s="12"/>
       <c r="B725" s="12"/>
       <c r="C725" s="12"/>
@@ -21424,7 +21424,7 @@
       <c r="X725" s="1"/>
       <c r="Y725" s="1"/>
     </row>
-    <row r="726" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A726" s="12"/>
       <c r="B726" s="12"/>
       <c r="C726" s="12"/>
@@ -21451,7 +21451,7 @@
       <c r="X726" s="1"/>
       <c r="Y726" s="1"/>
     </row>
-    <row r="727" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A727" s="12"/>
       <c r="B727" s="12"/>
       <c r="C727" s="12"/>
@@ -21478,7 +21478,7 @@
       <c r="X727" s="1"/>
       <c r="Y727" s="1"/>
     </row>
-    <row r="728" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A728" s="12"/>
       <c r="B728" s="12"/>
       <c r="C728" s="12"/>
@@ -21505,7 +21505,7 @@
       <c r="X728" s="1"/>
       <c r="Y728" s="1"/>
     </row>
-    <row r="729" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A729" s="12"/>
       <c r="B729" s="12"/>
       <c r="C729" s="12"/>
@@ -21532,7 +21532,7 @@
       <c r="X729" s="1"/>
       <c r="Y729" s="1"/>
     </row>
-    <row r="730" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A730" s="12"/>
       <c r="B730" s="12"/>
       <c r="C730" s="12"/>
@@ -21559,7 +21559,7 @@
       <c r="X730" s="1"/>
       <c r="Y730" s="1"/>
     </row>
-    <row r="731" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A731" s="12"/>
       <c r="B731" s="12"/>
       <c r="C731" s="12"/>
@@ -21586,7 +21586,7 @@
       <c r="X731" s="1"/>
       <c r="Y731" s="1"/>
     </row>
-    <row r="732" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A732" s="12"/>
       <c r="B732" s="12"/>
       <c r="C732" s="12"/>
@@ -21613,7 +21613,7 @@
       <c r="X732" s="1"/>
       <c r="Y732" s="1"/>
     </row>
-    <row r="733" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A733" s="12"/>
       <c r="B733" s="12"/>
       <c r="C733" s="12"/>
@@ -21640,7 +21640,7 @@
       <c r="X733" s="1"/>
       <c r="Y733" s="1"/>
     </row>
-    <row r="734" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A734" s="12"/>
       <c r="B734" s="12"/>
       <c r="C734" s="12"/>
@@ -21667,7 +21667,7 @@
       <c r="X734" s="1"/>
       <c r="Y734" s="1"/>
     </row>
-    <row r="735" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A735" s="12"/>
       <c r="B735" s="12"/>
       <c r="C735" s="12"/>
@@ -21694,7 +21694,7 @@
       <c r="X735" s="1"/>
       <c r="Y735" s="1"/>
     </row>
-    <row r="736" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A736" s="12"/>
       <c r="B736" s="12"/>
       <c r="C736" s="12"/>
@@ -21721,7 +21721,7 @@
       <c r="X736" s="1"/>
       <c r="Y736" s="1"/>
     </row>
-    <row r="737" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A737" s="12"/>
       <c r="B737" s="12"/>
       <c r="C737" s="12"/>
@@ -21748,7 +21748,7 @@
       <c r="X737" s="1"/>
       <c r="Y737" s="1"/>
     </row>
-    <row r="738" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A738" s="12"/>
       <c r="B738" s="12"/>
       <c r="C738" s="12"/>
@@ -21775,7 +21775,7 @@
       <c r="X738" s="1"/>
       <c r="Y738" s="1"/>
     </row>
-    <row r="739" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A739" s="12"/>
       <c r="B739" s="12"/>
       <c r="C739" s="12"/>
@@ -21802,7 +21802,7 @@
       <c r="X739" s="1"/>
       <c r="Y739" s="1"/>
     </row>
-    <row r="740" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A740" s="12"/>
       <c r="B740" s="12"/>
       <c r="C740" s="12"/>
@@ -21829,7 +21829,7 @@
       <c r="X740" s="1"/>
       <c r="Y740" s="1"/>
     </row>
-    <row r="741" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A741" s="12"/>
       <c r="B741" s="12"/>
       <c r="C741" s="12"/>
@@ -21856,7 +21856,7 @@
       <c r="X741" s="1"/>
       <c r="Y741" s="1"/>
     </row>
-    <row r="742" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A742" s="12"/>
       <c r="B742" s="12"/>
       <c r="C742" s="12"/>
@@ -21883,7 +21883,7 @@
       <c r="X742" s="1"/>
       <c r="Y742" s="1"/>
     </row>
-    <row r="743" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A743" s="12"/>
       <c r="B743" s="12"/>
       <c r="C743" s="12"/>
@@ -21910,7 +21910,7 @@
       <c r="X743" s="1"/>
       <c r="Y743" s="1"/>
     </row>
-    <row r="744" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A744" s="12"/>
       <c r="B744" s="12"/>
       <c r="C744" s="12"/>
@@ -21937,7 +21937,7 @@
       <c r="X744" s="1"/>
       <c r="Y744" s="1"/>
     </row>
-    <row r="745" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A745" s="12"/>
       <c r="B745" s="12"/>
       <c r="C745" s="12"/>
@@ -21964,7 +21964,7 @@
       <c r="X745" s="1"/>
       <c r="Y745" s="1"/>
     </row>
-    <row r="746" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A746" s="12"/>
       <c r="B746" s="12"/>
       <c r="C746" s="12"/>
@@ -21991,7 +21991,7 @@
       <c r="X746" s="1"/>
       <c r="Y746" s="1"/>
     </row>
-    <row r="747" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A747" s="12"/>
       <c r="B747" s="12"/>
       <c r="C747" s="12"/>
@@ -22018,7 +22018,7 @@
       <c r="X747" s="1"/>
       <c r="Y747" s="1"/>
     </row>
-    <row r="748" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A748" s="12"/>
       <c r="B748" s="12"/>
       <c r="C748" s="12"/>
@@ -22045,7 +22045,7 @@
       <c r="X748" s="1"/>
       <c r="Y748" s="1"/>
     </row>
-    <row r="749" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A749" s="12"/>
       <c r="B749" s="12"/>
       <c r="C749" s="12"/>
@@ -22072,7 +22072,7 @@
       <c r="X749" s="1"/>
       <c r="Y749" s="1"/>
     </row>
-    <row r="750" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A750" s="12"/>
       <c r="B750" s="12"/>
       <c r="C750" s="12"/>
@@ -22099,7 +22099,7 @@
       <c r="X750" s="1"/>
       <c r="Y750" s="1"/>
     </row>
-    <row r="751" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A751" s="12"/>
       <c r="B751" s="12"/>
       <c r="C751" s="12"/>
@@ -22126,7 +22126,7 @@
       <c r="X751" s="1"/>
       <c r="Y751" s="1"/>
     </row>
-    <row r="752" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A752" s="12"/>
       <c r="B752" s="12"/>
       <c r="C752" s="12"/>
@@ -22153,7 +22153,7 @@
       <c r="X752" s="1"/>
       <c r="Y752" s="1"/>
     </row>
-    <row r="753" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A753" s="12"/>
       <c r="B753" s="12"/>
       <c r="C753" s="12"/>
@@ -22180,7 +22180,7 @@
       <c r="X753" s="1"/>
       <c r="Y753" s="1"/>
     </row>
-    <row r="754" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A754" s="12"/>
       <c r="B754" s="12"/>
       <c r="C754" s="12"/>
@@ -22207,7 +22207,7 @@
       <c r="X754" s="1"/>
       <c r="Y754" s="1"/>
     </row>
-    <row r="755" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A755" s="12"/>
       <c r="B755" s="12"/>
       <c r="C755" s="12"/>
@@ -22234,7 +22234,7 @@
       <c r="X755" s="1"/>
       <c r="Y755" s="1"/>
     </row>
-    <row r="756" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A756" s="12"/>
       <c r="B756" s="12"/>
       <c r="C756" s="12"/>
@@ -22261,7 +22261,7 @@
       <c r="X756" s="1"/>
       <c r="Y756" s="1"/>
     </row>
-    <row r="757" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A757" s="12"/>
       <c r="B757" s="12"/>
       <c r="C757" s="12"/>
@@ -22288,7 +22288,7 @@
       <c r="X757" s="1"/>
       <c r="Y757" s="1"/>
     </row>
-    <row r="758" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A758" s="12"/>
       <c r="B758" s="12"/>
       <c r="C758" s="12"/>
@@ -22315,7 +22315,7 @@
       <c r="X758" s="1"/>
       <c r="Y758" s="1"/>
     </row>
-    <row r="759" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A759" s="12"/>
       <c r="B759" s="12"/>
       <c r="C759" s="12"/>
@@ -22342,7 +22342,7 @@
       <c r="X759" s="1"/>
       <c r="Y759" s="1"/>
     </row>
-    <row r="760" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A760" s="12"/>
       <c r="B760" s="12"/>
       <c r="C760" s="12"/>
@@ -22369,7 +22369,7 @@
       <c r="X760" s="1"/>
       <c r="Y760" s="1"/>
     </row>
-    <row r="761" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A761" s="12"/>
       <c r="B761" s="12"/>
       <c r="C761" s="12"/>
@@ -22396,7 +22396,7 @@
       <c r="X761" s="1"/>
       <c r="Y761" s="1"/>
     </row>
-    <row r="762" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A762" s="12"/>
       <c r="B762" s="12"/>
       <c r="C762" s="12"/>
@@ -22423,7 +22423,7 @@
       <c r="X762" s="1"/>
       <c r="Y762" s="1"/>
     </row>
-    <row r="763" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A763" s="12"/>
       <c r="B763" s="12"/>
       <c r="C763" s="12"/>
@@ -22450,7 +22450,7 @@
       <c r="X763" s="1"/>
       <c r="Y763" s="1"/>
     </row>
-    <row r="764" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A764" s="12"/>
       <c r="B764" s="12"/>
       <c r="C764" s="12"/>
@@ -22477,7 +22477,7 @@
       <c r="X764" s="1"/>
       <c r="Y764" s="1"/>
     </row>
-    <row r="765" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A765" s="12"/>
       <c r="B765" s="12"/>
       <c r="C765" s="12"/>
@@ -22504,7 +22504,7 @@
       <c r="X765" s="1"/>
       <c r="Y765" s="1"/>
     </row>
-    <row r="766" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A766" s="12"/>
       <c r="B766" s="12"/>
       <c r="C766" s="12"/>
@@ -22531,7 +22531,7 @@
       <c r="X766" s="1"/>
       <c r="Y766" s="1"/>
     </row>
-    <row r="767" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A767" s="12"/>
       <c r="B767" s="12"/>
       <c r="C767" s="12"/>
@@ -22558,7 +22558,7 @@
       <c r="X767" s="1"/>
       <c r="Y767" s="1"/>
     </row>
-    <row r="768" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A768" s="12"/>
       <c r="B768" s="12"/>
       <c r="C768" s="12"/>
@@ -22585,7 +22585,7 @@
       <c r="X768" s="1"/>
       <c r="Y768" s="1"/>
     </row>
-    <row r="769" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A769" s="12"/>
       <c r="B769" s="12"/>
       <c r="C769" s="12"/>
@@ -22612,7 +22612,7 @@
       <c r="X769" s="1"/>
       <c r="Y769" s="1"/>
     </row>
-    <row r="770" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A770" s="12"/>
       <c r="B770" s="12"/>
       <c r="C770" s="12"/>
@@ -22639,7 +22639,7 @@
       <c r="X770" s="1"/>
       <c r="Y770" s="1"/>
     </row>
-    <row r="771" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A771" s="12"/>
       <c r="B771" s="12"/>
       <c r="C771" s="12"/>
@@ -22666,7 +22666,7 @@
       <c r="X771" s="1"/>
       <c r="Y771" s="1"/>
     </row>
-    <row r="772" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A772" s="12"/>
       <c r="B772" s="12"/>
       <c r="C772" s="12"/>
@@ -22693,7 +22693,7 @@
       <c r="X772" s="1"/>
       <c r="Y772" s="1"/>
     </row>
-    <row r="773" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A773" s="12"/>
       <c r="B773" s="12"/>
       <c r="C773" s="12"/>
@@ -22720,7 +22720,7 @@
       <c r="X773" s="1"/>
       <c r="Y773" s="1"/>
     </row>
-    <row r="774" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A774" s="12"/>
       <c r="B774" s="12"/>
       <c r="C774" s="12"/>
@@ -22747,7 +22747,7 @@
       <c r="X774" s="1"/>
       <c r="Y774" s="1"/>
     </row>
-    <row r="775" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A775" s="12"/>
       <c r="B775" s="12"/>
       <c r="C775" s="12"/>
@@ -22774,7 +22774,7 @@
       <c r="X775" s="1"/>
       <c r="Y775" s="1"/>
     </row>
-    <row r="776" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A776" s="12"/>
       <c r="B776" s="12"/>
       <c r="C776" s="12"/>
@@ -22801,7 +22801,7 @@
       <c r="X776" s="1"/>
       <c r="Y776" s="1"/>
     </row>
-    <row r="777" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A777" s="12"/>
       <c r="B777" s="12"/>
       <c r="C777" s="12"/>
@@ -22828,7 +22828,7 @@
       <c r="X777" s="1"/>
       <c r="Y777" s="1"/>
     </row>
-    <row r="778" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A778" s="12"/>
       <c r="B778" s="12"/>
       <c r="C778" s="12"/>
@@ -22855,7 +22855,7 @@
       <c r="X778" s="1"/>
       <c r="Y778" s="1"/>
     </row>
-    <row r="779" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A779" s="12"/>
       <c r="B779" s="12"/>
       <c r="C779" s="12"/>
@@ -22882,7 +22882,7 @@
       <c r="X779" s="1"/>
       <c r="Y779" s="1"/>
     </row>
-    <row r="780" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A780" s="12"/>
       <c r="B780" s="12"/>
       <c r="C780" s="12"/>
@@ -22909,7 +22909,7 @@
       <c r="X780" s="1"/>
       <c r="Y780" s="1"/>
     </row>
-    <row r="781" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A781" s="12"/>
       <c r="B781" s="12"/>
       <c r="C781" s="12"/>
@@ -22936,7 +22936,7 @@
       <c r="X781" s="1"/>
       <c r="Y781" s="1"/>
     </row>
-    <row r="782" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A782" s="12"/>
       <c r="B782" s="12"/>
       <c r="C782" s="12"/>
@@ -22963,7 +22963,7 @@
       <c r="X782" s="1"/>
       <c r="Y782" s="1"/>
     </row>
-    <row r="783" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A783" s="12"/>
       <c r="B783" s="12"/>
       <c r="C783" s="12"/>
@@ -22990,7 +22990,7 @@
       <c r="X783" s="1"/>
       <c r="Y783" s="1"/>
     </row>
-    <row r="784" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A784" s="12"/>
       <c r="B784" s="12"/>
       <c r="C784" s="12"/>
@@ -23017,7 +23017,7 @@
       <c r="X784" s="1"/>
       <c r="Y784" s="1"/>
     </row>
-    <row r="785" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A785" s="12"/>
       <c r="B785" s="12"/>
       <c r="C785" s="12"/>
@@ -23044,7 +23044,7 @@
       <c r="X785" s="1"/>
       <c r="Y785" s="1"/>
     </row>
-    <row r="786" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A786" s="12"/>
       <c r="B786" s="12"/>
       <c r="C786" s="12"/>
@@ -23071,7 +23071,7 @@
       <c r="X786" s="1"/>
       <c r="Y786" s="1"/>
     </row>
-    <row r="787" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A787" s="12"/>
       <c r="B787" s="12"/>
       <c r="C787" s="12"/>
@@ -23098,7 +23098,7 @@
       <c r="X787" s="1"/>
       <c r="Y787" s="1"/>
     </row>
-    <row r="788" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A788" s="12"/>
       <c r="B788" s="12"/>
       <c r="C788" s="12"/>
@@ -23125,7 +23125,7 @@
       <c r="X788" s="1"/>
       <c r="Y788" s="1"/>
     </row>
-    <row r="789" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A789" s="12"/>
       <c r="B789" s="12"/>
       <c r="C789" s="12"/>
@@ -23152,7 +23152,7 @@
       <c r="X789" s="1"/>
       <c r="Y789" s="1"/>
     </row>
-    <row r="790" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A790" s="12"/>
       <c r="B790" s="12"/>
       <c r="C790" s="12"/>
@@ -23179,7 +23179,7 @@
       <c r="X790" s="1"/>
       <c r="Y790" s="1"/>
     </row>
-    <row r="791" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A791" s="12"/>
       <c r="B791" s="12"/>
       <c r="C791" s="12"/>
@@ -23206,7 +23206,7 @@
       <c r="X791" s="1"/>
       <c r="Y791" s="1"/>
     </row>
-    <row r="792" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A792" s="12"/>
       <c r="B792" s="12"/>
       <c r="C792" s="12"/>
@@ -23233,7 +23233,7 @@
       <c r="X792" s="1"/>
       <c r="Y792" s="1"/>
     </row>
-    <row r="793" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A793" s="12"/>
       <c r="B793" s="12"/>
       <c r="C793" s="12"/>
@@ -23260,7 +23260,7 @@
       <c r="X793" s="1"/>
       <c r="Y793" s="1"/>
     </row>
-    <row r="794" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A794" s="12"/>
       <c r="B794" s="12"/>
       <c r="C794" s="12"/>
@@ -23287,7 +23287,7 @@
       <c r="X794" s="1"/>
       <c r="Y794" s="1"/>
     </row>
-    <row r="795" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A795" s="12"/>
       <c r="B795" s="12"/>
       <c r="C795" s="12"/>
@@ -23314,7 +23314,7 @@
       <c r="X795" s="1"/>
       <c r="Y795" s="1"/>
     </row>
-    <row r="796" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A796" s="12"/>
       <c r="B796" s="12"/>
       <c r="C796" s="12"/>
@@ -23341,7 +23341,7 @@
       <c r="X796" s="1"/>
       <c r="Y796" s="1"/>
     </row>
-    <row r="797" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A797" s="12"/>
       <c r="B797" s="12"/>
       <c r="C797" s="12"/>
@@ -23368,7 +23368,7 @@
       <c r="X797" s="1"/>
       <c r="Y797" s="1"/>
     </row>
-    <row r="798" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A798" s="12"/>
       <c r="B798" s="12"/>
       <c r="C798" s="12"/>
@@ -23395,7 +23395,7 @@
       <c r="X798" s="1"/>
       <c r="Y798" s="1"/>
     </row>
-    <row r="799" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A799" s="12"/>
       <c r="B799" s="12"/>
       <c r="C799" s="12"/>
@@ -23422,7 +23422,7 @@
       <c r="X799" s="1"/>
       <c r="Y799" s="1"/>
     </row>
-    <row r="800" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A800" s="12"/>
       <c r="B800" s="12"/>
       <c r="C800" s="12"/>
@@ -23449,7 +23449,7 @@
       <c r="X800" s="1"/>
       <c r="Y800" s="1"/>
     </row>
-    <row r="801" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A801" s="12"/>
       <c r="B801" s="12"/>
       <c r="C801" s="12"/>
@@ -23476,7 +23476,7 @@
       <c r="X801" s="1"/>
       <c r="Y801" s="1"/>
     </row>
-    <row r="802" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A802" s="12"/>
       <c r="B802" s="12"/>
       <c r="C802" s="12"/>
@@ -23503,7 +23503,7 @@
       <c r="X802" s="1"/>
       <c r="Y802" s="1"/>
     </row>
-    <row r="803" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A803" s="12"/>
       <c r="B803" s="12"/>
       <c r="C803" s="12"/>
@@ -23530,7 +23530,7 @@
       <c r="X803" s="1"/>
       <c r="Y803" s="1"/>
     </row>
-    <row r="804" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A804" s="12"/>
       <c r="B804" s="12"/>
       <c r="C804" s="12"/>
@@ -23557,7 +23557,7 @@
       <c r="X804" s="1"/>
       <c r="Y804" s="1"/>
     </row>
-    <row r="805" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A805" s="12"/>
       <c r="B805" s="12"/>
       <c r="C805" s="12"/>
@@ -23584,7 +23584,7 @@
       <c r="X805" s="1"/>
       <c r="Y805" s="1"/>
     </row>
-    <row r="806" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A806" s="12"/>
       <c r="B806" s="12"/>
       <c r="C806" s="12"/>
@@ -23611,7 +23611,7 @@
       <c r="X806" s="1"/>
       <c r="Y806" s="1"/>
     </row>
-    <row r="807" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A807" s="12"/>
       <c r="B807" s="12"/>
       <c r="C807" s="12"/>
@@ -23638,7 +23638,7 @@
       <c r="X807" s="1"/>
       <c r="Y807" s="1"/>
     </row>
-    <row r="808" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A808" s="12"/>
       <c r="B808" s="12"/>
       <c r="C808" s="12"/>
@@ -23665,7 +23665,7 @@
       <c r="X808" s="1"/>
       <c r="Y808" s="1"/>
     </row>
-    <row r="809" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A809" s="12"/>
       <c r="B809" s="12"/>
       <c r="C809" s="12"/>
@@ -23692,7 +23692,7 @@
       <c r="X809" s="1"/>
       <c r="Y809" s="1"/>
     </row>
-    <row r="810" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A810" s="12"/>
       <c r="B810" s="12"/>
       <c r="C810" s="12"/>
@@ -23719,7 +23719,7 @@
       <c r="X810" s="1"/>
       <c r="Y810" s="1"/>
     </row>
-    <row r="811" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A811" s="12"/>
       <c r="B811" s="12"/>
       <c r="C811" s="12"/>
@@ -23746,7 +23746,7 @@
       <c r="X811" s="1"/>
       <c r="Y811" s="1"/>
     </row>
-    <row r="812" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A812" s="12"/>
       <c r="B812" s="12"/>
       <c r="C812" s="12"/>
@@ -23773,7 +23773,7 @@
       <c r="X812" s="1"/>
       <c r="Y812" s="1"/>
     </row>
-    <row r="813" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A813" s="12"/>
       <c r="B813" s="12"/>
       <c r="C813" s="12"/>
@@ -23800,7 +23800,7 @@
       <c r="X813" s="1"/>
       <c r="Y813" s="1"/>
     </row>
-    <row r="814" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A814" s="12"/>
       <c r="B814" s="12"/>
       <c r="C814" s="12"/>
@@ -23827,7 +23827,7 @@
       <c r="X814" s="1"/>
       <c r="Y814" s="1"/>
     </row>
-    <row r="815" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A815" s="12"/>
       <c r="B815" s="12"/>
       <c r="C815" s="12"/>
@@ -23854,7 +23854,7 @@
       <c r="X815" s="1"/>
       <c r="Y815" s="1"/>
     </row>
-    <row r="816" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A816" s="12"/>
       <c r="B816" s="12"/>
       <c r="C816" s="12"/>
@@ -23881,7 +23881,7 @@
       <c r="X816" s="1"/>
       <c r="Y816" s="1"/>
     </row>
-    <row r="817" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A817" s="12"/>
       <c r="B817" s="12"/>
       <c r="C817" s="12"/>
@@ -23908,7 +23908,7 @@
       <c r="X817" s="1"/>
       <c r="Y817" s="1"/>
     </row>
-    <row r="818" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A818" s="12"/>
       <c r="B818" s="12"/>
       <c r="C818" s="12"/>
@@ -23935,7 +23935,7 @@
       <c r="X818" s="1"/>
       <c r="Y818" s="1"/>
     </row>
-    <row r="819" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A819" s="12"/>
       <c r="B819" s="12"/>
       <c r="C819" s="12"/>
@@ -23962,7 +23962,7 @@
       <c r="X819" s="1"/>
       <c r="Y819" s="1"/>
     </row>
-    <row r="820" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A820" s="12"/>
       <c r="B820" s="12"/>
       <c r="C820" s="12"/>
@@ -23989,7 +23989,7 @@
       <c r="X820" s="1"/>
       <c r="Y820" s="1"/>
     </row>
-    <row r="821" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A821" s="12"/>
       <c r="B821" s="12"/>
       <c r="C821" s="12"/>
@@ -24016,7 +24016,7 @@
       <c r="X821" s="1"/>
       <c r="Y821" s="1"/>
     </row>
-    <row r="822" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A822" s="12"/>
       <c r="B822" s="12"/>
       <c r="C822" s="12"/>
@@ -24043,7 +24043,7 @@
       <c r="X822" s="1"/>
       <c r="Y822" s="1"/>
     </row>
-    <row r="823" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A823" s="12"/>
       <c r="B823" s="12"/>
       <c r="C823" s="12"/>
@@ -24070,7 +24070,7 @@
       <c r="X823" s="1"/>
       <c r="Y823" s="1"/>
     </row>
-    <row r="824" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A824" s="12"/>
       <c r="B824" s="12"/>
       <c r="C824" s="12"/>
@@ -24097,7 +24097,7 @@
       <c r="X824" s="1"/>
       <c r="Y824" s="1"/>
     </row>
-    <row r="825" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A825" s="12"/>
       <c r="B825" s="12"/>
       <c r="C825" s="12"/>
@@ -24124,7 +24124,7 @@
       <c r="X825" s="1"/>
       <c r="Y825" s="1"/>
     </row>
-    <row r="826" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A826" s="12"/>
       <c r="B826" s="12"/>
       <c r="C826" s="12"/>
@@ -24151,7 +24151,7 @@
       <c r="X826" s="1"/>
       <c r="Y826" s="1"/>
     </row>
-    <row r="827" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A827" s="12"/>
       <c r="B827" s="12"/>
       <c r="C827" s="12"/>
@@ -24178,7 +24178,7 @@
       <c r="X827" s="1"/>
       <c r="Y827" s="1"/>
     </row>
-    <row r="828" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A828" s="12"/>
       <c r="B828" s="12"/>
       <c r="C828" s="12"/>
@@ -24205,7 +24205,7 @@
       <c r="X828" s="1"/>
       <c r="Y828" s="1"/>
     </row>
-    <row r="829" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A829" s="12"/>
       <c r="B829" s="12"/>
       <c r="C829" s="12"/>
@@ -24232,7 +24232,7 @@
       <c r="X829" s="1"/>
       <c r="Y829" s="1"/>
     </row>
-    <row r="830" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A830" s="12"/>
       <c r="B830" s="12"/>
       <c r="C830" s="12"/>
@@ -24259,7 +24259,7 @@
       <c r="X830" s="1"/>
       <c r="Y830" s="1"/>
     </row>
-    <row r="831" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A831" s="12"/>
       <c r="B831" s="12"/>
       <c r="C831" s="12"/>
@@ -24286,7 +24286,7 @@
       <c r="X831" s="1"/>
       <c r="Y831" s="1"/>
     </row>
-    <row r="832" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A832" s="12"/>
       <c r="B832" s="12"/>
       <c r="C832" s="12"/>
@@ -24313,7 +24313,7 @@
       <c r="X832" s="1"/>
       <c r="Y832" s="1"/>
     </row>
-    <row r="833" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A833" s="12"/>
       <c r="B833" s="12"/>
       <c r="C833" s="12"/>
@@ -24340,7 +24340,7 @@
       <c r="X833" s="1"/>
       <c r="Y833" s="1"/>
     </row>
-    <row r="834" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A834" s="12"/>
       <c r="B834" s="12"/>
       <c r="C834" s="12"/>
@@ -24367,7 +24367,7 @@
       <c r="X834" s="1"/>
       <c r="Y834" s="1"/>
     </row>
-    <row r="835" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A835" s="12"/>
       <c r="B835" s="12"/>
       <c r="C835" s="12"/>
@@ -24394,7 +24394,7 @@
       <c r="X835" s="1"/>
       <c r="Y835" s="1"/>
     </row>
-    <row r="836" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A836" s="12"/>
       <c r="B836" s="12"/>
       <c r="C836" s="12"/>
@@ -24421,7 +24421,7 @@
       <c r="X836" s="1"/>
       <c r="Y836" s="1"/>
     </row>
-    <row r="837" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A837" s="12"/>
       <c r="B837" s="12"/>
       <c r="C837" s="12"/>
@@ -24448,7 +24448,7 @@
       <c r="X837" s="1"/>
       <c r="Y837" s="1"/>
     </row>
-    <row r="838" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A838" s="12"/>
       <c r="B838" s="12"/>
       <c r="C838" s="12"/>
@@ -24475,7 +24475,7 @@
       <c r="X838" s="1"/>
       <c r="Y838" s="1"/>
     </row>
-    <row r="839" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A839" s="12"/>
       <c r="B839" s="12"/>
       <c r="C839" s="12"/>
@@ -24502,7 +24502,7 @@
       <c r="X839" s="1"/>
       <c r="Y839" s="1"/>
     </row>
-    <row r="840" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A840" s="12"/>
       <c r="B840" s="12"/>
       <c r="C840" s="12"/>
@@ -24529,7 +24529,7 @@
       <c r="X840" s="1"/>
       <c r="Y840" s="1"/>
     </row>
-    <row r="841" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A841" s="12"/>
       <c r="B841" s="12"/>
       <c r="C841" s="12"/>
@@ -24556,7 +24556,7 @@
       <c r="X841" s="1"/>
       <c r="Y841" s="1"/>
     </row>
-    <row r="842" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A842" s="12"/>
       <c r="B842" s="12"/>
       <c r="C842" s="12"/>
@@ -24583,7 +24583,7 @@
       <c r="X842" s="1"/>
       <c r="Y842" s="1"/>
     </row>
-    <row r="843" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A843" s="12"/>
       <c r="B843" s="12"/>
       <c r="C843" s="12"/>
@@ -24610,7 +24610,7 @@
       <c r="X843" s="1"/>
       <c r="Y843" s="1"/>
     </row>
-    <row r="844" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A844" s="12"/>
       <c r="B844" s="12"/>
       <c r="C844" s="12"/>
@@ -24637,7 +24637,7 @@
       <c r="X844" s="1"/>
       <c r="Y844" s="1"/>
     </row>
-    <row r="845" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A845" s="12"/>
       <c r="B845" s="12"/>
       <c r="C845" s="12"/>
@@ -24664,7 +24664,7 @@
       <c r="X845" s="1"/>
       <c r="Y845" s="1"/>
     </row>
-    <row r="846" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A846" s="12"/>
       <c r="B846" s="12"/>
       <c r="C846" s="12"/>
@@ -24691,7 +24691,7 @@
       <c r="X846" s="1"/>
       <c r="Y846" s="1"/>
     </row>
-    <row r="847" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A847" s="12"/>
       <c r="B847" s="12"/>
       <c r="C847" s="12"/>
@@ -24718,7 +24718,7 @@
       <c r="X847" s="1"/>
       <c r="Y847" s="1"/>
     </row>
-    <row r="848" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A848" s="12"/>
       <c r="B848" s="12"/>
       <c r="C848" s="12"/>
@@ -24745,7 +24745,7 @@
       <c r="X848" s="1"/>
       <c r="Y848" s="1"/>
     </row>
-    <row r="849" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A849" s="12"/>
       <c r="B849" s="12"/>
       <c r="C849" s="12"/>
@@ -24772,7 +24772,7 @@
       <c r="X849" s="1"/>
       <c r="Y849" s="1"/>
     </row>
-    <row r="850" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A850" s="12"/>
       <c r="B850" s="12"/>
       <c r="C850" s="12"/>
@@ -24799,7 +24799,7 @@
       <c r="X850" s="1"/>
       <c r="Y850" s="1"/>
     </row>
-    <row r="851" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A851" s="12"/>
       <c r="B851" s="12"/>
       <c r="C851" s="12"/>
@@ -24826,7 +24826,7 @@
       <c r="X851" s="1"/>
       <c r="Y851" s="1"/>
     </row>
-    <row r="852" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A852" s="12"/>
       <c r="B852" s="12"/>
       <c r="C852" s="12"/>
@@ -24853,7 +24853,7 @@
       <c r="X852" s="1"/>
       <c r="Y852" s="1"/>
     </row>
-    <row r="853" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A853" s="12"/>
       <c r="B853" s="12"/>
       <c r="C853" s="12"/>
@@ -24880,7 +24880,7 @@
       <c r="X853" s="1"/>
       <c r="Y853" s="1"/>
     </row>
-    <row r="854" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A854" s="12"/>
       <c r="B854" s="12"/>
       <c r="C854" s="12"/>
@@ -24907,7 +24907,7 @@
       <c r="X854" s="1"/>
       <c r="Y854" s="1"/>
     </row>
-    <row r="855" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A855" s="12"/>
       <c r="B855" s="12"/>
       <c r="C855" s="12"/>
@@ -24940,6 +24940,16 @@
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
   <mergeCells count="26">
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="J12:J13"/>
@@ -24956,16 +24966,6 @@
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="I14:I1048576">
     <cfRule type="containsText" dxfId="18" priority="23" operator="containsText" text="HASI GABE">

--- a/0.1- PLANIFIKAZIOA/TSB EGUNEROKOA.xlsx
+++ b/0.1- PLANIFIKAZIOA/TSB EGUNEROKOA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikaltamirapaag2\Documents\GitHub\ERRONKA-TSB-RETURNS\0.1- PLANIFIKAZIOA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikaltamirapaag2\Desktop\ERRONKA TSB RETURNS\0.1- PLANIFIKAZIOA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12312"/>
   </bookViews>
   <sheets>
     <sheet name="Planifikazioa" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="56">
   <si>
     <t>ENTREGA</t>
   </si>
@@ -219,6 +219,12 @@
   </si>
   <si>
     <t>ENPRESA: Enpresaren ideia pentsatu eta idatzi</t>
+  </si>
+  <si>
+    <t>ERP: Datu baseko beharrezko taulak aukeratu</t>
+  </si>
+  <si>
+    <t>23/10/2023 - 27/10/2023</t>
   </si>
 </sst>
 </file>
@@ -944,6 +950,41 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -963,15 +1004,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1002,32 +1034,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1531,31 +1537,31 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.42578125" style="15"/>
-    <col min="6" max="6" width="20.42578125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="31.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="15"/>
-    <col min="9" max="9" width="22.85546875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="27.7109375" style="15" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14.44140625" style="15"/>
+    <col min="6" max="6" width="20.44140625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="31.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="15"/>
+    <col min="9" max="9" width="22.88671875" style="15" customWidth="1"/>
+    <col min="10" max="10" width="27.6640625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="34.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:25" ht="34.799999999999997" x14ac:dyDescent="0.7">
+      <c r="A1" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
       <c r="G1" s="16"/>
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
-      <c r="J1" s="41"/>
+      <c r="J1" s="56"/>
       <c r="K1" s="2"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1572,19 +1578,19 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="34.5" x14ac:dyDescent="0.95">
-      <c r="A2" s="66" t="s">
+    <row r="2" spans="1:25" ht="34.799999999999997" x14ac:dyDescent="1.2">
+      <c r="A2" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="42"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="57"/>
       <c r="K2" s="2"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1601,17 +1607,17 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="43"/>
+    <row r="3" spans="1:25" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="58"/>
       <c r="K3" s="2"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1628,7 +1634,7 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1655,18 +1661,18 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="29.25" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="A5" s="70" t="s">
+    <row r="5" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.95">
+      <c r="A5" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
       <c r="J5" s="6"/>
       <c r="K5" s="2"/>
       <c r="L5" s="1"/>
@@ -1684,22 +1690,22 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="62" t="s">
+    <row r="6" spans="1:25" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A6" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="65" t="s">
+      <c r="B6" s="75"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="65" t="s">
+      <c r="E6" s="75"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="63"/>
-      <c r="I6" s="64"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="76"/>
       <c r="J6" s="40" t="s">
         <v>17</v>
       </c>
@@ -1719,22 +1725,22 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="72" t="s">
+    <row r="7" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="72" t="s">
+      <c r="B7" s="51"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="72" t="s">
+      <c r="E7" s="51"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="74"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="52"/>
       <c r="J7" s="37" t="s">
         <v>21</v>
       </c>
@@ -1754,20 +1760,20 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="75" t="s">
+    <row r="8" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="75" t="s">
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="77"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55"/>
       <c r="J8" s="38" t="s">
         <v>23</v>
       </c>
@@ -1787,20 +1793,20 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+    <row r="9" spans="1:25" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="48" t="s">
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="49"/>
-      <c r="I9" s="50"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="43"/>
       <c r="J9" s="39" t="s">
         <v>25</v>
       </c>
@@ -1820,18 +1826,18 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="20.25" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:25" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="51" t="s">
+      <c r="G10" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="65"/>
       <c r="J10" s="11"/>
       <c r="K10" s="2"/>
       <c r="L10" s="1"/>
@@ -1849,7 +1855,7 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1876,31 +1882,31 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="19.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="54" t="s">
+    <row r="12" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A12" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="59"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="56" t="s">
+      <c r="E12" s="71"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="61" t="s">
+      <c r="H12" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="56" t="s">
+      <c r="I12" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="46" t="s">
+      <c r="J12" s="61" t="s">
         <v>9</v>
       </c>
       <c r="K12" s="1"/>
@@ -1919,10 +1925,10 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="20.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="55"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
+    <row r="13" spans="1:25" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A13" s="67"/>
+      <c r="B13" s="69"/>
+      <c r="C